--- a/dataAnalysis.xlsx
+++ b/dataAnalysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30BEDB8C-8010-4E84-BF7C-367E0746758D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7FBAD82-0F32-41F5-A75A-0D98659B0437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="18192" windowHeight="11592" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -428,7 +428,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -457,36 +457,36 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1">
-        <v>40.58</v>
+        <v>50.14</v>
       </c>
       <c r="C2" s="1">
-        <v>2.09</v>
+        <v>14.19</v>
       </c>
       <c r="D2" s="1">
-        <v>0.72799999999999998</v>
+        <v>0.61699999999999999</v>
       </c>
       <c r="E2" s="1">
-        <v>0.60599999999999998</v>
+        <v>0.47099999999999997</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1">
-        <v>50.14</v>
+        <v>40.58</v>
       </c>
       <c r="C3" s="1">
-        <v>14.19</v>
+        <v>2.09</v>
       </c>
       <c r="D3" s="1">
-        <v>0.61699999999999999</v>
+        <v>0.72799999999999998</v>
       </c>
       <c r="E3" s="1">
-        <v>0.47099999999999997</v>
+        <v>0.60599999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.5">

--- a/dataAnalysis.xlsx
+++ b/dataAnalysis.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\bot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\botImpact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7FBAD82-0F32-41F5-A75A-0D98659B0437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA5B545C-8BCF-47D8-85D9-358DDFE4970E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="18192" windowHeight="11592" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,57 +25,450 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>Relation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>degree_human</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>degree_bot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Node followers</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>homophily_human</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>homophily_bot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Node following</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Node mentioning</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Node mentioner</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Node replying</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Node replyer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Node quoting</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Node quoter</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="43">
+  <si>
+    <t>Topic: Pandemic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Node Degree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Human</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>195491 Nodes, 1341914 edges</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ave In-degree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ave Out-degree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>H→H</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1222850</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Property</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Following 
+Graph</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>H→B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>38282</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B→H</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>76766</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B→B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>4016</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Topic: War</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Topic: Climate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>157029 Nodes, 796236 edges</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>H→H</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>743707</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>H→B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>16750</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B→H</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>34332</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B→B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1447</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>63865 Nodes, 407927 edges</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>H→H</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>379925</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>H→B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>9623</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B→H</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>17521</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B→B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>858</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Statistical Tests: Homophily amoung Neighboring Nodes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A→B, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>AveHomo(Bs)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H→H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B→H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t-stats</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p-value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pandemic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>War</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Climate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.0720*1e-11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NeigHScore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.9553*1e-124</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.0699*1e-92</t>
+  </si>
+  <si>
+    <t>8.0444*1e-61</t>
+  </si>
+  <si>
+    <t>Statistical Tests: Following Selection of Humans</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A→B, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>AveHomo(A, B)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H→B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FollowHScore</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -83,7 +476,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.0000_ "/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,16 +500,48 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC5F2F1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEAFAFA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -136,13 +564,130 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -151,6 +696,15 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFEAFAFA"/>
+      <color rgb="FFF8FEFE"/>
+      <color rgb="FFE7F5F5"/>
+      <color rgb="FFC5F2F1"/>
+      <color rgb="FF33CCCC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -425,173 +979,466 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="14.046875" style="1" customWidth="1"/>
-    <col min="2" max="5" width="15.19921875" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.796875" style="1"/>
+    <col min="1" max="1" width="12" style="2" customWidth="1"/>
+    <col min="2" max="4" width="15.19921875" style="2" customWidth="1"/>
+    <col min="5" max="7" width="10.69921875" style="2" customWidth="1"/>
+    <col min="8" max="9" width="16.8984375" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="8.796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="7"/>
+      <c r="E1" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="13"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="10"/>
+      <c r="E2" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="15"/>
+      <c r="G2" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.82099999999999995</v>
+      </c>
+      <c r="H3" s="18">
+        <v>23.857700000000001</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="B4" s="2">
+        <v>7.149</v>
+      </c>
+      <c r="C4" s="2">
+        <v>6.9372999999999996</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.74229999999999996</v>
+      </c>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2">
+        <v>3.0872000000000002</v>
+      </c>
+      <c r="C5" s="2">
+        <v>5.8960999999999997</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.83950000000000002</v>
+      </c>
+      <c r="H5" s="18">
+        <v>20.513400000000001</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="10"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.73529999999999995</v>
+      </c>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.78539999999999999</v>
+      </c>
+      <c r="H7" s="18">
+        <v>16.601400000000002</v>
+      </c>
+      <c r="I7" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A8" s="4"/>
+      <c r="B8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.67610000000000003</v>
+      </c>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="7"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="10"/>
+      <c r="E11" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="13"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A2" s="1" t="s">
+      <c r="C12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1">
-        <v>50.14</v>
-      </c>
-      <c r="C2" s="1">
-        <v>14.19</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0.61699999999999999</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0.47099999999999997</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A3" s="1" t="s">
+      <c r="E12" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="15"/>
+      <c r="G12" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="2">
+        <v>5.1664000000000003</v>
+      </c>
+      <c r="C13" s="2">
+        <v>5.0496999999999996</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0.60419999999999996</v>
+      </c>
+      <c r="H13" s="18">
+        <v>6.7031000000000001</v>
+      </c>
+      <c r="I13" s="18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A14" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1">
-        <v>40.58</v>
-      </c>
-      <c r="C3" s="1">
-        <v>2.09</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.72799999999999998</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0.60599999999999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1">
-        <v>13.26</v>
-      </c>
-      <c r="C4" s="1">
-        <v>5.71</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.72899999999999998</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0.57499999999999996</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A5" s="1" t="s">
+      <c r="B14" s="2">
+        <v>2.8283</v>
+      </c>
+      <c r="C14" s="2">
+        <v>5.5609000000000002</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0.56520000000000004</v>
+      </c>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A15" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1">
-        <v>15.31</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0.17</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.88800000000000001</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0.92600000000000005</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A6" s="1" t="s">
+      <c r="B15" s="9"/>
+      <c r="C15" s="10"/>
+      <c r="E15" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0.58009999999999995</v>
+      </c>
+      <c r="H15" s="18">
+        <v>2.8894000000000002</v>
+      </c>
+      <c r="I15" s="18">
+        <v>3.8999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A16" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="1">
-        <v>29.2</v>
-      </c>
-      <c r="C6" s="1">
-        <v>2.12</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0.90400000000000003</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0.88</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="1">
-        <v>29.39</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1.63</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0.94199999999999995</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0.96799999999999997</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="1">
-        <v>10</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0.89700000000000002</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0.71899999999999997</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="1">
-        <v>10.39</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0.09</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0.95799999999999996</v>
-      </c>
-      <c r="E9" s="1">
+      <c r="B16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0.5534</v>
+      </c>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A17" s="4"/>
+      <c r="B17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0.5393</v>
+      </c>
+      <c r="H17" s="18">
+        <v>1.9854000000000001</v>
+      </c>
+      <c r="I17" s="18">
+        <v>3.7600000000000001E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="E18" s="4"/>
+      <c r="F18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0.52139999999999997</v>
+      </c>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A19" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="7"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A20" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="10"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A21" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="B21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="2">
+        <v>6.5907999999999998</v>
+      </c>
+      <c r="C22" s="2">
+        <v>6.4598000000000004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="2">
+        <v>2.9424000000000001</v>
+      </c>
+      <c r="C23" s="2">
+        <v>5.1597</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A24" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="9"/>
+      <c r="C24" s="10"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A25" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A26" s="4"/>
+      <c r="B26" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="34">
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A24:C24"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/dataAnalysis.xlsx
+++ b/dataAnalysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\botImpact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA5B545C-8BCF-47D8-85D9-358DDFE4970E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42083CC1-1BDE-49AF-9C19-E679082FAAD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="18192" windowHeight="11592" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,10 +43,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>195491 Nodes, 1341914 edges</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Ave In-degree</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -172,10 +168,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>157029 Nodes, 796236 edges</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>H→H</t>
     </r>
@@ -273,10 +265,6 @@
       </rPr>
       <t>1447</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>63865 Nodes, 407927 edges</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -469,6 +457,18 @@
   </si>
   <si>
     <t>FollowHScore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>157029 Nodes, 796236 edges, 150595 human, 6434 bot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>195491 Nodes, 1341914 edges, 181790 human, 13701 bot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>63865 Nodes, 407927 edges, 60303 human, 3562 bot</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -639,12 +639,39 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -661,33 +688,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -981,8 +981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -995,37 +995,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="7"/>
-      <c r="E1" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="13"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="16"/>
+      <c r="E1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="10"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A2" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="10"/>
-      <c r="E2" s="14" t="s">
+      <c r="A2" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="19"/>
+      <c r="E2" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="12"/>
+      <c r="G2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="15"/>
-      <c r="G2" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="I2" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.5">
@@ -1033,25 +1033,25 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>31</v>
+      <c r="E3" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G3" s="2">
         <v>0.82099999999999995</v>
       </c>
-      <c r="H3" s="18">
+      <c r="H3" s="6">
         <v>23.857700000000001</v>
       </c>
-      <c r="I3" s="18" t="s">
-        <v>36</v>
+      <c r="I3" s="6" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.5">
@@ -1064,15 +1064,15 @@
       <c r="C4" s="2">
         <v>6.9372999999999996</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="5"/>
       <c r="F4" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G4" s="2">
         <v>0.74229999999999996</v>
       </c>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A5" s="2" t="s">
@@ -1084,125 +1084,125 @@
       <c r="C5" s="2">
         <v>5.8960999999999997</v>
       </c>
-      <c r="E5" s="17" t="s">
-        <v>32</v>
+      <c r="E5" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G5" s="2">
         <v>0.83950000000000002</v>
       </c>
-      <c r="H5" s="18">
+      <c r="H5" s="6">
         <v>20.513400000000001</v>
       </c>
-      <c r="I5" s="18" t="s">
-        <v>37</v>
+      <c r="I5" s="6" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A6" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
-      <c r="E6" s="4"/>
+      <c r="A6" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="18"/>
+      <c r="C6" s="19"/>
+      <c r="E6" s="5"/>
       <c r="F6" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G6" s="2">
         <v>0.73529999999999995</v>
       </c>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>33</v>
+      <c r="E7" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G7" s="2">
         <v>0.78539999999999999</v>
       </c>
-      <c r="H7" s="18">
+      <c r="H7" s="6">
         <v>16.601400000000002</v>
       </c>
-      <c r="I7" s="18" t="s">
-        <v>38</v>
+      <c r="I7" s="6" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A8" s="4"/>
+      <c r="A8" s="5"/>
       <c r="B8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="4"/>
+      <c r="E8" s="5"/>
       <c r="F8" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G8" s="2">
         <v>0.67610000000000003</v>
       </c>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="7"/>
+      <c r="A10" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="15"/>
+      <c r="C10" s="16"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A11" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="10"/>
-      <c r="E11" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="13"/>
+      <c r="A11" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="18"/>
+      <c r="C11" s="19"/>
+      <c r="E11" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="10"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12" s="15"/>
-      <c r="G12" s="16" t="s">
-        <v>42</v>
+      <c r="E12" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="12"/>
+      <c r="G12" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.5">
@@ -1215,20 +1215,20 @@
       <c r="C13" s="2">
         <v>5.0496999999999996</v>
       </c>
-      <c r="E13" s="17" t="s">
-        <v>31</v>
+      <c r="E13" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G13" s="2">
         <v>0.60419999999999996</v>
       </c>
-      <c r="H13" s="18">
+      <c r="H13" s="6">
         <v>6.7031000000000001</v>
       </c>
-      <c r="I13" s="18" t="s">
-        <v>34</v>
+      <c r="I13" s="6" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.5">
@@ -1241,116 +1241,116 @@
       <c r="C14" s="2">
         <v>5.5609000000000002</v>
       </c>
-      <c r="E14" s="4"/>
+      <c r="E14" s="5"/>
       <c r="F14" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G14" s="2">
         <v>0.56520000000000004</v>
       </c>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A15" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="10"/>
-      <c r="E15" s="17" t="s">
-        <v>32</v>
+      <c r="A15" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="18"/>
+      <c r="C15" s="19"/>
+      <c r="E15" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G15" s="2">
         <v>0.58009999999999995</v>
       </c>
-      <c r="H15" s="18">
+      <c r="H15" s="6">
         <v>2.8894000000000002</v>
       </c>
-      <c r="I15" s="18">
+      <c r="I15" s="6">
         <v>3.8999999999999998E-3</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A16" s="3" t="s">
-        <v>9</v>
+      <c r="A16" s="13" t="s">
+        <v>8</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="4"/>
+        <v>15</v>
+      </c>
+      <c r="E16" s="5"/>
       <c r="F16" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G16" s="2">
         <v>0.5534</v>
       </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A17" s="4"/>
+      <c r="A17" s="5"/>
       <c r="B17" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" s="17" t="s">
-        <v>33</v>
+        <v>17</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G17" s="2">
         <v>0.5393</v>
       </c>
-      <c r="H17" s="18">
+      <c r="H17" s="6">
         <v>1.9854000000000001</v>
       </c>
-      <c r="I17" s="18">
+      <c r="I17" s="6">
         <v>3.7600000000000001E-2</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="E18" s="4"/>
+      <c r="E18" s="5"/>
       <c r="F18" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G18" s="2">
         <v>0.52139999999999997</v>
       </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A19" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="7"/>
+      <c r="A19" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="15"/>
+      <c r="C19" s="16"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A20" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="10"/>
+      <c r="A20" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="18"/>
+      <c r="C20" s="19"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A21" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.5">
@@ -1376,52 +1376,34 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="18"/>
+      <c r="C24" s="19"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A25" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="10"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A25" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="B25" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A26" s="5"/>
+      <c r="B26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A26" s="4"/>
-      <c r="B26" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
     <mergeCell ref="E1:I1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="E3:E4"/>
@@ -1438,6 +1420,24 @@
     <mergeCell ref="A19:C19"/>
     <mergeCell ref="A20:C20"/>
     <mergeCell ref="A24:C24"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dataAnalysis.xlsx
+++ b/dataAnalysis.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\botImpact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42083CC1-1BDE-49AF-9C19-E679082FAAD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE9EA343-8952-44DD-8BF8-708DF4C4C116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="18192" windowHeight="11592" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="18192" windowHeight="11592" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Model-Free" sheetId="1" r:id="rId1"/>
+    <sheet name="Sentiment" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="51">
   <si>
     <t>Topic: Pandemic</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -469,6 +470,38 @@
   </si>
   <si>
     <t>63865 Nodes, 407927 edges, 60303 human, 3562 bot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Propagate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Neg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Treat (Human Inf)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Control (Human Inf)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Propagator Number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Treatment Effect: Naïve Approach</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -631,7 +664,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -642,31 +675,25 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -688,6 +715,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -981,8 +1026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -995,29 +1040,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="16"/>
-      <c r="E1" s="8" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="14"/>
+      <c r="E1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="10"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="6"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="19"/>
-      <c r="E2" s="11" t="s">
+      <c r="B2" s="16"/>
+      <c r="C2" s="17"/>
+      <c r="E2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="12"/>
+      <c r="F2" s="8"/>
       <c r="G2" s="3" t="s">
         <v>32</v>
       </c>
@@ -1038,7 +1083,7 @@
       <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="9" t="s">
         <v>28</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -1047,10 +1092,10 @@
       <c r="G3" s="2">
         <v>0.82099999999999995</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="18">
         <v>23.857700000000001</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="18" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1064,15 +1109,15 @@
       <c r="C4" s="2">
         <v>6.9372999999999996</v>
       </c>
-      <c r="E4" s="5"/>
+      <c r="E4" s="10"/>
       <c r="F4" s="2" t="s">
         <v>25</v>
       </c>
       <c r="G4" s="2">
         <v>0.74229999999999996</v>
       </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A5" s="2" t="s">
@@ -1084,7 +1129,7 @@
       <c r="C5" s="2">
         <v>5.8960999999999997</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="9" t="s">
         <v>29</v>
       </c>
       <c r="F5" s="2" t="s">
@@ -1093,31 +1138,31 @@
       <c r="G5" s="2">
         <v>0.83950000000000002</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="18">
         <v>20.513400000000001</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="18" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="19"/>
-      <c r="E6" s="5"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="17"/>
+      <c r="E6" s="10"/>
       <c r="F6" s="2" t="s">
         <v>25</v>
       </c>
       <c r="G6" s="2">
         <v>0.73529999999999995</v>
       </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1126,7 +1171,7 @@
       <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="9" t="s">
         <v>30</v>
       </c>
       <c r="F7" s="2" t="s">
@@ -1135,51 +1180,51 @@
       <c r="G7" s="2">
         <v>0.78539999999999999</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="18">
         <v>16.601400000000002</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="18" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A8" s="5"/>
+      <c r="A8" s="10"/>
       <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="5"/>
+      <c r="E8" s="10"/>
       <c r="F8" s="2" t="s">
         <v>25</v>
       </c>
       <c r="G8" s="2">
         <v>0.67610000000000003</v>
       </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="16"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="19"/>
-      <c r="E11" s="8" t="s">
+      <c r="B11" s="16"/>
+      <c r="C11" s="17"/>
+      <c r="E11" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="10"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="6"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A12" s="1" t="s">
@@ -1191,10 +1236,10 @@
       <c r="C12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="12"/>
+      <c r="F12" s="8"/>
       <c r="G12" s="3" t="s">
         <v>39</v>
       </c>
@@ -1215,7 +1260,7 @@
       <c r="C13" s="2">
         <v>5.0496999999999996</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="9" t="s">
         <v>28</v>
       </c>
       <c r="F13" s="2" t="s">
@@ -1224,10 +1269,10 @@
       <c r="G13" s="2">
         <v>0.60419999999999996</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="18">
         <v>6.7031000000000001</v>
       </c>
-      <c r="I13" s="6" t="s">
+      <c r="I13" s="18" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1241,23 +1286,23 @@
       <c r="C14" s="2">
         <v>5.5609000000000002</v>
       </c>
-      <c r="E14" s="5"/>
+      <c r="E14" s="10"/>
       <c r="F14" s="2" t="s">
         <v>38</v>
       </c>
       <c r="G14" s="2">
         <v>0.56520000000000004</v>
       </c>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="19"/>
-      <c r="E15" s="4" t="s">
+      <c r="B15" s="16"/>
+      <c r="C15" s="17"/>
+      <c r="E15" s="9" t="s">
         <v>29</v>
       </c>
       <c r="F15" s="2" t="s">
@@ -1266,15 +1311,15 @@
       <c r="G15" s="2">
         <v>0.58009999999999995</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15" s="18">
         <v>2.8894000000000002</v>
       </c>
-      <c r="I15" s="6">
+      <c r="I15" s="18">
         <v>3.8999999999999998E-3</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -1283,25 +1328,25 @@
       <c r="C16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="5"/>
+      <c r="E16" s="10"/>
       <c r="F16" s="2" t="s">
         <v>25</v>
       </c>
       <c r="G16" s="2">
         <v>0.5534</v>
       </c>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A17" s="5"/>
+      <c r="A17" s="10"/>
       <c r="B17" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="9" t="s">
         <v>30</v>
       </c>
       <c r="F17" s="2" t="s">
@@ -1310,37 +1355,37 @@
       <c r="G17" s="2">
         <v>0.5393</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H17" s="18">
         <v>1.9854000000000001</v>
       </c>
-      <c r="I17" s="6">
+      <c r="I17" s="18">
         <v>3.7600000000000001E-2</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="E18" s="5"/>
+      <c r="E18" s="10"/>
       <c r="F18" s="2" t="s">
         <v>25</v>
       </c>
       <c r="G18" s="2">
         <v>0.52139999999999997</v>
       </c>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="16"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="14"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="18"/>
-      <c r="C20" s="19"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="17"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A21" s="1" t="s">
@@ -1376,14 +1421,14 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A24" s="17" t="s">
+      <c r="A24" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="18"/>
-      <c r="C24" s="19"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="17"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -1394,7 +1439,7 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A26" s="5"/>
+      <c r="A26" s="10"/>
       <c r="B26" s="2" t="s">
         <v>20</v>
       </c>
@@ -1404,6 +1449,24 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
     <mergeCell ref="E1:I1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="E3:E4"/>
@@ -1420,24 +1483,238 @@
     <mergeCell ref="A19:C19"/>
     <mergeCell ref="A20:C20"/>
     <mergeCell ref="A24:C24"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2687A086-E6AD-4DC9-8E6D-5E9AEFD1DED8}">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="2" width="8.796875" style="20"/>
+    <col min="3" max="4" width="16.94921875" style="20" customWidth="1"/>
+    <col min="5" max="16384" width="8.796875" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A1" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="23"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A2" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A3" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="20">
+        <v>34169</v>
+      </c>
+      <c r="D3" s="20">
+        <v>2460</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A4" s="10"/>
+      <c r="B4" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="20">
+        <v>17553</v>
+      </c>
+      <c r="D4" s="20">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="20">
+        <v>19922</v>
+      </c>
+      <c r="D5" s="20">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A6" s="10"/>
+      <c r="B6" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="20">
+        <v>40701</v>
+      </c>
+      <c r="D6" s="20">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A7" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="20">
+        <v>13377</v>
+      </c>
+      <c r="D7" s="20">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A8" s="10"/>
+      <c r="B8" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="20">
+        <v>4945</v>
+      </c>
+      <c r="D8" s="20">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A10" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="23"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A11" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A12" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="20">
+        <v>0.1487</v>
+      </c>
+      <c r="D12" s="20">
+        <v>0.20519999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A13" s="10"/>
+      <c r="B13" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="20">
+        <v>6.1600000000000002E-2</v>
+      </c>
+      <c r="D13" s="20">
+        <v>3.2000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A14" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="20">
+        <v>-0.11269999999999999</v>
+      </c>
+      <c r="D14" s="20">
+        <v>-8.3900000000000002E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A15" s="10"/>
+      <c r="B15" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="20">
+        <v>-0.17510000000000001</v>
+      </c>
+      <c r="D15" s="20">
+        <v>-0.2681</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A16" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="20">
+        <v>0.2175</v>
+      </c>
+      <c r="D16" s="20">
+        <v>0.1537</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A17" s="10"/>
+      <c r="B17" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="20">
+        <v>0.11890000000000001</v>
+      </c>
+      <c r="D17" s="20">
+        <v>0.1953</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dataAnalysis.xlsx
+++ b/dataAnalysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\botImpact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE9EA343-8952-44DD-8BF8-708DF4C4C116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD4BF5EB-C8B3-4888-B735-8EAA4BD14353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="18192" windowHeight="11592" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Model-Free" sheetId="1" r:id="rId1"/>
     <sheet name="Sentiment" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="56">
   <si>
     <t>Topic: Pandemic</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -493,15 +493,195 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Control (Human Inf)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Propagator Number</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Treatment Effect: Naïve Approach</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Control (Bot Inf)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Human</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>传播</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Pos</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>观点影响小于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Bot</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Human</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>传播</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Neg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>观点影响小于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Bot</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Human</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>传播</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Pos</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>观点影响大于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Bot</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Human</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>传播</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Neg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>观点影响大于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Bot</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -664,7 +844,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -675,6 +855,21 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -688,12 +883,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -717,23 +906,17 @@
     <xf numFmtId="176" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1027,7 +1210,7 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13:E18"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -1040,29 +1223,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="14"/>
-      <c r="E1" s="4" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="17"/>
+      <c r="E1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="6"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="11"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="17"/>
-      <c r="E2" s="7" t="s">
+      <c r="B2" s="19"/>
+      <c r="C2" s="20"/>
+      <c r="E2" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="8"/>
+      <c r="F2" s="13"/>
       <c r="G2" s="3" t="s">
         <v>32</v>
       </c>
@@ -1083,7 +1266,7 @@
       <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -1092,10 +1275,10 @@
       <c r="G3" s="2">
         <v>0.82099999999999995</v>
       </c>
-      <c r="H3" s="18">
+      <c r="H3" s="7">
         <v>23.857700000000001</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="I3" s="7" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1109,15 +1292,15 @@
       <c r="C4" s="2">
         <v>6.9372999999999996</v>
       </c>
-      <c r="E4" s="10"/>
+      <c r="E4" s="6"/>
       <c r="F4" s="2" t="s">
         <v>25</v>
       </c>
       <c r="G4" s="2">
         <v>0.74229999999999996</v>
       </c>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A5" s="2" t="s">
@@ -1129,7 +1312,7 @@
       <c r="C5" s="2">
         <v>5.8960999999999997</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="5" t="s">
         <v>29</v>
       </c>
       <c r="F5" s="2" t="s">
@@ -1138,31 +1321,31 @@
       <c r="G5" s="2">
         <v>0.83950000000000002</v>
       </c>
-      <c r="H5" s="18">
+      <c r="H5" s="7">
         <v>20.513400000000001</v>
       </c>
-      <c r="I5" s="18" t="s">
+      <c r="I5" s="7" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="17"/>
-      <c r="E6" s="10"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="20"/>
+      <c r="E6" s="6"/>
       <c r="F6" s="2" t="s">
         <v>25</v>
       </c>
       <c r="G6" s="2">
         <v>0.73529999999999995</v>
       </c>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="14" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1171,7 +1354,7 @@
       <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="5" t="s">
         <v>30</v>
       </c>
       <c r="F7" s="2" t="s">
@@ -1180,51 +1363,51 @@
       <c r="G7" s="2">
         <v>0.78539999999999999</v>
       </c>
-      <c r="H7" s="18">
+      <c r="H7" s="7">
         <v>16.601400000000002</v>
       </c>
-      <c r="I7" s="18" t="s">
+      <c r="I7" s="7" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A8" s="10"/>
+      <c r="A8" s="6"/>
       <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="10"/>
+      <c r="E8" s="6"/>
       <c r="F8" s="2" t="s">
         <v>25</v>
       </c>
       <c r="G8" s="2">
         <v>0.67610000000000003</v>
       </c>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="14"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="17"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="17"/>
-      <c r="E11" s="4" t="s">
+      <c r="B11" s="19"/>
+      <c r="C11" s="20"/>
+      <c r="E11" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="6"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="11"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A12" s="1" t="s">
@@ -1236,10 +1419,10 @@
       <c r="C12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="8"/>
+      <c r="F12" s="13"/>
       <c r="G12" s="3" t="s">
         <v>39</v>
       </c>
@@ -1260,7 +1443,7 @@
       <c r="C13" s="2">
         <v>5.0496999999999996</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F13" s="2" t="s">
@@ -1269,10 +1452,10 @@
       <c r="G13" s="2">
         <v>0.60419999999999996</v>
       </c>
-      <c r="H13" s="18">
+      <c r="H13" s="7">
         <v>6.7031000000000001</v>
       </c>
-      <c r="I13" s="18" t="s">
+      <c r="I13" s="7" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1286,23 +1469,23 @@
       <c r="C14" s="2">
         <v>5.5609000000000002</v>
       </c>
-      <c r="E14" s="10"/>
+      <c r="E14" s="6"/>
       <c r="F14" s="2" t="s">
         <v>38</v>
       </c>
       <c r="G14" s="2">
         <v>0.56520000000000004</v>
       </c>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="17"/>
-      <c r="E15" s="9" t="s">
+      <c r="B15" s="19"/>
+      <c r="C15" s="20"/>
+      <c r="E15" s="5" t="s">
         <v>29</v>
       </c>
       <c r="F15" s="2" t="s">
@@ -1311,15 +1494,15 @@
       <c r="G15" s="2">
         <v>0.58009999999999995</v>
       </c>
-      <c r="H15" s="18">
+      <c r="H15" s="7">
         <v>2.8894000000000002</v>
       </c>
-      <c r="I15" s="18">
+      <c r="I15" s="7">
         <v>3.8999999999999998E-3</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="14" t="s">
         <v>8</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -1328,25 +1511,25 @@
       <c r="C16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="10"/>
+      <c r="E16" s="6"/>
       <c r="F16" s="2" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="G16" s="2">
         <v>0.5534</v>
       </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A17" s="10"/>
+      <c r="A17" s="6"/>
       <c r="B17" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="5" t="s">
         <v>30</v>
       </c>
       <c r="F17" s="2" t="s">
@@ -1355,37 +1538,37 @@
       <c r="G17" s="2">
         <v>0.5393</v>
       </c>
-      <c r="H17" s="18">
+      <c r="H17" s="7">
         <v>1.9854000000000001</v>
       </c>
-      <c r="I17" s="18">
+      <c r="I17" s="7">
         <v>3.7600000000000001E-2</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="E18" s="10"/>
+      <c r="E18" s="6"/>
       <c r="F18" s="2" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="G18" s="2">
         <v>0.52139999999999997</v>
       </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="14"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="17"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="16"/>
-      <c r="C20" s="17"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="20"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A21" s="1" t="s">
@@ -1421,14 +1604,14 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="16"/>
-      <c r="C24" s="17"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="20"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="14" t="s">
         <v>8</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -1439,7 +1622,7 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A26" s="10"/>
+      <c r="A26" s="6"/>
       <c r="B26" s="2" t="s">
         <v>20</v>
       </c>
@@ -1449,24 +1632,6 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
     <mergeCell ref="E1:I1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="E3:E4"/>
@@ -1483,6 +1648,24 @@
     <mergeCell ref="A19:C19"/>
     <mergeCell ref="A20:C20"/>
     <mergeCell ref="A24:C24"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1492,217 +1675,264 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2687A086-E6AD-4DC9-8E6D-5E9AEFD1DED8}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="2" width="8.796875" style="20"/>
-    <col min="3" max="4" width="16.94921875" style="20" customWidth="1"/>
-    <col min="5" max="16384" width="8.796875" style="20"/>
+    <col min="1" max="2" width="8.796875" style="4"/>
+    <col min="3" max="4" width="16.94921875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="8.796875" style="4"/>
+    <col min="6" max="6" width="18.046875" style="4" customWidth="1"/>
+    <col min="7" max="16384" width="8.796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A1" s="21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
       <c r="D1" s="23"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A2" s="20" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A2" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="4">
         <v>34169</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="4">
         <v>2460</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A4" s="10"/>
-      <c r="B4" s="20" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A4" s="6"/>
+      <c r="B4" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="4">
         <v>17553</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="4">
         <v>1038</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A5" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="4">
         <v>19922</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="4">
         <v>777</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A6" s="10"/>
-      <c r="B6" s="20" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A6" s="6"/>
+      <c r="B6" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="4">
         <v>40701</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="4">
         <v>1267</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A7" s="9" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A7" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="4">
         <v>13377</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="4">
         <v>736</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A8" s="10"/>
-      <c r="B8" s="20" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A8" s="6"/>
+      <c r="B8" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="4">
         <v>4945</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="4">
         <v>227</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A10" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B10" s="22"/>
       <c r="C10" s="22"/>
       <c r="D10" s="23"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A11" s="20" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A11" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="20" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A12" s="9" t="s">
+      <c r="D11" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A12" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="4">
         <v>0.1487</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="4">
         <v>0.20519999999999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A13" s="10"/>
-      <c r="B13" s="20" t="s">
+      <c r="E12" s="4">
+        <f>C12-D12</f>
+        <v>-5.6499999999999995E-2</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A13" s="6"/>
+      <c r="B13" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="4">
         <v>6.1600000000000002E-2</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13" s="4">
         <v>3.2000000000000002E-3</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A14" s="9" t="s">
+      <c r="E13" s="4">
+        <f t="shared" ref="E13:E17" si="0">C13-D13</f>
+        <v>5.8400000000000001E-2</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A14" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="4">
         <v>-0.11269999999999999</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="4">
         <v>-8.3900000000000002E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A15" s="10"/>
-      <c r="B15" s="20" t="s">
+      <c r="E14" s="4">
+        <f t="shared" si="0"/>
+        <v>-2.8799999999999992E-2</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A15" s="6"/>
+      <c r="B15" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C15" s="4">
         <v>-0.17510000000000001</v>
       </c>
-      <c r="D15" s="20">
+      <c r="D15" s="4">
         <v>-0.2681</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A16" s="9" t="s">
+      <c r="E15" s="4">
+        <f t="shared" si="0"/>
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="F15" s="24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A16" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="20">
+      <c r="C16" s="4">
         <v>0.2175</v>
       </c>
-      <c r="D16" s="20">
+      <c r="D16" s="4">
         <v>0.1537</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A17" s="10"/>
-      <c r="B17" s="20" t="s">
+      <c r="E16" s="4">
+        <f t="shared" si="0"/>
+        <v>6.3799999999999996E-2</v>
+      </c>
+      <c r="F16" s="24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A17" s="6"/>
+      <c r="B17" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="20">
+      <c r="C17" s="4">
         <v>0.11890000000000001</v>
       </c>
-      <c r="D17" s="20">
+      <c r="D17" s="4">
         <v>0.1953</v>
+      </c>
+      <c r="E17" s="4">
+        <f t="shared" si="0"/>
+        <v>-7.6399999999999996E-2</v>
+      </c>
+      <c r="F17" s="24" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/dataAnalysis.xlsx
+++ b/dataAnalysis.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\botImpact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD4BF5EB-C8B3-4888-B735-8EAA4BD14353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E1D41B4-9307-437D-80D7-C4B9CA4E2137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="18192" windowHeight="11592" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Model-Free" sheetId="1" r:id="rId1"/>
+    <sheet name="ModelFreeEvidence" sheetId="1" r:id="rId1"/>
     <sheet name="Sentiment" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -26,11 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="56">
-  <si>
-    <t>Topic: Pandemic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="70">
   <si>
     <t>Node Degree</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -161,14 +157,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Topic: War</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Topic: Climate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>H→H</t>
     </r>
@@ -369,10 +357,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Statistical Tests: Homophily amoung Neighboring Nodes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">A→B, </t>
     </r>
@@ -497,10 +481,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Treatment Effect: Naïve Approach</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -682,6 +662,384 @@
       </rPr>
       <t>Bot</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Pos</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>估计</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Neg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>估计</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Pandemic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>War</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Bot</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>影响大于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Human</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，而</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Climate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Bot</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>小于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Human</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>差距增大，算法觉得Human的影响应该更小而Bot的影响应该更大些</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区别翻转，算法觉得Human的影响应该更小而Bot的影响应该更大些</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>因为网络更大，训练的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>epoch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>需要比模拟数据更多</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>差距增大，算法觉得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Human</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>影响应该更小而</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Bot</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的影响应该更大些</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>区别翻转，算法觉得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Human</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>影响应该更小而</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Bot</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的影响应该更大些</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>差距增大，算法觉得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Bot</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的影响应该更大些</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Threshold</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：0.8, -0.8</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Topic: Pandemic [Tweet: 1208982]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Topic: War [Tweet: 2299370]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Topic: Climate [Tweet: 373795]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三个数据集表头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以再成表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表格内容可变成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柱状图(433030)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表格形式呈现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Statistical Tests: Homophily among Neighboring Nodes</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -692,7 +1050,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0000_ "/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -733,8 +1091,77 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCC0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFCC0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCC0000"/>
+      <name val="宋体"/>
+      <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -753,8 +1180,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -840,11 +1273,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -858,31 +1302,55 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -906,6 +1374,12 @@
     <xf numFmtId="176" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -915,7 +1389,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="15" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="15" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -926,6 +1406,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
+      <color rgb="FFCC0000"/>
       <color rgb="FFEAFAFA"/>
       <color rgb="FFF8FEFE"/>
       <color rgb="FFE7F5F5"/>
@@ -1207,84 +1689,94 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="12" style="2" customWidth="1"/>
-    <col min="2" max="4" width="15.19921875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="12.546875" style="2" customWidth="1"/>
+    <col min="2" max="3" width="20.796875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.19921875" style="2" customWidth="1"/>
     <col min="5" max="7" width="10.69921875" style="2" customWidth="1"/>
     <col min="8" max="9" width="16.8984375" style="2" customWidth="1"/>
     <col min="10" max="16384" width="8.796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A1" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="17"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A2" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="27"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="19"/>
+      <c r="G2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="36" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="17"/>
-      <c r="E1" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="11"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A2" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="20"/>
-      <c r="E2" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="13"/>
-      <c r="G2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>28</v>
+      <c r="E3" s="20" t="s">
+        <v>24</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G3" s="2">
         <v>0.82099999999999995</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="29">
         <v>23.857700000000001</v>
       </c>
-      <c r="I3" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="I3" s="29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A4" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="2">
         <v>7.149</v>
@@ -1292,19 +1784,22 @@
       <c r="C4" s="2">
         <v>6.9372999999999996</v>
       </c>
-      <c r="E4" s="6"/>
+      <c r="D4" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="21"/>
       <c r="F4" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G4" s="2">
         <v>0.74229999999999996</v>
       </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A5" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="2">
         <v>3.0872000000000002</v>
@@ -1312,130 +1807,133 @@
       <c r="C5" s="2">
         <v>5.8960999999999997</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>29</v>
+      <c r="D5" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>25</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G5" s="2">
         <v>0.83950000000000002</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="29">
         <v>20.513400000000001</v>
       </c>
-      <c r="I5" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A6" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="20"/>
-      <c r="E6" s="6"/>
+      <c r="I5" s="29" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A6" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="27"/>
+      <c r="C6" s="28"/>
+      <c r="E6" s="21"/>
       <c r="F6" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G6" s="2">
         <v>0.73529999999999995</v>
       </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A7" s="14" t="s">
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A7" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>30</v>
+      <c r="E7" s="20" t="s">
+        <v>26</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G7" s="2">
         <v>0.78539999999999999</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="29">
         <v>16.601400000000002</v>
       </c>
-      <c r="I7" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A8" s="6"/>
+      <c r="I7" s="29" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A8" s="21"/>
       <c r="B8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="6"/>
+      <c r="E8" s="21"/>
       <c r="F8" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G8" s="2">
         <v>0.67610000000000003</v>
       </c>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A10" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="17"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A11" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="20"/>
-      <c r="E11" s="9" t="s">
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A10" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="24"/>
+      <c r="C10" s="25"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A11" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="11"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="B11" s="27"/>
+      <c r="C11" s="28"/>
+      <c r="E11" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="17"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="19"/>
+      <c r="G12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A13" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" s="13"/>
-      <c r="G12" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A13" s="2" t="s">
-        <v>2</v>
       </c>
       <c r="B13" s="2">
         <v>5.1664000000000003</v>
@@ -1443,25 +1941,25 @@
       <c r="C13" s="2">
         <v>5.0496999999999996</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>28</v>
+      <c r="E13" s="20" t="s">
+        <v>24</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G13" s="2">
         <v>0.60419999999999996</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="29">
         <v>6.7031000000000001</v>
       </c>
-      <c r="I13" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="I13" s="29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A14" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B14" s="2">
         <v>2.8283</v>
@@ -1469,121 +1967,121 @@
       <c r="C14" s="2">
         <v>5.5609000000000002</v>
       </c>
-      <c r="E14" s="6"/>
+      <c r="E14" s="21"/>
       <c r="F14" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G14" s="2">
         <v>0.56520000000000004</v>
       </c>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A15" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="20"/>
-      <c r="E15" s="5" t="s">
-        <v>29</v>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A15" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="27"/>
+      <c r="C15" s="28"/>
+      <c r="E15" s="20" t="s">
+        <v>25</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G15" s="2">
         <v>0.58009999999999995</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="29">
         <v>2.8894000000000002</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I15" s="29">
         <v>3.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A16" s="14" t="s">
-        <v>8</v>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A16" s="22" t="s">
+        <v>7</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="E16" s="21"/>
       <c r="F16" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G16" s="2">
         <v>0.5534</v>
       </c>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A17" s="6"/>
+      <c r="A17" s="21"/>
       <c r="B17" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>30</v>
+        <v>14</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>26</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G17" s="2">
         <v>0.5393</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="29">
         <v>1.9854000000000001</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I17" s="29">
         <v>3.7600000000000001E-2</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="E18" s="6"/>
+      <c r="E18" s="21"/>
       <c r="F18" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G18" s="2">
         <v>0.52139999999999997</v>
       </c>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A19" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="16"/>
-      <c r="C19" s="17"/>
+      <c r="A19" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" s="24"/>
+      <c r="C19" s="25"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A20" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" s="19"/>
-      <c r="C20" s="20"/>
+      <c r="A20" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="27"/>
+      <c r="C20" s="28"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A21" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A22" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B22" s="2">
         <v>6.5907999999999998</v>
@@ -1594,7 +2092,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A23" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B23" s="2">
         <v>2.9424000000000001</v>
@@ -1604,34 +2102,52 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A24" s="18" t="s">
+      <c r="A24" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="27"/>
+      <c r="C24" s="28"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A25" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="19"/>
-      <c r="C24" s="20"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A25" s="14" t="s">
-        <v>8</v>
-      </c>
       <c r="B25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A26" s="21"/>
+      <c r="B26" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A26" s="6"/>
-      <c r="B26" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
     <mergeCell ref="E1:I1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="E3:E4"/>
@@ -1648,24 +2164,6 @@
     <mergeCell ref="A19:C19"/>
     <mergeCell ref="A20:C20"/>
     <mergeCell ref="A24:C24"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1675,10 +2173,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2687A086-E6AD-4DC9-8E6D-5E9AEFD1DED8}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -1690,261 +2188,375 @@
     <col min="7" max="16384" width="8.796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A1" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="23"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A1" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A2" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A3" s="5" t="s">
-        <v>28</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A3" s="20" t="s">
+        <v>24</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="4">
+        <v>2460</v>
+      </c>
+      <c r="D3" s="4">
+        <v>34169</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A4" s="21"/>
+      <c r="B4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1038</v>
+      </c>
+      <c r="D4" s="4">
+        <v>17553</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A5" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="4">
+        <v>777</v>
+      </c>
+      <c r="D5" s="4">
+        <v>19922</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A6" s="21"/>
+      <c r="B6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1267</v>
+      </c>
+      <c r="D6" s="4">
+        <v>40701</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A7" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="4">
+        <v>736</v>
+      </c>
+      <c r="D7" s="4">
+        <v>13377</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A8" s="21"/>
+      <c r="B8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="4">
+        <v>227</v>
+      </c>
+      <c r="D8" s="4">
+        <v>4945</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="4">
-        <v>34169</v>
-      </c>
-      <c r="D3" s="4">
-        <v>2460</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A4" s="6"/>
-      <c r="B4" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="4">
-        <v>17553</v>
-      </c>
-      <c r="D4" s="4">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A5" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="4">
-        <v>19922</v>
-      </c>
-      <c r="D5" s="4">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A6" s="6"/>
-      <c r="B6" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="4">
-        <v>40701</v>
-      </c>
-      <c r="D6" s="4">
-        <v>1267</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A7" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="4">
-        <v>13377</v>
-      </c>
-      <c r="D7" s="4">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A8" s="6"/>
-      <c r="B8" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="4">
-        <v>4945</v>
-      </c>
-      <c r="D8" s="4">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A10" s="21" t="s">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A11" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="7">
+        <v>0.20519999999999999</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0.1487</v>
+      </c>
+      <c r="E11" s="2">
+        <f>D11-C11</f>
+        <v>-5.6499999999999995E-2</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A12" s="34"/>
+      <c r="B12" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="12">
+        <v>0.2326</v>
+      </c>
+      <c r="D12" s="13">
+        <v>0.14749999999999999</v>
+      </c>
+      <c r="E12" s="2">
+        <v>-8.5099999999999995E-2</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A13" s="34"/>
+      <c r="B13" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="9">
+        <v>3.2000000000000002E-3</v>
+      </c>
+      <c r="D13" s="10">
+        <v>6.1600000000000002E-2</v>
+      </c>
+      <c r="E13" s="2">
+        <f>D13-C13</f>
+        <v>5.8400000000000001E-2</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A14" s="21"/>
+      <c r="B14" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="9">
+        <v>-1.2999999999999999E-3</v>
+      </c>
+      <c r="D14" s="10">
+        <v>0.1249</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0.14080000000000001</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A15" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="7">
+        <v>-8.3900000000000002E-2</v>
+      </c>
+      <c r="D15" s="8">
+        <v>-0.11269999999999999</v>
+      </c>
+      <c r="E15" s="2">
+        <f>D15-C15</f>
+        <v>-2.8799999999999992E-2</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A16" s="34"/>
+      <c r="B16" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="7">
+        <v>-5.0999999999999997E-2</v>
+      </c>
+      <c r="D16" s="8">
+        <v>-0.11840000000000001</v>
+      </c>
+      <c r="E16" s="2">
+        <v>-6.7400000000000002E-2</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A17" s="34"/>
+      <c r="B17" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="9">
+        <v>-0.2681</v>
+      </c>
+      <c r="D17" s="10">
+        <v>-0.17510000000000001</v>
+      </c>
+      <c r="E17" s="2">
+        <f>D17-C17</f>
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A18" s="21"/>
+      <c r="B18" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="9">
+        <v>-0.31459999999999999</v>
+      </c>
+      <c r="D18" s="10">
+        <v>-6.2700000000000006E-2</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0.25180000000000002</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A19" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="8">
+        <v>0.1537</v>
+      </c>
+      <c r="D19" s="7">
+        <v>0.2175</v>
+      </c>
+      <c r="E19" s="2">
+        <f>D19-C19</f>
+        <v>6.3799999999999996E-2</v>
+      </c>
+      <c r="F19" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="23"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A11" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" s="4" t="s">
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A20" s="34"/>
+      <c r="B20" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="C20" s="8">
+        <v>0.17810000000000001</v>
+      </c>
+      <c r="D20" s="7">
+        <v>0.15720000000000001</v>
+      </c>
+      <c r="E20" s="2">
+        <v>-2.0899999999999998E-2</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A21" s="34"/>
+      <c r="B21" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="10">
+        <v>0.1953</v>
+      </c>
+      <c r="D21" s="9">
+        <v>0.11890000000000001</v>
+      </c>
+      <c r="E21" s="2">
+        <f>D21-C21</f>
+        <v>-7.6399999999999996E-2</v>
+      </c>
+      <c r="F21" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A12" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="4">
-        <v>0.1487</v>
-      </c>
-      <c r="D12" s="4">
-        <v>0.20519999999999999</v>
-      </c>
-      <c r="E12" s="4">
-        <f>C12-D12</f>
-        <v>-5.6499999999999995E-2</v>
-      </c>
-      <c r="F12" s="24" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A22" s="21"/>
+      <c r="B22" s="4" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A13" s="6"/>
-      <c r="B13" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="4">
-        <v>6.1600000000000002E-2</v>
-      </c>
-      <c r="D13" s="4">
-        <v>3.2000000000000002E-3</v>
-      </c>
-      <c r="E13" s="4">
-        <f t="shared" ref="E13:E17" si="0">C13-D13</f>
-        <v>5.8400000000000001E-2</v>
-      </c>
-      <c r="F13" s="24" t="s">
+      <c r="C22" s="10">
+        <v>0.14760000000000001</v>
+      </c>
+      <c r="D22" s="9">
+        <v>0.23960000000000001</v>
+      </c>
+      <c r="E22" s="2">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="C27" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A14" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="4">
-        <v>-0.11269999999999999</v>
-      </c>
-      <c r="D14" s="4">
-        <v>-8.3900000000000002E-2</v>
-      </c>
-      <c r="E14" s="4">
-        <f t="shared" si="0"/>
-        <v>-2.8799999999999992E-2</v>
-      </c>
-      <c r="F14" s="24" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A15" s="6"/>
-      <c r="B15" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="4">
-        <v>-0.17510000000000001</v>
-      </c>
-      <c r="D15" s="4">
-        <v>-0.2681</v>
-      </c>
-      <c r="E15" s="4">
-        <f t="shared" si="0"/>
-        <v>9.2999999999999999E-2</v>
-      </c>
-      <c r="F15" s="24" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A16" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="4">
-        <v>0.2175</v>
-      </c>
-      <c r="D16" s="4">
-        <v>0.1537</v>
-      </c>
-      <c r="E16" s="4">
-        <f t="shared" si="0"/>
-        <v>6.3799999999999996E-2</v>
-      </c>
-      <c r="F16" s="24" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A17" s="6"/>
-      <c r="B17" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="4">
-        <v>0.11890000000000001</v>
-      </c>
-      <c r="D17" s="4">
-        <v>0.1953</v>
-      </c>
-      <c r="E17" s="4">
-        <f t="shared" si="0"/>
-        <v>-7.6399999999999996E-2</v>
-      </c>
-      <c r="F17" s="24" t="s">
-        <v>55</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A10:D10"/>
+  <mergeCells count="7">
+    <mergeCell ref="A19:A22"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A11:A14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dataAnalysis.xlsx
+++ b/dataAnalysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\botImpact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E1D41B4-9307-437D-80D7-C4B9CA4E2137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BF33C1E-D01D-42E8-BCC5-935CDC966C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="18192" windowHeight="11592" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="73">
   <si>
     <t>Node Degree</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -465,14 +465,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Pos</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Neg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Treat (Human Inf)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -481,10 +473,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Control (Bot Inf)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -666,38 +654,6 @@
   </si>
   <si>
     <r>
-      <t>Pos</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>估计</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Neg</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>估计</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>Pandemic</t>
     </r>
     <r>
@@ -1040,6 +996,84 @@
   </si>
   <si>
     <t>Statistical Tests: Homophily among Neighboring Nodes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Naïve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Adversarial Balancing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Method</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect (Human-Bot)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Model Estimation: Average Opinion Surrounded the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>'Positive'</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Influence Sources</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Model Estimation: Average Opinion Surrounded the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>'Negative'</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Influence Sources</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Positive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Negative</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1050,7 +1084,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0000_ "/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1160,8 +1194,16 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1186,8 +1228,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE7F5F5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1273,22 +1321,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1323,15 +1360,30 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="15" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="15" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1345,12 +1397,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1374,29 +1420,23 @@
     <xf numFmtId="176" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="15" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="15" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1406,12 +1446,12 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFE7F5F5"/>
+      <color rgb="FFC5F2F1"/>
       <color rgb="FF0000FF"/>
       <color rgb="FFCC0000"/>
       <color rgb="FFEAFAFA"/>
       <color rgb="FFF8FEFE"/>
-      <color rgb="FFE7F5F5"/>
-      <color rgb="FFC5F2F1"/>
       <color rgb="FF33CCCC"/>
     </mruColors>
   </colors>
@@ -1692,7 +1732,7 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -1706,35 +1746,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A1" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="35" t="s">
+      <c r="A1" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="17"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="22"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="E2" s="18" t="s">
+      <c r="B2" s="30"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="19"/>
+      <c r="F2" s="24"/>
       <c r="G2" s="3" t="s">
         <v>28</v>
       </c>
@@ -1744,8 +1784,8 @@
       <c r="I2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="36" t="s">
-        <v>68</v>
+      <c r="J2" s="15" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.5">
@@ -1758,7 +1798,7 @@
       <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="16" t="s">
         <v>24</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -1767,10 +1807,10 @@
       <c r="G3" s="2">
         <v>0.82099999999999995</v>
       </c>
-      <c r="H3" s="29">
+      <c r="H3" s="18">
         <v>23.857700000000001</v>
       </c>
-      <c r="I3" s="29" t="s">
+      <c r="I3" s="18" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1784,18 +1824,18 @@
       <c r="C4" s="2">
         <v>6.9372999999999996</v>
       </c>
-      <c r="D4" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="E4" s="21"/>
+      <c r="D4" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="17"/>
       <c r="F4" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G4" s="2">
         <v>0.74229999999999996</v>
       </c>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A5" s="2" t="s">
@@ -1807,10 +1847,10 @@
       <c r="C5" s="2">
         <v>5.8960999999999997</v>
       </c>
-      <c r="D5" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="E5" s="20" t="s">
+      <c r="D5" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" s="16" t="s">
         <v>25</v>
       </c>
       <c r="F5" s="2" t="s">
@@ -1819,31 +1859,31 @@
       <c r="G5" s="2">
         <v>0.83950000000000002</v>
       </c>
-      <c r="H5" s="29">
+      <c r="H5" s="18">
         <v>20.513400000000001</v>
       </c>
-      <c r="I5" s="29" t="s">
+      <c r="I5" s="18" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="28"/>
-      <c r="E6" s="21"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="31"/>
+      <c r="E6" s="17"/>
       <c r="F6" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G6" s="2">
         <v>0.73529999999999995</v>
       </c>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="25" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1852,7 +1892,7 @@
       <c r="C7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="16" t="s">
         <v>26</v>
       </c>
       <c r="F7" s="2" t="s">
@@ -1861,51 +1901,51 @@
       <c r="G7" s="2">
         <v>0.78539999999999999</v>
       </c>
-      <c r="H7" s="29">
+      <c r="H7" s="18">
         <v>16.601400000000002</v>
       </c>
-      <c r="I7" s="29" t="s">
+      <c r="I7" s="18" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A8" s="21"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="21"/>
+      <c r="E8" s="17"/>
       <c r="F8" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G8" s="2">
         <v>0.67610000000000003</v>
       </c>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A10" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="25"/>
+      <c r="A10" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="27"/>
+      <c r="C10" s="28"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="27"/>
-      <c r="C11" s="28"/>
-      <c r="E11" s="15" t="s">
+      <c r="B11" s="30"/>
+      <c r="C11" s="31"/>
+      <c r="E11" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="17"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="22"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A12" s="1" t="s">
@@ -1917,10 +1957,10 @@
       <c r="C12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="19"/>
+      <c r="F12" s="24"/>
       <c r="G12" s="3" t="s">
         <v>35</v>
       </c>
@@ -1941,7 +1981,7 @@
       <c r="C13" s="2">
         <v>5.0496999999999996</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="16" t="s">
         <v>24</v>
       </c>
       <c r="F13" s="2" t="s">
@@ -1950,10 +1990,10 @@
       <c r="G13" s="2">
         <v>0.60419999999999996</v>
       </c>
-      <c r="H13" s="29">
+      <c r="H13" s="18">
         <v>6.7031000000000001</v>
       </c>
-      <c r="I13" s="29" t="s">
+      <c r="I13" s="18" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1967,23 +2007,23 @@
       <c r="C14" s="2">
         <v>5.5609000000000002</v>
       </c>
-      <c r="E14" s="21"/>
+      <c r="E14" s="17"/>
       <c r="F14" s="2" t="s">
         <v>34</v>
       </c>
       <c r="G14" s="2">
         <v>0.56520000000000004</v>
       </c>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="27"/>
-      <c r="C15" s="28"/>
-      <c r="E15" s="20" t="s">
+      <c r="B15" s="30"/>
+      <c r="C15" s="31"/>
+      <c r="E15" s="16" t="s">
         <v>25</v>
       </c>
       <c r="F15" s="2" t="s">
@@ -1992,15 +2032,15 @@
       <c r="G15" s="2">
         <v>0.58009999999999995</v>
       </c>
-      <c r="H15" s="29">
+      <c r="H15" s="18">
         <v>2.8894000000000002</v>
       </c>
-      <c r="I15" s="29">
+      <c r="I15" s="18">
         <v>3.8999999999999998E-3</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="25" t="s">
         <v>7</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -2009,25 +2049,25 @@
       <c r="C16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="21"/>
+      <c r="E16" s="17"/>
       <c r="F16" s="2" t="s">
         <v>34</v>
       </c>
       <c r="G16" s="2">
         <v>0.5534</v>
       </c>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A17" s="21"/>
+      <c r="A17" s="17"/>
       <c r="B17" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="20" t="s">
+      <c r="E17" s="16" t="s">
         <v>26</v>
       </c>
       <c r="F17" s="2" t="s">
@@ -2036,37 +2076,37 @@
       <c r="G17" s="2">
         <v>0.5393</v>
       </c>
-      <c r="H17" s="29">
+      <c r="H17" s="18">
         <v>1.9854000000000001</v>
       </c>
-      <c r="I17" s="29">
+      <c r="I17" s="18">
         <v>3.7600000000000001E-2</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="E18" s="21"/>
+      <c r="E18" s="17"/>
       <c r="F18" s="2" t="s">
         <v>34</v>
       </c>
       <c r="G18" s="2">
         <v>0.52139999999999997</v>
       </c>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A19" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="B19" s="24"/>
-      <c r="C19" s="25"/>
+      <c r="A19" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="27"/>
+      <c r="C19" s="28"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="27"/>
-      <c r="C20" s="28"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="31"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A21" s="1" t="s">
@@ -2102,14 +2142,14 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A24" s="26" t="s">
+      <c r="A24" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="27"/>
-      <c r="C24" s="28"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="31"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="25" t="s">
         <v>7</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -2120,7 +2160,7 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A26" s="21"/>
+      <c r="A26" s="17"/>
       <c r="B26" s="2" t="s">
         <v>17</v>
       </c>
@@ -2130,24 +2170,6 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
     <mergeCell ref="E1:I1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="E3:E4"/>
@@ -2164,6 +2186,24 @@
     <mergeCell ref="A19:C19"/>
     <mergeCell ref="A20:C20"/>
     <mergeCell ref="A24:C24"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2173,52 +2213,53 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2687A086-E6AD-4DC9-8E6D-5E9AEFD1DED8}">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="2" width="8.796875" style="4"/>
+    <col min="1" max="1" width="8.796875" style="4"/>
+    <col min="2" max="2" width="20.3984375" style="4" customWidth="1"/>
     <col min="3" max="4" width="16.94921875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="8.796875" style="4"/>
+    <col min="5" max="5" width="19.25" style="4" customWidth="1"/>
     <col min="6" max="6" width="18.046875" style="4" customWidth="1"/>
     <col min="7" max="16384" width="8.796875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A1" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="33"/>
+      <c r="A1" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="35"/>
       <c r="E1" s="5" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="32" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="16" t="s">
         <v>24</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="C3" s="4">
         <v>2460</v>
@@ -2228,9 +2269,9 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A4" s="21"/>
+      <c r="A4" s="17"/>
       <c r="B4" s="4" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="C4" s="4">
         <v>1038</v>
@@ -2240,11 +2281,11 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="16" t="s">
         <v>25</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="C5" s="4">
         <v>777</v>
@@ -2254,9 +2295,9 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A6" s="21"/>
+      <c r="A6" s="17"/>
       <c r="B6" s="4" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="C6" s="4">
         <v>1267</v>
@@ -2266,11 +2307,11 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="16" t="s">
         <v>26</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="C7" s="4">
         <v>736</v>
@@ -2280,9 +2321,9 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A8" s="21"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="4" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="C8" s="4">
         <v>227</v>
@@ -2290,273 +2331,323 @@
       <c r="D8" s="4">
         <v>4945</v>
       </c>
-      <c r="F8" s="14" t="s">
-        <v>56</v>
-      </c>
+      <c r="F8" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A9" s="13"/>
+      <c r="F9" s="12"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="35"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A11" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="4" t="s">
+      <c r="B11" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="32" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A12" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="7">
+        <v>0.20519999999999999</v>
+      </c>
+      <c r="D12" s="8">
+        <v>0.1487</v>
+      </c>
+      <c r="E12" s="2">
+        <f>D12-C12</f>
+        <v>-5.6499999999999995E-2</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A13" s="17"/>
+      <c r="B13" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="36">
+        <v>0.2326</v>
+      </c>
+      <c r="D13" s="37">
+        <v>0.14749999999999999</v>
+      </c>
+      <c r="E13" s="2">
+        <v>-8.5099999999999995E-2</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A14" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="7">
+        <v>-8.3900000000000002E-2</v>
+      </c>
+      <c r="D14" s="8">
+        <v>-0.11269999999999999</v>
+      </c>
+      <c r="E14" s="2">
+        <f>D14-C14</f>
+        <v>-2.8799999999999992E-2</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A15" s="17"/>
+      <c r="B15" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="7">
+        <v>-5.0999999999999997E-2</v>
+      </c>
+      <c r="D15" s="8">
+        <v>-0.11840000000000001</v>
+      </c>
+      <c r="E15" s="2">
+        <v>-6.7400000000000002E-2</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A16" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="8">
+        <v>0.1537</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0.2175</v>
+      </c>
+      <c r="E16" s="2">
+        <f>D16-C16</f>
+        <v>6.3799999999999996E-2</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="4" t="s">
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A17" s="17"/>
+      <c r="B17" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="8">
+        <v>0.17810000000000001</v>
+      </c>
+      <c r="D17" s="7">
+        <v>0.15720000000000001</v>
+      </c>
+      <c r="E17" s="2">
+        <v>-2.0899999999999998E-2</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A19" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="35"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A20" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A11" s="20" t="s">
+      <c r="D20" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="32" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A21" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="7">
-        <v>0.20519999999999999</v>
-      </c>
-      <c r="D11" s="8">
-        <v>0.1487</v>
-      </c>
-      <c r="E11" s="2">
-        <f>D11-C11</f>
-        <v>-5.6499999999999995E-2</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H11" s="5"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A12" s="34"/>
-      <c r="B12" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" s="12">
-        <v>0.2326</v>
-      </c>
-      <c r="D12" s="13">
-        <v>0.14749999999999999</v>
-      </c>
-      <c r="E12" s="2">
-        <v>-8.5099999999999995E-2</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="H12" s="5"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A13" s="34"/>
-      <c r="B13" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="9">
+      <c r="B21" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="9">
         <v>3.2000000000000002E-3</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D21" s="10">
         <v>6.1600000000000002E-2</v>
-      </c>
-      <c r="E13" s="2">
-        <f>D13-C13</f>
-        <v>5.8400000000000001E-2</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="H13" s="5"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A14" s="21"/>
-      <c r="B14" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="9">
-        <v>-1.2999999999999999E-3</v>
-      </c>
-      <c r="D14" s="10">
-        <v>0.1249</v>
-      </c>
-      <c r="E14" s="2">
-        <v>0.14080000000000001</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="H14" s="5"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A15" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="7">
-        <v>-8.3900000000000002E-2</v>
-      </c>
-      <c r="D15" s="8">
-        <v>-0.11269999999999999</v>
-      </c>
-      <c r="E15" s="2">
-        <f>D15-C15</f>
-        <v>-2.8799999999999992E-2</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A16" s="34"/>
-      <c r="B16" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" s="7">
-        <v>-5.0999999999999997E-2</v>
-      </c>
-      <c r="D16" s="8">
-        <v>-0.11840000000000001</v>
-      </c>
-      <c r="E16" s="2">
-        <v>-6.7400000000000002E-2</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A17" s="34"/>
-      <c r="B17" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="9">
-        <v>-0.2681</v>
-      </c>
-      <c r="D17" s="10">
-        <v>-0.17510000000000001</v>
-      </c>
-      <c r="E17" s="2">
-        <f>D17-C17</f>
-        <v>9.2999999999999999E-2</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A18" s="21"/>
-      <c r="B18" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" s="9">
-        <v>-0.31459999999999999</v>
-      </c>
-      <c r="D18" s="10">
-        <v>-6.2700000000000006E-2</v>
-      </c>
-      <c r="E18" s="2">
-        <v>0.25180000000000002</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A19" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="8">
-        <v>0.1537</v>
-      </c>
-      <c r="D19" s="7">
-        <v>0.2175</v>
-      </c>
-      <c r="E19" s="2">
-        <f>D19-C19</f>
-        <v>6.3799999999999996E-2</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A20" s="34"/>
-      <c r="B20" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" s="8">
-        <v>0.17810000000000001</v>
-      </c>
-      <c r="D20" s="7">
-        <v>0.15720000000000001</v>
-      </c>
-      <c r="E20" s="2">
-        <v>-2.0899999999999998E-2</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A21" s="34"/>
-      <c r="B21" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="10">
-        <v>0.1953</v>
-      </c>
-      <c r="D21" s="9">
-        <v>0.11890000000000001</v>
       </c>
       <c r="E21" s="2">
         <f>D21-C21</f>
+        <v>5.8400000000000001E-2</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A22" s="17"/>
+      <c r="B22" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="9">
+        <v>-1.2999999999999999E-3</v>
+      </c>
+      <c r="D22" s="10">
+        <v>0.1249</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0.14080000000000001</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H22" s="5"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A23" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="9">
+        <v>-0.2681</v>
+      </c>
+      <c r="D23" s="10">
+        <v>-0.17510000000000001</v>
+      </c>
+      <c r="E23" s="2">
+        <f>D23-C23</f>
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A24" s="17"/>
+      <c r="B24" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="9">
+        <v>-0.31459999999999999</v>
+      </c>
+      <c r="D24" s="10">
+        <v>-6.2700000000000006E-2</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0.25180000000000002</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A25" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="10">
+        <v>0.1953</v>
+      </c>
+      <c r="D25" s="9">
+        <v>0.11890000000000001</v>
+      </c>
+      <c r="E25" s="2">
+        <f>D25-C25</f>
         <v>-7.6399999999999996E-2</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F25" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A26" s="17"/>
+      <c r="B26" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="10">
+        <v>0.14760000000000001</v>
+      </c>
+      <c r="D26" s="9">
+        <v>0.23960000000000001</v>
+      </c>
+      <c r="E26" s="2">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="F26" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A22" s="21"/>
-      <c r="B22" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22" s="10">
-        <v>0.14760000000000001</v>
-      </c>
-      <c r="D22" s="9">
-        <v>0.23960000000000001</v>
-      </c>
-      <c r="E22" s="2">
-        <v>9.1999999999999998E-2</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="C27" s="5" t="s">
-        <v>53</v>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="D28" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A19:A22"/>
+  <mergeCells count="12">
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A26"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dataAnalysis.xlsx
+++ b/dataAnalysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\botImpact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BF33C1E-D01D-42E8-BCC5-935CDC966C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{809B4F28-8BDF-4D92-9C01-CCD6AEB761DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="18192" windowHeight="11592" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="153">
   <si>
     <t>Node Degree</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -653,126 +653,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>Pandemic</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>War</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>中</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Bot</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>影响大于</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Human</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，而</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Climate</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>中</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Bot</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>小于</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Human</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>差距增大，算法觉得Human的影响应该更小而Bot的影响应该更大些</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1011,6 +891,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Model</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Effect (Human-Bot)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1074,6 +958,338 @@
   </si>
   <si>
     <t>Negative</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lasso</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XGB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CNE-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.6044 (0.0010)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.6007 (0.0011)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RMSE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Metric</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect of Opinion Prediction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Eval: 150epoch (100-150epoch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>均可，基本收敛)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AdvG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.6037 (0.0012)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.6006 (0.0012)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.6009 (0.0011)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5171 (0.0013)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5111 (0.0014)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5113 (0.0013)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.6006 (0.0009)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5180 (0.0010)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5118 (0.0012)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5118 (0.0010)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pandemic Pos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>War Pos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Climate Pos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ignite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5179 (0.0012)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.6017 (0.0010)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.6018 (0.0010)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5128 (0.0012)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5133 (0.0012)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.6040 (0.0010)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5174 (0.0010)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.6010 (0.0011)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5119 (0.0010)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.6008 (0.0009)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5120 (0.0009)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.6800 (0.0010)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.6038 (0.0011)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.6793 (0.0011)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.6023 (0.0012)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.6817 (0.0012)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.6023 (0.0013)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.6066 (0.0018)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5246 (0.0017)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.6050 (0.0017)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5217 (0.0017)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.6092 (0.0016)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5227 (0.0016)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.6073 (0.0016)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5261 (0.0018)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.6047 (0.0017)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5220 (0.0019)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.6095 (0.0019)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5228 (0.0023)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.6803 (0.0010)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.6041 (0.0013)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.6798 (0.0011)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.6030 (0.0014)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.6816 (0.0012)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.6023 (0.0015)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.6061 (0.0012)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5251 (0.0014)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.6060 (0.0017)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5244 (0.0019)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.6040 (0.0017)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5213 (0.0019)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.6064 (0.0018)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5218 (0.0019)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.6038 (0.0013)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5214 (0.0014)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.6050 (0.0013)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5194 (0.0015)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.6799 (0.0008)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.6036 (0.0009)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.6795 (0.0009)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.6027 (0.0010)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.6803 (0.0008)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.6024 (0.0010)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1235,7 +1451,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1321,11 +1537,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1436,6 +1663,33 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1747,15 +2001,15 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A1" s="26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B1" s="27"/>
       <c r="C1" s="28"/>
       <c r="D1" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E1" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F1" s="21"/>
       <c r="G1" s="21"/>
@@ -1769,7 +2023,7 @@
       <c r="B2" s="30"/>
       <c r="C2" s="31"/>
       <c r="D2" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E2" s="23" t="s">
         <v>19</v>
@@ -1785,7 +2039,7 @@
         <v>23</v>
       </c>
       <c r="J2" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.5">
@@ -1825,7 +2079,7 @@
         <v>6.9372999999999996</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E4" s="17"/>
       <c r="F4" s="2" t="s">
@@ -1848,7 +2102,7 @@
         <v>5.8960999999999997</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E5" s="16" t="s">
         <v>25</v>
@@ -1928,7 +2182,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A10" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B10" s="27"/>
       <c r="C10" s="28"/>
@@ -2096,7 +2350,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A19" s="26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B19" s="27"/>
       <c r="C19" s="28"/>
@@ -2213,10 +2467,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2687A086-E6AD-4DC9-8E6D-5E9AEFD1DED8}">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -2226,10 +2480,14 @@
     <col min="3" max="4" width="16.94921875" style="4" customWidth="1"/>
     <col min="5" max="5" width="19.25" style="4" customWidth="1"/>
     <col min="6" max="6" width="18.046875" style="4" customWidth="1"/>
-    <col min="7" max="16384" width="8.796875" style="4"/>
+    <col min="7" max="8" width="8.796875" style="4"/>
+    <col min="9" max="9" width="14.75" style="4" customWidth="1"/>
+    <col min="10" max="10" width="8.796875" style="4"/>
+    <col min="11" max="16" width="15" style="4" customWidth="1"/>
+    <col min="17" max="16384" width="8.796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A1" s="33" t="s">
         <v>42</v>
       </c>
@@ -2237,10 +2495,20 @@
       <c r="C1" s="34"/>
       <c r="D1" s="35"/>
       <c r="E1" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.5">
+        <v>54</v>
+      </c>
+      <c r="I1" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="35"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A2" s="32" t="s">
         <v>39</v>
       </c>
@@ -2253,8 +2521,26 @@
       <c r="D2" s="32" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="I2" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="K2" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="L2" s="42"/>
+      <c r="M2" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="N2" s="42"/>
+      <c r="O2" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="P2" s="42"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A3" s="16" t="s">
         <v>24</v>
       </c>
@@ -2267,8 +2553,30 @@
       <c r="D3" s="4">
         <v>34169</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="I3" s="40"/>
+      <c r="J3" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="K3" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="L3" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="M3" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="N3" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="O3" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="P3" s="32" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A4" s="17"/>
       <c r="B4" s="4" t="s">
         <v>72</v>
@@ -2279,8 +2587,32 @@
       <c r="D4" s="4">
         <v>17553</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="I4" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A5" s="16" t="s">
         <v>25</v>
       </c>
@@ -2293,8 +2625,30 @@
       <c r="D5" s="4">
         <v>19922</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="I5" s="38"/>
+      <c r="J5" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A6" s="17"/>
       <c r="B6" s="4" t="s">
         <v>72</v>
@@ -2305,8 +2659,30 @@
       <c r="D6" s="4">
         <v>40701</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="I6" s="38"/>
+      <c r="J6" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A7" s="16" t="s">
         <v>26</v>
       </c>
@@ -2319,8 +2695,30 @@
       <c r="D7" s="4">
         <v>13377</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="I7" s="44"/>
+      <c r="J7" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="K7" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="L7" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="M7" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="N7" s="46" t="s">
+        <v>89</v>
+      </c>
+      <c r="O7" s="46" t="s">
+        <v>87</v>
+      </c>
+      <c r="P7" s="46" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A8" s="17"/>
       <c r="B8" s="4" t="s">
         <v>72</v>
@@ -2332,14 +2730,42 @@
         <v>4945</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.5">
+        <v>50</v>
+      </c>
+      <c r="I8" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A9" s="13"/>
       <c r="F9" s="12"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="I9" s="38"/>
+      <c r="J9" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A10" s="33" t="s">
         <v>69</v>
       </c>
@@ -2347,13 +2773,35 @@
       <c r="C10" s="34"/>
       <c r="D10" s="34"/>
       <c r="E10" s="35"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="I10" s="38"/>
+      <c r="J10" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A11" s="32" t="s">
         <v>39</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C11" s="32" t="s">
         <v>43</v>
@@ -2364,13 +2812,35 @@
       <c r="E11" s="32" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="I11" s="44"/>
+      <c r="J11" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="K11" s="46" t="s">
+        <v>111</v>
+      </c>
+      <c r="L11" s="46" t="s">
+        <v>112</v>
+      </c>
+      <c r="M11" s="46" t="s">
+        <v>113</v>
+      </c>
+      <c r="N11" s="46" t="s">
+        <v>114</v>
+      </c>
+      <c r="O11" s="46" t="s">
+        <v>115</v>
+      </c>
+      <c r="P11" s="46" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A12" s="16" t="s">
         <v>24</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C12" s="7">
         <v>0.20519999999999999</v>
@@ -2385,12 +2855,35 @@
       <c r="F12" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="H12" s="5"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="I12" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A13" s="17"/>
       <c r="B13" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C13" s="36">
         <v>0.2326</v>
@@ -2402,16 +2895,37 @@
         <v>-8.5099999999999995E-2</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="H13" s="5"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.5">
+        <v>53</v>
+      </c>
+      <c r="I13" s="38"/>
+      <c r="J13" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A14" s="16" t="s">
         <v>25</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C14" s="7">
         <v>-8.3900000000000002E-2</v>
@@ -2426,11 +2940,33 @@
       <c r="F14" s="5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="I14" s="38"/>
+      <c r="J14" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="P14" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A15" s="17"/>
       <c r="B15" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C15" s="7">
         <v>-5.0999999999999997E-2</v>
@@ -2442,15 +2978,37 @@
         <v>-6.7400000000000002E-2</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.5">
+        <v>51</v>
+      </c>
+      <c r="I15" s="44"/>
+      <c r="J15" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="K15" s="46" t="s">
+        <v>135</v>
+      </c>
+      <c r="L15" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="M15" s="46" t="s">
+        <v>143</v>
+      </c>
+      <c r="N15" s="46" t="s">
+        <v>144</v>
+      </c>
+      <c r="O15" s="46" t="s">
+        <v>145</v>
+      </c>
+      <c r="P15" s="46" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A16" s="16" t="s">
         <v>26</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C16" s="8">
         <v>0.1537</v>
@@ -2466,10 +3024,10 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A17" s="17"/>
       <c r="B17" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C17" s="8">
         <v>0.17810000000000001</v>
@@ -2481,10 +3039,16 @@
         <v>-2.0899999999999998E-2</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.5">
+        <v>52</v>
+      </c>
+      <c r="I17" s="43" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="I18" s="45"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A19" s="33" t="s">
         <v>70</v>
       </c>
@@ -2492,13 +3056,14 @@
       <c r="C19" s="34"/>
       <c r="D19" s="34"/>
       <c r="E19" s="35"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="I19" s="45"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A20" s="32" t="s">
         <v>39</v>
       </c>
       <c r="B20" s="32" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C20" s="32" t="s">
         <v>43</v>
@@ -2510,12 +3075,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A21" s="16" t="s">
         <v>24</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C21" s="9">
         <v>3.2000000000000002E-3</v>
@@ -2532,10 +3097,10 @@
       </c>
       <c r="H21" s="5"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A22" s="17"/>
       <c r="B22" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C22" s="9">
         <v>-1.2999999999999999E-3</v>
@@ -2547,16 +3112,16 @@
         <v>0.14080000000000001</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H22" s="5"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A23" s="16" t="s">
         <v>25</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C23" s="9">
         <v>-0.2681</v>
@@ -2572,10 +3137,10 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A24" s="17"/>
       <c r="B24" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C24" s="9">
         <v>-0.31459999999999999</v>
@@ -2587,15 +3152,15 @@
         <v>0.25180000000000002</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.5">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A25" s="16" t="s">
         <v>26</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C25" s="10">
         <v>0.1953</v>
@@ -2611,10 +3176,10 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A26" s="17"/>
       <c r="B26" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C26" s="10">
         <v>0.14760000000000001</v>
@@ -2626,16 +3191,19 @@
         <v>9.1999999999999998E-2</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="D28" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="20">
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="I1:P1"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="I4:I7"/>
+    <mergeCell ref="I8:I11"/>
+    <mergeCell ref="I12:I15"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="A25:A26"/>

--- a/dataAnalysis.xlsx
+++ b/dataAnalysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\botImpact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{809B4F28-8BDF-4D92-9C01-CCD6AEB761DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9E267D5-1EF6-4DFF-A361-8B0BE5D25E72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="18192" windowHeight="11592" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="72">
   <si>
     <t>Node Degree</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -891,10 +891,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Model</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Effect (Human-Bot)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -958,338 +954,6 @@
   </si>
   <si>
     <t>Negative</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lasso</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>XGB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CNE-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.6044 (0.0010)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.6007 (0.0011)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RMSE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MAE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Metric</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Effect of Opinion Prediction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Eval: 150epoch (100-150epoch</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>均可，基本收敛)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AdvG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.6037 (0.0012)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.6006 (0.0012)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.6009 (0.0011)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.5171 (0.0013)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.5111 (0.0014)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.5113 (0.0013)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.6006 (0.0009)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.5180 (0.0010)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.5118 (0.0012)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.5118 (0.0010)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pandemic Pos</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>War Pos</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Climate Pos</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ignite</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gial</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.5179 (0.0012)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.6017 (0.0010)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.6018 (0.0010)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.5128 (0.0012)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.5133 (0.0012)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.6040 (0.0010)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.5174 (0.0010)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.6010 (0.0011)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.5119 (0.0010)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.6008 (0.0009)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.5120 (0.0009)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.6800 (0.0010)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.6038 (0.0011)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.6793 (0.0011)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.6023 (0.0012)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.6817 (0.0012)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.6023 (0.0013)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.6066 (0.0018)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.5246 (0.0017)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.6050 (0.0017)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.5217 (0.0017)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.6092 (0.0016)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.5227 (0.0016)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.6073 (0.0016)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.5261 (0.0018)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.6047 (0.0017)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.5220 (0.0019)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.6095 (0.0019)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.5228 (0.0023)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.6803 (0.0010)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.6041 (0.0013)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.6798 (0.0011)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.6030 (0.0014)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.6816 (0.0012)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.6023 (0.0015)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.6061 (0.0012)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.5251 (0.0014)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.6060 (0.0017)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.5244 (0.0019)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.6040 (0.0017)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.5213 (0.0019)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.6064 (0.0018)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.5218 (0.0019)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.6038 (0.0013)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.5214 (0.0014)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.6050 (0.0013)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.5194 (0.0015)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.6799 (0.0008)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.6036 (0.0009)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.6795 (0.0009)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.6027 (0.0010)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.6803 (0.0008)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.6024 (0.0010)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1451,7 +1115,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1537,22 +1201,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1663,33 +1316,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2467,10 +2093,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2687A086-E6AD-4DC9-8E6D-5E9AEFD1DED8}">
-  <dimension ref="A1:P26"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -2480,14 +2106,10 @@
     <col min="3" max="4" width="16.94921875" style="4" customWidth="1"/>
     <col min="5" max="5" width="19.25" style="4" customWidth="1"/>
     <col min="6" max="6" width="18.046875" style="4" customWidth="1"/>
-    <col min="7" max="8" width="8.796875" style="4"/>
-    <col min="9" max="9" width="14.75" style="4" customWidth="1"/>
-    <col min="10" max="10" width="8.796875" style="4"/>
-    <col min="11" max="16" width="15" style="4" customWidth="1"/>
-    <col min="17" max="16384" width="8.796875" style="4"/>
+    <col min="7" max="16384" width="8.796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A1" s="33" t="s">
         <v>42</v>
       </c>
@@ -2497,18 +2119,8 @@
       <c r="E1" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="I1" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="35"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.5">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A2" s="32" t="s">
         <v>39</v>
       </c>
@@ -2521,31 +2133,13 @@
       <c r="D2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="J2" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="K2" s="41" t="s">
-        <v>73</v>
-      </c>
-      <c r="L2" s="42"/>
-      <c r="M2" s="41" t="s">
-        <v>74</v>
-      </c>
-      <c r="N2" s="42"/>
-      <c r="O2" s="41" t="s">
-        <v>75</v>
-      </c>
-      <c r="P2" s="42"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.5">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A3" s="16" t="s">
         <v>24</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C3" s="4">
         <v>2460</v>
@@ -2553,33 +2147,11 @@
       <c r="D3" s="4">
         <v>34169</v>
       </c>
-      <c r="I3" s="40"/>
-      <c r="J3" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="K3" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="L3" s="32" t="s">
-        <v>80</v>
-      </c>
-      <c r="M3" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="N3" s="32" t="s">
-        <v>80</v>
-      </c>
-      <c r="O3" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="P3" s="32" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="4" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A4" s="17"/>
       <c r="B4" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C4" s="4">
         <v>1038</v>
@@ -2587,37 +2159,13 @@
       <c r="D4" s="4">
         <v>17553</v>
       </c>
-      <c r="I4" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.5">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A5" s="16" t="s">
         <v>25</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C5" s="4">
         <v>777</v>
@@ -2625,33 +2173,11 @@
       <c r="D5" s="4">
         <v>19922</v>
       </c>
-      <c r="I5" s="38"/>
-      <c r="J5" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="6" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A6" s="17"/>
       <c r="B6" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C6" s="4">
         <v>1267</v>
@@ -2659,35 +2185,13 @@
       <c r="D6" s="4">
         <v>40701</v>
       </c>
-      <c r="I6" s="38"/>
-      <c r="J6" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.5">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A7" s="16" t="s">
         <v>26</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C7" s="4">
         <v>736</v>
@@ -2695,33 +2199,11 @@
       <c r="D7" s="4">
         <v>13377</v>
       </c>
-      <c r="I7" s="44"/>
-      <c r="J7" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="K7" s="46" t="s">
-        <v>85</v>
-      </c>
-      <c r="L7" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="M7" s="46" t="s">
-        <v>86</v>
-      </c>
-      <c r="N7" s="46" t="s">
-        <v>89</v>
-      </c>
-      <c r="O7" s="46" t="s">
-        <v>87</v>
-      </c>
-      <c r="P7" s="46" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="8" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A8" s="17"/>
       <c r="B8" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C8" s="4">
         <v>227</v>
@@ -2732,71 +2214,21 @@
       <c r="F8" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="I8" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="O8" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="P8" s="4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.5">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A9" s="13"/>
       <c r="F9" s="12"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="10" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A10" s="33" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B10" s="34"/>
       <c r="C10" s="34"/>
       <c r="D10" s="34"/>
       <c r="E10" s="35"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="N10" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="O10" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="P10" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.5">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A11" s="32" t="s">
         <v>39</v>
       </c>
@@ -2810,32 +2242,10 @@
         <v>41</v>
       </c>
       <c r="E11" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="I11" s="44"/>
-      <c r="J11" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="K11" s="46" t="s">
-        <v>111</v>
-      </c>
-      <c r="L11" s="46" t="s">
-        <v>112</v>
-      </c>
-      <c r="M11" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="N11" s="46" t="s">
-        <v>114</v>
-      </c>
-      <c r="O11" s="46" t="s">
-        <v>115</v>
-      </c>
-      <c r="P11" s="46" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A12" s="16" t="s">
         <v>24</v>
       </c>
@@ -2855,32 +2265,8 @@
       <c r="F12" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="I12" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="N12" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="O12" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="P12" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.5">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A13" s="17"/>
       <c r="B13" s="4" t="s">
         <v>65</v>
@@ -2897,30 +2283,8 @@
       <c r="F13" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="I13" s="38"/>
-      <c r="J13" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="L13" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="M13" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="N13" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="O13" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="P13" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="14" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A14" s="16" t="s">
         <v>25</v>
       </c>
@@ -2940,30 +2304,8 @@
       <c r="F14" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="I14" s="38"/>
-      <c r="J14" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="L14" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="M14" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="N14" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="O14" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="P14" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.5">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A15" s="17"/>
       <c r="B15" s="4" t="s">
         <v>65</v>
@@ -2980,30 +2322,8 @@
       <c r="F15" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="I15" s="44"/>
-      <c r="J15" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="K15" s="46" t="s">
-        <v>135</v>
-      </c>
-      <c r="L15" s="46" t="s">
-        <v>136</v>
-      </c>
-      <c r="M15" s="46" t="s">
-        <v>143</v>
-      </c>
-      <c r="N15" s="46" t="s">
-        <v>144</v>
-      </c>
-      <c r="O15" s="46" t="s">
-        <v>145</v>
-      </c>
-      <c r="P15" s="46" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.5">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A16" s="16" t="s">
         <v>26</v>
       </c>
@@ -3024,7 +2344,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A17" s="17"/>
       <c r="B17" s="4" t="s">
         <v>65</v>
@@ -3041,24 +2361,17 @@
       <c r="F17" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="I17" s="43" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="I18" s="45"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.5">
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A19" s="33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B19" s="34"/>
       <c r="C19" s="34"/>
       <c r="D19" s="34"/>
       <c r="E19" s="35"/>
-      <c r="I19" s="45"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.5">
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A20" s="32" t="s">
         <v>39</v>
       </c>
@@ -3072,10 +2385,10 @@
         <v>41</v>
       </c>
       <c r="E20" s="32" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.5">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A21" s="16" t="s">
         <v>24</v>
       </c>
@@ -3097,7 +2410,7 @@
       </c>
       <c r="H21" s="5"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A22" s="17"/>
       <c r="B22" s="4" t="s">
         <v>65</v>
@@ -3116,7 +2429,7 @@
       </c>
       <c r="H22" s="5"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A23" s="16" t="s">
         <v>25</v>
       </c>
@@ -3137,7 +2450,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A24" s="17"/>
       <c r="B24" s="4" t="s">
         <v>65</v>
@@ -3155,7 +2468,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A25" s="16" t="s">
         <v>26</v>
       </c>
@@ -3176,7 +2489,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A26" s="17"/>
       <c r="B26" s="4" t="s">
         <v>65</v>
@@ -3195,15 +2508,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="I1:P1"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="I4:I7"/>
-    <mergeCell ref="I8:I11"/>
-    <mergeCell ref="I12:I15"/>
+  <mergeCells count="12">
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="A25:A26"/>

--- a/dataAnalysis.xlsx
+++ b/dataAnalysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\botImpact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9E267D5-1EF6-4DFF-A361-8B0BE5D25E72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3953190A-71CC-4EDF-BE55-2DDC939D76C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="18192" windowHeight="11592" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="76">
   <si>
     <t>Node Degree</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -465,18 +465,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Treat (Human Inf)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Propagator Number</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Control (Bot Inf)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>Human</t>
     </r>
@@ -888,10 +880,6 @@
   </si>
   <si>
     <t>Method</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Effect (Human-Bot)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -954,6 +942,128 @@
   </si>
   <si>
     <t>Negative</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可能可行思路：用HomophilyGCN预测link，好预测说明homophily程度越高，balance和Naïve差距越大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>相比于</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Bot</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>周围的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>link</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>human</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>周围的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>link</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>更好预测，说明选择性更高</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bot (Treat)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Human (Control)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Treat (Bot Inf)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Control (Human Inf)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect (Bot-Human)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -964,7 +1074,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0000_ "/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1081,6 +1191,22 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="1"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1252,31 +1378,34 @@
     <xf numFmtId="176" fontId="15" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1300,7 +1429,10 @@
     <xf numFmtId="176" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1310,12 +1442,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1626,35 +1752,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A1" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="28"/>
+      <c r="A1" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="29"/>
       <c r="D1" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="22"/>
+        <v>56</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="21"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="32"/>
       <c r="D2" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="E2" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="24"/>
+      <c r="F2" s="23"/>
       <c r="G2" s="3" t="s">
         <v>28</v>
       </c>
@@ -1665,7 +1791,7 @@
         <v>23</v>
       </c>
       <c r="J2" s="15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.5">
@@ -1678,7 +1804,7 @@
       <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="24" t="s">
         <v>24</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -1687,10 +1813,10 @@
       <c r="G3" s="2">
         <v>0.82099999999999995</v>
       </c>
-      <c r="H3" s="18">
+      <c r="H3" s="33">
         <v>23.857700000000001</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="I3" s="33" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1705,17 +1831,17 @@
         <v>6.9372999999999996</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="E4" s="17"/>
+        <v>58</v>
+      </c>
+      <c r="E4" s="25"/>
       <c r="F4" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G4" s="2">
         <v>0.74229999999999996</v>
       </c>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A5" s="2" t="s">
@@ -1728,9 +1854,9 @@
         <v>5.8960999999999997</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="E5" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="24" t="s">
         <v>25</v>
       </c>
       <c r="F5" s="2" t="s">
@@ -1739,31 +1865,31 @@
       <c r="G5" s="2">
         <v>0.83950000000000002</v>
       </c>
-      <c r="H5" s="18">
+      <c r="H5" s="33">
         <v>20.513400000000001</v>
       </c>
-      <c r="I5" s="18" t="s">
+      <c r="I5" s="33" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="31"/>
-      <c r="E6" s="17"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="32"/>
+      <c r="E6" s="25"/>
       <c r="F6" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G6" s="2">
         <v>0.73529999999999995</v>
       </c>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="26" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1772,7 +1898,7 @@
       <c r="C7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="24" t="s">
         <v>26</v>
       </c>
       <c r="F7" s="2" t="s">
@@ -1781,51 +1907,51 @@
       <c r="G7" s="2">
         <v>0.78539999999999999</v>
       </c>
-      <c r="H7" s="18">
+      <c r="H7" s="33">
         <v>16.601400000000002</v>
       </c>
-      <c r="I7" s="18" t="s">
+      <c r="I7" s="33" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A8" s="17"/>
+      <c r="A8" s="25"/>
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="17"/>
+      <c r="E8" s="25"/>
       <c r="F8" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G8" s="2">
         <v>0.67610000000000003</v>
       </c>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A10" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="28"/>
+      <c r="A10" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="28"/>
+      <c r="C10" s="29"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="30"/>
-      <c r="C11" s="31"/>
-      <c r="E11" s="20" t="s">
+      <c r="B11" s="31"/>
+      <c r="C11" s="32"/>
+      <c r="E11" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="22"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="21"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A12" s="1" t="s">
@@ -1837,10 +1963,10 @@
       <c r="C12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="23" t="s">
+      <c r="E12" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="24"/>
+      <c r="F12" s="23"/>
       <c r="G12" s="3" t="s">
         <v>35</v>
       </c>
@@ -1861,7 +1987,7 @@
       <c r="C13" s="2">
         <v>5.0496999999999996</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="24" t="s">
         <v>24</v>
       </c>
       <c r="F13" s="2" t="s">
@@ -1870,10 +1996,10 @@
       <c r="G13" s="2">
         <v>0.60419999999999996</v>
       </c>
-      <c r="H13" s="18">
+      <c r="H13" s="33">
         <v>6.7031000000000001</v>
       </c>
-      <c r="I13" s="18" t="s">
+      <c r="I13" s="33" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1887,23 +2013,23 @@
       <c r="C14" s="2">
         <v>5.5609000000000002</v>
       </c>
-      <c r="E14" s="17"/>
+      <c r="E14" s="25"/>
       <c r="F14" s="2" t="s">
         <v>34</v>
       </c>
       <c r="G14" s="2">
         <v>0.56520000000000004</v>
       </c>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="31"/>
-      <c r="E15" s="16" t="s">
+      <c r="B15" s="31"/>
+      <c r="C15" s="32"/>
+      <c r="E15" s="24" t="s">
         <v>25</v>
       </c>
       <c r="F15" s="2" t="s">
@@ -1912,15 +2038,15 @@
       <c r="G15" s="2">
         <v>0.58009999999999995</v>
       </c>
-      <c r="H15" s="18">
+      <c r="H15" s="33">
         <v>2.8894000000000002</v>
       </c>
-      <c r="I15" s="18">
+      <c r="I15" s="33">
         <v>3.8999999999999998E-3</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="26" t="s">
         <v>7</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -1929,25 +2055,25 @@
       <c r="C16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="17"/>
+      <c r="E16" s="25"/>
       <c r="F16" s="2" t="s">
         <v>34</v>
       </c>
       <c r="G16" s="2">
         <v>0.5534</v>
       </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A17" s="17"/>
+      <c r="A17" s="25"/>
       <c r="B17" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="24" t="s">
         <v>26</v>
       </c>
       <c r="F17" s="2" t="s">
@@ -1956,37 +2082,37 @@
       <c r="G17" s="2">
         <v>0.5393</v>
       </c>
-      <c r="H17" s="18">
+      <c r="H17" s="33">
         <v>1.9854000000000001</v>
       </c>
-      <c r="I17" s="18">
+      <c r="I17" s="33">
         <v>3.7600000000000001E-2</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="E18" s="17"/>
+      <c r="E18" s="25"/>
       <c r="F18" s="2" t="s">
         <v>34</v>
       </c>
       <c r="G18" s="2">
         <v>0.52139999999999997</v>
       </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A19" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="B19" s="27"/>
-      <c r="C19" s="28"/>
+      <c r="A19" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="28"/>
+      <c r="C19" s="29"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="30"/>
-      <c r="C20" s="31"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="32"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A21" s="1" t="s">
@@ -2022,14 +2148,14 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A24" s="29" t="s">
+      <c r="A24" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="30"/>
-      <c r="C24" s="31"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="32"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A25" s="25" t="s">
+      <c r="A25" s="26" t="s">
         <v>7</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -2040,7 +2166,7 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A26" s="17"/>
+      <c r="A26" s="25"/>
       <c r="B26" s="2" t="s">
         <v>17</v>
       </c>
@@ -2050,6 +2176,24 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
     <mergeCell ref="E1:I1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="E3:E4"/>
@@ -2066,24 +2210,6 @@
     <mergeCell ref="A19:C19"/>
     <mergeCell ref="A20:C20"/>
     <mergeCell ref="A24:C24"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2093,10 +2219,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2687A086-E6AD-4DC9-8E6D-5E9AEFD1DED8}">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -2110,36 +2236,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A1" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="35"/>
+      <c r="A1" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="37"/>
       <c r="E1" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="32" t="s">
-        <v>1</v>
+      <c r="C2" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="24" t="s">
         <v>24</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C3" s="4">
         <v>2460</v>
@@ -2149,9 +2275,9 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="17"/>
+      <c r="A4" s="25"/>
       <c r="B4" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C4" s="4">
         <v>1038</v>
@@ -2161,11 +2287,11 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="24" t="s">
         <v>25</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C5" s="4">
         <v>777</v>
@@ -2175,9 +2301,9 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="17"/>
+      <c r="A6" s="25"/>
       <c r="B6" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C6" s="4">
         <v>1267</v>
@@ -2187,11 +2313,11 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="24" t="s">
         <v>26</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C7" s="4">
         <v>736</v>
@@ -2201,9 +2327,9 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="17"/>
+      <c r="A8" s="25"/>
       <c r="B8" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C8" s="4">
         <v>227</v>
@@ -2212,7 +2338,7 @@
         <v>4945</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.5">
@@ -2220,37 +2346,37 @@
       <c r="F9" s="12"/>
     </row>
     <row r="10" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="35"/>
+      <c r="A10" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="37"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="32" t="s">
-        <v>67</v>
+      <c r="B11" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="24" t="s">
         <v>24</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C12" s="7">
         <v>0.20519999999999999</v>
@@ -2259,37 +2385,38 @@
         <v>0.1487</v>
       </c>
       <c r="E12" s="2">
-        <f>D12-C12</f>
-        <v>-5.6499999999999995E-2</v>
+        <f>C12-D12</f>
+        <v>5.6499999999999995E-2</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A13" s="17"/>
+      <c r="A13" s="25"/>
       <c r="B13" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C13" s="36">
+        <v>63</v>
+      </c>
+      <c r="C13" s="7">
         <v>0.2326</v>
       </c>
-      <c r="D13" s="37">
+      <c r="D13" s="8">
         <v>0.14749999999999999</v>
       </c>
       <c r="E13" s="2">
-        <v>-8.5099999999999995E-2</v>
+        <f t="shared" ref="E13:E17" si="0">C13-D13</f>
+        <v>8.5100000000000009E-2</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="24" t="s">
         <v>25</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C14" s="7">
         <v>-8.3900000000000002E-2</v>
@@ -2298,17 +2425,17 @@
         <v>-0.11269999999999999</v>
       </c>
       <c r="E14" s="2">
-        <f>D14-C14</f>
-        <v>-2.8799999999999992E-2</v>
+        <f t="shared" si="0"/>
+        <v>2.8799999999999992E-2</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A15" s="17"/>
+      <c r="A15" s="25"/>
       <c r="B15" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C15" s="7">
         <v>-5.0999999999999997E-2</v>
@@ -2317,18 +2444,19 @@
         <v>-0.11840000000000001</v>
       </c>
       <c r="E15" s="2">
-        <v>-6.7400000000000002E-2</v>
+        <f t="shared" si="0"/>
+        <v>6.7400000000000015E-2</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="24" t="s">
         <v>26</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C16" s="8">
         <v>0.1537</v>
@@ -2337,17 +2465,17 @@
         <v>0.2175</v>
       </c>
       <c r="E16" s="2">
-        <f>D16-C16</f>
-        <v>6.3799999999999996E-2</v>
+        <f t="shared" si="0"/>
+        <v>-6.3799999999999996E-2</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A17" s="17"/>
+      <c r="A17" s="25"/>
       <c r="B17" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C17" s="8">
         <v>0.17810000000000001</v>
@@ -2356,44 +2484,45 @@
         <v>0.15720000000000001</v>
       </c>
       <c r="E17" s="2">
-        <v>-2.0899999999999998E-2</v>
+        <f t="shared" si="0"/>
+        <v>2.0900000000000002E-2</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A19" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="35"/>
+      <c r="A19" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="37"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A20" s="32" t="s">
+      <c r="A20" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="C20" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="E20" s="32" t="s">
-        <v>67</v>
+      <c r="B20" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="24" t="s">
         <v>24</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C21" s="9">
         <v>3.2000000000000002E-3</v>
@@ -2402,18 +2531,18 @@
         <v>6.1600000000000002E-2</v>
       </c>
       <c r="E21" s="2">
-        <f>D21-C21</f>
-        <v>5.8400000000000001E-2</v>
+        <f>C21-D21</f>
+        <v>-5.8400000000000001E-2</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H21" s="5"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A22" s="17"/>
+      <c r="A22" s="25"/>
       <c r="B22" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C22" s="9">
         <v>-1.2999999999999999E-3</v>
@@ -2422,19 +2551,20 @@
         <v>0.1249</v>
       </c>
       <c r="E22" s="2">
-        <v>0.14080000000000001</v>
+        <f t="shared" ref="E22:E26" si="1">C22-D22</f>
+        <v>-0.12620000000000001</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H22" s="5"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="24" t="s">
         <v>25</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C23" s="9">
         <v>-0.2681</v>
@@ -2443,17 +2573,17 @@
         <v>-0.17510000000000001</v>
       </c>
       <c r="E23" s="2">
-        <f>D23-C23</f>
-        <v>9.2999999999999999E-2</v>
+        <f t="shared" si="1"/>
+        <v>-9.2999999999999999E-2</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A24" s="17"/>
+      <c r="A24" s="25"/>
       <c r="B24" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C24" s="9">
         <v>-0.31459999999999999</v>
@@ -2462,18 +2592,19 @@
         <v>-6.2700000000000006E-2</v>
       </c>
       <c r="E24" s="2">
-        <v>0.25180000000000002</v>
+        <f t="shared" si="1"/>
+        <v>-0.25190000000000001</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="24" t="s">
         <v>26</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C25" s="10">
         <v>0.1953</v>
@@ -2482,17 +2613,17 @@
         <v>0.11890000000000001</v>
       </c>
       <c r="E25" s="2">
-        <f>D25-C25</f>
-        <v>-7.6399999999999996E-2</v>
+        <f t="shared" si="1"/>
+        <v>7.6399999999999996E-2</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A26" s="17"/>
+      <c r="A26" s="25"/>
       <c r="B26" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C26" s="10">
         <v>0.14760000000000001</v>
@@ -2501,10 +2632,21 @@
         <v>0.23960000000000001</v>
       </c>
       <c r="E26" s="2">
-        <v>9.1999999999999998E-2</v>
+        <f t="shared" si="1"/>
+        <v>-9.1999999999999998E-2</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="E28" s="17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="E29" s="18" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/dataAnalysis.xlsx
+++ b/dataAnalysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\botImpact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3953190A-71CC-4EDF-BE55-2DDC939D76C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20CD6EC2-F68C-4B4B-A804-7750D1596254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="18192" windowHeight="11592" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="85">
   <si>
     <t>Node Degree</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1064,6 +1064,42 @@
   </si>
   <si>
     <t>Effect (Bot-Human)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GCN Prediction ('Positive' Influence Sources)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GCN Prediction ('Negative' Influence Sources)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bot Inf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Human Inf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data / Metric</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Average Inner Product</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1071,8 +1107,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.0000_ "/>
+    <numFmt numFmtId="177" formatCode="0.0000_);[Red]\(0.0000\)"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -1331,7 +1368,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1387,6 +1424,18 @@
     <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1400,12 +1449,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1429,12 +1472,6 @@
     <xf numFmtId="176" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1442,6 +1479,42 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1752,35 +1825,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="31"/>
       <c r="D1" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="21"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="25"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="32"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="34"/>
       <c r="D2" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="23"/>
+      <c r="F2" s="27"/>
       <c r="G2" s="3" t="s">
         <v>28</v>
       </c>
@@ -1804,7 +1877,7 @@
       <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="19" t="s">
         <v>24</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -1813,10 +1886,10 @@
       <c r="G3" s="2">
         <v>0.82099999999999995</v>
       </c>
-      <c r="H3" s="33">
+      <c r="H3" s="21">
         <v>23.857700000000001</v>
       </c>
-      <c r="I3" s="33" t="s">
+      <c r="I3" s="21" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1833,15 +1906,15 @@
       <c r="D4" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="E4" s="25"/>
+      <c r="E4" s="20"/>
       <c r="F4" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G4" s="2">
         <v>0.74229999999999996</v>
       </c>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A5" s="2" t="s">
@@ -1856,7 +1929,7 @@
       <c r="D5" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="19" t="s">
         <v>25</v>
       </c>
       <c r="F5" s="2" t="s">
@@ -1865,31 +1938,31 @@
       <c r="G5" s="2">
         <v>0.83950000000000002</v>
       </c>
-      <c r="H5" s="33">
+      <c r="H5" s="21">
         <v>20.513400000000001</v>
       </c>
-      <c r="I5" s="33" t="s">
+      <c r="I5" s="21" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="32"/>
-      <c r="E6" s="25"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="34"/>
+      <c r="E6" s="20"/>
       <c r="F6" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G6" s="2">
         <v>0.73529999999999995</v>
       </c>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="28" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1898,7 +1971,7 @@
       <c r="C7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="19" t="s">
         <v>26</v>
       </c>
       <c r="F7" s="2" t="s">
@@ -1907,51 +1980,51 @@
       <c r="G7" s="2">
         <v>0.78539999999999999</v>
       </c>
-      <c r="H7" s="33">
+      <c r="H7" s="21">
         <v>16.601400000000002</v>
       </c>
-      <c r="I7" s="33" t="s">
+      <c r="I7" s="21" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A8" s="25"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="25"/>
+      <c r="E8" s="20"/>
       <c r="F8" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G8" s="2">
         <v>0.67610000000000003</v>
       </c>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="B10" s="28"/>
-      <c r="C10" s="29"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="31"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="31"/>
-      <c r="C11" s="32"/>
-      <c r="E11" s="19" t="s">
+      <c r="B11" s="33"/>
+      <c r="C11" s="34"/>
+      <c r="E11" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="21"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="25"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A12" s="1" t="s">
@@ -1963,10 +2036,10 @@
       <c r="C12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="23"/>
+      <c r="F12" s="27"/>
       <c r="G12" s="3" t="s">
         <v>35</v>
       </c>
@@ -1987,7 +2060,7 @@
       <c r="C13" s="2">
         <v>5.0496999999999996</v>
       </c>
-      <c r="E13" s="24" t="s">
+      <c r="E13" s="19" t="s">
         <v>24</v>
       </c>
       <c r="F13" s="2" t="s">
@@ -1996,10 +2069,10 @@
       <c r="G13" s="2">
         <v>0.60419999999999996</v>
       </c>
-      <c r="H13" s="33">
+      <c r="H13" s="21">
         <v>6.7031000000000001</v>
       </c>
-      <c r="I13" s="33" t="s">
+      <c r="I13" s="21" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2013,23 +2086,23 @@
       <c r="C14" s="2">
         <v>5.5609000000000002</v>
       </c>
-      <c r="E14" s="25"/>
+      <c r="E14" s="20"/>
       <c r="F14" s="2" t="s">
         <v>34</v>
       </c>
       <c r="G14" s="2">
         <v>0.56520000000000004</v>
       </c>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="31"/>
-      <c r="C15" s="32"/>
-      <c r="E15" s="24" t="s">
+      <c r="B15" s="33"/>
+      <c r="C15" s="34"/>
+      <c r="E15" s="19" t="s">
         <v>25</v>
       </c>
       <c r="F15" s="2" t="s">
@@ -2038,15 +2111,15 @@
       <c r="G15" s="2">
         <v>0.58009999999999995</v>
       </c>
-      <c r="H15" s="33">
+      <c r="H15" s="21">
         <v>2.8894000000000002</v>
       </c>
-      <c r="I15" s="33">
+      <c r="I15" s="21">
         <v>3.8999999999999998E-3</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="28" t="s">
         <v>7</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -2055,25 +2128,25 @@
       <c r="C16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="25"/>
+      <c r="E16" s="20"/>
       <c r="F16" s="2" t="s">
         <v>34</v>
       </c>
       <c r="G16" s="2">
         <v>0.5534</v>
       </c>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A17" s="25"/>
+      <c r="A17" s="20"/>
       <c r="B17" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="24" t="s">
+      <c r="E17" s="19" t="s">
         <v>26</v>
       </c>
       <c r="F17" s="2" t="s">
@@ -2082,37 +2155,37 @@
       <c r="G17" s="2">
         <v>0.5393</v>
       </c>
-      <c r="H17" s="33">
+      <c r="H17" s="21">
         <v>1.9854000000000001</v>
       </c>
-      <c r="I17" s="33">
+      <c r="I17" s="21">
         <v>3.7600000000000001E-2</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="E18" s="25"/>
+      <c r="E18" s="20"/>
       <c r="F18" s="2" t="s">
         <v>34</v>
       </c>
       <c r="G18" s="2">
         <v>0.52139999999999997</v>
       </c>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A19" s="27" t="s">
+      <c r="A19" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="B19" s="28"/>
-      <c r="C19" s="29"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="31"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A20" s="30" t="s">
+      <c r="A20" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="31"/>
-      <c r="C20" s="32"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="34"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A21" s="1" t="s">
@@ -2148,14 +2221,14 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A24" s="30" t="s">
+      <c r="A24" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="31"/>
-      <c r="C24" s="32"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="34"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A25" s="26" t="s">
+      <c r="A25" s="28" t="s">
         <v>7</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -2166,7 +2239,7 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A26" s="25"/>
+      <c r="A26" s="20"/>
       <c r="B26" s="2" t="s">
         <v>17</v>
       </c>
@@ -2176,24 +2249,6 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
     <mergeCell ref="E1:I1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="E3:E4"/>
@@ -2210,6 +2265,24 @@
     <mergeCell ref="A19:C19"/>
     <mergeCell ref="A20:C20"/>
     <mergeCell ref="A24:C24"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2219,10 +2292,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2687A086-E6AD-4DC9-8E6D-5E9AEFD1DED8}">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -2235,7 +2308,7 @@
     <col min="7" max="16384" width="8.796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1" s="35" t="s">
         <v>41</v>
       </c>
@@ -2246,7 +2319,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A2" s="16" t="s">
         <v>39</v>
       </c>
@@ -2260,8 +2333,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A3" s="24" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A3" s="19" t="s">
         <v>24</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -2274,8 +2347,8 @@
         <v>34169</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="25"/>
+    <row r="4" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="20"/>
       <c r="B4" s="4" t="s">
         <v>68</v>
       </c>
@@ -2286,8 +2359,8 @@
         <v>17553</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A5" s="24" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A5" s="19" t="s">
         <v>25</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -2300,8 +2373,8 @@
         <v>19922</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="25"/>
+    <row r="6" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="20"/>
       <c r="B6" s="4" t="s">
         <v>68</v>
       </c>
@@ -2312,8 +2385,8 @@
         <v>40701</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A7" s="24" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A7" s="19" t="s">
         <v>26</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -2326,8 +2399,8 @@
         <v>13377</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="25"/>
+    <row r="8" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="20"/>
       <c r="B8" s="4" t="s">
         <v>68</v>
       </c>
@@ -2341,11 +2414,11 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A9" s="13"/>
       <c r="F9" s="12"/>
     </row>
-    <row r="10" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A10" s="35" t="s">
         <v>65</v>
       </c>
@@ -2354,7 +2427,7 @@
       <c r="D10" s="36"/>
       <c r="E10" s="37"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A11" s="16" t="s">
         <v>39</v>
       </c>
@@ -2370,9 +2443,12 @@
       <c r="E11" s="16" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="24" t="s">
+      <c r="G11" s="40" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A12" s="19" t="s">
         <v>24</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -2392,8 +2468,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A13" s="25"/>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A13" s="20"/>
       <c r="B13" s="4" t="s">
         <v>63</v>
       </c>
@@ -2410,9 +2486,13 @@
       <c r="F13" s="11" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="24" t="s">
+      <c r="G13" s="1">
+        <f>ABS(E13-E12)</f>
+        <v>2.8600000000000014E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A14" s="19" t="s">
         <v>25</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -2432,8 +2512,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A15" s="25"/>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A15" s="20"/>
       <c r="B15" s="4" t="s">
         <v>63</v>
       </c>
@@ -2450,9 +2530,13 @@
       <c r="F15" s="11" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A16" s="24" t="s">
+      <c r="G15" s="1">
+        <f>ABS(E15-E14)</f>
+        <v>3.8600000000000023E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A16" s="19" t="s">
         <v>26</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -2473,7 +2557,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A17" s="25"/>
+      <c r="A17" s="20"/>
       <c r="B17" s="4" t="s">
         <v>63</v>
       </c>
@@ -2489,6 +2573,10 @@
       </c>
       <c r="F17" s="11" t="s">
         <v>50</v>
+      </c>
+      <c r="G17" s="1">
+        <f>ABS(E17-E16)</f>
+        <v>8.4699999999999998E-2</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.5">
@@ -2518,7 +2606,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A21" s="24" t="s">
+      <c r="A21" s="19" t="s">
         <v>24</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -2540,7 +2628,7 @@
       <c r="H21" s="5"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A22" s="25"/>
+      <c r="A22" s="20"/>
       <c r="B22" s="4" t="s">
         <v>63</v>
       </c>
@@ -2557,10 +2645,14 @@
       <c r="F22" s="6" t="s">
         <v>46</v>
       </c>
+      <c r="G22" s="1">
+        <f>ABS(E22-E21)</f>
+        <v>6.7799999999999999E-2</v>
+      </c>
       <c r="H22" s="5"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A23" s="24" t="s">
+      <c r="A23" s="19" t="s">
         <v>25</v>
       </c>
       <c r="B23" s="4" t="s">
@@ -2581,7 +2673,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A24" s="25"/>
+      <c r="A24" s="20"/>
       <c r="B24" s="4" t="s">
         <v>63</v>
       </c>
@@ -2598,9 +2690,13 @@
       <c r="F24" s="6" t="s">
         <v>46</v>
       </c>
+      <c r="G24" s="1">
+        <f>ABS(E24-E23)</f>
+        <v>0.15890000000000001</v>
+      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A25" s="24" t="s">
+      <c r="A25" s="19" t="s">
         <v>26</v>
       </c>
       <c r="B25" s="4" t="s">
@@ -2621,7 +2717,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A26" s="25"/>
+      <c r="A26" s="20"/>
       <c r="B26" s="4" t="s">
         <v>63</v>
       </c>
@@ -2638,6 +2734,10 @@
       <c r="F26" s="6" t="s">
         <v>47</v>
       </c>
+      <c r="G26" s="1">
+        <f>ABS(E26-E25)</f>
+        <v>0.16839999999999999</v>
+      </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.5">
       <c r="E28" s="17" t="s">
@@ -2649,8 +2749,264 @@
         <v>70</v>
       </c>
     </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A32" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="B32" s="36"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="37"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A33" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="B33" s="39"/>
+      <c r="C33" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A34" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="C34" s="42">
+        <v>0.92889999999999995</v>
+      </c>
+      <c r="D34" s="42">
+        <v>0.9325</v>
+      </c>
+      <c r="E34" s="42">
+        <v>0.84360000000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A35" s="43"/>
+      <c r="B35" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35" s="42">
+        <v>0.89700000000000002</v>
+      </c>
+      <c r="D35" s="42">
+        <v>0.91100000000000003</v>
+      </c>
+      <c r="E35" s="42">
+        <v>0.8548</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A36" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="C36" s="42">
+        <v>0.78420000000000001</v>
+      </c>
+      <c r="D36" s="42">
+        <v>0.82250000000000001</v>
+      </c>
+      <c r="E36" s="42">
+        <v>0.79400000000000004</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A37" s="43"/>
+      <c r="B37" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="C37" s="42">
+        <v>0.70940000000000003</v>
+      </c>
+      <c r="D37" s="42">
+        <v>0.79159999999999997</v>
+      </c>
+      <c r="E37" s="42">
+        <v>0.79369999999999996</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A38" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="B38" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="C38" s="42">
+        <v>0.88170000000000004</v>
+      </c>
+      <c r="D38" s="42">
+        <v>0.90090000000000003</v>
+      </c>
+      <c r="E38" s="42">
+        <v>0.81720000000000004</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A39" s="43"/>
+      <c r="B39" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="C39" s="42">
+        <v>0.83930000000000005</v>
+      </c>
+      <c r="D39" s="42">
+        <v>0.87690000000000001</v>
+      </c>
+      <c r="E39" s="42">
+        <v>0.80720000000000003</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A40" s="42"/>
+      <c r="B40" s="42"/>
+      <c r="C40" s="42"/>
+      <c r="D40" s="42"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A41" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="B41" s="45"/>
+      <c r="C41" s="45"/>
+      <c r="D41" s="45"/>
+      <c r="E41" s="49"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A42" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="B42" s="47"/>
+      <c r="C42" s="48" t="s">
+        <v>76</v>
+      </c>
+      <c r="D42" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="E42" s="16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A43" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="B43" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="C43" s="42">
+        <v>0.8448</v>
+      </c>
+      <c r="D43" s="42">
+        <v>0.85640000000000005</v>
+      </c>
+      <c r="E43" s="42">
+        <v>0.81789999999999996</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A44" s="43"/>
+      <c r="B44" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="C44" s="42">
+        <v>0.8296</v>
+      </c>
+      <c r="D44" s="42">
+        <v>0.85489999999999999</v>
+      </c>
+      <c r="E44" s="42">
+        <v>0.82050000000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A45" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="B45" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="C45" s="42">
+        <v>0.88400000000000001</v>
+      </c>
+      <c r="D45" s="42">
+        <v>0.90490000000000004</v>
+      </c>
+      <c r="E45" s="42">
+        <v>0.82369999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A46" s="43"/>
+      <c r="B46" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="C46" s="42">
+        <v>0.77</v>
+      </c>
+      <c r="D46" s="42">
+        <v>0.8286</v>
+      </c>
+      <c r="E46" s="42">
+        <v>0.80900000000000005</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A47" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="B47" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="C47" s="42">
+        <v>0.82189999999999996</v>
+      </c>
+      <c r="D47" s="42">
+        <v>0.86229999999999996</v>
+      </c>
+      <c r="E47" s="42">
+        <v>0.80179999999999996</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A48" s="43"/>
+      <c r="B48" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="C48" s="42">
+        <v>0.76200000000000001</v>
+      </c>
+      <c r="D48" s="42">
+        <v>0.83389999999999997</v>
+      </c>
+      <c r="E48" s="42">
+        <v>0.77090000000000003</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="22">
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A41:E41"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A32:E32"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="A25:A26"/>

--- a/dataAnalysis.xlsx
+++ b/dataAnalysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\botImpact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20CD6EC2-F68C-4B4B-A804-7750D1596254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F71195-300E-4608-B4F1-77FF491DB821}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="18192" windowHeight="11592" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="86">
   <si>
     <t>Node Degree</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1099,7 +1099,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Average Inner Product</t>
+    <t>Homo Rank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>150epoch</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1246,7 +1250,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1274,6 +1278,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE7F5F5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1368,7 +1378,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1424,31 +1434,34 @@
     <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1472,6 +1485,30 @@
     <xf numFmtId="176" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1481,40 +1518,31 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="177" fontId="4" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1825,35 +1853,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="31"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="32"/>
       <c r="D1" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="25"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="24"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="35"/>
       <c r="D2" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="27"/>
+      <c r="F2" s="26"/>
       <c r="G2" s="3" t="s">
         <v>28</v>
       </c>
@@ -1877,7 +1905,7 @@
       <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="27" t="s">
         <v>24</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -1886,10 +1914,10 @@
       <c r="G3" s="2">
         <v>0.82099999999999995</v>
       </c>
-      <c r="H3" s="21">
+      <c r="H3" s="36">
         <v>23.857700000000001</v>
       </c>
-      <c r="I3" s="21" t="s">
+      <c r="I3" s="36" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1906,15 +1934,15 @@
       <c r="D4" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="E4" s="20"/>
+      <c r="E4" s="28"/>
       <c r="F4" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G4" s="2">
         <v>0.74229999999999996</v>
       </c>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A5" s="2" t="s">
@@ -1929,7 +1957,7 @@
       <c r="D5" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="27" t="s">
         <v>25</v>
       </c>
       <c r="F5" s="2" t="s">
@@ -1938,31 +1966,31 @@
       <c r="G5" s="2">
         <v>0.83950000000000002</v>
       </c>
-      <c r="H5" s="21">
+      <c r="H5" s="36">
         <v>20.513400000000001</v>
       </c>
-      <c r="I5" s="21" t="s">
+      <c r="I5" s="36" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="34"/>
-      <c r="E6" s="20"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="35"/>
+      <c r="E6" s="28"/>
       <c r="F6" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G6" s="2">
         <v>0.73529999999999995</v>
       </c>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="29" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1971,7 +1999,7 @@
       <c r="C7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="27" t="s">
         <v>26</v>
       </c>
       <c r="F7" s="2" t="s">
@@ -1980,51 +2008,51 @@
       <c r="G7" s="2">
         <v>0.78539999999999999</v>
       </c>
-      <c r="H7" s="21">
+      <c r="H7" s="36">
         <v>16.601400000000002</v>
       </c>
-      <c r="I7" s="21" t="s">
+      <c r="I7" s="36" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A8" s="20"/>
+      <c r="A8" s="28"/>
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="20"/>
+      <c r="E8" s="28"/>
       <c r="F8" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G8" s="2">
         <v>0.67610000000000003</v>
       </c>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="31"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="32"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="33"/>
-      <c r="C11" s="34"/>
-      <c r="E11" s="23" t="s">
+      <c r="B11" s="34"/>
+      <c r="C11" s="35"/>
+      <c r="E11" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="25"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="24"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A12" s="1" t="s">
@@ -2036,10 +2064,10 @@
       <c r="C12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="26" t="s">
+      <c r="E12" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="27"/>
+      <c r="F12" s="26"/>
       <c r="G12" s="3" t="s">
         <v>35</v>
       </c>
@@ -2060,7 +2088,7 @@
       <c r="C13" s="2">
         <v>5.0496999999999996</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="27" t="s">
         <v>24</v>
       </c>
       <c r="F13" s="2" t="s">
@@ -2069,10 +2097,10 @@
       <c r="G13" s="2">
         <v>0.60419999999999996</v>
       </c>
-      <c r="H13" s="21">
+      <c r="H13" s="36">
         <v>6.7031000000000001</v>
       </c>
-      <c r="I13" s="21" t="s">
+      <c r="I13" s="36" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2086,23 +2114,23 @@
       <c r="C14" s="2">
         <v>5.5609000000000002</v>
       </c>
-      <c r="E14" s="20"/>
+      <c r="E14" s="28"/>
       <c r="F14" s="2" t="s">
         <v>34</v>
       </c>
       <c r="G14" s="2">
         <v>0.56520000000000004</v>
       </c>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A15" s="32" t="s">
+      <c r="A15" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="33"/>
-      <c r="C15" s="34"/>
-      <c r="E15" s="19" t="s">
+      <c r="B15" s="34"/>
+      <c r="C15" s="35"/>
+      <c r="E15" s="27" t="s">
         <v>25</v>
       </c>
       <c r="F15" s="2" t="s">
@@ -2111,15 +2139,15 @@
       <c r="G15" s="2">
         <v>0.58009999999999995</v>
       </c>
-      <c r="H15" s="21">
+      <c r="H15" s="36">
         <v>2.8894000000000002</v>
       </c>
-      <c r="I15" s="21">
+      <c r="I15" s="36">
         <v>3.8999999999999998E-3</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A16" s="28" t="s">
+      <c r="A16" s="29" t="s">
         <v>7</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -2128,25 +2156,25 @@
       <c r="C16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="20"/>
+      <c r="E16" s="28"/>
       <c r="F16" s="2" t="s">
         <v>34</v>
       </c>
       <c r="G16" s="2">
         <v>0.5534</v>
       </c>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A17" s="20"/>
+      <c r="A17" s="28"/>
       <c r="B17" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="19" t="s">
+      <c r="E17" s="27" t="s">
         <v>26</v>
       </c>
       <c r="F17" s="2" t="s">
@@ -2155,37 +2183,37 @@
       <c r="G17" s="2">
         <v>0.5393</v>
       </c>
-      <c r="H17" s="21">
+      <c r="H17" s="36">
         <v>1.9854000000000001</v>
       </c>
-      <c r="I17" s="21">
+      <c r="I17" s="36">
         <v>3.7600000000000001E-2</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="E18" s="20"/>
+      <c r="E18" s="28"/>
       <c r="F18" s="2" t="s">
         <v>34</v>
       </c>
       <c r="G18" s="2">
         <v>0.52139999999999997</v>
       </c>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A19" s="29" t="s">
+      <c r="A19" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="B19" s="30"/>
-      <c r="C19" s="31"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="32"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A20" s="32" t="s">
+      <c r="A20" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="33"/>
-      <c r="C20" s="34"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="35"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A21" s="1" t="s">
@@ -2221,14 +2249,14 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A24" s="32" t="s">
+      <c r="A24" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="33"/>
-      <c r="C24" s="34"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="35"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A25" s="28" t="s">
+      <c r="A25" s="29" t="s">
         <v>7</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -2239,7 +2267,7 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A26" s="20"/>
+      <c r="A26" s="28"/>
       <c r="B26" s="2" t="s">
         <v>17</v>
       </c>
@@ -2249,6 +2277,24 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
     <mergeCell ref="E1:I1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="E3:E4"/>
@@ -2265,24 +2311,6 @@
     <mergeCell ref="A19:C19"/>
     <mergeCell ref="A20:C20"/>
     <mergeCell ref="A24:C24"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2294,8 +2322,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2687A086-E6AD-4DC9-8E6D-5E9AEFD1DED8}">
   <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -2309,12 +2337,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="37"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="46"/>
       <c r="E1" s="5" t="s">
         <v>52</v>
       </c>
@@ -2334,7 +2362,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="27" t="s">
         <v>24</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -2348,7 +2376,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="20"/>
+      <c r="A4" s="28"/>
       <c r="B4" s="4" t="s">
         <v>68</v>
       </c>
@@ -2360,7 +2388,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="27" t="s">
         <v>25</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -2374,7 +2402,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="20"/>
+      <c r="A6" s="28"/>
       <c r="B6" s="4" t="s">
         <v>68</v>
       </c>
@@ -2386,7 +2414,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="27" t="s">
         <v>26</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -2400,7 +2428,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="20"/>
+      <c r="A8" s="28"/>
       <c r="B8" s="4" t="s">
         <v>68</v>
       </c>
@@ -2419,13 +2447,13 @@
       <c r="F9" s="12"/>
     </row>
     <row r="10" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="37"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="46"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A11" s="16" t="s">
@@ -2443,12 +2471,12 @@
       <c r="E11" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="G11" s="40" t="s">
+      <c r="G11" s="19" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="27" t="s">
         <v>24</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -2469,7 +2497,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A13" s="20"/>
+      <c r="A13" s="28"/>
       <c r="B13" s="4" t="s">
         <v>63</v>
       </c>
@@ -2492,7 +2520,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="27" t="s">
         <v>25</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -2513,7 +2541,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A15" s="20"/>
+      <c r="A15" s="28"/>
       <c r="B15" s="4" t="s">
         <v>63</v>
       </c>
@@ -2536,7 +2564,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="27" t="s">
         <v>26</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -2557,36 +2585,36 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A17" s="20"/>
+      <c r="A17" s="28"/>
       <c r="B17" s="4" t="s">
         <v>63</v>
       </c>
       <c r="C17" s="8">
-        <v>0.17810000000000001</v>
+        <v>0.156</v>
       </c>
       <c r="D17" s="7">
-        <v>0.15720000000000001</v>
+        <v>0.2127</v>
       </c>
       <c r="E17" s="2">
         <f t="shared" si="0"/>
-        <v>2.0900000000000002E-2</v>
+        <v>-5.67E-2</v>
       </c>
       <c r="F17" s="11" t="s">
         <v>50</v>
       </c>
       <c r="G17" s="1">
         <f>ABS(E17-E16)</f>
-        <v>8.4699999999999998E-2</v>
+        <v>7.0999999999999952E-3</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A19" s="35" t="s">
+      <c r="A19" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="37"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="46"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A20" s="16" t="s">
@@ -2606,7 +2634,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="27" t="s">
         <v>24</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -2628,7 +2656,7 @@
       <c r="H21" s="5"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A22" s="20"/>
+      <c r="A22" s="28"/>
       <c r="B22" s="4" t="s">
         <v>63</v>
       </c>
@@ -2652,7 +2680,7 @@
       <c r="H22" s="5"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="27" t="s">
         <v>25</v>
       </c>
       <c r="B23" s="4" t="s">
@@ -2673,7 +2701,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A24" s="20"/>
+      <c r="A24" s="28"/>
       <c r="B24" s="4" t="s">
         <v>63</v>
       </c>
@@ -2696,7 +2724,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="27" t="s">
         <v>26</v>
       </c>
       <c r="B25" s="4" t="s">
@@ -2717,7 +2745,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A26" s="20"/>
+      <c r="A26" s="28"/>
       <c r="B26" s="4" t="s">
         <v>63</v>
       </c>
@@ -2749,264 +2777,308 @@
         <v>70</v>
       </c>
     </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A31" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="B31" s="51"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="51"/>
+    </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A32" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="B32" s="36"/>
-      <c r="C32" s="36"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="37"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A33" s="38" t="s">
+      <c r="A32" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="B33" s="39"/>
-      <c r="C33" s="16" t="s">
+      <c r="B32" s="43"/>
+      <c r="C32" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="D33" s="16" t="s">
+      <c r="D32" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="E33" s="16" t="s">
+      <c r="F32" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A34" s="41" t="s">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A33" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="B34" s="42" t="s">
+      <c r="B33" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="C34" s="42">
-        <v>0.92889999999999995</v>
-      </c>
-      <c r="D34" s="42">
-        <v>0.9325</v>
-      </c>
-      <c r="E34" s="42">
-        <v>0.84360000000000002</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A35" s="43"/>
-      <c r="B35" s="42" t="s">
+      <c r="C33" s="55">
+        <v>0.92610000000000003</v>
+      </c>
+      <c r="D33" s="55">
+        <v>0.93359999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A34" s="41"/>
+      <c r="B34" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="C35" s="42">
-        <v>0.89700000000000002</v>
-      </c>
-      <c r="D35" s="42">
-        <v>0.91100000000000003</v>
-      </c>
-      <c r="E35" s="42">
-        <v>0.8548</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A36" s="41" t="s">
+      <c r="C34" s="55">
+        <v>0.89559999999999995</v>
+      </c>
+      <c r="D34" s="55">
+        <v>0.91930000000000001</v>
+      </c>
+      <c r="F34" s="4">
+        <v>3</v>
+      </c>
+      <c r="G34" s="2">
+        <f>C33-C34</f>
+        <v>3.0500000000000083E-2</v>
+      </c>
+      <c r="H34" s="2">
+        <f>D33-D34</f>
+        <v>1.4299999999999979E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A35" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="B36" s="42" t="s">
+      <c r="B35" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="C36" s="42">
-        <v>0.78420000000000001</v>
-      </c>
-      <c r="D36" s="42">
-        <v>0.82250000000000001</v>
-      </c>
-      <c r="E36" s="42">
-        <v>0.79400000000000004</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A37" s="43"/>
-      <c r="B37" s="42" t="s">
+      <c r="C35" s="54">
+        <v>0.81950000000000001</v>
+      </c>
+      <c r="D35" s="54">
+        <v>0.8589</v>
+      </c>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A36" s="49"/>
+      <c r="B36" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="C37" s="42">
-        <v>0.70940000000000003</v>
-      </c>
-      <c r="D37" s="42">
-        <v>0.79159999999999997</v>
-      </c>
-      <c r="E37" s="42">
-        <v>0.79369999999999996</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A38" s="41" t="s">
+      <c r="C36" s="54">
+        <v>0.77729999999999999</v>
+      </c>
+      <c r="D36" s="54">
+        <v>0.84099999999999997</v>
+      </c>
+      <c r="F36" s="4">
+        <v>2</v>
+      </c>
+      <c r="G36" s="2">
+        <f>C35-C36</f>
+        <v>4.2200000000000015E-2</v>
+      </c>
+      <c r="H36" s="2">
+        <f>D35-D36</f>
+        <v>1.7900000000000027E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A37" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="B38" s="42" t="s">
+      <c r="B37" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="C38" s="42">
-        <v>0.88170000000000004</v>
-      </c>
-      <c r="D38" s="42">
-        <v>0.90090000000000003</v>
-      </c>
-      <c r="E38" s="42">
-        <v>0.81720000000000004</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A39" s="43"/>
-      <c r="B39" s="42" t="s">
+      <c r="C37" s="55">
+        <v>0.90229999999999999</v>
+      </c>
+      <c r="D37" s="55">
+        <v>0.91910000000000003</v>
+      </c>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A38" s="41"/>
+      <c r="B38" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="C39" s="42">
-        <v>0.83930000000000005</v>
-      </c>
-      <c r="D39" s="42">
-        <v>0.87690000000000001</v>
-      </c>
-      <c r="E39" s="42">
-        <v>0.80720000000000003</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A40" s="42"/>
-      <c r="B40" s="42"/>
-      <c r="C40" s="42"/>
-      <c r="D40" s="42"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A41" s="44" t="s">
+      <c r="C38" s="55">
+        <v>0.87629999999999997</v>
+      </c>
+      <c r="D38" s="55">
+        <v>0.90820000000000001</v>
+      </c>
+      <c r="F38" s="4">
+        <v>4</v>
+      </c>
+      <c r="G38" s="2">
+        <f>C37-C38</f>
+        <v>2.6000000000000023E-2</v>
+      </c>
+      <c r="H38" s="2">
+        <f>D37-D38</f>
+        <v>1.0900000000000021E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A39" s="20"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A40" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="B41" s="45"/>
-      <c r="C41" s="45"/>
-      <c r="D41" s="45"/>
-      <c r="E41" s="49"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A42" s="46" t="s">
+      <c r="B40" s="53"/>
+      <c r="C40" s="53"/>
+      <c r="D40" s="53"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A41" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="B42" s="47"/>
-      <c r="C42" s="48" t="s">
+      <c r="B41" s="39"/>
+      <c r="C41" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="D42" s="48" t="s">
+      <c r="D41" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="E42" s="16" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A43" s="41" t="s">
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A42" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="B43" s="42" t="s">
+      <c r="B42" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="C43" s="42">
-        <v>0.8448</v>
-      </c>
-      <c r="D43" s="42">
-        <v>0.85640000000000005</v>
-      </c>
-      <c r="E43" s="42">
-        <v>0.81789999999999996</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A44" s="43"/>
-      <c r="B44" s="42" t="s">
+      <c r="C42" s="55">
+        <v>0.83899999999999997</v>
+      </c>
+      <c r="D42" s="55">
+        <v>0.86609999999999998</v>
+      </c>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A43" s="41"/>
+      <c r="B43" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="C44" s="42">
-        <v>0.8296</v>
-      </c>
-      <c r="D44" s="42">
-        <v>0.85489999999999999</v>
-      </c>
-      <c r="E44" s="42">
-        <v>0.82050000000000001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A45" s="41" t="s">
+      <c r="C43" s="55">
+        <v>0.81089999999999995</v>
+      </c>
+      <c r="D43" s="55">
+        <v>0.85650000000000004</v>
+      </c>
+      <c r="F43" s="4">
+        <v>4</v>
+      </c>
+      <c r="G43" s="2">
+        <f>C42-C43</f>
+        <v>2.8100000000000014E-2</v>
+      </c>
+      <c r="H43" s="2">
+        <f>D42-D43</f>
+        <v>9.5999999999999419E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A44" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="B45" s="42" t="s">
+      <c r="B44" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="C45" s="42">
-        <v>0.88400000000000001</v>
-      </c>
-      <c r="D45" s="42">
-        <v>0.90490000000000004</v>
-      </c>
-      <c r="E45" s="42">
-        <v>0.82369999999999999</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A46" s="43"/>
-      <c r="B46" s="42" t="s">
+      <c r="C44" s="54">
+        <v>0.92249999999999999</v>
+      </c>
+      <c r="D44" s="54">
+        <v>0.93559999999999999</v>
+      </c>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A45" s="49"/>
+      <c r="B45" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="C46" s="42">
-        <v>0.77</v>
-      </c>
-      <c r="D46" s="42">
-        <v>0.8286</v>
-      </c>
-      <c r="E46" s="42">
-        <v>0.80900000000000005</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A47" s="41" t="s">
+      <c r="C45" s="54">
+        <v>0.85250000000000004</v>
+      </c>
+      <c r="D45" s="54">
+        <v>0.88560000000000005</v>
+      </c>
+      <c r="F45" s="4">
+        <v>1</v>
+      </c>
+      <c r="G45" s="2">
+        <f>C44-C45</f>
+        <v>6.9999999999999951E-2</v>
+      </c>
+      <c r="H45" s="2">
+        <f>D44-D45</f>
+        <v>4.9999999999999933E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A46" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="B47" s="42" t="s">
+      <c r="B46" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="C47" s="42">
-        <v>0.82189999999999996</v>
-      </c>
-      <c r="D47" s="42">
-        <v>0.86229999999999996</v>
-      </c>
-      <c r="E47" s="42">
-        <v>0.80179999999999996</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A48" s="43"/>
-      <c r="B48" s="42" t="s">
+      <c r="C46" s="55">
+        <v>0.85229999999999995</v>
+      </c>
+      <c r="D46" s="55">
+        <v>0.89329999999999998</v>
+      </c>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A47" s="41"/>
+      <c r="B47" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="C48" s="42">
-        <v>0.76200000000000001</v>
-      </c>
-      <c r="D48" s="42">
-        <v>0.83389999999999997</v>
-      </c>
-      <c r="E48" s="42">
-        <v>0.77090000000000003</v>
+      <c r="C47" s="55">
+        <v>0.83709999999999996</v>
+      </c>
+      <c r="D47" s="55">
+        <v>0.89329999999999998</v>
+      </c>
+      <c r="F47" s="4">
+        <v>6</v>
+      </c>
+      <c r="G47" s="2">
+        <f>C46-C47</f>
+        <v>1.5199999999999991E-2</v>
+      </c>
+      <c r="H47" s="2">
+        <f>D46-D47</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A48" s="4" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="A41:E41"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A32:E32"/>
+  <mergeCells count="20">
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A41:B41"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="A25:A26"/>

--- a/dataAnalysis.xlsx
+++ b/dataAnalysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\botImpact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F71195-300E-4608-B4F1-77FF491DB821}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0350489-837D-4900-8C3B-BFEE2DBCB27A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="18192" windowHeight="11592" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="88">
   <si>
     <t>Node Degree</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1104,6 +1104,61 @@
   </si>
   <si>
     <t>150epoch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reg: 10, 1, 1, 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>模型选择：以收敛为标准（不需要看</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Loss</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的值，只要</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Loss</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>逐渐平稳即可）</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1378,7 +1433,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1443,6 +1498,39 @@
     <xf numFmtId="177" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1491,58 +1579,37 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="2" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1853,35 +1920,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="32"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="43"/>
       <c r="D1" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="24"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="35"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="35"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="46"/>
       <c r="D2" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="26"/>
+      <c r="F2" s="37"/>
       <c r="G2" s="3" t="s">
         <v>28</v>
       </c>
@@ -1905,7 +1972,7 @@
       <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="38" t="s">
         <v>24</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -1914,10 +1981,10 @@
       <c r="G3" s="2">
         <v>0.82099999999999995</v>
       </c>
-      <c r="H3" s="36">
+      <c r="H3" s="47">
         <v>23.857700000000001</v>
       </c>
-      <c r="I3" s="36" t="s">
+      <c r="I3" s="47" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1934,15 +2001,15 @@
       <c r="D4" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="E4" s="28"/>
+      <c r="E4" s="39"/>
       <c r="F4" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G4" s="2">
         <v>0.74229999999999996</v>
       </c>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A5" s="2" t="s">
@@ -1957,7 +2024,7 @@
       <c r="D5" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="38" t="s">
         <v>25</v>
       </c>
       <c r="F5" s="2" t="s">
@@ -1966,31 +2033,31 @@
       <c r="G5" s="2">
         <v>0.83950000000000002</v>
       </c>
-      <c r="H5" s="36">
+      <c r="H5" s="47">
         <v>20.513400000000001</v>
       </c>
-      <c r="I5" s="36" t="s">
+      <c r="I5" s="47" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="35"/>
-      <c r="E6" s="28"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="46"/>
+      <c r="E6" s="39"/>
       <c r="F6" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G6" s="2">
         <v>0.73529999999999995</v>
       </c>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="40" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1999,7 +2066,7 @@
       <c r="C7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="38" t="s">
         <v>26</v>
       </c>
       <c r="F7" s="2" t="s">
@@ -2008,51 +2075,51 @@
       <c r="G7" s="2">
         <v>0.78539999999999999</v>
       </c>
-      <c r="H7" s="36">
+      <c r="H7" s="47">
         <v>16.601400000000002</v>
       </c>
-      <c r="I7" s="36" t="s">
+      <c r="I7" s="47" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A8" s="28"/>
+      <c r="A8" s="39"/>
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="28"/>
+      <c r="E8" s="39"/>
       <c r="F8" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G8" s="2">
         <v>0.67610000000000003</v>
       </c>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="B10" s="31"/>
-      <c r="C10" s="32"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="43"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="34"/>
-      <c r="C11" s="35"/>
-      <c r="E11" s="22" t="s">
+      <c r="B11" s="45"/>
+      <c r="C11" s="46"/>
+      <c r="E11" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="24"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="35"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A12" s="1" t="s">
@@ -2064,10 +2131,10 @@
       <c r="C12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="25" t="s">
+      <c r="E12" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="26"/>
+      <c r="F12" s="37"/>
       <c r="G12" s="3" t="s">
         <v>35</v>
       </c>
@@ -2088,7 +2155,7 @@
       <c r="C13" s="2">
         <v>5.0496999999999996</v>
       </c>
-      <c r="E13" s="27" t="s">
+      <c r="E13" s="38" t="s">
         <v>24</v>
       </c>
       <c r="F13" s="2" t="s">
@@ -2097,10 +2164,10 @@
       <c r="G13" s="2">
         <v>0.60419999999999996</v>
       </c>
-      <c r="H13" s="36">
+      <c r="H13" s="47">
         <v>6.7031000000000001</v>
       </c>
-      <c r="I13" s="36" t="s">
+      <c r="I13" s="47" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2114,23 +2181,23 @@
       <c r="C14" s="2">
         <v>5.5609000000000002</v>
       </c>
-      <c r="E14" s="28"/>
+      <c r="E14" s="39"/>
       <c r="F14" s="2" t="s">
         <v>34</v>
       </c>
       <c r="G14" s="2">
         <v>0.56520000000000004</v>
       </c>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="48"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A15" s="33" t="s">
+      <c r="A15" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="34"/>
-      <c r="C15" s="35"/>
-      <c r="E15" s="27" t="s">
+      <c r="B15" s="45"/>
+      <c r="C15" s="46"/>
+      <c r="E15" s="38" t="s">
         <v>25</v>
       </c>
       <c r="F15" s="2" t="s">
@@ -2139,15 +2206,15 @@
       <c r="G15" s="2">
         <v>0.58009999999999995</v>
       </c>
-      <c r="H15" s="36">
+      <c r="H15" s="47">
         <v>2.8894000000000002</v>
       </c>
-      <c r="I15" s="36">
+      <c r="I15" s="47">
         <v>3.8999999999999998E-3</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="40" t="s">
         <v>7</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -2156,25 +2223,25 @@
       <c r="C16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="28"/>
+      <c r="E16" s="39"/>
       <c r="F16" s="2" t="s">
         <v>34</v>
       </c>
       <c r="G16" s="2">
         <v>0.5534</v>
       </c>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A17" s="28"/>
+      <c r="A17" s="39"/>
       <c r="B17" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="27" t="s">
+      <c r="E17" s="38" t="s">
         <v>26</v>
       </c>
       <c r="F17" s="2" t="s">
@@ -2183,37 +2250,37 @@
       <c r="G17" s="2">
         <v>0.5393</v>
       </c>
-      <c r="H17" s="36">
+      <c r="H17" s="47">
         <v>1.9854000000000001</v>
       </c>
-      <c r="I17" s="36">
+      <c r="I17" s="47">
         <v>3.7600000000000001E-2</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="E18" s="28"/>
+      <c r="E18" s="39"/>
       <c r="F18" s="2" t="s">
         <v>34</v>
       </c>
       <c r="G18" s="2">
         <v>0.52139999999999997</v>
       </c>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="B19" s="31"/>
-      <c r="C19" s="32"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="43"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A20" s="33" t="s">
+      <c r="A20" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="34"/>
-      <c r="C20" s="35"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="46"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A21" s="1" t="s">
@@ -2249,14 +2316,14 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A24" s="33" t="s">
+      <c r="A24" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="34"/>
-      <c r="C24" s="35"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="46"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A25" s="29" t="s">
+      <c r="A25" s="40" t="s">
         <v>7</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -2267,7 +2334,7 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A26" s="28"/>
+      <c r="A26" s="39"/>
       <c r="B26" s="2" t="s">
         <v>17</v>
       </c>
@@ -2322,8 +2389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2687A086-E6AD-4DC9-8E6D-5E9AEFD1DED8}">
   <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -2337,14 +2404,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="46"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="51"/>
       <c r="E1" s="5" t="s">
         <v>52</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.5">
@@ -2362,7 +2432,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="38" t="s">
         <v>24</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -2376,7 +2446,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="28"/>
+      <c r="A4" s="39"/>
       <c r="B4" s="4" t="s">
         <v>68</v>
       </c>
@@ -2388,7 +2458,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="38" t="s">
         <v>25</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -2402,7 +2472,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="28"/>
+      <c r="A6" s="39"/>
       <c r="B6" s="4" t="s">
         <v>68</v>
       </c>
@@ -2414,7 +2484,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="38" t="s">
         <v>26</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -2428,7 +2498,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="28"/>
+      <c r="A8" s="39"/>
       <c r="B8" s="4" t="s">
         <v>68</v>
       </c>
@@ -2444,16 +2514,18 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A9" s="13"/>
-      <c r="F9" s="12"/>
+      <c r="F9" s="12" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="10" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="B10" s="45"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="46"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="51"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A11" s="16" t="s">
@@ -2476,16 +2548,16 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="38" t="s">
         <v>24</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="29">
         <v>0.20519999999999999</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="30">
         <v>0.1487</v>
       </c>
       <c r="E12" s="2">
@@ -2497,39 +2569,39 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A13" s="28"/>
+      <c r="A13" s="39"/>
       <c r="B13" s="4" t="s">
         <v>63</v>
       </c>
       <c r="C13" s="7">
-        <v>0.2326</v>
+        <v>0.21229999999999999</v>
       </c>
       <c r="D13" s="8">
-        <v>0.14749999999999999</v>
+        <v>0.1106</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" ref="E13:E17" si="0">C13-D13</f>
-        <v>8.5100000000000009E-2</v>
+        <v>0.10169999999999998</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>51</v>
       </c>
       <c r="G13" s="1">
         <f>ABS(E13-E12)</f>
-        <v>2.8600000000000014E-2</v>
+        <v>4.519999999999999E-2</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="38" t="s">
         <v>25</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="29">
         <v>-8.3900000000000002E-2</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="30">
         <v>-0.11269999999999999</v>
       </c>
       <c r="E14" s="2">
@@ -2541,39 +2613,39 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A15" s="28"/>
+      <c r="A15" s="39"/>
       <c r="B15" s="4" t="s">
         <v>63</v>
       </c>
       <c r="C15" s="7">
-        <v>-5.0999999999999997E-2</v>
+        <v>-4.9700000000000001E-2</v>
       </c>
       <c r="D15" s="8">
-        <v>-0.11840000000000001</v>
+        <v>-0.1211</v>
       </c>
       <c r="E15" s="2">
         <f t="shared" si="0"/>
-        <v>6.7400000000000015E-2</v>
+        <v>7.1399999999999991E-2</v>
       </c>
       <c r="F15" s="11" t="s">
         <v>49</v>
       </c>
       <c r="G15" s="1">
         <f>ABS(E15-E14)</f>
-        <v>3.8600000000000023E-2</v>
+        <v>4.2599999999999999E-2</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="38" t="s">
         <v>26</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="30">
         <v>0.1537</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="29">
         <v>0.2175</v>
       </c>
       <c r="E16" s="2">
@@ -2585,36 +2657,36 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A17" s="28"/>
+      <c r="A17" s="39"/>
       <c r="B17" s="4" t="s">
         <v>63</v>
       </c>
       <c r="C17" s="8">
-        <v>0.156</v>
+        <v>0.15890000000000001</v>
       </c>
       <c r="D17" s="7">
-        <v>0.2127</v>
+        <v>0.19120000000000001</v>
       </c>
       <c r="E17" s="2">
         <f t="shared" si="0"/>
-        <v>-5.67E-2</v>
+        <v>-3.2299999999999995E-2</v>
       </c>
       <c r="F17" s="11" t="s">
         <v>50</v>
       </c>
       <c r="G17" s="1">
         <f>ABS(E17-E16)</f>
-        <v>7.0999999999999952E-3</v>
+        <v>3.15E-2</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A19" s="44" t="s">
+      <c r="A19" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="B19" s="45"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="46"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="51"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A20" s="16" t="s">
@@ -2634,16 +2706,16 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A21" s="27" t="s">
+      <c r="A21" s="38" t="s">
         <v>24</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="31">
         <v>3.2000000000000002E-3</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="32">
         <v>6.1600000000000002E-2</v>
       </c>
       <c r="E21" s="2">
@@ -2656,40 +2728,40 @@
       <c r="H21" s="5"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A22" s="28"/>
+      <c r="A22" s="39"/>
       <c r="B22" s="4" t="s">
         <v>63</v>
       </c>
       <c r="C22" s="9">
-        <v>-1.2999999999999999E-3</v>
+        <v>-5.7000000000000002E-3</v>
       </c>
       <c r="D22" s="10">
-        <v>0.1249</v>
+        <v>8.9200000000000002E-2</v>
       </c>
       <c r="E22" s="2">
         <f t="shared" ref="E22:E26" si="1">C22-D22</f>
-        <v>-0.12620000000000001</v>
+        <v>-9.4899999999999998E-2</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>46</v>
       </c>
       <c r="G22" s="1">
         <f>ABS(E22-E21)</f>
-        <v>6.7799999999999999E-2</v>
+        <v>3.6499999999999998E-2</v>
       </c>
       <c r="H22" s="5"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A23" s="27" t="s">
+      <c r="A23" s="38" t="s">
         <v>25</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C23" s="31">
         <v>-0.2681</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="32">
         <v>-0.17510000000000001</v>
       </c>
       <c r="E23" s="2">
@@ -2701,39 +2773,39 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A24" s="28"/>
+      <c r="A24" s="39"/>
       <c r="B24" s="4" t="s">
         <v>63</v>
       </c>
       <c r="C24" s="9">
-        <v>-0.31459999999999999</v>
+        <v>-0.28470000000000001</v>
       </c>
       <c r="D24" s="10">
-        <v>-6.2700000000000006E-2</v>
+        <v>-9.3700000000000006E-2</v>
       </c>
       <c r="E24" s="2">
         <f t="shared" si="1"/>
-        <v>-0.25190000000000001</v>
+        <v>-0.191</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>46</v>
       </c>
       <c r="G24" s="1">
         <f>ABS(E24-E23)</f>
-        <v>0.15890000000000001</v>
+        <v>9.8000000000000004E-2</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A25" s="27" t="s">
+      <c r="A25" s="38" t="s">
         <v>26</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C25" s="10">
+      <c r="C25" s="32">
         <v>0.1953</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D25" s="31">
         <v>0.11890000000000001</v>
       </c>
       <c r="E25" s="2">
@@ -2745,26 +2817,26 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A26" s="28"/>
+      <c r="A26" s="39"/>
       <c r="B26" s="4" t="s">
         <v>63</v>
       </c>
       <c r="C26" s="10">
-        <v>0.14760000000000001</v>
+        <v>0.17330000000000001</v>
       </c>
       <c r="D26" s="9">
-        <v>0.23960000000000001</v>
+        <v>0.12189999999999999</v>
       </c>
       <c r="E26" s="2">
         <f t="shared" si="1"/>
-        <v>-9.1999999999999998E-2</v>
+        <v>5.1400000000000015E-2</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>47</v>
       </c>
       <c r="G26" s="1">
         <f>ABS(E26-E25)</f>
-        <v>0.16839999999999999</v>
+        <v>2.4999999999999981E-2</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.5">
@@ -2778,18 +2850,18 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A31" s="50" t="s">
+      <c r="A31" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="B31" s="51"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="51"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A32" s="42" t="s">
+      <c r="A32" s="56" t="s">
         <v>83</v>
       </c>
-      <c r="B32" s="43"/>
+      <c r="B32" s="57"/>
       <c r="C32" s="16" t="s">
         <v>76</v>
       </c>
@@ -2801,28 +2873,28 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A33" s="40" t="s">
+      <c r="A33" s="52" t="s">
         <v>24</v>
       </c>
       <c r="B33" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="C33" s="55">
+      <c r="C33" s="28">
         <v>0.92610000000000003</v>
       </c>
-      <c r="D33" s="55">
+      <c r="D33" s="28">
         <v>0.93359999999999999</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A34" s="41"/>
+      <c r="A34" s="53"/>
       <c r="B34" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="C34" s="55">
+      <c r="C34" s="28">
         <v>0.89559999999999995</v>
       </c>
-      <c r="D34" s="55">
+      <c r="D34" s="28">
         <v>0.91930000000000001</v>
       </c>
       <c r="F34" s="4">
@@ -2838,30 +2910,30 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A35" s="47" t="s">
+      <c r="A35" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="B35" s="48" t="s">
+      <c r="B35" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="C35" s="54">
+      <c r="C35" s="27">
         <v>0.81950000000000001</v>
       </c>
-      <c r="D35" s="54">
+      <c r="D35" s="27">
         <v>0.8589</v>
       </c>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A36" s="49"/>
-      <c r="B36" s="48" t="s">
+      <c r="A36" s="55"/>
+      <c r="B36" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="C36" s="54">
+      <c r="C36" s="27">
         <v>0.77729999999999999</v>
       </c>
-      <c r="D36" s="54">
+      <c r="D36" s="27">
         <v>0.84099999999999997</v>
       </c>
       <c r="F36" s="4">
@@ -2877,30 +2949,30 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A37" s="40" t="s">
+      <c r="A37" s="52" t="s">
         <v>26</v>
       </c>
       <c r="B37" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="C37" s="55">
+      <c r="C37" s="28">
         <v>0.90229999999999999</v>
       </c>
-      <c r="D37" s="55">
+      <c r="D37" s="28">
         <v>0.91910000000000003</v>
       </c>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A38" s="41"/>
+      <c r="A38" s="53"/>
       <c r="B38" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="C38" s="55">
+      <c r="C38" s="28">
         <v>0.87629999999999997</v>
       </c>
-      <c r="D38" s="55">
+      <c r="D38" s="28">
         <v>0.90820000000000001</v>
       </c>
       <c r="F38" s="4">
@@ -2924,20 +2996,20 @@
       <c r="H39" s="2"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A40" s="52" t="s">
+      <c r="A40" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="B40" s="53"/>
-      <c r="C40" s="53"/>
-      <c r="D40" s="53"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A41" s="38" t="s">
+      <c r="A41" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="B41" s="39"/>
+      <c r="B41" s="59"/>
       <c r="C41" s="21" t="s">
         <v>76</v>
       </c>
@@ -2948,30 +3020,30 @@
       <c r="H41" s="2"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A42" s="40" t="s">
+      <c r="A42" s="52" t="s">
         <v>24</v>
       </c>
       <c r="B42" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="C42" s="55">
+      <c r="C42" s="28">
         <v>0.83899999999999997</v>
       </c>
-      <c r="D42" s="55">
+      <c r="D42" s="28">
         <v>0.86609999999999998</v>
       </c>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A43" s="41"/>
+      <c r="A43" s="53"/>
       <c r="B43" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="C43" s="55">
+      <c r="C43" s="28">
         <v>0.81089999999999995</v>
       </c>
-      <c r="D43" s="55">
+      <c r="D43" s="28">
         <v>0.85650000000000004</v>
       </c>
       <c r="F43" s="4">
@@ -2987,30 +3059,30 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A44" s="47" t="s">
+      <c r="A44" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="B44" s="48" t="s">
+      <c r="B44" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="C44" s="54">
+      <c r="C44" s="27">
         <v>0.92249999999999999</v>
       </c>
-      <c r="D44" s="54">
+      <c r="D44" s="27">
         <v>0.93559999999999999</v>
       </c>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A45" s="49"/>
-      <c r="B45" s="48" t="s">
+      <c r="A45" s="55"/>
+      <c r="B45" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="C45" s="54">
+      <c r="C45" s="27">
         <v>0.85250000000000004</v>
       </c>
-      <c r="D45" s="54">
+      <c r="D45" s="27">
         <v>0.88560000000000005</v>
       </c>
       <c r="F45" s="4">
@@ -3026,30 +3098,30 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A46" s="40" t="s">
+      <c r="A46" s="52" t="s">
         <v>26</v>
       </c>
       <c r="B46" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="C46" s="55">
+      <c r="C46" s="28">
         <v>0.85229999999999995</v>
       </c>
-      <c r="D46" s="55">
+      <c r="D46" s="28">
         <v>0.89329999999999998</v>
       </c>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A47" s="41"/>
+      <c r="A47" s="53"/>
       <c r="B47" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="C47" s="55">
+      <c r="C47" s="28">
         <v>0.83709999999999996</v>
       </c>
-      <c r="D47" s="55">
+      <c r="D47" s="28">
         <v>0.89329999999999998</v>
       </c>
       <c r="F47" s="4">

--- a/dataAnalysis.xlsx
+++ b/dataAnalysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\botImpact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0350489-837D-4900-8C3B-BFEE2DBCB27A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E3ED0BD-3E31-4B50-AF18-CE1F6479BAD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="18192" windowHeight="11592" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="89">
   <si>
     <t>Node Degree</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1159,6 +1159,10 @@
       </rPr>
       <t>逐渐平稳即可）</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10 times average (seed)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1433,7 +1437,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1531,6 +1535,18 @@
     <xf numFmtId="176" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1544,12 +1560,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1573,10 +1583,28 @@
     <xf numFmtId="176" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1588,28 +1616,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1920,35 +1927,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="43"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="45"/>
       <c r="D1" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="35"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="39"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="46"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="48"/>
       <c r="D2" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="37"/>
+      <c r="F2" s="41"/>
       <c r="G2" s="3" t="s">
         <v>28</v>
       </c>
@@ -1972,7 +1979,7 @@
       <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="38" t="s">
+      <c r="E3" s="33" t="s">
         <v>24</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -1981,10 +1988,10 @@
       <c r="G3" s="2">
         <v>0.82099999999999995</v>
       </c>
-      <c r="H3" s="47">
+      <c r="H3" s="35">
         <v>23.857700000000001</v>
       </c>
-      <c r="I3" s="47" t="s">
+      <c r="I3" s="35" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2001,15 +2008,15 @@
       <c r="D4" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="E4" s="39"/>
+      <c r="E4" s="34"/>
       <c r="F4" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G4" s="2">
         <v>0.74229999999999996</v>
       </c>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A5" s="2" t="s">
@@ -2024,7 +2031,7 @@
       <c r="D5" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="E5" s="38" t="s">
+      <c r="E5" s="33" t="s">
         <v>25</v>
       </c>
       <c r="F5" s="2" t="s">
@@ -2033,31 +2040,31 @@
       <c r="G5" s="2">
         <v>0.83950000000000002</v>
       </c>
-      <c r="H5" s="47">
+      <c r="H5" s="35">
         <v>20.513400000000001</v>
       </c>
-      <c r="I5" s="47" t="s">
+      <c r="I5" s="35" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="46"/>
-      <c r="E6" s="39"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="48"/>
+      <c r="E6" s="34"/>
       <c r="F6" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G6" s="2">
         <v>0.73529999999999995</v>
       </c>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="42" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -2066,7 +2073,7 @@
       <c r="C7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="38" t="s">
+      <c r="E7" s="33" t="s">
         <v>26</v>
       </c>
       <c r="F7" s="2" t="s">
@@ -2075,51 +2082,51 @@
       <c r="G7" s="2">
         <v>0.78539999999999999</v>
       </c>
-      <c r="H7" s="47">
+      <c r="H7" s="35">
         <v>16.601400000000002</v>
       </c>
-      <c r="I7" s="47" t="s">
+      <c r="I7" s="35" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A8" s="39"/>
+      <c r="A8" s="34"/>
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="39"/>
+      <c r="E8" s="34"/>
       <c r="F8" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G8" s="2">
         <v>0.67610000000000003</v>
       </c>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="B10" s="42"/>
-      <c r="C10" s="43"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="45"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A11" s="44" t="s">
+      <c r="A11" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="45"/>
-      <c r="C11" s="46"/>
-      <c r="E11" s="33" t="s">
+      <c r="B11" s="47"/>
+      <c r="C11" s="48"/>
+      <c r="E11" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="35"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="39"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A12" s="1" t="s">
@@ -2131,10 +2138,10 @@
       <c r="C12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="36" t="s">
+      <c r="E12" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="37"/>
+      <c r="F12" s="41"/>
       <c r="G12" s="3" t="s">
         <v>35</v>
       </c>
@@ -2155,7 +2162,7 @@
       <c r="C13" s="2">
         <v>5.0496999999999996</v>
       </c>
-      <c r="E13" s="38" t="s">
+      <c r="E13" s="33" t="s">
         <v>24</v>
       </c>
       <c r="F13" s="2" t="s">
@@ -2164,10 +2171,10 @@
       <c r="G13" s="2">
         <v>0.60419999999999996</v>
       </c>
-      <c r="H13" s="47">
+      <c r="H13" s="35">
         <v>6.7031000000000001</v>
       </c>
-      <c r="I13" s="47" t="s">
+      <c r="I13" s="35" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2181,23 +2188,23 @@
       <c r="C14" s="2">
         <v>5.5609000000000002</v>
       </c>
-      <c r="E14" s="39"/>
+      <c r="E14" s="34"/>
       <c r="F14" s="2" t="s">
         <v>34</v>
       </c>
       <c r="G14" s="2">
         <v>0.56520000000000004</v>
       </c>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A15" s="44" t="s">
+      <c r="A15" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="45"/>
-      <c r="C15" s="46"/>
-      <c r="E15" s="38" t="s">
+      <c r="B15" s="47"/>
+      <c r="C15" s="48"/>
+      <c r="E15" s="33" t="s">
         <v>25</v>
       </c>
       <c r="F15" s="2" t="s">
@@ -2206,15 +2213,15 @@
       <c r="G15" s="2">
         <v>0.58009999999999995</v>
       </c>
-      <c r="H15" s="47">
+      <c r="H15" s="35">
         <v>2.8894000000000002</v>
       </c>
-      <c r="I15" s="47">
+      <c r="I15" s="35">
         <v>3.8999999999999998E-3</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A16" s="40" t="s">
+      <c r="A16" s="42" t="s">
         <v>7</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -2223,25 +2230,25 @@
       <c r="C16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="39"/>
+      <c r="E16" s="34"/>
       <c r="F16" s="2" t="s">
         <v>34</v>
       </c>
       <c r="G16" s="2">
         <v>0.5534</v>
       </c>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A17" s="39"/>
+      <c r="A17" s="34"/>
       <c r="B17" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="38" t="s">
+      <c r="E17" s="33" t="s">
         <v>26</v>
       </c>
       <c r="F17" s="2" t="s">
@@ -2250,37 +2257,37 @@
       <c r="G17" s="2">
         <v>0.5393</v>
       </c>
-      <c r="H17" s="47">
+      <c r="H17" s="35">
         <v>1.9854000000000001</v>
       </c>
-      <c r="I17" s="47">
+      <c r="I17" s="35">
         <v>3.7600000000000001E-2</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="E18" s="39"/>
+      <c r="E18" s="34"/>
       <c r="F18" s="2" t="s">
         <v>34</v>
       </c>
       <c r="G18" s="2">
         <v>0.52139999999999997</v>
       </c>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A19" s="41" t="s">
+      <c r="A19" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="B19" s="42"/>
-      <c r="C19" s="43"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="45"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A20" s="44" t="s">
+      <c r="A20" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="45"/>
-      <c r="C20" s="46"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="48"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A21" s="1" t="s">
@@ -2316,14 +2323,14 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A24" s="44" t="s">
+      <c r="A24" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="45"/>
-      <c r="C24" s="46"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="48"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A25" s="40" t="s">
+      <c r="A25" s="42" t="s">
         <v>7</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -2334,7 +2341,7 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A26" s="39"/>
+      <c r="A26" s="34"/>
       <c r="B26" s="2" t="s">
         <v>17</v>
       </c>
@@ -2344,24 +2351,6 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
     <mergeCell ref="E1:I1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="E3:E4"/>
@@ -2378,6 +2367,24 @@
     <mergeCell ref="A19:C19"/>
     <mergeCell ref="A20:C20"/>
     <mergeCell ref="A24:C24"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2387,10 +2394,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2687A086-E6AD-4DC9-8E6D-5E9AEFD1DED8}">
-  <dimension ref="A1:H48"/>
+  <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -2404,12 +2411,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="51"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="59"/>
       <c r="E1" s="5" t="s">
         <v>52</v>
       </c>
@@ -2432,7 +2439,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="33" t="s">
         <v>24</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -2446,7 +2453,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="39"/>
+      <c r="A4" s="34"/>
       <c r="B4" s="4" t="s">
         <v>68</v>
       </c>
@@ -2458,7 +2465,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="33" t="s">
         <v>25</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -2472,7 +2479,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="39"/>
+      <c r="A6" s="34"/>
       <c r="B6" s="4" t="s">
         <v>68</v>
       </c>
@@ -2484,7 +2491,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="33" t="s">
         <v>26</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -2498,7 +2505,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="39"/>
+      <c r="A8" s="34"/>
       <c r="B8" s="4" t="s">
         <v>68</v>
       </c>
@@ -2519,13 +2526,16 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="49" t="s">
+      <c r="A10" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="B10" s="50"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="51"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="60" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A11" s="16" t="s">
@@ -2548,7 +2558,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="38" t="s">
+      <c r="A12" s="33" t="s">
         <v>24</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -2569,7 +2579,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A13" s="39"/>
+      <c r="A13" s="34"/>
       <c r="B13" s="4" t="s">
         <v>63</v>
       </c>
@@ -2592,7 +2602,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="38" t="s">
+      <c r="A14" s="33" t="s">
         <v>25</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -2613,7 +2623,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A15" s="39"/>
+      <c r="A15" s="34"/>
       <c r="B15" s="4" t="s">
         <v>63</v>
       </c>
@@ -2636,7 +2646,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A16" s="38" t="s">
+      <c r="A16" s="33" t="s">
         <v>26</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -2657,7 +2667,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A17" s="39"/>
+      <c r="A17" s="34"/>
       <c r="B17" s="4" t="s">
         <v>63</v>
       </c>
@@ -2665,28 +2675,28 @@
         <v>0.15890000000000001</v>
       </c>
       <c r="D17" s="7">
-        <v>0.19120000000000001</v>
+        <v>0.19570000000000001</v>
       </c>
       <c r="E17" s="2">
         <f t="shared" si="0"/>
-        <v>-3.2299999999999995E-2</v>
+        <v>-3.6799999999999999E-2</v>
       </c>
       <c r="F17" s="11" t="s">
         <v>50</v>
       </c>
       <c r="G17" s="1">
         <f>ABS(E17-E16)</f>
-        <v>3.15E-2</v>
+        <v>2.6999999999999996E-2</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A19" s="49" t="s">
+      <c r="A19" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="B19" s="50"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="51"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="59"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A20" s="16" t="s">
@@ -2706,7 +2716,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A21" s="38" t="s">
+      <c r="A21" s="33" t="s">
         <v>24</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -2728,7 +2738,7 @@
       <c r="H21" s="5"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A22" s="39"/>
+      <c r="A22" s="34"/>
       <c r="B22" s="4" t="s">
         <v>63</v>
       </c>
@@ -2752,7 +2762,7 @@
       <c r="H22" s="5"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A23" s="38" t="s">
+      <c r="A23" s="33" t="s">
         <v>25</v>
       </c>
       <c r="B23" s="4" t="s">
@@ -2773,30 +2783,30 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A24" s="39"/>
+      <c r="A24" s="34"/>
       <c r="B24" s="4" t="s">
         <v>63</v>
       </c>
       <c r="C24" s="9">
-        <v>-0.28470000000000001</v>
+        <v>-0.28139999999999998</v>
       </c>
       <c r="D24" s="10">
-        <v>-9.3700000000000006E-2</v>
+        <v>-0.13650000000000001</v>
       </c>
       <c r="E24" s="2">
         <f t="shared" si="1"/>
-        <v>-0.191</v>
+        <v>-0.14489999999999997</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>46</v>
       </c>
       <c r="G24" s="1">
         <f>ABS(E24-E23)</f>
-        <v>9.8000000000000004E-2</v>
+        <v>5.1899999999999974E-2</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A25" s="38" t="s">
+      <c r="A25" s="33" t="s">
         <v>26</v>
       </c>
       <c r="B25" s="4" t="s">
@@ -2817,26 +2827,26 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A26" s="39"/>
+      <c r="A26" s="34"/>
       <c r="B26" s="4" t="s">
         <v>63</v>
       </c>
       <c r="C26" s="10">
-        <v>0.17330000000000001</v>
+        <v>0.1525</v>
       </c>
       <c r="D26" s="9">
         <v>0.12189999999999999</v>
       </c>
       <c r="E26" s="2">
         <f t="shared" si="1"/>
-        <v>5.1400000000000015E-2</v>
+        <v>3.0600000000000002E-2</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>47</v>
       </c>
       <c r="G26" s="1">
         <f>ABS(E26-E25)</f>
-        <v>2.4999999999999981E-2</v>
+        <v>4.5799999999999993E-2</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.5">
@@ -2858,10 +2868,10 @@
       <c r="D31" s="24"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A32" s="56" t="s">
+      <c r="A32" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="B32" s="57"/>
+      <c r="B32" s="54"/>
       <c r="C32" s="16" t="s">
         <v>76</v>
       </c>
@@ -2872,8 +2882,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A33" s="52" t="s">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A33" s="49" t="s">
         <v>24</v>
       </c>
       <c r="B33" s="20" t="s">
@@ -2883,73 +2893,79 @@
         <v>0.92610000000000003</v>
       </c>
       <c r="D33" s="28">
-        <v>0.93359999999999999</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A34" s="53"/>
+        <v>0.9355</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A34" s="50"/>
       <c r="B34" s="20" t="s">
         <v>81</v>
       </c>
       <c r="C34" s="28">
-        <v>0.89559999999999995</v>
+        <v>0.87770000000000004</v>
       </c>
       <c r="D34" s="28">
-        <v>0.91930000000000001</v>
+        <v>0.90190000000000003</v>
       </c>
       <c r="F34" s="4">
         <v>3</v>
       </c>
       <c r="G34" s="2">
         <f>C33-C34</f>
-        <v>3.0500000000000083E-2</v>
+        <v>4.8399999999999999E-2</v>
       </c>
       <c r="H34" s="2">
         <f>D33-D34</f>
-        <v>1.4299999999999979E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A35" s="54" t="s">
+        <v>3.3599999999999963E-2</v>
+      </c>
+      <c r="I34" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A35" s="51" t="s">
         <v>25</v>
       </c>
       <c r="B35" s="22" t="s">
         <v>82</v>
       </c>
       <c r="C35" s="27">
-        <v>0.81950000000000001</v>
+        <v>0.83179999999999998</v>
       </c>
       <c r="D35" s="27">
-        <v>0.8589</v>
+        <v>0.86299999999999999</v>
       </c>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A36" s="55"/>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A36" s="52"/>
       <c r="B36" s="22" t="s">
         <v>81</v>
       </c>
       <c r="C36" s="27">
-        <v>0.77729999999999999</v>
+        <v>0.78749999999999998</v>
       </c>
       <c r="D36" s="27">
-        <v>0.84099999999999997</v>
+        <v>0.84699999999999998</v>
       </c>
       <c r="F36" s="4">
         <v>2</v>
       </c>
       <c r="G36" s="2">
         <f>C35-C36</f>
-        <v>4.2200000000000015E-2</v>
+        <v>4.4300000000000006E-2</v>
       </c>
       <c r="H36" s="2">
         <f>D35-D36</f>
-        <v>1.7900000000000027E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A37" s="52" t="s">
+        <v>1.6000000000000014E-2</v>
+      </c>
+      <c r="I36" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A37" s="49" t="s">
         <v>26</v>
       </c>
       <c r="B37" s="20" t="s">
@@ -2964,8 +2980,8 @@
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A38" s="53"/>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A38" s="50"/>
       <c r="B38" s="20" t="s">
         <v>81</v>
       </c>
@@ -2986,8 +3002,11 @@
         <f>D37-D38</f>
         <v>1.0900000000000021E-2</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="I38" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A39" s="20"/>
       <c r="B39" s="20"/>
       <c r="C39" s="20"/>
@@ -2995,7 +3014,7 @@
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A40" s="25" t="s">
         <v>79</v>
       </c>
@@ -3005,11 +3024,11 @@
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A41" s="58" t="s">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A41" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="B41" s="59"/>
+      <c r="B41" s="56"/>
       <c r="C41" s="21" t="s">
         <v>76</v>
       </c>
@@ -3019,47 +3038,50 @@
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A42" s="52" t="s">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A42" s="49" t="s">
         <v>24</v>
       </c>
       <c r="B42" s="20" t="s">
         <v>82</v>
       </c>
       <c r="C42" s="28">
-        <v>0.83899999999999997</v>
+        <v>0.85699999999999998</v>
       </c>
       <c r="D42" s="28">
-        <v>0.86609999999999998</v>
+        <v>0.88139999999999996</v>
       </c>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A43" s="53"/>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A43" s="50"/>
       <c r="B43" s="20" t="s">
         <v>81</v>
       </c>
       <c r="C43" s="28">
-        <v>0.81089999999999995</v>
+        <v>0.84</v>
       </c>
       <c r="D43" s="28">
-        <v>0.85650000000000004</v>
+        <v>0.87260000000000004</v>
       </c>
       <c r="F43" s="4">
         <v>4</v>
       </c>
       <c r="G43" s="2">
         <f>C42-C43</f>
-        <v>2.8100000000000014E-2</v>
+        <v>1.7000000000000015E-2</v>
       </c>
       <c r="H43" s="2">
         <f>D42-D43</f>
-        <v>9.5999999999999419E-3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A44" s="54" t="s">
+        <v>8.799999999999919E-3</v>
+      </c>
+      <c r="I43" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A44" s="51" t="s">
         <v>25</v>
       </c>
       <c r="B44" s="22" t="s">
@@ -3074,83 +3096,81 @@
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A45" s="55"/>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A45" s="52"/>
       <c r="B45" s="22" t="s">
         <v>81</v>
       </c>
       <c r="C45" s="27">
-        <v>0.85250000000000004</v>
+        <v>0.86250000000000004</v>
       </c>
       <c r="D45" s="27">
-        <v>0.88560000000000005</v>
+        <v>0.89449999999999996</v>
       </c>
       <c r="F45" s="4">
         <v>1</v>
       </c>
       <c r="G45" s="2">
         <f>C44-C45</f>
-        <v>6.9999999999999951E-2</v>
+        <v>5.9999999999999942E-2</v>
       </c>
       <c r="H45" s="2">
         <f>D44-D45</f>
-        <v>4.9999999999999933E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A46" s="52" t="s">
+        <v>4.1100000000000025E-2</v>
+      </c>
+      <c r="I45" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A46" s="49" t="s">
         <v>26</v>
       </c>
       <c r="B46" s="20" t="s">
         <v>82</v>
       </c>
       <c r="C46" s="28">
-        <v>0.85229999999999995</v>
+        <v>0.87090000000000001</v>
       </c>
       <c r="D46" s="28">
-        <v>0.89329999999999998</v>
+        <v>0.89049999999999996</v>
       </c>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A47" s="53"/>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A47" s="50"/>
       <c r="B47" s="20" t="s">
         <v>81</v>
       </c>
       <c r="C47" s="28">
-        <v>0.83709999999999996</v>
+        <v>0.83609999999999995</v>
       </c>
       <c r="D47" s="28">
-        <v>0.89329999999999998</v>
+        <v>0.86309999999999998</v>
       </c>
       <c r="F47" s="4">
         <v>6</v>
       </c>
       <c r="G47" s="2">
         <f>C46-C47</f>
-        <v>1.5199999999999991E-2</v>
+        <v>3.4800000000000053E-2</v>
       </c>
       <c r="H47" s="2">
         <f>D46-D47</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.5">
+        <v>2.739999999999998E-2</v>
+      </c>
+      <c r="I47" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A48" s="4" t="s">
         <v>85</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A41:B41"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="A25:A26"/>
@@ -3163,6 +3183,14 @@
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A41:B41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dataAnalysis.xlsx
+++ b/dataAnalysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\botImpact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E3ED0BD-3E31-4B50-AF18-CE1F6479BAD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B04B71E1-D754-4C54-950F-71ACF0B8F690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="18192" windowHeight="11592" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="18192" windowHeight="11592" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ModelFreeEvidence" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="96">
   <si>
     <t>Node Degree</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -357,29 +357,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">A→B, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>AveHomo(Bs)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>H→H</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B→H</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>t-stats</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -419,25 +396,6 @@
   </si>
   <si>
     <t>Statistical Tests: Following Selection of Humans</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">A→B, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>AveHomo(A, B)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>H→B</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1163,6 +1121,242 @@
   </si>
   <si>
     <t>10 times average (seed)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.7776*1e-98</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Influencer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>H→</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>H</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>H→</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>这个表主要是看</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Bot</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>有没有“选择”相似的人，结论是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Bot</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>更类似于随机选择</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>connection</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">H→X, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>AveHomo(Hs)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">H→X, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>AveHomo(H, X)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">X→H, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>AveHomo(Hs)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>这个表更重要，看个体对</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Influencer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的选择性</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">X→H, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>AveHomo(H, X)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>→H</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>→H</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1174,7 +1368,7 @@
     <numFmt numFmtId="176" formatCode="0.0000_ "/>
     <numFmt numFmtId="177" formatCode="0.0000_);[Red]\(0.0000\)"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1308,6 +1502,20 @@
       <family val="1"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -1437,7 +1645,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1538,28 +1746,28 @@
     <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1583,6 +1791,21 @@
     <xf numFmtId="176" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1607,17 +1830,11 @@
     <xf numFmtId="177" fontId="2" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="176" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1910,10 +2127,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -1928,45 +2145,45 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A1" s="43" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B1" s="44"/>
       <c r="C1" s="45"/>
       <c r="D1" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="39"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="37"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A2" s="46" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B2" s="47"/>
       <c r="C2" s="48"/>
       <c r="D2" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="E2" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="F2" s="39"/>
+      <c r="G2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="41"/>
-      <c r="G2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="I2" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J2" s="15" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.5">
@@ -1979,20 +2196,11 @@
       <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="33" t="s">
-        <v>24</v>
+      <c r="E3" s="40" t="s">
+        <v>21</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0.82099999999999995</v>
-      </c>
-      <c r="H3" s="35">
-        <v>23.857700000000001</v>
-      </c>
-      <c r="I3" s="35" t="s">
-        <v>29</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.5">
@@ -2006,17 +2214,12 @@
         <v>6.9372999999999996</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="E4" s="34"/>
+        <v>53</v>
+      </c>
+      <c r="E4" s="41"/>
       <c r="F4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0.74229999999999996</v>
-      </c>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
+        <v>95</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A5" s="2" t="s">
@@ -2029,22 +2232,13 @@
         <v>5.8960999999999997</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="E5" s="33" t="s">
-        <v>25</v>
+        <v>54</v>
+      </c>
+      <c r="E5" s="40" t="s">
+        <v>22</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0.83950000000000002</v>
-      </c>
-      <c r="H5" s="35">
-        <v>20.513400000000001</v>
-      </c>
-      <c r="I5" s="35" t="s">
-        <v>30</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.5">
@@ -2053,15 +2247,10 @@
       </c>
       <c r="B6" s="47"/>
       <c r="C6" s="48"/>
-      <c r="E6" s="34"/>
+      <c r="E6" s="41"/>
       <c r="F6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0.73529999999999995</v>
-      </c>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
+        <v>95</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A7" s="42" t="s">
@@ -2073,60 +2262,78 @@
       <c r="C7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="33" t="s">
-        <v>26</v>
+      <c r="E7" s="40" t="s">
+        <v>23</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0.78539999999999999</v>
-      </c>
-      <c r="H7" s="35">
-        <v>16.601400000000002</v>
-      </c>
-      <c r="I7" s="35" t="s">
-        <v>31</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A8" s="34"/>
+      <c r="A8" s="41"/>
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="34"/>
+      <c r="E8" s="41"/>
       <c r="F8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0.67610000000000003</v>
-      </c>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="E9" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F9" s="39"/>
+      <c r="G9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A10" s="43" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B10" s="44"/>
       <c r="C10" s="45"/>
+      <c r="E10" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0.82099999999999995</v>
+      </c>
+      <c r="H10" s="49">
+        <v>23.857700000000001</v>
+      </c>
+      <c r="I10" s="49" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A11" s="46" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B11" s="47"/>
       <c r="C11" s="48"/>
-      <c r="E11" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="39"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0.74229999999999996</v>
+      </c>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A12" s="1" t="s">
@@ -2138,18 +2345,20 @@
       <c r="C12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="41"/>
-      <c r="G12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H12" s="2" t="s">
+      <c r="E12" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="I12" s="2" t="s">
-        <v>23</v>
+      <c r="F12" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0.83950000000000002</v>
+      </c>
+      <c r="H12" s="49">
+        <v>20.513400000000001</v>
+      </c>
+      <c r="I12" s="49" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.5">
@@ -2162,21 +2371,15 @@
       <c r="C13" s="2">
         <v>5.0496999999999996</v>
       </c>
-      <c r="E13" s="33" t="s">
-        <v>24</v>
-      </c>
+      <c r="E13" s="13"/>
       <c r="F13" s="2" t="s">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="G13" s="2">
-        <v>0.60419999999999996</v>
-      </c>
-      <c r="H13" s="35">
-        <v>6.7031000000000001</v>
-      </c>
-      <c r="I13" s="35" t="s">
-        <v>27</v>
-      </c>
+        <v>0.73529999999999995</v>
+      </c>
+      <c r="H13" s="50"/>
+      <c r="I13" s="50"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A14" s="2" t="s">
@@ -2188,15 +2391,21 @@
       <c r="C14" s="2">
         <v>5.5609000000000002</v>
       </c>
-      <c r="E14" s="34"/>
+      <c r="E14" s="33" t="s">
+        <v>23</v>
+      </c>
       <c r="F14" s="2" t="s">
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="G14" s="2">
-        <v>0.56520000000000004</v>
-      </c>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
+        <v>0.78539999999999999</v>
+      </c>
+      <c r="H14" s="49">
+        <v>16.601400000000002</v>
+      </c>
+      <c r="I14" s="49" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A15" s="46" t="s">
@@ -2204,21 +2413,15 @@
       </c>
       <c r="B15" s="47"/>
       <c r="C15" s="48"/>
-      <c r="E15" s="33" t="s">
-        <v>25</v>
-      </c>
+      <c r="E15" s="13"/>
       <c r="F15" s="2" t="s">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="G15" s="2">
-        <v>0.58009999999999995</v>
-      </c>
-      <c r="H15" s="35">
-        <v>2.8894000000000002</v>
-      </c>
-      <c r="I15" s="35">
-        <v>3.8999999999999998E-3</v>
-      </c>
+        <v>0.67610000000000003</v>
+      </c>
+      <c r="H15" s="50"/>
+      <c r="I15" s="50"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A16" s="42" t="s">
@@ -2230,64 +2433,72 @@
       <c r="C16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="34"/>
-      <c r="F16" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G16" s="2">
-        <v>0.5534</v>
-      </c>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
+      <c r="E16" s="63" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A17" s="34"/>
+      <c r="A17" s="41"/>
       <c r="B17" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" s="2">
-        <v>0.5393</v>
-      </c>
-      <c r="H17" s="35">
-        <v>1.9854000000000001</v>
-      </c>
-      <c r="I17" s="35">
-        <v>3.7600000000000001E-2</v>
+      <c r="E17" s="62" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="E18" s="34"/>
-      <c r="F18" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G18" s="2">
-        <v>0.52139999999999997</v>
-      </c>
+      <c r="E18" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
       <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
+      <c r="I18" s="37"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A19" s="43" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B19" s="44"/>
       <c r="C19" s="45"/>
+      <c r="E19" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="F19" s="39"/>
+      <c r="G19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A20" s="46" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B20" s="47"/>
       <c r="C20" s="48"/>
+      <c r="E20" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0.60419999999999996</v>
+      </c>
+      <c r="H20" s="49">
+        <v>6.7031000000000001</v>
+      </c>
+      <c r="I20" s="49" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A21" s="1" t="s">
@@ -2299,6 +2510,15 @@
       <c r="C21" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="E21" s="41"/>
+      <c r="F21" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0.56520000000000004</v>
+      </c>
+      <c r="H21" s="50"/>
+      <c r="I21" s="50"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A22" s="2" t="s">
@@ -2310,6 +2530,21 @@
       <c r="C22" s="2">
         <v>6.4598000000000004</v>
       </c>
+      <c r="E22" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0.58009999999999995</v>
+      </c>
+      <c r="H22" s="49">
+        <v>2.8894000000000002</v>
+      </c>
+      <c r="I22" s="49">
+        <v>3.8999999999999998E-3</v>
+      </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A23" s="2" t="s">
@@ -2321,6 +2556,15 @@
       <c r="C23" s="2">
         <v>5.1597</v>
       </c>
+      <c r="E23" s="41"/>
+      <c r="F23" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0.5534</v>
+      </c>
+      <c r="H23" s="50"/>
+      <c r="I23" s="50"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A24" s="46" t="s">
@@ -2328,6 +2572,21 @@
       </c>
       <c r="B24" s="47"/>
       <c r="C24" s="48"/>
+      <c r="E24" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G24" s="2">
+        <v>0.5393</v>
+      </c>
+      <c r="H24" s="49">
+        <v>1.9854000000000001</v>
+      </c>
+      <c r="I24" s="49">
+        <v>3.7600000000000001E-2</v>
+      </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A25" s="42" t="s">
@@ -2339,18 +2598,126 @@
       <c r="C25" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="E25" s="41"/>
+      <c r="F25" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G25" s="2">
+        <v>0.52139999999999997</v>
+      </c>
+      <c r="H25" s="50"/>
+      <c r="I25" s="50"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A26" s="34"/>
+      <c r="A26" s="41"/>
       <c r="B26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="E26" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="F26" s="39"/>
+      <c r="G26" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="E27" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="E28" s="41"/>
+      <c r="F28" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="E29" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="E30" s="41"/>
+      <c r="F30" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="E31" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G31" s="2">
+        <v>0.78539999999999999</v>
+      </c>
+      <c r="H31" s="49">
+        <v>21.385400000000001</v>
+      </c>
+      <c r="I31" s="49" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="E32" s="41"/>
+      <c r="F32" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G32" s="2">
+        <v>0.63849999999999996</v>
+      </c>
+      <c r="H32" s="50"/>
+      <c r="I32" s="50"/>
+    </row>
+    <row r="33" spans="5:5" x14ac:dyDescent="0.5">
+      <c r="E33" s="63" t="s">
+        <v>92</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="34">
+  <mergeCells count="41">
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
     <mergeCell ref="E1:I1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="E3:E4"/>
@@ -2367,24 +2734,6 @@
     <mergeCell ref="A19:C19"/>
     <mergeCell ref="A20:C20"/>
     <mergeCell ref="A24:C24"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2396,8 +2745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2687A086-E6AD-4DC9-8E6D-5E9AEFD1DED8}">
   <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -2411,39 +2760,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A1" s="57" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="59"/>
+      <c r="A1" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="53"/>
       <c r="E1" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A2" s="16" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A3" s="33" t="s">
-        <v>24</v>
+      <c r="A3" s="40" t="s">
+        <v>21</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C3" s="4">
         <v>2460</v>
@@ -2453,9 +2802,9 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="34"/>
+      <c r="A4" s="41"/>
       <c r="B4" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C4" s="4">
         <v>1038</v>
@@ -2465,11 +2814,11 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A5" s="33" t="s">
-        <v>25</v>
+      <c r="A5" s="40" t="s">
+        <v>22</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C5" s="4">
         <v>777</v>
@@ -2479,9 +2828,9 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="34"/>
+      <c r="A6" s="41"/>
       <c r="B6" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C6" s="4">
         <v>1267</v>
@@ -2491,11 +2840,11 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A7" s="33" t="s">
-        <v>26</v>
+      <c r="A7" s="40" t="s">
+        <v>23</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C7" s="4">
         <v>736</v>
@@ -2505,9 +2854,9 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="34"/>
+      <c r="A8" s="41"/>
       <c r="B8" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C8" s="4">
         <v>227</v>
@@ -2516,53 +2865,53 @@
         <v>4945</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A9" s="13"/>
       <c r="F9" s="12" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="B10" s="58"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="60" t="s">
-        <v>88</v>
+      <c r="A10" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="52"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="34" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A11" s="16" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E11" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="G11" s="19" t="s">
-        <v>80</v>
-      </c>
     </row>
     <row r="12" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="33" t="s">
-        <v>24</v>
+      <c r="A12" s="40" t="s">
+        <v>21</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C12" s="29">
         <v>0.20519999999999999</v>
@@ -2575,13 +2924,13 @@
         <v>5.6499999999999995E-2</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A13" s="34"/>
+      <c r="A13" s="41"/>
       <c r="B13" s="4" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C13" s="7">
         <v>0.21229999999999999</v>
@@ -2594,7 +2943,7 @@
         <v>0.10169999999999998</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G13" s="1">
         <f>ABS(E13-E12)</f>
@@ -2602,11 +2951,11 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="33" t="s">
-        <v>25</v>
+      <c r="A14" s="40" t="s">
+        <v>22</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C14" s="29">
         <v>-8.3900000000000002E-2</v>
@@ -2619,13 +2968,13 @@
         <v>2.8799999999999992E-2</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A15" s="34"/>
+      <c r="A15" s="41"/>
       <c r="B15" s="4" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C15" s="7">
         <v>-4.9700000000000001E-2</v>
@@ -2638,7 +2987,7 @@
         <v>7.1399999999999991E-2</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G15" s="1">
         <f>ABS(E15-E14)</f>
@@ -2646,11 +2995,11 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A16" s="33" t="s">
-        <v>26</v>
+      <c r="A16" s="40" t="s">
+        <v>23</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C16" s="30">
         <v>0.1537</v>
@@ -2663,13 +3012,13 @@
         <v>-6.3799999999999996E-2</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A17" s="34"/>
+      <c r="A17" s="41"/>
       <c r="B17" s="4" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C17" s="8">
         <v>0.15890000000000001</v>
@@ -2682,7 +3031,7 @@
         <v>-3.6799999999999999E-2</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G17" s="1">
         <f>ABS(E17-E16)</f>
@@ -2690,37 +3039,37 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A19" s="57" t="s">
-        <v>66</v>
-      </c>
-      <c r="B19" s="58"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="59"/>
+      <c r="A19" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="52"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="53"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A20" s="16" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A21" s="33" t="s">
-        <v>24</v>
+      <c r="A21" s="40" t="s">
+        <v>21</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C21" s="31">
         <v>3.2000000000000002E-3</v>
@@ -2733,14 +3082,14 @@
         <v>-5.8400000000000001E-2</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H21" s="5"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A22" s="34"/>
+      <c r="A22" s="41"/>
       <c r="B22" s="4" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C22" s="9">
         <v>-5.7000000000000002E-3</v>
@@ -2753,7 +3102,7 @@
         <v>-9.4899999999999998E-2</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G22" s="1">
         <f>ABS(E22-E21)</f>
@@ -2762,11 +3111,11 @@
       <c r="H22" s="5"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A23" s="33" t="s">
-        <v>25</v>
+      <c r="A23" s="40" t="s">
+        <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C23" s="31">
         <v>-0.2681</v>
@@ -2779,13 +3128,13 @@
         <v>-9.2999999999999999E-2</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A24" s="34"/>
+      <c r="A24" s="41"/>
       <c r="B24" s="4" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C24" s="9">
         <v>-0.28139999999999998</v>
@@ -2798,7 +3147,7 @@
         <v>-0.14489999999999997</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G24" s="1">
         <f>ABS(E24-E23)</f>
@@ -2806,11 +3155,11 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A25" s="33" t="s">
-        <v>26</v>
+      <c r="A25" s="40" t="s">
+        <v>23</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C25" s="32">
         <v>0.1953</v>
@@ -2823,13 +3172,13 @@
         <v>7.6399999999999996E-2</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A26" s="34"/>
+      <c r="A26" s="41"/>
       <c r="B26" s="4" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C26" s="10">
         <v>0.1525</v>
@@ -2842,7 +3191,7 @@
         <v>3.0600000000000002E-2</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G26" s="1">
         <f>ABS(E26-E25)</f>
@@ -2851,43 +3200,43 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.5">
       <c r="E28" s="17" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.5">
       <c r="E29" s="18" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A31" s="23" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B31" s="24"/>
       <c r="C31" s="24"/>
       <c r="D31" s="24"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A32" s="53" t="s">
-        <v>83</v>
-      </c>
-      <c r="B32" s="54"/>
+      <c r="A32" s="58" t="s">
+        <v>78</v>
+      </c>
+      <c r="B32" s="59"/>
       <c r="C32" s="16" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D32" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A33" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" s="20" t="s">
         <v>77</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A33" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="B33" s="20" t="s">
-        <v>82</v>
       </c>
       <c r="C33" s="28">
         <v>0.92610000000000003</v>
@@ -2897,9 +3246,9 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A34" s="50"/>
+      <c r="A34" s="55"/>
       <c r="B34" s="20" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C34" s="28">
         <v>0.87770000000000004</v>
@@ -2923,11 +3272,11 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A35" s="51" t="s">
-        <v>25</v>
+      <c r="A35" s="56" t="s">
+        <v>22</v>
       </c>
       <c r="B35" s="22" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C35" s="27">
         <v>0.83179999999999998</v>
@@ -2939,9 +3288,9 @@
       <c r="H35" s="2"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A36" s="52"/>
+      <c r="A36" s="57"/>
       <c r="B36" s="22" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C36" s="27">
         <v>0.78749999999999998</v>
@@ -2965,11 +3314,11 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A37" s="49" t="s">
-        <v>26</v>
+      <c r="A37" s="54" t="s">
+        <v>23</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C37" s="28">
         <v>0.90229999999999999</v>
@@ -2981,9 +3330,9 @@
       <c r="H37" s="2"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A38" s="50"/>
+      <c r="A38" s="55"/>
       <c r="B38" s="20" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C38" s="28">
         <v>0.87629999999999997</v>
@@ -3016,7 +3365,7 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A40" s="25" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B40" s="26"/>
       <c r="C40" s="26"/>
@@ -3025,25 +3374,25 @@
       <c r="H40" s="2"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A41" s="55" t="s">
-        <v>83</v>
-      </c>
-      <c r="B41" s="56"/>
+      <c r="A41" s="60" t="s">
+        <v>78</v>
+      </c>
+      <c r="B41" s="61"/>
       <c r="C41" s="21" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D41" s="21" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A42" s="49" t="s">
-        <v>24</v>
+      <c r="A42" s="54" t="s">
+        <v>21</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C42" s="28">
         <v>0.85699999999999998</v>
@@ -3055,9 +3404,9 @@
       <c r="H42" s="2"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A43" s="50"/>
+      <c r="A43" s="55"/>
       <c r="B43" s="20" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C43" s="28">
         <v>0.84</v>
@@ -3081,11 +3430,11 @@
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A44" s="51" t="s">
-        <v>25</v>
+      <c r="A44" s="56" t="s">
+        <v>22</v>
       </c>
       <c r="B44" s="22" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C44" s="27">
         <v>0.92249999999999999</v>
@@ -3097,9 +3446,9 @@
       <c r="H44" s="2"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A45" s="52"/>
+      <c r="A45" s="57"/>
       <c r="B45" s="22" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C45" s="27">
         <v>0.86250000000000004</v>
@@ -3123,11 +3472,11 @@
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A46" s="49" t="s">
-        <v>26</v>
+      <c r="A46" s="54" t="s">
+        <v>23</v>
       </c>
       <c r="B46" s="20" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C46" s="28">
         <v>0.87090000000000001</v>
@@ -3139,9 +3488,9 @@
       <c r="H46" s="2"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A47" s="50"/>
+      <c r="A47" s="55"/>
       <c r="B47" s="20" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C47" s="28">
         <v>0.83609999999999995</v>
@@ -3166,11 +3515,19 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A48" s="4" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A41:B41"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="A25:A26"/>
@@ -3183,14 +3540,6 @@
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A41:B41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dataAnalysis.xlsx
+++ b/dataAnalysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\botImpact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B04B71E1-D754-4C54-950F-71ACF0B8F690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76CC4193-6E55-4D24-B079-B5732538C03C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="18192" windowHeight="11592" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="108">
   <si>
     <t>Node Degree</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1356,6 +1356,581 @@
         <family val="1"/>
       </rPr>
       <t>→H</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.8499*1e-134</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.4774*1e-235</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1. Human Influencer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>周边的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Followers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Homophily</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>很高</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1. Bot Influencer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>周边的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Followers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Homophily</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>没那么高，和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Human Influencer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>显著差异</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>人倾向于连接和自己相似的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Human Influencer</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>人连接</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Bot</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时，对于相似性的要求可能没那么高（可能因为信息获取，不一定需要联系相同</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>location</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2.1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在这个数据集里没有明显区别，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Homophily</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>接近50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，证明</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Human</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Influencer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>身份的选择性较低</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Bot</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>是否会有选择地</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Follow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>相似的群体？</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3. Human</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Following</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>之间的同质性也很高，而</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Bot</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不然，和1的结论类似</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>被影响者对</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Influencer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>trait</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>是否有选择性？（重要，因为直接决定观点的影响）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（单从</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Location</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上看）没有显著差异，但</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Bot</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>有可能会有策略地更改自己的信息</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>尽管如此，从</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Follow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>或者被</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Followed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的角度来讲，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Human Influencer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>相连节点的同质性都要高很多</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1368,7 +1943,7 @@
     <numFmt numFmtId="176" formatCode="0.0000_ "/>
     <numFmt numFmtId="177" formatCode="0.0000_);[Red]\(0.0000\)"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1516,6 +2091,12 @@
       <family val="1"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="7" tint="-0.249977111117893"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -1645,7 +2226,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1743,10 +2324,31 @@
     <xf numFmtId="176" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1756,18 +2358,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1791,10 +2381,28 @@
     <xf numFmtId="176" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1806,34 +2414,13 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2129,8 +2716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -2144,35 +2731,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="45"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="48"/>
       <c r="D1" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="37"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="65" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="48"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="51"/>
       <c r="D2" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="38" t="s">
+      <c r="E2" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="F2" s="39"/>
+      <c r="F2" s="37"/>
       <c r="G2" s="3" t="s">
         <v>30</v>
       </c>
@@ -2196,11 +2786,23 @@
       <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="40" t="s">
+      <c r="E3" s="38" t="s">
         <v>21</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>94</v>
+      </c>
+      <c r="G3" s="64">
+        <v>0.60419999999999996</v>
+      </c>
+      <c r="H3" s="40">
+        <v>1.4500999999999999</v>
+      </c>
+      <c r="I3" s="40">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="J3" s="65" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.5">
@@ -2216,9 +2818,17 @@
       <c r="D4" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="41"/>
+      <c r="E4" s="39"/>
       <c r="F4" s="2" t="s">
         <v>95</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.59640000000000004</v>
+      </c>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="65" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.5">
@@ -2234,26 +2844,40 @@
       <c r="D5" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="E5" s="40" t="s">
+      <c r="E5" s="38" t="s">
         <v>22</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>94</v>
       </c>
+      <c r="G5" s="64">
+        <v>0.58009999999999995</v>
+      </c>
+      <c r="H5" s="40">
+        <v>-0.46650000000000003</v>
+      </c>
+      <c r="I5" s="40">
+        <v>0.64090000000000003</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="47"/>
-      <c r="C6" s="48"/>
-      <c r="E6" s="41"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="51"/>
+      <c r="E6" s="39"/>
       <c r="F6" s="2" t="s">
         <v>95</v>
       </c>
+      <c r="G6" s="2">
+        <v>0.58389999999999997</v>
+      </c>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="45" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -2262,31 +2886,45 @@
       <c r="C7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="40" t="s">
+      <c r="E7" s="38" t="s">
         <v>23</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>94</v>
       </c>
+      <c r="G7" s="64">
+        <v>0.5393</v>
+      </c>
+      <c r="H7" s="40">
+        <v>-1.7504</v>
+      </c>
+      <c r="I7" s="40">
+        <v>8.0100000000000005E-2</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A8" s="41"/>
+      <c r="A8" s="39"/>
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="41"/>
+      <c r="E8" s="39"/>
       <c r="F8" s="2" t="s">
         <v>95</v>
       </c>
+      <c r="G8" s="2">
+        <v>0.55649999999999999</v>
+      </c>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="E9" s="38" t="s">
+      <c r="E9" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="F9" s="39"/>
+      <c r="F9" s="37"/>
       <c r="G9" s="3" t="s">
         <v>25</v>
       </c>
@@ -2298,42 +2936,45 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="45"/>
-      <c r="E10" s="33" t="s">
+      <c r="B10" s="47"/>
+      <c r="C10" s="48"/>
+      <c r="E10" s="38" t="s">
         <v>21</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="63">
         <v>0.82099999999999995</v>
       </c>
-      <c r="H10" s="49">
+      <c r="H10" s="40">
         <v>23.857700000000001</v>
       </c>
-      <c r="I10" s="49" t="s">
+      <c r="I10" s="40" t="s">
         <v>26</v>
       </c>
+      <c r="J10" s="65" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A11" s="46" t="s">
+      <c r="A11" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="47"/>
-      <c r="C11" s="48"/>
-      <c r="E11" s="13"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="51"/>
+      <c r="E11" s="39"/>
       <c r="F11" s="2" t="s">
         <v>95</v>
       </c>
       <c r="G11" s="2">
         <v>0.74229999999999996</v>
       </c>
-      <c r="H11" s="50"/>
-      <c r="I11" s="50"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A12" s="1" t="s">
@@ -2345,19 +2986,19 @@
       <c r="C12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="33" t="s">
+      <c r="E12" s="38" t="s">
         <v>22</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="63">
         <v>0.83950000000000002</v>
       </c>
-      <c r="H12" s="49">
+      <c r="H12" s="40">
         <v>20.513400000000001</v>
       </c>
-      <c r="I12" s="49" t="s">
+      <c r="I12" s="40" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2371,15 +3012,15 @@
       <c r="C13" s="2">
         <v>5.0496999999999996</v>
       </c>
-      <c r="E13" s="13"/>
+      <c r="E13" s="39"/>
       <c r="F13" s="2" t="s">
         <v>95</v>
       </c>
       <c r="G13" s="2">
         <v>0.73529999999999995</v>
       </c>
-      <c r="H13" s="50"/>
-      <c r="I13" s="50"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A14" s="2" t="s">
@@ -2391,40 +3032,40 @@
       <c r="C14" s="2">
         <v>5.5609000000000002</v>
       </c>
-      <c r="E14" s="33" t="s">
+      <c r="E14" s="38" t="s">
         <v>23</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="63">
         <v>0.78539999999999999</v>
       </c>
-      <c r="H14" s="49">
+      <c r="H14" s="40">
         <v>16.601400000000002</v>
       </c>
-      <c r="I14" s="49" t="s">
+      <c r="I14" s="40" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A15" s="46" t="s">
+      <c r="A15" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="47"/>
-      <c r="C15" s="48"/>
-      <c r="E15" s="13"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="51"/>
+      <c r="E15" s="39"/>
       <c r="F15" s="2" t="s">
         <v>95</v>
       </c>
       <c r="G15" s="2">
         <v>0.67610000000000003</v>
       </c>
-      <c r="H15" s="50"/>
-      <c r="I15" s="50"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="45" t="s">
         <v>7</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -2433,41 +3074,44 @@
       <c r="C16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="63" t="s">
+      <c r="E16" s="35" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A17" s="41"/>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A17" s="39"/>
       <c r="B17" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="62" t="s">
+      <c r="E17" s="34" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="E18" s="35" t="s">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="E18" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="37"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A19" s="43" t="s">
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="35" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A19" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="B19" s="44"/>
-      <c r="C19" s="45"/>
-      <c r="E19" s="38" t="s">
+      <c r="B19" s="47"/>
+      <c r="C19" s="48"/>
+      <c r="E19" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="F19" s="39"/>
+      <c r="F19" s="37"/>
       <c r="G19" s="3" t="s">
         <v>30</v>
       </c>
@@ -2478,29 +3122,32 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A20" s="46" t="s">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A20" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="47"/>
-      <c r="C20" s="48"/>
-      <c r="E20" s="40" t="s">
+      <c r="B20" s="50"/>
+      <c r="C20" s="51"/>
+      <c r="E20" s="38" t="s">
         <v>21</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20" s="64">
         <v>0.60419999999999996</v>
       </c>
-      <c r="H20" s="49">
+      <c r="H20" s="40">
         <v>6.7031000000000001</v>
       </c>
-      <c r="I20" s="49" t="s">
+      <c r="I20" s="40" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="J20" s="65" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
@@ -2510,17 +3157,20 @@
       <c r="C21" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="41"/>
+      <c r="E21" s="39"/>
       <c r="F21" s="2" t="s">
         <v>87</v>
       </c>
       <c r="G21" s="2">
         <v>0.56520000000000004</v>
       </c>
-      <c r="H21" s="50"/>
-      <c r="I21" s="50"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="H21" s="41"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="35" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A22" s="2" t="s">
         <v>1</v>
       </c>
@@ -2530,23 +3180,23 @@
       <c r="C22" s="2">
         <v>6.4598000000000004</v>
       </c>
-      <c r="E22" s="40" t="s">
+      <c r="E22" s="38" t="s">
         <v>22</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G22" s="64">
         <v>0.58009999999999995</v>
       </c>
-      <c r="H22" s="49">
+      <c r="H22" s="40">
         <v>2.8894000000000002</v>
       </c>
-      <c r="I22" s="49">
+      <c r="I22" s="40">
         <v>3.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A23" s="2" t="s">
         <v>2</v>
       </c>
@@ -2556,40 +3206,43 @@
       <c r="C23" s="2">
         <v>5.1597</v>
       </c>
-      <c r="E23" s="41"/>
+      <c r="E23" s="39"/>
       <c r="F23" s="2" t="s">
         <v>87</v>
       </c>
       <c r="G23" s="2">
         <v>0.5534</v>
       </c>
-      <c r="H23" s="50"/>
-      <c r="I23" s="50"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A24" s="46" t="s">
+      <c r="H23" s="41"/>
+      <c r="I23" s="41"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A24" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="47"/>
-      <c r="C24" s="48"/>
-      <c r="E24" s="40" t="s">
+      <c r="B24" s="50"/>
+      <c r="C24" s="51"/>
+      <c r="E24" s="38" t="s">
         <v>23</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G24" s="64">
         <v>0.5393</v>
       </c>
-      <c r="H24" s="49">
-        <v>1.9854000000000001</v>
-      </c>
-      <c r="I24" s="49">
-        <v>3.7600000000000001E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A25" s="42" t="s">
+      <c r="H24" s="40">
+        <v>1.6584000000000001</v>
+      </c>
+      <c r="I24" s="40">
+        <v>9.7299999999999998E-2</v>
+      </c>
+      <c r="J24" s="65" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A25" s="45" t="s">
         <v>7</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -2598,28 +3251,28 @@
       <c r="C25" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E25" s="41"/>
+      <c r="E25" s="39"/>
       <c r="F25" s="2" t="s">
         <v>87</v>
       </c>
       <c r="G25" s="2">
         <v>0.52139999999999997</v>
       </c>
-      <c r="H25" s="50"/>
-      <c r="I25" s="50"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A26" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A26" s="39"/>
       <c r="B26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E26" s="38" t="s">
+      <c r="E26" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="F26" s="39"/>
+      <c r="F26" s="37"/>
       <c r="G26" s="3" t="s">
         <v>25</v>
       </c>
@@ -2630,69 +3283,141 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="E27" s="40" t="s">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="E27" s="38" t="s">
         <v>21</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="E28" s="41"/>
+      <c r="G27" s="63">
+        <v>0.82099999999999995</v>
+      </c>
+      <c r="H27" s="40">
+        <v>33.133299999999998</v>
+      </c>
+      <c r="I27" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="J27" s="65" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="E28" s="39"/>
       <c r="F28" s="2" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="E29" s="40" t="s">
+      <c r="G28" s="2">
+        <v>0.70599999999999996</v>
+      </c>
+      <c r="H28" s="41"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="65" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="E29" s="38" t="s">
         <v>22</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="E30" s="41"/>
+      <c r="G29" s="63">
+        <v>0.83950000000000002</v>
+      </c>
+      <c r="H29" s="40">
+        <v>24.9849</v>
+      </c>
+      <c r="I29" s="40" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="E30" s="39"/>
       <c r="F30" s="2" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="E31" s="40" t="s">
+      <c r="G30" s="2">
+        <v>0.70609999999999995</v>
+      </c>
+      <c r="H30" s="41"/>
+      <c r="I30" s="41"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="E31" s="38" t="s">
         <v>23</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="G31" s="2">
+      <c r="G31" s="63">
         <v>0.78539999999999999</v>
       </c>
-      <c r="H31" s="49">
+      <c r="H31" s="40">
         <v>21.385400000000001</v>
       </c>
-      <c r="I31" s="49" t="s">
+      <c r="I31" s="40" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="E32" s="41"/>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="E32" s="39"/>
       <c r="F32" s="2" t="s">
         <v>87</v>
       </c>
       <c r="G32" s="2">
         <v>0.63849999999999996</v>
       </c>
-      <c r="H32" s="50"/>
-      <c r="I32" s="50"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="41"/>
     </row>
     <row r="33" spans="5:5" x14ac:dyDescent="0.5">
-      <c r="E33" s="63" t="s">
+      <c r="E33" s="35" t="s">
         <v>92</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="41">
+  <mergeCells count="54">
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="E26:F26"/>
     <mergeCell ref="E31:E32"/>
@@ -2709,31 +3434,6 @@
     <mergeCell ref="E18:I18"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E20:E21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="E1:I1"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A24:C24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2760,12 +3460,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="53"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="62"/>
       <c r="E1" s="5" t="s">
         <v>47</v>
       </c>
@@ -2788,7 +3488,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="38" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -2802,7 +3502,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="41"/>
+      <c r="A4" s="39"/>
       <c r="B4" s="4" t="s">
         <v>63</v>
       </c>
@@ -2814,7 +3514,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="38" t="s">
         <v>22</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -2828,7 +3528,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="41"/>
+      <c r="A6" s="39"/>
       <c r="B6" s="4" t="s">
         <v>63</v>
       </c>
@@ -2840,7 +3540,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="38" t="s">
         <v>23</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -2854,7 +3554,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="41"/>
+      <c r="A8" s="39"/>
       <c r="B8" s="4" t="s">
         <v>63</v>
       </c>
@@ -2875,14 +3575,14 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="51" t="s">
+      <c r="A10" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="B10" s="52"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="34" t="s">
+      <c r="B10" s="61"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="33" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2907,7 +3607,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="38" t="s">
         <v>21</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -2928,7 +3628,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A13" s="41"/>
+      <c r="A13" s="39"/>
       <c r="B13" s="4" t="s">
         <v>58</v>
       </c>
@@ -2951,7 +3651,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="40" t="s">
+      <c r="A14" s="38" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -2972,7 +3672,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A15" s="41"/>
+      <c r="A15" s="39"/>
       <c r="B15" s="4" t="s">
         <v>58</v>
       </c>
@@ -2995,7 +3695,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A16" s="40" t="s">
+      <c r="A16" s="38" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -3016,7 +3716,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A17" s="41"/>
+      <c r="A17" s="39"/>
       <c r="B17" s="4" t="s">
         <v>58</v>
       </c>
@@ -3039,13 +3739,13 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A19" s="51" t="s">
+      <c r="A19" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="B19" s="52"/>
-      <c r="C19" s="52"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="53"/>
+      <c r="B19" s="61"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="62"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A20" s="16" t="s">
@@ -3065,7 +3765,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A21" s="40" t="s">
+      <c r="A21" s="38" t="s">
         <v>21</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -3087,7 +3787,7 @@
       <c r="H21" s="5"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A22" s="41"/>
+      <c r="A22" s="39"/>
       <c r="B22" s="4" t="s">
         <v>58</v>
       </c>
@@ -3111,7 +3811,7 @@
       <c r="H22" s="5"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A23" s="40" t="s">
+      <c r="A23" s="38" t="s">
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
@@ -3132,7 +3832,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A24" s="41"/>
+      <c r="A24" s="39"/>
       <c r="B24" s="4" t="s">
         <v>58</v>
       </c>
@@ -3155,7 +3855,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A25" s="40" t="s">
+      <c r="A25" s="38" t="s">
         <v>23</v>
       </c>
       <c r="B25" s="4" t="s">
@@ -3176,7 +3876,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A26" s="41"/>
+      <c r="A26" s="39"/>
       <c r="B26" s="4" t="s">
         <v>58</v>
       </c>
@@ -3217,10 +3917,10 @@
       <c r="D31" s="24"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A32" s="58" t="s">
+      <c r="A32" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="B32" s="59"/>
+      <c r="B32" s="57"/>
       <c r="C32" s="16" t="s">
         <v>71</v>
       </c>
@@ -3232,7 +3932,7 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A33" s="54" t="s">
+      <c r="A33" s="52" t="s">
         <v>21</v>
       </c>
       <c r="B33" s="20" t="s">
@@ -3246,7 +3946,7 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A34" s="55"/>
+      <c r="A34" s="53"/>
       <c r="B34" s="20" t="s">
         <v>76</v>
       </c>
@@ -3272,7 +3972,7 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A35" s="56" t="s">
+      <c r="A35" s="54" t="s">
         <v>22</v>
       </c>
       <c r="B35" s="22" t="s">
@@ -3288,7 +3988,7 @@
       <c r="H35" s="2"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A36" s="57"/>
+      <c r="A36" s="55"/>
       <c r="B36" s="22" t="s">
         <v>76</v>
       </c>
@@ -3314,7 +4014,7 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A37" s="54" t="s">
+      <c r="A37" s="52" t="s">
         <v>23</v>
       </c>
       <c r="B37" s="20" t="s">
@@ -3330,7 +4030,7 @@
       <c r="H37" s="2"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A38" s="55"/>
+      <c r="A38" s="53"/>
       <c r="B38" s="20" t="s">
         <v>76</v>
       </c>
@@ -3374,10 +4074,10 @@
       <c r="H40" s="2"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A41" s="60" t="s">
+      <c r="A41" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="B41" s="61"/>
+      <c r="B41" s="59"/>
       <c r="C41" s="21" t="s">
         <v>71</v>
       </c>
@@ -3388,7 +4088,7 @@
       <c r="H41" s="2"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A42" s="54" t="s">
+      <c r="A42" s="52" t="s">
         <v>21</v>
       </c>
       <c r="B42" s="20" t="s">
@@ -3404,7 +4104,7 @@
       <c r="H42" s="2"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A43" s="55"/>
+      <c r="A43" s="53"/>
       <c r="B43" s="20" t="s">
         <v>76</v>
       </c>
@@ -3430,7 +4130,7 @@
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A44" s="56" t="s">
+      <c r="A44" s="54" t="s">
         <v>22</v>
       </c>
       <c r="B44" s="22" t="s">
@@ -3446,7 +4146,7 @@
       <c r="H44" s="2"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A45" s="57"/>
+      <c r="A45" s="55"/>
       <c r="B45" s="22" t="s">
         <v>76</v>
       </c>
@@ -3472,7 +4172,7 @@
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A46" s="54" t="s">
+      <c r="A46" s="52" t="s">
         <v>23</v>
       </c>
       <c r="B46" s="20" t="s">
@@ -3488,7 +4188,7 @@
       <c r="H46" s="2"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A47" s="55"/>
+      <c r="A47" s="53"/>
       <c r="B47" s="20" t="s">
         <v>76</v>
       </c>
@@ -3520,14 +4220,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A41:B41"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="A25:A26"/>
@@ -3540,6 +4232,14 @@
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A41:B41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dataAnalysis.xlsx
+++ b/dataAnalysis.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\botImpact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76CC4193-6E55-4D24-B079-B5732538C03C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{146A73CA-73F2-4A3B-84B7-DC3EA504DC2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="18192" windowHeight="11592" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="18192" windowHeight="11592" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ModelFreeEvidence" sheetId="1" r:id="rId1"/>
-    <sheet name="Sentiment" sheetId="2" r:id="rId2"/>
+    <sheet name="Synthetic" sheetId="3" r:id="rId2"/>
+    <sheet name="Sentiment" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="127">
   <si>
     <t>Node Degree</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1932,6 +1933,82 @@
       </rPr>
       <t>相连节点的同质性都要高很多</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>random</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>randomu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>highdu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>highbc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>highcc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>metric</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ePEHE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CNE-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ignite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GIAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ours</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>w/o jt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>w/o jg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>w/o jd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GCN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GAT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1943,7 +2020,7 @@
     <numFmt numFmtId="176" formatCode="0.0000_ "/>
     <numFmt numFmtId="177" formatCode="0.0000_);[Red]\(0.0000\)"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2097,6 +2174,11 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -2226,7 +2308,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2333,24 +2415,33 @@
     <xf numFmtId="176" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2414,15 +2505,13 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2716,8 +2805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -2731,38 +2820,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="48"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="51"/>
       <c r="D1" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="E1" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="65" t="s">
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="38" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="51"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="54"/>
       <c r="D2" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="F2" s="37"/>
+      <c r="F2" s="44"/>
       <c r="G2" s="3" t="s">
         <v>30</v>
       </c>
@@ -2786,22 +2875,22 @@
       <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="38" t="s">
+      <c r="E3" s="39" t="s">
         <v>21</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="G3" s="64">
+      <c r="G3" s="37">
         <v>0.60419999999999996</v>
       </c>
-      <c r="H3" s="40">
+      <c r="H3" s="41">
         <v>1.4500999999999999</v>
       </c>
-      <c r="I3" s="40">
+      <c r="I3" s="41">
         <v>0.14699999999999999</v>
       </c>
-      <c r="J3" s="65" t="s">
+      <c r="J3" s="38" t="s">
         <v>106</v>
       </c>
     </row>
@@ -2818,16 +2907,16 @@
       <c r="D4" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="39"/>
+      <c r="E4" s="40"/>
       <c r="F4" s="2" t="s">
         <v>95</v>
       </c>
       <c r="G4" s="2">
         <v>0.59640000000000004</v>
       </c>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="65" t="s">
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="38" t="s">
         <v>107</v>
       </c>
     </row>
@@ -2844,40 +2933,40 @@
       <c r="D5" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="E5" s="38" t="s">
+      <c r="E5" s="39" t="s">
         <v>22</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="G5" s="64">
+      <c r="G5" s="37">
         <v>0.58009999999999995</v>
       </c>
-      <c r="H5" s="40">
+      <c r="H5" s="41">
         <v>-0.46650000000000003</v>
       </c>
-      <c r="I5" s="40">
+      <c r="I5" s="41">
         <v>0.64090000000000003</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="51"/>
-      <c r="E6" s="39"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="54"/>
+      <c r="E6" s="40"/>
       <c r="F6" s="2" t="s">
         <v>95</v>
       </c>
       <c r="G6" s="2">
         <v>0.58389999999999997</v>
       </c>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="48" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -2886,45 +2975,45 @@
       <c r="C7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="38" t="s">
+      <c r="E7" s="39" t="s">
         <v>23</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="G7" s="64">
+      <c r="G7" s="37">
         <v>0.5393</v>
       </c>
-      <c r="H7" s="40">
+      <c r="H7" s="41">
         <v>-1.7504</v>
       </c>
-      <c r="I7" s="40">
+      <c r="I7" s="41">
         <v>8.0100000000000005E-2</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A8" s="39"/>
+      <c r="A8" s="40"/>
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="39"/>
+      <c r="E8" s="40"/>
       <c r="F8" s="2" t="s">
         <v>95</v>
       </c>
       <c r="G8" s="2">
         <v>0.55649999999999999</v>
       </c>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="E9" s="36" t="s">
+      <c r="E9" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="F9" s="37"/>
+      <c r="F9" s="44"/>
       <c r="G9" s="3" t="s">
         <v>25</v>
       </c>
@@ -2936,45 +3025,45 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A10" s="46" t="s">
+      <c r="A10" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="47"/>
-      <c r="C10" s="48"/>
-      <c r="E10" s="38" t="s">
+      <c r="B10" s="50"/>
+      <c r="C10" s="51"/>
+      <c r="E10" s="39" t="s">
         <v>21</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="G10" s="63">
+      <c r="G10" s="36">
         <v>0.82099999999999995</v>
       </c>
-      <c r="H10" s="40">
+      <c r="H10" s="41">
         <v>23.857700000000001</v>
       </c>
-      <c r="I10" s="40" t="s">
+      <c r="I10" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="J10" s="65" t="s">
+      <c r="J10" s="38" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A11" s="49" t="s">
+      <c r="A11" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="50"/>
-      <c r="C11" s="51"/>
-      <c r="E11" s="39"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="54"/>
+      <c r="E11" s="40"/>
       <c r="F11" s="2" t="s">
         <v>95</v>
       </c>
       <c r="G11" s="2">
         <v>0.74229999999999996</v>
       </c>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A12" s="1" t="s">
@@ -2986,19 +3075,19 @@
       <c r="C12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="38" t="s">
+      <c r="E12" s="39" t="s">
         <v>22</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="G12" s="63">
+      <c r="G12" s="36">
         <v>0.83950000000000002</v>
       </c>
-      <c r="H12" s="40">
+      <c r="H12" s="41">
         <v>20.513400000000001</v>
       </c>
-      <c r="I12" s="40" t="s">
+      <c r="I12" s="41" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3012,15 +3101,15 @@
       <c r="C13" s="2">
         <v>5.0496999999999996</v>
       </c>
-      <c r="E13" s="39"/>
+      <c r="E13" s="40"/>
       <c r="F13" s="2" t="s">
         <v>95</v>
       </c>
       <c r="G13" s="2">
         <v>0.73529999999999995</v>
       </c>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A14" s="2" t="s">
@@ -3032,40 +3121,40 @@
       <c r="C14" s="2">
         <v>5.5609000000000002</v>
       </c>
-      <c r="E14" s="38" t="s">
+      <c r="E14" s="39" t="s">
         <v>23</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="G14" s="63">
+      <c r="G14" s="36">
         <v>0.78539999999999999</v>
       </c>
-      <c r="H14" s="40">
+      <c r="H14" s="41">
         <v>16.601400000000002</v>
       </c>
-      <c r="I14" s="40" t="s">
+      <c r="I14" s="41" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A15" s="49" t="s">
+      <c r="A15" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="50"/>
-      <c r="C15" s="51"/>
-      <c r="E15" s="39"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="54"/>
+      <c r="E15" s="40"/>
       <c r="F15" s="2" t="s">
         <v>95</v>
       </c>
       <c r="G15" s="2">
         <v>0.67610000000000003</v>
       </c>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A16" s="45" t="s">
+      <c r="A16" s="48" t="s">
         <v>7</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -3079,7 +3168,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A17" s="39"/>
+      <c r="A17" s="40"/>
       <c r="B17" s="2" t="s">
         <v>13</v>
       </c>
@@ -3091,27 +3180,27 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="E18" s="42" t="s">
+      <c r="E18" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="44"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="47"/>
       <c r="J18" s="35" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A19" s="46" t="s">
+      <c r="A19" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="B19" s="47"/>
-      <c r="C19" s="48"/>
-      <c r="E19" s="36" t="s">
+      <c r="B19" s="50"/>
+      <c r="C19" s="51"/>
+      <c r="E19" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="F19" s="37"/>
+      <c r="F19" s="44"/>
       <c r="G19" s="3" t="s">
         <v>30</v>
       </c>
@@ -3123,27 +3212,27 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A20" s="49" t="s">
+      <c r="A20" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="50"/>
-      <c r="C20" s="51"/>
-      <c r="E20" s="38" t="s">
+      <c r="B20" s="53"/>
+      <c r="C20" s="54"/>
+      <c r="E20" s="39" t="s">
         <v>21</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="G20" s="64">
+      <c r="G20" s="37">
         <v>0.60419999999999996</v>
       </c>
-      <c r="H20" s="40">
+      <c r="H20" s="41">
         <v>6.7031000000000001</v>
       </c>
-      <c r="I20" s="40" t="s">
+      <c r="I20" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="J20" s="65" t="s">
+      <c r="J20" s="38" t="s">
         <v>100</v>
       </c>
     </row>
@@ -3157,15 +3246,15 @@
       <c r="C21" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="39"/>
+      <c r="E21" s="40"/>
       <c r="F21" s="2" t="s">
         <v>87</v>
       </c>
       <c r="G21" s="2">
         <v>0.56520000000000004</v>
       </c>
-      <c r="H21" s="41"/>
-      <c r="I21" s="41"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="42"/>
       <c r="J21" s="35" t="s">
         <v>101</v>
       </c>
@@ -3180,19 +3269,19 @@
       <c r="C22" s="2">
         <v>6.4598000000000004</v>
       </c>
-      <c r="E22" s="38" t="s">
+      <c r="E22" s="39" t="s">
         <v>22</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="G22" s="64">
+      <c r="G22" s="37">
         <v>0.58009999999999995</v>
       </c>
-      <c r="H22" s="40">
+      <c r="H22" s="41">
         <v>2.8894000000000002</v>
       </c>
-      <c r="I22" s="40">
+      <c r="I22" s="41">
         <v>3.8999999999999998E-3</v>
       </c>
     </row>
@@ -3206,43 +3295,43 @@
       <c r="C23" s="2">
         <v>5.1597</v>
       </c>
-      <c r="E23" s="39"/>
+      <c r="E23" s="40"/>
       <c r="F23" s="2" t="s">
         <v>87</v>
       </c>
       <c r="G23" s="2">
         <v>0.5534</v>
       </c>
-      <c r="H23" s="41"/>
-      <c r="I23" s="41"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="42"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A24" s="49" t="s">
+      <c r="A24" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="50"/>
-      <c r="C24" s="51"/>
-      <c r="E24" s="38" t="s">
+      <c r="B24" s="53"/>
+      <c r="C24" s="54"/>
+      <c r="E24" s="39" t="s">
         <v>23</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="G24" s="64">
+      <c r="G24" s="37">
         <v>0.5393</v>
       </c>
-      <c r="H24" s="40">
+      <c r="H24" s="41">
         <v>1.6584000000000001</v>
       </c>
-      <c r="I24" s="40">
+      <c r="I24" s="41">
         <v>9.7299999999999998E-2</v>
       </c>
-      <c r="J24" s="65" t="s">
+      <c r="J24" s="38" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A25" s="45" t="s">
+      <c r="A25" s="48" t="s">
         <v>7</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -3251,28 +3340,28 @@
       <c r="C25" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E25" s="39"/>
+      <c r="E25" s="40"/>
       <c r="F25" s="2" t="s">
         <v>87</v>
       </c>
       <c r="G25" s="2">
         <v>0.52139999999999997</v>
       </c>
-      <c r="H25" s="41"/>
-      <c r="I25" s="41"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A26" s="39"/>
+      <c r="A26" s="40"/>
       <c r="B26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E26" s="36" t="s">
+      <c r="E26" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="F26" s="37"/>
+      <c r="F26" s="44"/>
       <c r="G26" s="3" t="s">
         <v>25</v>
       </c>
@@ -3284,94 +3373,94 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="E27" s="38" t="s">
+      <c r="E27" s="39" t="s">
         <v>21</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="G27" s="63">
+      <c r="G27" s="36">
         <v>0.82099999999999995</v>
       </c>
-      <c r="H27" s="40">
+      <c r="H27" s="41">
         <v>33.133299999999998</v>
       </c>
-      <c r="I27" s="40" t="s">
+      <c r="I27" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="J27" s="65" t="s">
+      <c r="J27" s="38" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="E28" s="39"/>
+      <c r="E28" s="40"/>
       <c r="F28" s="2" t="s">
         <v>87</v>
       </c>
       <c r="G28" s="2">
         <v>0.70599999999999996</v>
       </c>
-      <c r="H28" s="41"/>
-      <c r="I28" s="41"/>
-      <c r="J28" s="65" t="s">
+      <c r="H28" s="42"/>
+      <c r="I28" s="42"/>
+      <c r="J28" s="38" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="E29" s="38" t="s">
+      <c r="E29" s="39" t="s">
         <v>22</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="G29" s="63">
+      <c r="G29" s="36">
         <v>0.83950000000000002</v>
       </c>
-      <c r="H29" s="40">
+      <c r="H29" s="41">
         <v>24.9849</v>
       </c>
-      <c r="I29" s="40" t="s">
+      <c r="I29" s="41" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="E30" s="39"/>
+      <c r="E30" s="40"/>
       <c r="F30" s="2" t="s">
         <v>87</v>
       </c>
       <c r="G30" s="2">
         <v>0.70609999999999995</v>
       </c>
-      <c r="H30" s="41"/>
-      <c r="I30" s="41"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="42"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="E31" s="38" t="s">
+      <c r="E31" s="39" t="s">
         <v>23</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="G31" s="63">
+      <c r="G31" s="36">
         <v>0.78539999999999999</v>
       </c>
-      <c r="H31" s="40">
+      <c r="H31" s="41">
         <v>21.385400000000001</v>
       </c>
-      <c r="I31" s="40" t="s">
+      <c r="I31" s="41" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="E32" s="39"/>
+      <c r="E32" s="40"/>
       <c r="F32" s="2" t="s">
         <v>87</v>
       </c>
       <c r="G32" s="2">
         <v>0.63849999999999996</v>
       </c>
-      <c r="H32" s="41"/>
-      <c r="I32" s="41"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="42"/>
     </row>
     <row r="33" spans="5:5" x14ac:dyDescent="0.5">
       <c r="E33" s="35" t="s">
@@ -3380,20 +3469,23 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="I14:I15"/>
     <mergeCell ref="E1:I1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="E5:E6"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
@@ -3406,25 +3498,11 @@
     <mergeCell ref="A19:C19"/>
     <mergeCell ref="A20:C20"/>
     <mergeCell ref="A24:C24"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
     <mergeCell ref="E14:E15"/>
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="I7:I8"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="E29:E30"/>
     <mergeCell ref="E22:E23"/>
     <mergeCell ref="H22:H23"/>
     <mergeCell ref="I22:I23"/>
@@ -3434,6 +3512,17 @@
     <mergeCell ref="E18:I18"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E20:E21"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="I29:I30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3442,11 +3531,768 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B78CFA9F-73ED-424A-9027-1A5D5AB10FF2}">
+  <dimension ref="A1:K22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="16384" width="8.796875" style="67"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A1" s="67" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="66" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66" t="s">
+        <v>110</v>
+      </c>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66" t="s">
+        <v>111</v>
+      </c>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1" s="66"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A2" s="67" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="67" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="67" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2" s="67" t="s">
+        <v>115</v>
+      </c>
+      <c r="E2" s="67" t="s">
+        <v>116</v>
+      </c>
+      <c r="F2" s="67" t="s">
+        <v>115</v>
+      </c>
+      <c r="G2" s="67" t="s">
+        <v>116</v>
+      </c>
+      <c r="H2" s="67" t="s">
+        <v>115</v>
+      </c>
+      <c r="I2" s="67" t="s">
+        <v>116</v>
+      </c>
+      <c r="J2" s="67" t="s">
+        <v>115</v>
+      </c>
+      <c r="K2" s="67" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A3" s="67" t="s">
+        <v>125</v>
+      </c>
+      <c r="B3" s="67">
+        <v>0.9829</v>
+      </c>
+      <c r="C3" s="67">
+        <v>0.98909999999999998</v>
+      </c>
+      <c r="D3" s="67">
+        <v>1.0106999999999999</v>
+      </c>
+      <c r="E3" s="67">
+        <v>1.0111000000000001</v>
+      </c>
+      <c r="F3" s="67">
+        <v>0.98440000000000005</v>
+      </c>
+      <c r="G3" s="67">
+        <v>1.0038</v>
+      </c>
+      <c r="H3" s="67">
+        <v>1.0674999999999999</v>
+      </c>
+      <c r="I3" s="67">
+        <v>1.0724</v>
+      </c>
+      <c r="J3" s="67">
+        <v>1.0176000000000001</v>
+      </c>
+      <c r="K3" s="67">
+        <v>1.0213000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="69" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B4" s="69">
+        <v>6.2399999999999997E-2</v>
+      </c>
+      <c r="C4" s="69">
+        <v>6.1699999999999998E-2</v>
+      </c>
+      <c r="D4" s="69">
+        <v>5.5100000000000003E-2</v>
+      </c>
+      <c r="E4" s="69">
+        <v>5.4300000000000001E-2</v>
+      </c>
+      <c r="F4" s="69">
+        <v>4.9799999999999997E-2</v>
+      </c>
+      <c r="G4" s="69">
+        <v>4.9399999999999999E-2</v>
+      </c>
+      <c r="H4" s="69">
+        <v>6.1100000000000002E-2</v>
+      </c>
+      <c r="I4" s="69">
+        <v>6.0699999999999997E-2</v>
+      </c>
+      <c r="J4" s="69">
+        <v>5.6800000000000003E-2</v>
+      </c>
+      <c r="K4" s="69">
+        <v>5.5500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A5" s="67" t="s">
+        <v>126</v>
+      </c>
+      <c r="B5" s="67">
+        <v>0.99780000000000002</v>
+      </c>
+      <c r="C5" s="67">
+        <v>1.0044999999999999</v>
+      </c>
+      <c r="D5" s="67">
+        <v>0.96709999999999996</v>
+      </c>
+      <c r="E5" s="67">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="F5" s="67">
+        <v>0.96730000000000005</v>
+      </c>
+      <c r="G5" s="67">
+        <v>0.98919999999999997</v>
+      </c>
+      <c r="H5" s="67">
+        <v>0.99409999999999998</v>
+      </c>
+      <c r="I5" s="67">
+        <v>0.99850000000000005</v>
+      </c>
+      <c r="J5" s="67">
+        <v>0.99770000000000003</v>
+      </c>
+      <c r="K5" s="67">
+        <v>0.99890000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="69" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B6" s="69">
+        <v>6.7699999999999996E-2</v>
+      </c>
+      <c r="C6" s="69">
+        <v>6.7299999999999999E-2</v>
+      </c>
+      <c r="D6" s="69">
+        <v>5.79E-2</v>
+      </c>
+      <c r="E6" s="69">
+        <v>5.6899999999999999E-2</v>
+      </c>
+      <c r="F6" s="69">
+        <v>5.11E-2</v>
+      </c>
+      <c r="G6" s="69">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="H6" s="69">
+        <v>6.5600000000000006E-2</v>
+      </c>
+      <c r="I6" s="69">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="J6" s="69">
+        <v>5.74E-2</v>
+      </c>
+      <c r="K6" s="69">
+        <v>5.7000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A7" s="67" t="s">
+        <v>117</v>
+      </c>
+      <c r="B7" s="67">
+        <v>0.36530000000000001</v>
+      </c>
+      <c r="C7" s="67">
+        <v>0.37009999999999998</v>
+      </c>
+      <c r="D7" s="67">
+        <v>0.39100000000000001</v>
+      </c>
+      <c r="E7" s="67">
+        <v>0.39629999999999999</v>
+      </c>
+      <c r="F7" s="67">
+        <v>0.37280000000000002</v>
+      </c>
+      <c r="G7" s="67">
+        <v>0.39090000000000003</v>
+      </c>
+      <c r="H7" s="67">
+        <v>0.4415</v>
+      </c>
+      <c r="I7" s="67">
+        <v>0.44979999999999998</v>
+      </c>
+      <c r="J7" s="67">
+        <v>0.34160000000000001</v>
+      </c>
+      <c r="K7" s="67">
+        <v>0.35449999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="69" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B8" s="69">
+        <v>0.19689999999999999</v>
+      </c>
+      <c r="C8" s="69">
+        <v>0.1951</v>
+      </c>
+      <c r="D8" s="69">
+        <v>0.1421</v>
+      </c>
+      <c r="E8" s="69">
+        <v>0.1424</v>
+      </c>
+      <c r="F8" s="69">
+        <v>8.5400000000000004E-2</v>
+      </c>
+      <c r="G8" s="69">
+        <v>8.4500000000000006E-2</v>
+      </c>
+      <c r="H8" s="69">
+        <v>0.15090000000000001</v>
+      </c>
+      <c r="I8" s="69">
+        <v>0.15010000000000001</v>
+      </c>
+      <c r="J8" s="69">
+        <v>0.10050000000000001</v>
+      </c>
+      <c r="K8" s="69">
+        <v>9.1499999999999998E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A9" s="67" t="s">
+        <v>118</v>
+      </c>
+      <c r="B9" s="67">
+        <v>0.25330000000000003</v>
+      </c>
+      <c r="C9" s="67">
+        <v>0.25969999999999999</v>
+      </c>
+      <c r="D9" s="67">
+        <v>0.2359</v>
+      </c>
+      <c r="E9" s="67">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="F9" s="67">
+        <v>0.27160000000000001</v>
+      </c>
+      <c r="G9" s="67">
+        <v>0.27539999999999998</v>
+      </c>
+      <c r="H9" s="67">
+        <v>0.35170000000000001</v>
+      </c>
+      <c r="I9" s="67">
+        <v>0.35589999999999999</v>
+      </c>
+      <c r="J9" s="67">
+        <v>0.30420000000000003</v>
+      </c>
+      <c r="K9" s="67">
+        <v>0.3054</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="69" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B10" s="69">
+        <v>9.9199999999999997E-2</v>
+      </c>
+      <c r="C10" s="69">
+        <v>9.7500000000000003E-2</v>
+      </c>
+      <c r="D10" s="69">
+        <v>9.2600000000000002E-2</v>
+      </c>
+      <c r="E10" s="69">
+        <v>9.1499999999999998E-2</v>
+      </c>
+      <c r="F10" s="69">
+        <v>0.1129</v>
+      </c>
+      <c r="G10" s="69">
+        <v>0.1104</v>
+      </c>
+      <c r="H10" s="69">
+        <v>6.6900000000000001E-2</v>
+      </c>
+      <c r="I10" s="69">
+        <v>6.6699999999999995E-2</v>
+      </c>
+      <c r="J10" s="69">
+        <v>0.1177</v>
+      </c>
+      <c r="K10" s="69">
+        <v>0.1162</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A11" s="67" t="s">
+        <v>119</v>
+      </c>
+      <c r="B11" s="67">
+        <v>0.2253</v>
+      </c>
+      <c r="C11" s="67">
+        <v>0.27439999999999998</v>
+      </c>
+      <c r="D11" s="67">
+        <v>0.2361</v>
+      </c>
+      <c r="E11" s="67">
+        <v>0.27189999999999998</v>
+      </c>
+      <c r="F11" s="67">
+        <v>0.18010000000000001</v>
+      </c>
+      <c r="G11" s="67">
+        <v>0.2225</v>
+      </c>
+      <c r="H11" s="67">
+        <v>0.16039999999999999</v>
+      </c>
+      <c r="I11" s="67">
+        <v>0.16339999999999999</v>
+      </c>
+      <c r="J11" s="67">
+        <v>0.1573</v>
+      </c>
+      <c r="K11" s="67">
+        <v>0.17030000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="69" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B12" s="69">
+        <v>0.1239</v>
+      </c>
+      <c r="C12" s="69">
+        <v>0.1226</v>
+      </c>
+      <c r="D12" s="69">
+        <v>0.1174</v>
+      </c>
+      <c r="E12" s="69">
+        <v>0.1162</v>
+      </c>
+      <c r="F12" s="69">
+        <v>0.1207</v>
+      </c>
+      <c r="G12" s="69">
+        <v>0.1198</v>
+      </c>
+      <c r="H12" s="69">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="I12" s="69">
+        <v>0.11509999999999999</v>
+      </c>
+      <c r="J12" s="69">
+        <v>0.1444</v>
+      </c>
+      <c r="K12" s="69">
+        <v>0.14249999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A13" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="B13" s="67">
+        <v>0.1537</v>
+      </c>
+      <c r="C13" s="67">
+        <v>0.1938</v>
+      </c>
+      <c r="D13" s="67">
+        <v>0.18720000000000001</v>
+      </c>
+      <c r="E13" s="67">
+        <v>0.23050000000000001</v>
+      </c>
+      <c r="F13" s="67">
+        <v>0.1588</v>
+      </c>
+      <c r="G13" s="67">
+        <v>0.1852</v>
+      </c>
+      <c r="H13" s="67">
+        <v>0.29620000000000002</v>
+      </c>
+      <c r="I13" s="67">
+        <v>0.37419999999999998</v>
+      </c>
+      <c r="J13" s="67">
+        <v>0.15970000000000001</v>
+      </c>
+      <c r="K13" s="67">
+        <v>0.19209999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="69" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B14" s="69">
+        <v>0.1565</v>
+      </c>
+      <c r="C14" s="69">
+        <v>0.1326</v>
+      </c>
+      <c r="D14" s="69">
+        <v>0.17019999999999999</v>
+      </c>
+      <c r="E14" s="69">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="F14" s="69">
+        <v>0.15809999999999999</v>
+      </c>
+      <c r="G14" s="69">
+        <v>0.13589999999999999</v>
+      </c>
+      <c r="H14" s="69">
+        <v>0.22009999999999999</v>
+      </c>
+      <c r="I14" s="69">
+        <v>0.22320000000000001</v>
+      </c>
+      <c r="J14" s="69">
+        <v>0.24329999999999999</v>
+      </c>
+      <c r="K14" s="69">
+        <v>0.22070000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A15" s="67" t="s">
+        <v>121</v>
+      </c>
+      <c r="B15" s="70">
+        <v>9.3700000000000006E-2</v>
+      </c>
+      <c r="C15" s="70">
+        <v>0.1138</v>
+      </c>
+      <c r="D15" s="70">
+        <v>0.1105</v>
+      </c>
+      <c r="E15" s="70">
+        <v>0.1147</v>
+      </c>
+      <c r="F15" s="70">
+        <v>8.9700000000000002E-2</v>
+      </c>
+      <c r="G15" s="70">
+        <v>8.9899999999999994E-2</v>
+      </c>
+      <c r="H15" s="70">
+        <v>0.121</v>
+      </c>
+      <c r="I15" s="70">
+        <v>0.13239999999999999</v>
+      </c>
+      <c r="J15" s="70">
+        <v>7.9500000000000001E-2</v>
+      </c>
+      <c r="K15" s="70">
+        <v>7.9799999999999996E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="69" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B16" s="69">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="C16" s="69">
+        <v>7.1400000000000005E-2</v>
+      </c>
+      <c r="D16" s="69">
+        <v>7.1199999999999999E-2</v>
+      </c>
+      <c r="E16" s="69">
+        <v>6.7799999999999999E-2</v>
+      </c>
+      <c r="F16" s="69">
+        <v>5.9200000000000003E-2</v>
+      </c>
+      <c r="G16" s="69">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="H16" s="69">
+        <v>6.2399999999999997E-2</v>
+      </c>
+      <c r="I16" s="69">
+        <v>6.13E-2</v>
+      </c>
+      <c r="J16" s="69">
+        <v>5.6399999999999999E-2</v>
+      </c>
+      <c r="K16" s="69">
+        <v>5.62E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A17" s="67" t="s">
+        <v>122</v>
+      </c>
+      <c r="B17" s="67">
+        <v>0.11459999999999999</v>
+      </c>
+      <c r="C17" s="67">
+        <v>0.1197</v>
+      </c>
+      <c r="D17" s="67">
+        <v>0.125</v>
+      </c>
+      <c r="E17" s="67">
+        <v>0.13020000000000001</v>
+      </c>
+      <c r="F17" s="67">
+        <v>0.12690000000000001</v>
+      </c>
+      <c r="G17" s="67">
+        <v>0.12709999999999999</v>
+      </c>
+      <c r="H17" s="67">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="I17" s="67">
+        <v>0.14549999999999999</v>
+      </c>
+      <c r="J17" s="67">
+        <v>8.77E-2</v>
+      </c>
+      <c r="K17" s="67">
+        <v>8.8099999999999998E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" s="69" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B18" s="69">
+        <v>6.6900000000000001E-2</v>
+      </c>
+      <c r="C18" s="69">
+        <v>6.7299999999999999E-2</v>
+      </c>
+      <c r="D18" s="69">
+        <v>6.2399999999999997E-2</v>
+      </c>
+      <c r="E18" s="69">
+        <v>6.6500000000000004E-2</v>
+      </c>
+      <c r="F18" s="69">
+        <v>5.9700000000000003E-2</v>
+      </c>
+      <c r="G18" s="69">
+        <v>5.8599999999999999E-2</v>
+      </c>
+      <c r="H18" s="69">
+        <v>6.1699999999999998E-2</v>
+      </c>
+      <c r="I18" s="69">
+        <v>6.0400000000000002E-2</v>
+      </c>
+      <c r="J18" s="69">
+        <v>5.3900000000000003E-2</v>
+      </c>
+      <c r="K18" s="69">
+        <v>5.3600000000000002E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A19" s="67" t="s">
+        <v>123</v>
+      </c>
+      <c r="B19" s="67">
+        <v>0.32229999999999998</v>
+      </c>
+      <c r="C19" s="67">
+        <v>0.32390000000000002</v>
+      </c>
+      <c r="D19" s="67">
+        <v>0.31519999999999998</v>
+      </c>
+      <c r="E19" s="67">
+        <v>0.31690000000000002</v>
+      </c>
+      <c r="F19" s="67">
+        <v>0.29039999999999999</v>
+      </c>
+      <c r="G19" s="67">
+        <v>0.29389999999999999</v>
+      </c>
+      <c r="H19" s="67">
+        <v>0.4249</v>
+      </c>
+      <c r="I19" s="67">
+        <v>0.42580000000000001</v>
+      </c>
+      <c r="J19" s="67">
+        <v>0.37180000000000002</v>
+      </c>
+      <c r="K19" s="67">
+        <v>0.38940000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" s="69" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B20" s="69">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="C20" s="69">
+        <v>4.5499999999999999E-2</v>
+      </c>
+      <c r="D20" s="69">
+        <v>4.5499999999999999E-2</v>
+      </c>
+      <c r="E20" s="69">
+        <v>4.5199999999999997E-2</v>
+      </c>
+      <c r="F20" s="69">
+        <v>5.4899999999999997E-2</v>
+      </c>
+      <c r="G20" s="69">
+        <v>5.16E-2</v>
+      </c>
+      <c r="H20" s="69">
+        <v>4.4200000000000003E-2</v>
+      </c>
+      <c r="I20" s="69">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="J20" s="69">
+        <v>8.0500000000000002E-2</v>
+      </c>
+      <c r="K20" s="69">
+        <v>7.0599999999999996E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A21" s="67" t="s">
+        <v>124</v>
+      </c>
+      <c r="B21" s="67">
+        <v>0.15329999999999999</v>
+      </c>
+      <c r="C21" s="67">
+        <v>0.15570000000000001</v>
+      </c>
+      <c r="D21" s="67">
+        <v>0.1547</v>
+      </c>
+      <c r="E21" s="67">
+        <v>0.15709999999999999</v>
+      </c>
+      <c r="F21" s="67">
+        <v>0.129</v>
+      </c>
+      <c r="G21" s="67">
+        <v>0.13159999999999999</v>
+      </c>
+      <c r="H21" s="67">
+        <v>0.17419999999999999</v>
+      </c>
+      <c r="I21" s="67">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="J21" s="67">
+        <v>0.1045</v>
+      </c>
+      <c r="K21" s="67">
+        <v>0.1061</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" s="69" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B22" s="69">
+        <v>7.7799999999999994E-2</v>
+      </c>
+      <c r="C22" s="69">
+        <v>7.7499999999999999E-2</v>
+      </c>
+      <c r="D22" s="69">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="E22" s="69">
+        <v>7.2800000000000004E-2</v>
+      </c>
+      <c r="F22" s="69">
+        <v>6.7699999999999996E-2</v>
+      </c>
+      <c r="G22" s="69">
+        <v>6.7299999999999999E-2</v>
+      </c>
+      <c r="H22" s="69">
+        <v>7.1800000000000003E-2</v>
+      </c>
+      <c r="I22" s="69">
+        <v>7.0699999999999999E-2</v>
+      </c>
+      <c r="J22" s="69">
+        <v>6.2799999999999995E-2</v>
+      </c>
+      <c r="K22" s="69">
+        <v>6.2E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2687A086-E6AD-4DC9-8E6D-5E9AEFD1DED8}">
   <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -3460,12 +4306,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="62"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="65"/>
       <c r="E1" s="5" t="s">
         <v>47</v>
       </c>
@@ -3488,7 +4334,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="39" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -3502,7 +4348,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="39"/>
+      <c r="A4" s="40"/>
       <c r="B4" s="4" t="s">
         <v>63</v>
       </c>
@@ -3514,7 +4360,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="39" t="s">
         <v>22</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -3528,7 +4374,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="39"/>
+      <c r="A6" s="40"/>
       <c r="B6" s="4" t="s">
         <v>63</v>
       </c>
@@ -3540,7 +4386,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="39" t="s">
         <v>23</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -3554,7 +4400,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="39"/>
+      <c r="A8" s="40"/>
       <c r="B8" s="4" t="s">
         <v>63</v>
       </c>
@@ -3575,13 +4421,13 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="60" t="s">
+      <c r="A10" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="B10" s="61"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="62"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="65"/>
       <c r="F10" s="33" t="s">
         <v>83</v>
       </c>
@@ -3607,7 +4453,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="38" t="s">
+      <c r="A12" s="39" t="s">
         <v>21</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -3628,7 +4474,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A13" s="39"/>
+      <c r="A13" s="40"/>
       <c r="B13" s="4" t="s">
         <v>58</v>
       </c>
@@ -3651,7 +4497,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="38" t="s">
+      <c r="A14" s="39" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -3672,7 +4518,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A15" s="39"/>
+      <c r="A15" s="40"/>
       <c r="B15" s="4" t="s">
         <v>58</v>
       </c>
@@ -3695,7 +4541,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A16" s="38" t="s">
+      <c r="A16" s="39" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -3716,7 +4562,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A17" s="39"/>
+      <c r="A17" s="40"/>
       <c r="B17" s="4" t="s">
         <v>58</v>
       </c>
@@ -3739,13 +4585,13 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A19" s="60" t="s">
+      <c r="A19" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="B19" s="61"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="62"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="65"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A20" s="16" t="s">
@@ -3765,7 +4611,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A21" s="38" t="s">
+      <c r="A21" s="39" t="s">
         <v>21</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -3787,7 +4633,7 @@
       <c r="H21" s="5"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A22" s="39"/>
+      <c r="A22" s="40"/>
       <c r="B22" s="4" t="s">
         <v>58</v>
       </c>
@@ -3811,7 +4657,7 @@
       <c r="H22" s="5"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A23" s="38" t="s">
+      <c r="A23" s="39" t="s">
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
@@ -3832,7 +4678,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A24" s="39"/>
+      <c r="A24" s="40"/>
       <c r="B24" s="4" t="s">
         <v>58</v>
       </c>
@@ -3855,7 +4701,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A25" s="38" t="s">
+      <c r="A25" s="39" t="s">
         <v>23</v>
       </c>
       <c r="B25" s="4" t="s">
@@ -3876,7 +4722,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A26" s="39"/>
+      <c r="A26" s="40"/>
       <c r="B26" s="4" t="s">
         <v>58</v>
       </c>
@@ -3917,10 +4763,10 @@
       <c r="D31" s="24"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A32" s="56" t="s">
+      <c r="A32" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="B32" s="57"/>
+      <c r="B32" s="60"/>
       <c r="C32" s="16" t="s">
         <v>71</v>
       </c>
@@ -3932,7 +4778,7 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A33" s="52" t="s">
+      <c r="A33" s="55" t="s">
         <v>21</v>
       </c>
       <c r="B33" s="20" t="s">
@@ -3946,7 +4792,7 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A34" s="53"/>
+      <c r="A34" s="56"/>
       <c r="B34" s="20" t="s">
         <v>76</v>
       </c>
@@ -3972,7 +4818,7 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A35" s="54" t="s">
+      <c r="A35" s="57" t="s">
         <v>22</v>
       </c>
       <c r="B35" s="22" t="s">
@@ -3988,7 +4834,7 @@
       <c r="H35" s="2"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A36" s="55"/>
+      <c r="A36" s="58"/>
       <c r="B36" s="22" t="s">
         <v>76</v>
       </c>
@@ -4014,7 +4860,7 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A37" s="52" t="s">
+      <c r="A37" s="55" t="s">
         <v>23</v>
       </c>
       <c r="B37" s="20" t="s">
@@ -4030,7 +4876,7 @@
       <c r="H37" s="2"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A38" s="53"/>
+      <c r="A38" s="56"/>
       <c r="B38" s="20" t="s">
         <v>76</v>
       </c>
@@ -4074,10 +4920,10 @@
       <c r="H40" s="2"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A41" s="58" t="s">
+      <c r="A41" s="61" t="s">
         <v>78</v>
       </c>
-      <c r="B41" s="59"/>
+      <c r="B41" s="62"/>
       <c r="C41" s="21" t="s">
         <v>71</v>
       </c>
@@ -4088,7 +4934,7 @@
       <c r="H41" s="2"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A42" s="52" t="s">
+      <c r="A42" s="55" t="s">
         <v>21</v>
       </c>
       <c r="B42" s="20" t="s">
@@ -4104,7 +4950,7 @@
       <c r="H42" s="2"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A43" s="53"/>
+      <c r="A43" s="56"/>
       <c r="B43" s="20" t="s">
         <v>76</v>
       </c>
@@ -4130,7 +4976,7 @@
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A44" s="54" t="s">
+      <c r="A44" s="57" t="s">
         <v>22</v>
       </c>
       <c r="B44" s="22" t="s">
@@ -4146,7 +4992,7 @@
       <c r="H44" s="2"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A45" s="55"/>
+      <c r="A45" s="58"/>
       <c r="B45" s="22" t="s">
         <v>76</v>
       </c>
@@ -4172,7 +5018,7 @@
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A46" s="52" t="s">
+      <c r="A46" s="55" t="s">
         <v>23</v>
       </c>
       <c r="B46" s="20" t="s">
@@ -4188,7 +5034,7 @@
       <c r="H46" s="2"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A47" s="53"/>
+      <c r="A47" s="56"/>
       <c r="B47" s="20" t="s">
         <v>76</v>
       </c>

--- a/dataAnalysis.xlsx
+++ b/dataAnalysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\botImpact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{146A73CA-73F2-4A3B-84B7-DC3EA504DC2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DF3989D-95DF-4209-947A-38DEBC722B96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="18192" windowHeight="11592" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="141">
   <si>
     <t>Node Degree</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1988,10 +1988,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Ours</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>w/o jt</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2004,11 +2000,71 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GCN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GAT</t>
+    <t>100 times average</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AdvG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>βZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Naive Bias</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Adv Bias</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Adv ePEHE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GIAL ePEHE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ignite ePEHE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10 seeds average</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Homophily Influence βZ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2180,7 +2236,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2214,6 +2270,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2308,7 +2370,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2424,33 +2486,33 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2472,6 +2534,15 @@
     <xf numFmtId="176" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2496,22 +2567,28 @@
     <xf numFmtId="177" fontId="2" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="21" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2828,13 +2905,13 @@
       <c r="D1" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="47"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="43"/>
       <c r="J1" s="38" t="s">
         <v>103</v>
       </c>
@@ -2848,10 +2925,10 @@
       <c r="D2" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="43" t="s">
+      <c r="E2" s="44" t="s">
         <v>93</v>
       </c>
-      <c r="F2" s="44"/>
+      <c r="F2" s="45"/>
       <c r="G2" s="3" t="s">
         <v>30</v>
       </c>
@@ -2875,7 +2952,7 @@
       <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="39" t="s">
+      <c r="E3" s="46" t="s">
         <v>21</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -2884,10 +2961,10 @@
       <c r="G3" s="37">
         <v>0.60419999999999996</v>
       </c>
-      <c r="H3" s="41">
+      <c r="H3" s="39">
         <v>1.4500999999999999</v>
       </c>
-      <c r="I3" s="41">
+      <c r="I3" s="39">
         <v>0.14699999999999999</v>
       </c>
       <c r="J3" s="38" t="s">
@@ -2907,15 +2984,15 @@
       <c r="D4" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="40"/>
+      <c r="E4" s="47"/>
       <c r="F4" s="2" t="s">
         <v>95</v>
       </c>
       <c r="G4" s="2">
         <v>0.59640000000000004</v>
       </c>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
       <c r="J4" s="38" t="s">
         <v>107</v>
       </c>
@@ -2933,7 +3010,7 @@
       <c r="D5" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="E5" s="39" t="s">
+      <c r="E5" s="46" t="s">
         <v>22</v>
       </c>
       <c r="F5" s="2" t="s">
@@ -2942,10 +3019,10 @@
       <c r="G5" s="37">
         <v>0.58009999999999995</v>
       </c>
-      <c r="H5" s="41">
+      <c r="H5" s="39">
         <v>-0.46650000000000003</v>
       </c>
-      <c r="I5" s="41">
+      <c r="I5" s="39">
         <v>0.64090000000000003</v>
       </c>
     </row>
@@ -2955,15 +3032,15 @@
       </c>
       <c r="B6" s="53"/>
       <c r="C6" s="54"/>
-      <c r="E6" s="40"/>
+      <c r="E6" s="47"/>
       <c r="F6" s="2" t="s">
         <v>95</v>
       </c>
       <c r="G6" s="2">
         <v>0.58389999999999997</v>
       </c>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A7" s="48" t="s">
@@ -2975,7 +3052,7 @@
       <c r="C7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="39" t="s">
+      <c r="E7" s="46" t="s">
         <v>23</v>
       </c>
       <c r="F7" s="2" t="s">
@@ -2984,36 +3061,36 @@
       <c r="G7" s="37">
         <v>0.5393</v>
       </c>
-      <c r="H7" s="41">
+      <c r="H7" s="39">
         <v>-1.7504</v>
       </c>
-      <c r="I7" s="41">
+      <c r="I7" s="39">
         <v>8.0100000000000005E-2</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A8" s="40"/>
+      <c r="A8" s="47"/>
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="40"/>
+      <c r="E8" s="47"/>
       <c r="F8" s="2" t="s">
         <v>95</v>
       </c>
       <c r="G8" s="2">
         <v>0.55649999999999999</v>
       </c>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="E9" s="43" t="s">
+      <c r="E9" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="F9" s="44"/>
+      <c r="F9" s="45"/>
       <c r="G9" s="3" t="s">
         <v>25</v>
       </c>
@@ -3030,7 +3107,7 @@
       </c>
       <c r="B10" s="50"/>
       <c r="C10" s="51"/>
-      <c r="E10" s="39" t="s">
+      <c r="E10" s="46" t="s">
         <v>21</v>
       </c>
       <c r="F10" s="2" t="s">
@@ -3039,10 +3116,10 @@
       <c r="G10" s="36">
         <v>0.82099999999999995</v>
       </c>
-      <c r="H10" s="41">
+      <c r="H10" s="39">
         <v>23.857700000000001</v>
       </c>
-      <c r="I10" s="41" t="s">
+      <c r="I10" s="39" t="s">
         <v>26</v>
       </c>
       <c r="J10" s="38" t="s">
@@ -3055,15 +3132,15 @@
       </c>
       <c r="B11" s="53"/>
       <c r="C11" s="54"/>
-      <c r="E11" s="40"/>
+      <c r="E11" s="47"/>
       <c r="F11" s="2" t="s">
         <v>95</v>
       </c>
       <c r="G11" s="2">
         <v>0.74229999999999996</v>
       </c>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A12" s="1" t="s">
@@ -3075,7 +3152,7 @@
       <c r="C12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="39" t="s">
+      <c r="E12" s="46" t="s">
         <v>22</v>
       </c>
       <c r="F12" s="2" t="s">
@@ -3084,10 +3161,10 @@
       <c r="G12" s="36">
         <v>0.83950000000000002</v>
       </c>
-      <c r="H12" s="41">
+      <c r="H12" s="39">
         <v>20.513400000000001</v>
       </c>
-      <c r="I12" s="41" t="s">
+      <c r="I12" s="39" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3101,15 +3178,15 @@
       <c r="C13" s="2">
         <v>5.0496999999999996</v>
       </c>
-      <c r="E13" s="40"/>
+      <c r="E13" s="47"/>
       <c r="F13" s="2" t="s">
         <v>95</v>
       </c>
       <c r="G13" s="2">
         <v>0.73529999999999995</v>
       </c>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A14" s="2" t="s">
@@ -3121,7 +3198,7 @@
       <c r="C14" s="2">
         <v>5.5609000000000002</v>
       </c>
-      <c r="E14" s="39" t="s">
+      <c r="E14" s="46" t="s">
         <v>23</v>
       </c>
       <c r="F14" s="2" t="s">
@@ -3130,10 +3207,10 @@
       <c r="G14" s="36">
         <v>0.78539999999999999</v>
       </c>
-      <c r="H14" s="41">
+      <c r="H14" s="39">
         <v>16.601400000000002</v>
       </c>
-      <c r="I14" s="41" t="s">
+      <c r="I14" s="39" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3143,15 +3220,15 @@
       </c>
       <c r="B15" s="53"/>
       <c r="C15" s="54"/>
-      <c r="E15" s="40"/>
+      <c r="E15" s="47"/>
       <c r="F15" s="2" t="s">
         <v>95</v>
       </c>
       <c r="G15" s="2">
         <v>0.67610000000000003</v>
       </c>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A16" s="48" t="s">
@@ -3168,7 +3245,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A17" s="40"/>
+      <c r="A17" s="47"/>
       <c r="B17" s="2" t="s">
         <v>13</v>
       </c>
@@ -3180,13 +3257,13 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="E18" s="45" t="s">
+      <c r="E18" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="47"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="43"/>
       <c r="J18" s="35" t="s">
         <v>105</v>
       </c>
@@ -3197,10 +3274,10 @@
       </c>
       <c r="B19" s="50"/>
       <c r="C19" s="51"/>
-      <c r="E19" s="43" t="s">
+      <c r="E19" s="44" t="s">
         <v>90</v>
       </c>
-      <c r="F19" s="44"/>
+      <c r="F19" s="45"/>
       <c r="G19" s="3" t="s">
         <v>30</v>
       </c>
@@ -3217,7 +3294,7 @@
       </c>
       <c r="B20" s="53"/>
       <c r="C20" s="54"/>
-      <c r="E20" s="39" t="s">
+      <c r="E20" s="46" t="s">
         <v>21</v>
       </c>
       <c r="F20" s="2" t="s">
@@ -3226,10 +3303,10 @@
       <c r="G20" s="37">
         <v>0.60419999999999996</v>
       </c>
-      <c r="H20" s="41">
+      <c r="H20" s="39">
         <v>6.7031000000000001</v>
       </c>
-      <c r="I20" s="41" t="s">
+      <c r="I20" s="39" t="s">
         <v>24</v>
       </c>
       <c r="J20" s="38" t="s">
@@ -3246,15 +3323,15 @@
       <c r="C21" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="40"/>
+      <c r="E21" s="47"/>
       <c r="F21" s="2" t="s">
         <v>87</v>
       </c>
       <c r="G21" s="2">
         <v>0.56520000000000004</v>
       </c>
-      <c r="H21" s="42"/>
-      <c r="I21" s="42"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
       <c r="J21" s="35" t="s">
         <v>101</v>
       </c>
@@ -3269,7 +3346,7 @@
       <c r="C22" s="2">
         <v>6.4598000000000004</v>
       </c>
-      <c r="E22" s="39" t="s">
+      <c r="E22" s="46" t="s">
         <v>22</v>
       </c>
       <c r="F22" s="2" t="s">
@@ -3278,10 +3355,10 @@
       <c r="G22" s="37">
         <v>0.58009999999999995</v>
       </c>
-      <c r="H22" s="41">
+      <c r="H22" s="39">
         <v>2.8894000000000002</v>
       </c>
-      <c r="I22" s="41">
+      <c r="I22" s="39">
         <v>3.8999999999999998E-3</v>
       </c>
     </row>
@@ -3295,15 +3372,15 @@
       <c r="C23" s="2">
         <v>5.1597</v>
       </c>
-      <c r="E23" s="40"/>
+      <c r="E23" s="47"/>
       <c r="F23" s="2" t="s">
         <v>87</v>
       </c>
       <c r="G23" s="2">
         <v>0.5534</v>
       </c>
-      <c r="H23" s="42"/>
-      <c r="I23" s="42"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A24" s="52" t="s">
@@ -3311,7 +3388,7 @@
       </c>
       <c r="B24" s="53"/>
       <c r="C24" s="54"/>
-      <c r="E24" s="39" t="s">
+      <c r="E24" s="46" t="s">
         <v>23</v>
       </c>
       <c r="F24" s="2" t="s">
@@ -3320,10 +3397,10 @@
       <c r="G24" s="37">
         <v>0.5393</v>
       </c>
-      <c r="H24" s="41">
+      <c r="H24" s="39">
         <v>1.6584000000000001</v>
       </c>
-      <c r="I24" s="41">
+      <c r="I24" s="39">
         <v>9.7299999999999998E-2</v>
       </c>
       <c r="J24" s="38" t="s">
@@ -3340,28 +3417,28 @@
       <c r="C25" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E25" s="40"/>
+      <c r="E25" s="47"/>
       <c r="F25" s="2" t="s">
         <v>87</v>
       </c>
       <c r="G25" s="2">
         <v>0.52139999999999997</v>
       </c>
-      <c r="H25" s="42"/>
-      <c r="I25" s="42"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A26" s="40"/>
+      <c r="A26" s="47"/>
       <c r="B26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E26" s="43" t="s">
+      <c r="E26" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="F26" s="44"/>
+      <c r="F26" s="45"/>
       <c r="G26" s="3" t="s">
         <v>25</v>
       </c>
@@ -3373,7 +3450,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="E27" s="39" t="s">
+      <c r="E27" s="46" t="s">
         <v>21</v>
       </c>
       <c r="F27" s="2" t="s">
@@ -3382,10 +3459,10 @@
       <c r="G27" s="36">
         <v>0.82099999999999995</v>
       </c>
-      <c r="H27" s="41">
+      <c r="H27" s="39">
         <v>33.133299999999998</v>
       </c>
-      <c r="I27" s="41" t="s">
+      <c r="I27" s="39" t="s">
         <v>97</v>
       </c>
       <c r="J27" s="38" t="s">
@@ -3393,21 +3470,21 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="E28" s="40"/>
+      <c r="E28" s="47"/>
       <c r="F28" s="2" t="s">
         <v>87</v>
       </c>
       <c r="G28" s="2">
         <v>0.70599999999999996</v>
       </c>
-      <c r="H28" s="42"/>
-      <c r="I28" s="42"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="40"/>
       <c r="J28" s="38" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="E29" s="39" t="s">
+      <c r="E29" s="46" t="s">
         <v>22</v>
       </c>
       <c r="F29" s="2" t="s">
@@ -3416,26 +3493,26 @@
       <c r="G29" s="36">
         <v>0.83950000000000002</v>
       </c>
-      <c r="H29" s="41">
+      <c r="H29" s="39">
         <v>24.9849</v>
       </c>
-      <c r="I29" s="41" t="s">
+      <c r="I29" s="39" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="E30" s="40"/>
+      <c r="E30" s="47"/>
       <c r="F30" s="2" t="s">
         <v>87</v>
       </c>
       <c r="G30" s="2">
         <v>0.70609999999999995</v>
       </c>
-      <c r="H30" s="42"/>
-      <c r="I30" s="42"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="40"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="E31" s="39" t="s">
+      <c r="E31" s="46" t="s">
         <v>23</v>
       </c>
       <c r="F31" s="2" t="s">
@@ -3444,23 +3521,23 @@
       <c r="G31" s="36">
         <v>0.78539999999999999</v>
       </c>
-      <c r="H31" s="41">
+      <c r="H31" s="39">
         <v>21.385400000000001</v>
       </c>
-      <c r="I31" s="41" t="s">
+      <c r="I31" s="39" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="E32" s="40"/>
+      <c r="E32" s="47"/>
       <c r="F32" s="2" t="s">
         <v>87</v>
       </c>
       <c r="G32" s="2">
         <v>0.63849999999999996</v>
       </c>
-      <c r="H32" s="42"/>
-      <c r="I32" s="42"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="40"/>
     </row>
     <row r="33" spans="5:5" x14ac:dyDescent="0.5">
       <c r="E33" s="35" t="s">
@@ -3469,23 +3546,22 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="E1:I1"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
@@ -3498,31 +3574,32 @@
     <mergeCell ref="A19:C19"/>
     <mergeCell ref="A20:C20"/>
     <mergeCell ref="A24:C24"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="H14:H15"/>
     <mergeCell ref="E14:E15"/>
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="I7:I8"/>
     <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I24:I25"/>
     <mergeCell ref="E18:I18"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E20:E21"/>
     <mergeCell ref="E10:E11"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
     <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="I29:I30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3532,749 +3609,973 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B78CFA9F-73ED-424A-9027-1A5D5AB10FF2}">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="16384" width="8.796875" style="67"/>
+    <col min="1" max="1" width="12.046875" style="66" customWidth="1"/>
+    <col min="2" max="16384" width="8.796875" style="66"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A1" s="67" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A1" s="66" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="67" t="s">
         <v>109</v>
       </c>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66" t="s">
+      <c r="C1" s="67"/>
+      <c r="D1" s="67" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66" t="s">
+      <c r="E1" s="67"/>
+      <c r="F1" s="67" t="s">
         <v>111</v>
       </c>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66" t="s">
+      <c r="G1" s="67"/>
+      <c r="H1" s="67" t="s">
         <v>112</v>
       </c>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66" t="s">
+      <c r="I1" s="67"/>
+      <c r="J1" s="67" t="s">
         <v>113</v>
       </c>
-      <c r="K1" s="66"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A2" s="67" t="s">
+      <c r="K1" s="67"/>
+      <c r="L1" s="66" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A2" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="66" t="s">
         <v>115</v>
       </c>
-      <c r="C2" s="67" t="s">
+      <c r="C2" s="66" t="s">
         <v>116</v>
       </c>
-      <c r="D2" s="67" t="s">
+      <c r="D2" s="66" t="s">
         <v>115</v>
       </c>
-      <c r="E2" s="67" t="s">
+      <c r="E2" s="66" t="s">
         <v>116</v>
       </c>
-      <c r="F2" s="67" t="s">
+      <c r="F2" s="66" t="s">
         <v>115</v>
       </c>
-      <c r="G2" s="67" t="s">
+      <c r="G2" s="66" t="s">
         <v>116</v>
       </c>
-      <c r="H2" s="67" t="s">
+      <c r="H2" s="66" t="s">
         <v>115</v>
       </c>
-      <c r="I2" s="67" t="s">
+      <c r="I2" s="66" t="s">
         <v>116</v>
       </c>
-      <c r="J2" s="67" t="s">
+      <c r="J2" s="66" t="s">
         <v>115</v>
       </c>
-      <c r="K2" s="67" t="s">
+      <c r="K2" s="66" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A3" s="67" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A3" s="66" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" s="66">
+        <v>0.36530000000000001</v>
+      </c>
+      <c r="C3" s="66">
+        <v>0.37009999999999998</v>
+      </c>
+      <c r="D3" s="66">
+        <v>0.39100000000000001</v>
+      </c>
+      <c r="E3" s="66">
+        <v>0.39629999999999999</v>
+      </c>
+      <c r="F3" s="66">
+        <v>0.37280000000000002</v>
+      </c>
+      <c r="G3" s="66">
+        <v>0.39090000000000003</v>
+      </c>
+      <c r="H3" s="66">
+        <v>0.4415</v>
+      </c>
+      <c r="I3" s="66">
+        <v>0.44979999999999998</v>
+      </c>
+      <c r="J3" s="66">
+        <v>0.34160000000000001</v>
+      </c>
+      <c r="K3" s="66">
+        <v>0.35449999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="68" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B4" s="68">
+        <v>0.19689999999999999</v>
+      </c>
+      <c r="C4" s="68">
+        <v>0.1951</v>
+      </c>
+      <c r="D4" s="68">
+        <v>0.1421</v>
+      </c>
+      <c r="E4" s="68">
+        <v>0.1424</v>
+      </c>
+      <c r="F4" s="68">
+        <v>8.5400000000000004E-2</v>
+      </c>
+      <c r="G4" s="68">
+        <v>8.4500000000000006E-2</v>
+      </c>
+      <c r="H4" s="68">
+        <v>0.15090000000000001</v>
+      </c>
+      <c r="I4" s="68">
+        <v>0.15010000000000001</v>
+      </c>
+      <c r="J4" s="68">
+        <v>0.10050000000000001</v>
+      </c>
+      <c r="K4" s="68">
+        <v>9.1499999999999998E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A5" s="66" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" s="66">
+        <v>0.25330000000000003</v>
+      </c>
+      <c r="C5" s="66">
+        <v>0.25969999999999999</v>
+      </c>
+      <c r="D5" s="66">
+        <v>0.2359</v>
+      </c>
+      <c r="E5" s="66">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="F5" s="66">
+        <v>0.27160000000000001</v>
+      </c>
+      <c r="G5" s="66">
+        <v>0.27539999999999998</v>
+      </c>
+      <c r="H5" s="66">
+        <v>0.35170000000000001</v>
+      </c>
+      <c r="I5" s="66">
+        <v>0.35589999999999999</v>
+      </c>
+      <c r="J5" s="66">
+        <v>0.30420000000000003</v>
+      </c>
+      <c r="K5" s="66">
+        <v>0.3054</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="68" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B6" s="68">
+        <v>9.9199999999999997E-2</v>
+      </c>
+      <c r="C6" s="68">
+        <v>9.7500000000000003E-2</v>
+      </c>
+      <c r="D6" s="68">
+        <v>9.2600000000000002E-2</v>
+      </c>
+      <c r="E6" s="68">
+        <v>9.1499999999999998E-2</v>
+      </c>
+      <c r="F6" s="68">
+        <v>0.1129</v>
+      </c>
+      <c r="G6" s="68">
+        <v>0.1104</v>
+      </c>
+      <c r="H6" s="68">
+        <v>6.6900000000000001E-2</v>
+      </c>
+      <c r="I6" s="68">
+        <v>6.6699999999999995E-2</v>
+      </c>
+      <c r="J6" s="68">
+        <v>0.1177</v>
+      </c>
+      <c r="K6" s="68">
+        <v>0.1162</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A7" s="66" t="s">
+        <v>119</v>
+      </c>
+      <c r="B7" s="66">
+        <v>0.2253</v>
+      </c>
+      <c r="C7" s="66">
+        <v>0.27439999999999998</v>
+      </c>
+      <c r="D7" s="66">
+        <v>0.2361</v>
+      </c>
+      <c r="E7" s="66">
+        <v>0.27189999999999998</v>
+      </c>
+      <c r="F7" s="66">
+        <v>0.18010000000000001</v>
+      </c>
+      <c r="G7" s="66">
+        <v>0.2225</v>
+      </c>
+      <c r="H7" s="66">
+        <v>0.16039999999999999</v>
+      </c>
+      <c r="I7" s="66">
+        <v>0.16339999999999999</v>
+      </c>
+      <c r="J7" s="66">
+        <v>0.1573</v>
+      </c>
+      <c r="K7" s="66">
+        <v>0.17030000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="68" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B8" s="68">
+        <v>0.1239</v>
+      </c>
+      <c r="C8" s="68">
+        <v>0.1226</v>
+      </c>
+      <c r="D8" s="68">
+        <v>0.1174</v>
+      </c>
+      <c r="E8" s="68">
+        <v>0.1162</v>
+      </c>
+      <c r="F8" s="68">
+        <v>0.1207</v>
+      </c>
+      <c r="G8" s="68">
+        <v>0.1198</v>
+      </c>
+      <c r="H8" s="68">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="I8" s="68">
+        <v>0.11509999999999999</v>
+      </c>
+      <c r="J8" s="68">
+        <v>0.1444</v>
+      </c>
+      <c r="K8" s="68">
+        <v>0.14249999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A9" s="69" t="s">
+        <v>120</v>
+      </c>
+      <c r="B9" s="66">
+        <v>0.1537</v>
+      </c>
+      <c r="C9" s="66">
+        <v>0.1938</v>
+      </c>
+      <c r="D9" s="66">
+        <v>0.18720000000000001</v>
+      </c>
+      <c r="E9" s="66">
+        <v>0.23050000000000001</v>
+      </c>
+      <c r="F9" s="66">
+        <v>0.1588</v>
+      </c>
+      <c r="G9" s="66">
+        <v>0.1852</v>
+      </c>
+      <c r="H9" s="66">
+        <v>0.29620000000000002</v>
+      </c>
+      <c r="I9" s="66">
+        <v>0.37419999999999998</v>
+      </c>
+      <c r="J9" s="66">
+        <v>0.15970000000000001</v>
+      </c>
+      <c r="K9" s="66">
+        <v>0.19209999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="68" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B10" s="68">
+        <v>0.1565</v>
+      </c>
+      <c r="C10" s="68">
+        <v>0.1326</v>
+      </c>
+      <c r="D10" s="68">
+        <v>0.17019999999999999</v>
+      </c>
+      <c r="E10" s="68">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="F10" s="68">
+        <v>0.15809999999999999</v>
+      </c>
+      <c r="G10" s="68">
+        <v>0.13589999999999999</v>
+      </c>
+      <c r="H10" s="68">
+        <v>0.22009999999999999</v>
+      </c>
+      <c r="I10" s="68">
+        <v>0.22320000000000001</v>
+      </c>
+      <c r="J10" s="68">
+        <v>0.24329999999999999</v>
+      </c>
+      <c r="K10" s="68">
+        <v>0.22070000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A11" s="66" t="s">
         <v>125</v>
       </c>
-      <c r="B3" s="67">
-        <v>0.9829</v>
-      </c>
-      <c r="C3" s="67">
-        <v>0.98909999999999998</v>
-      </c>
-      <c r="D3" s="67">
-        <v>1.0106999999999999</v>
-      </c>
-      <c r="E3" s="67">
-        <v>1.0111000000000001</v>
-      </c>
-      <c r="F3" s="67">
-        <v>0.98440000000000005</v>
-      </c>
-      <c r="G3" s="67">
-        <v>1.0038</v>
-      </c>
-      <c r="H3" s="67">
-        <v>1.0674999999999999</v>
-      </c>
-      <c r="I3" s="67">
-        <v>1.0724</v>
-      </c>
-      <c r="J3" s="67">
-        <v>1.0176000000000001</v>
-      </c>
-      <c r="K3" s="67">
-        <v>1.0213000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" s="69" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="69">
+      <c r="B11" s="70">
+        <v>9.3700000000000006E-2</v>
+      </c>
+      <c r="C11" s="70">
+        <v>0.1138</v>
+      </c>
+      <c r="D11" s="70">
+        <v>0.1105</v>
+      </c>
+      <c r="E11" s="70">
+        <v>0.1147</v>
+      </c>
+      <c r="F11" s="70">
+        <v>8.9700000000000002E-2</v>
+      </c>
+      <c r="G11" s="70">
+        <v>8.9899999999999994E-2</v>
+      </c>
+      <c r="H11" s="70">
+        <v>0.121</v>
+      </c>
+      <c r="I11" s="70">
+        <v>0.13239999999999999</v>
+      </c>
+      <c r="J11" s="70">
+        <v>7.9500000000000001E-2</v>
+      </c>
+      <c r="K11" s="70">
+        <v>7.9799999999999996E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="68" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B12" s="68">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="C12" s="68">
+        <v>7.1400000000000005E-2</v>
+      </c>
+      <c r="D12" s="68">
+        <v>7.1199999999999999E-2</v>
+      </c>
+      <c r="E12" s="68">
+        <v>6.7799999999999999E-2</v>
+      </c>
+      <c r="F12" s="68">
+        <v>5.9200000000000003E-2</v>
+      </c>
+      <c r="G12" s="68">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="H12" s="68">
         <v>6.2399999999999997E-2</v>
       </c>
-      <c r="C4" s="69">
+      <c r="I12" s="68">
+        <v>6.13E-2</v>
+      </c>
+      <c r="J12" s="68">
+        <v>5.6399999999999999E-2</v>
+      </c>
+      <c r="K12" s="68">
+        <v>5.62E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A13" s="72" t="s">
+        <v>121</v>
+      </c>
+      <c r="B13" s="72">
+        <v>0.11459999999999999</v>
+      </c>
+      <c r="C13" s="72">
+        <v>0.1197</v>
+      </c>
+      <c r="D13" s="72">
+        <v>0.125</v>
+      </c>
+      <c r="E13" s="72">
+        <v>0.13020000000000001</v>
+      </c>
+      <c r="F13" s="72">
+        <v>0.12690000000000001</v>
+      </c>
+      <c r="G13" s="72">
+        <v>0.12709999999999999</v>
+      </c>
+      <c r="H13" s="72">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="I13" s="72">
+        <v>0.14549999999999999</v>
+      </c>
+      <c r="J13" s="72">
+        <v>8.77E-2</v>
+      </c>
+      <c r="K13" s="72">
+        <v>8.8099999999999998E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="68" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A14" s="77"/>
+      <c r="B14" s="77">
+        <v>6.6900000000000001E-2</v>
+      </c>
+      <c r="C14" s="77">
+        <v>6.7299999999999999E-2</v>
+      </c>
+      <c r="D14" s="77">
+        <v>6.2399999999999997E-2</v>
+      </c>
+      <c r="E14" s="77">
+        <v>6.6500000000000004E-2</v>
+      </c>
+      <c r="F14" s="77">
+        <v>5.9700000000000003E-2</v>
+      </c>
+      <c r="G14" s="77">
+        <v>5.8599999999999999E-2</v>
+      </c>
+      <c r="H14" s="77">
         <v>6.1699999999999998E-2</v>
       </c>
-      <c r="D4" s="69">
-        <v>5.5100000000000003E-2</v>
-      </c>
-      <c r="E4" s="69">
-        <v>5.4300000000000001E-2</v>
-      </c>
-      <c r="F4" s="69">
-        <v>4.9799999999999997E-2</v>
-      </c>
-      <c r="G4" s="69">
-        <v>4.9399999999999999E-2</v>
-      </c>
-      <c r="H4" s="69">
-        <v>6.1100000000000002E-2</v>
-      </c>
-      <c r="I4" s="69">
-        <v>6.0699999999999997E-2</v>
-      </c>
-      <c r="J4" s="69">
+      <c r="I14" s="77">
+        <v>6.0400000000000002E-2</v>
+      </c>
+      <c r="J14" s="77">
+        <v>5.3900000000000003E-2</v>
+      </c>
+      <c r="K14" s="77">
+        <v>5.3600000000000002E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A15" s="72" t="s">
+        <v>122</v>
+      </c>
+      <c r="B15" s="72">
+        <v>0.32229999999999998</v>
+      </c>
+      <c r="C15" s="72">
+        <v>0.32390000000000002</v>
+      </c>
+      <c r="D15" s="72">
+        <v>0.31519999999999998</v>
+      </c>
+      <c r="E15" s="72">
+        <v>0.31690000000000002</v>
+      </c>
+      <c r="F15" s="72">
+        <v>0.29039999999999999</v>
+      </c>
+      <c r="G15" s="72">
+        <v>0.29389999999999999</v>
+      </c>
+      <c r="H15" s="72">
+        <v>0.4249</v>
+      </c>
+      <c r="I15" s="72">
+        <v>0.42580000000000001</v>
+      </c>
+      <c r="J15" s="72">
+        <v>0.37180000000000002</v>
+      </c>
+      <c r="K15" s="72">
+        <v>0.38940000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="68" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A16" s="77"/>
+      <c r="B16" s="77">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="C16" s="77">
+        <v>4.5499999999999999E-2</v>
+      </c>
+      <c r="D16" s="77">
+        <v>4.5499999999999999E-2</v>
+      </c>
+      <c r="E16" s="77">
+        <v>4.5199999999999997E-2</v>
+      </c>
+      <c r="F16" s="77">
+        <v>5.4899999999999997E-2</v>
+      </c>
+      <c r="G16" s="77">
+        <v>5.16E-2</v>
+      </c>
+      <c r="H16" s="77">
+        <v>4.4200000000000003E-2</v>
+      </c>
+      <c r="I16" s="77">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="J16" s="77">
+        <v>8.0500000000000002E-2</v>
+      </c>
+      <c r="K16" s="77">
+        <v>7.0599999999999996E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A17" s="72" t="s">
+        <v>123</v>
+      </c>
+      <c r="B17" s="72">
+        <v>0.15329999999999999</v>
+      </c>
+      <c r="C17" s="72">
+        <v>0.15570000000000001</v>
+      </c>
+      <c r="D17" s="72">
+        <v>0.1547</v>
+      </c>
+      <c r="E17" s="72">
+        <v>0.15709999999999999</v>
+      </c>
+      <c r="F17" s="72">
+        <v>0.129</v>
+      </c>
+      <c r="G17" s="72">
+        <v>0.13159999999999999</v>
+      </c>
+      <c r="H17" s="72">
+        <v>0.17419999999999999</v>
+      </c>
+      <c r="I17" s="72">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="J17" s="72">
+        <v>0.1045</v>
+      </c>
+      <c r="K17" s="72">
+        <v>0.1061</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" s="68" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A18" s="77"/>
+      <c r="B18" s="77">
+        <v>7.7799999999999994E-2</v>
+      </c>
+      <c r="C18" s="77">
+        <v>7.7499999999999999E-2</v>
+      </c>
+      <c r="D18" s="77">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="E18" s="77">
+        <v>7.2800000000000004E-2</v>
+      </c>
+      <c r="F18" s="77">
+        <v>6.7699999999999996E-2</v>
+      </c>
+      <c r="G18" s="77">
+        <v>6.7299999999999999E-2</v>
+      </c>
+      <c r="H18" s="77">
+        <v>7.1800000000000003E-2</v>
+      </c>
+      <c r="I18" s="77">
+        <v>7.0699999999999999E-2</v>
+      </c>
+      <c r="J18" s="77">
+        <v>6.2799999999999995E-2</v>
+      </c>
+      <c r="K18" s="77">
+        <v>6.2E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A20" s="70" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A21" s="66" t="s">
+        <v>108</v>
+      </c>
+      <c r="B21" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="C21" s="73"/>
+      <c r="D21" s="73"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="73"/>
+      <c r="G21" s="45"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A22" s="66" t="s">
+        <v>126</v>
+      </c>
+      <c r="B22" s="71" t="s">
+        <v>127</v>
+      </c>
+      <c r="C22" s="71" t="s">
+        <v>133</v>
+      </c>
+      <c r="D22" s="71" t="s">
+        <v>134</v>
+      </c>
+      <c r="E22" s="71" t="s">
+        <v>132</v>
+      </c>
+      <c r="F22" s="71" t="s">
+        <v>135</v>
+      </c>
+      <c r="G22" s="71" t="s">
+        <v>128</v>
+      </c>
+      <c r="H22" s="71" t="s">
+        <v>136</v>
+      </c>
+      <c r="I22" s="66" t="s">
+        <v>139</v>
+      </c>
+      <c r="J22" s="71"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A23" s="72" t="s">
+        <v>129</v>
+      </c>
+      <c r="B23" s="72">
+        <v>1.09E-2</v>
+      </c>
+      <c r="C23" s="72">
+        <v>0.1875</v>
+      </c>
+      <c r="D23" s="72">
+        <v>0.40160000000000001</v>
+      </c>
+      <c r="E23" s="72">
+        <v>0.65820000000000001</v>
+      </c>
+      <c r="F23" s="72">
+        <v>0.82250000000000001</v>
+      </c>
+      <c r="G23" s="72">
+        <v>0.9677</v>
+      </c>
+      <c r="H23" s="72">
+        <v>1.1422000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A24" s="72" t="s">
+        <v>130</v>
+      </c>
+      <c r="B24" s="72">
+        <v>3.15E-2</v>
+      </c>
+      <c r="C24" s="72">
+        <v>7.8100000000000003E-2</v>
+      </c>
+      <c r="D24" s="72">
+        <v>0.10009999999999999</v>
+      </c>
+      <c r="E24" s="72">
+        <v>0.13120000000000001</v>
+      </c>
+      <c r="F24" s="72">
+        <v>0.1457</v>
+      </c>
+      <c r="G24" s="72">
+        <v>0.18579999999999999</v>
+      </c>
+      <c r="H24" s="72">
+        <v>0.24529999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A25" s="66" t="s">
+        <v>131</v>
+      </c>
+      <c r="B25" s="66">
+        <v>5.57E-2</v>
+      </c>
+      <c r="C25" s="66">
+        <v>9.2499999999999999E-2</v>
+      </c>
+      <c r="D25" s="66">
+        <v>0.1087</v>
+      </c>
+      <c r="E25" s="66">
+        <v>0.1447</v>
+      </c>
+      <c r="F25" s="66">
+        <v>0.15179999999999999</v>
+      </c>
+      <c r="G25" s="66">
+        <v>0.20150000000000001</v>
+      </c>
+      <c r="H25" s="66">
+        <v>0.25740000000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A26" s="66" t="s">
+        <v>137</v>
+      </c>
+      <c r="B26" s="66">
+        <v>7.3499999999999996E-2</v>
+      </c>
+      <c r="C26" s="66">
+        <v>0.1331</v>
+      </c>
+      <c r="D26" s="66">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="E26" s="66">
+        <v>0.17349999999999999</v>
+      </c>
+      <c r="F26" s="66">
+        <v>0.24529999999999999</v>
+      </c>
+      <c r="G26" s="66">
+        <v>0.33510000000000001</v>
+      </c>
+      <c r="H26" s="66">
+        <v>0.40150000000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A27" s="66" t="s">
+        <v>138</v>
+      </c>
+      <c r="B27" s="66">
+        <v>5.7299999999999997E-2</v>
+      </c>
+      <c r="C27" s="66">
+        <v>0.1726</v>
+      </c>
+      <c r="D27" s="66">
+        <v>0.2296</v>
+      </c>
+      <c r="E27" s="66">
+        <v>0.27410000000000001</v>
+      </c>
+      <c r="F27" s="66">
+        <v>0.37930000000000003</v>
+      </c>
+      <c r="G27" s="66">
+        <v>0.442</v>
+      </c>
+      <c r="H27" s="66">
+        <v>0.49890000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A29" s="66" t="s">
+        <v>108</v>
+      </c>
+      <c r="B29" s="74" t="s">
+        <v>111</v>
+      </c>
+      <c r="C29" s="75"/>
+      <c r="D29" s="75"/>
+      <c r="E29" s="75"/>
+      <c r="F29" s="75"/>
+      <c r="G29" s="76"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A30" s="66" t="s">
+        <v>126</v>
+      </c>
+      <c r="B30" s="71" t="s">
+        <v>127</v>
+      </c>
+      <c r="C30" s="71" t="s">
+        <v>133</v>
+      </c>
+      <c r="D30" s="71" t="s">
+        <v>134</v>
+      </c>
+      <c r="E30" s="71" t="s">
+        <v>132</v>
+      </c>
+      <c r="F30" s="71" t="s">
+        <v>135</v>
+      </c>
+      <c r="G30" s="71" t="s">
+        <v>128</v>
+      </c>
+      <c r="H30" s="71" t="s">
+        <v>136</v>
+      </c>
+      <c r="I30" s="71"/>
+      <c r="J30" s="71"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A31" s="72" t="s">
+        <v>129</v>
+      </c>
+      <c r="B31" s="72">
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="C31" s="72">
+        <v>0.23569999999999999</v>
+      </c>
+      <c r="D31" s="72">
+        <v>0.41749999999999998</v>
+      </c>
+      <c r="E31" s="72">
+        <v>0.62070000000000003</v>
+      </c>
+      <c r="F31" s="72">
+        <v>0.87470000000000003</v>
+      </c>
+      <c r="G31" s="72">
+        <v>1.0710999999999999</v>
+      </c>
+      <c r="H31" s="72">
+        <v>1.2961</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A32" s="72" t="s">
+        <v>130</v>
+      </c>
+      <c r="B32" s="72">
+        <v>3.7699999999999997E-2</v>
+      </c>
+      <c r="C32" s="72">
+        <v>7.9899999999999999E-2</v>
+      </c>
+      <c r="D32" s="72">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="E32" s="72">
+        <v>0.11990000000000001</v>
+      </c>
+      <c r="F32" s="72">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="G32" s="72">
+        <v>0.23769999999999999</v>
+      </c>
+      <c r="H32" s="72">
+        <v>0.27400000000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A33" s="66" t="s">
+        <v>131</v>
+      </c>
+      <c r="B33" s="66">
         <v>5.6800000000000003E-2</v>
       </c>
-      <c r="K4" s="69">
-        <v>5.5500000000000001E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A5" s="67" t="s">
-        <v>126</v>
-      </c>
-      <c r="B5" s="67">
-        <v>0.99780000000000002</v>
-      </c>
-      <c r="C5" s="67">
-        <v>1.0044999999999999</v>
-      </c>
-      <c r="D5" s="67">
-        <v>0.96709999999999996</v>
-      </c>
-      <c r="E5" s="67">
-        <v>0.97099999999999997</v>
-      </c>
-      <c r="F5" s="67">
-        <v>0.96730000000000005</v>
-      </c>
-      <c r="G5" s="67">
-        <v>0.98919999999999997</v>
-      </c>
-      <c r="H5" s="67">
-        <v>0.99409999999999998</v>
-      </c>
-      <c r="I5" s="67">
-        <v>0.99850000000000005</v>
-      </c>
-      <c r="J5" s="67">
-        <v>0.99770000000000003</v>
-      </c>
-      <c r="K5" s="67">
-        <v>0.99890000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" s="69" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="B6" s="69">
-        <v>6.7699999999999996E-2</v>
-      </c>
-      <c r="C6" s="69">
-        <v>6.7299999999999999E-2</v>
-      </c>
-      <c r="D6" s="69">
-        <v>5.79E-2</v>
-      </c>
-      <c r="E6" s="69">
-        <v>5.6899999999999999E-2</v>
-      </c>
-      <c r="F6" s="69">
-        <v>5.11E-2</v>
-      </c>
-      <c r="G6" s="69">
-        <v>5.0999999999999997E-2</v>
-      </c>
-      <c r="H6" s="69">
-        <v>6.5600000000000006E-2</v>
-      </c>
-      <c r="I6" s="69">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="J6" s="69">
-        <v>5.74E-2</v>
-      </c>
-      <c r="K6" s="69">
-        <v>5.7000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A7" s="67" t="s">
-        <v>117</v>
-      </c>
-      <c r="B7" s="67">
-        <v>0.36530000000000001</v>
-      </c>
-      <c r="C7" s="67">
-        <v>0.37009999999999998</v>
-      </c>
-      <c r="D7" s="67">
-        <v>0.39100000000000001</v>
-      </c>
-      <c r="E7" s="67">
-        <v>0.39629999999999999</v>
-      </c>
-      <c r="F7" s="67">
-        <v>0.37280000000000002</v>
-      </c>
-      <c r="G7" s="67">
-        <v>0.39090000000000003</v>
-      </c>
-      <c r="H7" s="67">
-        <v>0.4415</v>
-      </c>
-      <c r="I7" s="67">
-        <v>0.44979999999999998</v>
-      </c>
-      <c r="J7" s="67">
-        <v>0.34160000000000001</v>
-      </c>
-      <c r="K7" s="67">
-        <v>0.35449999999999998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" s="69" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="B8" s="69">
-        <v>0.19689999999999999</v>
-      </c>
-      <c r="C8" s="69">
-        <v>0.1951</v>
-      </c>
-      <c r="D8" s="69">
-        <v>0.1421</v>
-      </c>
-      <c r="E8" s="69">
-        <v>0.1424</v>
-      </c>
-      <c r="F8" s="69">
-        <v>8.5400000000000004E-2</v>
-      </c>
-      <c r="G8" s="69">
-        <v>8.4500000000000006E-2</v>
-      </c>
-      <c r="H8" s="69">
-        <v>0.15090000000000001</v>
-      </c>
-      <c r="I8" s="69">
-        <v>0.15010000000000001</v>
-      </c>
-      <c r="J8" s="69">
-        <v>0.10050000000000001</v>
-      </c>
-      <c r="K8" s="69">
-        <v>9.1499999999999998E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A9" s="67" t="s">
-        <v>118</v>
-      </c>
-      <c r="B9" s="67">
-        <v>0.25330000000000003</v>
-      </c>
-      <c r="C9" s="67">
-        <v>0.25969999999999999</v>
-      </c>
-      <c r="D9" s="67">
-        <v>0.2359</v>
-      </c>
-      <c r="E9" s="67">
-        <v>0.23699999999999999</v>
-      </c>
-      <c r="F9" s="67">
-        <v>0.27160000000000001</v>
-      </c>
-      <c r="G9" s="67">
-        <v>0.27539999999999998</v>
-      </c>
-      <c r="H9" s="67">
-        <v>0.35170000000000001</v>
-      </c>
-      <c r="I9" s="67">
-        <v>0.35589999999999999</v>
-      </c>
-      <c r="J9" s="67">
-        <v>0.30420000000000003</v>
-      </c>
-      <c r="K9" s="67">
-        <v>0.3054</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" s="69" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="B10" s="69">
-        <v>9.9199999999999997E-2</v>
-      </c>
-      <c r="C10" s="69">
-        <v>9.7500000000000003E-2</v>
-      </c>
-      <c r="D10" s="69">
-        <v>9.2600000000000002E-2</v>
-      </c>
-      <c r="E10" s="69">
-        <v>9.1499999999999998E-2</v>
-      </c>
-      <c r="F10" s="69">
-        <v>0.1129</v>
-      </c>
-      <c r="G10" s="69">
-        <v>0.1104</v>
-      </c>
-      <c r="H10" s="69">
-        <v>6.6900000000000001E-2</v>
-      </c>
-      <c r="I10" s="69">
-        <v>6.6699999999999995E-2</v>
-      </c>
-      <c r="J10" s="69">
-        <v>0.1177</v>
-      </c>
-      <c r="K10" s="69">
-        <v>0.1162</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A11" s="67" t="s">
-        <v>119</v>
-      </c>
-      <c r="B11" s="67">
-        <v>0.2253</v>
-      </c>
-      <c r="C11" s="67">
-        <v>0.27439999999999998</v>
-      </c>
-      <c r="D11" s="67">
-        <v>0.2361</v>
-      </c>
-      <c r="E11" s="67">
-        <v>0.27189999999999998</v>
-      </c>
-      <c r="F11" s="67">
-        <v>0.18010000000000001</v>
-      </c>
-      <c r="G11" s="67">
-        <v>0.2225</v>
-      </c>
-      <c r="H11" s="67">
-        <v>0.16039999999999999</v>
-      </c>
-      <c r="I11" s="67">
-        <v>0.16339999999999999</v>
-      </c>
-      <c r="J11" s="67">
-        <v>0.1573</v>
-      </c>
-      <c r="K11" s="67">
-        <v>0.17030000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" s="69" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="B12" s="69">
-        <v>0.1239</v>
-      </c>
-      <c r="C12" s="69">
-        <v>0.1226</v>
-      </c>
-      <c r="D12" s="69">
-        <v>0.1174</v>
-      </c>
-      <c r="E12" s="69">
-        <v>0.1162</v>
-      </c>
-      <c r="F12" s="69">
-        <v>0.1207</v>
-      </c>
-      <c r="G12" s="69">
-        <v>0.1198</v>
-      </c>
-      <c r="H12" s="69">
-        <v>0.11700000000000001</v>
-      </c>
-      <c r="I12" s="69">
-        <v>0.11509999999999999</v>
-      </c>
-      <c r="J12" s="69">
-        <v>0.1444</v>
-      </c>
-      <c r="K12" s="69">
-        <v>0.14249999999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A13" s="68" t="s">
-        <v>120</v>
-      </c>
-      <c r="B13" s="67">
-        <v>0.1537</v>
-      </c>
-      <c r="C13" s="67">
-        <v>0.1938</v>
-      </c>
-      <c r="D13" s="67">
-        <v>0.18720000000000001</v>
-      </c>
-      <c r="E13" s="67">
-        <v>0.23050000000000001</v>
-      </c>
-      <c r="F13" s="67">
-        <v>0.1588</v>
-      </c>
-      <c r="G13" s="67">
-        <v>0.1852</v>
-      </c>
-      <c r="H13" s="67">
-        <v>0.29620000000000002</v>
-      </c>
-      <c r="I13" s="67">
-        <v>0.37419999999999998</v>
-      </c>
-      <c r="J13" s="67">
-        <v>0.15970000000000001</v>
-      </c>
-      <c r="K13" s="67">
-        <v>0.19209999999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" s="69" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="B14" s="69">
-        <v>0.1565</v>
-      </c>
-      <c r="C14" s="69">
-        <v>0.1326</v>
-      </c>
-      <c r="D14" s="69">
-        <v>0.17019999999999999</v>
-      </c>
-      <c r="E14" s="69">
-        <v>0.13600000000000001</v>
-      </c>
-      <c r="F14" s="69">
-        <v>0.15809999999999999</v>
-      </c>
-      <c r="G14" s="69">
-        <v>0.13589999999999999</v>
-      </c>
-      <c r="H14" s="69">
-        <v>0.22009999999999999</v>
-      </c>
-      <c r="I14" s="69">
-        <v>0.22320000000000001</v>
-      </c>
-      <c r="J14" s="69">
-        <v>0.24329999999999999</v>
-      </c>
-      <c r="K14" s="69">
-        <v>0.22070000000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A15" s="67" t="s">
-        <v>121</v>
-      </c>
-      <c r="B15" s="70">
-        <v>9.3700000000000006E-2</v>
-      </c>
-      <c r="C15" s="70">
-        <v>0.1138</v>
-      </c>
-      <c r="D15" s="70">
-        <v>0.1105</v>
-      </c>
-      <c r="E15" s="70">
-        <v>0.1147</v>
-      </c>
-      <c r="F15" s="70">
-        <v>8.9700000000000002E-2</v>
-      </c>
-      <c r="G15" s="70">
-        <v>8.9899999999999994E-2</v>
-      </c>
-      <c r="H15" s="70">
-        <v>0.121</v>
-      </c>
-      <c r="I15" s="70">
-        <v>0.13239999999999999</v>
-      </c>
-      <c r="J15" s="70">
-        <v>7.9500000000000001E-2</v>
-      </c>
-      <c r="K15" s="70">
-        <v>7.9799999999999996E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" s="69" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="B16" s="69">
-        <v>7.2499999999999995E-2</v>
-      </c>
-      <c r="C16" s="69">
-        <v>7.1400000000000005E-2</v>
-      </c>
-      <c r="D16" s="69">
-        <v>7.1199999999999999E-2</v>
-      </c>
-      <c r="E16" s="69">
-        <v>6.7799999999999999E-2</v>
-      </c>
-      <c r="F16" s="69">
-        <v>5.9200000000000003E-2</v>
-      </c>
-      <c r="G16" s="69">
-        <v>5.8999999999999997E-2</v>
-      </c>
-      <c r="H16" s="69">
-        <v>6.2399999999999997E-2</v>
-      </c>
-      <c r="I16" s="69">
+      <c r="C33" s="66">
+        <v>9.0200000000000002E-2</v>
+      </c>
+      <c r="D33" s="66">
+        <v>9.9699999999999997E-2</v>
+      </c>
+      <c r="E33" s="66">
+        <v>0.1206</v>
+      </c>
+      <c r="F33" s="66">
+        <v>0.14680000000000001</v>
+      </c>
+      <c r="G33" s="66">
+        <v>0.24049999999999999</v>
+      </c>
+      <c r="H33" s="66">
+        <v>0.30220000000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A34" s="66" t="s">
+        <v>137</v>
+      </c>
+      <c r="B34" s="66">
         <v>6.13E-2</v>
       </c>
-      <c r="J16" s="69">
-        <v>5.6399999999999999E-2</v>
-      </c>
-      <c r="K16" s="69">
-        <v>5.62E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A17" s="67" t="s">
-        <v>122</v>
-      </c>
-      <c r="B17" s="67">
-        <v>0.11459999999999999</v>
-      </c>
-      <c r="C17" s="67">
-        <v>0.1197</v>
-      </c>
-      <c r="D17" s="67">
-        <v>0.125</v>
-      </c>
-      <c r="E17" s="67">
-        <v>0.13020000000000001</v>
-      </c>
-      <c r="F17" s="67">
-        <v>0.12690000000000001</v>
-      </c>
-      <c r="G17" s="67">
-        <v>0.12709999999999999</v>
-      </c>
-      <c r="H17" s="67">
-        <v>0.14199999999999999</v>
-      </c>
-      <c r="I17" s="67">
-        <v>0.14549999999999999</v>
-      </c>
-      <c r="J17" s="67">
-        <v>8.77E-2</v>
-      </c>
-      <c r="K17" s="67">
-        <v>8.8099999999999998E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" s="69" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="B18" s="69">
-        <v>6.6900000000000001E-2</v>
-      </c>
-      <c r="C18" s="69">
-        <v>6.7299999999999999E-2</v>
-      </c>
-      <c r="D18" s="69">
-        <v>6.2399999999999997E-2</v>
-      </c>
-      <c r="E18" s="69">
-        <v>6.6500000000000004E-2</v>
-      </c>
-      <c r="F18" s="69">
-        <v>5.9700000000000003E-2</v>
-      </c>
-      <c r="G18" s="69">
-        <v>5.8599999999999999E-2</v>
-      </c>
-      <c r="H18" s="69">
-        <v>6.1699999999999998E-2</v>
-      </c>
-      <c r="I18" s="69">
-        <v>6.0400000000000002E-2</v>
-      </c>
-      <c r="J18" s="69">
-        <v>5.3900000000000003E-2</v>
-      </c>
-      <c r="K18" s="69">
-        <v>5.3600000000000002E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A19" s="67" t="s">
-        <v>123</v>
-      </c>
-      <c r="B19" s="67">
-        <v>0.32229999999999998</v>
-      </c>
-      <c r="C19" s="67">
-        <v>0.32390000000000002</v>
-      </c>
-      <c r="D19" s="67">
-        <v>0.31519999999999998</v>
-      </c>
-      <c r="E19" s="67">
-        <v>0.31690000000000002</v>
-      </c>
-      <c r="F19" s="67">
-        <v>0.29039999999999999</v>
-      </c>
-      <c r="G19" s="67">
-        <v>0.29389999999999999</v>
-      </c>
-      <c r="H19" s="67">
-        <v>0.4249</v>
-      </c>
-      <c r="I19" s="67">
-        <v>0.42580000000000001</v>
-      </c>
-      <c r="J19" s="67">
-        <v>0.37180000000000002</v>
-      </c>
-      <c r="K19" s="67">
-        <v>0.38940000000000002</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" s="69" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="B20" s="69">
-        <v>4.5999999999999999E-2</v>
-      </c>
-      <c r="C20" s="69">
-        <v>4.5499999999999999E-2</v>
-      </c>
-      <c r="D20" s="69">
-        <v>4.5499999999999999E-2</v>
-      </c>
-      <c r="E20" s="69">
-        <v>4.5199999999999997E-2</v>
-      </c>
-      <c r="F20" s="69">
-        <v>5.4899999999999997E-2</v>
-      </c>
-      <c r="G20" s="69">
-        <v>5.16E-2</v>
-      </c>
-      <c r="H20" s="69">
-        <v>4.4200000000000003E-2</v>
-      </c>
-      <c r="I20" s="69">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="J20" s="69">
-        <v>8.0500000000000002E-2</v>
-      </c>
-      <c r="K20" s="69">
-        <v>7.0599999999999996E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A21" s="67" t="s">
-        <v>124</v>
-      </c>
-      <c r="B21" s="67">
-        <v>0.15329999999999999</v>
-      </c>
-      <c r="C21" s="67">
-        <v>0.15570000000000001</v>
-      </c>
-      <c r="D21" s="67">
-        <v>0.1547</v>
-      </c>
-      <c r="E21" s="67">
-        <v>0.15709999999999999</v>
-      </c>
-      <c r="F21" s="67">
-        <v>0.129</v>
-      </c>
-      <c r="G21" s="67">
-        <v>0.13159999999999999</v>
-      </c>
-      <c r="H21" s="67">
-        <v>0.17419999999999999</v>
-      </c>
-      <c r="I21" s="67">
-        <v>0.18099999999999999</v>
-      </c>
-      <c r="J21" s="67">
-        <v>0.1045</v>
-      </c>
-      <c r="K21" s="67">
-        <v>0.1061</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" s="69" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="B22" s="69">
-        <v>7.7799999999999994E-2</v>
-      </c>
-      <c r="C22" s="69">
-        <v>7.7499999999999999E-2</v>
-      </c>
-      <c r="D22" s="69">
-        <v>7.2999999999999995E-2</v>
-      </c>
-      <c r="E22" s="69">
-        <v>7.2800000000000004E-2</v>
-      </c>
-      <c r="F22" s="69">
-        <v>6.7699999999999996E-2</v>
-      </c>
-      <c r="G22" s="69">
-        <v>6.7299999999999999E-2</v>
-      </c>
-      <c r="H22" s="69">
-        <v>7.1800000000000003E-2</v>
-      </c>
-      <c r="I22" s="69">
-        <v>7.0699999999999999E-2</v>
-      </c>
-      <c r="J22" s="69">
-        <v>6.2799999999999995E-2</v>
-      </c>
-      <c r="K22" s="69">
-        <v>6.2E-2</v>
+      <c r="C34" s="66">
+        <v>0.15129999999999999</v>
+      </c>
+      <c r="D34" s="66">
+        <v>0.17130000000000001</v>
+      </c>
+      <c r="E34" s="66">
+        <v>0.2044</v>
+      </c>
+      <c r="F34" s="66">
+        <v>0.2641</v>
+      </c>
+      <c r="G34" s="66">
+        <v>0.38129999999999997</v>
+      </c>
+      <c r="H34" s="66">
+        <v>0.47370000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A35" s="66" t="s">
+        <v>138</v>
+      </c>
+      <c r="B35" s="66">
+        <v>5.7599999999999998E-2</v>
+      </c>
+      <c r="C35" s="66">
+        <v>0.1477</v>
+      </c>
+      <c r="D35" s="66">
+        <v>0.17660000000000001</v>
+      </c>
+      <c r="E35" s="66">
+        <v>0.28939999999999999</v>
+      </c>
+      <c r="F35" s="66">
+        <v>0.4214</v>
+      </c>
+      <c r="G35" s="66">
+        <v>0.48470000000000002</v>
+      </c>
+      <c r="H35" s="66">
+        <v>0.52010000000000001</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B29:G29"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
@@ -4306,12 +4607,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="65"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="57"/>
       <c r="E1" s="5" t="s">
         <v>47</v>
       </c>
@@ -4334,7 +4635,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="46" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -4348,7 +4649,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="40"/>
+      <c r="A4" s="47"/>
       <c r="B4" s="4" t="s">
         <v>63</v>
       </c>
@@ -4360,7 +4661,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="46" t="s">
         <v>22</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -4374,7 +4675,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="40"/>
+      <c r="A6" s="47"/>
       <c r="B6" s="4" t="s">
         <v>63</v>
       </c>
@@ -4386,7 +4687,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="46" t="s">
         <v>23</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -4400,7 +4701,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="40"/>
+      <c r="A8" s="47"/>
       <c r="B8" s="4" t="s">
         <v>63</v>
       </c>
@@ -4421,13 +4722,13 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="63" t="s">
+      <c r="A10" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="B10" s="64"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="65"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="57"/>
       <c r="F10" s="33" t="s">
         <v>83</v>
       </c>
@@ -4453,7 +4754,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="39" t="s">
+      <c r="A12" s="46" t="s">
         <v>21</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -4474,7 +4775,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A13" s="40"/>
+      <c r="A13" s="47"/>
       <c r="B13" s="4" t="s">
         <v>58</v>
       </c>
@@ -4497,7 +4798,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="46" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -4518,7 +4819,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A15" s="40"/>
+      <c r="A15" s="47"/>
       <c r="B15" s="4" t="s">
         <v>58</v>
       </c>
@@ -4541,7 +4842,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A16" s="39" t="s">
+      <c r="A16" s="46" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -4562,7 +4863,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A17" s="40"/>
+      <c r="A17" s="47"/>
       <c r="B17" s="4" t="s">
         <v>58</v>
       </c>
@@ -4585,13 +4886,13 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A19" s="63" t="s">
+      <c r="A19" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="B19" s="64"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="65"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="57"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A20" s="16" t="s">
@@ -4611,7 +4912,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A21" s="39" t="s">
+      <c r="A21" s="46" t="s">
         <v>21</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -4633,7 +4934,7 @@
       <c r="H21" s="5"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A22" s="40"/>
+      <c r="A22" s="47"/>
       <c r="B22" s="4" t="s">
         <v>58</v>
       </c>
@@ -4657,7 +4958,7 @@
       <c r="H22" s="5"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A23" s="39" t="s">
+      <c r="A23" s="46" t="s">
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
@@ -4678,7 +4979,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A24" s="40"/>
+      <c r="A24" s="47"/>
       <c r="B24" s="4" t="s">
         <v>58</v>
       </c>
@@ -4701,7 +5002,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A25" s="39" t="s">
+      <c r="A25" s="46" t="s">
         <v>23</v>
       </c>
       <c r="B25" s="4" t="s">
@@ -4722,7 +5023,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A26" s="40"/>
+      <c r="A26" s="47"/>
       <c r="B26" s="4" t="s">
         <v>58</v>
       </c>
@@ -4763,10 +5064,10 @@
       <c r="D31" s="24"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A32" s="59" t="s">
+      <c r="A32" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="B32" s="60"/>
+      <c r="B32" s="63"/>
       <c r="C32" s="16" t="s">
         <v>71</v>
       </c>
@@ -4778,7 +5079,7 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A33" s="55" t="s">
+      <c r="A33" s="58" t="s">
         <v>21</v>
       </c>
       <c r="B33" s="20" t="s">
@@ -4792,7 +5093,7 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A34" s="56"/>
+      <c r="A34" s="59"/>
       <c r="B34" s="20" t="s">
         <v>76</v>
       </c>
@@ -4818,7 +5119,7 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A35" s="57" t="s">
+      <c r="A35" s="60" t="s">
         <v>22</v>
       </c>
       <c r="B35" s="22" t="s">
@@ -4834,7 +5135,7 @@
       <c r="H35" s="2"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A36" s="58"/>
+      <c r="A36" s="61"/>
       <c r="B36" s="22" t="s">
         <v>76</v>
       </c>
@@ -4860,7 +5161,7 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A37" s="55" t="s">
+      <c r="A37" s="58" t="s">
         <v>23</v>
       </c>
       <c r="B37" s="20" t="s">
@@ -4876,7 +5177,7 @@
       <c r="H37" s="2"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A38" s="56"/>
+      <c r="A38" s="59"/>
       <c r="B38" s="20" t="s">
         <v>76</v>
       </c>
@@ -4920,10 +5221,10 @@
       <c r="H40" s="2"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A41" s="61" t="s">
+      <c r="A41" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="B41" s="62"/>
+      <c r="B41" s="65"/>
       <c r="C41" s="21" t="s">
         <v>71</v>
       </c>
@@ -4934,7 +5235,7 @@
       <c r="H41" s="2"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A42" s="55" t="s">
+      <c r="A42" s="58" t="s">
         <v>21</v>
       </c>
       <c r="B42" s="20" t="s">
@@ -4950,7 +5251,7 @@
       <c r="H42" s="2"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A43" s="56"/>
+      <c r="A43" s="59"/>
       <c r="B43" s="20" t="s">
         <v>76</v>
       </c>
@@ -4976,7 +5277,7 @@
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A44" s="57" t="s">
+      <c r="A44" s="60" t="s">
         <v>22</v>
       </c>
       <c r="B44" s="22" t="s">
@@ -4992,7 +5293,7 @@
       <c r="H44" s="2"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A45" s="58"/>
+      <c r="A45" s="61"/>
       <c r="B45" s="22" t="s">
         <v>76</v>
       </c>
@@ -5018,7 +5319,7 @@
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A46" s="55" t="s">
+      <c r="A46" s="58" t="s">
         <v>23</v>
       </c>
       <c r="B46" s="20" t="s">
@@ -5034,7 +5335,7 @@
       <c r="H46" s="2"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A47" s="56"/>
+      <c r="A47" s="59"/>
       <c r="B47" s="20" t="s">
         <v>76</v>
       </c>
@@ -5066,6 +5367,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A41:B41"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="A25:A26"/>
@@ -5078,14 +5387,6 @@
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A41:B41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dataAnalysis.xlsx
+++ b/dataAnalysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\botImpact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DF3989D-95DF-4209-947A-38DEBC722B96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CF089A3-37B7-4C3B-999A-BE4F91B19173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="18192" windowHeight="11592" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="145">
   <si>
     <t>Node Degree</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2064,7 +2064,120 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Homophily Influence βZ</t>
+    <t>双线折线图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三线折线图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Adv</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Homophily</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>增加时，控制</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>bias</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的效果较好</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>后面增加的原因也很显然，因为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Homophily</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>已经在数据中成为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Dominate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>因素</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.4.1 Homophily Influence βZ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2370,7 +2483,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2486,96 +2599,64 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="176" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="21" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2588,7 +2669,40 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="21" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2882,8 +2996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -2897,38 +3011,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="51"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="58"/>
       <c r="D1" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="43"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="50"/>
       <c r="J1" s="38" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="54"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="61"/>
       <c r="D2" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="44" t="s">
+      <c r="E2" s="51" t="s">
         <v>93</v>
       </c>
-      <c r="F2" s="45"/>
+      <c r="F2" s="52"/>
       <c r="G2" s="3" t="s">
         <v>30</v>
       </c>
@@ -2952,7 +3066,7 @@
       <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="46" t="s">
+      <c r="E3" s="53" t="s">
         <v>21</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -2961,10 +3075,10 @@
       <c r="G3" s="37">
         <v>0.60419999999999996</v>
       </c>
-      <c r="H3" s="39">
+      <c r="H3" s="46">
         <v>1.4500999999999999</v>
       </c>
-      <c r="I3" s="39">
+      <c r="I3" s="46">
         <v>0.14699999999999999</v>
       </c>
       <c r="J3" s="38" t="s">
@@ -2984,15 +3098,15 @@
       <c r="D4" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="47"/>
+      <c r="E4" s="54"/>
       <c r="F4" s="2" t="s">
         <v>95</v>
       </c>
       <c r="G4" s="2">
         <v>0.59640000000000004</v>
       </c>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
       <c r="J4" s="38" t="s">
         <v>107</v>
       </c>
@@ -3010,7 +3124,7 @@
       <c r="D5" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="E5" s="46" t="s">
+      <c r="E5" s="53" t="s">
         <v>22</v>
       </c>
       <c r="F5" s="2" t="s">
@@ -3019,31 +3133,31 @@
       <c r="G5" s="37">
         <v>0.58009999999999995</v>
       </c>
-      <c r="H5" s="39">
+      <c r="H5" s="46">
         <v>-0.46650000000000003</v>
       </c>
-      <c r="I5" s="39">
+      <c r="I5" s="46">
         <v>0.64090000000000003</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="53"/>
-      <c r="C6" s="54"/>
-      <c r="E6" s="47"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="61"/>
+      <c r="E6" s="54"/>
       <c r="F6" s="2" t="s">
         <v>95</v>
       </c>
       <c r="G6" s="2">
         <v>0.58389999999999997</v>
       </c>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="55" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -3052,7 +3166,7 @@
       <c r="C7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="46" t="s">
+      <c r="E7" s="53" t="s">
         <v>23</v>
       </c>
       <c r="F7" s="2" t="s">
@@ -3061,36 +3175,36 @@
       <c r="G7" s="37">
         <v>0.5393</v>
       </c>
-      <c r="H7" s="39">
+      <c r="H7" s="46">
         <v>-1.7504</v>
       </c>
-      <c r="I7" s="39">
+      <c r="I7" s="46">
         <v>8.0100000000000005E-2</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A8" s="47"/>
+      <c r="A8" s="54"/>
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="47"/>
+      <c r="E8" s="54"/>
       <c r="F8" s="2" t="s">
         <v>95</v>
       </c>
       <c r="G8" s="2">
         <v>0.55649999999999999</v>
       </c>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="E9" s="44" t="s">
+      <c r="E9" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="F9" s="45"/>
+      <c r="F9" s="52"/>
       <c r="G9" s="3" t="s">
         <v>25</v>
       </c>
@@ -3102,12 +3216,12 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A10" s="49" t="s">
+      <c r="A10" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="50"/>
-      <c r="C10" s="51"/>
-      <c r="E10" s="46" t="s">
+      <c r="B10" s="57"/>
+      <c r="C10" s="58"/>
+      <c r="E10" s="53" t="s">
         <v>21</v>
       </c>
       <c r="F10" s="2" t="s">
@@ -3116,10 +3230,10 @@
       <c r="G10" s="36">
         <v>0.82099999999999995</v>
       </c>
-      <c r="H10" s="39">
+      <c r="H10" s="46">
         <v>23.857700000000001</v>
       </c>
-      <c r="I10" s="39" t="s">
+      <c r="I10" s="46" t="s">
         <v>26</v>
       </c>
       <c r="J10" s="38" t="s">
@@ -3127,20 +3241,20 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A11" s="52" t="s">
+      <c r="A11" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="53"/>
-      <c r="C11" s="54"/>
-      <c r="E11" s="47"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="61"/>
+      <c r="E11" s="54"/>
       <c r="F11" s="2" t="s">
         <v>95</v>
       </c>
       <c r="G11" s="2">
         <v>0.74229999999999996</v>
       </c>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A12" s="1" t="s">
@@ -3152,7 +3266,7 @@
       <c r="C12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="46" t="s">
+      <c r="E12" s="53" t="s">
         <v>22</v>
       </c>
       <c r="F12" s="2" t="s">
@@ -3161,10 +3275,10 @@
       <c r="G12" s="36">
         <v>0.83950000000000002</v>
       </c>
-      <c r="H12" s="39">
+      <c r="H12" s="46">
         <v>20.513400000000001</v>
       </c>
-      <c r="I12" s="39" t="s">
+      <c r="I12" s="46" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3178,15 +3292,15 @@
       <c r="C13" s="2">
         <v>5.0496999999999996</v>
       </c>
-      <c r="E13" s="47"/>
+      <c r="E13" s="54"/>
       <c r="F13" s="2" t="s">
         <v>95</v>
       </c>
       <c r="G13" s="2">
         <v>0.73529999999999995</v>
       </c>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A14" s="2" t="s">
@@ -3198,7 +3312,7 @@
       <c r="C14" s="2">
         <v>5.5609000000000002</v>
       </c>
-      <c r="E14" s="46" t="s">
+      <c r="E14" s="53" t="s">
         <v>23</v>
       </c>
       <c r="F14" s="2" t="s">
@@ -3207,31 +3321,31 @@
       <c r="G14" s="36">
         <v>0.78539999999999999</v>
       </c>
-      <c r="H14" s="39">
+      <c r="H14" s="46">
         <v>16.601400000000002</v>
       </c>
-      <c r="I14" s="39" t="s">
+      <c r="I14" s="46" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A15" s="52" t="s">
+      <c r="A15" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="53"/>
-      <c r="C15" s="54"/>
-      <c r="E15" s="47"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="61"/>
+      <c r="E15" s="54"/>
       <c r="F15" s="2" t="s">
         <v>95</v>
       </c>
       <c r="G15" s="2">
         <v>0.67610000000000003</v>
       </c>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A16" s="48" t="s">
+      <c r="A16" s="55" t="s">
         <v>7</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -3245,7 +3359,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A17" s="47"/>
+      <c r="A17" s="54"/>
       <c r="B17" s="2" t="s">
         <v>13</v>
       </c>
@@ -3257,27 +3371,27 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="E18" s="41" t="s">
+      <c r="E18" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="43"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="50"/>
       <c r="J18" s="35" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A19" s="49" t="s">
+      <c r="A19" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="B19" s="50"/>
-      <c r="C19" s="51"/>
-      <c r="E19" s="44" t="s">
+      <c r="B19" s="57"/>
+      <c r="C19" s="58"/>
+      <c r="E19" s="51" t="s">
         <v>90</v>
       </c>
-      <c r="F19" s="45"/>
+      <c r="F19" s="52"/>
       <c r="G19" s="3" t="s">
         <v>30</v>
       </c>
@@ -3289,12 +3403,12 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A20" s="52" t="s">
+      <c r="A20" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="53"/>
-      <c r="C20" s="54"/>
-      <c r="E20" s="46" t="s">
+      <c r="B20" s="60"/>
+      <c r="C20" s="61"/>
+      <c r="E20" s="53" t="s">
         <v>21</v>
       </c>
       <c r="F20" s="2" t="s">
@@ -3303,10 +3417,10 @@
       <c r="G20" s="37">
         <v>0.60419999999999996</v>
       </c>
-      <c r="H20" s="39">
+      <c r="H20" s="46">
         <v>6.7031000000000001</v>
       </c>
-      <c r="I20" s="39" t="s">
+      <c r="I20" s="46" t="s">
         <v>24</v>
       </c>
       <c r="J20" s="38" t="s">
@@ -3323,15 +3437,15 @@
       <c r="C21" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="47"/>
+      <c r="E21" s="54"/>
       <c r="F21" s="2" t="s">
         <v>87</v>
       </c>
       <c r="G21" s="2">
         <v>0.56520000000000004</v>
       </c>
-      <c r="H21" s="40"/>
-      <c r="I21" s="40"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
       <c r="J21" s="35" t="s">
         <v>101</v>
       </c>
@@ -3346,7 +3460,7 @@
       <c r="C22" s="2">
         <v>6.4598000000000004</v>
       </c>
-      <c r="E22" s="46" t="s">
+      <c r="E22" s="53" t="s">
         <v>22</v>
       </c>
       <c r="F22" s="2" t="s">
@@ -3355,10 +3469,10 @@
       <c r="G22" s="37">
         <v>0.58009999999999995</v>
       </c>
-      <c r="H22" s="39">
+      <c r="H22" s="46">
         <v>2.8894000000000002</v>
       </c>
-      <c r="I22" s="39">
+      <c r="I22" s="46">
         <v>3.8999999999999998E-3</v>
       </c>
     </row>
@@ -3372,23 +3486,23 @@
       <c r="C23" s="2">
         <v>5.1597</v>
       </c>
-      <c r="E23" s="47"/>
+      <c r="E23" s="54"/>
       <c r="F23" s="2" t="s">
         <v>87</v>
       </c>
       <c r="G23" s="2">
         <v>0.5534</v>
       </c>
-      <c r="H23" s="40"/>
-      <c r="I23" s="40"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="47"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A24" s="52" t="s">
+      <c r="A24" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="53"/>
-      <c r="C24" s="54"/>
-      <c r="E24" s="46" t="s">
+      <c r="B24" s="60"/>
+      <c r="C24" s="61"/>
+      <c r="E24" s="53" t="s">
         <v>23</v>
       </c>
       <c r="F24" s="2" t="s">
@@ -3397,10 +3511,10 @@
       <c r="G24" s="37">
         <v>0.5393</v>
       </c>
-      <c r="H24" s="39">
+      <c r="H24" s="46">
         <v>1.6584000000000001</v>
       </c>
-      <c r="I24" s="39">
+      <c r="I24" s="46">
         <v>9.7299999999999998E-2</v>
       </c>
       <c r="J24" s="38" t="s">
@@ -3408,7 +3522,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A25" s="48" t="s">
+      <c r="A25" s="55" t="s">
         <v>7</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -3417,28 +3531,28 @@
       <c r="C25" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E25" s="47"/>
+      <c r="E25" s="54"/>
       <c r="F25" s="2" t="s">
         <v>87</v>
       </c>
       <c r="G25" s="2">
         <v>0.52139999999999997</v>
       </c>
-      <c r="H25" s="40"/>
-      <c r="I25" s="40"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A26" s="47"/>
+      <c r="A26" s="54"/>
       <c r="B26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E26" s="44" t="s">
+      <c r="E26" s="51" t="s">
         <v>89</v>
       </c>
-      <c r="F26" s="45"/>
+      <c r="F26" s="52"/>
       <c r="G26" s="3" t="s">
         <v>25</v>
       </c>
@@ -3450,7 +3564,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="E27" s="46" t="s">
+      <c r="E27" s="53" t="s">
         <v>21</v>
       </c>
       <c r="F27" s="2" t="s">
@@ -3459,10 +3573,10 @@
       <c r="G27" s="36">
         <v>0.82099999999999995</v>
       </c>
-      <c r="H27" s="39">
+      <c r="H27" s="46">
         <v>33.133299999999998</v>
       </c>
-      <c r="I27" s="39" t="s">
+      <c r="I27" s="46" t="s">
         <v>97</v>
       </c>
       <c r="J27" s="38" t="s">
@@ -3470,21 +3584,21 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="E28" s="47"/>
+      <c r="E28" s="54"/>
       <c r="F28" s="2" t="s">
         <v>87</v>
       </c>
       <c r="G28" s="2">
         <v>0.70599999999999996</v>
       </c>
-      <c r="H28" s="40"/>
-      <c r="I28" s="40"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="47"/>
       <c r="J28" s="38" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="E29" s="46" t="s">
+      <c r="E29" s="53" t="s">
         <v>22</v>
       </c>
       <c r="F29" s="2" t="s">
@@ -3493,26 +3607,26 @@
       <c r="G29" s="36">
         <v>0.83950000000000002</v>
       </c>
-      <c r="H29" s="39">
+      <c r="H29" s="46">
         <v>24.9849</v>
       </c>
-      <c r="I29" s="39" t="s">
+      <c r="I29" s="46" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="E30" s="47"/>
+      <c r="E30" s="54"/>
       <c r="F30" s="2" t="s">
         <v>87</v>
       </c>
       <c r="G30" s="2">
         <v>0.70609999999999995</v>
       </c>
-      <c r="H30" s="40"/>
-      <c r="I30" s="40"/>
+      <c r="H30" s="47"/>
+      <c r="I30" s="47"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="E31" s="46" t="s">
+      <c r="E31" s="53" t="s">
         <v>23</v>
       </c>
       <c r="F31" s="2" t="s">
@@ -3521,23 +3635,23 @@
       <c r="G31" s="36">
         <v>0.78539999999999999</v>
       </c>
-      <c r="H31" s="39">
+      <c r="H31" s="46">
         <v>21.385400000000001</v>
       </c>
-      <c r="I31" s="39" t="s">
+      <c r="I31" s="46" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="E32" s="47"/>
+      <c r="E32" s="54"/>
       <c r="F32" s="2" t="s">
         <v>87</v>
       </c>
       <c r="G32" s="2">
         <v>0.63849999999999996</v>
       </c>
-      <c r="H32" s="40"/>
-      <c r="I32" s="40"/>
+      <c r="H32" s="47"/>
+      <c r="I32" s="47"/>
     </row>
     <row r="33" spans="5:5" x14ac:dyDescent="0.5">
       <c r="E33" s="35" t="s">
@@ -3611,976 +3725,994 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B78CFA9F-73ED-424A-9027-1A5D5AB10FF2}">
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="12.046875" style="66" customWidth="1"/>
-    <col min="2" max="16384" width="8.796875" style="66"/>
+    <col min="1" max="1" width="12.046875" style="39" customWidth="1"/>
+    <col min="2" max="16384" width="8.796875" style="39"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67" t="s">
+      <c r="C1" s="62"/>
+      <c r="D1" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67" t="s">
+      <c r="E1" s="62"/>
+      <c r="F1" s="62" t="s">
         <v>111</v>
       </c>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67" t="s">
+      <c r="G1" s="62"/>
+      <c r="H1" s="62" t="s">
         <v>112</v>
       </c>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67" t="s">
+      <c r="I1" s="62"/>
+      <c r="J1" s="62" t="s">
         <v>113</v>
       </c>
-      <c r="K1" s="67"/>
-      <c r="L1" s="66" t="s">
+      <c r="K1" s="62"/>
+      <c r="L1" s="39" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="39" t="s">
         <v>114</v>
       </c>
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="C2" s="66" t="s">
+      <c r="C2" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="D2" s="66" t="s">
+      <c r="D2" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="E2" s="66" t="s">
+      <c r="E2" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="F2" s="66" t="s">
+      <c r="F2" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="G2" s="66" t="s">
+      <c r="G2" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="H2" s="66" t="s">
+      <c r="H2" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="I2" s="66" t="s">
+      <c r="I2" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="J2" s="66" t="s">
+      <c r="J2" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="K2" s="66" t="s">
+      <c r="K2" s="39" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="39" t="s">
         <v>117</v>
       </c>
-      <c r="B3" s="66">
+      <c r="B3" s="39">
         <v>0.36530000000000001</v>
       </c>
-      <c r="C3" s="66">
+      <c r="C3" s="39">
         <v>0.37009999999999998</v>
       </c>
-      <c r="D3" s="66">
+      <c r="D3" s="39">
         <v>0.39100000000000001</v>
       </c>
-      <c r="E3" s="66">
+      <c r="E3" s="39">
         <v>0.39629999999999999</v>
       </c>
-      <c r="F3" s="66">
+      <c r="F3" s="39">
         <v>0.37280000000000002</v>
       </c>
-      <c r="G3" s="66">
+      <c r="G3" s="39">
         <v>0.39090000000000003</v>
       </c>
-      <c r="H3" s="66">
+      <c r="H3" s="39">
         <v>0.4415</v>
       </c>
-      <c r="I3" s="66">
+      <c r="I3" s="39">
         <v>0.44979999999999998</v>
       </c>
-      <c r="J3" s="66">
+      <c r="J3" s="39">
         <v>0.34160000000000001</v>
       </c>
-      <c r="K3" s="66">
+      <c r="K3" s="39">
         <v>0.35449999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="68" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="68">
+    <row r="4" spans="1:12" s="40" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B4" s="40">
         <v>0.19689999999999999</v>
       </c>
-      <c r="C4" s="68">
+      <c r="C4" s="40">
         <v>0.1951</v>
       </c>
-      <c r="D4" s="68">
+      <c r="D4" s="40">
         <v>0.1421</v>
       </c>
-      <c r="E4" s="68">
+      <c r="E4" s="40">
         <v>0.1424</v>
       </c>
-      <c r="F4" s="68">
+      <c r="F4" s="40">
         <v>8.5400000000000004E-2</v>
       </c>
-      <c r="G4" s="68">
+      <c r="G4" s="40">
         <v>8.4500000000000006E-2</v>
       </c>
-      <c r="H4" s="68">
+      <c r="H4" s="40">
         <v>0.15090000000000001</v>
       </c>
-      <c r="I4" s="68">
+      <c r="I4" s="40">
         <v>0.15010000000000001</v>
       </c>
-      <c r="J4" s="68">
+      <c r="J4" s="40">
         <v>0.10050000000000001</v>
       </c>
-      <c r="K4" s="68">
+      <c r="K4" s="40">
         <v>9.1499999999999998E-2</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A5" s="66" t="s">
+      <c r="A5" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="B5" s="66">
+      <c r="B5" s="39">
         <v>0.25330000000000003</v>
       </c>
-      <c r="C5" s="66">
+      <c r="C5" s="39">
         <v>0.25969999999999999</v>
       </c>
-      <c r="D5" s="66">
+      <c r="D5" s="39">
         <v>0.2359</v>
       </c>
-      <c r="E5" s="66">
+      <c r="E5" s="39">
         <v>0.23699999999999999</v>
       </c>
-      <c r="F5" s="66">
+      <c r="F5" s="39">
         <v>0.27160000000000001</v>
       </c>
-      <c r="G5" s="66">
+      <c r="G5" s="39">
         <v>0.27539999999999998</v>
       </c>
-      <c r="H5" s="66">
+      <c r="H5" s="39">
         <v>0.35170000000000001</v>
       </c>
-      <c r="I5" s="66">
+      <c r="I5" s="39">
         <v>0.35589999999999999</v>
       </c>
-      <c r="J5" s="66">
+      <c r="J5" s="39">
         <v>0.30420000000000003</v>
       </c>
-      <c r="K5" s="66">
+      <c r="K5" s="39">
         <v>0.3054</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="68" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="B6" s="68">
+    <row r="6" spans="1:12" s="40" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B6" s="40">
         <v>9.9199999999999997E-2</v>
       </c>
-      <c r="C6" s="68">
+      <c r="C6" s="40">
         <v>9.7500000000000003E-2</v>
       </c>
-      <c r="D6" s="68">
+      <c r="D6" s="40">
         <v>9.2600000000000002E-2</v>
       </c>
-      <c r="E6" s="68">
+      <c r="E6" s="40">
         <v>9.1499999999999998E-2</v>
       </c>
-      <c r="F6" s="68">
+      <c r="F6" s="40">
         <v>0.1129</v>
       </c>
-      <c r="G6" s="68">
+      <c r="G6" s="40">
         <v>0.1104</v>
       </c>
-      <c r="H6" s="68">
+      <c r="H6" s="40">
         <v>6.6900000000000001E-2</v>
       </c>
-      <c r="I6" s="68">
+      <c r="I6" s="40">
         <v>6.6699999999999995E-2</v>
       </c>
-      <c r="J6" s="68">
+      <c r="J6" s="40">
         <v>0.1177</v>
       </c>
-      <c r="K6" s="68">
+      <c r="K6" s="40">
         <v>0.1162</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A7" s="66" t="s">
+      <c r="A7" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="B7" s="66">
+      <c r="B7" s="39">
         <v>0.2253</v>
       </c>
-      <c r="C7" s="66">
+      <c r="C7" s="39">
         <v>0.27439999999999998</v>
       </c>
-      <c r="D7" s="66">
+      <c r="D7" s="39">
         <v>0.2361</v>
       </c>
-      <c r="E7" s="66">
+      <c r="E7" s="39">
         <v>0.27189999999999998</v>
       </c>
-      <c r="F7" s="66">
+      <c r="F7" s="39">
         <v>0.18010000000000001</v>
       </c>
-      <c r="G7" s="66">
+      <c r="G7" s="39">
         <v>0.2225</v>
       </c>
-      <c r="H7" s="66">
+      <c r="H7" s="39">
         <v>0.16039999999999999</v>
       </c>
-      <c r="I7" s="66">
+      <c r="I7" s="39">
         <v>0.16339999999999999</v>
       </c>
-      <c r="J7" s="66">
+      <c r="J7" s="39">
         <v>0.1573</v>
       </c>
-      <c r="K7" s="66">
+      <c r="K7" s="39">
         <v>0.17030000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="68" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="B8" s="68">
+    <row r="8" spans="1:12" s="40" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B8" s="40">
         <v>0.1239</v>
       </c>
-      <c r="C8" s="68">
+      <c r="C8" s="40">
         <v>0.1226</v>
       </c>
-      <c r="D8" s="68">
+      <c r="D8" s="40">
         <v>0.1174</v>
       </c>
-      <c r="E8" s="68">
+      <c r="E8" s="40">
         <v>0.1162</v>
       </c>
-      <c r="F8" s="68">
+      <c r="F8" s="40">
         <v>0.1207</v>
       </c>
-      <c r="G8" s="68">
+      <c r="G8" s="40">
         <v>0.1198</v>
       </c>
-      <c r="H8" s="68">
+      <c r="H8" s="40">
         <v>0.11700000000000001</v>
       </c>
-      <c r="I8" s="68">
+      <c r="I8" s="40">
         <v>0.11509999999999999</v>
       </c>
-      <c r="J8" s="68">
+      <c r="J8" s="40">
         <v>0.1444</v>
       </c>
-      <c r="K8" s="68">
+      <c r="K8" s="40">
         <v>0.14249999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A9" s="69" t="s">
+      <c r="A9" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="B9" s="66">
+      <c r="B9" s="39">
         <v>0.1537</v>
       </c>
-      <c r="C9" s="66">
+      <c r="C9" s="39">
         <v>0.1938</v>
       </c>
-      <c r="D9" s="66">
+      <c r="D9" s="39">
         <v>0.18720000000000001</v>
       </c>
-      <c r="E9" s="66">
+      <c r="E9" s="39">
         <v>0.23050000000000001</v>
       </c>
-      <c r="F9" s="66">
+      <c r="F9" s="39">
         <v>0.1588</v>
       </c>
-      <c r="G9" s="66">
+      <c r="G9" s="39">
         <v>0.1852</v>
       </c>
-      <c r="H9" s="66">
+      <c r="H9" s="39">
         <v>0.29620000000000002</v>
       </c>
-      <c r="I9" s="66">
+      <c r="I9" s="39">
         <v>0.37419999999999998</v>
       </c>
-      <c r="J9" s="66">
+      <c r="J9" s="39">
         <v>0.15970000000000001</v>
       </c>
-      <c r="K9" s="66">
+      <c r="K9" s="39">
         <v>0.19209999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="68" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="B10" s="68">
+    <row r="10" spans="1:12" s="40" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B10" s="40">
         <v>0.1565</v>
       </c>
-      <c r="C10" s="68">
+      <c r="C10" s="40">
         <v>0.1326</v>
       </c>
-      <c r="D10" s="68">
+      <c r="D10" s="40">
         <v>0.17019999999999999</v>
       </c>
-      <c r="E10" s="68">
+      <c r="E10" s="40">
         <v>0.13600000000000001</v>
       </c>
-      <c r="F10" s="68">
+      <c r="F10" s="40">
         <v>0.15809999999999999</v>
       </c>
-      <c r="G10" s="68">
+      <c r="G10" s="40">
         <v>0.13589999999999999</v>
       </c>
-      <c r="H10" s="68">
+      <c r="H10" s="40">
         <v>0.22009999999999999</v>
       </c>
-      <c r="I10" s="68">
+      <c r="I10" s="40">
         <v>0.22320000000000001</v>
       </c>
-      <c r="J10" s="68">
+      <c r="J10" s="40">
         <v>0.24329999999999999</v>
       </c>
-      <c r="K10" s="68">
+      <c r="K10" s="40">
         <v>0.22070000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A11" s="66" t="s">
+      <c r="A11" s="39" t="s">
         <v>125</v>
       </c>
-      <c r="B11" s="70">
+      <c r="B11" s="42">
         <v>9.3700000000000006E-2</v>
       </c>
-      <c r="C11" s="70">
+      <c r="C11" s="42">
         <v>0.1138</v>
       </c>
-      <c r="D11" s="70">
+      <c r="D11" s="42">
         <v>0.1105</v>
       </c>
-      <c r="E11" s="70">
+      <c r="E11" s="42">
         <v>0.1147</v>
       </c>
-      <c r="F11" s="70">
+      <c r="F11" s="42">
         <v>8.9700000000000002E-2</v>
       </c>
-      <c r="G11" s="70">
+      <c r="G11" s="42">
         <v>8.9899999999999994E-2</v>
       </c>
-      <c r="H11" s="70">
+      <c r="H11" s="42">
         <v>0.121</v>
       </c>
-      <c r="I11" s="70">
+      <c r="I11" s="42">
         <v>0.13239999999999999</v>
       </c>
-      <c r="J11" s="70">
+      <c r="J11" s="42">
         <v>7.9500000000000001E-2</v>
       </c>
-      <c r="K11" s="70">
+      <c r="K11" s="42">
         <v>7.9799999999999996E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="68" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="B12" s="68">
+    <row r="12" spans="1:12" s="40" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B12" s="40">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="C12" s="68">
+      <c r="C12" s="40">
         <v>7.1400000000000005E-2</v>
       </c>
-      <c r="D12" s="68">
+      <c r="D12" s="40">
         <v>7.1199999999999999E-2</v>
       </c>
-      <c r="E12" s="68">
+      <c r="E12" s="40">
         <v>6.7799999999999999E-2</v>
       </c>
-      <c r="F12" s="68">
+      <c r="F12" s="40">
         <v>5.9200000000000003E-2</v>
       </c>
-      <c r="G12" s="68">
+      <c r="G12" s="40">
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="H12" s="68">
+      <c r="H12" s="40">
         <v>6.2399999999999997E-2</v>
       </c>
-      <c r="I12" s="68">
+      <c r="I12" s="40">
         <v>6.13E-2</v>
       </c>
-      <c r="J12" s="68">
+      <c r="J12" s="40">
         <v>5.6399999999999999E-2</v>
       </c>
-      <c r="K12" s="68">
+      <c r="K12" s="40">
         <v>5.62E-2</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A13" s="72" t="s">
+      <c r="A13" s="44" t="s">
         <v>121</v>
       </c>
-      <c r="B13" s="72">
+      <c r="B13" s="44">
         <v>0.11459999999999999</v>
       </c>
-      <c r="C13" s="72">
+      <c r="C13" s="44">
         <v>0.1197</v>
       </c>
-      <c r="D13" s="72">
+      <c r="D13" s="44">
         <v>0.125</v>
       </c>
-      <c r="E13" s="72">
+      <c r="E13" s="44">
         <v>0.13020000000000001</v>
       </c>
-      <c r="F13" s="72">
+      <c r="F13" s="44">
         <v>0.12690000000000001</v>
       </c>
-      <c r="G13" s="72">
+      <c r="G13" s="44">
         <v>0.12709999999999999</v>
       </c>
-      <c r="H13" s="72">
+      <c r="H13" s="44">
         <v>0.14199999999999999</v>
       </c>
-      <c r="I13" s="72">
+      <c r="I13" s="44">
         <v>0.14549999999999999</v>
       </c>
-      <c r="J13" s="72">
+      <c r="J13" s="44">
         <v>8.77E-2</v>
       </c>
-      <c r="K13" s="72">
+      <c r="K13" s="44">
         <v>8.8099999999999998E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="68" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="77"/>
-      <c r="B14" s="77">
+    <row r="14" spans="1:12" s="40" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A14" s="45"/>
+      <c r="B14" s="45">
         <v>6.6900000000000001E-2</v>
       </c>
-      <c r="C14" s="77">
+      <c r="C14" s="45">
         <v>6.7299999999999999E-2</v>
       </c>
-      <c r="D14" s="77">
+      <c r="D14" s="45">
         <v>6.2399999999999997E-2</v>
       </c>
-      <c r="E14" s="77">
+      <c r="E14" s="45">
         <v>6.6500000000000004E-2</v>
       </c>
-      <c r="F14" s="77">
+      <c r="F14" s="45">
         <v>5.9700000000000003E-2</v>
       </c>
-      <c r="G14" s="77">
+      <c r="G14" s="45">
         <v>5.8599999999999999E-2</v>
       </c>
-      <c r="H14" s="77">
+      <c r="H14" s="45">
         <v>6.1699999999999998E-2</v>
       </c>
-      <c r="I14" s="77">
+      <c r="I14" s="45">
         <v>6.0400000000000002E-2</v>
       </c>
-      <c r="J14" s="77">
+      <c r="J14" s="45">
         <v>5.3900000000000003E-2</v>
       </c>
-      <c r="K14" s="77">
+      <c r="K14" s="45">
         <v>5.3600000000000002E-2</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A15" s="72" t="s">
+      <c r="A15" s="44" t="s">
         <v>122</v>
       </c>
-      <c r="B15" s="72">
+      <c r="B15" s="44">
         <v>0.32229999999999998</v>
       </c>
-      <c r="C15" s="72">
+      <c r="C15" s="44">
         <v>0.32390000000000002</v>
       </c>
-      <c r="D15" s="72">
+      <c r="D15" s="44">
         <v>0.31519999999999998</v>
       </c>
-      <c r="E15" s="72">
+      <c r="E15" s="44">
         <v>0.31690000000000002</v>
       </c>
-      <c r="F15" s="72">
+      <c r="F15" s="44">
         <v>0.29039999999999999</v>
       </c>
-      <c r="G15" s="72">
+      <c r="G15" s="44">
         <v>0.29389999999999999</v>
       </c>
-      <c r="H15" s="72">
+      <c r="H15" s="44">
         <v>0.4249</v>
       </c>
-      <c r="I15" s="72">
+      <c r="I15" s="44">
         <v>0.42580000000000001</v>
       </c>
-      <c r="J15" s="72">
+      <c r="J15" s="44">
         <v>0.37180000000000002</v>
       </c>
-      <c r="K15" s="72">
+      <c r="K15" s="44">
         <v>0.38940000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:12" s="68" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="77"/>
-      <c r="B16" s="77">
+    <row r="16" spans="1:12" s="40" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A16" s="45"/>
+      <c r="B16" s="45">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="C16" s="77">
+      <c r="C16" s="45">
         <v>4.5499999999999999E-2</v>
       </c>
-      <c r="D16" s="77">
+      <c r="D16" s="45">
         <v>4.5499999999999999E-2</v>
       </c>
-      <c r="E16" s="77">
+      <c r="E16" s="45">
         <v>4.5199999999999997E-2</v>
       </c>
-      <c r="F16" s="77">
+      <c r="F16" s="45">
         <v>5.4899999999999997E-2</v>
       </c>
-      <c r="G16" s="77">
+      <c r="G16" s="45">
         <v>5.16E-2</v>
       </c>
-      <c r="H16" s="77">
+      <c r="H16" s="45">
         <v>4.4200000000000003E-2</v>
       </c>
-      <c r="I16" s="77">
+      <c r="I16" s="45">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="J16" s="77">
+      <c r="J16" s="45">
         <v>8.0500000000000002E-2</v>
       </c>
-      <c r="K16" s="77">
+      <c r="K16" s="45">
         <v>7.0599999999999996E-2</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A17" s="72" t="s">
+      <c r="A17" s="44" t="s">
         <v>123</v>
       </c>
-      <c r="B17" s="72">
+      <c r="B17" s="44">
         <v>0.15329999999999999</v>
       </c>
-      <c r="C17" s="72">
+      <c r="C17" s="44">
         <v>0.15570000000000001</v>
       </c>
-      <c r="D17" s="72">
+      <c r="D17" s="44">
         <v>0.1547</v>
       </c>
-      <c r="E17" s="72">
+      <c r="E17" s="44">
         <v>0.15709999999999999</v>
       </c>
-      <c r="F17" s="72">
+      <c r="F17" s="44">
         <v>0.129</v>
       </c>
-      <c r="G17" s="72">
+      <c r="G17" s="44">
         <v>0.13159999999999999</v>
       </c>
-      <c r="H17" s="72">
+      <c r="H17" s="44">
         <v>0.17419999999999999</v>
       </c>
-      <c r="I17" s="72">
+      <c r="I17" s="44">
         <v>0.18099999999999999</v>
       </c>
-      <c r="J17" s="72">
+      <c r="J17" s="44">
         <v>0.1045</v>
       </c>
-      <c r="K17" s="72">
+      <c r="K17" s="44">
         <v>0.1061</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="68" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="77"/>
-      <c r="B18" s="77">
+    <row r="18" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A18" s="45"/>
+      <c r="B18" s="45">
         <v>7.7799999999999994E-2</v>
       </c>
-      <c r="C18" s="77">
+      <c r="C18" s="45">
         <v>7.7499999999999999E-2</v>
       </c>
-      <c r="D18" s="77">
+      <c r="D18" s="45">
         <v>7.2999999999999995E-2</v>
       </c>
-      <c r="E18" s="77">
+      <c r="E18" s="45">
         <v>7.2800000000000004E-2</v>
       </c>
-      <c r="F18" s="77">
+      <c r="F18" s="45">
         <v>6.7699999999999996E-2</v>
       </c>
-      <c r="G18" s="77">
+      <c r="G18" s="45">
         <v>6.7299999999999999E-2</v>
       </c>
-      <c r="H18" s="77">
+      <c r="H18" s="45">
         <v>7.1800000000000003E-2</v>
       </c>
-      <c r="I18" s="77">
+      <c r="I18" s="45">
         <v>7.0699999999999999E-2</v>
       </c>
-      <c r="J18" s="77">
+      <c r="J18" s="45">
         <v>6.2799999999999995E-2</v>
       </c>
-      <c r="K18" s="77">
+      <c r="K18" s="45">
         <v>6.2E-2</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A20" s="70" t="s">
+      <c r="A20" s="42" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A21" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="B21" s="51" t="s">
+        <v>109</v>
+      </c>
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="52"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A22" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="B22" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="C22" s="43" t="s">
+        <v>133</v>
+      </c>
+      <c r="D22" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="E22" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="F22" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="G22" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="H22" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="I22" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="J22" s="43"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A23" s="44" t="s">
+        <v>129</v>
+      </c>
+      <c r="B23" s="44">
+        <v>1.09E-2</v>
+      </c>
+      <c r="C23" s="44">
+        <v>0.1875</v>
+      </c>
+      <c r="D23" s="44">
+        <v>0.40160000000000001</v>
+      </c>
+      <c r="E23" s="44">
+        <v>0.65820000000000001</v>
+      </c>
+      <c r="F23" s="44">
+        <v>0.82250000000000001</v>
+      </c>
+      <c r="G23" s="44">
+        <v>0.9677</v>
+      </c>
+      <c r="H23" s="44">
+        <v>1.1422000000000001</v>
+      </c>
+      <c r="I23" s="15" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A21" s="66" t="s">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A24" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="B24" s="44">
+        <v>3.15E-2</v>
+      </c>
+      <c r="C24" s="44">
+        <v>7.8100000000000003E-2</v>
+      </c>
+      <c r="D24" s="44">
+        <v>0.10009999999999999</v>
+      </c>
+      <c r="E24" s="44">
+        <v>0.13120000000000001</v>
+      </c>
+      <c r="F24" s="44">
+        <v>0.1457</v>
+      </c>
+      <c r="G24" s="44">
+        <v>0.18579999999999999</v>
+      </c>
+      <c r="H24" s="44">
+        <v>0.24529999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A25" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="B25" s="39">
+        <v>5.57E-2</v>
+      </c>
+      <c r="C25" s="39">
+        <v>9.2499999999999999E-2</v>
+      </c>
+      <c r="D25" s="39">
+        <v>0.1087</v>
+      </c>
+      <c r="E25" s="39">
+        <v>0.1447</v>
+      </c>
+      <c r="F25" s="39">
+        <v>0.15179999999999999</v>
+      </c>
+      <c r="G25" s="39">
+        <v>0.20150000000000001</v>
+      </c>
+      <c r="H25" s="39">
+        <v>0.25740000000000002</v>
+      </c>
+      <c r="I25" s="15" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="14.7" x14ac:dyDescent="0.5">
+      <c r="A26" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="B26" s="39">
+        <v>7.3499999999999996E-2</v>
+      </c>
+      <c r="C26" s="39">
+        <v>0.1331</v>
+      </c>
+      <c r="D26" s="39">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="E26" s="39">
+        <v>0.17349999999999999</v>
+      </c>
+      <c r="F26" s="39">
+        <v>0.24529999999999999</v>
+      </c>
+      <c r="G26" s="39">
+        <v>0.33510000000000001</v>
+      </c>
+      <c r="H26" s="39">
+        <v>0.40150000000000002</v>
+      </c>
+      <c r="I26" s="39" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="14.7" x14ac:dyDescent="0.5">
+      <c r="A27" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="B27" s="39">
+        <v>5.7299999999999997E-2</v>
+      </c>
+      <c r="C27" s="39">
+        <v>0.1726</v>
+      </c>
+      <c r="D27" s="39">
+        <v>0.2296</v>
+      </c>
+      <c r="E27" s="39">
+        <v>0.27410000000000001</v>
+      </c>
+      <c r="F27" s="39">
+        <v>0.37930000000000003</v>
+      </c>
+      <c r="G27" s="39">
+        <v>0.442</v>
+      </c>
+      <c r="H27" s="39">
+        <v>0.49890000000000001</v>
+      </c>
+      <c r="I27" s="78" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A29" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="B21" s="44" t="s">
-        <v>109</v>
-      </c>
-      <c r="C21" s="73"/>
-      <c r="D21" s="73"/>
-      <c r="E21" s="73"/>
-      <c r="F21" s="73"/>
-      <c r="G21" s="45"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A22" s="66" t="s">
+      <c r="B29" s="64" t="s">
+        <v>111</v>
+      </c>
+      <c r="C29" s="65"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="65"/>
+      <c r="F29" s="65"/>
+      <c r="G29" s="66"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A30" s="39" t="s">
         <v>126</v>
       </c>
-      <c r="B22" s="71" t="s">
+      <c r="B30" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="C22" s="71" t="s">
+      <c r="C30" s="43" t="s">
         <v>133</v>
       </c>
-      <c r="D22" s="71" t="s">
+      <c r="D30" s="43" t="s">
         <v>134</v>
       </c>
-      <c r="E22" s="71" t="s">
+      <c r="E30" s="43" t="s">
         <v>132</v>
       </c>
-      <c r="F22" s="71" t="s">
+      <c r="F30" s="43" t="s">
         <v>135</v>
       </c>
-      <c r="G22" s="71" t="s">
+      <c r="G30" s="43" t="s">
         <v>128</v>
       </c>
-      <c r="H22" s="71" t="s">
+      <c r="H30" s="43" t="s">
         <v>136</v>
       </c>
-      <c r="I22" s="66" t="s">
-        <v>139</v>
-      </c>
-      <c r="J22" s="71"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A23" s="72" t="s">
+      <c r="I30" s="43"/>
+      <c r="J30" s="43"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A31" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="B23" s="72">
-        <v>1.09E-2</v>
-      </c>
-      <c r="C23" s="72">
-        <v>0.1875</v>
-      </c>
-      <c r="D23" s="72">
-        <v>0.40160000000000001</v>
-      </c>
-      <c r="E23" s="72">
-        <v>0.65820000000000001</v>
-      </c>
-      <c r="F23" s="72">
-        <v>0.82250000000000001</v>
-      </c>
-      <c r="G23" s="72">
-        <v>0.9677</v>
-      </c>
-      <c r="H23" s="72">
-        <v>1.1422000000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A24" s="72" t="s">
+      <c r="B31" s="44">
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="C31" s="44">
+        <v>0.23569999999999999</v>
+      </c>
+      <c r="D31" s="44">
+        <v>0.41749999999999998</v>
+      </c>
+      <c r="E31" s="44">
+        <v>0.62070000000000003</v>
+      </c>
+      <c r="F31" s="44">
+        <v>0.87470000000000003</v>
+      </c>
+      <c r="G31" s="44">
+        <v>1.0710999999999999</v>
+      </c>
+      <c r="H31" s="44">
+        <v>1.2961</v>
+      </c>
+      <c r="I31" s="15" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A32" s="44" t="s">
         <v>130</v>
       </c>
-      <c r="B24" s="72">
-        <v>3.15E-2</v>
-      </c>
-      <c r="C24" s="72">
-        <v>7.8100000000000003E-2</v>
-      </c>
-      <c r="D24" s="72">
-        <v>0.10009999999999999</v>
-      </c>
-      <c r="E24" s="72">
-        <v>0.13120000000000001</v>
-      </c>
-      <c r="F24" s="72">
-        <v>0.1457</v>
-      </c>
-      <c r="G24" s="72">
-        <v>0.18579999999999999</v>
-      </c>
-      <c r="H24" s="72">
-        <v>0.24529999999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A25" s="66" t="s">
+      <c r="B32" s="44">
+        <v>3.7699999999999997E-2</v>
+      </c>
+      <c r="C32" s="44">
+        <v>7.9899999999999999E-2</v>
+      </c>
+      <c r="D32" s="44">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="E32" s="44">
+        <v>0.11990000000000001</v>
+      </c>
+      <c r="F32" s="44">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="G32" s="44">
+        <v>0.23769999999999999</v>
+      </c>
+      <c r="H32" s="44">
+        <v>0.27400000000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A33" s="39" t="s">
         <v>131</v>
       </c>
-      <c r="B25" s="66">
-        <v>5.57E-2</v>
-      </c>
-      <c r="C25" s="66">
-        <v>9.2499999999999999E-2</v>
-      </c>
-      <c r="D25" s="66">
-        <v>0.1087</v>
-      </c>
-      <c r="E25" s="66">
-        <v>0.1447</v>
-      </c>
-      <c r="F25" s="66">
-        <v>0.15179999999999999</v>
-      </c>
-      <c r="G25" s="66">
-        <v>0.20150000000000001</v>
-      </c>
-      <c r="H25" s="66">
-        <v>0.25740000000000002</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A26" s="66" t="s">
+      <c r="B33" s="39">
+        <v>5.6800000000000003E-2</v>
+      </c>
+      <c r="C33" s="39">
+        <v>9.0200000000000002E-2</v>
+      </c>
+      <c r="D33" s="39">
+        <v>9.9699999999999997E-2</v>
+      </c>
+      <c r="E33" s="39">
+        <v>0.1206</v>
+      </c>
+      <c r="F33" s="39">
+        <v>0.14680000000000001</v>
+      </c>
+      <c r="G33" s="39">
+        <v>0.24049999999999999</v>
+      </c>
+      <c r="H33" s="39">
+        <v>0.30220000000000002</v>
+      </c>
+      <c r="I33" s="15" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A34" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="B26" s="66">
-        <v>7.3499999999999996E-2</v>
-      </c>
-      <c r="C26" s="66">
-        <v>0.1331</v>
-      </c>
-      <c r="D26" s="66">
-        <v>0.16500000000000001</v>
-      </c>
-      <c r="E26" s="66">
-        <v>0.17349999999999999</v>
-      </c>
-      <c r="F26" s="66">
-        <v>0.24529999999999999</v>
-      </c>
-      <c r="G26" s="66">
-        <v>0.33510000000000001</v>
-      </c>
-      <c r="H26" s="66">
-        <v>0.40150000000000002</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A27" s="66" t="s">
+      <c r="B34" s="39">
+        <v>6.13E-2</v>
+      </c>
+      <c r="C34" s="39">
+        <v>0.15129999999999999</v>
+      </c>
+      <c r="D34" s="39">
+        <v>0.17130000000000001</v>
+      </c>
+      <c r="E34" s="39">
+        <v>0.2044</v>
+      </c>
+      <c r="F34" s="39">
+        <v>0.2641</v>
+      </c>
+      <c r="G34" s="39">
+        <v>0.38129999999999997</v>
+      </c>
+      <c r="H34" s="39">
+        <v>0.47370000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A35" s="39" t="s">
         <v>138</v>
       </c>
-      <c r="B27" s="66">
-        <v>5.7299999999999997E-2</v>
-      </c>
-      <c r="C27" s="66">
-        <v>0.1726</v>
-      </c>
-      <c r="D27" s="66">
-        <v>0.2296</v>
-      </c>
-      <c r="E27" s="66">
-        <v>0.27410000000000001</v>
-      </c>
-      <c r="F27" s="66">
-        <v>0.37930000000000003</v>
-      </c>
-      <c r="G27" s="66">
-        <v>0.442</v>
-      </c>
-      <c r="H27" s="66">
-        <v>0.49890000000000001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A29" s="66" t="s">
-        <v>108</v>
-      </c>
-      <c r="B29" s="74" t="s">
-        <v>111</v>
-      </c>
-      <c r="C29" s="75"/>
-      <c r="D29" s="75"/>
-      <c r="E29" s="75"/>
-      <c r="F29" s="75"/>
-      <c r="G29" s="76"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A30" s="66" t="s">
-        <v>126</v>
-      </c>
-      <c r="B30" s="71" t="s">
-        <v>127</v>
-      </c>
-      <c r="C30" s="71" t="s">
-        <v>133</v>
-      </c>
-      <c r="D30" s="71" t="s">
-        <v>134</v>
-      </c>
-      <c r="E30" s="71" t="s">
-        <v>132</v>
-      </c>
-      <c r="F30" s="71" t="s">
-        <v>135</v>
-      </c>
-      <c r="G30" s="71" t="s">
-        <v>128</v>
-      </c>
-      <c r="H30" s="71" t="s">
-        <v>136</v>
-      </c>
-      <c r="I30" s="71"/>
-      <c r="J30" s="71"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A31" s="72" t="s">
-        <v>129</v>
-      </c>
-      <c r="B31" s="72">
-        <v>2.5999999999999999E-3</v>
-      </c>
-      <c r="C31" s="72">
-        <v>0.23569999999999999</v>
-      </c>
-      <c r="D31" s="72">
-        <v>0.41749999999999998</v>
-      </c>
-      <c r="E31" s="72">
-        <v>0.62070000000000003</v>
-      </c>
-      <c r="F31" s="72">
-        <v>0.87470000000000003</v>
-      </c>
-      <c r="G31" s="72">
-        <v>1.0710999999999999</v>
-      </c>
-      <c r="H31" s="72">
-        <v>1.2961</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A32" s="72" t="s">
-        <v>130</v>
-      </c>
-      <c r="B32" s="72">
-        <v>3.7699999999999997E-2</v>
-      </c>
-      <c r="C32" s="72">
-        <v>7.9899999999999999E-2</v>
-      </c>
-      <c r="D32" s="72">
-        <v>9.8000000000000004E-2</v>
-      </c>
-      <c r="E32" s="72">
-        <v>0.11990000000000001</v>
-      </c>
-      <c r="F32" s="72">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="G32" s="72">
-        <v>0.23769999999999999</v>
-      </c>
-      <c r="H32" s="72">
-        <v>0.27400000000000002</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A33" s="66" t="s">
-        <v>131</v>
-      </c>
-      <c r="B33" s="66">
-        <v>5.6800000000000003E-2</v>
-      </c>
-      <c r="C33" s="66">
-        <v>9.0200000000000002E-2</v>
-      </c>
-      <c r="D33" s="66">
-        <v>9.9699999999999997E-2</v>
-      </c>
-      <c r="E33" s="66">
-        <v>0.1206</v>
-      </c>
-      <c r="F33" s="66">
-        <v>0.14680000000000001</v>
-      </c>
-      <c r="G33" s="66">
-        <v>0.24049999999999999</v>
-      </c>
-      <c r="H33" s="66">
-        <v>0.30220000000000002</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A34" s="66" t="s">
-        <v>137</v>
-      </c>
-      <c r="B34" s="66">
-        <v>6.13E-2</v>
-      </c>
-      <c r="C34" s="66">
-        <v>0.15129999999999999</v>
-      </c>
-      <c r="D34" s="66">
-        <v>0.17130000000000001</v>
-      </c>
-      <c r="E34" s="66">
-        <v>0.2044</v>
-      </c>
-      <c r="F34" s="66">
-        <v>0.2641</v>
-      </c>
-      <c r="G34" s="66">
-        <v>0.38129999999999997</v>
-      </c>
-      <c r="H34" s="66">
-        <v>0.47370000000000001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A35" s="66" t="s">
-        <v>138</v>
-      </c>
-      <c r="B35" s="66">
+      <c r="B35" s="39">
         <v>5.7599999999999998E-2</v>
       </c>
-      <c r="C35" s="66">
+      <c r="C35" s="39">
         <v>0.1477</v>
       </c>
-      <c r="D35" s="66">
+      <c r="D35" s="39">
         <v>0.17660000000000001</v>
       </c>
-      <c r="E35" s="66">
+      <c r="E35" s="39">
         <v>0.28939999999999999</v>
       </c>
-      <c r="F35" s="66">
+      <c r="F35" s="39">
         <v>0.4214</v>
       </c>
-      <c r="G35" s="66">
+      <c r="G35" s="39">
         <v>0.48470000000000002</v>
       </c>
-      <c r="H35" s="66">
+      <c r="H35" s="39">
         <v>0.52010000000000001</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
     <mergeCell ref="B21:G21"/>
     <mergeCell ref="B29:G29"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4592,8 +4724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2687A086-E6AD-4DC9-8E6D-5E9AEFD1DED8}">
   <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -4607,12 +4739,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="57"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="69"/>
       <c r="E1" s="5" t="s">
         <v>47</v>
       </c>
@@ -4635,7 +4767,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="53" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -4649,7 +4781,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="47"/>
+      <c r="A4" s="54"/>
       <c r="B4" s="4" t="s">
         <v>63</v>
       </c>
@@ -4661,7 +4793,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="53" t="s">
         <v>22</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -4675,7 +4807,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="47"/>
+      <c r="A6" s="54"/>
       <c r="B6" s="4" t="s">
         <v>63</v>
       </c>
@@ -4687,7 +4819,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="53" t="s">
         <v>23</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -4701,7 +4833,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="47"/>
+      <c r="A8" s="54"/>
       <c r="B8" s="4" t="s">
         <v>63</v>
       </c>
@@ -4722,13 +4854,13 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="55" t="s">
+      <c r="A10" s="67" t="s">
         <v>60</v>
       </c>
-      <c r="B10" s="56"/>
-      <c r="C10" s="56"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="57"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="69"/>
       <c r="F10" s="33" t="s">
         <v>83</v>
       </c>
@@ -4754,7 +4886,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="46" t="s">
+      <c r="A12" s="53" t="s">
         <v>21</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -4775,7 +4907,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A13" s="47"/>
+      <c r="A13" s="54"/>
       <c r="B13" s="4" t="s">
         <v>58</v>
       </c>
@@ -4798,7 +4930,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="46" t="s">
+      <c r="A14" s="53" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -4819,7 +4951,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A15" s="47"/>
+      <c r="A15" s="54"/>
       <c r="B15" s="4" t="s">
         <v>58</v>
       </c>
@@ -4842,7 +4974,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A16" s="46" t="s">
+      <c r="A16" s="53" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -4863,7 +4995,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A17" s="47"/>
+      <c r="A17" s="54"/>
       <c r="B17" s="4" t="s">
         <v>58</v>
       </c>
@@ -4886,13 +5018,13 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A19" s="55" t="s">
+      <c r="A19" s="67" t="s">
         <v>61</v>
       </c>
-      <c r="B19" s="56"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="57"/>
+      <c r="B19" s="68"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="69"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A20" s="16" t="s">
@@ -4912,7 +5044,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A21" s="46" t="s">
+      <c r="A21" s="53" t="s">
         <v>21</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -4934,7 +5066,7 @@
       <c r="H21" s="5"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A22" s="47"/>
+      <c r="A22" s="54"/>
       <c r="B22" s="4" t="s">
         <v>58</v>
       </c>
@@ -4958,7 +5090,7 @@
       <c r="H22" s="5"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A23" s="46" t="s">
+      <c r="A23" s="53" t="s">
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
@@ -4979,7 +5111,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A24" s="47"/>
+      <c r="A24" s="54"/>
       <c r="B24" s="4" t="s">
         <v>58</v>
       </c>
@@ -5002,7 +5134,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A25" s="46" t="s">
+      <c r="A25" s="53" t="s">
         <v>23</v>
       </c>
       <c r="B25" s="4" t="s">
@@ -5023,7 +5155,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A26" s="47"/>
+      <c r="A26" s="54"/>
       <c r="B26" s="4" t="s">
         <v>58</v>
       </c>
@@ -5064,10 +5196,10 @@
       <c r="D31" s="24"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A32" s="62" t="s">
+      <c r="A32" s="74" t="s">
         <v>78</v>
       </c>
-      <c r="B32" s="63"/>
+      <c r="B32" s="75"/>
       <c r="C32" s="16" t="s">
         <v>71</v>
       </c>
@@ -5079,7 +5211,7 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A33" s="58" t="s">
+      <c r="A33" s="70" t="s">
         <v>21</v>
       </c>
       <c r="B33" s="20" t="s">
@@ -5093,7 +5225,7 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A34" s="59"/>
+      <c r="A34" s="71"/>
       <c r="B34" s="20" t="s">
         <v>76</v>
       </c>
@@ -5119,7 +5251,7 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A35" s="60" t="s">
+      <c r="A35" s="72" t="s">
         <v>22</v>
       </c>
       <c r="B35" s="22" t="s">
@@ -5135,7 +5267,7 @@
       <c r="H35" s="2"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A36" s="61"/>
+      <c r="A36" s="73"/>
       <c r="B36" s="22" t="s">
         <v>76</v>
       </c>
@@ -5161,7 +5293,7 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A37" s="58" t="s">
+      <c r="A37" s="70" t="s">
         <v>23</v>
       </c>
       <c r="B37" s="20" t="s">
@@ -5177,7 +5309,7 @@
       <c r="H37" s="2"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A38" s="59"/>
+      <c r="A38" s="71"/>
       <c r="B38" s="20" t="s">
         <v>76</v>
       </c>
@@ -5221,10 +5353,10 @@
       <c r="H40" s="2"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A41" s="64" t="s">
+      <c r="A41" s="76" t="s">
         <v>78</v>
       </c>
-      <c r="B41" s="65"/>
+      <c r="B41" s="77"/>
       <c r="C41" s="21" t="s">
         <v>71</v>
       </c>
@@ -5235,7 +5367,7 @@
       <c r="H41" s="2"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A42" s="58" t="s">
+      <c r="A42" s="70" t="s">
         <v>21</v>
       </c>
       <c r="B42" s="20" t="s">
@@ -5251,7 +5383,7 @@
       <c r="H42" s="2"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A43" s="59"/>
+      <c r="A43" s="71"/>
       <c r="B43" s="20" t="s">
         <v>76</v>
       </c>
@@ -5277,7 +5409,7 @@
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A44" s="60" t="s">
+      <c r="A44" s="72" t="s">
         <v>22</v>
       </c>
       <c r="B44" s="22" t="s">
@@ -5293,7 +5425,7 @@
       <c r="H44" s="2"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A45" s="61"/>
+      <c r="A45" s="73"/>
       <c r="B45" s="22" t="s">
         <v>76</v>
       </c>
@@ -5319,7 +5451,7 @@
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A46" s="58" t="s">
+      <c r="A46" s="70" t="s">
         <v>23</v>
       </c>
       <c r="B46" s="20" t="s">
@@ -5335,7 +5467,7 @@
       <c r="H46" s="2"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A47" s="59"/>
+      <c r="A47" s="71"/>
       <c r="B47" s="20" t="s">
         <v>76</v>
       </c>

--- a/dataAnalysis.xlsx
+++ b/dataAnalysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\botImpact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CF089A3-37B7-4C3B-999A-BE4F91B19173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF2745EE-3DDE-46CD-870A-8CBF5A6A9556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="18192" windowHeight="11592" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="184">
   <si>
     <t>Node Degree</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2178,6 +2178,493 @@
   </si>
   <si>
     <t>5.4.1 Homophily Influence βZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.4.2 Homophily Link βZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AveNeiZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.56</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.65</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.71</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.87</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.95</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5.4.3 Bot vs Human Impact βH</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="161"/>
+      </rPr>
+      <t>βB</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Adv eATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(2, 1): -1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(βH, βB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="161"/>
+      </rPr>
+      <t>τ</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(βH, βB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>τ</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1.5, 1.5): 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(2.5, 0.5): -2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1, 2): 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(0.5, 2.5): 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Naïve T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Adv T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Navie C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Adv C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Bot</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>比</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Human</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>影响大时，增大</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Generator</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的维数，可以帮助更好地学习，解决</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>treat/control</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>都降低的问题</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柱状图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bias</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>折线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>说明不管是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Bot</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>还是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Human</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>影响大，我们的方法都适用</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.5.1 Adversarial Training</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mask_homo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.75</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>mask</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>过多可能会破坏原有网络结构，造成不合理的反事实</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>set mask=0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>bot&gt;user</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ljg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的值不能太大</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>mask</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>过少可能也会有影响？但是这里看不了，因为会导致没有对应cf中的treat/control</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>本研究不汇报此内容，因为预测</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和预测</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+        <charset val="161"/>
+      </rPr>
+      <t>τ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>其实是两个任务（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>future research</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2189,7 +2676,7 @@
     <numFmt numFmtId="176" formatCode="0.0000_ "/>
     <numFmt numFmtId="177" formatCode="0.0000_);[Red]\(0.0000\)"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2348,6 +2835,34 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="161"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="161"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="1"/>
+      <charset val="161"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="6"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -2483,7 +2998,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2606,6 +3121,10 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="21" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="26" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2657,18 +3176,6 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2702,7 +3209,17 @@
     <xf numFmtId="177" fontId="2" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2997,7 +3514,7 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -3011,38 +3528,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="58"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="62"/>
       <c r="D1" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="48" t="s">
+      <c r="E1" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="50"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="54"/>
       <c r="J1" s="38" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="61"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="65"/>
       <c r="D2" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="51" t="s">
+      <c r="E2" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="F2" s="52"/>
+      <c r="F2" s="56"/>
       <c r="G2" s="3" t="s">
         <v>30</v>
       </c>
@@ -3066,7 +3583,7 @@
       <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="53" t="s">
+      <c r="E3" s="57" t="s">
         <v>21</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -3075,10 +3592,10 @@
       <c r="G3" s="37">
         <v>0.60419999999999996</v>
       </c>
-      <c r="H3" s="46">
+      <c r="H3" s="50">
         <v>1.4500999999999999</v>
       </c>
-      <c r="I3" s="46">
+      <c r="I3" s="50">
         <v>0.14699999999999999</v>
       </c>
       <c r="J3" s="38" t="s">
@@ -3098,15 +3615,15 @@
       <c r="D4" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="54"/>
+      <c r="E4" s="58"/>
       <c r="F4" s="2" t="s">
         <v>95</v>
       </c>
       <c r="G4" s="2">
         <v>0.59640000000000004</v>
       </c>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
       <c r="J4" s="38" t="s">
         <v>107</v>
       </c>
@@ -3124,7 +3641,7 @@
       <c r="D5" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="E5" s="53" t="s">
+      <c r="E5" s="57" t="s">
         <v>22</v>
       </c>
       <c r="F5" s="2" t="s">
@@ -3133,31 +3650,31 @@
       <c r="G5" s="37">
         <v>0.58009999999999995</v>
       </c>
-      <c r="H5" s="46">
+      <c r="H5" s="50">
         <v>-0.46650000000000003</v>
       </c>
-      <c r="I5" s="46">
+      <c r="I5" s="50">
         <v>0.64090000000000003</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="60"/>
-      <c r="C6" s="61"/>
-      <c r="E6" s="54"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="65"/>
+      <c r="E6" s="58"/>
       <c r="F6" s="2" t="s">
         <v>95</v>
       </c>
       <c r="G6" s="2">
         <v>0.58389999999999997</v>
       </c>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A7" s="55" t="s">
+      <c r="A7" s="59" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -3166,7 +3683,7 @@
       <c r="C7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="53" t="s">
+      <c r="E7" s="57" t="s">
         <v>23</v>
       </c>
       <c r="F7" s="2" t="s">
@@ -3175,36 +3692,36 @@
       <c r="G7" s="37">
         <v>0.5393</v>
       </c>
-      <c r="H7" s="46">
+      <c r="H7" s="50">
         <v>-1.7504</v>
       </c>
-      <c r="I7" s="46">
+      <c r="I7" s="50">
         <v>8.0100000000000005E-2</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A8" s="54"/>
+      <c r="A8" s="58"/>
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="54"/>
+      <c r="E8" s="58"/>
       <c r="F8" s="2" t="s">
         <v>95</v>
       </c>
       <c r="G8" s="2">
         <v>0.55649999999999999</v>
       </c>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="E9" s="51" t="s">
+      <c r="E9" s="55" t="s">
         <v>91</v>
       </c>
-      <c r="F9" s="52"/>
+      <c r="F9" s="56"/>
       <c r="G9" s="3" t="s">
         <v>25</v>
       </c>
@@ -3216,12 +3733,12 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A10" s="56" t="s">
+      <c r="A10" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="57"/>
-      <c r="C10" s="58"/>
-      <c r="E10" s="53" t="s">
+      <c r="B10" s="61"/>
+      <c r="C10" s="62"/>
+      <c r="E10" s="57" t="s">
         <v>21</v>
       </c>
       <c r="F10" s="2" t="s">
@@ -3230,10 +3747,10 @@
       <c r="G10" s="36">
         <v>0.82099999999999995</v>
       </c>
-      <c r="H10" s="46">
+      <c r="H10" s="50">
         <v>23.857700000000001</v>
       </c>
-      <c r="I10" s="46" t="s">
+      <c r="I10" s="50" t="s">
         <v>26</v>
       </c>
       <c r="J10" s="38" t="s">
@@ -3241,20 +3758,20 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A11" s="59" t="s">
+      <c r="A11" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="60"/>
-      <c r="C11" s="61"/>
-      <c r="E11" s="54"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="65"/>
+      <c r="E11" s="58"/>
       <c r="F11" s="2" t="s">
         <v>95</v>
       </c>
       <c r="G11" s="2">
         <v>0.74229999999999996</v>
       </c>
-      <c r="H11" s="47"/>
-      <c r="I11" s="47"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="51"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A12" s="1" t="s">
@@ -3266,7 +3783,7 @@
       <c r="C12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="53" t="s">
+      <c r="E12" s="57" t="s">
         <v>22</v>
       </c>
       <c r="F12" s="2" t="s">
@@ -3275,10 +3792,10 @@
       <c r="G12" s="36">
         <v>0.83950000000000002</v>
       </c>
-      <c r="H12" s="46">
+      <c r="H12" s="50">
         <v>20.513400000000001</v>
       </c>
-      <c r="I12" s="46" t="s">
+      <c r="I12" s="50" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3292,15 +3809,15 @@
       <c r="C13" s="2">
         <v>5.0496999999999996</v>
       </c>
-      <c r="E13" s="54"/>
+      <c r="E13" s="58"/>
       <c r="F13" s="2" t="s">
         <v>95</v>
       </c>
       <c r="G13" s="2">
         <v>0.73529999999999995</v>
       </c>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A14" s="2" t="s">
@@ -3312,7 +3829,7 @@
       <c r="C14" s="2">
         <v>5.5609000000000002</v>
       </c>
-      <c r="E14" s="53" t="s">
+      <c r="E14" s="57" t="s">
         <v>23</v>
       </c>
       <c r="F14" s="2" t="s">
@@ -3321,31 +3838,31 @@
       <c r="G14" s="36">
         <v>0.78539999999999999</v>
       </c>
-      <c r="H14" s="46">
+      <c r="H14" s="50">
         <v>16.601400000000002</v>
       </c>
-      <c r="I14" s="46" t="s">
+      <c r="I14" s="50" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A15" s="59" t="s">
+      <c r="A15" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="60"/>
-      <c r="C15" s="61"/>
-      <c r="E15" s="54"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="65"/>
+      <c r="E15" s="58"/>
       <c r="F15" s="2" t="s">
         <v>95</v>
       </c>
       <c r="G15" s="2">
         <v>0.67610000000000003</v>
       </c>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A16" s="55" t="s">
+      <c r="A16" s="59" t="s">
         <v>7</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -3359,7 +3876,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A17" s="54"/>
+      <c r="A17" s="58"/>
       <c r="B17" s="2" t="s">
         <v>13</v>
       </c>
@@ -3371,27 +3888,27 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="E18" s="48" t="s">
+      <c r="E18" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="50"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="54"/>
       <c r="J18" s="35" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A19" s="56" t="s">
+      <c r="A19" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="B19" s="57"/>
-      <c r="C19" s="58"/>
-      <c r="E19" s="51" t="s">
+      <c r="B19" s="61"/>
+      <c r="C19" s="62"/>
+      <c r="E19" s="55" t="s">
         <v>90</v>
       </c>
-      <c r="F19" s="52"/>
+      <c r="F19" s="56"/>
       <c r="G19" s="3" t="s">
         <v>30</v>
       </c>
@@ -3403,12 +3920,12 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A20" s="59" t="s">
+      <c r="A20" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="60"/>
-      <c r="C20" s="61"/>
-      <c r="E20" s="53" t="s">
+      <c r="B20" s="64"/>
+      <c r="C20" s="65"/>
+      <c r="E20" s="57" t="s">
         <v>21</v>
       </c>
       <c r="F20" s="2" t="s">
@@ -3417,10 +3934,10 @@
       <c r="G20" s="37">
         <v>0.60419999999999996</v>
       </c>
-      <c r="H20" s="46">
+      <c r="H20" s="50">
         <v>6.7031000000000001</v>
       </c>
-      <c r="I20" s="46" t="s">
+      <c r="I20" s="50" t="s">
         <v>24</v>
       </c>
       <c r="J20" s="38" t="s">
@@ -3437,15 +3954,15 @@
       <c r="C21" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="54"/>
+      <c r="E21" s="58"/>
       <c r="F21" s="2" t="s">
         <v>87</v>
       </c>
       <c r="G21" s="2">
         <v>0.56520000000000004</v>
       </c>
-      <c r="H21" s="47"/>
-      <c r="I21" s="47"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="51"/>
       <c r="J21" s="35" t="s">
         <v>101</v>
       </c>
@@ -3460,7 +3977,7 @@
       <c r="C22" s="2">
         <v>6.4598000000000004</v>
       </c>
-      <c r="E22" s="53" t="s">
+      <c r="E22" s="57" t="s">
         <v>22</v>
       </c>
       <c r="F22" s="2" t="s">
@@ -3469,10 +3986,10 @@
       <c r="G22" s="37">
         <v>0.58009999999999995</v>
       </c>
-      <c r="H22" s="46">
+      <c r="H22" s="50">
         <v>2.8894000000000002</v>
       </c>
-      <c r="I22" s="46">
+      <c r="I22" s="50">
         <v>3.8999999999999998E-3</v>
       </c>
     </row>
@@ -3486,23 +4003,23 @@
       <c r="C23" s="2">
         <v>5.1597</v>
       </c>
-      <c r="E23" s="54"/>
+      <c r="E23" s="58"/>
       <c r="F23" s="2" t="s">
         <v>87</v>
       </c>
       <c r="G23" s="2">
         <v>0.5534</v>
       </c>
-      <c r="H23" s="47"/>
-      <c r="I23" s="47"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="51"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A24" s="59" t="s">
+      <c r="A24" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="60"/>
-      <c r="C24" s="61"/>
-      <c r="E24" s="53" t="s">
+      <c r="B24" s="64"/>
+      <c r="C24" s="65"/>
+      <c r="E24" s="57" t="s">
         <v>23</v>
       </c>
       <c r="F24" s="2" t="s">
@@ -3511,10 +4028,10 @@
       <c r="G24" s="37">
         <v>0.5393</v>
       </c>
-      <c r="H24" s="46">
+      <c r="H24" s="50">
         <v>1.6584000000000001</v>
       </c>
-      <c r="I24" s="46">
+      <c r="I24" s="50">
         <v>9.7299999999999998E-2</v>
       </c>
       <c r="J24" s="38" t="s">
@@ -3522,7 +4039,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A25" s="55" t="s">
+      <c r="A25" s="59" t="s">
         <v>7</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -3531,28 +4048,28 @@
       <c r="C25" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E25" s="54"/>
+      <c r="E25" s="58"/>
       <c r="F25" s="2" t="s">
         <v>87</v>
       </c>
       <c r="G25" s="2">
         <v>0.52139999999999997</v>
       </c>
-      <c r="H25" s="47"/>
-      <c r="I25" s="47"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="51"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A26" s="54"/>
+      <c r="A26" s="58"/>
       <c r="B26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E26" s="51" t="s">
+      <c r="E26" s="55" t="s">
         <v>89</v>
       </c>
-      <c r="F26" s="52"/>
+      <c r="F26" s="56"/>
       <c r="G26" s="3" t="s">
         <v>25</v>
       </c>
@@ -3564,7 +4081,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="E27" s="53" t="s">
+      <c r="E27" s="57" t="s">
         <v>21</v>
       </c>
       <c r="F27" s="2" t="s">
@@ -3573,10 +4090,10 @@
       <c r="G27" s="36">
         <v>0.82099999999999995</v>
       </c>
-      <c r="H27" s="46">
+      <c r="H27" s="50">
         <v>33.133299999999998</v>
       </c>
-      <c r="I27" s="46" t="s">
+      <c r="I27" s="50" t="s">
         <v>97</v>
       </c>
       <c r="J27" s="38" t="s">
@@ -3584,21 +4101,21 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="E28" s="54"/>
+      <c r="E28" s="58"/>
       <c r="F28" s="2" t="s">
         <v>87</v>
       </c>
       <c r="G28" s="2">
         <v>0.70599999999999996</v>
       </c>
-      <c r="H28" s="47"/>
-      <c r="I28" s="47"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="51"/>
       <c r="J28" s="38" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="E29" s="53" t="s">
+      <c r="E29" s="57" t="s">
         <v>22</v>
       </c>
       <c r="F29" s="2" t="s">
@@ -3607,26 +4124,26 @@
       <c r="G29" s="36">
         <v>0.83950000000000002</v>
       </c>
-      <c r="H29" s="46">
+      <c r="H29" s="50">
         <v>24.9849</v>
       </c>
-      <c r="I29" s="46" t="s">
+      <c r="I29" s="50" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="E30" s="54"/>
+      <c r="E30" s="58"/>
       <c r="F30" s="2" t="s">
         <v>87</v>
       </c>
       <c r="G30" s="2">
         <v>0.70609999999999995</v>
       </c>
-      <c r="H30" s="47"/>
-      <c r="I30" s="47"/>
+      <c r="H30" s="51"/>
+      <c r="I30" s="51"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="E31" s="53" t="s">
+      <c r="E31" s="57" t="s">
         <v>23</v>
       </c>
       <c r="F31" s="2" t="s">
@@ -3635,23 +4152,23 @@
       <c r="G31" s="36">
         <v>0.78539999999999999</v>
       </c>
-      <c r="H31" s="46">
+      <c r="H31" s="50">
         <v>21.385400000000001</v>
       </c>
-      <c r="I31" s="46" t="s">
+      <c r="I31" s="50" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="E32" s="54"/>
+      <c r="E32" s="58"/>
       <c r="F32" s="2" t="s">
         <v>87</v>
       </c>
       <c r="G32" s="2">
         <v>0.63849999999999996</v>
       </c>
-      <c r="H32" s="47"/>
-      <c r="I32" s="47"/>
+      <c r="H32" s="51"/>
+      <c r="I32" s="51"/>
     </row>
     <row r="33" spans="5:5" x14ac:dyDescent="0.5">
       <c r="E33" s="35" t="s">
@@ -3723,10 +4240,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B78CFA9F-73ED-424A-9027-1A5D5AB10FF2}">
-  <dimension ref="A1:L35"/>
+  <dimension ref="A1:L85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="G91" sqref="G91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -3739,26 +4256,26 @@
       <c r="A1" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="66" t="s">
         <v>109</v>
       </c>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62" t="s">
+      <c r="C1" s="66"/>
+      <c r="D1" s="66" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62" t="s">
+      <c r="E1" s="66"/>
+      <c r="F1" s="66" t="s">
         <v>111</v>
       </c>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62" t="s">
+      <c r="G1" s="66"/>
+      <c r="H1" s="66" t="s">
         <v>112</v>
       </c>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62" t="s">
+      <c r="I1" s="66"/>
+      <c r="J1" s="66" t="s">
         <v>113</v>
       </c>
-      <c r="K1" s="62"/>
+      <c r="K1" s="66"/>
       <c r="L1" s="39" t="s">
         <v>124</v>
       </c>
@@ -3796,6 +4313,9 @@
       </c>
       <c r="K2" s="39" t="s">
         <v>116</v>
+      </c>
+      <c r="L2" s="39" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.5">
@@ -4346,14 +4866,15 @@
       <c r="A21" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="B21" s="51" t="s">
+      <c r="B21" s="78" t="s">
         <v>109</v>
       </c>
-      <c r="C21" s="63"/>
-      <c r="D21" s="63"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="63"/>
-      <c r="G21" s="52"/>
+      <c r="C21" s="78"/>
+      <c r="D21" s="78"/>
+      <c r="E21" s="78"/>
+      <c r="F21" s="78"/>
+      <c r="G21" s="78"/>
+      <c r="H21" s="78"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A22" s="39" t="s">
@@ -4523,7 +5044,7 @@
       <c r="H27" s="39">
         <v>0.49890000000000001</v>
       </c>
-      <c r="I27" s="78" t="s">
+      <c r="I27" s="46" t="s">
         <v>143</v>
       </c>
     </row>
@@ -4531,14 +5052,15 @@
       <c r="A29" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="B29" s="64" t="s">
+      <c r="B29" s="66" t="s">
         <v>111</v>
       </c>
-      <c r="C29" s="65"/>
-      <c r="D29" s="65"/>
-      <c r="E29" s="65"/>
-      <c r="F29" s="65"/>
+      <c r="C29" s="66"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="66"/>
+      <c r="F29" s="66"/>
       <c r="G29" s="66"/>
+      <c r="H29" s="66"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A30" s="39" t="s">
@@ -4623,7 +5145,7 @@
         <v>0.27400000000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A33" s="39" t="s">
         <v>131</v>
       </c>
@@ -4652,7 +5174,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A34" s="39" t="s">
         <v>137</v>
       </c>
@@ -4678,7 +5200,7 @@
         <v>0.47370000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A35" s="39" t="s">
         <v>138</v>
       </c>
@@ -4704,15 +5226,905 @@
         <v>0.52010000000000001</v>
       </c>
     </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A37" s="42" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A38" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="B38" s="78" t="s">
+        <v>109</v>
+      </c>
+      <c r="C38" s="78"/>
+      <c r="D38" s="78"/>
+      <c r="E38" s="78"/>
+      <c r="F38" s="78"/>
+      <c r="G38" s="78"/>
+      <c r="H38" s="79"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A39" s="39" t="s">
+        <v>146</v>
+      </c>
+      <c r="B39" s="43" t="s">
+        <v>147</v>
+      </c>
+      <c r="C39" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="D39" s="43" t="s">
+        <v>149</v>
+      </c>
+      <c r="E39" s="43" t="s">
+        <v>150</v>
+      </c>
+      <c r="F39" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="G39" s="43" t="s">
+        <v>152</v>
+      </c>
+      <c r="H39" s="43"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A40" s="44" t="s">
+        <v>129</v>
+      </c>
+      <c r="B40" s="44">
+        <v>0.107</v>
+      </c>
+      <c r="C40" s="44">
+        <v>0.25209999999999999</v>
+      </c>
+      <c r="D40" s="44">
+        <v>0.38419999999999999</v>
+      </c>
+      <c r="E40" s="44">
+        <v>0.4738</v>
+      </c>
+      <c r="F40" s="44">
+        <v>0.62670000000000003</v>
+      </c>
+      <c r="G40" s="44">
+        <v>0.82750000000000001</v>
+      </c>
+      <c r="H40" s="15" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A41" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="B41" s="44">
+        <v>4.82E-2</v>
+      </c>
+      <c r="C41" s="44">
+        <v>6.2799999999999995E-2</v>
+      </c>
+      <c r="D41" s="44">
+        <v>7.6399999999999996E-2</v>
+      </c>
+      <c r="E41" s="44">
+        <v>8.0500000000000002E-2</v>
+      </c>
+      <c r="F41" s="44">
+        <v>0.1144</v>
+      </c>
+      <c r="G41" s="44">
+        <v>0.17530000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A42" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="B42" s="39">
+        <v>5.5599999999999997E-2</v>
+      </c>
+      <c r="C42" s="39">
+        <v>7.4099999999999999E-2</v>
+      </c>
+      <c r="D42" s="39">
+        <v>8.0600000000000005E-2</v>
+      </c>
+      <c r="E42" s="39">
+        <v>8.3599999999999994E-2</v>
+      </c>
+      <c r="F42" s="39">
+        <v>0.1198</v>
+      </c>
+      <c r="G42" s="39">
+        <v>0.18110000000000001</v>
+      </c>
+      <c r="H42" s="15" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A43" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="B43" s="39">
+        <v>7.7799999999999994E-2</v>
+      </c>
+      <c r="C43" s="39">
+        <v>0.1449</v>
+      </c>
+      <c r="D43" s="39">
+        <v>0.157</v>
+      </c>
+      <c r="E43" s="39">
+        <v>0.1744</v>
+      </c>
+      <c r="F43" s="39">
+        <v>0.2104</v>
+      </c>
+      <c r="G43" s="39">
+        <v>0.27810000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A44" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="B44" s="39">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="C44" s="39">
+        <v>0.1817</v>
+      </c>
+      <c r="D44" s="39">
+        <v>0.20050000000000001</v>
+      </c>
+      <c r="E44" s="39">
+        <v>0.22470000000000001</v>
+      </c>
+      <c r="F44" s="39">
+        <v>0.29349999999999998</v>
+      </c>
+      <c r="G44" s="39">
+        <v>0.41320000000000001</v>
+      </c>
+      <c r="K44" s="42"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A46" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="B46" s="78" t="s">
+        <v>111</v>
+      </c>
+      <c r="C46" s="78"/>
+      <c r="D46" s="78"/>
+      <c r="E46" s="78"/>
+      <c r="F46" s="78"/>
+      <c r="G46" s="78"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A47" s="39" t="s">
+        <v>146</v>
+      </c>
+      <c r="B47" s="43" t="s">
+        <v>147</v>
+      </c>
+      <c r="C47" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="D47" s="43" t="s">
+        <v>149</v>
+      </c>
+      <c r="E47" s="43" t="s">
+        <v>150</v>
+      </c>
+      <c r="F47" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="G47" s="43" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A48" s="44" t="s">
+        <v>129</v>
+      </c>
+      <c r="B48" s="44">
+        <v>9.0499999999999997E-2</v>
+      </c>
+      <c r="C48" s="44">
+        <v>0.23330000000000001</v>
+      </c>
+      <c r="D48" s="44">
+        <v>0.3715</v>
+      </c>
+      <c r="E48" s="44">
+        <v>0.48770000000000002</v>
+      </c>
+      <c r="F48" s="44">
+        <v>0.66590000000000005</v>
+      </c>
+      <c r="G48" s="44">
+        <v>0.80779999999999996</v>
+      </c>
+      <c r="H48" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="J48" s="42"/>
+      <c r="K48" s="42"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A49" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="B49" s="44">
+        <v>5.7500000000000002E-2</v>
+      </c>
+      <c r="C49" s="44">
+        <v>6.2600000000000003E-2</v>
+      </c>
+      <c r="D49" s="44">
+        <v>7.2900000000000006E-2</v>
+      </c>
+      <c r="E49" s="44">
+        <v>8.8700000000000001E-2</v>
+      </c>
+      <c r="F49" s="44">
+        <v>0.121</v>
+      </c>
+      <c r="G49" s="44">
+        <v>0.1542</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A50" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="B50" s="39">
+        <v>6.6900000000000001E-2</v>
+      </c>
+      <c r="C50" s="39">
+        <v>7.3300000000000004E-2</v>
+      </c>
+      <c r="D50" s="39">
+        <v>7.8600000000000003E-2</v>
+      </c>
+      <c r="E50" s="39">
+        <v>8.9899999999999994E-2</v>
+      </c>
+      <c r="F50" s="39">
+        <v>0.12280000000000001</v>
+      </c>
+      <c r="G50" s="39">
+        <v>0.1555</v>
+      </c>
+      <c r="H50" s="15" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A51" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="B51" s="39">
+        <v>7.0900000000000005E-2</v>
+      </c>
+      <c r="C51" s="39">
+        <v>0.15090000000000001</v>
+      </c>
+      <c r="D51" s="39">
+        <v>0.15590000000000001</v>
+      </c>
+      <c r="E51" s="39">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="F51" s="39">
+        <v>0.20319999999999999</v>
+      </c>
+      <c r="G51" s="39">
+        <v>0.25290000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A52" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="B52" s="39">
+        <v>7.7100000000000002E-2</v>
+      </c>
+      <c r="C52" s="39">
+        <v>0.15290000000000001</v>
+      </c>
+      <c r="D52" s="39">
+        <v>0.15570000000000001</v>
+      </c>
+      <c r="E52" s="39">
+        <v>0.17849999999999999</v>
+      </c>
+      <c r="F52" s="39">
+        <v>0.3145</v>
+      </c>
+      <c r="G52" s="39">
+        <v>0.38819999999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="14.7" x14ac:dyDescent="0.5">
+      <c r="A54" s="42" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A55" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="B55" s="78" t="s">
+        <v>109</v>
+      </c>
+      <c r="C55" s="78"/>
+      <c r="D55" s="78"/>
+      <c r="E55" s="78"/>
+      <c r="F55" s="78"/>
+      <c r="G55" s="82" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="14.7" x14ac:dyDescent="0.5">
+      <c r="A56" s="39" t="s">
+        <v>156</v>
+      </c>
+      <c r="B56" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="C56" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="D56" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="E56" s="39" t="s">
+        <v>160</v>
+      </c>
+      <c r="F56" s="39" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" s="48" t="s">
+        <v>162</v>
+      </c>
+      <c r="B57" s="48">
+        <v>0.66139999999999999</v>
+      </c>
+      <c r="C57" s="48">
+        <v>1.1866000000000001</v>
+      </c>
+      <c r="D57" s="48">
+        <v>1.6840999999999999</v>
+      </c>
+      <c r="E57" s="48">
+        <v>2.1871999999999998</v>
+      </c>
+      <c r="F57" s="48">
+        <v>2.6762000000000001</v>
+      </c>
+      <c r="G57" s="46" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A58" s="48" t="s">
+        <v>163</v>
+      </c>
+      <c r="B58" s="48">
+        <v>0.66710000000000003</v>
+      </c>
+      <c r="C58" s="48">
+        <v>1.2250000000000001</v>
+      </c>
+      <c r="D58" s="48">
+        <v>1.7150000000000001</v>
+      </c>
+      <c r="E58" s="48">
+        <v>2.2951999999999999</v>
+      </c>
+      <c r="F58" s="48">
+        <v>2.7707000000000002</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A59" s="48" t="s">
+        <v>164</v>
+      </c>
+      <c r="B59" s="48">
+        <v>3.1827000000000001</v>
+      </c>
+      <c r="C59" s="48">
+        <v>2.7292999999999998</v>
+      </c>
+      <c r="D59" s="48">
+        <v>2.1913</v>
+      </c>
+      <c r="E59" s="48">
+        <v>1.6611</v>
+      </c>
+      <c r="F59" s="48">
+        <v>1.1574</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A60" s="48" t="s">
+        <v>165</v>
+      </c>
+      <c r="B60" s="48">
+        <v>2.5539999999999998</v>
+      </c>
+      <c r="C60" s="48">
+        <v>2.3184999999999998</v>
+      </c>
+      <c r="D60" s="48">
+        <v>1.8012999999999999</v>
+      </c>
+      <c r="E60" s="48">
+        <v>1.4141999999999999</v>
+      </c>
+      <c r="F60" s="48">
+        <v>0.89959999999999996</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A61" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="B61" s="39">
+        <v>0.11310000000000001</v>
+      </c>
+      <c r="C61" s="39">
+        <v>9.35E-2</v>
+      </c>
+      <c r="D61" s="39">
+        <v>8.6300000000000002E-2</v>
+      </c>
+      <c r="E61" s="39">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="F61" s="39">
+        <v>0.12889999999999999</v>
+      </c>
+      <c r="G61" s="15" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A62" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="B62" s="39">
+        <v>0.1177</v>
+      </c>
+      <c r="C62" s="39">
+        <v>0.1132</v>
+      </c>
+      <c r="D62" s="39">
+        <v>8.9899999999999994E-2</v>
+      </c>
+      <c r="E62" s="39">
+        <v>0.12330000000000001</v>
+      </c>
+      <c r="F62" s="39">
+        <v>0.1308</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="14.7" x14ac:dyDescent="0.5">
+      <c r="A63" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="B63" s="39">
+        <v>0.52129999999999999</v>
+      </c>
+      <c r="C63" s="39">
+        <v>0.54269999999999996</v>
+      </c>
+      <c r="D63" s="39">
+        <v>0.50719999999999998</v>
+      </c>
+      <c r="E63" s="39">
+        <v>0.47389999999999999</v>
+      </c>
+      <c r="F63" s="39">
+        <v>0.48120000000000002</v>
+      </c>
+      <c r="G63" s="49" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A65" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="B65" s="78" t="s">
+        <v>111</v>
+      </c>
+      <c r="C65" s="78"/>
+      <c r="D65" s="78"/>
+      <c r="E65" s="78"/>
+      <c r="F65" s="78"/>
+      <c r="G65" s="79"/>
+    </row>
+    <row r="66" spans="1:8" ht="14.7" x14ac:dyDescent="0.5">
+      <c r="A66" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="B66" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="C66" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="D66" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="E66" s="39" t="s">
+        <v>160</v>
+      </c>
+      <c r="F66" s="39" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67" s="48" t="s">
+        <v>162</v>
+      </c>
+      <c r="B67" s="48">
+        <v>0.6502</v>
+      </c>
+      <c r="C67" s="48">
+        <v>1.1700999999999999</v>
+      </c>
+      <c r="D67" s="48">
+        <v>1.6665000000000001</v>
+      </c>
+      <c r="E67" s="48">
+        <v>2.1697000000000002</v>
+      </c>
+      <c r="F67" s="48">
+        <v>2.6669</v>
+      </c>
+      <c r="G67" s="46" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A68" s="48" t="s">
+        <v>163</v>
+      </c>
+      <c r="B68" s="48">
+        <v>0.67120000000000002</v>
+      </c>
+      <c r="C68" s="48">
+        <v>1.2824</v>
+      </c>
+      <c r="D68" s="48">
+        <v>1.7014</v>
+      </c>
+      <c r="E68" s="48">
+        <v>2.3450000000000002</v>
+      </c>
+      <c r="F68" s="48">
+        <v>2.8260999999999998</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A69" s="48" t="s">
+        <v>164</v>
+      </c>
+      <c r="B69" s="48">
+        <v>3.1842000000000001</v>
+      </c>
+      <c r="C69" s="48">
+        <v>2.6978</v>
+      </c>
+      <c r="D69" s="48">
+        <v>2.1915</v>
+      </c>
+      <c r="E69" s="48">
+        <v>1.6838</v>
+      </c>
+      <c r="F69" s="48">
+        <v>1.1996</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A70" s="48" t="s">
+        <v>165</v>
+      </c>
+      <c r="B70" s="48">
+        <v>2.7669000000000001</v>
+      </c>
+      <c r="C70" s="48">
+        <v>2.2968999999999999</v>
+      </c>
+      <c r="D70" s="48">
+        <v>1.8028</v>
+      </c>
+      <c r="E70" s="48">
+        <v>1.4423999999999999</v>
+      </c>
+      <c r="F70" s="48">
+        <v>0.96409999999999996</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="14.7" x14ac:dyDescent="0.5">
+      <c r="A71" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="B71" s="39">
+        <v>9.5699999999999993E-2</v>
+      </c>
+      <c r="C71" s="39">
+        <v>8.5500000000000007E-2</v>
+      </c>
+      <c r="D71" s="39">
+        <v>0.1014</v>
+      </c>
+      <c r="E71" s="39">
+        <v>0.1203</v>
+      </c>
+      <c r="F71" s="39">
+        <v>0.1467</v>
+      </c>
+      <c r="G71" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="H71" s="39" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A72" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="B72" s="39">
+        <v>9.8100000000000007E-2</v>
+      </c>
+      <c r="C72" s="39">
+        <v>8.7900000000000006E-2</v>
+      </c>
+      <c r="D72" s="39">
+        <v>0.1036</v>
+      </c>
+      <c r="E72" s="39">
+        <v>0.12870000000000001</v>
+      </c>
+      <c r="F72" s="39">
+        <v>0.16819999999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="14.7" x14ac:dyDescent="0.5">
+      <c r="A73" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="B73" s="39">
+        <v>0.53400000000000003</v>
+      </c>
+      <c r="C73" s="39">
+        <v>0.52769999999999995</v>
+      </c>
+      <c r="D73" s="39">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="E73" s="39">
+        <v>0.5141</v>
+      </c>
+      <c r="F73" s="39">
+        <v>0.53269999999999995</v>
+      </c>
+      <c r="G73" s="49" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="14.7" x14ac:dyDescent="0.5">
+      <c r="A74" s="46" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="14.7" x14ac:dyDescent="0.5">
+      <c r="A75" s="47"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A76" s="42" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A77" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="B77" s="78" t="s">
+        <v>109</v>
+      </c>
+      <c r="C77" s="78"/>
+      <c r="D77" s="78"/>
+      <c r="E77" s="78"/>
+      <c r="F77" s="78"/>
+      <c r="G77" s="78"/>
+      <c r="H77" s="39" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A78" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="B78" s="80" t="s">
+        <v>176</v>
+      </c>
+      <c r="C78" s="43" t="s">
+        <v>175</v>
+      </c>
+      <c r="D78" s="43" t="s">
+        <v>177</v>
+      </c>
+      <c r="E78" s="43" t="s">
+        <v>173</v>
+      </c>
+      <c r="F78" s="43" t="s">
+        <v>178</v>
+      </c>
+      <c r="G78" s="43" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="14.7" x14ac:dyDescent="0.5">
+      <c r="A79" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="B79" s="81">
+        <v>8.9800000000000005E-2</v>
+      </c>
+      <c r="C79" s="39">
+        <v>9.3299999999999994E-2</v>
+      </c>
+      <c r="D79" s="39">
+        <v>9.2200000000000004E-2</v>
+      </c>
+      <c r="E79" s="39">
+        <v>9.1899999999999996E-2</v>
+      </c>
+      <c r="F79" s="39">
+        <v>0.10009999999999999</v>
+      </c>
+      <c r="G79" s="39">
+        <v>0.20349999999999999</v>
+      </c>
+      <c r="H79" s="39" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="14.7" x14ac:dyDescent="0.5">
+      <c r="A80" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="B80" s="81">
+        <v>0.10440000000000001</v>
+      </c>
+      <c r="C80" s="39">
+        <v>0.1106</v>
+      </c>
+      <c r="D80" s="39">
+        <v>0.1042</v>
+      </c>
+      <c r="E80" s="39">
+        <v>0.1018</v>
+      </c>
+      <c r="F80" s="39">
+        <v>0.1159</v>
+      </c>
+      <c r="G80" s="39">
+        <v>0.2044</v>
+      </c>
+      <c r="H80" s="39" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A82" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="B82" s="78" t="s">
+        <v>111</v>
+      </c>
+      <c r="C82" s="78"/>
+      <c r="D82" s="78"/>
+      <c r="E82" s="78"/>
+      <c r="F82" s="78"/>
+      <c r="G82" s="78"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A83" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="B83" s="80" t="s">
+        <v>176</v>
+      </c>
+      <c r="C83" s="43" t="s">
+        <v>175</v>
+      </c>
+      <c r="D83" s="43" t="s">
+        <v>177</v>
+      </c>
+      <c r="E83" s="43" t="s">
+        <v>173</v>
+      </c>
+      <c r="F83" s="43" t="s">
+        <v>178</v>
+      </c>
+      <c r="G83" s="43" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A84" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="B84" s="81">
+        <v>9.1300000000000006E-2</v>
+      </c>
+      <c r="C84" s="39">
+        <v>9.0499999999999997E-2</v>
+      </c>
+      <c r="D84" s="39">
+        <v>8.6699999999999999E-2</v>
+      </c>
+      <c r="E84" s="39">
+        <v>8.4199999999999997E-2</v>
+      </c>
+      <c r="F84" s="39">
+        <v>9.4100000000000003E-2</v>
+      </c>
+      <c r="G84" s="39">
+        <v>0.18709999999999999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A85" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="B85" s="81">
+        <v>9.2499999999999999E-2</v>
+      </c>
+      <c r="C85" s="39">
+        <v>9.11E-2</v>
+      </c>
+      <c r="D85" s="39">
+        <v>8.8200000000000001E-2</v>
+      </c>
+      <c r="E85" s="39">
+        <v>8.77E-2</v>
+      </c>
+      <c r="F85" s="39">
+        <v>9.6199999999999994E-2</v>
+      </c>
+      <c r="G85" s="39">
+        <v>0.189</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="13">
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B77:G77"/>
+    <mergeCell ref="B82:G82"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="J1:K1"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B29:G29"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="B46:G46"/>
+    <mergeCell ref="B55:F55"/>
+    <mergeCell ref="B65:F65"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4725,7 +6137,7 @@
   <dimension ref="A1:I48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -4767,7 +6179,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="57" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -4781,7 +6193,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="54"/>
+      <c r="A4" s="58"/>
       <c r="B4" s="4" t="s">
         <v>63</v>
       </c>
@@ -4793,7 +6205,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="57" t="s">
         <v>22</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -4807,7 +6219,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="54"/>
+      <c r="A6" s="58"/>
       <c r="B6" s="4" t="s">
         <v>63</v>
       </c>
@@ -4819,7 +6231,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="57" t="s">
         <v>23</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -4833,7 +6245,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="54"/>
+      <c r="A8" s="58"/>
       <c r="B8" s="4" t="s">
         <v>63</v>
       </c>
@@ -4886,7 +6298,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="53" t="s">
+      <c r="A12" s="57" t="s">
         <v>21</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -4907,7 +6319,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A13" s="54"/>
+      <c r="A13" s="58"/>
       <c r="B13" s="4" t="s">
         <v>58</v>
       </c>
@@ -4930,7 +6342,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="53" t="s">
+      <c r="A14" s="57" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -4951,7 +6363,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A15" s="54"/>
+      <c r="A15" s="58"/>
       <c r="B15" s="4" t="s">
         <v>58</v>
       </c>
@@ -4974,7 +6386,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A16" s="53" t="s">
+      <c r="A16" s="57" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -4995,7 +6407,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A17" s="54"/>
+      <c r="A17" s="58"/>
       <c r="B17" s="4" t="s">
         <v>58</v>
       </c>
@@ -5044,7 +6456,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A21" s="53" t="s">
+      <c r="A21" s="57" t="s">
         <v>21</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -5066,7 +6478,7 @@
       <c r="H21" s="5"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A22" s="54"/>
+      <c r="A22" s="58"/>
       <c r="B22" s="4" t="s">
         <v>58</v>
       </c>
@@ -5090,7 +6502,7 @@
       <c r="H22" s="5"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A23" s="53" t="s">
+      <c r="A23" s="57" t="s">
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
@@ -5111,7 +6523,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A24" s="54"/>
+      <c r="A24" s="58"/>
       <c r="B24" s="4" t="s">
         <v>58</v>
       </c>
@@ -5134,7 +6546,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A25" s="53" t="s">
+      <c r="A25" s="57" t="s">
         <v>23</v>
       </c>
       <c r="B25" s="4" t="s">
@@ -5155,7 +6567,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A26" s="54"/>
+      <c r="A26" s="58"/>
       <c r="B26" s="4" t="s">
         <v>58</v>
       </c>

--- a/dataAnalysis.xlsx
+++ b/dataAnalysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\botImpact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF543862-6A5D-4B4D-A205-A956C2E43712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3745AC1-778B-488A-B6CF-BF0FA0F45A20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="18192" windowHeight="11592" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="200">
   <si>
     <t>Node Degree</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -586,10 +586,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Homo Rank</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>150epoch</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2133,10 +2129,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Followers_μ(Opi)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>6.3.1 Opinions of Bot’s Followers</t>
   </si>
   <si>
@@ -2144,10 +2136,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>What Bot Impact the Largest?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Human With Bot Inf</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2505,6 +2493,121 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>直接比较</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Bot</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>比</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Human</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>影响大多少</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.3.3 Impact Difference</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inf Iden</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Followers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Following</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Membership</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mentioned</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Like</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pinned</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t>Pos</t>
     </r>
     <r>
@@ -2616,6 +2719,24 @@
       </rPr>
       <t>产生影响</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Human With Human Inf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Human Without Human Inf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Will Human Influenced by Human Influencers? (Without controlling homophily)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Pos</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -2624,7 +2745,7 @@
         <family val="1"/>
         <charset val="134"/>
       </rPr>
-      <t>（除了</t>
+      <t>旁更</t>
     </r>
     <r>
       <rPr>
@@ -2633,7 +2754,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Climate Neg</t>
+      <t>pos</t>
     </r>
     <r>
       <rPr>
@@ -2643,34 +2764,59 @@
         <family val="1"/>
         <charset val="134"/>
       </rPr>
-      <t>）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>直接比较</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>H</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>neg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>旁更</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>neg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，然而不能直接用这个结果比较</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Human</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <family val="1"/>
         <charset val="134"/>
@@ -2680,66 +2826,53 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>B</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
       <t>Bot</t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>比</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Human</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>影响大多少</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.3.3 Impact Difference</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>这里转换一下，变成与</t>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的差异，因为有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Homophily</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>存在</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>这里转换一下，变成离</t>
     </r>
     <r>
       <rPr>
@@ -2758,8 +2891,16 @@
         <family val="1"/>
         <charset val="134"/>
       </rPr>
-      <t>的绝对值距离，更好理解</t>
-    </r>
+      <t>的距离，越小影响越大</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUC diff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AP diff</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2767,9 +2908,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.0000_ "/>
     <numFmt numFmtId="177" formatCode="0.0000_);[Red]\(0.0000\)"/>
+    <numFmt numFmtId="178" formatCode="0.000_ "/>
   </numFmts>
   <fonts count="25" x14ac:knownFonts="1">
     <font>
@@ -3082,7 +3224,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3135,12 +3277,6 @@
     <xf numFmtId="177" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3176,10 +3312,36 @@
     <xf numFmtId="176" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3188,10 +3350,25 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3215,19 +3392,28 @@
     <xf numFmtId="176" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3254,48 +3440,16 @@
     <xf numFmtId="177" fontId="2" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="14" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3606,38 +3760,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="48"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="61"/>
       <c r="D1" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="52" t="s">
+      <c r="E1" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="25" t="s">
-        <v>88</v>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="23" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="51"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="64"/>
       <c r="D2" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="43" t="s">
-        <v>78</v>
-      </c>
-      <c r="F2" s="44"/>
+      <c r="E2" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" s="55"/>
       <c r="G2" s="3" t="s">
         <v>30</v>
       </c>
@@ -3661,23 +3815,23 @@
       <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="39" t="s">
+      <c r="E3" s="56" t="s">
         <v>21</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G3" s="24">
+        <v>78</v>
+      </c>
+      <c r="G3" s="22">
         <v>0.60419999999999996</v>
       </c>
-      <c r="H3" s="41">
+      <c r="H3" s="49">
         <v>1.4500999999999999</v>
       </c>
-      <c r="I3" s="41">
+      <c r="I3" s="49">
         <v>0.14699999999999999</v>
       </c>
-      <c r="J3" s="25" t="s">
-        <v>91</v>
+      <c r="J3" s="23" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.5">
@@ -3693,17 +3847,17 @@
       <c r="D4" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="40"/>
+      <c r="E4" s="57"/>
       <c r="F4" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G4" s="2">
         <v>0.59640000000000004</v>
       </c>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="25" t="s">
-        <v>92</v>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="23" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.5">
@@ -3719,40 +3873,40 @@
       <c r="D5" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="39" t="s">
+      <c r="E5" s="56" t="s">
         <v>22</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G5" s="22">
+        <v>0.58009999999999995</v>
+      </c>
+      <c r="H5" s="49">
+        <v>-0.46650000000000003</v>
+      </c>
+      <c r="I5" s="49">
+        <v>0.64090000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A6" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="63"/>
+      <c r="C6" s="64"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="G5" s="24">
-        <v>0.58009999999999995</v>
-      </c>
-      <c r="H5" s="41">
-        <v>-0.46650000000000003</v>
-      </c>
-      <c r="I5" s="41">
-        <v>0.64090000000000003</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A6" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="51"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="G6" s="2">
         <v>0.58389999999999997</v>
       </c>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="58" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -3761,45 +3915,45 @@
       <c r="C7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="39" t="s">
+      <c r="E7" s="56" t="s">
         <v>23</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G7" s="24">
+        <v>78</v>
+      </c>
+      <c r="G7" s="22">
         <v>0.5393</v>
       </c>
-      <c r="H7" s="41">
+      <c r="H7" s="49">
         <v>-1.7504</v>
       </c>
-      <c r="I7" s="41">
+      <c r="I7" s="49">
         <v>8.0100000000000005E-2</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A8" s="40"/>
+      <c r="A8" s="57"/>
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="40"/>
+      <c r="E8" s="57"/>
       <c r="F8" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G8" s="2">
         <v>0.55649999999999999</v>
       </c>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="E9" s="43" t="s">
-        <v>76</v>
-      </c>
-      <c r="F9" s="44"/>
+      <c r="E9" s="54" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9" s="55"/>
       <c r="G9" s="3" t="s">
         <v>25</v>
       </c>
@@ -3811,45 +3965,45 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A10" s="46" t="s">
+      <c r="A10" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="47"/>
-      <c r="C10" s="48"/>
-      <c r="E10" s="39" t="s">
+      <c r="B10" s="60"/>
+      <c r="C10" s="61"/>
+      <c r="E10" s="56" t="s">
         <v>21</v>
       </c>
       <c r="F10" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G10" s="21">
+        <v>0.82099999999999995</v>
+      </c>
+      <c r="H10" s="49">
+        <v>23.857700000000001</v>
+      </c>
+      <c r="I10" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" s="23" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A11" s="62" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="63"/>
+      <c r="C11" s="64"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="G10" s="23">
-        <v>0.82099999999999995</v>
-      </c>
-      <c r="H10" s="41">
-        <v>23.857700000000001</v>
-      </c>
-      <c r="I10" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="J10" s="25" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A11" s="49" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="50"/>
-      <c r="C11" s="51"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="G11" s="2">
         <v>0.74229999999999996</v>
       </c>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A12" s="1" t="s">
@@ -3861,19 +4015,19 @@
       <c r="C12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="39" t="s">
+      <c r="E12" s="56" t="s">
         <v>22</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G12" s="23">
+        <v>78</v>
+      </c>
+      <c r="G12" s="21">
         <v>0.83950000000000002</v>
       </c>
-      <c r="H12" s="41">
+      <c r="H12" s="49">
         <v>20.513400000000001</v>
       </c>
-      <c r="I12" s="41" t="s">
+      <c r="I12" s="49" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3887,15 +4041,15 @@
       <c r="C13" s="2">
         <v>5.0496999999999996</v>
       </c>
-      <c r="E13" s="40"/>
+      <c r="E13" s="57"/>
       <c r="F13" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G13" s="2">
         <v>0.73529999999999995</v>
       </c>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="50"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A14" s="2" t="s">
@@ -3907,40 +4061,40 @@
       <c r="C14" s="2">
         <v>5.5609000000000002</v>
       </c>
-      <c r="E14" s="39" t="s">
+      <c r="E14" s="56" t="s">
         <v>23</v>
       </c>
       <c r="F14" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="21">
+        <v>0.78539999999999999</v>
+      </c>
+      <c r="H14" s="49">
+        <v>16.601400000000002</v>
+      </c>
+      <c r="I14" s="49" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A15" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="63"/>
+      <c r="C15" s="64"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="G14" s="23">
-        <v>0.78539999999999999</v>
-      </c>
-      <c r="H14" s="41">
-        <v>16.601400000000002</v>
-      </c>
-      <c r="I14" s="41" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A15" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="50"/>
-      <c r="C15" s="51"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="G15" s="2">
         <v>0.67610000000000003</v>
       </c>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="50"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A16" s="45" t="s">
+      <c r="A16" s="58" t="s">
         <v>7</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -3949,44 +4103,44 @@
       <c r="C16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="22" t="s">
-        <v>73</v>
+      <c r="E16" s="20" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A17" s="40"/>
+      <c r="A17" s="57"/>
       <c r="B17" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="21" t="s">
-        <v>70</v>
+      <c r="E17" s="19" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="E18" s="52" t="s">
+      <c r="E18" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="53"/>
-      <c r="G18" s="53"/>
-      <c r="H18" s="53"/>
-      <c r="I18" s="54"/>
-      <c r="J18" s="22" t="s">
-        <v>90</v>
+      <c r="F18" s="52"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="20" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A19" s="46" t="s">
+      <c r="A19" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="47"/>
-      <c r="C19" s="48"/>
-      <c r="E19" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="F19" s="44"/>
+      <c r="B19" s="60"/>
+      <c r="C19" s="61"/>
+      <c r="E19" s="54" t="s">
+        <v>74</v>
+      </c>
+      <c r="F19" s="55"/>
       <c r="G19" s="3" t="s">
         <v>30</v>
       </c>
@@ -3998,28 +4152,28 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A20" s="49" t="s">
+      <c r="A20" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="50"/>
-      <c r="C20" s="51"/>
-      <c r="E20" s="39" t="s">
+      <c r="B20" s="63"/>
+      <c r="C20" s="64"/>
+      <c r="E20" s="56" t="s">
         <v>21</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G20" s="24">
+        <v>70</v>
+      </c>
+      <c r="G20" s="22">
         <v>0.60419999999999996</v>
       </c>
-      <c r="H20" s="41">
+      <c r="H20" s="49">
         <v>6.7031000000000001</v>
       </c>
-      <c r="I20" s="41" t="s">
+      <c r="I20" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="J20" s="25" t="s">
-        <v>85</v>
+      <c r="J20" s="23" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.5">
@@ -4032,17 +4186,17 @@
       <c r="C21" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="40"/>
+      <c r="E21" s="57"/>
       <c r="F21" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G21" s="2">
         <v>0.56520000000000004</v>
       </c>
-      <c r="H21" s="42"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="22" t="s">
-        <v>86</v>
+      <c r="H21" s="50"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="20" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.5">
@@ -4055,19 +4209,19 @@
       <c r="C22" s="2">
         <v>6.4598000000000004</v>
       </c>
-      <c r="E22" s="39" t="s">
+      <c r="E22" s="56" t="s">
         <v>22</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G22" s="24">
+        <v>70</v>
+      </c>
+      <c r="G22" s="22">
         <v>0.58009999999999995</v>
       </c>
-      <c r="H22" s="41">
+      <c r="H22" s="49">
         <v>2.8894000000000002</v>
       </c>
-      <c r="I22" s="41">
+      <c r="I22" s="49">
         <v>3.8999999999999998E-3</v>
       </c>
     </row>
@@ -4081,43 +4235,43 @@
       <c r="C23" s="2">
         <v>5.1597</v>
       </c>
-      <c r="E23" s="40"/>
+      <c r="E23" s="57"/>
       <c r="F23" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G23" s="2">
         <v>0.5534</v>
       </c>
-      <c r="H23" s="42"/>
-      <c r="I23" s="42"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="50"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A24" s="49" t="s">
+      <c r="A24" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="50"/>
-      <c r="C24" s="51"/>
-      <c r="E24" s="39" t="s">
+      <c r="B24" s="63"/>
+      <c r="C24" s="64"/>
+      <c r="E24" s="56" t="s">
         <v>23</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G24" s="24">
+        <v>70</v>
+      </c>
+      <c r="G24" s="22">
         <v>0.5393</v>
       </c>
-      <c r="H24" s="41">
+      <c r="H24" s="49">
         <v>1.6584000000000001</v>
       </c>
-      <c r="I24" s="41">
+      <c r="I24" s="49">
         <v>9.7299999999999998E-2</v>
       </c>
-      <c r="J24" s="25" t="s">
-        <v>87</v>
+      <c r="J24" s="23" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A25" s="45" t="s">
+      <c r="A25" s="58" t="s">
         <v>7</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -4126,28 +4280,28 @@
       <c r="C25" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E25" s="40"/>
+      <c r="E25" s="57"/>
       <c r="F25" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G25" s="2">
         <v>0.52139999999999997</v>
       </c>
-      <c r="H25" s="42"/>
-      <c r="I25" s="42"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="50"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A26" s="40"/>
+      <c r="A26" s="57"/>
       <c r="B26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E26" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="F26" s="44"/>
+      <c r="E26" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="F26" s="55"/>
       <c r="G26" s="3" t="s">
         <v>25</v>
       </c>
@@ -4159,112 +4313,130 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="E27" s="39" t="s">
+      <c r="E27" s="56" t="s">
         <v>21</v>
       </c>
       <c r="F27" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G27" s="21">
+        <v>0.82099999999999995</v>
+      </c>
+      <c r="H27" s="49">
+        <v>33.133299999999998</v>
+      </c>
+      <c r="I27" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="J27" s="23" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="E28" s="57"/>
+      <c r="F28" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="G27" s="23">
-        <v>0.82099999999999995</v>
-      </c>
-      <c r="H27" s="41">
-        <v>33.133299999999998</v>
-      </c>
-      <c r="I27" s="41" t="s">
-        <v>82</v>
-      </c>
-      <c r="J27" s="25" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="E28" s="40"/>
-      <c r="F28" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="G28" s="2">
         <v>0.70599999999999996</v>
       </c>
-      <c r="H28" s="42"/>
-      <c r="I28" s="42"/>
-      <c r="J28" s="25" t="s">
-        <v>84</v>
+      <c r="H28" s="50"/>
+      <c r="I28" s="50"/>
+      <c r="J28" s="23" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="E29" s="39" t="s">
+      <c r="E29" s="56" t="s">
         <v>22</v>
       </c>
       <c r="F29" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G29" s="21">
+        <v>0.83950000000000002</v>
+      </c>
+      <c r="H29" s="49">
+        <v>24.9849</v>
+      </c>
+      <c r="I29" s="49" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="E30" s="57"/>
+      <c r="F30" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="G29" s="23">
-        <v>0.83950000000000002</v>
-      </c>
-      <c r="H29" s="41">
-        <v>24.9849</v>
-      </c>
-      <c r="I29" s="41" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="E30" s="40"/>
-      <c r="F30" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="G30" s="2">
         <v>0.70609999999999995</v>
       </c>
-      <c r="H30" s="42"/>
-      <c r="I30" s="42"/>
+      <c r="H30" s="50"/>
+      <c r="I30" s="50"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="E31" s="39" t="s">
+      <c r="E31" s="56" t="s">
         <v>23</v>
       </c>
       <c r="F31" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G31" s="21">
+        <v>0.78539999999999999</v>
+      </c>
+      <c r="H31" s="49">
+        <v>21.385400000000001</v>
+      </c>
+      <c r="I31" s="49" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="E32" s="57"/>
+      <c r="F32" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="G31" s="23">
-        <v>0.78539999999999999</v>
-      </c>
-      <c r="H31" s="41">
-        <v>21.385400000000001</v>
-      </c>
-      <c r="I31" s="41" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="E32" s="40"/>
-      <c r="F32" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="G32" s="2">
         <v>0.63849999999999996</v>
       </c>
-      <c r="H32" s="42"/>
-      <c r="I32" s="42"/>
+      <c r="H32" s="50"/>
+      <c r="I32" s="50"/>
     </row>
     <row r="33" spans="5:5" x14ac:dyDescent="0.5">
-      <c r="E33" s="22" t="s">
-        <v>77</v>
+      <c r="E33" s="20" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="E1:I1"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A24:C24"/>
     <mergeCell ref="H20:H21"/>
     <mergeCell ref="I20:I21"/>
     <mergeCell ref="E7:E8"/>
@@ -4281,34 +4453,16 @@
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E20:E21"/>
     <mergeCell ref="E10:E11"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="E12:E13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4326,1872 +4480,1878 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="12.046875" style="26" customWidth="1"/>
-    <col min="2" max="16384" width="8.796875" style="26"/>
+    <col min="1" max="1" width="12.046875" style="24" customWidth="1"/>
+    <col min="2" max="16384" width="8.796875" style="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="65" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="C1" s="65"/>
+      <c r="D1" s="65" t="s">
         <v>94</v>
       </c>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55" t="s">
+      <c r="E1" s="65"/>
+      <c r="F1" s="65" t="s">
         <v>95</v>
       </c>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55" t="s">
+      <c r="G1" s="65"/>
+      <c r="H1" s="65" t="s">
         <v>96</v>
       </c>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55" t="s">
+      <c r="I1" s="65"/>
+      <c r="J1" s="65" t="s">
         <v>97</v>
       </c>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55" t="s">
+      <c r="K1" s="65"/>
+      <c r="L1" s="24" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A2" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="K1" s="55"/>
-      <c r="L1" s="26" t="s">
+      <c r="B2" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="I2" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="J2" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="K2" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="L2" s="24" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A3" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" s="24">
+        <v>0.36530000000000001</v>
+      </c>
+      <c r="C3" s="24">
+        <v>0.37009999999999998</v>
+      </c>
+      <c r="D3" s="24">
+        <v>0.39100000000000001</v>
+      </c>
+      <c r="E3" s="24">
+        <v>0.39629999999999999</v>
+      </c>
+      <c r="F3" s="24">
+        <v>0.37280000000000002</v>
+      </c>
+      <c r="G3" s="24">
+        <v>0.39090000000000003</v>
+      </c>
+      <c r="H3" s="24">
+        <v>0.4415</v>
+      </c>
+      <c r="I3" s="24">
+        <v>0.44979999999999998</v>
+      </c>
+      <c r="J3" s="24">
+        <v>0.34160000000000001</v>
+      </c>
+      <c r="K3" s="24">
+        <v>0.35449999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="25" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B4" s="25">
+        <v>0.19689999999999999</v>
+      </c>
+      <c r="C4" s="25">
+        <v>0.1951</v>
+      </c>
+      <c r="D4" s="25">
+        <v>0.1421</v>
+      </c>
+      <c r="E4" s="25">
+        <v>0.1424</v>
+      </c>
+      <c r="F4" s="25">
+        <v>8.5400000000000004E-2</v>
+      </c>
+      <c r="G4" s="25">
+        <v>8.4500000000000006E-2</v>
+      </c>
+      <c r="H4" s="25">
+        <v>0.15090000000000001</v>
+      </c>
+      <c r="I4" s="25">
+        <v>0.15010000000000001</v>
+      </c>
+      <c r="J4" s="25">
+        <v>0.10050000000000001</v>
+      </c>
+      <c r="K4" s="25">
+        <v>9.1499999999999998E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A5" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5" s="24">
+        <v>0.25330000000000003</v>
+      </c>
+      <c r="C5" s="24">
+        <v>0.25969999999999999</v>
+      </c>
+      <c r="D5" s="24">
+        <v>0.2359</v>
+      </c>
+      <c r="E5" s="24">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="F5" s="24">
+        <v>0.27160000000000001</v>
+      </c>
+      <c r="G5" s="24">
+        <v>0.27539999999999998</v>
+      </c>
+      <c r="H5" s="24">
+        <v>0.35170000000000001</v>
+      </c>
+      <c r="I5" s="24">
+        <v>0.35589999999999999</v>
+      </c>
+      <c r="J5" s="24">
+        <v>0.30420000000000003</v>
+      </c>
+      <c r="K5" s="24">
+        <v>0.3054</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="25" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B6" s="25">
+        <v>9.9199999999999997E-2</v>
+      </c>
+      <c r="C6" s="25">
+        <v>9.7500000000000003E-2</v>
+      </c>
+      <c r="D6" s="25">
+        <v>9.2600000000000002E-2</v>
+      </c>
+      <c r="E6" s="25">
+        <v>9.1499999999999998E-2</v>
+      </c>
+      <c r="F6" s="25">
+        <v>0.1129</v>
+      </c>
+      <c r="G6" s="25">
+        <v>0.1104</v>
+      </c>
+      <c r="H6" s="25">
+        <v>6.6900000000000001E-2</v>
+      </c>
+      <c r="I6" s="25">
+        <v>6.6699999999999995E-2</v>
+      </c>
+      <c r="J6" s="25">
+        <v>0.1177</v>
+      </c>
+      <c r="K6" s="25">
+        <v>0.1162</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A7" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" s="24">
+        <v>0.2253</v>
+      </c>
+      <c r="C7" s="24">
+        <v>0.27439999999999998</v>
+      </c>
+      <c r="D7" s="24">
+        <v>0.2361</v>
+      </c>
+      <c r="E7" s="24">
+        <v>0.27189999999999998</v>
+      </c>
+      <c r="F7" s="24">
+        <v>0.18010000000000001</v>
+      </c>
+      <c r="G7" s="24">
+        <v>0.2225</v>
+      </c>
+      <c r="H7" s="24">
+        <v>0.16039999999999999</v>
+      </c>
+      <c r="I7" s="24">
+        <v>0.16339999999999999</v>
+      </c>
+      <c r="J7" s="24">
+        <v>0.1573</v>
+      </c>
+      <c r="K7" s="24">
+        <v>0.17030000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="25" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B8" s="25">
+        <v>0.1239</v>
+      </c>
+      <c r="C8" s="25">
+        <v>0.1226</v>
+      </c>
+      <c r="D8" s="25">
+        <v>0.1174</v>
+      </c>
+      <c r="E8" s="25">
+        <v>0.1162</v>
+      </c>
+      <c r="F8" s="25">
+        <v>0.1207</v>
+      </c>
+      <c r="G8" s="25">
+        <v>0.1198</v>
+      </c>
+      <c r="H8" s="25">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="I8" s="25">
+        <v>0.11509999999999999</v>
+      </c>
+      <c r="J8" s="25">
+        <v>0.1444</v>
+      </c>
+      <c r="K8" s="25">
+        <v>0.14249999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A9" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="24">
+        <v>0.1537</v>
+      </c>
+      <c r="C9" s="24">
+        <v>0.1938</v>
+      </c>
+      <c r="D9" s="24">
+        <v>0.18720000000000001</v>
+      </c>
+      <c r="E9" s="24">
+        <v>0.23050000000000001</v>
+      </c>
+      <c r="F9" s="24">
+        <v>0.1588</v>
+      </c>
+      <c r="G9" s="24">
+        <v>0.1852</v>
+      </c>
+      <c r="H9" s="24">
+        <v>0.29620000000000002</v>
+      </c>
+      <c r="I9" s="24">
+        <v>0.37419999999999998</v>
+      </c>
+      <c r="J9" s="24">
+        <v>0.15970000000000001</v>
+      </c>
+      <c r="K9" s="24">
+        <v>0.19209999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="25" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B10" s="25">
+        <v>0.1565</v>
+      </c>
+      <c r="C10" s="25">
+        <v>0.1326</v>
+      </c>
+      <c r="D10" s="25">
+        <v>0.17019999999999999</v>
+      </c>
+      <c r="E10" s="25">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="F10" s="25">
+        <v>0.15809999999999999</v>
+      </c>
+      <c r="G10" s="25">
+        <v>0.13589999999999999</v>
+      </c>
+      <c r="H10" s="25">
+        <v>0.22009999999999999</v>
+      </c>
+      <c r="I10" s="25">
+        <v>0.22320000000000001</v>
+      </c>
+      <c r="J10" s="25">
+        <v>0.24329999999999999</v>
+      </c>
+      <c r="K10" s="25">
+        <v>0.22070000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A11" s="24" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A2" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="C2" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="D2" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="E2" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="F2" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="G2" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="H2" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="I2" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="J2" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="K2" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="L2" s="26" t="s">
+      <c r="B11" s="27">
+        <v>9.3700000000000006E-2</v>
+      </c>
+      <c r="C11" s="27">
+        <v>0.1138</v>
+      </c>
+      <c r="D11" s="27">
+        <v>0.1105</v>
+      </c>
+      <c r="E11" s="27">
+        <v>0.1147</v>
+      </c>
+      <c r="F11" s="27">
+        <v>8.9700000000000002E-2</v>
+      </c>
+      <c r="G11" s="27">
+        <v>8.9899999999999994E-2</v>
+      </c>
+      <c r="H11" s="27">
+        <v>0.121</v>
+      </c>
+      <c r="I11" s="27">
+        <v>0.13239999999999999</v>
+      </c>
+      <c r="J11" s="27">
+        <v>7.9500000000000001E-2</v>
+      </c>
+      <c r="K11" s="27">
+        <v>7.9799999999999996E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="25" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B12" s="25">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="C12" s="25">
+        <v>7.1400000000000005E-2</v>
+      </c>
+      <c r="D12" s="25">
+        <v>7.1199999999999999E-2</v>
+      </c>
+      <c r="E12" s="25">
+        <v>6.7799999999999999E-2</v>
+      </c>
+      <c r="F12" s="25">
+        <v>5.9200000000000003E-2</v>
+      </c>
+      <c r="G12" s="25">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="H12" s="25">
+        <v>6.2399999999999997E-2</v>
+      </c>
+      <c r="I12" s="25">
+        <v>6.13E-2</v>
+      </c>
+      <c r="J12" s="25">
+        <v>5.6399999999999999E-2</v>
+      </c>
+      <c r="K12" s="25">
+        <v>5.62E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A13" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="B13" s="29">
+        <v>0.11459999999999999</v>
+      </c>
+      <c r="C13" s="29">
+        <v>0.1197</v>
+      </c>
+      <c r="D13" s="29">
+        <v>0.125</v>
+      </c>
+      <c r="E13" s="29">
+        <v>0.13020000000000001</v>
+      </c>
+      <c r="F13" s="29">
+        <v>0.12690000000000001</v>
+      </c>
+      <c r="G13" s="29">
+        <v>0.12709999999999999</v>
+      </c>
+      <c r="H13" s="29">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="I13" s="29">
+        <v>0.14549999999999999</v>
+      </c>
+      <c r="J13" s="29">
+        <v>8.77E-2</v>
+      </c>
+      <c r="K13" s="29">
+        <v>8.8099999999999998E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="25" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A14" s="30"/>
+      <c r="B14" s="30">
+        <v>6.6900000000000001E-2</v>
+      </c>
+      <c r="C14" s="30">
+        <v>6.7299999999999999E-2</v>
+      </c>
+      <c r="D14" s="30">
+        <v>6.2399999999999997E-2</v>
+      </c>
+      <c r="E14" s="30">
+        <v>6.6500000000000004E-2</v>
+      </c>
+      <c r="F14" s="30">
+        <v>5.9700000000000003E-2</v>
+      </c>
+      <c r="G14" s="30">
+        <v>5.8599999999999999E-2</v>
+      </c>
+      <c r="H14" s="30">
+        <v>6.1699999999999998E-2</v>
+      </c>
+      <c r="I14" s="30">
+        <v>6.0400000000000002E-2</v>
+      </c>
+      <c r="J14" s="30">
+        <v>5.3900000000000003E-2</v>
+      </c>
+      <c r="K14" s="30">
+        <v>5.3600000000000002E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A15" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="B15" s="29">
+        <v>0.32229999999999998</v>
+      </c>
+      <c r="C15" s="29">
+        <v>0.32390000000000002</v>
+      </c>
+      <c r="D15" s="29">
+        <v>0.31519999999999998</v>
+      </c>
+      <c r="E15" s="29">
+        <v>0.31690000000000002</v>
+      </c>
+      <c r="F15" s="29">
+        <v>0.29039999999999999</v>
+      </c>
+      <c r="G15" s="29">
+        <v>0.29389999999999999</v>
+      </c>
+      <c r="H15" s="29">
+        <v>0.4249</v>
+      </c>
+      <c r="I15" s="29">
+        <v>0.42580000000000001</v>
+      </c>
+      <c r="J15" s="29">
+        <v>0.37180000000000002</v>
+      </c>
+      <c r="K15" s="29">
+        <v>0.38940000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="25" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A16" s="30"/>
+      <c r="B16" s="30">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="C16" s="30">
+        <v>4.5499999999999999E-2</v>
+      </c>
+      <c r="D16" s="30">
+        <v>4.5499999999999999E-2</v>
+      </c>
+      <c r="E16" s="30">
+        <v>4.5199999999999997E-2</v>
+      </c>
+      <c r="F16" s="30">
+        <v>5.4899999999999997E-2</v>
+      </c>
+      <c r="G16" s="30">
+        <v>5.16E-2</v>
+      </c>
+      <c r="H16" s="30">
+        <v>4.4200000000000003E-2</v>
+      </c>
+      <c r="I16" s="30">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="J16" s="30">
+        <v>8.0500000000000002E-2</v>
+      </c>
+      <c r="K16" s="30">
+        <v>7.0599999999999996E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A17" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="B17" s="29">
+        <v>0.15329999999999999</v>
+      </c>
+      <c r="C17" s="29">
+        <v>0.15570000000000001</v>
+      </c>
+      <c r="D17" s="29">
+        <v>0.1547</v>
+      </c>
+      <c r="E17" s="29">
+        <v>0.15709999999999999</v>
+      </c>
+      <c r="F17" s="29">
+        <v>0.129</v>
+      </c>
+      <c r="G17" s="29">
+        <v>0.13159999999999999</v>
+      </c>
+      <c r="H17" s="29">
+        <v>0.17419999999999999</v>
+      </c>
+      <c r="I17" s="29">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="J17" s="29">
+        <v>0.1045</v>
+      </c>
+      <c r="K17" s="29">
+        <v>0.1061</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A18" s="30"/>
+      <c r="B18" s="30">
+        <v>7.7799999999999994E-2</v>
+      </c>
+      <c r="C18" s="30">
+        <v>7.7499999999999999E-2</v>
+      </c>
+      <c r="D18" s="30">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="E18" s="30">
+        <v>7.2800000000000004E-2</v>
+      </c>
+      <c r="F18" s="30">
+        <v>6.7699999999999996E-2</v>
+      </c>
+      <c r="G18" s="30">
+        <v>6.7299999999999999E-2</v>
+      </c>
+      <c r="H18" s="30">
+        <v>7.1800000000000003E-2</v>
+      </c>
+      <c r="I18" s="30">
+        <v>7.0699999999999999E-2</v>
+      </c>
+      <c r="J18" s="30">
+        <v>6.2799999999999995E-2</v>
+      </c>
+      <c r="K18" s="30">
+        <v>6.2E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A20" s="27" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A21" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="B21" s="66" t="s">
+        <v>93</v>
+      </c>
+      <c r="C21" s="66"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="66"/>
+      <c r="H21" s="66"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A22" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="C22" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="D22" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="E22" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="F22" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="G22" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="H22" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="I22" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="J22" s="28"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A23" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="B23" s="29">
+        <v>1.09E-2</v>
+      </c>
+      <c r="C23" s="29">
+        <v>0.1875</v>
+      </c>
+      <c r="D23" s="29">
+        <v>0.40160000000000001</v>
+      </c>
+      <c r="E23" s="29">
+        <v>0.65820000000000001</v>
+      </c>
+      <c r="F23" s="29">
+        <v>0.82250000000000001</v>
+      </c>
+      <c r="G23" s="29">
+        <v>0.9677</v>
+      </c>
+      <c r="H23" s="29">
+        <v>1.1422000000000001</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A24" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="B24" s="29">
+        <v>3.15E-2</v>
+      </c>
+      <c r="C24" s="29">
+        <v>7.8100000000000003E-2</v>
+      </c>
+      <c r="D24" s="29">
+        <v>0.10009999999999999</v>
+      </c>
+      <c r="E24" s="29">
+        <v>0.13120000000000001</v>
+      </c>
+      <c r="F24" s="29">
+        <v>0.1457</v>
+      </c>
+      <c r="G24" s="29">
+        <v>0.18579999999999999</v>
+      </c>
+      <c r="H24" s="29">
+        <v>0.24529999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A25" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="B25" s="24">
+        <v>5.57E-2</v>
+      </c>
+      <c r="C25" s="24">
+        <v>9.2499999999999999E-2</v>
+      </c>
+      <c r="D25" s="24">
+        <v>0.1087</v>
+      </c>
+      <c r="E25" s="24">
+        <v>0.1447</v>
+      </c>
+      <c r="F25" s="24">
+        <v>0.15179999999999999</v>
+      </c>
+      <c r="G25" s="24">
+        <v>0.20150000000000001</v>
+      </c>
+      <c r="H25" s="24">
+        <v>0.25740000000000002</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="14.7" x14ac:dyDescent="0.5">
+      <c r="A26" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="B26" s="24">
+        <v>7.3499999999999996E-2</v>
+      </c>
+      <c r="C26" s="24">
+        <v>0.1331</v>
+      </c>
+      <c r="D26" s="24">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="E26" s="24">
+        <v>0.17349999999999999</v>
+      </c>
+      <c r="F26" s="24">
+        <v>0.24529999999999999</v>
+      </c>
+      <c r="G26" s="24">
+        <v>0.33510000000000001</v>
+      </c>
+      <c r="H26" s="24">
+        <v>0.40150000000000002</v>
+      </c>
+      <c r="I26" s="24" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="14.7" x14ac:dyDescent="0.5">
+      <c r="A27" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="B27" s="24">
+        <v>5.7299999999999997E-2</v>
+      </c>
+      <c r="C27" s="24">
+        <v>0.1726</v>
+      </c>
+      <c r="D27" s="24">
+        <v>0.2296</v>
+      </c>
+      <c r="E27" s="24">
+        <v>0.27410000000000001</v>
+      </c>
+      <c r="F27" s="24">
+        <v>0.37930000000000003</v>
+      </c>
+      <c r="G27" s="24">
+        <v>0.442</v>
+      </c>
+      <c r="H27" s="24">
+        <v>0.49890000000000001</v>
+      </c>
+      <c r="I27" s="31" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A29" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="B29" s="65" t="s">
+        <v>95</v>
+      </c>
+      <c r="C29" s="65"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="65"/>
+      <c r="F29" s="65"/>
+      <c r="G29" s="65"/>
+      <c r="H29" s="65"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A30" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="B30" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="C30" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="D30" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="E30" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="F30" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="G30" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="H30" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="I30" s="28"/>
+      <c r="J30" s="28"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A31" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="B31" s="29">
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="C31" s="29">
+        <v>0.23569999999999999</v>
+      </c>
+      <c r="D31" s="29">
+        <v>0.41749999999999998</v>
+      </c>
+      <c r="E31" s="29">
+        <v>0.62070000000000003</v>
+      </c>
+      <c r="F31" s="29">
+        <v>0.87470000000000003</v>
+      </c>
+      <c r="G31" s="29">
+        <v>1.0710999999999999</v>
+      </c>
+      <c r="H31" s="29">
+        <v>1.2961</v>
+      </c>
+      <c r="I31" s="9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A32" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="B32" s="29">
+        <v>3.7699999999999997E-2</v>
+      </c>
+      <c r="C32" s="29">
+        <v>7.9899999999999999E-2</v>
+      </c>
+      <c r="D32" s="29">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="E32" s="29">
+        <v>0.11990000000000001</v>
+      </c>
+      <c r="F32" s="29">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="G32" s="29">
+        <v>0.23769999999999999</v>
+      </c>
+      <c r="H32" s="29">
+        <v>0.27400000000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A33" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="B33" s="24">
+        <v>5.6800000000000003E-2</v>
+      </c>
+      <c r="C33" s="24">
+        <v>9.0200000000000002E-2</v>
+      </c>
+      <c r="D33" s="24">
+        <v>9.9699999999999997E-2</v>
+      </c>
+      <c r="E33" s="24">
+        <v>0.1206</v>
+      </c>
+      <c r="F33" s="24">
+        <v>0.14680000000000001</v>
+      </c>
+      <c r="G33" s="24">
+        <v>0.24049999999999999</v>
+      </c>
+      <c r="H33" s="24">
+        <v>0.30220000000000002</v>
+      </c>
+      <c r="I33" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A34" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="B34" s="24">
+        <v>6.13E-2</v>
+      </c>
+      <c r="C34" s="24">
+        <v>0.15129999999999999</v>
+      </c>
+      <c r="D34" s="24">
+        <v>0.17130000000000001</v>
+      </c>
+      <c r="E34" s="24">
+        <v>0.2044</v>
+      </c>
+      <c r="F34" s="24">
+        <v>0.2641</v>
+      </c>
+      <c r="G34" s="24">
+        <v>0.38129999999999997</v>
+      </c>
+      <c r="H34" s="24">
+        <v>0.47370000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A35" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="B35" s="24">
+        <v>5.7599999999999998E-2</v>
+      </c>
+      <c r="C35" s="24">
+        <v>0.1477</v>
+      </c>
+      <c r="D35" s="24">
+        <v>0.17660000000000001</v>
+      </c>
+      <c r="E35" s="24">
+        <v>0.28939999999999999</v>
+      </c>
+      <c r="F35" s="24">
+        <v>0.4214</v>
+      </c>
+      <c r="G35" s="24">
+        <v>0.48470000000000002</v>
+      </c>
+      <c r="H35" s="24">
+        <v>0.52010000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A37" s="27" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A38" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="B38" s="66" t="s">
+        <v>93</v>
+      </c>
+      <c r="C38" s="66"/>
+      <c r="D38" s="66"/>
+      <c r="E38" s="66"/>
+      <c r="F38" s="66"/>
+      <c r="G38" s="66"/>
+      <c r="H38" s="35"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A39" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="B39" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="C39" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="D39" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="E39" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="F39" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="G39" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="H39" s="28"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A40" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="B40" s="29">
+        <v>0.107</v>
+      </c>
+      <c r="C40" s="29">
+        <v>0.25209999999999999</v>
+      </c>
+      <c r="D40" s="29">
+        <v>0.38419999999999999</v>
+      </c>
+      <c r="E40" s="29">
+        <v>0.4738</v>
+      </c>
+      <c r="F40" s="29">
+        <v>0.62670000000000003</v>
+      </c>
+      <c r="G40" s="29">
+        <v>0.82750000000000001</v>
+      </c>
+      <c r="H40" s="9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A41" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="B41" s="29">
+        <v>4.82E-2</v>
+      </c>
+      <c r="C41" s="29">
+        <v>6.2799999999999995E-2</v>
+      </c>
+      <c r="D41" s="29">
+        <v>7.6399999999999996E-2</v>
+      </c>
+      <c r="E41" s="29">
+        <v>8.0500000000000002E-2</v>
+      </c>
+      <c r="F41" s="29">
+        <v>0.1144</v>
+      </c>
+      <c r="G41" s="29">
+        <v>0.17530000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A42" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="B42" s="24">
+        <v>5.5599999999999997E-2</v>
+      </c>
+      <c r="C42" s="24">
+        <v>7.4099999999999999E-2</v>
+      </c>
+      <c r="D42" s="24">
+        <v>8.0600000000000005E-2</v>
+      </c>
+      <c r="E42" s="24">
+        <v>8.3599999999999994E-2</v>
+      </c>
+      <c r="F42" s="24">
+        <v>0.1198</v>
+      </c>
+      <c r="G42" s="24">
+        <v>0.18110000000000001</v>
+      </c>
+      <c r="H42" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A43" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="B43" s="24">
+        <v>7.7799999999999994E-2</v>
+      </c>
+      <c r="C43" s="24">
+        <v>0.1449</v>
+      </c>
+      <c r="D43" s="24">
+        <v>0.157</v>
+      </c>
+      <c r="E43" s="24">
+        <v>0.1744</v>
+      </c>
+      <c r="F43" s="24">
+        <v>0.2104</v>
+      </c>
+      <c r="G43" s="24">
+        <v>0.27810000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A44" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="B44" s="24">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="C44" s="24">
+        <v>0.1817</v>
+      </c>
+      <c r="D44" s="24">
+        <v>0.20050000000000001</v>
+      </c>
+      <c r="E44" s="24">
+        <v>0.22470000000000001</v>
+      </c>
+      <c r="F44" s="24">
+        <v>0.29349999999999998</v>
+      </c>
+      <c r="G44" s="24">
+        <v>0.41320000000000001</v>
+      </c>
+      <c r="K44" s="27"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A46" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="B46" s="66" t="s">
+        <v>95</v>
+      </c>
+      <c r="C46" s="66"/>
+      <c r="D46" s="66"/>
+      <c r="E46" s="66"/>
+      <c r="F46" s="66"/>
+      <c r="G46" s="66"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A47" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="B47" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="C47" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="D47" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="E47" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="F47" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="G47" s="28" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A48" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="B48" s="29">
+        <v>9.0499999999999997E-2</v>
+      </c>
+      <c r="C48" s="29">
+        <v>0.23330000000000001</v>
+      </c>
+      <c r="D48" s="29">
+        <v>0.3715</v>
+      </c>
+      <c r="E48" s="29">
+        <v>0.48770000000000002</v>
+      </c>
+      <c r="F48" s="29">
+        <v>0.66590000000000005</v>
+      </c>
+      <c r="G48" s="29">
+        <v>0.80779999999999996</v>
+      </c>
+      <c r="H48" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="J48" s="27"/>
+      <c r="K48" s="27"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A49" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="B49" s="29">
+        <v>5.7500000000000002E-2</v>
+      </c>
+      <c r="C49" s="29">
+        <v>6.2600000000000003E-2</v>
+      </c>
+      <c r="D49" s="29">
+        <v>7.2900000000000006E-2</v>
+      </c>
+      <c r="E49" s="29">
+        <v>8.8700000000000001E-2</v>
+      </c>
+      <c r="F49" s="29">
+        <v>0.121</v>
+      </c>
+      <c r="G49" s="29">
+        <v>0.1542</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A50" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="B50" s="24">
+        <v>6.6900000000000001E-2</v>
+      </c>
+      <c r="C50" s="24">
+        <v>7.3300000000000004E-2</v>
+      </c>
+      <c r="D50" s="24">
+        <v>7.8600000000000003E-2</v>
+      </c>
+      <c r="E50" s="24">
+        <v>8.9899999999999994E-2</v>
+      </c>
+      <c r="F50" s="24">
+        <v>0.12280000000000001</v>
+      </c>
+      <c r="G50" s="24">
+        <v>0.1555</v>
+      </c>
+      <c r="H50" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A51" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="B51" s="24">
+        <v>7.0900000000000005E-2</v>
+      </c>
+      <c r="C51" s="24">
+        <v>0.15090000000000001</v>
+      </c>
+      <c r="D51" s="24">
+        <v>0.15590000000000001</v>
+      </c>
+      <c r="E51" s="24">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="F51" s="24">
+        <v>0.20319999999999999</v>
+      </c>
+      <c r="G51" s="24">
+        <v>0.25290000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A52" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="B52" s="24">
+        <v>7.7100000000000002E-2</v>
+      </c>
+      <c r="C52" s="24">
+        <v>0.15290000000000001</v>
+      </c>
+      <c r="D52" s="24">
+        <v>0.15570000000000001</v>
+      </c>
+      <c r="E52" s="24">
+        <v>0.17849999999999999</v>
+      </c>
+      <c r="F52" s="24">
+        <v>0.3145</v>
+      </c>
+      <c r="G52" s="24">
+        <v>0.38819999999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="14.7" x14ac:dyDescent="0.5">
+      <c r="A54" s="27" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A55" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="B55" s="66" t="s">
+        <v>93</v>
+      </c>
+      <c r="C55" s="66"/>
+      <c r="D55" s="66"/>
+      <c r="E55" s="66"/>
+      <c r="F55" s="66"/>
+      <c r="G55" s="36" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="14.7" x14ac:dyDescent="0.5">
+      <c r="A56" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="B56" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="C56" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="D56" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="E56" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="F56" s="24" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="B57" s="33">
+        <v>0.66139999999999999</v>
+      </c>
+      <c r="C57" s="33">
+        <v>1.1866000000000001</v>
+      </c>
+      <c r="D57" s="33">
+        <v>1.6840999999999999</v>
+      </c>
+      <c r="E57" s="33">
+        <v>2.1871999999999998</v>
+      </c>
+      <c r="F57" s="33">
+        <v>2.6762000000000001</v>
+      </c>
+      <c r="G57" s="31" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A58" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="B58" s="33">
+        <v>0.66710000000000003</v>
+      </c>
+      <c r="C58" s="33">
+        <v>1.2250000000000001</v>
+      </c>
+      <c r="D58" s="33">
+        <v>1.7150000000000001</v>
+      </c>
+      <c r="E58" s="33">
+        <v>2.2951999999999999</v>
+      </c>
+      <c r="F58" s="33">
+        <v>2.7707000000000002</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A59" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="B59" s="33">
+        <v>3.1827000000000001</v>
+      </c>
+      <c r="C59" s="33">
+        <v>2.7292999999999998</v>
+      </c>
+      <c r="D59" s="33">
+        <v>2.1913</v>
+      </c>
+      <c r="E59" s="33">
+        <v>1.6611</v>
+      </c>
+      <c r="F59" s="33">
+        <v>1.1574</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A60" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="B60" s="33">
+        <v>2.5539999999999998</v>
+      </c>
+      <c r="C60" s="33">
+        <v>2.3184999999999998</v>
+      </c>
+      <c r="D60" s="33">
+        <v>1.8012999999999999</v>
+      </c>
+      <c r="E60" s="33">
+        <v>1.4141999999999999</v>
+      </c>
+      <c r="F60" s="33">
+        <v>0.89959999999999996</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A61" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="B61" s="24">
+        <v>0.11310000000000001</v>
+      </c>
+      <c r="C61" s="24">
+        <v>9.35E-2</v>
+      </c>
+      <c r="D61" s="24">
+        <v>8.6300000000000002E-2</v>
+      </c>
+      <c r="E61" s="24">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="F61" s="24">
+        <v>0.12889999999999999</v>
+      </c>
+      <c r="G61" s="9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A62" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="B62" s="24">
+        <v>0.1177</v>
+      </c>
+      <c r="C62" s="24">
+        <v>0.1132</v>
+      </c>
+      <c r="D62" s="24">
+        <v>8.9899999999999994E-2</v>
+      </c>
+      <c r="E62" s="24">
+        <v>0.12330000000000001</v>
+      </c>
+      <c r="F62" s="24">
+        <v>0.1308</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="14.7" x14ac:dyDescent="0.5">
+      <c r="A63" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="B63" s="24">
+        <v>0.52129999999999999</v>
+      </c>
+      <c r="C63" s="24">
+        <v>0.54269999999999996</v>
+      </c>
+      <c r="D63" s="24">
+        <v>0.50719999999999998</v>
+      </c>
+      <c r="E63" s="24">
+        <v>0.47389999999999999</v>
+      </c>
+      <c r="F63" s="24">
+        <v>0.48120000000000002</v>
+      </c>
+      <c r="G63" s="34" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A65" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="B65" s="66" t="s">
+        <v>95</v>
+      </c>
+      <c r="C65" s="66"/>
+      <c r="D65" s="66"/>
+      <c r="E65" s="66"/>
+      <c r="F65" s="66"/>
+      <c r="G65" s="35"/>
+    </row>
+    <row r="66" spans="1:8" ht="14.7" x14ac:dyDescent="0.5">
+      <c r="A66" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="B66" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="C66" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="D66" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="E66" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="F66" s="24" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="B67" s="33">
+        <v>0.6502</v>
+      </c>
+      <c r="C67" s="33">
+        <v>1.1700999999999999</v>
+      </c>
+      <c r="D67" s="33">
+        <v>1.6665000000000001</v>
+      </c>
+      <c r="E67" s="33">
+        <v>2.1697000000000002</v>
+      </c>
+      <c r="F67" s="33">
+        <v>2.6669</v>
+      </c>
+      <c r="G67" s="31" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A68" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="B68" s="33">
+        <v>0.67120000000000002</v>
+      </c>
+      <c r="C68" s="33">
+        <v>1.2824</v>
+      </c>
+      <c r="D68" s="33">
+        <v>1.7014</v>
+      </c>
+      <c r="E68" s="33">
+        <v>2.3450000000000002</v>
+      </c>
+      <c r="F68" s="33">
+        <v>2.8260999999999998</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A69" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="B69" s="33">
+        <v>3.1842000000000001</v>
+      </c>
+      <c r="C69" s="33">
+        <v>2.6978</v>
+      </c>
+      <c r="D69" s="33">
+        <v>2.1915</v>
+      </c>
+      <c r="E69" s="33">
+        <v>1.6838</v>
+      </c>
+      <c r="F69" s="33">
+        <v>1.1996</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A70" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="B70" s="33">
+        <v>2.7669000000000001</v>
+      </c>
+      <c r="C70" s="33">
+        <v>2.2968999999999999</v>
+      </c>
+      <c r="D70" s="33">
+        <v>1.8028</v>
+      </c>
+      <c r="E70" s="33">
+        <v>1.4423999999999999</v>
+      </c>
+      <c r="F70" s="33">
+        <v>0.96409999999999996</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="14.7" x14ac:dyDescent="0.5">
+      <c r="A71" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="B71" s="24">
+        <v>9.5699999999999993E-2</v>
+      </c>
+      <c r="C71" s="24">
+        <v>8.5500000000000007E-2</v>
+      </c>
+      <c r="D71" s="24">
+        <v>0.1014</v>
+      </c>
+      <c r="E71" s="24">
+        <v>0.1203</v>
+      </c>
+      <c r="F71" s="24">
+        <v>0.1467</v>
+      </c>
+      <c r="G71" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="H71" s="24" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A3" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="B3" s="26">
-        <v>0.36530000000000001</v>
-      </c>
-      <c r="C3" s="26">
-        <v>0.37009999999999998</v>
-      </c>
-      <c r="D3" s="26">
-        <v>0.39100000000000001</v>
-      </c>
-      <c r="E3" s="26">
-        <v>0.39629999999999999</v>
-      </c>
-      <c r="F3" s="26">
-        <v>0.37280000000000002</v>
-      </c>
-      <c r="G3" s="26">
-        <v>0.39090000000000003</v>
-      </c>
-      <c r="H3" s="26">
-        <v>0.4415</v>
-      </c>
-      <c r="I3" s="26">
-        <v>0.44979999999999998</v>
-      </c>
-      <c r="J3" s="26">
-        <v>0.34160000000000001</v>
-      </c>
-      <c r="K3" s="26">
-        <v>0.35449999999999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="27">
-        <v>0.19689999999999999</v>
-      </c>
-      <c r="C4" s="27">
-        <v>0.1951</v>
-      </c>
-      <c r="D4" s="27">
-        <v>0.1421</v>
-      </c>
-      <c r="E4" s="27">
-        <v>0.1424</v>
-      </c>
-      <c r="F4" s="27">
-        <v>8.5400000000000004E-2</v>
-      </c>
-      <c r="G4" s="27">
-        <v>8.4500000000000006E-2</v>
-      </c>
-      <c r="H4" s="27">
-        <v>0.15090000000000001</v>
-      </c>
-      <c r="I4" s="27">
-        <v>0.15010000000000001</v>
-      </c>
-      <c r="J4" s="27">
-        <v>0.10050000000000001</v>
-      </c>
-      <c r="K4" s="27">
-        <v>9.1499999999999998E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A5" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="B5" s="26">
-        <v>0.25330000000000003</v>
-      </c>
-      <c r="C5" s="26">
-        <v>0.25969999999999999</v>
-      </c>
-      <c r="D5" s="26">
-        <v>0.2359</v>
-      </c>
-      <c r="E5" s="26">
-        <v>0.23699999999999999</v>
-      </c>
-      <c r="F5" s="26">
-        <v>0.27160000000000001</v>
-      </c>
-      <c r="G5" s="26">
-        <v>0.27539999999999998</v>
-      </c>
-      <c r="H5" s="26">
-        <v>0.35170000000000001</v>
-      </c>
-      <c r="I5" s="26">
-        <v>0.35589999999999999</v>
-      </c>
-      <c r="J5" s="26">
-        <v>0.30420000000000003</v>
-      </c>
-      <c r="K5" s="26">
-        <v>0.3054</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="B6" s="27">
-        <v>9.9199999999999997E-2</v>
-      </c>
-      <c r="C6" s="27">
-        <v>9.7500000000000003E-2</v>
-      </c>
-      <c r="D6" s="27">
-        <v>9.2600000000000002E-2</v>
-      </c>
-      <c r="E6" s="27">
-        <v>9.1499999999999998E-2</v>
-      </c>
-      <c r="F6" s="27">
-        <v>0.1129</v>
-      </c>
-      <c r="G6" s="27">
-        <v>0.1104</v>
-      </c>
-      <c r="H6" s="27">
-        <v>6.6900000000000001E-2</v>
-      </c>
-      <c r="I6" s="27">
-        <v>6.6699999999999995E-2</v>
-      </c>
-      <c r="J6" s="27">
-        <v>0.1177</v>
-      </c>
-      <c r="K6" s="27">
-        <v>0.1162</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A7" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="B7" s="26">
-        <v>0.2253</v>
-      </c>
-      <c r="C7" s="26">
-        <v>0.27439999999999998</v>
-      </c>
-      <c r="D7" s="26">
-        <v>0.2361</v>
-      </c>
-      <c r="E7" s="26">
-        <v>0.27189999999999998</v>
-      </c>
-      <c r="F7" s="26">
-        <v>0.18010000000000001</v>
-      </c>
-      <c r="G7" s="26">
-        <v>0.2225</v>
-      </c>
-      <c r="H7" s="26">
-        <v>0.16039999999999999</v>
-      </c>
-      <c r="I7" s="26">
-        <v>0.16339999999999999</v>
-      </c>
-      <c r="J7" s="26">
-        <v>0.1573</v>
-      </c>
-      <c r="K7" s="26">
-        <v>0.17030000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="B8" s="27">
-        <v>0.1239</v>
-      </c>
-      <c r="C8" s="27">
-        <v>0.1226</v>
-      </c>
-      <c r="D8" s="27">
-        <v>0.1174</v>
-      </c>
-      <c r="E8" s="27">
-        <v>0.1162</v>
-      </c>
-      <c r="F8" s="27">
-        <v>0.1207</v>
-      </c>
-      <c r="G8" s="27">
-        <v>0.1198</v>
-      </c>
-      <c r="H8" s="27">
-        <v>0.11700000000000001</v>
-      </c>
-      <c r="I8" s="27">
-        <v>0.11509999999999999</v>
-      </c>
-      <c r="J8" s="27">
-        <v>0.1444</v>
-      </c>
-      <c r="K8" s="27">
-        <v>0.14249999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A9" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="B9" s="26">
-        <v>0.1537</v>
-      </c>
-      <c r="C9" s="26">
-        <v>0.1938</v>
-      </c>
-      <c r="D9" s="26">
-        <v>0.18720000000000001</v>
-      </c>
-      <c r="E9" s="26">
-        <v>0.23050000000000001</v>
-      </c>
-      <c r="F9" s="26">
-        <v>0.1588</v>
-      </c>
-      <c r="G9" s="26">
-        <v>0.1852</v>
-      </c>
-      <c r="H9" s="26">
-        <v>0.29620000000000002</v>
-      </c>
-      <c r="I9" s="26">
-        <v>0.37419999999999998</v>
-      </c>
-      <c r="J9" s="26">
-        <v>0.15970000000000001</v>
-      </c>
-      <c r="K9" s="26">
-        <v>0.19209999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="B10" s="27">
-        <v>0.1565</v>
-      </c>
-      <c r="C10" s="27">
-        <v>0.1326</v>
-      </c>
-      <c r="D10" s="27">
-        <v>0.17019999999999999</v>
-      </c>
-      <c r="E10" s="27">
-        <v>0.13600000000000001</v>
-      </c>
-      <c r="F10" s="27">
-        <v>0.15809999999999999</v>
-      </c>
-      <c r="G10" s="27">
-        <v>0.13589999999999999</v>
-      </c>
-      <c r="H10" s="27">
-        <v>0.22009999999999999</v>
-      </c>
-      <c r="I10" s="27">
-        <v>0.22320000000000001</v>
-      </c>
-      <c r="J10" s="27">
-        <v>0.24329999999999999</v>
-      </c>
-      <c r="K10" s="27">
-        <v>0.22070000000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A11" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="B11" s="29">
-        <v>9.3700000000000006E-2</v>
-      </c>
-      <c r="C11" s="29">
-        <v>0.1138</v>
-      </c>
-      <c r="D11" s="29">
-        <v>0.1105</v>
-      </c>
-      <c r="E11" s="29">
-        <v>0.1147</v>
-      </c>
-      <c r="F11" s="29">
-        <v>8.9700000000000002E-2</v>
-      </c>
-      <c r="G11" s="29">
-        <v>8.9899999999999994E-2</v>
-      </c>
-      <c r="H11" s="29">
-        <v>0.121</v>
-      </c>
-      <c r="I11" s="29">
-        <v>0.13239999999999999</v>
-      </c>
-      <c r="J11" s="29">
-        <v>7.9500000000000001E-2</v>
-      </c>
-      <c r="K11" s="29">
-        <v>7.9799999999999996E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="B12" s="27">
-        <v>7.2499999999999995E-2</v>
-      </c>
-      <c r="C12" s="27">
-        <v>7.1400000000000005E-2</v>
-      </c>
-      <c r="D12" s="27">
-        <v>7.1199999999999999E-2</v>
-      </c>
-      <c r="E12" s="27">
-        <v>6.7799999999999999E-2</v>
-      </c>
-      <c r="F12" s="27">
-        <v>5.9200000000000003E-2</v>
-      </c>
-      <c r="G12" s="27">
-        <v>5.8999999999999997E-2</v>
-      </c>
-      <c r="H12" s="27">
-        <v>6.2399999999999997E-2</v>
-      </c>
-      <c r="I12" s="27">
-        <v>6.13E-2</v>
-      </c>
-      <c r="J12" s="27">
-        <v>5.6399999999999999E-2</v>
-      </c>
-      <c r="K12" s="27">
-        <v>5.62E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A13" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="B13" s="31">
-        <v>0.11459999999999999</v>
-      </c>
-      <c r="C13" s="31">
-        <v>0.1197</v>
-      </c>
-      <c r="D13" s="31">
-        <v>0.125</v>
-      </c>
-      <c r="E13" s="31">
-        <v>0.13020000000000001</v>
-      </c>
-      <c r="F13" s="31">
-        <v>0.12690000000000001</v>
-      </c>
-      <c r="G13" s="31">
-        <v>0.12709999999999999</v>
-      </c>
-      <c r="H13" s="31">
-        <v>0.14199999999999999</v>
-      </c>
-      <c r="I13" s="31">
-        <v>0.14549999999999999</v>
-      </c>
-      <c r="J13" s="31">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A72" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="B72" s="24">
+        <v>9.8100000000000007E-2</v>
+      </c>
+      <c r="C72" s="24">
+        <v>8.7900000000000006E-2</v>
+      </c>
+      <c r="D72" s="24">
+        <v>0.1036</v>
+      </c>
+      <c r="E72" s="24">
+        <v>0.12870000000000001</v>
+      </c>
+      <c r="F72" s="24">
+        <v>0.16819999999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="14.7" x14ac:dyDescent="0.5">
+      <c r="A73" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="B73" s="24">
+        <v>0.53400000000000003</v>
+      </c>
+      <c r="C73" s="24">
+        <v>0.52769999999999995</v>
+      </c>
+      <c r="D73" s="24">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="E73" s="24">
+        <v>0.5141</v>
+      </c>
+      <c r="F73" s="24">
+        <v>0.53269999999999995</v>
+      </c>
+      <c r="G73" s="34" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="14.7" x14ac:dyDescent="0.5">
+      <c r="A74" s="31" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="14.7" x14ac:dyDescent="0.5">
+      <c r="A75" s="32"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A76" s="27" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A77" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="B77" s="66" t="s">
+        <v>93</v>
+      </c>
+      <c r="C77" s="66"/>
+      <c r="D77" s="66"/>
+      <c r="E77" s="66"/>
+      <c r="F77" s="66"/>
+      <c r="G77" s="66"/>
+      <c r="H77" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A78" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="B78" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="C78" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="D78" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="E78" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="F78" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="G78" s="28" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="14.7" x14ac:dyDescent="0.5">
+      <c r="A79" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="B79" s="26">
+        <v>8.9800000000000005E-2</v>
+      </c>
+      <c r="C79" s="24">
+        <v>9.3299999999999994E-2</v>
+      </c>
+      <c r="D79" s="24">
+        <v>9.2200000000000004E-2</v>
+      </c>
+      <c r="E79" s="24">
+        <v>9.1899999999999996E-2</v>
+      </c>
+      <c r="F79" s="24">
+        <v>0.10009999999999999</v>
+      </c>
+      <c r="G79" s="24">
+        <v>0.20349999999999999</v>
+      </c>
+      <c r="H79" s="24" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A80" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="B80" s="26">
+        <v>0.10440000000000001</v>
+      </c>
+      <c r="C80" s="24">
+        <v>0.1106</v>
+      </c>
+      <c r="D80" s="24">
+        <v>0.1042</v>
+      </c>
+      <c r="E80" s="24">
+        <v>0.1018</v>
+      </c>
+      <c r="F80" s="24">
+        <v>0.1159</v>
+      </c>
+      <c r="G80" s="24">
+        <v>0.2044</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A82" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="B82" s="66" t="s">
+        <v>95</v>
+      </c>
+      <c r="C82" s="66"/>
+      <c r="D82" s="66"/>
+      <c r="E82" s="66"/>
+      <c r="F82" s="66"/>
+      <c r="G82" s="66"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A83" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="B83" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="C83" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="D83" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="E83" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="F83" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="G83" s="28" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A84" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="B84" s="26">
+        <v>9.1300000000000006E-2</v>
+      </c>
+      <c r="C84" s="24">
+        <v>9.0499999999999997E-2</v>
+      </c>
+      <c r="D84" s="24">
+        <v>8.6699999999999999E-2</v>
+      </c>
+      <c r="E84" s="24">
+        <v>8.4199999999999997E-2</v>
+      </c>
+      <c r="F84" s="24">
+        <v>9.4100000000000003E-2</v>
+      </c>
+      <c r="G84" s="24">
+        <v>0.18709999999999999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A85" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="B85" s="26">
+        <v>9.2499999999999999E-2</v>
+      </c>
+      <c r="C85" s="24">
+        <v>9.11E-2</v>
+      </c>
+      <c r="D85" s="24">
+        <v>8.8200000000000001E-2</v>
+      </c>
+      <c r="E85" s="24">
         <v>8.77E-2</v>
       </c>
-      <c r="K13" s="31">
-        <v>8.8099999999999998E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="32"/>
-      <c r="B14" s="32">
-        <v>6.6900000000000001E-2</v>
-      </c>
-      <c r="C14" s="32">
-        <v>6.7299999999999999E-2</v>
-      </c>
-      <c r="D14" s="32">
-        <v>6.2399999999999997E-2</v>
-      </c>
-      <c r="E14" s="32">
-        <v>6.6500000000000004E-2</v>
-      </c>
-      <c r="F14" s="32">
-        <v>5.9700000000000003E-2</v>
-      </c>
-      <c r="G14" s="32">
-        <v>5.8599999999999999E-2</v>
-      </c>
-      <c r="H14" s="32">
-        <v>6.1699999999999998E-2</v>
-      </c>
-      <c r="I14" s="32">
-        <v>6.0400000000000002E-2</v>
-      </c>
-      <c r="J14" s="32">
-        <v>5.3900000000000003E-2</v>
-      </c>
-      <c r="K14" s="32">
-        <v>5.3600000000000002E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A15" s="31" t="s">
-        <v>107</v>
-      </c>
-      <c r="B15" s="31">
-        <v>0.32229999999999998</v>
-      </c>
-      <c r="C15" s="31">
-        <v>0.32390000000000002</v>
-      </c>
-      <c r="D15" s="31">
-        <v>0.31519999999999998</v>
-      </c>
-      <c r="E15" s="31">
-        <v>0.31690000000000002</v>
-      </c>
-      <c r="F15" s="31">
-        <v>0.29039999999999999</v>
-      </c>
-      <c r="G15" s="31">
-        <v>0.29389999999999999</v>
-      </c>
-      <c r="H15" s="31">
-        <v>0.4249</v>
-      </c>
-      <c r="I15" s="31">
-        <v>0.42580000000000001</v>
-      </c>
-      <c r="J15" s="31">
-        <v>0.37180000000000002</v>
-      </c>
-      <c r="K15" s="31">
-        <v>0.38940000000000002</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="32"/>
-      <c r="B16" s="32">
-        <v>4.5999999999999999E-2</v>
-      </c>
-      <c r="C16" s="32">
-        <v>4.5499999999999999E-2</v>
-      </c>
-      <c r="D16" s="32">
-        <v>4.5499999999999999E-2</v>
-      </c>
-      <c r="E16" s="32">
-        <v>4.5199999999999997E-2</v>
-      </c>
-      <c r="F16" s="32">
-        <v>5.4899999999999997E-2</v>
-      </c>
-      <c r="G16" s="32">
-        <v>5.16E-2</v>
-      </c>
-      <c r="H16" s="32">
-        <v>4.4200000000000003E-2</v>
-      </c>
-      <c r="I16" s="32">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="J16" s="32">
-        <v>8.0500000000000002E-2</v>
-      </c>
-      <c r="K16" s="32">
-        <v>7.0599999999999996E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A17" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="B17" s="31">
-        <v>0.15329999999999999</v>
-      </c>
-      <c r="C17" s="31">
-        <v>0.15570000000000001</v>
-      </c>
-      <c r="D17" s="31">
-        <v>0.1547</v>
-      </c>
-      <c r="E17" s="31">
-        <v>0.15709999999999999</v>
-      </c>
-      <c r="F17" s="31">
-        <v>0.129</v>
-      </c>
-      <c r="G17" s="31">
-        <v>0.13159999999999999</v>
-      </c>
-      <c r="H17" s="31">
-        <v>0.17419999999999999</v>
-      </c>
-      <c r="I17" s="31">
-        <v>0.18099999999999999</v>
-      </c>
-      <c r="J17" s="31">
-        <v>0.1045</v>
-      </c>
-      <c r="K17" s="31">
-        <v>0.1061</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="32"/>
-      <c r="B18" s="32">
-        <v>7.7799999999999994E-2</v>
-      </c>
-      <c r="C18" s="32">
-        <v>7.7499999999999999E-2</v>
-      </c>
-      <c r="D18" s="32">
-        <v>7.2999999999999995E-2</v>
-      </c>
-      <c r="E18" s="32">
-        <v>7.2800000000000004E-2</v>
-      </c>
-      <c r="F18" s="32">
-        <v>6.7699999999999996E-2</v>
-      </c>
-      <c r="G18" s="32">
-        <v>6.7299999999999999E-2</v>
-      </c>
-      <c r="H18" s="32">
-        <v>7.1800000000000003E-2</v>
-      </c>
-      <c r="I18" s="32">
-        <v>7.0699999999999999E-2</v>
-      </c>
-      <c r="J18" s="32">
-        <v>6.2799999999999995E-2</v>
-      </c>
-      <c r="K18" s="32">
-        <v>6.2E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A20" s="29" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A21" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="B21" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="C21" s="56"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="56"/>
-      <c r="F21" s="56"/>
-      <c r="G21" s="56"/>
-      <c r="H21" s="56"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A22" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="B22" s="30" t="s">
-        <v>112</v>
-      </c>
-      <c r="C22" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="D22" s="30" t="s">
-        <v>119</v>
-      </c>
-      <c r="E22" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="F22" s="30" t="s">
-        <v>120</v>
-      </c>
-      <c r="G22" s="30" t="s">
-        <v>113</v>
-      </c>
-      <c r="H22" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="I22" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="J22" s="30"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A23" s="31" t="s">
-        <v>114</v>
-      </c>
-      <c r="B23" s="31">
-        <v>1.09E-2</v>
-      </c>
-      <c r="C23" s="31">
-        <v>0.1875</v>
-      </c>
-      <c r="D23" s="31">
-        <v>0.40160000000000001</v>
-      </c>
-      <c r="E23" s="31">
-        <v>0.65820000000000001</v>
-      </c>
-      <c r="F23" s="31">
-        <v>0.82250000000000001</v>
-      </c>
-      <c r="G23" s="31">
-        <v>0.9677</v>
-      </c>
-      <c r="H23" s="31">
-        <v>1.1422000000000001</v>
-      </c>
-      <c r="I23" s="9" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A24" s="31" t="s">
-        <v>115</v>
-      </c>
-      <c r="B24" s="31">
-        <v>3.15E-2</v>
-      </c>
-      <c r="C24" s="31">
-        <v>7.8100000000000003E-2</v>
-      </c>
-      <c r="D24" s="31">
-        <v>0.10009999999999999</v>
-      </c>
-      <c r="E24" s="31">
-        <v>0.13120000000000001</v>
-      </c>
-      <c r="F24" s="31">
-        <v>0.1457</v>
-      </c>
-      <c r="G24" s="31">
-        <v>0.18579999999999999</v>
-      </c>
-      <c r="H24" s="31">
-        <v>0.24529999999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A25" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="B25" s="26">
-        <v>5.57E-2</v>
-      </c>
-      <c r="C25" s="26">
-        <v>9.2499999999999999E-2</v>
-      </c>
-      <c r="D25" s="26">
-        <v>0.1087</v>
-      </c>
-      <c r="E25" s="26">
-        <v>0.1447</v>
-      </c>
-      <c r="F25" s="26">
-        <v>0.15179999999999999</v>
-      </c>
-      <c r="G25" s="26">
-        <v>0.20150000000000001</v>
-      </c>
-      <c r="H25" s="26">
-        <v>0.25740000000000002</v>
-      </c>
-      <c r="I25" s="9" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="14.7" x14ac:dyDescent="0.5">
-      <c r="A26" s="26" t="s">
-        <v>122</v>
-      </c>
-      <c r="B26" s="26">
-        <v>7.3499999999999996E-2</v>
-      </c>
-      <c r="C26" s="26">
-        <v>0.1331</v>
-      </c>
-      <c r="D26" s="26">
-        <v>0.16500000000000001</v>
-      </c>
-      <c r="E26" s="26">
-        <v>0.17349999999999999</v>
-      </c>
-      <c r="F26" s="26">
-        <v>0.24529999999999999</v>
-      </c>
-      <c r="G26" s="26">
-        <v>0.33510000000000001</v>
-      </c>
-      <c r="H26" s="26">
-        <v>0.40150000000000002</v>
-      </c>
-      <c r="I26" s="26" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="14.7" x14ac:dyDescent="0.5">
-      <c r="A27" s="26" t="s">
-        <v>123</v>
-      </c>
-      <c r="B27" s="26">
-        <v>5.7299999999999997E-2</v>
-      </c>
-      <c r="C27" s="26">
-        <v>0.1726</v>
-      </c>
-      <c r="D27" s="26">
-        <v>0.2296</v>
-      </c>
-      <c r="E27" s="26">
-        <v>0.27410000000000001</v>
-      </c>
-      <c r="F27" s="26">
-        <v>0.37930000000000003</v>
-      </c>
-      <c r="G27" s="26">
-        <v>0.442</v>
-      </c>
-      <c r="H27" s="26">
-        <v>0.49890000000000001</v>
-      </c>
-      <c r="I27" s="33" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A29" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="B29" s="55" t="s">
-        <v>96</v>
-      </c>
-      <c r="C29" s="55"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="55"/>
-      <c r="H29" s="55"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A30" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="B30" s="30" t="s">
-        <v>112</v>
-      </c>
-      <c r="C30" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="D30" s="30" t="s">
-        <v>119</v>
-      </c>
-      <c r="E30" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="F30" s="30" t="s">
-        <v>120</v>
-      </c>
-      <c r="G30" s="30" t="s">
-        <v>113</v>
-      </c>
-      <c r="H30" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="I30" s="30"/>
-      <c r="J30" s="30"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A31" s="31" t="s">
-        <v>114</v>
-      </c>
-      <c r="B31" s="31">
-        <v>2.5999999999999999E-3</v>
-      </c>
-      <c r="C31" s="31">
-        <v>0.23569999999999999</v>
-      </c>
-      <c r="D31" s="31">
-        <v>0.41749999999999998</v>
-      </c>
-      <c r="E31" s="31">
-        <v>0.62070000000000003</v>
-      </c>
-      <c r="F31" s="31">
-        <v>0.87470000000000003</v>
-      </c>
-      <c r="G31" s="31">
-        <v>1.0710999999999999</v>
-      </c>
-      <c r="H31" s="31">
-        <v>1.2961</v>
-      </c>
-      <c r="I31" s="9" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A32" s="31" t="s">
-        <v>115</v>
-      </c>
-      <c r="B32" s="31">
-        <v>3.7699999999999997E-2</v>
-      </c>
-      <c r="C32" s="31">
-        <v>7.9899999999999999E-2</v>
-      </c>
-      <c r="D32" s="31">
-        <v>9.8000000000000004E-2</v>
-      </c>
-      <c r="E32" s="31">
-        <v>0.11990000000000001</v>
-      </c>
-      <c r="F32" s="31">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="G32" s="31">
-        <v>0.23769999999999999</v>
-      </c>
-      <c r="H32" s="31">
-        <v>0.27400000000000002</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A33" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="B33" s="26">
-        <v>5.6800000000000003E-2</v>
-      </c>
-      <c r="C33" s="26">
-        <v>9.0200000000000002E-2</v>
-      </c>
-      <c r="D33" s="26">
-        <v>9.9699999999999997E-2</v>
-      </c>
-      <c r="E33" s="26">
-        <v>0.1206</v>
-      </c>
-      <c r="F33" s="26">
-        <v>0.14680000000000001</v>
-      </c>
-      <c r="G33" s="26">
-        <v>0.24049999999999999</v>
-      </c>
-      <c r="H33" s="26">
-        <v>0.30220000000000002</v>
-      </c>
-      <c r="I33" s="9" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A34" s="26" t="s">
-        <v>122</v>
-      </c>
-      <c r="B34" s="26">
-        <v>6.13E-2</v>
-      </c>
-      <c r="C34" s="26">
-        <v>0.15129999999999999</v>
-      </c>
-      <c r="D34" s="26">
-        <v>0.17130000000000001</v>
-      </c>
-      <c r="E34" s="26">
-        <v>0.2044</v>
-      </c>
-      <c r="F34" s="26">
-        <v>0.2641</v>
-      </c>
-      <c r="G34" s="26">
-        <v>0.38129999999999997</v>
-      </c>
-      <c r="H34" s="26">
-        <v>0.47370000000000001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A35" s="26" t="s">
-        <v>123</v>
-      </c>
-      <c r="B35" s="26">
-        <v>5.7599999999999998E-2</v>
-      </c>
-      <c r="C35" s="26">
-        <v>0.1477</v>
-      </c>
-      <c r="D35" s="26">
-        <v>0.17660000000000001</v>
-      </c>
-      <c r="E35" s="26">
-        <v>0.28939999999999999</v>
-      </c>
-      <c r="F35" s="26">
-        <v>0.4214</v>
-      </c>
-      <c r="G35" s="26">
-        <v>0.48470000000000002</v>
-      </c>
-      <c r="H35" s="26">
-        <v>0.52010000000000001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A37" s="29" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A38" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="B38" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="C38" s="56"/>
-      <c r="D38" s="56"/>
-      <c r="E38" s="56"/>
-      <c r="F38" s="56"/>
-      <c r="G38" s="56"/>
-      <c r="H38" s="37"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A39" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="B39" s="30" t="s">
-        <v>132</v>
-      </c>
-      <c r="C39" s="30" t="s">
-        <v>133</v>
-      </c>
-      <c r="D39" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="E39" s="30" t="s">
-        <v>135</v>
-      </c>
-      <c r="F39" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="G39" s="30" t="s">
-        <v>137</v>
-      </c>
-      <c r="H39" s="30"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A40" s="31" t="s">
-        <v>114</v>
-      </c>
-      <c r="B40" s="31">
-        <v>0.107</v>
-      </c>
-      <c r="C40" s="31">
-        <v>0.25209999999999999</v>
-      </c>
-      <c r="D40" s="31">
-        <v>0.38419999999999999</v>
-      </c>
-      <c r="E40" s="31">
-        <v>0.4738</v>
-      </c>
-      <c r="F40" s="31">
-        <v>0.62670000000000003</v>
-      </c>
-      <c r="G40" s="31">
-        <v>0.82750000000000001</v>
-      </c>
-      <c r="H40" s="9" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A41" s="31" t="s">
-        <v>115</v>
-      </c>
-      <c r="B41" s="31">
-        <v>4.82E-2</v>
-      </c>
-      <c r="C41" s="31">
-        <v>6.2799999999999995E-2</v>
-      </c>
-      <c r="D41" s="31">
-        <v>7.6399999999999996E-2</v>
-      </c>
-      <c r="E41" s="31">
-        <v>8.0500000000000002E-2</v>
-      </c>
-      <c r="F41" s="31">
-        <v>0.1144</v>
-      </c>
-      <c r="G41" s="31">
-        <v>0.17530000000000001</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A42" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="B42" s="26">
-        <v>5.5599999999999997E-2</v>
-      </c>
-      <c r="C42" s="26">
-        <v>7.4099999999999999E-2</v>
-      </c>
-      <c r="D42" s="26">
-        <v>8.0600000000000005E-2</v>
-      </c>
-      <c r="E42" s="26">
-        <v>8.3599999999999994E-2</v>
-      </c>
-      <c r="F42" s="26">
-        <v>0.1198</v>
-      </c>
-      <c r="G42" s="26">
-        <v>0.18110000000000001</v>
-      </c>
-      <c r="H42" s="9" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A43" s="26" t="s">
-        <v>122</v>
-      </c>
-      <c r="B43" s="26">
-        <v>7.7799999999999994E-2</v>
-      </c>
-      <c r="C43" s="26">
-        <v>0.1449</v>
-      </c>
-      <c r="D43" s="26">
-        <v>0.157</v>
-      </c>
-      <c r="E43" s="26">
-        <v>0.1744</v>
-      </c>
-      <c r="F43" s="26">
-        <v>0.2104</v>
-      </c>
-      <c r="G43" s="26">
-        <v>0.27810000000000001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A44" s="26" t="s">
-        <v>123</v>
-      </c>
-      <c r="B44" s="26">
-        <v>8.1000000000000003E-2</v>
-      </c>
-      <c r="C44" s="26">
-        <v>0.1817</v>
-      </c>
-      <c r="D44" s="26">
-        <v>0.20050000000000001</v>
-      </c>
-      <c r="E44" s="26">
-        <v>0.22470000000000001</v>
-      </c>
-      <c r="F44" s="26">
-        <v>0.29349999999999998</v>
-      </c>
-      <c r="G44" s="26">
-        <v>0.41320000000000001</v>
-      </c>
-      <c r="K44" s="29"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A46" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="B46" s="56" t="s">
-        <v>96</v>
-      </c>
-      <c r="C46" s="56"/>
-      <c r="D46" s="56"/>
-      <c r="E46" s="56"/>
-      <c r="F46" s="56"/>
-      <c r="G46" s="56"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A47" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="B47" s="30" t="s">
-        <v>132</v>
-      </c>
-      <c r="C47" s="30" t="s">
-        <v>133</v>
-      </c>
-      <c r="D47" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="E47" s="30" t="s">
-        <v>135</v>
-      </c>
-      <c r="F47" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="G47" s="30" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A48" s="31" t="s">
-        <v>114</v>
-      </c>
-      <c r="B48" s="31">
-        <v>9.0499999999999997E-2</v>
-      </c>
-      <c r="C48" s="31">
-        <v>0.23330000000000001</v>
-      </c>
-      <c r="D48" s="31">
-        <v>0.3715</v>
-      </c>
-      <c r="E48" s="31">
-        <v>0.48770000000000002</v>
-      </c>
-      <c r="F48" s="31">
-        <v>0.66590000000000005</v>
-      </c>
-      <c r="G48" s="31">
-        <v>0.80779999999999996</v>
-      </c>
-      <c r="H48" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="J48" s="29"/>
-      <c r="K48" s="29"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A49" s="31" t="s">
-        <v>115</v>
-      </c>
-      <c r="B49" s="31">
-        <v>5.7500000000000002E-2</v>
-      </c>
-      <c r="C49" s="31">
-        <v>6.2600000000000003E-2</v>
-      </c>
-      <c r="D49" s="31">
-        <v>7.2900000000000006E-2</v>
-      </c>
-      <c r="E49" s="31">
-        <v>8.8700000000000001E-2</v>
-      </c>
-      <c r="F49" s="31">
-        <v>0.121</v>
-      </c>
-      <c r="G49" s="31">
-        <v>0.1542</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A50" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="B50" s="26">
-        <v>6.6900000000000001E-2</v>
-      </c>
-      <c r="C50" s="26">
-        <v>7.3300000000000004E-2</v>
-      </c>
-      <c r="D50" s="26">
-        <v>7.8600000000000003E-2</v>
-      </c>
-      <c r="E50" s="26">
-        <v>8.9899999999999994E-2</v>
-      </c>
-      <c r="F50" s="26">
-        <v>0.12280000000000001</v>
-      </c>
-      <c r="G50" s="26">
-        <v>0.1555</v>
-      </c>
-      <c r="H50" s="9" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A51" s="26" t="s">
-        <v>122</v>
-      </c>
-      <c r="B51" s="26">
-        <v>7.0900000000000005E-2</v>
-      </c>
-      <c r="C51" s="26">
-        <v>0.15090000000000001</v>
-      </c>
-      <c r="D51" s="26">
-        <v>0.15590000000000001</v>
-      </c>
-      <c r="E51" s="26">
-        <v>0.16500000000000001</v>
-      </c>
-      <c r="F51" s="26">
-        <v>0.20319999999999999</v>
-      </c>
-      <c r="G51" s="26">
-        <v>0.25290000000000001</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A52" s="26" t="s">
-        <v>123</v>
-      </c>
-      <c r="B52" s="26">
-        <v>7.7100000000000002E-2</v>
-      </c>
-      <c r="C52" s="26">
-        <v>0.15290000000000001</v>
-      </c>
-      <c r="D52" s="26">
-        <v>0.15570000000000001</v>
-      </c>
-      <c r="E52" s="26">
-        <v>0.17849999999999999</v>
-      </c>
-      <c r="F52" s="26">
-        <v>0.3145</v>
-      </c>
-      <c r="G52" s="26">
-        <v>0.38819999999999999</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="14.7" x14ac:dyDescent="0.5">
-      <c r="A54" s="29" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A55" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="B55" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="C55" s="56"/>
-      <c r="D55" s="56"/>
-      <c r="E55" s="56"/>
-      <c r="F55" s="56"/>
-      <c r="G55" s="38" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="14.7" x14ac:dyDescent="0.5">
-      <c r="A56" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="B56" s="26" t="s">
-        <v>144</v>
-      </c>
-      <c r="C56" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="D56" s="26" t="s">
-        <v>143</v>
-      </c>
-      <c r="E56" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="F56" s="26" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57" s="35" t="s">
-        <v>147</v>
-      </c>
-      <c r="B57" s="35">
-        <v>0.66139999999999999</v>
-      </c>
-      <c r="C57" s="35">
-        <v>1.1866000000000001</v>
-      </c>
-      <c r="D57" s="35">
-        <v>1.6840999999999999</v>
-      </c>
-      <c r="E57" s="35">
-        <v>2.1871999999999998</v>
-      </c>
-      <c r="F57" s="35">
-        <v>2.6762000000000001</v>
-      </c>
-      <c r="G57" s="33" t="s">
+      <c r="F85" s="24">
+        <v>9.6199999999999994E-2</v>
+      </c>
+      <c r="G85" s="24">
+        <v>0.189</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A87" s="27" t="s">
         <v>167</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A58" s="35" t="s">
-        <v>148</v>
-      </c>
-      <c r="B58" s="35">
-        <v>0.66710000000000003</v>
-      </c>
-      <c r="C58" s="35">
-        <v>1.2250000000000001</v>
-      </c>
-      <c r="D58" s="35">
-        <v>1.7150000000000001</v>
-      </c>
-      <c r="E58" s="35">
-        <v>2.2951999999999999</v>
-      </c>
-      <c r="F58" s="35">
-        <v>2.7707000000000002</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A59" s="35" t="s">
-        <v>149</v>
-      </c>
-      <c r="B59" s="35">
-        <v>3.1827000000000001</v>
-      </c>
-      <c r="C59" s="35">
-        <v>2.7292999999999998</v>
-      </c>
-      <c r="D59" s="35">
-        <v>2.1913</v>
-      </c>
-      <c r="E59" s="35">
-        <v>1.6611</v>
-      </c>
-      <c r="F59" s="35">
-        <v>1.1574</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A60" s="35" t="s">
-        <v>150</v>
-      </c>
-      <c r="B60" s="35">
-        <v>2.5539999999999998</v>
-      </c>
-      <c r="C60" s="35">
-        <v>2.3184999999999998</v>
-      </c>
-      <c r="D60" s="35">
-        <v>1.8012999999999999</v>
-      </c>
-      <c r="E60" s="35">
-        <v>1.4141999999999999</v>
-      </c>
-      <c r="F60" s="35">
-        <v>0.89959999999999996</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A61" s="26" t="s">
-        <v>139</v>
-      </c>
-      <c r="B61" s="26">
-        <v>0.11310000000000001</v>
-      </c>
-      <c r="C61" s="26">
-        <v>9.35E-2</v>
-      </c>
-      <c r="D61" s="26">
-        <v>8.6300000000000002E-2</v>
-      </c>
-      <c r="E61" s="26">
-        <v>0.11899999999999999</v>
-      </c>
-      <c r="F61" s="26">
-        <v>0.12889999999999999</v>
-      </c>
-      <c r="G61" s="9" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A62" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="B62" s="26">
-        <v>0.1177</v>
-      </c>
-      <c r="C62" s="26">
-        <v>0.1132</v>
-      </c>
-      <c r="D62" s="26">
-        <v>8.9899999999999994E-2</v>
-      </c>
-      <c r="E62" s="26">
-        <v>0.12330000000000001</v>
-      </c>
-      <c r="F62" s="26">
-        <v>0.1308</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="14.7" x14ac:dyDescent="0.5">
-      <c r="A63" s="26" t="s">
-        <v>153</v>
-      </c>
-      <c r="B63" s="26">
-        <v>0.52129999999999999</v>
-      </c>
-      <c r="C63" s="26">
-        <v>0.54269999999999996</v>
-      </c>
-      <c r="D63" s="26">
-        <v>0.50719999999999998</v>
-      </c>
-      <c r="E63" s="26">
-        <v>0.47389999999999999</v>
-      </c>
-      <c r="F63" s="26">
-        <v>0.48120000000000002</v>
-      </c>
-      <c r="G63" s="36" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A65" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="B65" s="56" t="s">
-        <v>96</v>
-      </c>
-      <c r="C65" s="56"/>
-      <c r="D65" s="56"/>
-      <c r="E65" s="56"/>
-      <c r="F65" s="56"/>
-      <c r="G65" s="37"/>
-    </row>
-    <row r="66" spans="1:8" ht="14.7" x14ac:dyDescent="0.5">
-      <c r="A66" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="B66" s="26" t="s">
-        <v>144</v>
-      </c>
-      <c r="C66" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="D66" s="26" t="s">
-        <v>143</v>
-      </c>
-      <c r="E66" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="F66" s="26" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A67" s="35" t="s">
-        <v>147</v>
-      </c>
-      <c r="B67" s="35">
-        <v>0.6502</v>
-      </c>
-      <c r="C67" s="35">
-        <v>1.1700999999999999</v>
-      </c>
-      <c r="D67" s="35">
-        <v>1.6665000000000001</v>
-      </c>
-      <c r="E67" s="35">
-        <v>2.1697000000000002</v>
-      </c>
-      <c r="F67" s="35">
-        <v>2.6669</v>
-      </c>
-      <c r="G67" s="33" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A68" s="35" t="s">
-        <v>148</v>
-      </c>
-      <c r="B68" s="35">
-        <v>0.67120000000000002</v>
-      </c>
-      <c r="C68" s="35">
-        <v>1.2824</v>
-      </c>
-      <c r="D68" s="35">
-        <v>1.7014</v>
-      </c>
-      <c r="E68" s="35">
-        <v>2.3450000000000002</v>
-      </c>
-      <c r="F68" s="35">
-        <v>2.8260999999999998</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A69" s="35" t="s">
-        <v>149</v>
-      </c>
-      <c r="B69" s="35">
-        <v>3.1842000000000001</v>
-      </c>
-      <c r="C69" s="35">
-        <v>2.6978</v>
-      </c>
-      <c r="D69" s="35">
-        <v>2.1915</v>
-      </c>
-      <c r="E69" s="35">
-        <v>1.6838</v>
-      </c>
-      <c r="F69" s="35">
-        <v>1.1996</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A70" s="35" t="s">
-        <v>150</v>
-      </c>
-      <c r="B70" s="35">
-        <v>2.7669000000000001</v>
-      </c>
-      <c r="C70" s="35">
-        <v>2.2968999999999999</v>
-      </c>
-      <c r="D70" s="35">
-        <v>1.8028</v>
-      </c>
-      <c r="E70" s="35">
-        <v>1.4423999999999999</v>
-      </c>
-      <c r="F70" s="35">
-        <v>0.96409999999999996</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="14.7" x14ac:dyDescent="0.5">
-      <c r="A71" s="26" t="s">
-        <v>139</v>
-      </c>
-      <c r="B71" s="26">
-        <v>9.5699999999999993E-2</v>
-      </c>
-      <c r="C71" s="26">
-        <v>8.5500000000000007E-2</v>
-      </c>
-      <c r="D71" s="26">
-        <v>0.1014</v>
-      </c>
-      <c r="E71" s="26">
-        <v>0.1203</v>
-      </c>
-      <c r="F71" s="26">
-        <v>0.1467</v>
-      </c>
-      <c r="G71" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="H71" s="26" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A72" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="B72" s="26">
-        <v>9.8100000000000007E-2</v>
-      </c>
-      <c r="C72" s="26">
-        <v>8.7900000000000006E-2</v>
-      </c>
-      <c r="D72" s="26">
-        <v>0.1036</v>
-      </c>
-      <c r="E72" s="26">
-        <v>0.12870000000000001</v>
-      </c>
-      <c r="F72" s="26">
-        <v>0.16819999999999999</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="14.7" x14ac:dyDescent="0.5">
-      <c r="A73" s="26" t="s">
-        <v>153</v>
-      </c>
-      <c r="B73" s="26">
-        <v>0.53400000000000003</v>
-      </c>
-      <c r="C73" s="26">
-        <v>0.52769999999999995</v>
-      </c>
-      <c r="D73" s="26">
-        <v>0.52500000000000002</v>
-      </c>
-      <c r="E73" s="26">
-        <v>0.5141</v>
-      </c>
-      <c r="F73" s="26">
-        <v>0.53269999999999995</v>
-      </c>
-      <c r="G73" s="36" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="14.7" x14ac:dyDescent="0.5">
-      <c r="A74" s="33" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="14.7" x14ac:dyDescent="0.5">
-      <c r="A75" s="34"/>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A76" s="29" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A77" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="B77" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="C77" s="56"/>
-      <c r="D77" s="56"/>
-      <c r="E77" s="56"/>
-      <c r="F77" s="56"/>
-      <c r="G77" s="56"/>
-      <c r="H77" s="26" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A78" s="26" t="s">
-        <v>157</v>
-      </c>
-      <c r="B78" s="68" t="s">
-        <v>161</v>
-      </c>
-      <c r="C78" s="30" t="s">
-        <v>160</v>
-      </c>
-      <c r="D78" s="30" t="s">
-        <v>162</v>
-      </c>
-      <c r="E78" s="30" t="s">
-        <v>158</v>
-      </c>
-      <c r="F78" s="30" t="s">
-        <v>163</v>
-      </c>
-      <c r="G78" s="30" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" ht="14.7" x14ac:dyDescent="0.5">
-      <c r="A79" s="26" t="s">
-        <v>139</v>
-      </c>
-      <c r="B79" s="28">
-        <v>8.9800000000000005E-2</v>
-      </c>
-      <c r="C79" s="26">
-        <v>9.3299999999999994E-2</v>
-      </c>
-      <c r="D79" s="26">
-        <v>9.2200000000000004E-2</v>
-      </c>
-      <c r="E79" s="26">
-        <v>9.1899999999999996E-2</v>
-      </c>
-      <c r="F79" s="26">
-        <v>0.10009999999999999</v>
-      </c>
-      <c r="G79" s="26">
-        <v>0.20349999999999999</v>
-      </c>
-      <c r="H79" s="26" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A80" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="B80" s="28">
-        <v>0.10440000000000001</v>
-      </c>
-      <c r="C80" s="26">
-        <v>0.1106</v>
-      </c>
-      <c r="D80" s="26">
-        <v>0.1042</v>
-      </c>
-      <c r="E80" s="26">
-        <v>0.1018</v>
-      </c>
-      <c r="F80" s="26">
-        <v>0.1159</v>
-      </c>
-      <c r="G80" s="26">
-        <v>0.2044</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A82" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="B82" s="56" t="s">
-        <v>96</v>
-      </c>
-      <c r="C82" s="56"/>
-      <c r="D82" s="56"/>
-      <c r="E82" s="56"/>
-      <c r="F82" s="56"/>
-      <c r="G82" s="56"/>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A83" s="26" t="s">
-        <v>157</v>
-      </c>
-      <c r="B83" s="68" t="s">
-        <v>161</v>
-      </c>
-      <c r="C83" s="30" t="s">
-        <v>160</v>
-      </c>
-      <c r="D83" s="30" t="s">
-        <v>162</v>
-      </c>
-      <c r="E83" s="30" t="s">
-        <v>158</v>
-      </c>
-      <c r="F83" s="30" t="s">
-        <v>163</v>
-      </c>
-      <c r="G83" s="30" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A84" s="26" t="s">
-        <v>139</v>
-      </c>
-      <c r="B84" s="28">
-        <v>9.1300000000000006E-2</v>
-      </c>
-      <c r="C84" s="26">
-        <v>9.0499999999999997E-2</v>
-      </c>
-      <c r="D84" s="26">
-        <v>8.6699999999999999E-2</v>
-      </c>
-      <c r="E84" s="26">
-        <v>8.4199999999999997E-2</v>
-      </c>
-      <c r="F84" s="26">
-        <v>9.4100000000000003E-2</v>
-      </c>
-      <c r="G84" s="26">
-        <v>0.18709999999999999</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A85" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="B85" s="28">
-        <v>9.2499999999999999E-2</v>
-      </c>
-      <c r="C85" s="26">
-        <v>9.11E-2</v>
-      </c>
-      <c r="D85" s="26">
-        <v>8.8200000000000001E-2</v>
-      </c>
-      <c r="E85" s="26">
-        <v>8.77E-2</v>
-      </c>
-      <c r="F85" s="26">
-        <v>9.6199999999999994E-2</v>
-      </c>
-      <c r="G85" s="26">
-        <v>0.189</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A87" s="29" t="s">
-        <v>168</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B77:G77"/>
+    <mergeCell ref="B82:G82"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="B46:G46"/>
+    <mergeCell ref="B55:F55"/>
+    <mergeCell ref="B65:F65"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
@@ -6199,12 +6359,6 @@
     <mergeCell ref="B38:G38"/>
     <mergeCell ref="B29:H29"/>
     <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B77:G77"/>
-    <mergeCell ref="B82:G82"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="B46:G46"/>
-    <mergeCell ref="B55:F55"/>
-    <mergeCell ref="B65:F65"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6214,10 +6368,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2687A086-E6AD-4DC9-8E6D-5E9AEFD1DED8}">
-  <dimension ref="A1:J59"/>
+  <dimension ref="A1:Q68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -6231,17 +6385,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="67"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="69"/>
       <c r="E1" s="5" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.5">
@@ -6259,7 +6413,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="56" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -6273,7 +6427,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="40"/>
+      <c r="A4" s="57"/>
       <c r="B4" s="4" t="s">
         <v>52</v>
       </c>
@@ -6285,7 +6439,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="56" t="s">
         <v>22</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -6299,7 +6453,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="40"/>
+      <c r="A6" s="57"/>
       <c r="B6" s="4" t="s">
         <v>52</v>
       </c>
@@ -6311,7 +6465,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="56" t="s">
         <v>23</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -6325,7 +6479,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="40"/>
+      <c r="A8" s="57"/>
       <c r="B8" s="4" t="s">
         <v>52</v>
       </c>
@@ -6340,28 +6494,23 @@
       <c r="A9" s="7"/>
     </row>
     <row r="10" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="70" t="s">
-        <v>170</v>
-      </c>
-      <c r="C10" s="71" t="s">
-        <v>188</v>
+      <c r="A10" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="C10" s="40" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="65" t="s">
-        <v>183</v>
-      </c>
-      <c r="B11" s="66"/>
-      <c r="C11" s="66"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="67"/>
-      <c r="G11" s="65" t="s">
+      <c r="A11" s="67" t="s">
+        <v>180</v>
+      </c>
+      <c r="B11" s="68"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="69"/>
+      <c r="J11" s="5" t="s">
         <v>172</v>
-      </c>
-      <c r="H11" s="66"/>
-      <c r="I11" s="66"/>
-      <c r="J11" s="5" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
@@ -6372,889 +6521,1415 @@
         <v>35</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="I12" s="10" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A13" s="39" t="s">
+      <c r="A13" s="56" t="s">
         <v>21</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="2">
-        <v>0.25979999999999998</v>
+      <c r="C13" s="1">
+        <f>0.8-0.2598</f>
+        <v>0.54020000000000001</v>
       </c>
       <c r="D13" s="2">
-        <v>0.11899999999999999</v>
+        <f>0.8-0.119</f>
+        <v>0.68100000000000005</v>
       </c>
       <c r="E13" s="2">
         <v>0</v>
       </c>
-      <c r="G13" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="I13" s="4">
-        <v>0.44840000000000002</v>
-      </c>
-      <c r="J13" s="69" t="s">
-        <v>176</v>
+      <c r="J13" s="38" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="40"/>
+      <c r="A14" s="57"/>
       <c r="B14" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="2">
-        <v>1.7999999999999999E-2</v>
+      <c r="C14" s="1">
+        <f>0.8+0.018</f>
+        <v>0.81800000000000006</v>
       </c>
       <c r="D14" s="2">
-        <v>0.1275</v>
+        <f>0.1275+0.8</f>
+        <v>0.92749999999999999</v>
       </c>
       <c r="E14" s="2">
         <v>0</v>
       </c>
-      <c r="G14" s="40"/>
-      <c r="H14" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="I14" s="4">
-        <v>0.1235</v>
-      </c>
       <c r="J14" s="6" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="56" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="2">
-        <v>-8.5400000000000004E-2</v>
+      <c r="C15" s="1">
+        <f>ABS(-0.0854-0.8)</f>
+        <v>0.88540000000000008</v>
       </c>
       <c r="D15" s="2">
-        <v>-0.1401</v>
+        <f>ABS(-0.1401-0.8)</f>
+        <v>0.94010000000000005</v>
       </c>
       <c r="E15" s="2">
         <v>1E-4</v>
       </c>
-      <c r="G15" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="I15" s="4">
-        <v>-5.2699999999999997E-2</v>
-      </c>
-      <c r="J15" s="69"/>
+      <c r="J15" s="38"/>
     </row>
     <row r="16" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="40"/>
+      <c r="A16" s="57"/>
       <c r="B16" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="2">
-        <v>-0.19850000000000001</v>
+      <c r="C16" s="1">
+        <f>0.8-0.1985</f>
+        <v>0.60150000000000003</v>
       </c>
       <c r="D16" s="2">
-        <v>-0.13830000000000001</v>
+        <f>0.8-0.1383</f>
+        <v>0.66170000000000007</v>
       </c>
       <c r="E16" s="2">
         <v>0</v>
       </c>
-      <c r="G16" s="40"/>
-      <c r="H16" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" s="4">
-        <v>-0.1512</v>
-      </c>
     </row>
     <row r="17" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A17" s="39" t="s">
+      <c r="A17" s="56" t="s">
         <v>23</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="2">
-        <v>0.27929999999999999</v>
+      <c r="C17" s="1">
+        <f>0.8-0.2793</f>
+        <v>0.52070000000000005</v>
       </c>
       <c r="D17" s="2">
-        <v>0.1865</v>
+        <f>0.8-0.1865</f>
+        <v>0.61350000000000005</v>
       </c>
       <c r="E17" s="2">
         <v>0</v>
       </c>
-      <c r="G17" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="I17" s="4">
-        <v>0.46239999999999998</v>
-      </c>
     </row>
     <row r="18" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="40"/>
+      <c r="A18" s="57"/>
       <c r="B18" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="2">
-        <v>0.1749</v>
+      <c r="C18" s="1">
+        <f>0.8+0.153</f>
+        <v>0.95300000000000007</v>
       </c>
       <c r="D18" s="2">
-        <v>0.18920000000000001</v>
+        <f>0.8+0.1892</f>
+        <v>0.98920000000000008</v>
       </c>
       <c r="E18" s="2">
-        <v>0.50449999999999995</v>
-      </c>
-      <c r="G18" s="40"/>
-      <c r="H18" s="4" t="s">
+        <v>6.3E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A19" s="38" t="s">
+        <v>192</v>
+      </c>
+      <c r="G19" s="38" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A20" s="38"/>
+      <c r="G20" s="38"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A21" s="67" t="s">
+        <v>195</v>
+      </c>
+      <c r="B21" s="68"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="68"/>
+      <c r="E21" s="69"/>
+      <c r="G21" s="38"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A22" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="G22" s="38"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A23" s="56" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="1">
+        <f>ABS(0.1609-0.8)</f>
+        <v>0.6391</v>
+      </c>
+      <c r="D23" s="2">
+        <f>ABS(0.1052-0.8)</f>
+        <v>0.69480000000000008</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A24" s="57"/>
+      <c r="B24" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="I18" s="4">
-        <v>0.26819999999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A19" s="69" t="s">
+      <c r="C24" s="1">
+        <f>ABS(0.0588+0.8)</f>
+        <v>0.85880000000000001</v>
+      </c>
+      <c r="D24" s="2">
+        <f>ABS(0.1423+0.8)</f>
+        <v>0.94230000000000003</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A25" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="1">
+        <f>ABS(-0.1107-0.8)</f>
+        <v>0.91070000000000007</v>
+      </c>
+      <c r="D25" s="2">
+        <f>ABS(-0.1441-0.8)</f>
+        <v>0.94410000000000005</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A26" s="57"/>
+      <c r="B26" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="1">
+        <f>ABS(-0.1752+0.8)</f>
+        <v>0.62480000000000002</v>
+      </c>
+      <c r="D26" s="2">
+        <f>ABS(-0.1295+0.8)</f>
+        <v>0.6705000000000001</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A27" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="1">
+        <f>ABS(0.2242-0.8)</f>
+        <v>0.57580000000000009</v>
+      </c>
+      <c r="D27" s="2">
+        <f>ABS(0.1741-0.8)</f>
+        <v>0.62590000000000001</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A28" s="57"/>
+      <c r="B28" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="1">
+        <f>ABS(0.1213+0.8)</f>
+        <v>0.92130000000000001</v>
+      </c>
+      <c r="D28" s="2">
+        <f>ABS(0.1999+0.8)</f>
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="E28" s="2">
+        <v>0</v>
+      </c>
+      <c r="G28" s="38"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A29" s="38" t="s">
+        <v>196</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="G29" s="38"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A30" s="7"/>
+    </row>
+    <row r="31" spans="1:9" ht="15" x14ac:dyDescent="0.5">
+      <c r="A31" s="39" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A32" s="70" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" s="71"/>
+      <c r="C32" s="71"/>
+      <c r="D32" s="71"/>
+      <c r="E32" s="71"/>
+      <c r="F32" s="72"/>
+      <c r="G32" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A33" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G33" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J33" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="G19" s="69" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A20" s="69"/>
-      <c r="G20" s="69"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A21" s="7"/>
-    </row>
-    <row r="22" spans="1:9" ht="15" x14ac:dyDescent="0.5">
-      <c r="A22" s="70" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A23" s="76" t="s">
-        <v>49</v>
-      </c>
-      <c r="B23" s="77"/>
-      <c r="C23" s="77"/>
-      <c r="D23" s="77"/>
-      <c r="E23" s="77"/>
-      <c r="F23" s="78"/>
-      <c r="G23" s="20" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A24" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="F24" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="G24" s="69" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A25" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25" s="72">
-        <v>0.20519999999999999</v>
-      </c>
-      <c r="D25" s="73">
-        <v>0.1487</v>
-      </c>
-      <c r="E25" s="2">
-        <f>C25-D25</f>
-        <v>5.6499999999999995E-2</v>
-      </c>
-      <c r="F25" s="2">
-        <v>1E-4</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A26" s="40"/>
-      <c r="B26" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C26" s="1">
-        <v>0.21229999999999999</v>
-      </c>
-      <c r="D26" s="2">
-        <v>0.1106</v>
-      </c>
-      <c r="E26" s="74">
-        <f t="shared" ref="E26:E30" si="0">C26-D26</f>
-        <v>0.10169999999999998</v>
-      </c>
-      <c r="F26" s="2">
-        <v>0</v>
-      </c>
-      <c r="G26" s="1">
-        <f>ABS(E26-E25)</f>
-        <v>4.519999999999999E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A27" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C27" s="72">
-        <v>-8.3900000000000002E-2</v>
-      </c>
-      <c r="D27" s="73">
-        <v>-0.11269999999999999</v>
-      </c>
-      <c r="E27" s="2">
-        <f t="shared" si="0"/>
-        <v>2.8799999999999992E-2</v>
-      </c>
-      <c r="F27" s="2">
-        <v>0.26329999999999998</v>
-      </c>
-      <c r="G27" s="75" t="s">
+      <c r="K33" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="L33" s="4" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A28" s="40"/>
-      <c r="B28" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C28" s="1">
-        <v>-4.9700000000000001E-2</v>
-      </c>
-      <c r="D28" s="2">
-        <v>-0.1211</v>
-      </c>
-      <c r="E28" s="74">
-        <f t="shared" si="0"/>
-        <v>7.1399999999999991E-2</v>
-      </c>
-      <c r="F28" s="2">
-        <v>1E-4</v>
-      </c>
-      <c r="G28" s="1">
-        <f>ABS(E28-E27)</f>
-        <v>4.2599999999999999E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A29" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29" s="73">
-        <v>0.1537</v>
-      </c>
-      <c r="D29" s="72">
-        <v>0.2175</v>
-      </c>
-      <c r="E29" s="2">
-        <f t="shared" si="0"/>
-        <v>-6.3799999999999996E-2</v>
-      </c>
-      <c r="F29" s="2">
-        <v>6.5799999999999997E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A30" s="40"/>
-      <c r="B30" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C30" s="2">
-        <v>0.15890000000000001</v>
-      </c>
-      <c r="D30" s="1">
-        <v>0.19570000000000001</v>
-      </c>
-      <c r="E30" s="74">
-        <f t="shared" si="0"/>
-        <v>-3.6799999999999999E-2</v>
-      </c>
-      <c r="F30" s="2">
-        <v>0.28349999999999997</v>
-      </c>
-      <c r="G30" s="1">
-        <f>ABS(E30-E29)</f>
-        <v>2.6999999999999996E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="79" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A32" s="46" t="s">
-        <v>50</v>
-      </c>
-      <c r="B32" s="47"/>
-      <c r="C32" s="47"/>
-      <c r="D32" s="47"/>
-      <c r="E32" s="47"/>
-      <c r="F32" s="48"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A33" s="80" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33" s="80" t="s">
-        <v>48</v>
-      </c>
-      <c r="C33" s="80" t="s">
-        <v>55</v>
-      </c>
-      <c r="D33" s="80" t="s">
-        <v>56</v>
-      </c>
-      <c r="E33" s="80" t="s">
-        <v>57</v>
-      </c>
-      <c r="F33" s="80" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A34" s="39" t="s">
+      <c r="M33" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="N33" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="O33" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="P33" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q33" s="4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A34" s="56" t="s">
         <v>21</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C34" s="72">
-        <v>3.2000000000000002E-3</v>
-      </c>
-      <c r="D34" s="73">
-        <v>6.1600000000000002E-2</v>
+      <c r="C34" s="41">
+        <f>ABS(0.2052-0.8)</f>
+        <v>0.5948</v>
+      </c>
+      <c r="D34" s="42">
+        <f>ABS(0.1487-0.8)</f>
+        <v>0.65129999999999999</v>
       </c>
       <c r="E34" s="2">
         <f>C34-D34</f>
-        <v>-5.8400000000000001E-2</v>
+        <v>-5.6499999999999995E-2</v>
       </c>
       <c r="F34" s="2">
-        <v>5.8999999999999999E-3</v>
-      </c>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A35" s="40"/>
+        <v>1E-4</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="I34" s="56" t="s">
+        <v>21</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K34" s="47">
+        <v>20.54</v>
+      </c>
+      <c r="L34" s="47">
+        <v>22.837</v>
+      </c>
+      <c r="M34" s="47">
+        <v>3.286</v>
+      </c>
+      <c r="N34" s="47">
+        <v>24.617999999999999</v>
+      </c>
+      <c r="O34" s="47">
+        <v>210.74199999999999</v>
+      </c>
+      <c r="P34" s="47">
+        <v>4.367</v>
+      </c>
+      <c r="Q34" s="47">
+        <v>0.432</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A35" s="57"/>
       <c r="B35" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C35" s="1">
-        <v>-5.7000000000000002E-3</v>
+        <f>ABS(0.2123-0.8)</f>
+        <v>0.58770000000000011</v>
       </c>
       <c r="D35" s="2">
-        <v>8.9200000000000002E-2</v>
-      </c>
-      <c r="E35" s="74">
-        <f t="shared" ref="E35:E39" si="1">C35-D35</f>
-        <v>-9.4899999999999998E-2</v>
+        <f>ABS(0.1106-0.8)</f>
+        <v>0.68940000000000001</v>
+      </c>
+      <c r="E35" s="43">
+        <f t="shared" ref="E35:E39" si="0">C35-D35</f>
+        <v>-0.1016999999999999</v>
       </c>
       <c r="F35" s="2">
-        <v>2.0000000000000001E-4</v>
+        <v>0</v>
       </c>
       <c r="G35" s="1">
         <f>ABS(E35-E34)</f>
-        <v>3.6499999999999998E-2</v>
-      </c>
-      <c r="H35" s="5"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A36" s="39" t="s">
+        <v>4.5199999999999907E-2</v>
+      </c>
+      <c r="I35" s="57"/>
+      <c r="J35" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K35" s="47">
+        <v>9.8239999999999998</v>
+      </c>
+      <c r="L35" s="47">
+        <v>15.805999999999999</v>
+      </c>
+      <c r="M35" s="47">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="N35" s="47">
+        <v>7.2889999999999997</v>
+      </c>
+      <c r="O35" s="47">
+        <v>146.749</v>
+      </c>
+      <c r="P35" s="47">
+        <v>3.7549999999999999</v>
+      </c>
+      <c r="Q35" s="47">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A36" s="56" t="s">
         <v>22</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C36" s="72">
-        <v>-0.2681</v>
-      </c>
-      <c r="D36" s="73">
-        <v>-0.17510000000000001</v>
+      <c r="C36" s="41">
+        <f>ABS(-0.0839-0.8)</f>
+        <v>0.88390000000000002</v>
+      </c>
+      <c r="D36" s="42">
+        <f>ABS(-0.1127-0.8)</f>
+        <v>0.91270000000000007</v>
       </c>
       <c r="E36" s="2">
-        <f t="shared" si="1"/>
-        <v>-9.2999999999999999E-2</v>
+        <f t="shared" si="0"/>
+        <v>-2.8800000000000048E-2</v>
       </c>
       <c r="F36" s="2">
-        <v>3.7000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A37" s="40"/>
+        <v>0.26329999999999998</v>
+      </c>
+      <c r="G36" s="44" t="s">
+        <v>182</v>
+      </c>
+      <c r="I36" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K36" s="47">
+        <v>12.632999999999999</v>
+      </c>
+      <c r="L36" s="47">
+        <v>10.585000000000001</v>
+      </c>
+      <c r="M36" s="47">
+        <v>3.0640000000000001</v>
+      </c>
+      <c r="N36" s="47">
+        <v>19.212</v>
+      </c>
+      <c r="O36" s="47">
+        <v>183.398</v>
+      </c>
+      <c r="P36" s="47">
+        <v>1.7130000000000001</v>
+      </c>
+      <c r="Q36" s="47">
+        <v>0.53900000000000003</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A37" s="57"/>
       <c r="B37" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C37" s="1">
-        <v>-0.28139999999999998</v>
+        <f>ABS(-0.0497-0.8)</f>
+        <v>0.84970000000000001</v>
       </c>
       <c r="D37" s="2">
-        <v>-0.13650000000000001</v>
-      </c>
-      <c r="E37" s="74">
-        <f t="shared" si="1"/>
-        <v>-0.14489999999999997</v>
+        <f>ABS(-0.1211-0.8)</f>
+        <v>0.92110000000000003</v>
+      </c>
+      <c r="E37" s="43">
+        <f t="shared" si="0"/>
+        <v>-7.1400000000000019E-2</v>
       </c>
       <c r="F37" s="2">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="G37" s="1">
         <f>ABS(E37-E36)</f>
-        <v>5.1899999999999974E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A38" s="39" t="s">
+        <v>4.2599999999999971E-2</v>
+      </c>
+      <c r="I37" s="57"/>
+      <c r="J37" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K37" s="47">
+        <v>8.2110000000000003</v>
+      </c>
+      <c r="L37" s="48">
+        <v>13.224</v>
+      </c>
+      <c r="M37" s="47">
+        <v>1.0229999999999999</v>
+      </c>
+      <c r="N37" s="47">
+        <v>6.2839999999999998</v>
+      </c>
+      <c r="O37" s="47">
+        <v>151.68</v>
+      </c>
+      <c r="P37" s="48">
+        <v>2.2519999999999998</v>
+      </c>
+      <c r="Q37" s="47">
+        <v>0.44400000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A38" s="56" t="s">
         <v>23</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C38" s="73">
-        <v>0.1953</v>
-      </c>
-      <c r="D38" s="72">
-        <v>0.11890000000000001</v>
+      <c r="C38" s="42">
+        <f>ABS(0.1537-0.8)</f>
+        <v>0.6463000000000001</v>
+      </c>
+      <c r="D38" s="41">
+        <f>ABS(0.2175-0.8)</f>
+        <v>0.58250000000000002</v>
       </c>
       <c r="E38" s="2">
-        <f t="shared" si="1"/>
-        <v>7.6399999999999996E-2</v>
+        <f t="shared" si="0"/>
+        <v>6.3800000000000079E-2</v>
       </c>
       <c r="F38" s="2">
-        <v>2.8799999999999999E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A39" s="40"/>
+        <v>6.5799999999999997E-2</v>
+      </c>
+      <c r="I38" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K38" s="47">
+        <v>22.178999999999998</v>
+      </c>
+      <c r="L38" s="47">
+        <v>22.736999999999998</v>
+      </c>
+      <c r="M38" s="47">
+        <v>4.2050000000000001</v>
+      </c>
+      <c r="N38" s="47">
+        <v>29.026</v>
+      </c>
+      <c r="O38" s="47">
+        <v>208.39500000000001</v>
+      </c>
+      <c r="P38" s="47">
+        <v>4.2229999999999999</v>
+      </c>
+      <c r="Q38" s="47">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A39" s="57"/>
       <c r="B39" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C39" s="2">
-        <v>0.1525</v>
+        <f>ABS(0.1589-0.8)</f>
+        <v>0.6411</v>
       </c>
       <c r="D39" s="1">
-        <v>0.12189999999999999</v>
-      </c>
-      <c r="E39" s="74">
-        <f t="shared" si="1"/>
-        <v>3.0600000000000002E-2</v>
+        <f>ABS(0.1957-0.8)</f>
+        <v>0.60430000000000006</v>
+      </c>
+      <c r="E39" s="43">
+        <f t="shared" si="0"/>
+        <v>3.6799999999999944E-2</v>
       </c>
       <c r="F39" s="2">
-        <v>0.37819999999999998</v>
+        <v>0.28349999999999997</v>
       </c>
       <c r="G39" s="1">
         <f>ABS(E39-E38)</f>
-        <v>4.5799999999999993E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="15" x14ac:dyDescent="0.5">
-      <c r="A41" s="70" t="s">
+        <v>2.7000000000000135E-2</v>
+      </c>
+      <c r="I39" s="57"/>
+      <c r="J39" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K39" s="47">
+        <v>8.7789999999999999</v>
+      </c>
+      <c r="L39" s="47">
+        <v>14.215999999999999</v>
+      </c>
+      <c r="M39" s="47">
+        <v>1.0069999999999999</v>
+      </c>
+      <c r="N39" s="47">
+        <v>7.7240000000000002</v>
+      </c>
+      <c r="O39" s="47">
+        <v>136.66399999999999</v>
+      </c>
+      <c r="P39" s="47">
+        <v>2.8820000000000001</v>
+      </c>
+      <c r="Q39" s="47">
+        <v>0.35899999999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="45" t="s">
+        <v>181</v>
+      </c>
+      <c r="K40" s="47"/>
+      <c r="L40" s="47"/>
+      <c r="M40" s="47"/>
+      <c r="N40" s="47"/>
+      <c r="O40" s="47"/>
+      <c r="P40" s="47"/>
+      <c r="Q40" s="47"/>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A41" s="59" t="s">
+        <v>50</v>
+      </c>
+      <c r="B41" s="60"/>
+      <c r="C41" s="60"/>
+      <c r="D41" s="60"/>
+      <c r="E41" s="60"/>
+      <c r="F41" s="61"/>
+      <c r="I41" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K41" s="47"/>
+      <c r="L41" s="47"/>
+      <c r="M41" s="47"/>
+      <c r="N41" s="47"/>
+      <c r="O41" s="47"/>
+      <c r="P41" s="47"/>
+      <c r="Q41" s="47"/>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A42" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="B42" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="D42" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="E42" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="F42" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J42" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="K42" s="47" t="s">
+        <v>185</v>
+      </c>
+      <c r="L42" s="47" t="s">
+        <v>186</v>
+      </c>
+      <c r="M42" s="47" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A42" s="14" t="s">
+      <c r="N42" s="47" t="s">
+        <v>188</v>
+      </c>
+      <c r="O42" s="47" t="s">
+        <v>189</v>
+      </c>
+      <c r="P42" s="47" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q42" s="47" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A43" s="56" t="s">
+        <v>21</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" s="41">
+        <f>ABS(0.8+0.0032)</f>
+        <v>0.80320000000000003</v>
+      </c>
+      <c r="D43" s="42">
+        <f>ABS(0.8+0.0616)</f>
+        <v>0.86160000000000003</v>
+      </c>
+      <c r="E43" s="2">
+        <f>C43-D43</f>
+        <v>-5.8400000000000007E-2</v>
+      </c>
+      <c r="F43" s="2">
+        <v>5.8999999999999999E-3</v>
+      </c>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="56" t="s">
+        <v>21</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K43" s="47">
+        <v>16.762</v>
+      </c>
+      <c r="L43" s="47">
+        <v>20.757999999999999</v>
+      </c>
+      <c r="M43" s="47">
+        <v>2.9220000000000002</v>
+      </c>
+      <c r="N43" s="47">
+        <v>21.172999999999998</v>
+      </c>
+      <c r="O43" s="47">
+        <v>228.69</v>
+      </c>
+      <c r="P43" s="47">
+        <v>3.39</v>
+      </c>
+      <c r="Q43" s="47">
+        <v>0.48599999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A44" s="57"/>
+      <c r="B44" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" s="1">
+        <f>ABS(0.8+-0.0057)</f>
+        <v>0.79430000000000001</v>
+      </c>
+      <c r="D44" s="2">
+        <f>ABS(0.8+0.0892)</f>
+        <v>0.88919999999999999</v>
+      </c>
+      <c r="E44" s="43">
+        <f t="shared" ref="E44:E48" si="1">C44-D44</f>
+        <v>-9.4899999999999984E-2</v>
+      </c>
+      <c r="F44" s="2">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="G44" s="1">
+        <f>ABS(E44-E43)</f>
+        <v>3.6499999999999977E-2</v>
+      </c>
+      <c r="H44" s="5"/>
+      <c r="I44" s="57"/>
+      <c r="J44" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K44" s="47">
+        <v>7.2670000000000003</v>
+      </c>
+      <c r="L44" s="47">
+        <v>15.895</v>
+      </c>
+      <c r="M44" s="47">
+        <v>0.497</v>
+      </c>
+      <c r="N44" s="47">
+        <v>4.0780000000000003</v>
+      </c>
+      <c r="O44" s="47">
+        <v>161.11600000000001</v>
+      </c>
+      <c r="P44" s="48">
+        <v>3.71</v>
+      </c>
+      <c r="Q44" s="47">
+        <v>0.29699999999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A45" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" s="41">
+        <f>ABS(0.8-0.2681)</f>
+        <v>0.53190000000000004</v>
+      </c>
+      <c r="D45" s="42">
+        <f>ABS(0.8-0.1751)</f>
+        <v>0.62490000000000001</v>
+      </c>
+      <c r="E45" s="2">
+        <f t="shared" si="1"/>
+        <v>-9.2999999999999972E-2</v>
+      </c>
+      <c r="F45" s="2">
+        <v>3.7000000000000002E-3</v>
+      </c>
+      <c r="I45" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K45" s="47">
+        <v>10.964</v>
+      </c>
+      <c r="L45" s="47">
+        <v>8.7509999999999994</v>
+      </c>
+      <c r="M45" s="47">
+        <v>3.0310000000000001</v>
+      </c>
+      <c r="N45" s="47">
+        <v>17.704000000000001</v>
+      </c>
+      <c r="O45" s="47">
+        <v>193.97800000000001</v>
+      </c>
+      <c r="P45" s="47">
+        <v>1.2749999999999999</v>
+      </c>
+      <c r="Q45" s="47">
+        <v>0.53300000000000003</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A46" s="57"/>
+      <c r="B46" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46" s="1">
+        <f>ABS(0.8-0.2814)</f>
+        <v>0.51860000000000006</v>
+      </c>
+      <c r="D46" s="2">
+        <f>ABS(0.8-0.1365)</f>
+        <v>0.66349999999999998</v>
+      </c>
+      <c r="E46" s="43">
+        <f t="shared" si="1"/>
+        <v>-0.14489999999999992</v>
+      </c>
+      <c r="F46" s="2">
+        <v>0</v>
+      </c>
+      <c r="G46" s="1">
+        <f>ABS(E46-E45)</f>
+        <v>5.1899999999999946E-2</v>
+      </c>
+      <c r="I46" s="57"/>
+      <c r="J46" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K46" s="47">
+        <v>4.2569999999999997</v>
+      </c>
+      <c r="L46" s="47">
+        <v>7.6420000000000003</v>
+      </c>
+      <c r="M46" s="47">
+        <v>0.76300000000000001</v>
+      </c>
+      <c r="N46" s="47">
+        <v>4.8620000000000001</v>
+      </c>
+      <c r="O46" s="47">
+        <v>149.83699999999999</v>
+      </c>
+      <c r="P46" s="47">
+        <v>1.232</v>
+      </c>
+      <c r="Q46" s="47">
+        <v>0.42099999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A47" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C47" s="42">
+        <f>ABS(0.8+0.1953)</f>
+        <v>0.99530000000000007</v>
+      </c>
+      <c r="D47" s="41">
+        <f>ABS(0.8+0.1189)</f>
+        <v>0.91890000000000005</v>
+      </c>
+      <c r="E47" s="2">
+        <f t="shared" si="1"/>
+        <v>7.6400000000000023E-2</v>
+      </c>
+      <c r="F47" s="2">
+        <v>2.8799999999999999E-2</v>
+      </c>
+      <c r="I47" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K47" s="47">
+        <v>22.18</v>
+      </c>
+      <c r="L47" s="47">
+        <v>24.222999999999999</v>
+      </c>
+      <c r="M47" s="47">
+        <v>3.9950000000000001</v>
+      </c>
+      <c r="N47" s="47">
+        <v>26.404</v>
+      </c>
+      <c r="O47" s="47">
+        <v>227.66200000000001</v>
+      </c>
+      <c r="P47" s="47">
+        <v>3.9340000000000002</v>
+      </c>
+      <c r="Q47" s="47">
+        <v>0.52400000000000002</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A48" s="57"/>
+      <c r="B48" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C48" s="2">
+        <f>ABS(0.8+0.1525)</f>
+        <v>0.95250000000000001</v>
+      </c>
+      <c r="D48" s="1">
+        <f>ABS(0.8+0.1219)</f>
+        <v>0.92190000000000005</v>
+      </c>
+      <c r="E48" s="43">
+        <f t="shared" si="1"/>
+        <v>3.0599999999999961E-2</v>
+      </c>
+      <c r="F48" s="2">
+        <v>0.37819999999999998</v>
+      </c>
+      <c r="G48" s="1">
+        <f>ABS(E48-E47)</f>
+        <v>4.5800000000000063E-2</v>
+      </c>
+      <c r="I48" s="57"/>
+      <c r="J48" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K48" s="47">
+        <v>16.876999999999999</v>
+      </c>
+      <c r="L48" s="47">
+        <v>23.47</v>
+      </c>
+      <c r="M48" s="47">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="N48" s="47">
+        <v>5.6429999999999998</v>
+      </c>
+      <c r="O48" s="47">
+        <v>183.815</v>
+      </c>
+      <c r="P48" s="48">
+        <v>6.4050000000000002</v>
+      </c>
+      <c r="Q48" s="47">
+        <v>0.33900000000000002</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="15" x14ac:dyDescent="0.5">
+      <c r="A50" s="39" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A51" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B42" s="15"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A43" s="61" t="s">
+      <c r="B51" s="15"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="15"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A52" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="B43" s="62"/>
-      <c r="C43" s="10" t="s">
+      <c r="B52" s="78"/>
+      <c r="C52" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="D43" s="10" t="s">
+      <c r="D52" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="E52" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="F43" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A44" s="57" t="s">
-        <v>21</v>
-      </c>
-      <c r="B44" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C44" s="19">
-        <v>0.92610000000000003</v>
-      </c>
-      <c r="D44" s="19">
-        <v>0.9355</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A45" s="58"/>
-      <c r="B45" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C45" s="19">
-        <v>0.87770000000000004</v>
-      </c>
-      <c r="D45" s="19">
-        <v>0.90190000000000003</v>
-      </c>
-      <c r="F45" s="4">
-        <v>3</v>
-      </c>
-      <c r="G45" s="2">
-        <f>C44-C45</f>
-        <v>4.8399999999999999E-2</v>
-      </c>
-      <c r="H45" s="2">
-        <f>D44-D45</f>
-        <v>3.3599999999999963E-2</v>
-      </c>
-      <c r="I45" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A46" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="B46" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="C46" s="18">
-        <v>0.83179999999999998</v>
-      </c>
-      <c r="D46" s="18">
-        <v>0.86299999999999999</v>
-      </c>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A47" s="60"/>
-      <c r="B47" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="C47" s="18">
-        <v>0.78749999999999998</v>
-      </c>
-      <c r="D47" s="18">
-        <v>0.84699999999999998</v>
-      </c>
-      <c r="F47" s="4">
-        <v>2</v>
-      </c>
-      <c r="G47" s="2">
-        <f>C46-C47</f>
-        <v>4.4300000000000006E-2</v>
-      </c>
-      <c r="H47" s="2">
-        <f>D46-D47</f>
-        <v>1.6000000000000014E-2</v>
-      </c>
-      <c r="I47" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A48" s="57" t="s">
-        <v>23</v>
-      </c>
-      <c r="B48" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C48" s="19">
-        <v>0.90229999999999999</v>
-      </c>
-      <c r="D48" s="19">
-        <v>0.91910000000000003</v>
-      </c>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A49" s="58"/>
-      <c r="B49" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C49" s="19">
-        <v>0.87629999999999997</v>
-      </c>
-      <c r="D49" s="19">
-        <v>0.90820000000000001</v>
-      </c>
-      <c r="F49" s="4">
-        <v>4</v>
-      </c>
-      <c r="G49" s="2">
-        <f>C48-C49</f>
-        <v>2.6000000000000023E-2</v>
-      </c>
-      <c r="H49" s="2">
-        <f>D48-D49</f>
-        <v>1.0900000000000021E-2</v>
-      </c>
-      <c r="I49" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A50" s="11"/>
-      <c r="B50" s="11"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="11"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A51" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="B51" s="17"/>
-      <c r="C51" s="17"/>
-      <c r="D51" s="17"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A52" s="63" t="s">
-        <v>64</v>
-      </c>
-      <c r="B52" s="64"/>
-      <c r="C52" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D52" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A53" s="57" t="s">
+      <c r="F52" s="10" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A53" s="73" t="s">
         <v>21</v>
       </c>
       <c r="B53" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C53" s="19">
-        <v>0.85699999999999998</v>
-      </c>
-      <c r="D53" s="19">
-        <v>0.88139999999999996</v>
-      </c>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A54" s="58"/>
+      <c r="C53" s="81">
+        <v>0.92610000000000003</v>
+      </c>
+      <c r="D53" s="83">
+        <f>C53-C54</f>
+        <v>4.8399999999999999E-2</v>
+      </c>
+      <c r="E53" s="81">
+        <v>0.9355</v>
+      </c>
+      <c r="F53" s="83">
+        <f>E53-E54</f>
+        <v>3.3599999999999963E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A54" s="74"/>
       <c r="B54" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="C54" s="19">
-        <v>0.84</v>
-      </c>
-      <c r="D54" s="19">
-        <v>0.87260000000000004</v>
-      </c>
-      <c r="F54" s="4">
-        <v>4</v>
-      </c>
-      <c r="G54" s="2">
-        <f>C53-C54</f>
-        <v>1.7000000000000015E-2</v>
-      </c>
-      <c r="H54" s="2">
-        <f>D53-D54</f>
-        <v>8.799999999999919E-3</v>
-      </c>
-      <c r="I54" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A55" s="59" t="s">
+      <c r="C54" s="81">
+        <v>0.87770000000000004</v>
+      </c>
+      <c r="D54" s="84"/>
+      <c r="E54" s="81">
+        <v>0.90190000000000003</v>
+      </c>
+      <c r="F54" s="84"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A55" s="75" t="s">
         <v>22</v>
       </c>
       <c r="B55" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C55" s="18">
-        <v>0.92249999999999999</v>
-      </c>
-      <c r="D55" s="18">
-        <v>0.93559999999999999</v>
+      <c r="C55" s="82">
+        <v>0.83179999999999998</v>
+      </c>
+      <c r="D55" s="83">
+        <f t="shared" ref="D55:F55" si="2">C55-C56</f>
+        <v>4.4300000000000006E-2</v>
+      </c>
+      <c r="E55" s="82">
+        <v>0.86299999999999999</v>
+      </c>
+      <c r="F55" s="83">
+        <f t="shared" si="2"/>
+        <v>1.6000000000000014E-2</v>
       </c>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A56" s="60"/>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A56" s="76"/>
       <c r="B56" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="C56" s="18">
-        <v>0.86250000000000004</v>
-      </c>
-      <c r="D56" s="18">
-        <v>0.89449999999999996</v>
-      </c>
-      <c r="F56" s="4">
-        <v>1</v>
-      </c>
-      <c r="G56" s="2">
-        <f>C55-C56</f>
-        <v>5.9999999999999942E-2</v>
-      </c>
-      <c r="H56" s="2">
-        <f>D55-D56</f>
-        <v>4.1100000000000025E-2</v>
-      </c>
-      <c r="I56" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A57" s="57" t="s">
+      <c r="C56" s="82">
+        <v>0.78749999999999998</v>
+      </c>
+      <c r="D56" s="84"/>
+      <c r="E56" s="82">
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="F56" s="84"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A57" s="73" t="s">
         <v>23</v>
       </c>
       <c r="B57" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C57" s="19">
-        <v>0.87090000000000001</v>
-      </c>
-      <c r="D57" s="19">
-        <v>0.89049999999999996</v>
+      <c r="C57" s="81">
+        <v>0.90229999999999999</v>
+      </c>
+      <c r="D57" s="83">
+        <f t="shared" ref="D57:F57" si="3">C57-C58</f>
+        <v>2.6000000000000023E-2</v>
+      </c>
+      <c r="E57" s="81">
+        <v>0.91910000000000003</v>
+      </c>
+      <c r="F57" s="83">
+        <f t="shared" si="3"/>
+        <v>1.0900000000000021E-2</v>
       </c>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A58" s="58"/>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A58" s="74"/>
       <c r="B58" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="C58" s="19">
+      <c r="C58" s="81">
+        <v>0.87629999999999997</v>
+      </c>
+      <c r="D58" s="84"/>
+      <c r="E58" s="81">
+        <v>0.90820000000000001</v>
+      </c>
+      <c r="F58" s="84"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A59" s="11"/>
+      <c r="B59" s="11"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A60" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60" s="17"/>
+      <c r="C60" s="17"/>
+      <c r="D60" s="17"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A61" s="79" t="s">
+        <v>64</v>
+      </c>
+      <c r="B61" s="80"/>
+      <c r="C61" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="E61" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F61" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A62" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C62" s="81">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="D62" s="83">
+        <f>C62-C63</f>
+        <v>1.7000000000000015E-2</v>
+      </c>
+      <c r="E62" s="81">
+        <v>0.88139999999999996</v>
+      </c>
+      <c r="F62" s="83">
+        <f>E62-E63</f>
+        <v>8.799999999999919E-3</v>
+      </c>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A63" s="74"/>
+      <c r="B63" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C63" s="81">
+        <v>0.84</v>
+      </c>
+      <c r="D63" s="84"/>
+      <c r="E63" s="81">
+        <v>0.87260000000000004</v>
+      </c>
+      <c r="F63" s="84"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A64" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="B64" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C64" s="82">
+        <v>0.92249999999999999</v>
+      </c>
+      <c r="D64" s="83">
+        <f t="shared" ref="D64" si="4">C64-C65</f>
+        <v>5.9999999999999942E-2</v>
+      </c>
+      <c r="E64" s="82">
+        <v>0.93559999999999999</v>
+      </c>
+      <c r="F64" s="83">
+        <f t="shared" ref="F64" si="5">E64-E65</f>
+        <v>4.1100000000000025E-2</v>
+      </c>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A65" s="76"/>
+      <c r="B65" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C65" s="82">
+        <v>0.86250000000000004</v>
+      </c>
+      <c r="D65" s="84"/>
+      <c r="E65" s="82">
+        <v>0.89449999999999996</v>
+      </c>
+      <c r="F65" s="84"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A66" s="73" t="s">
+        <v>23</v>
+      </c>
+      <c r="B66" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C66" s="81">
+        <v>0.87090000000000001</v>
+      </c>
+      <c r="D66" s="83">
+        <f t="shared" ref="D66" si="6">C66-C67</f>
+        <v>3.4800000000000053E-2</v>
+      </c>
+      <c r="E66" s="81">
+        <v>0.89049999999999996</v>
+      </c>
+      <c r="F66" s="83">
+        <f t="shared" ref="F66" si="7">E66-E67</f>
+        <v>2.739999999999998E-2</v>
+      </c>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A67" s="74"/>
+      <c r="B67" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C67" s="81">
         <v>0.83609999999999995</v>
       </c>
-      <c r="D58" s="19">
+      <c r="D67" s="84"/>
+      <c r="E67" s="81">
         <v>0.86309999999999998</v>
       </c>
-      <c r="F58" s="4">
-        <v>6</v>
-      </c>
-      <c r="G58" s="2">
-        <f>C57-C58</f>
-        <v>3.4800000000000053E-2</v>
-      </c>
-      <c r="H58" s="2">
-        <f>D57-D58</f>
-        <v>2.739999999999998E-2</v>
-      </c>
-      <c r="I58" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A59" s="4" t="s">
-        <v>66</v>
+      <c r="F67" s="84"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A68" s="4" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="46">
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A34:A35"/>
     <mergeCell ref="A11:E11"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A23:F23"/>
     <mergeCell ref="A32:F32"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A47:A48"/>
     <mergeCell ref="A36:A37"/>
     <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="I47:I48"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dataAnalysis.xlsx
+++ b/dataAnalysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\botImpact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3745AC1-778B-488A-B6CF-BF0FA0F45A20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ADE41D4-F51E-4730-BDAF-D7EDB0D2EFEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="18192" windowHeight="11592" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="192">
   <si>
     <t>Node Degree</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2571,42 +2571,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>6.3.3 Impact Difference</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Inf Iden</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Followers</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Following</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Membership</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mentioned</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Post</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Like</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pinned</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>Pos</t>
     </r>
@@ -2901,6 +2865,10 @@
   </si>
   <si>
     <t>AP diff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.3.2.2 Validation of Model Estimation</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2908,10 +2876,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.0000_ "/>
     <numFmt numFmtId="177" formatCode="0.0000_);[Red]\(0.0000\)"/>
-    <numFmt numFmtId="178" formatCode="0.000_ "/>
   </numFmts>
   <fonts count="25" x14ac:knownFonts="1">
     <font>
@@ -3224,7 +3191,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3338,10 +3305,16 @@
     <xf numFmtId="176" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="14" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3350,25 +3323,10 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3392,28 +3350,25 @@
     <xf numFmtId="176" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3440,16 +3395,22 @@
     <xf numFmtId="177" fontId="2" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="14" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3760,38 +3721,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="61"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="58"/>
       <c r="D1" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="51" t="s">
+      <c r="E1" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="53"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="64"/>
       <c r="J1" s="23" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="64"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="61"/>
       <c r="D2" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="54" t="s">
+      <c r="E2" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="F2" s="55"/>
+      <c r="F2" s="54"/>
       <c r="G2" s="3" t="s">
         <v>30</v>
       </c>
@@ -3815,7 +3776,7 @@
       <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="56" t="s">
+      <c r="E3" s="49" t="s">
         <v>21</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -3824,10 +3785,10 @@
       <c r="G3" s="22">
         <v>0.60419999999999996</v>
       </c>
-      <c r="H3" s="49">
+      <c r="H3" s="51">
         <v>1.4500999999999999</v>
       </c>
-      <c r="I3" s="49">
+      <c r="I3" s="51">
         <v>0.14699999999999999</v>
       </c>
       <c r="J3" s="23" t="s">
@@ -3847,15 +3808,15 @@
       <c r="D4" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="57"/>
+      <c r="E4" s="50"/>
       <c r="F4" s="2" t="s">
         <v>79</v>
       </c>
       <c r="G4" s="2">
         <v>0.59640000000000004</v>
       </c>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
       <c r="J4" s="23" t="s">
         <v>91</v>
       </c>
@@ -3873,7 +3834,7 @@
       <c r="D5" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="56" t="s">
+      <c r="E5" s="49" t="s">
         <v>22</v>
       </c>
       <c r="F5" s="2" t="s">
@@ -3882,31 +3843,31 @@
       <c r="G5" s="22">
         <v>0.58009999999999995</v>
       </c>
-      <c r="H5" s="49">
+      <c r="H5" s="51">
         <v>-0.46650000000000003</v>
       </c>
-      <c r="I5" s="49">
+      <c r="I5" s="51">
         <v>0.64090000000000003</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="63"/>
-      <c r="C6" s="64"/>
-      <c r="E6" s="57"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="61"/>
+      <c r="E6" s="50"/>
       <c r="F6" s="2" t="s">
         <v>79</v>
       </c>
       <c r="G6" s="2">
         <v>0.58389999999999997</v>
       </c>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A7" s="58" t="s">
+      <c r="A7" s="55" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -3915,7 +3876,7 @@
       <c r="C7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="56" t="s">
+      <c r="E7" s="49" t="s">
         <v>23</v>
       </c>
       <c r="F7" s="2" t="s">
@@ -3924,36 +3885,36 @@
       <c r="G7" s="22">
         <v>0.5393</v>
       </c>
-      <c r="H7" s="49">
+      <c r="H7" s="51">
         <v>-1.7504</v>
       </c>
-      <c r="I7" s="49">
+      <c r="I7" s="51">
         <v>8.0100000000000005E-2</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A8" s="57"/>
+      <c r="A8" s="50"/>
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="57"/>
+      <c r="E8" s="50"/>
       <c r="F8" s="2" t="s">
         <v>79</v>
       </c>
       <c r="G8" s="2">
         <v>0.55649999999999999</v>
       </c>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="E9" s="54" t="s">
+      <c r="E9" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="F9" s="55"/>
+      <c r="F9" s="54"/>
       <c r="G9" s="3" t="s">
         <v>25</v>
       </c>
@@ -3965,12 +3926,12 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A10" s="59" t="s">
+      <c r="A10" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="60"/>
-      <c r="C10" s="61"/>
-      <c r="E10" s="56" t="s">
+      <c r="B10" s="57"/>
+      <c r="C10" s="58"/>
+      <c r="E10" s="49" t="s">
         <v>21</v>
       </c>
       <c r="F10" s="2" t="s">
@@ -3979,10 +3940,10 @@
       <c r="G10" s="21">
         <v>0.82099999999999995</v>
       </c>
-      <c r="H10" s="49">
+      <c r="H10" s="51">
         <v>23.857700000000001</v>
       </c>
-      <c r="I10" s="49" t="s">
+      <c r="I10" s="51" t="s">
         <v>26</v>
       </c>
       <c r="J10" s="23" t="s">
@@ -3990,20 +3951,20 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A11" s="62" t="s">
+      <c r="A11" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="63"/>
-      <c r="C11" s="64"/>
-      <c r="E11" s="57"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="61"/>
+      <c r="E11" s="50"/>
       <c r="F11" s="2" t="s">
         <v>79</v>
       </c>
       <c r="G11" s="2">
         <v>0.74229999999999996</v>
       </c>
-      <c r="H11" s="50"/>
-      <c r="I11" s="50"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A12" s="1" t="s">
@@ -4015,7 +3976,7 @@
       <c r="C12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="56" t="s">
+      <c r="E12" s="49" t="s">
         <v>22</v>
       </c>
       <c r="F12" s="2" t="s">
@@ -4024,10 +3985,10 @@
       <c r="G12" s="21">
         <v>0.83950000000000002</v>
       </c>
-      <c r="H12" s="49">
+      <c r="H12" s="51">
         <v>20.513400000000001</v>
       </c>
-      <c r="I12" s="49" t="s">
+      <c r="I12" s="51" t="s">
         <v>27</v>
       </c>
     </row>
@@ -4041,15 +4002,15 @@
       <c r="C13" s="2">
         <v>5.0496999999999996</v>
       </c>
-      <c r="E13" s="57"/>
+      <c r="E13" s="50"/>
       <c r="F13" s="2" t="s">
         <v>79</v>
       </c>
       <c r="G13" s="2">
         <v>0.73529999999999995</v>
       </c>
-      <c r="H13" s="50"/>
-      <c r="I13" s="50"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="52"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A14" s="2" t="s">
@@ -4061,7 +4022,7 @@
       <c r="C14" s="2">
         <v>5.5609000000000002</v>
       </c>
-      <c r="E14" s="56" t="s">
+      <c r="E14" s="49" t="s">
         <v>23</v>
       </c>
       <c r="F14" s="2" t="s">
@@ -4070,31 +4031,31 @@
       <c r="G14" s="21">
         <v>0.78539999999999999</v>
       </c>
-      <c r="H14" s="49">
+      <c r="H14" s="51">
         <v>16.601400000000002</v>
       </c>
-      <c r="I14" s="49" t="s">
+      <c r="I14" s="51" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A15" s="62" t="s">
+      <c r="A15" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="63"/>
-      <c r="C15" s="64"/>
-      <c r="E15" s="57"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="61"/>
+      <c r="E15" s="50"/>
       <c r="F15" s="2" t="s">
         <v>79</v>
       </c>
       <c r="G15" s="2">
         <v>0.67610000000000003</v>
       </c>
-      <c r="H15" s="50"/>
-      <c r="I15" s="50"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A16" s="58" t="s">
+      <c r="A16" s="55" t="s">
         <v>7</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -4108,7 +4069,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A17" s="57"/>
+      <c r="A17" s="50"/>
       <c r="B17" s="2" t="s">
         <v>13</v>
       </c>
@@ -4120,27 +4081,27 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="E18" s="51" t="s">
+      <c r="E18" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="52"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="53"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="63"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="64"/>
       <c r="J18" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A19" s="59" t="s">
+      <c r="A19" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="60"/>
-      <c r="C19" s="61"/>
-      <c r="E19" s="54" t="s">
+      <c r="B19" s="57"/>
+      <c r="C19" s="58"/>
+      <c r="E19" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="F19" s="55"/>
+      <c r="F19" s="54"/>
       <c r="G19" s="3" t="s">
         <v>30</v>
       </c>
@@ -4152,12 +4113,12 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A20" s="62" t="s">
+      <c r="A20" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="63"/>
-      <c r="C20" s="64"/>
-      <c r="E20" s="56" t="s">
+      <c r="B20" s="60"/>
+      <c r="C20" s="61"/>
+      <c r="E20" s="49" t="s">
         <v>21</v>
       </c>
       <c r="F20" s="2" t="s">
@@ -4166,10 +4127,10 @@
       <c r="G20" s="22">
         <v>0.60419999999999996</v>
       </c>
-      <c r="H20" s="49">
+      <c r="H20" s="51">
         <v>6.7031000000000001</v>
       </c>
-      <c r="I20" s="49" t="s">
+      <c r="I20" s="51" t="s">
         <v>24</v>
       </c>
       <c r="J20" s="23" t="s">
@@ -4186,15 +4147,15 @@
       <c r="C21" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="57"/>
+      <c r="E21" s="50"/>
       <c r="F21" s="2" t="s">
         <v>71</v>
       </c>
       <c r="G21" s="2">
         <v>0.56520000000000004</v>
       </c>
-      <c r="H21" s="50"/>
-      <c r="I21" s="50"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
       <c r="J21" s="20" t="s">
         <v>85</v>
       </c>
@@ -4209,7 +4170,7 @@
       <c r="C22" s="2">
         <v>6.4598000000000004</v>
       </c>
-      <c r="E22" s="56" t="s">
+      <c r="E22" s="49" t="s">
         <v>22</v>
       </c>
       <c r="F22" s="2" t="s">
@@ -4218,10 +4179,10 @@
       <c r="G22" s="22">
         <v>0.58009999999999995</v>
       </c>
-      <c r="H22" s="49">
+      <c r="H22" s="51">
         <v>2.8894000000000002</v>
       </c>
-      <c r="I22" s="49">
+      <c r="I22" s="51">
         <v>3.8999999999999998E-3</v>
       </c>
     </row>
@@ -4235,23 +4196,23 @@
       <c r="C23" s="2">
         <v>5.1597</v>
       </c>
-      <c r="E23" s="57"/>
+      <c r="E23" s="50"/>
       <c r="F23" s="2" t="s">
         <v>71</v>
       </c>
       <c r="G23" s="2">
         <v>0.5534</v>
       </c>
-      <c r="H23" s="50"/>
-      <c r="I23" s="50"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="52"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A24" s="62" t="s">
+      <c r="A24" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="63"/>
-      <c r="C24" s="64"/>
-      <c r="E24" s="56" t="s">
+      <c r="B24" s="60"/>
+      <c r="C24" s="61"/>
+      <c r="E24" s="49" t="s">
         <v>23</v>
       </c>
       <c r="F24" s="2" t="s">
@@ -4260,10 +4221,10 @@
       <c r="G24" s="22">
         <v>0.5393</v>
       </c>
-      <c r="H24" s="49">
+      <c r="H24" s="51">
         <v>1.6584000000000001</v>
       </c>
-      <c r="I24" s="49">
+      <c r="I24" s="51">
         <v>9.7299999999999998E-2</v>
       </c>
       <c r="J24" s="23" t="s">
@@ -4271,7 +4232,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A25" s="58" t="s">
+      <c r="A25" s="55" t="s">
         <v>7</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -4280,28 +4241,28 @@
       <c r="C25" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E25" s="57"/>
+      <c r="E25" s="50"/>
       <c r="F25" s="2" t="s">
         <v>71</v>
       </c>
       <c r="G25" s="2">
         <v>0.52139999999999997</v>
       </c>
-      <c r="H25" s="50"/>
-      <c r="I25" s="50"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="52"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A26" s="57"/>
+      <c r="A26" s="50"/>
       <c r="B26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E26" s="54" t="s">
+      <c r="E26" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="F26" s="55"/>
+      <c r="F26" s="54"/>
       <c r="G26" s="3" t="s">
         <v>25</v>
       </c>
@@ -4313,7 +4274,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="E27" s="56" t="s">
+      <c r="E27" s="49" t="s">
         <v>21</v>
       </c>
       <c r="F27" s="2" t="s">
@@ -4322,10 +4283,10 @@
       <c r="G27" s="21">
         <v>0.82099999999999995</v>
       </c>
-      <c r="H27" s="49">
+      <c r="H27" s="51">
         <v>33.133299999999998</v>
       </c>
-      <c r="I27" s="49" t="s">
+      <c r="I27" s="51" t="s">
         <v>81</v>
       </c>
       <c r="J27" s="23" t="s">
@@ -4333,21 +4294,21 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="E28" s="57"/>
+      <c r="E28" s="50"/>
       <c r="F28" s="2" t="s">
         <v>71</v>
       </c>
       <c r="G28" s="2">
         <v>0.70599999999999996</v>
       </c>
-      <c r="H28" s="50"/>
-      <c r="I28" s="50"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="52"/>
       <c r="J28" s="23" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="E29" s="56" t="s">
+      <c r="E29" s="49" t="s">
         <v>22</v>
       </c>
       <c r="F29" s="2" t="s">
@@ -4356,26 +4317,26 @@
       <c r="G29" s="21">
         <v>0.83950000000000002</v>
       </c>
-      <c r="H29" s="49">
+      <c r="H29" s="51">
         <v>24.9849</v>
       </c>
-      <c r="I29" s="49" t="s">
+      <c r="I29" s="51" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="E30" s="57"/>
+      <c r="E30" s="50"/>
       <c r="F30" s="2" t="s">
         <v>71</v>
       </c>
       <c r="G30" s="2">
         <v>0.70609999999999995</v>
       </c>
-      <c r="H30" s="50"/>
-      <c r="I30" s="50"/>
+      <c r="H30" s="52"/>
+      <c r="I30" s="52"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="E31" s="56" t="s">
+      <c r="E31" s="49" t="s">
         <v>23</v>
       </c>
       <c r="F31" s="2" t="s">
@@ -4384,23 +4345,23 @@
       <c r="G31" s="21">
         <v>0.78539999999999999</v>
       </c>
-      <c r="H31" s="49">
+      <c r="H31" s="51">
         <v>21.385400000000001</v>
       </c>
-      <c r="I31" s="49" t="s">
+      <c r="I31" s="51" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="E32" s="57"/>
+      <c r="E32" s="50"/>
       <c r="F32" s="2" t="s">
         <v>71</v>
       </c>
       <c r="G32" s="2">
         <v>0.63849999999999996</v>
       </c>
-      <c r="H32" s="50"/>
-      <c r="I32" s="50"/>
+      <c r="H32" s="52"/>
+      <c r="I32" s="52"/>
     </row>
     <row r="33" spans="5:5" x14ac:dyDescent="0.5">
       <c r="E33" s="20" t="s">
@@ -4409,34 +4370,16 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="E12:E13"/>
     <mergeCell ref="H20:H21"/>
     <mergeCell ref="I20:I21"/>
     <mergeCell ref="E7:E8"/>
@@ -4453,16 +4396,34 @@
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E20:E21"/>
     <mergeCell ref="E10:E11"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="E1:I1"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="I29:I30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4475,7 +4436,7 @@
   <dimension ref="A1:L87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:H21"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -4488,26 +4449,26 @@
       <c r="A1" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65" t="s">
+      <c r="C1" s="66"/>
+      <c r="D1" s="66" t="s">
         <v>94</v>
       </c>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65" t="s">
+      <c r="E1" s="66"/>
+      <c r="F1" s="66" t="s">
         <v>95</v>
       </c>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65" t="s">
+      <c r="G1" s="66"/>
+      <c r="H1" s="66" t="s">
         <v>96</v>
       </c>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65" t="s">
+      <c r="I1" s="66"/>
+      <c r="J1" s="66" t="s">
         <v>97</v>
       </c>
-      <c r="K1" s="65"/>
+      <c r="K1" s="66"/>
       <c r="L1" s="24" t="s">
         <v>108</v>
       </c>
@@ -5098,15 +5059,15 @@
       <c r="A21" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="B21" s="66" t="s">
+      <c r="B21" s="65" t="s">
         <v>93</v>
       </c>
-      <c r="C21" s="66"/>
-      <c r="D21" s="66"/>
-      <c r="E21" s="66"/>
-      <c r="F21" s="66"/>
-      <c r="G21" s="66"/>
-      <c r="H21" s="66"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="65"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A22" s="24" t="s">
@@ -5284,15 +5245,15 @@
       <c r="A29" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="B29" s="65" t="s">
+      <c r="B29" s="66" t="s">
         <v>95</v>
       </c>
-      <c r="C29" s="65"/>
-      <c r="D29" s="65"/>
-      <c r="E29" s="65"/>
-      <c r="F29" s="65"/>
-      <c r="G29" s="65"/>
-      <c r="H29" s="65"/>
+      <c r="C29" s="66"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="66"/>
+      <c r="F29" s="66"/>
+      <c r="G29" s="66"/>
+      <c r="H29" s="66"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A30" s="24" t="s">
@@ -5467,14 +5428,14 @@
       <c r="A38" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="B38" s="66" t="s">
+      <c r="B38" s="65" t="s">
         <v>93</v>
       </c>
-      <c r="C38" s="66"/>
-      <c r="D38" s="66"/>
-      <c r="E38" s="66"/>
-      <c r="F38" s="66"/>
-      <c r="G38" s="66"/>
+      <c r="C38" s="65"/>
+      <c r="D38" s="65"/>
+      <c r="E38" s="65"/>
+      <c r="F38" s="65"/>
+      <c r="G38" s="65"/>
       <c r="H38" s="35"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.5">
@@ -5627,14 +5588,14 @@
       <c r="A46" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="B46" s="66" t="s">
+      <c r="B46" s="65" t="s">
         <v>95</v>
       </c>
-      <c r="C46" s="66"/>
-      <c r="D46" s="66"/>
-      <c r="E46" s="66"/>
-      <c r="F46" s="66"/>
-      <c r="G46" s="66"/>
+      <c r="C46" s="65"/>
+      <c r="D46" s="65"/>
+      <c r="E46" s="65"/>
+      <c r="F46" s="65"/>
+      <c r="G46" s="65"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A47" s="24" t="s">
@@ -5791,13 +5752,13 @@
       <c r="A55" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="B55" s="66" t="s">
+      <c r="B55" s="65" t="s">
         <v>93</v>
       </c>
-      <c r="C55" s="66"/>
-      <c r="D55" s="66"/>
-      <c r="E55" s="66"/>
-      <c r="F55" s="66"/>
+      <c r="C55" s="65"/>
+      <c r="D55" s="65"/>
+      <c r="E55" s="65"/>
+      <c r="F55" s="65"/>
       <c r="G55" s="36" t="s">
         <v>154</v>
       </c>
@@ -5975,13 +5936,13 @@
       <c r="A65" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="B65" s="66" t="s">
+      <c r="B65" s="65" t="s">
         <v>95</v>
       </c>
-      <c r="C65" s="66"/>
-      <c r="D65" s="66"/>
-      <c r="E65" s="66"/>
-      <c r="F65" s="66"/>
+      <c r="C65" s="65"/>
+      <c r="D65" s="65"/>
+      <c r="E65" s="65"/>
+      <c r="F65" s="65"/>
       <c r="G65" s="35"/>
     </row>
     <row r="66" spans="1:8" ht="14.7" x14ac:dyDescent="0.5">
@@ -6173,14 +6134,14 @@
       <c r="A77" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="B77" s="66" t="s">
+      <c r="B77" s="65" t="s">
         <v>93</v>
       </c>
-      <c r="C77" s="66"/>
-      <c r="D77" s="66"/>
-      <c r="E77" s="66"/>
-      <c r="F77" s="66"/>
-      <c r="G77" s="66"/>
+      <c r="C77" s="65"/>
+      <c r="D77" s="65"/>
+      <c r="E77" s="65"/>
+      <c r="F77" s="65"/>
+      <c r="G77" s="65"/>
       <c r="H77" s="24" t="s">
         <v>123</v>
       </c>
@@ -6261,14 +6222,14 @@
       <c r="A82" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="B82" s="66" t="s">
+      <c r="B82" s="65" t="s">
         <v>95</v>
       </c>
-      <c r="C82" s="66"/>
-      <c r="D82" s="66"/>
-      <c r="E82" s="66"/>
-      <c r="F82" s="66"/>
-      <c r="G82" s="66"/>
+      <c r="C82" s="65"/>
+      <c r="D82" s="65"/>
+      <c r="E82" s="65"/>
+      <c r="F82" s="65"/>
+      <c r="G82" s="65"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A83" s="24" t="s">
@@ -6346,12 +6307,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B77:G77"/>
-    <mergeCell ref="B82:G82"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="B46:G46"/>
-    <mergeCell ref="B55:F55"/>
-    <mergeCell ref="B65:F65"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
@@ -6359,6 +6314,12 @@
     <mergeCell ref="B38:G38"/>
     <mergeCell ref="B29:H29"/>
     <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B77:G77"/>
+    <mergeCell ref="B82:G82"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="B46:G46"/>
+    <mergeCell ref="B55:F55"/>
+    <mergeCell ref="B65:F65"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6368,10 +6329,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2687A086-E6AD-4DC9-8E6D-5E9AEFD1DED8}">
-  <dimension ref="A1:Q68"/>
+  <dimension ref="A1:J68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="G56" sqref="G56"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -6385,12 +6346,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="69"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="79"/>
       <c r="E1" s="5" t="s">
         <v>174</v>
       </c>
@@ -6413,7 +6374,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="49" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -6427,7 +6388,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="57"/>
+      <c r="A4" s="50"/>
       <c r="B4" s="4" t="s">
         <v>52</v>
       </c>
@@ -6439,7 +6400,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="49" t="s">
         <v>22</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -6453,7 +6414,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="57"/>
+      <c r="A6" s="50"/>
       <c r="B6" s="4" t="s">
         <v>52</v>
       </c>
@@ -6465,7 +6426,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A7" s="56" t="s">
+      <c r="A7" s="49" t="s">
         <v>23</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -6479,7 +6440,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="57"/>
+      <c r="A8" s="50"/>
       <c r="B8" s="4" t="s">
         <v>52</v>
       </c>
@@ -6498,17 +6459,17 @@
         <v>168</v>
       </c>
       <c r="C10" s="40" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="67" t="s">
+      <c r="A11" s="77" t="s">
         <v>180</v>
       </c>
-      <c r="B11" s="68"/>
-      <c r="C11" s="68"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="69"/>
+      <c r="B11" s="78"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="78"/>
+      <c r="E11" s="79"/>
       <c r="J11" s="5" t="s">
         <v>172</v>
       </c>
@@ -6531,7 +6492,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A13" s="56" t="s">
+      <c r="A13" s="49" t="s">
         <v>21</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -6553,7 +6514,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="57"/>
+      <c r="A14" s="50"/>
       <c r="B14" s="4" t="s">
         <v>52</v>
       </c>
@@ -6573,7 +6534,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A15" s="56" t="s">
+      <c r="A15" s="49" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -6593,7 +6554,7 @@
       <c r="J15" s="38"/>
     </row>
     <row r="16" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="57"/>
+      <c r="A16" s="50"/>
       <c r="B16" s="4" t="s">
         <v>52</v>
       </c>
@@ -6609,8 +6570,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A17" s="56" t="s">
+    <row r="17" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A17" s="49" t="s">
         <v>23</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -6628,8 +6589,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="57"/>
+    <row r="18" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A18" s="50"/>
       <c r="B18" s="4" t="s">
         <v>52</v>
       </c>
@@ -6645,29 +6606,29 @@
         <v>6.3E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A19" s="38" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="G19" s="38" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A20" s="38"/>
       <c r="G20" s="38"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A21" s="67" t="s">
-        <v>195</v>
-      </c>
-      <c r="B21" s="68"/>
-      <c r="C21" s="68"/>
-      <c r="D21" s="68"/>
-      <c r="E21" s="69"/>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A21" s="77" t="s">
+        <v>186</v>
+      </c>
+      <c r="B21" s="78"/>
+      <c r="C21" s="78"/>
+      <c r="D21" s="78"/>
+      <c r="E21" s="79"/>
       <c r="G21" s="38"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A22" s="10" t="s">
         <v>34</v>
       </c>
@@ -6675,18 +6636,18 @@
         <v>35</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="E22" s="10" t="s">
         <v>179</v>
       </c>
       <c r="G22" s="38"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A23" s="56" t="s">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A23" s="49" t="s">
         <v>21</v>
       </c>
       <c r="B23" s="4" t="s">
@@ -6704,8 +6665,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A24" s="57"/>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A24" s="50"/>
       <c r="B24" s="4" t="s">
         <v>52</v>
       </c>
@@ -6721,8 +6682,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A25" s="56" t="s">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A25" s="49" t="s">
         <v>22</v>
       </c>
       <c r="B25" s="4" t="s">
@@ -6740,8 +6701,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A26" s="57"/>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A26" s="50"/>
       <c r="B26" s="4" t="s">
         <v>52</v>
       </c>
@@ -6757,8 +6718,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A27" s="56" t="s">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A27" s="49" t="s">
         <v>23</v>
       </c>
       <c r="B27" s="4" t="s">
@@ -6776,8 +6737,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A28" s="57"/>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A28" s="50"/>
       <c r="B28" s="4" t="s">
         <v>52</v>
       </c>
@@ -6794,40 +6755,37 @@
       </c>
       <c r="G28" s="38"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A29" s="38" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="G29" s="38"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A30" s="7"/>
     </row>
-    <row r="31" spans="1:9" ht="15" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.5">
       <c r="A31" s="39" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="70" t="s">
+    <row r="32" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A32" s="80" t="s">
         <v>49</v>
       </c>
-      <c r="B32" s="71"/>
-      <c r="C32" s="71"/>
-      <c r="D32" s="71"/>
-      <c r="E32" s="71"/>
-      <c r="F32" s="72"/>
+      <c r="B32" s="81"/>
+      <c r="C32" s="81"/>
+      <c r="D32" s="81"/>
+      <c r="E32" s="81"/>
+      <c r="F32" s="82"/>
       <c r="G32" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="I32" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.5">
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A33" s="12" t="s">
         <v>34</v>
       </c>
@@ -6849,36 +6807,9 @@
       <c r="G33" s="38" t="s">
         <v>176</v>
       </c>
-      <c r="I33" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J33" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="K33" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="L33" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="M33" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="N33" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="O33" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="P33" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q33" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A34" s="56" t="s">
+    </row>
+    <row r="34" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A34" s="49" t="s">
         <v>21</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -6902,36 +6833,9 @@
       <c r="G34" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="I34" s="56" t="s">
-        <v>21</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K34" s="47">
-        <v>20.54</v>
-      </c>
-      <c r="L34" s="47">
-        <v>22.837</v>
-      </c>
-      <c r="M34" s="47">
-        <v>3.286</v>
-      </c>
-      <c r="N34" s="47">
-        <v>24.617999999999999</v>
-      </c>
-      <c r="O34" s="47">
-        <v>210.74199999999999</v>
-      </c>
-      <c r="P34" s="47">
-        <v>4.367</v>
-      </c>
-      <c r="Q34" s="47">
-        <v>0.432</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A35" s="57"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A35" s="50"/>
       <c r="B35" s="2" t="s">
         <v>47</v>
       </c>
@@ -6954,34 +6858,9 @@
         <f>ABS(E35-E34)</f>
         <v>4.5199999999999907E-2</v>
       </c>
-      <c r="I35" s="57"/>
-      <c r="J35" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K35" s="47">
-        <v>9.8239999999999998</v>
-      </c>
-      <c r="L35" s="47">
-        <v>15.805999999999999</v>
-      </c>
-      <c r="M35" s="47">
-        <v>0.73499999999999999</v>
-      </c>
-      <c r="N35" s="47">
-        <v>7.2889999999999997</v>
-      </c>
-      <c r="O35" s="47">
-        <v>146.749</v>
-      </c>
-      <c r="P35" s="47">
-        <v>3.7549999999999999</v>
-      </c>
-      <c r="Q35" s="47">
-        <v>0.27</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A36" s="56" t="s">
+    </row>
+    <row r="36" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A36" s="49" t="s">
         <v>22</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -7005,36 +6884,9 @@
       <c r="G36" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="I36" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K36" s="47">
-        <v>12.632999999999999</v>
-      </c>
-      <c r="L36" s="47">
-        <v>10.585000000000001</v>
-      </c>
-      <c r="M36" s="47">
-        <v>3.0640000000000001</v>
-      </c>
-      <c r="N36" s="47">
-        <v>19.212</v>
-      </c>
-      <c r="O36" s="47">
-        <v>183.398</v>
-      </c>
-      <c r="P36" s="47">
-        <v>1.7130000000000001</v>
-      </c>
-      <c r="Q36" s="47">
-        <v>0.53900000000000003</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A37" s="57"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A37" s="50"/>
       <c r="B37" s="2" t="s">
         <v>47</v>
       </c>
@@ -7057,34 +6909,9 @@
         <f>ABS(E37-E36)</f>
         <v>4.2599999999999971E-2</v>
       </c>
-      <c r="I37" s="57"/>
-      <c r="J37" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K37" s="47">
-        <v>8.2110000000000003</v>
-      </c>
-      <c r="L37" s="48">
-        <v>13.224</v>
-      </c>
-      <c r="M37" s="47">
-        <v>1.0229999999999999</v>
-      </c>
-      <c r="N37" s="47">
-        <v>6.2839999999999998</v>
-      </c>
-      <c r="O37" s="47">
-        <v>151.68</v>
-      </c>
-      <c r="P37" s="48">
-        <v>2.2519999999999998</v>
-      </c>
-      <c r="Q37" s="47">
-        <v>0.44400000000000001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A38" s="56" t="s">
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A38" s="49" t="s">
         <v>23</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -7105,36 +6932,9 @@
       <c r="F38" s="2">
         <v>6.5799999999999997E-2</v>
       </c>
-      <c r="I38" s="56" t="s">
-        <v>23</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K38" s="47">
-        <v>22.178999999999998</v>
-      </c>
-      <c r="L38" s="47">
-        <v>22.736999999999998</v>
-      </c>
-      <c r="M38" s="47">
-        <v>4.2050000000000001</v>
-      </c>
-      <c r="N38" s="47">
-        <v>29.026</v>
-      </c>
-      <c r="O38" s="47">
-        <v>208.39500000000001</v>
-      </c>
-      <c r="P38" s="47">
-        <v>4.2229999999999999</v>
-      </c>
-      <c r="Q38" s="47">
-        <v>0.46</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A39" s="57"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A39" s="50"/>
       <c r="B39" s="2" t="s">
         <v>47</v>
       </c>
@@ -7157,33 +6957,8 @@
         <f>ABS(E39-E38)</f>
         <v>2.7000000000000135E-2</v>
       </c>
-      <c r="I39" s="57"/>
-      <c r="J39" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K39" s="47">
-        <v>8.7789999999999999</v>
-      </c>
-      <c r="L39" s="47">
-        <v>14.215999999999999</v>
-      </c>
-      <c r="M39" s="47">
-        <v>1.0069999999999999</v>
-      </c>
-      <c r="N39" s="47">
-        <v>7.7240000000000002</v>
-      </c>
-      <c r="O39" s="47">
-        <v>136.66399999999999</v>
-      </c>
-      <c r="P39" s="47">
-        <v>2.8820000000000001</v>
-      </c>
-      <c r="Q39" s="47">
-        <v>0.35899999999999999</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.5">
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -7192,35 +6967,18 @@
       <c r="F40" s="45" t="s">
         <v>181</v>
       </c>
-      <c r="K40" s="47"/>
-      <c r="L40" s="47"/>
-      <c r="M40" s="47"/>
-      <c r="N40" s="47"/>
-      <c r="O40" s="47"/>
-      <c r="P40" s="47"/>
-      <c r="Q40" s="47"/>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A41" s="59" t="s">
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A41" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="B41" s="60"/>
-      <c r="C41" s="60"/>
-      <c r="D41" s="60"/>
-      <c r="E41" s="60"/>
-      <c r="F41" s="61"/>
-      <c r="I41" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="K41" s="47"/>
-      <c r="L41" s="47"/>
-      <c r="M41" s="47"/>
-      <c r="N41" s="47"/>
-      <c r="O41" s="47"/>
-      <c r="P41" s="47"/>
-      <c r="Q41" s="47"/>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="B41" s="57"/>
+      <c r="C41" s="57"/>
+      <c r="D41" s="57"/>
+      <c r="E41" s="57"/>
+      <c r="F41" s="58"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A42" s="46" t="s">
         <v>34</v>
       </c>
@@ -7239,36 +6997,9 @@
       <c r="F42" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="I42" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J42" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="K42" s="47" t="s">
-        <v>185</v>
-      </c>
-      <c r="L42" s="47" t="s">
-        <v>186</v>
-      </c>
-      <c r="M42" s="47" t="s">
-        <v>187</v>
-      </c>
-      <c r="N42" s="47" t="s">
-        <v>188</v>
-      </c>
-      <c r="O42" s="47" t="s">
-        <v>189</v>
-      </c>
-      <c r="P42" s="47" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q42" s="47" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A43" s="56" t="s">
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A43" s="49" t="s">
         <v>21</v>
       </c>
       <c r="B43" s="2" t="s">
@@ -7291,36 +7022,9 @@
       </c>
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
-      <c r="I43" s="56" t="s">
-        <v>21</v>
-      </c>
-      <c r="J43" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K43" s="47">
-        <v>16.762</v>
-      </c>
-      <c r="L43" s="47">
-        <v>20.757999999999999</v>
-      </c>
-      <c r="M43" s="47">
-        <v>2.9220000000000002</v>
-      </c>
-      <c r="N43" s="47">
-        <v>21.172999999999998</v>
-      </c>
-      <c r="O43" s="47">
-        <v>228.69</v>
-      </c>
-      <c r="P43" s="47">
-        <v>3.39</v>
-      </c>
-      <c r="Q43" s="47">
-        <v>0.48599999999999999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A44" s="57"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A44" s="50"/>
       <c r="B44" s="2" t="s">
         <v>47</v>
       </c>
@@ -7344,34 +7048,9 @@
         <v>3.6499999999999977E-2</v>
       </c>
       <c r="H44" s="5"/>
-      <c r="I44" s="57"/>
-      <c r="J44" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K44" s="47">
-        <v>7.2670000000000003</v>
-      </c>
-      <c r="L44" s="47">
-        <v>15.895</v>
-      </c>
-      <c r="M44" s="47">
-        <v>0.497</v>
-      </c>
-      <c r="N44" s="47">
-        <v>4.0780000000000003</v>
-      </c>
-      <c r="O44" s="47">
-        <v>161.11600000000001</v>
-      </c>
-      <c r="P44" s="48">
-        <v>3.71</v>
-      </c>
-      <c r="Q44" s="47">
-        <v>0.29699999999999999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A45" s="56" t="s">
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A45" s="49" t="s">
         <v>22</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -7392,36 +7071,9 @@
       <c r="F45" s="2">
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="I45" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="J45" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K45" s="47">
-        <v>10.964</v>
-      </c>
-      <c r="L45" s="47">
-        <v>8.7509999999999994</v>
-      </c>
-      <c r="M45" s="47">
-        <v>3.0310000000000001</v>
-      </c>
-      <c r="N45" s="47">
-        <v>17.704000000000001</v>
-      </c>
-      <c r="O45" s="47">
-        <v>193.97800000000001</v>
-      </c>
-      <c r="P45" s="47">
-        <v>1.2749999999999999</v>
-      </c>
-      <c r="Q45" s="47">
-        <v>0.53300000000000003</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A46" s="57"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A46" s="50"/>
       <c r="B46" s="2" t="s">
         <v>47</v>
       </c>
@@ -7444,34 +7096,9 @@
         <f>ABS(E46-E45)</f>
         <v>5.1899999999999946E-2</v>
       </c>
-      <c r="I46" s="57"/>
-      <c r="J46" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K46" s="47">
-        <v>4.2569999999999997</v>
-      </c>
-      <c r="L46" s="47">
-        <v>7.6420000000000003</v>
-      </c>
-      <c r="M46" s="47">
-        <v>0.76300000000000001</v>
-      </c>
-      <c r="N46" s="47">
-        <v>4.8620000000000001</v>
-      </c>
-      <c r="O46" s="47">
-        <v>149.83699999999999</v>
-      </c>
-      <c r="P46" s="47">
-        <v>1.232</v>
-      </c>
-      <c r="Q46" s="47">
-        <v>0.42099999999999999</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A47" s="56" t="s">
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A47" s="49" t="s">
         <v>23</v>
       </c>
       <c r="B47" s="2" t="s">
@@ -7492,36 +7119,9 @@
       <c r="F47" s="2">
         <v>2.8799999999999999E-2</v>
       </c>
-      <c r="I47" s="56" t="s">
-        <v>23</v>
-      </c>
-      <c r="J47" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K47" s="47">
-        <v>22.18</v>
-      </c>
-      <c r="L47" s="47">
-        <v>24.222999999999999</v>
-      </c>
-      <c r="M47" s="47">
-        <v>3.9950000000000001</v>
-      </c>
-      <c r="N47" s="47">
-        <v>26.404</v>
-      </c>
-      <c r="O47" s="47">
-        <v>227.66200000000001</v>
-      </c>
-      <c r="P47" s="47">
-        <v>3.9340000000000002</v>
-      </c>
-      <c r="Q47" s="47">
-        <v>0.52400000000000002</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A48" s="57"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A48" s="50"/>
       <c r="B48" s="2" t="s">
         <v>47</v>
       </c>
@@ -7544,35 +7144,10 @@
         <f>ABS(E48-E47)</f>
         <v>4.5800000000000063E-2</v>
       </c>
-      <c r="I48" s="57"/>
-      <c r="J48" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K48" s="47">
-        <v>16.876999999999999</v>
-      </c>
-      <c r="L48" s="47">
-        <v>23.47</v>
-      </c>
-      <c r="M48" s="47">
-        <v>0.82399999999999995</v>
-      </c>
-      <c r="N48" s="47">
-        <v>5.6429999999999998</v>
-      </c>
-      <c r="O48" s="47">
-        <v>183.815</v>
-      </c>
-      <c r="P48" s="48">
-        <v>6.4050000000000002</v>
-      </c>
-      <c r="Q48" s="47">
-        <v>0.33900000000000002</v>
-      </c>
     </row>
     <row r="50" spans="1:8" ht="15" x14ac:dyDescent="0.5">
       <c r="A50" s="39" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.5">
@@ -7584,79 +7159,79 @@
       <c r="D51" s="15"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A52" s="77" t="s">
+      <c r="A52" s="73" t="s">
         <v>64</v>
       </c>
-      <c r="B52" s="78"/>
+      <c r="B52" s="74"/>
       <c r="C52" s="10" t="s">
         <v>58</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="E52" s="10" t="s">
         <v>59</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A53" s="73" t="s">
+      <c r="A53" s="69" t="s">
         <v>21</v>
       </c>
       <c r="B53" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C53" s="81">
+      <c r="C53" s="47">
         <v>0.92610000000000003</v>
       </c>
-      <c r="D53" s="83">
+      <c r="D53" s="67">
         <f>C53-C54</f>
         <v>4.8399999999999999E-2</v>
       </c>
-      <c r="E53" s="81">
+      <c r="E53" s="47">
         <v>0.9355</v>
       </c>
-      <c r="F53" s="83">
+      <c r="F53" s="67">
         <f>E53-E54</f>
         <v>3.3599999999999963E-2</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A54" s="74"/>
+      <c r="A54" s="70"/>
       <c r="B54" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="C54" s="81">
+      <c r="C54" s="47">
         <v>0.87770000000000004</v>
       </c>
-      <c r="D54" s="84"/>
-      <c r="E54" s="81">
+      <c r="D54" s="68"/>
+      <c r="E54" s="47">
         <v>0.90190000000000003</v>
       </c>
-      <c r="F54" s="84"/>
+      <c r="F54" s="68"/>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A55" s="75" t="s">
+      <c r="A55" s="71" t="s">
         <v>22</v>
       </c>
       <c r="B55" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C55" s="82">
+      <c r="C55" s="48">
         <v>0.83179999999999998</v>
       </c>
-      <c r="D55" s="83">
+      <c r="D55" s="67">
         <f t="shared" ref="D55:F55" si="2">C55-C56</f>
         <v>4.4300000000000006E-2</v>
       </c>
-      <c r="E55" s="82">
+      <c r="E55" s="48">
         <v>0.86299999999999999</v>
       </c>
-      <c r="F55" s="83">
+      <c r="F55" s="67">
         <f t="shared" si="2"/>
         <v>1.6000000000000014E-2</v>
       </c>
@@ -7664,39 +7239,39 @@
       <c r="H55" s="2"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A56" s="76"/>
+      <c r="A56" s="72"/>
       <c r="B56" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="C56" s="82">
+      <c r="C56" s="48">
         <v>0.78749999999999998</v>
       </c>
-      <c r="D56" s="84"/>
-      <c r="E56" s="82">
+      <c r="D56" s="68"/>
+      <c r="E56" s="48">
         <v>0.84699999999999998</v>
       </c>
-      <c r="F56" s="84"/>
+      <c r="F56" s="68"/>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A57" s="73" t="s">
+      <c r="A57" s="69" t="s">
         <v>23</v>
       </c>
       <c r="B57" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C57" s="81">
+      <c r="C57" s="47">
         <v>0.90229999999999999</v>
       </c>
-      <c r="D57" s="83">
+      <c r="D57" s="67">
         <f t="shared" ref="D57:F57" si="3">C57-C58</f>
         <v>2.6000000000000023E-2</v>
       </c>
-      <c r="E57" s="81">
+      <c r="E57" s="47">
         <v>0.91910000000000003</v>
       </c>
-      <c r="F57" s="83">
+      <c r="F57" s="67">
         <f t="shared" si="3"/>
         <v>1.0900000000000021E-2</v>
       </c>
@@ -7704,18 +7279,18 @@
       <c r="H57" s="2"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A58" s="74"/>
+      <c r="A58" s="70"/>
       <c r="B58" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="C58" s="81">
+      <c r="C58" s="47">
         <v>0.87629999999999997</v>
       </c>
-      <c r="D58" s="84"/>
-      <c r="E58" s="81">
+      <c r="D58" s="68"/>
+      <c r="E58" s="47">
         <v>0.90820000000000001</v>
       </c>
-      <c r="F58" s="84"/>
+      <c r="F58" s="68"/>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
     </row>
@@ -7738,43 +7313,43 @@
       <c r="H60" s="2"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A61" s="79" t="s">
+      <c r="A61" s="75" t="s">
         <v>64</v>
       </c>
-      <c r="B61" s="80"/>
+      <c r="B61" s="76"/>
       <c r="C61" s="12" t="s">
         <v>58</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="E61" s="12" t="s">
         <v>59</v>
       </c>
       <c r="F61" s="10" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A62" s="73" t="s">
+      <c r="A62" s="69" t="s">
         <v>21</v>
       </c>
       <c r="B62" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C62" s="81">
+      <c r="C62" s="47">
         <v>0.85699999999999998</v>
       </c>
-      <c r="D62" s="83">
+      <c r="D62" s="67">
         <f>C62-C63</f>
         <v>1.7000000000000015E-2</v>
       </c>
-      <c r="E62" s="81">
+      <c r="E62" s="47">
         <v>0.88139999999999996</v>
       </c>
-      <c r="F62" s="83">
+      <c r="F62" s="67">
         <f>E62-E63</f>
         <v>8.799999999999919E-3</v>
       </c>
@@ -7782,39 +7357,39 @@
       <c r="H62" s="2"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A63" s="74"/>
+      <c r="A63" s="70"/>
       <c r="B63" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="C63" s="81">
+      <c r="C63" s="47">
         <v>0.84</v>
       </c>
-      <c r="D63" s="84"/>
-      <c r="E63" s="81">
+      <c r="D63" s="68"/>
+      <c r="E63" s="47">
         <v>0.87260000000000004</v>
       </c>
-      <c r="F63" s="84"/>
+      <c r="F63" s="68"/>
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A64" s="75" t="s">
+      <c r="A64" s="71" t="s">
         <v>22</v>
       </c>
       <c r="B64" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C64" s="82">
+      <c r="C64" s="48">
         <v>0.92249999999999999</v>
       </c>
-      <c r="D64" s="83">
+      <c r="D64" s="67">
         <f t="shared" ref="D64" si="4">C64-C65</f>
         <v>5.9999999999999942E-2</v>
       </c>
-      <c r="E64" s="82">
+      <c r="E64" s="48">
         <v>0.93559999999999999</v>
       </c>
-      <c r="F64" s="83">
+      <c r="F64" s="67">
         <f t="shared" ref="F64" si="5">E64-E65</f>
         <v>4.1100000000000025E-2</v>
       </c>
@@ -7822,39 +7397,39 @@
       <c r="H64" s="2"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A65" s="76"/>
+      <c r="A65" s="72"/>
       <c r="B65" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="C65" s="82">
+      <c r="C65" s="48">
         <v>0.86250000000000004</v>
       </c>
-      <c r="D65" s="84"/>
-      <c r="E65" s="82">
+      <c r="D65" s="68"/>
+      <c r="E65" s="48">
         <v>0.89449999999999996</v>
       </c>
-      <c r="F65" s="84"/>
+      <c r="F65" s="68"/>
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A66" s="73" t="s">
+      <c r="A66" s="69" t="s">
         <v>23</v>
       </c>
       <c r="B66" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C66" s="81">
+      <c r="C66" s="47">
         <v>0.87090000000000001</v>
       </c>
-      <c r="D66" s="83">
+      <c r="D66" s="67">
         <f t="shared" ref="D66" si="6">C66-C67</f>
         <v>3.4800000000000053E-2</v>
       </c>
-      <c r="E66" s="81">
+      <c r="E66" s="47">
         <v>0.89049999999999996</v>
       </c>
-      <c r="F66" s="83">
+      <c r="F66" s="67">
         <f t="shared" ref="F66" si="7">E66-E67</f>
         <v>2.739999999999998E-2</v>
       </c>
@@ -7862,18 +7437,18 @@
       <c r="H66" s="2"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A67" s="74"/>
+      <c r="A67" s="70"/>
       <c r="B67" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="C67" s="81">
+      <c r="C67" s="47">
         <v>0.83609999999999995</v>
       </c>
-      <c r="D67" s="84"/>
-      <c r="E67" s="81">
+      <c r="D67" s="68"/>
+      <c r="E67" s="47">
         <v>0.86309999999999998</v>
       </c>
-      <c r="F67" s="84"/>
+      <c r="F67" s="68"/>
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
     </row>
@@ -7883,27 +7458,11 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="46">
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="A61:B61"/>
+  <mergeCells count="40">
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A38:A39"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:A6"/>
@@ -7918,18 +7477,28 @@
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A21:E21"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="F55:F56"/>
     <mergeCell ref="A41:F41"/>
     <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="I47:I48"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dataAnalysis.xlsx
+++ b/dataAnalysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\botImpact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ADE41D4-F51E-4730-BDAF-D7EDB0D2EFEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E7C4A90-8E61-43BE-876A-ADF3B7A11DBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="18192" windowHeight="11592" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="195">
   <si>
     <t>Node Degree</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2145,46 +2145,203 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>这里计算每个</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
+      <t>Threshold</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>0.8, -0.8</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>因为网络更大，训练的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>epoch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>需要比模拟数据更多，模型选择：以收敛为标准（不需要看</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Loss</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的值，只要</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Loss</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>逐渐平稳即可）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>变化</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Will Human Influenced by Bot Influencers?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>直接比较</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t>Bot</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Followers' average opinion</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>比</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Human</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>影响大多少</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Pos</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -2193,7 +2350,7 @@
         <family val="1"/>
         <charset val="134"/>
       </rPr>
-      <t>用</t>
+      <t>旁更</t>
     </r>
     <r>
       <rPr>
@@ -2202,7 +2359,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>bot</t>
+      <t>pos</t>
     </r>
     <r>
       <rPr>
@@ -2212,7 +2369,7 @@
         <family val="1"/>
         <charset val="134"/>
       </rPr>
-      <t>网络结构做</t>
+      <t>，</t>
     </r>
     <r>
       <rPr>
@@ -2221,7 +2378,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>X, sent</t>
+      <t>neg</t>
     </r>
     <r>
       <rPr>
@@ -2231,7 +2388,7 @@
         <family val="1"/>
         <charset val="134"/>
       </rPr>
-      <t>做</t>
+      <t>旁更</t>
     </r>
     <r>
       <rPr>
@@ -2240,12 +2397,222 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Y</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
+      <t>neg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，证明</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Bot</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的观点确实能对周边</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Human</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>产生影响</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Human With Human Inf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Human Without Human Inf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Will Human Influenced by Human Influencers? (Without controlling homophily)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Pos</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>旁更</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>pos</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>neg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>旁更</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>neg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，然而不能直接用这个结果比较</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Human</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Bot</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的差异，因为有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Homophily</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>存在</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>这里转换一下，变成离</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
       <t>Threshold</t>
     </r>
     <r>
@@ -2256,619 +2623,114 @@
         <family val="1"/>
         <charset val="134"/>
       </rPr>
-      <t>：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>0.8, -0.8</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（不使用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Human</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>做这样的分析</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，因为</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Human</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>有</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Homophily</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>因为网络更大，训练的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>epoch</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>需要比模拟数据更多，模型选择：以收敛为标准（不需要看</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Loss</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的值，只要</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Loss</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>逐渐平稳即可）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>变化</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>结构都不显著，证明</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>bot actively shape opinion</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>不成立（发</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>tweet</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>等方式并不能提高影响）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>p value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Will Human Influenced by Bot Influencers?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>直接比较</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>H</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>和</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>B</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
+      <t>的距离，越小影响越大</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUC diff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AP diff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.3.2.2 Validation of Model Estimation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.3.3 The Difference between Bot and Human Influencers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Human Influencers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bot Influencers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Followers/Post: Measuring the Content Efficiency</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>t1,t2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
       <t>Bot</t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>比</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Human</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>影响大多少</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Pos</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>旁更</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>pos</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>neg</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>旁更</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>neg</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，证明</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Bot</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的观点确实能对周边</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Human</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>产生影响</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Human With Human Inf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Human Without Human Inf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Will Human Influenced by Human Influencers? (Without controlling homophily)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Pos</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>旁更</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>pos</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>neg</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>旁更</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>neg</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，然而不能直接用这个结果比较</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Human</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>和</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Bot</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的差异，因为有</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Homophily</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>存在</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>这里转换一下，变成离</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Threshold</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的距离，越小影响越大</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AUC diff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AP diff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.3.2.2 Validation of Model Estimation</t>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>影响更强有可能是他们发表了更有用的内容，而</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>t3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>没有显著差异</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>越大，说明发帖越有效果（吸引更多Followers）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Opinion</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2880,7 +2742,7 @@
     <numFmt numFmtId="176" formatCode="0.0000_ "/>
     <numFmt numFmtId="177" formatCode="0.0000_);[Red]\(0.0000\)"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3013,13 +2875,6 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
@@ -3101,7 +2956,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -3187,11 +3042,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3232,18 +3098,6 @@
     <xf numFmtId="177" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3283,7 +3137,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3293,10 +3147,10 @@
     <xf numFmtId="176" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3314,19 +3168,31 @@
     <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3350,25 +3216,28 @@
     <xf numFmtId="176" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3395,22 +3264,25 @@
     <xf numFmtId="177" fontId="2" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3729,14 +3601,14 @@
       <c r="D1" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="62" t="s">
+      <c r="E1" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="23" t="s">
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="19" t="s">
         <v>87</v>
       </c>
     </row>
@@ -3749,10 +3621,10 @@
       <c r="D2" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="53" t="s">
+      <c r="E2" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="F2" s="54"/>
+      <c r="F2" s="52"/>
       <c r="G2" s="3" t="s">
         <v>30</v>
       </c>
@@ -3776,22 +3648,22 @@
       <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="49" t="s">
+      <c r="E3" s="53" t="s">
         <v>21</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="G3" s="22">
+      <c r="G3" s="18">
         <v>0.60419999999999996</v>
       </c>
-      <c r="H3" s="51">
+      <c r="H3" s="46">
         <v>1.4500999999999999</v>
       </c>
-      <c r="I3" s="51">
+      <c r="I3" s="46">
         <v>0.14699999999999999</v>
       </c>
-      <c r="J3" s="23" t="s">
+      <c r="J3" s="19" t="s">
         <v>90</v>
       </c>
     </row>
@@ -3808,16 +3680,16 @@
       <c r="D4" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="50"/>
+      <c r="E4" s="54"/>
       <c r="F4" s="2" t="s">
         <v>79</v>
       </c>
       <c r="G4" s="2">
         <v>0.59640000000000004</v>
       </c>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="23" t="s">
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="19" t="s">
         <v>91</v>
       </c>
     </row>
@@ -3834,19 +3706,19 @@
       <c r="D5" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="49" t="s">
+      <c r="E5" s="53" t="s">
         <v>22</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="G5" s="22">
+      <c r="G5" s="18">
         <v>0.58009999999999995</v>
       </c>
-      <c r="H5" s="51">
+      <c r="H5" s="46">
         <v>-0.46650000000000003</v>
       </c>
-      <c r="I5" s="51">
+      <c r="I5" s="46">
         <v>0.64090000000000003</v>
       </c>
     </row>
@@ -3856,15 +3728,15 @@
       </c>
       <c r="B6" s="60"/>
       <c r="C6" s="61"/>
-      <c r="E6" s="50"/>
+      <c r="E6" s="54"/>
       <c r="F6" s="2" t="s">
         <v>79</v>
       </c>
       <c r="G6" s="2">
         <v>0.58389999999999997</v>
       </c>
-      <c r="H6" s="52"/>
-      <c r="I6" s="52"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A7" s="55" t="s">
@@ -3876,45 +3748,45 @@
       <c r="C7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="49" t="s">
+      <c r="E7" s="53" t="s">
         <v>23</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="G7" s="22">
+      <c r="G7" s="18">
         <v>0.5393</v>
       </c>
-      <c r="H7" s="51">
+      <c r="H7" s="46">
         <v>-1.7504</v>
       </c>
-      <c r="I7" s="51">
+      <c r="I7" s="46">
         <v>8.0100000000000005E-2</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A8" s="50"/>
+      <c r="A8" s="54"/>
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="50"/>
+      <c r="E8" s="54"/>
       <c r="F8" s="2" t="s">
         <v>79</v>
       </c>
       <c r="G8" s="2">
         <v>0.55649999999999999</v>
       </c>
-      <c r="H8" s="52"/>
-      <c r="I8" s="52"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="E9" s="53" t="s">
+      <c r="E9" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="F9" s="54"/>
+      <c r="F9" s="52"/>
       <c r="G9" s="3" t="s">
         <v>25</v>
       </c>
@@ -3931,22 +3803,22 @@
       </c>
       <c r="B10" s="57"/>
       <c r="C10" s="58"/>
-      <c r="E10" s="49" t="s">
+      <c r="E10" s="53" t="s">
         <v>21</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="G10" s="21">
+      <c r="G10" s="17">
         <v>0.82099999999999995</v>
       </c>
-      <c r="H10" s="51">
+      <c r="H10" s="46">
         <v>23.857700000000001</v>
       </c>
-      <c r="I10" s="51" t="s">
+      <c r="I10" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="J10" s="23" t="s">
+      <c r="J10" s="19" t="s">
         <v>88</v>
       </c>
     </row>
@@ -3956,15 +3828,15 @@
       </c>
       <c r="B11" s="60"/>
       <c r="C11" s="61"/>
-      <c r="E11" s="50"/>
+      <c r="E11" s="54"/>
       <c r="F11" s="2" t="s">
         <v>79</v>
       </c>
       <c r="G11" s="2">
         <v>0.74229999999999996</v>
       </c>
-      <c r="H11" s="52"/>
-      <c r="I11" s="52"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A12" s="1" t="s">
@@ -3976,19 +3848,19 @@
       <c r="C12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="49" t="s">
+      <c r="E12" s="53" t="s">
         <v>22</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="G12" s="21">
+      <c r="G12" s="17">
         <v>0.83950000000000002</v>
       </c>
-      <c r="H12" s="51">
+      <c r="H12" s="46">
         <v>20.513400000000001</v>
       </c>
-      <c r="I12" s="51" t="s">
+      <c r="I12" s="46" t="s">
         <v>27</v>
       </c>
     </row>
@@ -4002,15 +3874,15 @@
       <c r="C13" s="2">
         <v>5.0496999999999996</v>
       </c>
-      <c r="E13" s="50"/>
+      <c r="E13" s="54"/>
       <c r="F13" s="2" t="s">
         <v>79</v>
       </c>
       <c r="G13" s="2">
         <v>0.73529999999999995</v>
       </c>
-      <c r="H13" s="52"/>
-      <c r="I13" s="52"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A14" s="2" t="s">
@@ -4022,19 +3894,19 @@
       <c r="C14" s="2">
         <v>5.5609000000000002</v>
       </c>
-      <c r="E14" s="49" t="s">
+      <c r="E14" s="53" t="s">
         <v>23</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="G14" s="21">
+      <c r="G14" s="17">
         <v>0.78539999999999999</v>
       </c>
-      <c r="H14" s="51">
+      <c r="H14" s="46">
         <v>16.601400000000002</v>
       </c>
-      <c r="I14" s="51" t="s">
+      <c r="I14" s="46" t="s">
         <v>28</v>
       </c>
     </row>
@@ -4044,15 +3916,15 @@
       </c>
       <c r="B15" s="60"/>
       <c r="C15" s="61"/>
-      <c r="E15" s="50"/>
+      <c r="E15" s="54"/>
       <c r="F15" s="2" t="s">
         <v>79</v>
       </c>
       <c r="G15" s="2">
         <v>0.67610000000000003</v>
       </c>
-      <c r="H15" s="52"/>
-      <c r="I15" s="52"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A16" s="55" t="s">
@@ -4064,31 +3936,31 @@
       <c r="C16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="20" t="s">
+      <c r="E16" s="16" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A17" s="50"/>
+      <c r="A17" s="54"/>
       <c r="B17" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="19" t="s">
+      <c r="E17" s="15" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="E18" s="62" t="s">
+      <c r="E18" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="63"/>
-      <c r="G18" s="63"/>
-      <c r="H18" s="63"/>
-      <c r="I18" s="64"/>
-      <c r="J18" s="20" t="s">
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="16" t="s">
         <v>89</v>
       </c>
     </row>
@@ -4098,10 +3970,10 @@
       </c>
       <c r="B19" s="57"/>
       <c r="C19" s="58"/>
-      <c r="E19" s="53" t="s">
+      <c r="E19" s="51" t="s">
         <v>74</v>
       </c>
-      <c r="F19" s="54"/>
+      <c r="F19" s="52"/>
       <c r="G19" s="3" t="s">
         <v>30</v>
       </c>
@@ -4118,22 +3990,22 @@
       </c>
       <c r="B20" s="60"/>
       <c r="C20" s="61"/>
-      <c r="E20" s="49" t="s">
+      <c r="E20" s="53" t="s">
         <v>21</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G20" s="22">
+      <c r="G20" s="18">
         <v>0.60419999999999996</v>
       </c>
-      <c r="H20" s="51">
+      <c r="H20" s="46">
         <v>6.7031000000000001</v>
       </c>
-      <c r="I20" s="51" t="s">
+      <c r="I20" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="J20" s="23" t="s">
+      <c r="J20" s="19" t="s">
         <v>84</v>
       </c>
     </row>
@@ -4147,16 +4019,16 @@
       <c r="C21" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="50"/>
+      <c r="E21" s="54"/>
       <c r="F21" s="2" t="s">
         <v>71</v>
       </c>
       <c r="G21" s="2">
         <v>0.56520000000000004</v>
       </c>
-      <c r="H21" s="52"/>
-      <c r="I21" s="52"/>
-      <c r="J21" s="20" t="s">
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="16" t="s">
         <v>85</v>
       </c>
     </row>
@@ -4170,19 +4042,19 @@
       <c r="C22" s="2">
         <v>6.4598000000000004</v>
       </c>
-      <c r="E22" s="49" t="s">
+      <c r="E22" s="53" t="s">
         <v>22</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G22" s="22">
+      <c r="G22" s="18">
         <v>0.58009999999999995</v>
       </c>
-      <c r="H22" s="51">
+      <c r="H22" s="46">
         <v>2.8894000000000002</v>
       </c>
-      <c r="I22" s="51">
+      <c r="I22" s="46">
         <v>3.8999999999999998E-3</v>
       </c>
     </row>
@@ -4196,15 +4068,15 @@
       <c r="C23" s="2">
         <v>5.1597</v>
       </c>
-      <c r="E23" s="50"/>
+      <c r="E23" s="54"/>
       <c r="F23" s="2" t="s">
         <v>71</v>
       </c>
       <c r="G23" s="2">
         <v>0.5534</v>
       </c>
-      <c r="H23" s="52"/>
-      <c r="I23" s="52"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="47"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A24" s="59" t="s">
@@ -4212,22 +4084,22 @@
       </c>
       <c r="B24" s="60"/>
       <c r="C24" s="61"/>
-      <c r="E24" s="49" t="s">
+      <c r="E24" s="53" t="s">
         <v>23</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G24" s="22">
+      <c r="G24" s="18">
         <v>0.5393</v>
       </c>
-      <c r="H24" s="51">
+      <c r="H24" s="46">
         <v>1.6584000000000001</v>
       </c>
-      <c r="I24" s="51">
+      <c r="I24" s="46">
         <v>9.7299999999999998E-2</v>
       </c>
-      <c r="J24" s="23" t="s">
+      <c r="J24" s="19" t="s">
         <v>86</v>
       </c>
     </row>
@@ -4241,28 +4113,28 @@
       <c r="C25" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E25" s="50"/>
+      <c r="E25" s="54"/>
       <c r="F25" s="2" t="s">
         <v>71</v>
       </c>
       <c r="G25" s="2">
         <v>0.52139999999999997</v>
       </c>
-      <c r="H25" s="52"/>
-      <c r="I25" s="52"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A26" s="50"/>
+      <c r="A26" s="54"/>
       <c r="B26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E26" s="53" t="s">
+      <c r="E26" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="F26" s="54"/>
+      <c r="F26" s="52"/>
       <c r="G26" s="3" t="s">
         <v>25</v>
       </c>
@@ -4274,112 +4146,130 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="E27" s="49" t="s">
+      <c r="E27" s="53" t="s">
         <v>21</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G27" s="21">
+      <c r="G27" s="17">
         <v>0.82099999999999995</v>
       </c>
-      <c r="H27" s="51">
+      <c r="H27" s="46">
         <v>33.133299999999998</v>
       </c>
-      <c r="I27" s="51" t="s">
+      <c r="I27" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="J27" s="23" t="s">
+      <c r="J27" s="19" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="E28" s="50"/>
+      <c r="E28" s="54"/>
       <c r="F28" s="2" t="s">
         <v>71</v>
       </c>
       <c r="G28" s="2">
         <v>0.70599999999999996</v>
       </c>
-      <c r="H28" s="52"/>
-      <c r="I28" s="52"/>
-      <c r="J28" s="23" t="s">
+      <c r="H28" s="47"/>
+      <c r="I28" s="47"/>
+      <c r="J28" s="19" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="E29" s="49" t="s">
+      <c r="E29" s="53" t="s">
         <v>22</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G29" s="21">
+      <c r="G29" s="17">
         <v>0.83950000000000002</v>
       </c>
-      <c r="H29" s="51">
+      <c r="H29" s="46">
         <v>24.9849</v>
       </c>
-      <c r="I29" s="51" t="s">
+      <c r="I29" s="46" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="E30" s="50"/>
+      <c r="E30" s="54"/>
       <c r="F30" s="2" t="s">
         <v>71</v>
       </c>
       <c r="G30" s="2">
         <v>0.70609999999999995</v>
       </c>
-      <c r="H30" s="52"/>
-      <c r="I30" s="52"/>
+      <c r="H30" s="47"/>
+      <c r="I30" s="47"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="E31" s="49" t="s">
+      <c r="E31" s="53" t="s">
         <v>23</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G31" s="21">
+      <c r="G31" s="17">
         <v>0.78539999999999999</v>
       </c>
-      <c r="H31" s="51">
+      <c r="H31" s="46">
         <v>21.385400000000001</v>
       </c>
-      <c r="I31" s="51" t="s">
+      <c r="I31" s="46" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="E32" s="50"/>
+      <c r="E32" s="54"/>
       <c r="F32" s="2" t="s">
         <v>71</v>
       </c>
       <c r="G32" s="2">
         <v>0.63849999999999996</v>
       </c>
-      <c r="H32" s="52"/>
-      <c r="I32" s="52"/>
+      <c r="H32" s="47"/>
+      <c r="I32" s="47"/>
     </row>
     <row r="33" spans="5:5" x14ac:dyDescent="0.5">
-      <c r="E33" s="20" t="s">
+      <c r="E33" s="16" t="s">
         <v>76</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="E1:I1"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A24:C24"/>
     <mergeCell ref="H20:H21"/>
     <mergeCell ref="I20:I21"/>
     <mergeCell ref="E7:E8"/>
@@ -4396,34 +4286,16 @@
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E20:E21"/>
     <mergeCell ref="E10:E11"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="E12:E13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4441,687 +4313,687 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="12.046875" style="24" customWidth="1"/>
-    <col min="2" max="16384" width="8.796875" style="24"/>
+    <col min="1" max="1" width="12.046875" style="20" customWidth="1"/>
+    <col min="2" max="16384" width="8.796875" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="62" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66" t="s">
+      <c r="C1" s="62"/>
+      <c r="D1" s="62" t="s">
         <v>94</v>
       </c>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66" t="s">
+      <c r="E1" s="62"/>
+      <c r="F1" s="62" t="s">
         <v>95</v>
       </c>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66" t="s">
+      <c r="G1" s="62"/>
+      <c r="H1" s="62" t="s">
         <v>96</v>
       </c>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66" t="s">
+      <c r="I1" s="62"/>
+      <c r="J1" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="K1" s="66"/>
-      <c r="L1" s="24" t="s">
+      <c r="K1" s="62"/>
+      <c r="L1" s="20" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="G2" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="H2" s="24" t="s">
+      <c r="H2" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="I2" s="24" t="s">
+      <c r="I2" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="J2" s="24" t="s">
+      <c r="J2" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="K2" s="24" t="s">
+      <c r="K2" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="L2" s="24" t="s">
+      <c r="L2" s="20" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="B3" s="24">
+      <c r="B3" s="20">
         <v>0.36530000000000001</v>
       </c>
-      <c r="C3" s="24">
+      <c r="C3" s="20">
         <v>0.37009999999999998</v>
       </c>
-      <c r="D3" s="24">
+      <c r="D3" s="20">
         <v>0.39100000000000001</v>
       </c>
-      <c r="E3" s="24">
+      <c r="E3" s="20">
         <v>0.39629999999999999</v>
       </c>
-      <c r="F3" s="24">
+      <c r="F3" s="20">
         <v>0.37280000000000002</v>
       </c>
-      <c r="G3" s="24">
+      <c r="G3" s="20">
         <v>0.39090000000000003</v>
       </c>
-      <c r="H3" s="24">
+      <c r="H3" s="20">
         <v>0.4415</v>
       </c>
-      <c r="I3" s="24">
+      <c r="I3" s="20">
         <v>0.44979999999999998</v>
       </c>
-      <c r="J3" s="24">
+      <c r="J3" s="20">
         <v>0.34160000000000001</v>
       </c>
-      <c r="K3" s="24">
+      <c r="K3" s="20">
         <v>0.35449999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="25" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="25">
+    <row r="4" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B4" s="21">
         <v>0.19689999999999999</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C4" s="21">
         <v>0.1951</v>
       </c>
-      <c r="D4" s="25">
+      <c r="D4" s="21">
         <v>0.1421</v>
       </c>
-      <c r="E4" s="25">
+      <c r="E4" s="21">
         <v>0.1424</v>
       </c>
-      <c r="F4" s="25">
+      <c r="F4" s="21">
         <v>8.5400000000000004E-2</v>
       </c>
-      <c r="G4" s="25">
+      <c r="G4" s="21">
         <v>8.4500000000000006E-2</v>
       </c>
-      <c r="H4" s="25">
+      <c r="H4" s="21">
         <v>0.15090000000000001</v>
       </c>
-      <c r="I4" s="25">
+      <c r="I4" s="21">
         <v>0.15010000000000001</v>
       </c>
-      <c r="J4" s="25">
+      <c r="J4" s="21">
         <v>0.10050000000000001</v>
       </c>
-      <c r="K4" s="25">
+      <c r="K4" s="21">
         <v>9.1499999999999998E-2</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="B5" s="24">
+      <c r="B5" s="20">
         <v>0.25330000000000003</v>
       </c>
-      <c r="C5" s="24">
+      <c r="C5" s="20">
         <v>0.25969999999999999</v>
       </c>
-      <c r="D5" s="24">
+      <c r="D5" s="20">
         <v>0.2359</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="20">
         <v>0.23699999999999999</v>
       </c>
-      <c r="F5" s="24">
+      <c r="F5" s="20">
         <v>0.27160000000000001</v>
       </c>
-      <c r="G5" s="24">
+      <c r="G5" s="20">
         <v>0.27539999999999998</v>
       </c>
-      <c r="H5" s="24">
+      <c r="H5" s="20">
         <v>0.35170000000000001</v>
       </c>
-      <c r="I5" s="24">
+      <c r="I5" s="20">
         <v>0.35589999999999999</v>
       </c>
-      <c r="J5" s="24">
+      <c r="J5" s="20">
         <v>0.30420000000000003</v>
       </c>
-      <c r="K5" s="24">
+      <c r="K5" s="20">
         <v>0.3054</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="25" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="B6" s="25">
+    <row r="6" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B6" s="21">
         <v>9.9199999999999997E-2</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="21">
         <v>9.7500000000000003E-2</v>
       </c>
-      <c r="D6" s="25">
+      <c r="D6" s="21">
         <v>9.2600000000000002E-2</v>
       </c>
-      <c r="E6" s="25">
+      <c r="E6" s="21">
         <v>9.1499999999999998E-2</v>
       </c>
-      <c r="F6" s="25">
+      <c r="F6" s="21">
         <v>0.1129</v>
       </c>
-      <c r="G6" s="25">
+      <c r="G6" s="21">
         <v>0.1104</v>
       </c>
-      <c r="H6" s="25">
+      <c r="H6" s="21">
         <v>6.6900000000000001E-2</v>
       </c>
-      <c r="I6" s="25">
+      <c r="I6" s="21">
         <v>6.6699999999999995E-2</v>
       </c>
-      <c r="J6" s="25">
+      <c r="J6" s="21">
         <v>0.1177</v>
       </c>
-      <c r="K6" s="25">
+      <c r="K6" s="21">
         <v>0.1162</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="B7" s="24">
+      <c r="B7" s="20">
         <v>0.2253</v>
       </c>
-      <c r="C7" s="24">
+      <c r="C7" s="20">
         <v>0.27439999999999998</v>
       </c>
-      <c r="D7" s="24">
+      <c r="D7" s="20">
         <v>0.2361</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="20">
         <v>0.27189999999999998</v>
       </c>
-      <c r="F7" s="24">
+      <c r="F7" s="20">
         <v>0.18010000000000001</v>
       </c>
-      <c r="G7" s="24">
+      <c r="G7" s="20">
         <v>0.2225</v>
       </c>
-      <c r="H7" s="24">
+      <c r="H7" s="20">
         <v>0.16039999999999999</v>
       </c>
-      <c r="I7" s="24">
+      <c r="I7" s="20">
         <v>0.16339999999999999</v>
       </c>
-      <c r="J7" s="24">
+      <c r="J7" s="20">
         <v>0.1573</v>
       </c>
-      <c r="K7" s="24">
+      <c r="K7" s="20">
         <v>0.17030000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="25" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="B8" s="25">
+    <row r="8" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B8" s="21">
         <v>0.1239</v>
       </c>
-      <c r="C8" s="25">
+      <c r="C8" s="21">
         <v>0.1226</v>
       </c>
-      <c r="D8" s="25">
+      <c r="D8" s="21">
         <v>0.1174</v>
       </c>
-      <c r="E8" s="25">
+      <c r="E8" s="21">
         <v>0.1162</v>
       </c>
-      <c r="F8" s="25">
+      <c r="F8" s="21">
         <v>0.1207</v>
       </c>
-      <c r="G8" s="25">
+      <c r="G8" s="21">
         <v>0.1198</v>
       </c>
-      <c r="H8" s="25">
+      <c r="H8" s="21">
         <v>0.11700000000000001</v>
       </c>
-      <c r="I8" s="25">
+      <c r="I8" s="21">
         <v>0.11509999999999999</v>
       </c>
-      <c r="J8" s="25">
+      <c r="J8" s="21">
         <v>0.1444</v>
       </c>
-      <c r="K8" s="25">
+      <c r="K8" s="21">
         <v>0.14249999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="B9" s="24">
+      <c r="B9" s="20">
         <v>0.1537</v>
       </c>
-      <c r="C9" s="24">
+      <c r="C9" s="20">
         <v>0.1938</v>
       </c>
-      <c r="D9" s="24">
+      <c r="D9" s="20">
         <v>0.18720000000000001</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="20">
         <v>0.23050000000000001</v>
       </c>
-      <c r="F9" s="24">
+      <c r="F9" s="20">
         <v>0.1588</v>
       </c>
-      <c r="G9" s="24">
+      <c r="G9" s="20">
         <v>0.1852</v>
       </c>
-      <c r="H9" s="24">
+      <c r="H9" s="20">
         <v>0.29620000000000002</v>
       </c>
-      <c r="I9" s="24">
+      <c r="I9" s="20">
         <v>0.37419999999999998</v>
       </c>
-      <c r="J9" s="24">
+      <c r="J9" s="20">
         <v>0.15970000000000001</v>
       </c>
-      <c r="K9" s="24">
+      <c r="K9" s="20">
         <v>0.19209999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="25" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="B10" s="25">
+    <row r="10" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B10" s="21">
         <v>0.1565</v>
       </c>
-      <c r="C10" s="25">
+      <c r="C10" s="21">
         <v>0.1326</v>
       </c>
-      <c r="D10" s="25">
+      <c r="D10" s="21">
         <v>0.17019999999999999</v>
       </c>
-      <c r="E10" s="25">
+      <c r="E10" s="21">
         <v>0.13600000000000001</v>
       </c>
-      <c r="F10" s="25">
+      <c r="F10" s="21">
         <v>0.15809999999999999</v>
       </c>
-      <c r="G10" s="25">
+      <c r="G10" s="21">
         <v>0.13589999999999999</v>
       </c>
-      <c r="H10" s="25">
+      <c r="H10" s="21">
         <v>0.22009999999999999</v>
       </c>
-      <c r="I10" s="25">
+      <c r="I10" s="21">
         <v>0.22320000000000001</v>
       </c>
-      <c r="J10" s="25">
+      <c r="J10" s="21">
         <v>0.24329999999999999</v>
       </c>
-      <c r="K10" s="25">
+      <c r="K10" s="21">
         <v>0.22070000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="B11" s="27">
+      <c r="B11" s="23">
         <v>9.3700000000000006E-2</v>
       </c>
-      <c r="C11" s="27">
+      <c r="C11" s="23">
         <v>0.1138</v>
       </c>
-      <c r="D11" s="27">
+      <c r="D11" s="23">
         <v>0.1105</v>
       </c>
-      <c r="E11" s="27">
+      <c r="E11" s="23">
         <v>0.1147</v>
       </c>
-      <c r="F11" s="27">
+      <c r="F11" s="23">
         <v>8.9700000000000002E-2</v>
       </c>
-      <c r="G11" s="27">
+      <c r="G11" s="23">
         <v>8.9899999999999994E-2</v>
       </c>
-      <c r="H11" s="27">
+      <c r="H11" s="23">
         <v>0.121</v>
       </c>
-      <c r="I11" s="27">
+      <c r="I11" s="23">
         <v>0.13239999999999999</v>
       </c>
-      <c r="J11" s="27">
+      <c r="J11" s="23">
         <v>7.9500000000000001E-2</v>
       </c>
-      <c r="K11" s="27">
+      <c r="K11" s="23">
         <v>7.9799999999999996E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="25" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="B12" s="25">
+    <row r="12" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B12" s="21">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="C12" s="25">
+      <c r="C12" s="21">
         <v>7.1400000000000005E-2</v>
       </c>
-      <c r="D12" s="25">
+      <c r="D12" s="21">
         <v>7.1199999999999999E-2</v>
       </c>
-      <c r="E12" s="25">
+      <c r="E12" s="21">
         <v>6.7799999999999999E-2</v>
       </c>
-      <c r="F12" s="25">
+      <c r="F12" s="21">
         <v>5.9200000000000003E-2</v>
       </c>
-      <c r="G12" s="25">
+      <c r="G12" s="21">
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="H12" s="25">
+      <c r="H12" s="21">
         <v>6.2399999999999997E-2</v>
       </c>
-      <c r="I12" s="25">
+      <c r="I12" s="21">
         <v>6.13E-2</v>
       </c>
-      <c r="J12" s="25">
+      <c r="J12" s="21">
         <v>5.6399999999999999E-2</v>
       </c>
-      <c r="K12" s="25">
+      <c r="K12" s="21">
         <v>5.62E-2</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="B13" s="29">
+      <c r="B13" s="25">
         <v>0.11459999999999999</v>
       </c>
-      <c r="C13" s="29">
+      <c r="C13" s="25">
         <v>0.1197</v>
       </c>
-      <c r="D13" s="29">
+      <c r="D13" s="25">
         <v>0.125</v>
       </c>
-      <c r="E13" s="29">
+      <c r="E13" s="25">
         <v>0.13020000000000001</v>
       </c>
-      <c r="F13" s="29">
+      <c r="F13" s="25">
         <v>0.12690000000000001</v>
       </c>
-      <c r="G13" s="29">
+      <c r="G13" s="25">
         <v>0.12709999999999999</v>
       </c>
-      <c r="H13" s="29">
+      <c r="H13" s="25">
         <v>0.14199999999999999</v>
       </c>
-      <c r="I13" s="29">
+      <c r="I13" s="25">
         <v>0.14549999999999999</v>
       </c>
-      <c r="J13" s="29">
+      <c r="J13" s="25">
         <v>8.77E-2</v>
       </c>
-      <c r="K13" s="29">
+      <c r="K13" s="25">
         <v>8.8099999999999998E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="25" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="30"/>
-      <c r="B14" s="30">
+    <row r="14" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A14" s="26"/>
+      <c r="B14" s="26">
         <v>6.6900000000000001E-2</v>
       </c>
-      <c r="C14" s="30">
+      <c r="C14" s="26">
         <v>6.7299999999999999E-2</v>
       </c>
-      <c r="D14" s="30">
+      <c r="D14" s="26">
         <v>6.2399999999999997E-2</v>
       </c>
-      <c r="E14" s="30">
+      <c r="E14" s="26">
         <v>6.6500000000000004E-2</v>
       </c>
-      <c r="F14" s="30">
+      <c r="F14" s="26">
         <v>5.9700000000000003E-2</v>
       </c>
-      <c r="G14" s="30">
+      <c r="G14" s="26">
         <v>5.8599999999999999E-2</v>
       </c>
-      <c r="H14" s="30">
+      <c r="H14" s="26">
         <v>6.1699999999999998E-2</v>
       </c>
-      <c r="I14" s="30">
+      <c r="I14" s="26">
         <v>6.0400000000000002E-2</v>
       </c>
-      <c r="J14" s="30">
+      <c r="J14" s="26">
         <v>5.3900000000000003E-2</v>
       </c>
-      <c r="K14" s="30">
+      <c r="K14" s="26">
         <v>5.3600000000000002E-2</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="B15" s="29">
+      <c r="B15" s="25">
         <v>0.32229999999999998</v>
       </c>
-      <c r="C15" s="29">
+      <c r="C15" s="25">
         <v>0.32390000000000002</v>
       </c>
-      <c r="D15" s="29">
+      <c r="D15" s="25">
         <v>0.31519999999999998</v>
       </c>
-      <c r="E15" s="29">
+      <c r="E15" s="25">
         <v>0.31690000000000002</v>
       </c>
-      <c r="F15" s="29">
+      <c r="F15" s="25">
         <v>0.29039999999999999</v>
       </c>
-      <c r="G15" s="29">
+      <c r="G15" s="25">
         <v>0.29389999999999999</v>
       </c>
-      <c r="H15" s="29">
+      <c r="H15" s="25">
         <v>0.4249</v>
       </c>
-      <c r="I15" s="29">
+      <c r="I15" s="25">
         <v>0.42580000000000001</v>
       </c>
-      <c r="J15" s="29">
+      <c r="J15" s="25">
         <v>0.37180000000000002</v>
       </c>
-      <c r="K15" s="29">
+      <c r="K15" s="25">
         <v>0.38940000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:12" s="25" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="30"/>
-      <c r="B16" s="30">
+    <row r="16" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A16" s="26"/>
+      <c r="B16" s="26">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="C16" s="30">
+      <c r="C16" s="26">
         <v>4.5499999999999999E-2</v>
       </c>
-      <c r="D16" s="30">
+      <c r="D16" s="26">
         <v>4.5499999999999999E-2</v>
       </c>
-      <c r="E16" s="30">
+      <c r="E16" s="26">
         <v>4.5199999999999997E-2</v>
       </c>
-      <c r="F16" s="30">
+      <c r="F16" s="26">
         <v>5.4899999999999997E-2</v>
       </c>
-      <c r="G16" s="30">
+      <c r="G16" s="26">
         <v>5.16E-2</v>
       </c>
-      <c r="H16" s="30">
+      <c r="H16" s="26">
         <v>4.4200000000000003E-2</v>
       </c>
-      <c r="I16" s="30">
+      <c r="I16" s="26">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="J16" s="30">
+      <c r="J16" s="26">
         <v>8.0500000000000002E-2</v>
       </c>
-      <c r="K16" s="30">
+      <c r="K16" s="26">
         <v>7.0599999999999996E-2</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="B17" s="29">
+      <c r="B17" s="25">
         <v>0.15329999999999999</v>
       </c>
-      <c r="C17" s="29">
+      <c r="C17" s="25">
         <v>0.15570000000000001</v>
       </c>
-      <c r="D17" s="29">
+      <c r="D17" s="25">
         <v>0.1547</v>
       </c>
-      <c r="E17" s="29">
+      <c r="E17" s="25">
         <v>0.15709999999999999</v>
       </c>
-      <c r="F17" s="29">
+      <c r="F17" s="25">
         <v>0.129</v>
       </c>
-      <c r="G17" s="29">
+      <c r="G17" s="25">
         <v>0.13159999999999999</v>
       </c>
-      <c r="H17" s="29">
+      <c r="H17" s="25">
         <v>0.17419999999999999</v>
       </c>
-      <c r="I17" s="29">
+      <c r="I17" s="25">
         <v>0.18099999999999999</v>
       </c>
-      <c r="J17" s="29">
+      <c r="J17" s="25">
         <v>0.1045</v>
       </c>
-      <c r="K17" s="29">
+      <c r="K17" s="25">
         <v>0.1061</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="30"/>
-      <c r="B18" s="30">
+    <row r="18" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A18" s="26"/>
+      <c r="B18" s="26">
         <v>7.7799999999999994E-2</v>
       </c>
-      <c r="C18" s="30">
+      <c r="C18" s="26">
         <v>7.7499999999999999E-2</v>
       </c>
-      <c r="D18" s="30">
+      <c r="D18" s="26">
         <v>7.2999999999999995E-2</v>
       </c>
-      <c r="E18" s="30">
+      <c r="E18" s="26">
         <v>7.2800000000000004E-2</v>
       </c>
-      <c r="F18" s="30">
+      <c r="F18" s="26">
         <v>6.7699999999999996E-2</v>
       </c>
-      <c r="G18" s="30">
+      <c r="G18" s="26">
         <v>6.7299999999999999E-2</v>
       </c>
-      <c r="H18" s="30">
+      <c r="H18" s="26">
         <v>7.1800000000000003E-2</v>
       </c>
-      <c r="I18" s="30">
+      <c r="I18" s="26">
         <v>7.0699999999999999E-2</v>
       </c>
-      <c r="J18" s="30">
+      <c r="J18" s="26">
         <v>6.2799999999999995E-2</v>
       </c>
-      <c r="K18" s="30">
+      <c r="K18" s="26">
         <v>6.2E-2</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A20" s="27" t="s">
+      <c r="A20" s="23" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A21" s="24" t="s">
+      <c r="A21" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="B21" s="65" t="s">
+      <c r="B21" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="C21" s="65"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="65"/>
-      <c r="F21" s="65"/>
-      <c r="G21" s="65"/>
-      <c r="H21" s="65"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="63"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A22" s="24" t="s">
+      <c r="A22" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="B22" s="28" t="s">
+      <c r="B22" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="C22" s="28" t="s">
+      <c r="C22" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="D22" s="28" t="s">
+      <c r="D22" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="E22" s="28" t="s">
+      <c r="E22" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="F22" s="28" t="s">
+      <c r="F22" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="G22" s="28" t="s">
+      <c r="G22" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="H22" s="28" t="s">
+      <c r="H22" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="I22" s="24" t="s">
+      <c r="I22" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="J22" s="28"/>
+      <c r="J22" s="24"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A23" s="29" t="s">
+      <c r="A23" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="B23" s="29">
+      <c r="B23" s="25">
         <v>1.09E-2</v>
       </c>
-      <c r="C23" s="29">
+      <c r="C23" s="25">
         <v>0.1875</v>
       </c>
-      <c r="D23" s="29">
+      <c r="D23" s="25">
         <v>0.40160000000000001</v>
       </c>
-      <c r="E23" s="29">
+      <c r="E23" s="25">
         <v>0.65820000000000001</v>
       </c>
-      <c r="F23" s="29">
+      <c r="F23" s="25">
         <v>0.82250000000000001</v>
       </c>
-      <c r="G23" s="29">
+      <c r="G23" s="25">
         <v>0.9677</v>
       </c>
-      <c r="H23" s="29">
+      <c r="H23" s="25">
         <v>1.1422000000000001</v>
       </c>
       <c r="I23" s="9" t="s">
@@ -5129,54 +5001,54 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A24" s="29" t="s">
+      <c r="A24" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="B24" s="29">
+      <c r="B24" s="25">
         <v>3.15E-2</v>
       </c>
-      <c r="C24" s="29">
+      <c r="C24" s="25">
         <v>7.8100000000000003E-2</v>
       </c>
-      <c r="D24" s="29">
+      <c r="D24" s="25">
         <v>0.10009999999999999</v>
       </c>
-      <c r="E24" s="29">
+      <c r="E24" s="25">
         <v>0.13120000000000001</v>
       </c>
-      <c r="F24" s="29">
+      <c r="F24" s="25">
         <v>0.1457</v>
       </c>
-      <c r="G24" s="29">
+      <c r="G24" s="25">
         <v>0.18579999999999999</v>
       </c>
-      <c r="H24" s="29">
+      <c r="H24" s="25">
         <v>0.24529999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A25" s="24" t="s">
+      <c r="A25" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="B25" s="24">
+      <c r="B25" s="20">
         <v>5.57E-2</v>
       </c>
-      <c r="C25" s="24">
+      <c r="C25" s="20">
         <v>9.2499999999999999E-2</v>
       </c>
-      <c r="D25" s="24">
+      <c r="D25" s="20">
         <v>0.1087</v>
       </c>
-      <c r="E25" s="24">
+      <c r="E25" s="20">
         <v>0.1447</v>
       </c>
-      <c r="F25" s="24">
+      <c r="F25" s="20">
         <v>0.15179999999999999</v>
       </c>
-      <c r="G25" s="24">
+      <c r="G25" s="20">
         <v>0.20150000000000001</v>
       </c>
-      <c r="H25" s="24">
+      <c r="H25" s="20">
         <v>0.25740000000000002</v>
       </c>
       <c r="I25" s="9" t="s">
@@ -5184,128 +5056,128 @@
       </c>
     </row>
     <row r="26" spans="1:11" ht="14.7" x14ac:dyDescent="0.5">
-      <c r="A26" s="24" t="s">
+      <c r="A26" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="B26" s="24">
+      <c r="B26" s="20">
         <v>7.3499999999999996E-2</v>
       </c>
-      <c r="C26" s="24">
+      <c r="C26" s="20">
         <v>0.1331</v>
       </c>
-      <c r="D26" s="24">
+      <c r="D26" s="20">
         <v>0.16500000000000001</v>
       </c>
-      <c r="E26" s="24">
+      <c r="E26" s="20">
         <v>0.17349999999999999</v>
       </c>
-      <c r="F26" s="24">
+      <c r="F26" s="20">
         <v>0.24529999999999999</v>
       </c>
-      <c r="G26" s="24">
+      <c r="G26" s="20">
         <v>0.33510000000000001</v>
       </c>
-      <c r="H26" s="24">
+      <c r="H26" s="20">
         <v>0.40150000000000002</v>
       </c>
-      <c r="I26" s="24" t="s">
+      <c r="I26" s="20" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="14.7" x14ac:dyDescent="0.5">
-      <c r="A27" s="24" t="s">
+      <c r="A27" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="B27" s="24">
+      <c r="B27" s="20">
         <v>5.7299999999999997E-2</v>
       </c>
-      <c r="C27" s="24">
+      <c r="C27" s="20">
         <v>0.1726</v>
       </c>
-      <c r="D27" s="24">
+      <c r="D27" s="20">
         <v>0.2296</v>
       </c>
-      <c r="E27" s="24">
+      <c r="E27" s="20">
         <v>0.27410000000000001</v>
       </c>
-      <c r="F27" s="24">
+      <c r="F27" s="20">
         <v>0.37930000000000003</v>
       </c>
-      <c r="G27" s="24">
+      <c r="G27" s="20">
         <v>0.442</v>
       </c>
-      <c r="H27" s="24">
+      <c r="H27" s="20">
         <v>0.49890000000000001</v>
       </c>
-      <c r="I27" s="31" t="s">
+      <c r="I27" s="27" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A29" s="24" t="s">
+      <c r="A29" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="B29" s="66" t="s">
+      <c r="B29" s="62" t="s">
         <v>95</v>
       </c>
-      <c r="C29" s="66"/>
-      <c r="D29" s="66"/>
-      <c r="E29" s="66"/>
-      <c r="F29" s="66"/>
-      <c r="G29" s="66"/>
-      <c r="H29" s="66"/>
+      <c r="C29" s="62"/>
+      <c r="D29" s="62"/>
+      <c r="E29" s="62"/>
+      <c r="F29" s="62"/>
+      <c r="G29" s="62"/>
+      <c r="H29" s="62"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A30" s="24" t="s">
+      <c r="A30" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="B30" s="28" t="s">
+      <c r="B30" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="C30" s="28" t="s">
+      <c r="C30" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="D30" s="28" t="s">
+      <c r="D30" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="E30" s="28" t="s">
+      <c r="E30" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="F30" s="28" t="s">
+      <c r="F30" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="G30" s="28" t="s">
+      <c r="G30" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="H30" s="28" t="s">
+      <c r="H30" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="I30" s="28"/>
-      <c r="J30" s="28"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="24"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A31" s="29" t="s">
+      <c r="A31" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="B31" s="29">
+      <c r="B31" s="25">
         <v>2.5999999999999999E-3</v>
       </c>
-      <c r="C31" s="29">
+      <c r="C31" s="25">
         <v>0.23569999999999999</v>
       </c>
-      <c r="D31" s="29">
+      <c r="D31" s="25">
         <v>0.41749999999999998</v>
       </c>
-      <c r="E31" s="29">
+      <c r="E31" s="25">
         <v>0.62070000000000003</v>
       </c>
-      <c r="F31" s="29">
+      <c r="F31" s="25">
         <v>0.87470000000000003</v>
       </c>
-      <c r="G31" s="29">
+      <c r="G31" s="25">
         <v>1.0710999999999999</v>
       </c>
-      <c r="H31" s="29">
+      <c r="H31" s="25">
         <v>1.2961</v>
       </c>
       <c r="I31" s="9" t="s">
@@ -5313,54 +5185,54 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A32" s="29" t="s">
+      <c r="A32" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="B32" s="29">
+      <c r="B32" s="25">
         <v>3.7699999999999997E-2</v>
       </c>
-      <c r="C32" s="29">
+      <c r="C32" s="25">
         <v>7.9899999999999999E-2</v>
       </c>
-      <c r="D32" s="29">
+      <c r="D32" s="25">
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="E32" s="29">
+      <c r="E32" s="25">
         <v>0.11990000000000001</v>
       </c>
-      <c r="F32" s="29">
+      <c r="F32" s="25">
         <v>0.14499999999999999</v>
       </c>
-      <c r="G32" s="29">
+      <c r="G32" s="25">
         <v>0.23769999999999999</v>
       </c>
-      <c r="H32" s="29">
+      <c r="H32" s="25">
         <v>0.27400000000000002</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A33" s="24" t="s">
+      <c r="A33" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="B33" s="24">
+      <c r="B33" s="20">
         <v>5.6800000000000003E-2</v>
       </c>
-      <c r="C33" s="24">
+      <c r="C33" s="20">
         <v>9.0200000000000002E-2</v>
       </c>
-      <c r="D33" s="24">
+      <c r="D33" s="20">
         <v>9.9699999999999997E-2</v>
       </c>
-      <c r="E33" s="24">
+      <c r="E33" s="20">
         <v>0.1206</v>
       </c>
-      <c r="F33" s="24">
+      <c r="F33" s="20">
         <v>0.14680000000000001</v>
       </c>
-      <c r="G33" s="24">
+      <c r="G33" s="20">
         <v>0.24049999999999999</v>
       </c>
-      <c r="H33" s="24">
+      <c r="H33" s="20">
         <v>0.30220000000000002</v>
       </c>
       <c r="I33" s="9" t="s">
@@ -5368,120 +5240,120 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A34" s="24" t="s">
+      <c r="A34" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="B34" s="24">
+      <c r="B34" s="20">
         <v>6.13E-2</v>
       </c>
-      <c r="C34" s="24">
+      <c r="C34" s="20">
         <v>0.15129999999999999</v>
       </c>
-      <c r="D34" s="24">
+      <c r="D34" s="20">
         <v>0.17130000000000001</v>
       </c>
-      <c r="E34" s="24">
+      <c r="E34" s="20">
         <v>0.2044</v>
       </c>
-      <c r="F34" s="24">
+      <c r="F34" s="20">
         <v>0.2641</v>
       </c>
-      <c r="G34" s="24">
+      <c r="G34" s="20">
         <v>0.38129999999999997</v>
       </c>
-      <c r="H34" s="24">
+      <c r="H34" s="20">
         <v>0.47370000000000001</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A35" s="24" t="s">
+      <c r="A35" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="B35" s="24">
+      <c r="B35" s="20">
         <v>5.7599999999999998E-2</v>
       </c>
-      <c r="C35" s="24">
+      <c r="C35" s="20">
         <v>0.1477</v>
       </c>
-      <c r="D35" s="24">
+      <c r="D35" s="20">
         <v>0.17660000000000001</v>
       </c>
-      <c r="E35" s="24">
+      <c r="E35" s="20">
         <v>0.28939999999999999</v>
       </c>
-      <c r="F35" s="24">
+      <c r="F35" s="20">
         <v>0.4214</v>
       </c>
-      <c r="G35" s="24">
+      <c r="G35" s="20">
         <v>0.48470000000000002</v>
       </c>
-      <c r="H35" s="24">
+      <c r="H35" s="20">
         <v>0.52010000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A37" s="27" t="s">
+      <c r="A37" s="23" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A38" s="24" t="s">
+      <c r="A38" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="B38" s="65" t="s">
+      <c r="B38" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="C38" s="65"/>
-      <c r="D38" s="65"/>
-      <c r="E38" s="65"/>
-      <c r="F38" s="65"/>
-      <c r="G38" s="65"/>
-      <c r="H38" s="35"/>
+      <c r="C38" s="63"/>
+      <c r="D38" s="63"/>
+      <c r="E38" s="63"/>
+      <c r="F38" s="63"/>
+      <c r="G38" s="63"/>
+      <c r="H38" s="31"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A39" s="24" t="s">
+      <c r="A39" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="B39" s="28" t="s">
+      <c r="B39" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="C39" s="28" t="s">
+      <c r="C39" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="D39" s="28" t="s">
+      <c r="D39" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="E39" s="28" t="s">
+      <c r="E39" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="F39" s="28" t="s">
+      <c r="F39" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="G39" s="28" t="s">
+      <c r="G39" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="H39" s="28"/>
+      <c r="H39" s="24"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A40" s="29" t="s">
+      <c r="A40" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="B40" s="29">
+      <c r="B40" s="25">
         <v>0.107</v>
       </c>
-      <c r="C40" s="29">
+      <c r="C40" s="25">
         <v>0.25209999999999999</v>
       </c>
-      <c r="D40" s="29">
+      <c r="D40" s="25">
         <v>0.38419999999999999</v>
       </c>
-      <c r="E40" s="29">
+      <c r="E40" s="25">
         <v>0.4738</v>
       </c>
-      <c r="F40" s="29">
+      <c r="F40" s="25">
         <v>0.62670000000000003</v>
       </c>
-      <c r="G40" s="29">
+      <c r="G40" s="25">
         <v>0.82750000000000001</v>
       </c>
       <c r="H40" s="9" t="s">
@@ -5489,48 +5361,48 @@
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A41" s="29" t="s">
+      <c r="A41" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="B41" s="29">
+      <c r="B41" s="25">
         <v>4.82E-2</v>
       </c>
-      <c r="C41" s="29">
+      <c r="C41" s="25">
         <v>6.2799999999999995E-2</v>
       </c>
-      <c r="D41" s="29">
+      <c r="D41" s="25">
         <v>7.6399999999999996E-2</v>
       </c>
-      <c r="E41" s="29">
+      <c r="E41" s="25">
         <v>8.0500000000000002E-2</v>
       </c>
-      <c r="F41" s="29">
+      <c r="F41" s="25">
         <v>0.1144</v>
       </c>
-      <c r="G41" s="29">
+      <c r="G41" s="25">
         <v>0.17530000000000001</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A42" s="24" t="s">
+      <c r="A42" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="B42" s="24">
+      <c r="B42" s="20">
         <v>5.5599999999999997E-2</v>
       </c>
-      <c r="C42" s="24">
+      <c r="C42" s="20">
         <v>7.4099999999999999E-2</v>
       </c>
-      <c r="D42" s="24">
+      <c r="D42" s="20">
         <v>8.0600000000000005E-2</v>
       </c>
-      <c r="E42" s="24">
+      <c r="E42" s="20">
         <v>8.3599999999999994E-2</v>
       </c>
-      <c r="F42" s="24">
+      <c r="F42" s="20">
         <v>0.1198</v>
       </c>
-      <c r="G42" s="24">
+      <c r="G42" s="20">
         <v>0.18110000000000001</v>
       </c>
       <c r="H42" s="9" t="s">
@@ -5538,159 +5410,159 @@
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A43" s="24" t="s">
+      <c r="A43" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="B43" s="24">
+      <c r="B43" s="20">
         <v>7.7799999999999994E-2</v>
       </c>
-      <c r="C43" s="24">
+      <c r="C43" s="20">
         <v>0.1449</v>
       </c>
-      <c r="D43" s="24">
+      <c r="D43" s="20">
         <v>0.157</v>
       </c>
-      <c r="E43" s="24">
+      <c r="E43" s="20">
         <v>0.1744</v>
       </c>
-      <c r="F43" s="24">
+      <c r="F43" s="20">
         <v>0.2104</v>
       </c>
-      <c r="G43" s="24">
+      <c r="G43" s="20">
         <v>0.27810000000000001</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A44" s="24" t="s">
+      <c r="A44" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="B44" s="24">
+      <c r="B44" s="20">
         <v>8.1000000000000003E-2</v>
       </c>
-      <c r="C44" s="24">
+      <c r="C44" s="20">
         <v>0.1817</v>
       </c>
-      <c r="D44" s="24">
+      <c r="D44" s="20">
         <v>0.20050000000000001</v>
       </c>
-      <c r="E44" s="24">
+      <c r="E44" s="20">
         <v>0.22470000000000001</v>
       </c>
-      <c r="F44" s="24">
+      <c r="F44" s="20">
         <v>0.29349999999999998</v>
       </c>
-      <c r="G44" s="24">
+      <c r="G44" s="20">
         <v>0.41320000000000001</v>
       </c>
-      <c r="K44" s="27"/>
+      <c r="K44" s="23"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A46" s="24" t="s">
+      <c r="A46" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="B46" s="65" t="s">
+      <c r="B46" s="63" t="s">
         <v>95</v>
       </c>
-      <c r="C46" s="65"/>
-      <c r="D46" s="65"/>
-      <c r="E46" s="65"/>
-      <c r="F46" s="65"/>
-      <c r="G46" s="65"/>
+      <c r="C46" s="63"/>
+      <c r="D46" s="63"/>
+      <c r="E46" s="63"/>
+      <c r="F46" s="63"/>
+      <c r="G46" s="63"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A47" s="24" t="s">
+      <c r="A47" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="B47" s="28" t="s">
+      <c r="B47" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="C47" s="28" t="s">
+      <c r="C47" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="D47" s="28" t="s">
+      <c r="D47" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="E47" s="28" t="s">
+      <c r="E47" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="F47" s="28" t="s">
+      <c r="F47" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="G47" s="28" t="s">
+      <c r="G47" s="24" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A48" s="29" t="s">
+      <c r="A48" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="B48" s="29">
+      <c r="B48" s="25">
         <v>9.0499999999999997E-2</v>
       </c>
-      <c r="C48" s="29">
+      <c r="C48" s="25">
         <v>0.23330000000000001</v>
       </c>
-      <c r="D48" s="29">
+      <c r="D48" s="25">
         <v>0.3715</v>
       </c>
-      <c r="E48" s="29">
+      <c r="E48" s="25">
         <v>0.48770000000000002</v>
       </c>
-      <c r="F48" s="29">
+      <c r="F48" s="25">
         <v>0.66590000000000005</v>
       </c>
-      <c r="G48" s="29">
+      <c r="G48" s="25">
         <v>0.80779999999999996</v>
       </c>
       <c r="H48" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="J48" s="27"/>
-      <c r="K48" s="27"/>
+      <c r="J48" s="23"/>
+      <c r="K48" s="23"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A49" s="29" t="s">
+      <c r="A49" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="B49" s="29">
+      <c r="B49" s="25">
         <v>5.7500000000000002E-2</v>
       </c>
-      <c r="C49" s="29">
+      <c r="C49" s="25">
         <v>6.2600000000000003E-2</v>
       </c>
-      <c r="D49" s="29">
+      <c r="D49" s="25">
         <v>7.2900000000000006E-2</v>
       </c>
-      <c r="E49" s="29">
+      <c r="E49" s="25">
         <v>8.8700000000000001E-2</v>
       </c>
-      <c r="F49" s="29">
+      <c r="F49" s="25">
         <v>0.121</v>
       </c>
-      <c r="G49" s="29">
+      <c r="G49" s="25">
         <v>0.1542</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A50" s="24" t="s">
+      <c r="A50" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="B50" s="24">
+      <c r="B50" s="20">
         <v>6.6900000000000001E-2</v>
       </c>
-      <c r="C50" s="24">
+      <c r="C50" s="20">
         <v>7.3300000000000004E-2</v>
       </c>
-      <c r="D50" s="24">
+      <c r="D50" s="20">
         <v>7.8600000000000003E-2</v>
       </c>
-      <c r="E50" s="24">
+      <c r="E50" s="20">
         <v>8.9899999999999994E-2</v>
       </c>
-      <c r="F50" s="24">
+      <c r="F50" s="20">
         <v>0.12280000000000001</v>
       </c>
-      <c r="G50" s="24">
+      <c r="G50" s="20">
         <v>0.1555</v>
       </c>
       <c r="H50" s="9" t="s">
@@ -5698,191 +5570,191 @@
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A51" s="24" t="s">
+      <c r="A51" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="B51" s="24">
+      <c r="B51" s="20">
         <v>7.0900000000000005E-2</v>
       </c>
-      <c r="C51" s="24">
+      <c r="C51" s="20">
         <v>0.15090000000000001</v>
       </c>
-      <c r="D51" s="24">
+      <c r="D51" s="20">
         <v>0.15590000000000001</v>
       </c>
-      <c r="E51" s="24">
+      <c r="E51" s="20">
         <v>0.16500000000000001</v>
       </c>
-      <c r="F51" s="24">
+      <c r="F51" s="20">
         <v>0.20319999999999999</v>
       </c>
-      <c r="G51" s="24">
+      <c r="G51" s="20">
         <v>0.25290000000000001</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A52" s="24" t="s">
+      <c r="A52" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="B52" s="24">
+      <c r="B52" s="20">
         <v>7.7100000000000002E-2</v>
       </c>
-      <c r="C52" s="24">
+      <c r="C52" s="20">
         <v>0.15290000000000001</v>
       </c>
-      <c r="D52" s="24">
+      <c r="D52" s="20">
         <v>0.15570000000000001</v>
       </c>
-      <c r="E52" s="24">
+      <c r="E52" s="20">
         <v>0.17849999999999999</v>
       </c>
-      <c r="F52" s="24">
+      <c r="F52" s="20">
         <v>0.3145</v>
       </c>
-      <c r="G52" s="24">
+      <c r="G52" s="20">
         <v>0.38819999999999999</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="14.7" x14ac:dyDescent="0.5">
-      <c r="A54" s="27" t="s">
+      <c r="A54" s="23" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A55" s="24" t="s">
+      <c r="A55" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="B55" s="65" t="s">
+      <c r="B55" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="C55" s="65"/>
-      <c r="D55" s="65"/>
-      <c r="E55" s="65"/>
-      <c r="F55" s="65"/>
-      <c r="G55" s="36" t="s">
+      <c r="C55" s="63"/>
+      <c r="D55" s="63"/>
+      <c r="E55" s="63"/>
+      <c r="F55" s="63"/>
+      <c r="G55" s="32" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="14.7" x14ac:dyDescent="0.5">
-      <c r="A56" s="24" t="s">
+      <c r="A56" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="B56" s="24" t="s">
+      <c r="B56" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="C56" s="24" t="s">
+      <c r="C56" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="D56" s="24" t="s">
+      <c r="D56" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="E56" s="24" t="s">
+      <c r="E56" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="F56" s="24" t="s">
+      <c r="F56" s="20" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57" s="33" t="s">
+      <c r="A57" s="29" t="s">
         <v>146</v>
       </c>
-      <c r="B57" s="33">
+      <c r="B57" s="29">
         <v>0.66139999999999999</v>
       </c>
-      <c r="C57" s="33">
+      <c r="C57" s="29">
         <v>1.1866000000000001</v>
       </c>
-      <c r="D57" s="33">
+      <c r="D57" s="29">
         <v>1.6840999999999999</v>
       </c>
-      <c r="E57" s="33">
+      <c r="E57" s="29">
         <v>2.1871999999999998</v>
       </c>
-      <c r="F57" s="33">
+      <c r="F57" s="29">
         <v>2.6762000000000001</v>
       </c>
-      <c r="G57" s="31" t="s">
+      <c r="G57" s="27" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A58" s="33" t="s">
+      <c r="A58" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="B58" s="33">
+      <c r="B58" s="29">
         <v>0.66710000000000003</v>
       </c>
-      <c r="C58" s="33">
+      <c r="C58" s="29">
         <v>1.2250000000000001</v>
       </c>
-      <c r="D58" s="33">
+      <c r="D58" s="29">
         <v>1.7150000000000001</v>
       </c>
-      <c r="E58" s="33">
+      <c r="E58" s="29">
         <v>2.2951999999999999</v>
       </c>
-      <c r="F58" s="33">
+      <c r="F58" s="29">
         <v>2.7707000000000002</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A59" s="33" t="s">
+      <c r="A59" s="29" t="s">
         <v>148</v>
       </c>
-      <c r="B59" s="33">
+      <c r="B59" s="29">
         <v>3.1827000000000001</v>
       </c>
-      <c r="C59" s="33">
+      <c r="C59" s="29">
         <v>2.7292999999999998</v>
       </c>
-      <c r="D59" s="33">
+      <c r="D59" s="29">
         <v>2.1913</v>
       </c>
-      <c r="E59" s="33">
+      <c r="E59" s="29">
         <v>1.6611</v>
       </c>
-      <c r="F59" s="33">
+      <c r="F59" s="29">
         <v>1.1574</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A60" s="33" t="s">
+      <c r="A60" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="B60" s="33">
+      <c r="B60" s="29">
         <v>2.5539999999999998</v>
       </c>
-      <c r="C60" s="33">
+      <c r="C60" s="29">
         <v>2.3184999999999998</v>
       </c>
-      <c r="D60" s="33">
+      <c r="D60" s="29">
         <v>1.8012999999999999</v>
       </c>
-      <c r="E60" s="33">
+      <c r="E60" s="29">
         <v>1.4141999999999999</v>
       </c>
-      <c r="F60" s="33">
+      <c r="F60" s="29">
         <v>0.89959999999999996</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A61" s="24" t="s">
+      <c r="A61" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="B61" s="24">
+      <c r="B61" s="20">
         <v>0.11310000000000001</v>
       </c>
-      <c r="C61" s="24">
+      <c r="C61" s="20">
         <v>9.35E-2</v>
       </c>
-      <c r="D61" s="24">
+      <c r="D61" s="20">
         <v>8.6300000000000002E-2</v>
       </c>
-      <c r="E61" s="24">
+      <c r="E61" s="20">
         <v>0.11899999999999999</v>
       </c>
-      <c r="F61" s="24">
+      <c r="F61" s="20">
         <v>0.12889999999999999</v>
       </c>
       <c r="G61" s="9" t="s">
@@ -5890,423 +5762,429 @@
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A62" s="24" t="s">
+      <c r="A62" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="B62" s="24">
+      <c r="B62" s="20">
         <v>0.1177</v>
       </c>
-      <c r="C62" s="24">
+      <c r="C62" s="20">
         <v>0.1132</v>
       </c>
-      <c r="D62" s="24">
+      <c r="D62" s="20">
         <v>8.9899999999999994E-2</v>
       </c>
-      <c r="E62" s="24">
+      <c r="E62" s="20">
         <v>0.12330000000000001</v>
       </c>
-      <c r="F62" s="24">
+      <c r="F62" s="20">
         <v>0.1308</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="14.7" x14ac:dyDescent="0.5">
-      <c r="A63" s="24" t="s">
+      <c r="A63" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="B63" s="24">
+      <c r="B63" s="20">
         <v>0.52129999999999999</v>
       </c>
-      <c r="C63" s="24">
+      <c r="C63" s="20">
         <v>0.54269999999999996</v>
       </c>
-      <c r="D63" s="24">
+      <c r="D63" s="20">
         <v>0.50719999999999998</v>
       </c>
-      <c r="E63" s="24">
+      <c r="E63" s="20">
         <v>0.47389999999999999</v>
       </c>
-      <c r="F63" s="24">
+      <c r="F63" s="20">
         <v>0.48120000000000002</v>
       </c>
-      <c r="G63" s="34" t="s">
+      <c r="G63" s="30" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A65" s="24" t="s">
+      <c r="A65" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="B65" s="65" t="s">
+      <c r="B65" s="63" t="s">
         <v>95</v>
       </c>
-      <c r="C65" s="65"/>
-      <c r="D65" s="65"/>
-      <c r="E65" s="65"/>
-      <c r="F65" s="65"/>
-      <c r="G65" s="35"/>
+      <c r="C65" s="63"/>
+      <c r="D65" s="63"/>
+      <c r="E65" s="63"/>
+      <c r="F65" s="63"/>
+      <c r="G65" s="31"/>
     </row>
     <row r="66" spans="1:8" ht="14.7" x14ac:dyDescent="0.5">
-      <c r="A66" s="24" t="s">
+      <c r="A66" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="B66" s="24" t="s">
+      <c r="B66" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="C66" s="24" t="s">
+      <c r="C66" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="D66" s="24" t="s">
+      <c r="D66" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="E66" s="24" t="s">
+      <c r="E66" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="F66" s="24" t="s">
+      <c r="F66" s="20" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A67" s="33" t="s">
+      <c r="A67" s="29" t="s">
         <v>146</v>
       </c>
-      <c r="B67" s="33">
+      <c r="B67" s="29">
         <v>0.6502</v>
       </c>
-      <c r="C67" s="33">
+      <c r="C67" s="29">
         <v>1.1700999999999999</v>
       </c>
-      <c r="D67" s="33">
+      <c r="D67" s="29">
         <v>1.6665000000000001</v>
       </c>
-      <c r="E67" s="33">
+      <c r="E67" s="29">
         <v>2.1697000000000002</v>
       </c>
-      <c r="F67" s="33">
+      <c r="F67" s="29">
         <v>2.6669</v>
       </c>
-      <c r="G67" s="31" t="s">
+      <c r="G67" s="27" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A68" s="33" t="s">
+      <c r="A68" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="B68" s="33">
+      <c r="B68" s="29">
         <v>0.67120000000000002</v>
       </c>
-      <c r="C68" s="33">
+      <c r="C68" s="29">
         <v>1.2824</v>
       </c>
-      <c r="D68" s="33">
+      <c r="D68" s="29">
         <v>1.7014</v>
       </c>
-      <c r="E68" s="33">
+      <c r="E68" s="29">
         <v>2.3450000000000002</v>
       </c>
-      <c r="F68" s="33">
+      <c r="F68" s="29">
         <v>2.8260999999999998</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A69" s="33" t="s">
+      <c r="A69" s="29" t="s">
         <v>148</v>
       </c>
-      <c r="B69" s="33">
+      <c r="B69" s="29">
         <v>3.1842000000000001</v>
       </c>
-      <c r="C69" s="33">
+      <c r="C69" s="29">
         <v>2.6978</v>
       </c>
-      <c r="D69" s="33">
+      <c r="D69" s="29">
         <v>2.1915</v>
       </c>
-      <c r="E69" s="33">
+      <c r="E69" s="29">
         <v>1.6838</v>
       </c>
-      <c r="F69" s="33">
+      <c r="F69" s="29">
         <v>1.1996</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A70" s="33" t="s">
+      <c r="A70" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="B70" s="33">
+      <c r="B70" s="29">
         <v>2.7669000000000001</v>
       </c>
-      <c r="C70" s="33">
+      <c r="C70" s="29">
         <v>2.2968999999999999</v>
       </c>
-      <c r="D70" s="33">
+      <c r="D70" s="29">
         <v>1.8028</v>
       </c>
-      <c r="E70" s="33">
+      <c r="E70" s="29">
         <v>1.4423999999999999</v>
       </c>
-      <c r="F70" s="33">
+      <c r="F70" s="29">
         <v>0.96409999999999996</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="14.7" x14ac:dyDescent="0.5">
-      <c r="A71" s="24" t="s">
+      <c r="A71" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="B71" s="24">
+      <c r="B71" s="20">
         <v>9.5699999999999993E-2</v>
       </c>
-      <c r="C71" s="24">
+      <c r="C71" s="20">
         <v>8.5500000000000007E-2</v>
       </c>
-      <c r="D71" s="24">
+      <c r="D71" s="20">
         <v>0.1014</v>
       </c>
-      <c r="E71" s="24">
+      <c r="E71" s="20">
         <v>0.1203</v>
       </c>
-      <c r="F71" s="24">
+      <c r="F71" s="20">
         <v>0.1467</v>
       </c>
       <c r="G71" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="H71" s="24" t="s">
+      <c r="H71" s="20" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A72" s="24" t="s">
+      <c r="A72" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="B72" s="24">
+      <c r="B72" s="20">
         <v>9.8100000000000007E-2</v>
       </c>
-      <c r="C72" s="24">
+      <c r="C72" s="20">
         <v>8.7900000000000006E-2</v>
       </c>
-      <c r="D72" s="24">
+      <c r="D72" s="20">
         <v>0.1036</v>
       </c>
-      <c r="E72" s="24">
+      <c r="E72" s="20">
         <v>0.12870000000000001</v>
       </c>
-      <c r="F72" s="24">
+      <c r="F72" s="20">
         <v>0.16819999999999999</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="14.7" x14ac:dyDescent="0.5">
-      <c r="A73" s="24" t="s">
+      <c r="A73" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="B73" s="24">
+      <c r="B73" s="20">
         <v>0.53400000000000003</v>
       </c>
-      <c r="C73" s="24">
+      <c r="C73" s="20">
         <v>0.52769999999999995</v>
       </c>
-      <c r="D73" s="24">
+      <c r="D73" s="20">
         <v>0.52500000000000002</v>
       </c>
-      <c r="E73" s="24">
+      <c r="E73" s="20">
         <v>0.5141</v>
       </c>
-      <c r="F73" s="24">
+      <c r="F73" s="20">
         <v>0.53269999999999995</v>
       </c>
-      <c r="G73" s="34" t="s">
+      <c r="G73" s="30" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="14.7" x14ac:dyDescent="0.5">
-      <c r="A74" s="31" t="s">
+      <c r="A74" s="27" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="14.7" x14ac:dyDescent="0.5">
-      <c r="A75" s="32"/>
+      <c r="A75" s="28"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A76" s="27" t="s">
+      <c r="A76" s="23" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A77" s="24" t="s">
+      <c r="A77" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="B77" s="65" t="s">
+      <c r="B77" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="C77" s="65"/>
-      <c r="D77" s="65"/>
-      <c r="E77" s="65"/>
-      <c r="F77" s="65"/>
-      <c r="G77" s="65"/>
-      <c r="H77" s="24" t="s">
+      <c r="C77" s="63"/>
+      <c r="D77" s="63"/>
+      <c r="E77" s="63"/>
+      <c r="F77" s="63"/>
+      <c r="G77" s="63"/>
+      <c r="H77" s="20" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A78" s="24" t="s">
+      <c r="A78" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="B78" s="37" t="s">
+      <c r="B78" s="33" t="s">
         <v>160</v>
       </c>
-      <c r="C78" s="28" t="s">
+      <c r="C78" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="D78" s="28" t="s">
+      <c r="D78" s="24" t="s">
         <v>161</v>
       </c>
-      <c r="E78" s="28" t="s">
+      <c r="E78" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="F78" s="28" t="s">
+      <c r="F78" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="G78" s="28" t="s">
+      <c r="G78" s="24" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="14.7" x14ac:dyDescent="0.5">
-      <c r="A79" s="24" t="s">
+      <c r="A79" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="B79" s="26">
+      <c r="B79" s="22">
         <v>8.9800000000000005E-2</v>
       </c>
-      <c r="C79" s="24">
+      <c r="C79" s="20">
         <v>9.3299999999999994E-2</v>
       </c>
-      <c r="D79" s="24">
+      <c r="D79" s="20">
         <v>9.2200000000000004E-2</v>
       </c>
-      <c r="E79" s="24">
+      <c r="E79" s="20">
         <v>9.1899999999999996E-2</v>
       </c>
-      <c r="F79" s="24">
+      <c r="F79" s="20">
         <v>0.10009999999999999</v>
       </c>
-      <c r="G79" s="24">
+      <c r="G79" s="20">
         <v>0.20349999999999999</v>
       </c>
-      <c r="H79" s="24" t="s">
+      <c r="H79" s="20" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A80" s="24" t="s">
+      <c r="A80" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="B80" s="26">
+      <c r="B80" s="22">
         <v>0.10440000000000001</v>
       </c>
-      <c r="C80" s="24">
+      <c r="C80" s="20">
         <v>0.1106</v>
       </c>
-      <c r="D80" s="24">
+      <c r="D80" s="20">
         <v>0.1042</v>
       </c>
-      <c r="E80" s="24">
+      <c r="E80" s="20">
         <v>0.1018</v>
       </c>
-      <c r="F80" s="24">
+      <c r="F80" s="20">
         <v>0.1159</v>
       </c>
-      <c r="G80" s="24">
+      <c r="G80" s="20">
         <v>0.2044</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A82" s="24" t="s">
+      <c r="A82" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="B82" s="65" t="s">
+      <c r="B82" s="63" t="s">
         <v>95</v>
       </c>
-      <c r="C82" s="65"/>
-      <c r="D82" s="65"/>
-      <c r="E82" s="65"/>
-      <c r="F82" s="65"/>
-      <c r="G82" s="65"/>
+      <c r="C82" s="63"/>
+      <c r="D82" s="63"/>
+      <c r="E82" s="63"/>
+      <c r="F82" s="63"/>
+      <c r="G82" s="63"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A83" s="24" t="s">
+      <c r="A83" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="B83" s="37" t="s">
+      <c r="B83" s="33" t="s">
         <v>160</v>
       </c>
-      <c r="C83" s="28" t="s">
+      <c r="C83" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="D83" s="28" t="s">
+      <c r="D83" s="24" t="s">
         <v>161</v>
       </c>
-      <c r="E83" s="28" t="s">
+      <c r="E83" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="F83" s="28" t="s">
+      <c r="F83" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="G83" s="28" t="s">
+      <c r="G83" s="24" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A84" s="24" t="s">
+      <c r="A84" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="B84" s="26">
+      <c r="B84" s="22">
         <v>9.1300000000000006E-2</v>
       </c>
-      <c r="C84" s="24">
+      <c r="C84" s="20">
         <v>9.0499999999999997E-2</v>
       </c>
-      <c r="D84" s="24">
+      <c r="D84" s="20">
         <v>8.6699999999999999E-2</v>
       </c>
-      <c r="E84" s="24">
+      <c r="E84" s="20">
         <v>8.4199999999999997E-2</v>
       </c>
-      <c r="F84" s="24">
+      <c r="F84" s="20">
         <v>9.4100000000000003E-2</v>
       </c>
-      <c r="G84" s="24">
+      <c r="G84" s="20">
         <v>0.18709999999999999</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A85" s="24" t="s">
+      <c r="A85" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="B85" s="26">
+      <c r="B85" s="22">
         <v>9.2499999999999999E-2</v>
       </c>
-      <c r="C85" s="24">
+      <c r="C85" s="20">
         <v>9.11E-2</v>
       </c>
-      <c r="D85" s="24">
+      <c r="D85" s="20">
         <v>8.8200000000000001E-2</v>
       </c>
-      <c r="E85" s="24">
+      <c r="E85" s="20">
         <v>8.77E-2</v>
       </c>
-      <c r="F85" s="24">
+      <c r="F85" s="20">
         <v>9.6199999999999994E-2</v>
       </c>
-      <c r="G85" s="24">
+      <c r="G85" s="20">
         <v>0.189</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A87" s="27" t="s">
+      <c r="A87" s="23" t="s">
         <v>167</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B77:G77"/>
+    <mergeCell ref="B82:G82"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="B46:G46"/>
+    <mergeCell ref="B55:F55"/>
+    <mergeCell ref="B65:F65"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
@@ -6314,12 +6192,6 @@
     <mergeCell ref="B38:G38"/>
     <mergeCell ref="B29:H29"/>
     <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B77:G77"/>
-    <mergeCell ref="B82:G82"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="B46:G46"/>
-    <mergeCell ref="B55:F55"/>
-    <mergeCell ref="B65:F65"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6329,10 +6201,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2687A086-E6AD-4DC9-8E6D-5E9AEFD1DED8}">
-  <dimension ref="A1:J68"/>
+  <dimension ref="A1:J78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="D84" sqref="D84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -6346,14 +6218,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="79"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="66"/>
       <c r="E1" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>66</v>
@@ -6374,7 +6246,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="53" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -6388,7 +6260,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="50"/>
+      <c r="A4" s="54"/>
       <c r="B4" s="4" t="s">
         <v>52</v>
       </c>
@@ -6400,7 +6272,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A5" s="49" t="s">
+      <c r="A5" s="53" t="s">
         <v>22</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -6414,7 +6286,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="50"/>
+      <c r="A6" s="54"/>
       <c r="B6" s="4" t="s">
         <v>52</v>
       </c>
@@ -6426,7 +6298,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="53" t="s">
         <v>23</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -6440,7 +6312,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="50"/>
+      <c r="A8" s="54"/>
       <c r="B8" s="4" t="s">
         <v>52</v>
       </c>
@@ -6455,31 +6327,29 @@
       <c r="A9" s="7"/>
     </row>
     <row r="10" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="35" t="s">
         <v>168</v>
       </c>
-      <c r="C10" s="40" t="s">
-        <v>188</v>
+      <c r="C10" s="36" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="77" t="s">
-        <v>180</v>
-      </c>
-      <c r="B11" s="78"/>
-      <c r="C11" s="78"/>
-      <c r="D11" s="78"/>
-      <c r="E11" s="79"/>
-      <c r="J11" s="5" t="s">
-        <v>172</v>
-      </c>
+      <c r="A11" s="64" t="s">
+        <v>176</v>
+      </c>
+      <c r="B11" s="65"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="66"/>
+      <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A12" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="B12" s="10" t="s">
         <v>34</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>35</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>170</v>
@@ -6488,300 +6358,266 @@
         <v>171</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A13" s="49" t="s">
+      <c r="A13" s="82" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>51</v>
-      </c>
       <c r="C13" s="1">
-        <f>0.8-0.2598</f>
-        <v>0.54020000000000001</v>
+        <v>0.25979999999999998</v>
       </c>
       <c r="D13" s="2">
-        <f>0.8-0.119</f>
-        <v>0.68100000000000005</v>
+        <v>0.11899999999999999</v>
       </c>
       <c r="E13" s="2">
         <v>0</v>
       </c>
-      <c r="J13" s="38" t="s">
-        <v>173</v>
-      </c>
+      <c r="J13" s="34"/>
     </row>
     <row r="14" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="50"/>
-      <c r="B14" s="4" t="s">
+      <c r="A14" s="83"/>
+      <c r="B14" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="1">
+        <v>-8.5400000000000004E-2</v>
+      </c>
+      <c r="D14" s="2">
+        <v>-0.1401</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="J14" s="34"/>
+    </row>
+    <row r="15" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A15" s="84"/>
+      <c r="B15" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.27929999999999999</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.1865</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A16" s="82" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="1">
-        <f>0.8+0.018</f>
-        <v>0.81800000000000006</v>
-      </c>
-      <c r="D14" s="2">
-        <f>0.1275+0.8</f>
-        <v>0.92749999999999999</v>
-      </c>
-      <c r="E14" s="2">
-        <v>0</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A15" s="49" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="1">
-        <f>ABS(-0.0854-0.8)</f>
-        <v>0.88540000000000008</v>
-      </c>
-      <c r="D15" s="2">
-        <f>ABS(-0.1401-0.8)</f>
-        <v>0.94010000000000005</v>
-      </c>
-      <c r="E15" s="2">
-        <v>1E-4</v>
-      </c>
-      <c r="J15" s="38"/>
-    </row>
-    <row r="16" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="50"/>
-      <c r="B16" s="4" t="s">
-        <v>52</v>
+      <c r="B16" s="45" t="s">
+        <v>21</v>
       </c>
       <c r="C16" s="1">
-        <f>0.8-0.1985</f>
-        <v>0.60150000000000003</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="D16" s="2">
-        <f>0.8-0.1383</f>
-        <v>0.66170000000000007</v>
+        <v>0.1275</v>
       </c>
       <c r="E16" s="2">
         <v>0</v>
       </c>
+      <c r="J16" s="6"/>
     </row>
     <row r="17" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A17" s="49" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>51</v>
+      <c r="A17" s="83"/>
+      <c r="B17" s="45" t="s">
+        <v>22</v>
       </c>
       <c r="C17" s="1">
-        <f>0.8-0.2793</f>
-        <v>0.52070000000000005</v>
+        <v>-0.19850000000000001</v>
       </c>
       <c r="D17" s="2">
-        <f>0.8-0.1865</f>
-        <v>0.61350000000000005</v>
+        <v>-0.13830000000000001</v>
       </c>
       <c r="E17" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="50"/>
-      <c r="B18" s="4" t="s">
-        <v>52</v>
+      <c r="A18" s="84"/>
+      <c r="B18" s="45" t="s">
+        <v>23</v>
       </c>
       <c r="C18" s="1">
-        <f>0.8+0.153</f>
-        <v>0.95300000000000007</v>
+        <v>0.153</v>
       </c>
       <c r="D18" s="2">
-        <f>0.8+0.1892</f>
-        <v>0.98920000000000008</v>
+        <v>0.18920000000000001</v>
       </c>
       <c r="E18" s="2">
         <v>6.3E-3</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A19" s="38" t="s">
-        <v>183</v>
-      </c>
-      <c r="G19" s="38" t="s">
-        <v>175</v>
-      </c>
+      <c r="A19" s="34" t="s">
+        <v>179</v>
+      </c>
+      <c r="G19" s="34"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A20" s="38"/>
-      <c r="G20" s="38"/>
+      <c r="A20" s="34"/>
+      <c r="G20" s="34"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A21" s="77" t="s">
-        <v>186</v>
-      </c>
-      <c r="B21" s="78"/>
-      <c r="C21" s="78"/>
-      <c r="D21" s="78"/>
-      <c r="E21" s="79"/>
-      <c r="G21" s="38"/>
+      <c r="A21" s="64" t="s">
+        <v>182</v>
+      </c>
+      <c r="B21" s="65"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="66"/>
+      <c r="G21" s="34"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A22" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="B22" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="10" t="s">
-        <v>35</v>
-      </c>
       <c r="C22" s="10" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="G22" s="38"/>
+        <v>175</v>
+      </c>
+      <c r="G22" s="34"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A23" s="49" t="s">
+      <c r="A23" s="82" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>51</v>
-      </c>
       <c r="C23" s="1">
-        <f>ABS(0.1609-0.8)</f>
-        <v>0.6391</v>
+        <v>0.16089999999999999</v>
       </c>
       <c r="D23" s="2">
-        <f>ABS(0.1052-0.8)</f>
-        <v>0.69480000000000008</v>
+        <v>0.1052</v>
       </c>
       <c r="E23" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A24" s="50"/>
-      <c r="B24" s="4" t="s">
-        <v>52</v>
+      <c r="A24" s="83"/>
+      <c r="B24" s="45" t="s">
+        <v>22</v>
       </c>
       <c r="C24" s="1">
-        <f>ABS(0.0588+0.8)</f>
-        <v>0.85880000000000001</v>
+        <v>-0.11070000000000001</v>
       </c>
       <c r="D24" s="2">
-        <f>ABS(0.1423+0.8)</f>
-        <v>0.94230000000000003</v>
+        <v>-0.14410000000000001</v>
       </c>
       <c r="E24" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A25" s="49" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>51</v>
+      <c r="A25" s="84"/>
+      <c r="B25" s="45" t="s">
+        <v>23</v>
       </c>
       <c r="C25" s="1">
-        <f>ABS(-0.1107-0.8)</f>
-        <v>0.91070000000000007</v>
+        <v>0.22420000000000001</v>
       </c>
       <c r="D25" s="2">
-        <f>ABS(-0.1441-0.8)</f>
-        <v>0.94410000000000005</v>
+        <v>0.1741</v>
       </c>
       <c r="E25" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A26" s="50"/>
-      <c r="B26" s="4" t="s">
+      <c r="A26" s="82" t="s">
         <v>52</v>
       </c>
+      <c r="B26" s="45" t="s">
+        <v>21</v>
+      </c>
       <c r="C26" s="1">
-        <f>ABS(-0.1752+0.8)</f>
-        <v>0.62480000000000002</v>
+        <v>5.8799999999999998E-2</v>
       </c>
       <c r="D26" s="2">
-        <f>ABS(-0.1295+0.8)</f>
-        <v>0.6705000000000001</v>
+        <v>0.14230000000000001</v>
       </c>
       <c r="E26" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A27" s="49" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>51</v>
+      <c r="A27" s="83"/>
+      <c r="B27" s="45" t="s">
+        <v>22</v>
       </c>
       <c r="C27" s="1">
-        <f>ABS(0.2242-0.8)</f>
-        <v>0.57580000000000009</v>
+        <v>-0.17519999999999999</v>
       </c>
       <c r="D27" s="2">
-        <f>ABS(0.1741-0.8)</f>
-        <v>0.62590000000000001</v>
+        <v>-0.1295</v>
       </c>
       <c r="E27" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A28" s="50"/>
-      <c r="B28" s="4" t="s">
-        <v>52</v>
+      <c r="A28" s="84"/>
+      <c r="B28" s="45" t="s">
+        <v>23</v>
       </c>
       <c r="C28" s="1">
-        <f>ABS(0.1213+0.8)</f>
-        <v>0.92130000000000001</v>
+        <v>0.12130000000000001</v>
       </c>
       <c r="D28" s="2">
-        <f>ABS(0.1999+0.8)</f>
-        <v>0.99990000000000001</v>
+        <v>0.19989999999999999</v>
       </c>
       <c r="E28" s="2">
         <v>0</v>
       </c>
-      <c r="G28" s="38"/>
+      <c r="G28" s="34"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A29" s="38" t="s">
-        <v>187</v>
+      <c r="A29" s="34" t="s">
+        <v>183</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
-      <c r="G29" s="38"/>
+      <c r="G29" s="34"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A30" s="7"/>
     </row>
     <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.5">
-      <c r="A31" s="39" t="s">
+      <c r="A31" s="35" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="80" t="s">
+      <c r="A32" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="B32" s="81"/>
-      <c r="C32" s="81"/>
-      <c r="D32" s="81"/>
-      <c r="E32" s="81"/>
-      <c r="F32" s="82"/>
-      <c r="G32" s="18" t="s">
+      <c r="B32" s="68"/>
+      <c r="C32" s="68"/>
+      <c r="D32" s="68"/>
+      <c r="E32" s="68"/>
+      <c r="F32" s="69"/>
+      <c r="G32" s="14" t="s">
         <v>67</v>
       </c>
     </row>
@@ -6804,158 +6640,146 @@
       <c r="F33" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="G33" s="38" t="s">
-        <v>176</v>
+      <c r="G33" s="34" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A34" s="49" t="s">
+      <c r="A34" s="53" t="s">
         <v>21</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C34" s="41">
-        <f>ABS(0.2052-0.8)</f>
-        <v>0.5948</v>
-      </c>
-      <c r="D34" s="42">
-        <f>ABS(0.1487-0.8)</f>
-        <v>0.65129999999999999</v>
+      <c r="C34" s="37">
+        <v>0.20519999999999999</v>
+      </c>
+      <c r="D34" s="38">
+        <v>0.1487</v>
       </c>
       <c r="E34" s="2">
         <f>C34-D34</f>
-        <v>-5.6499999999999995E-2</v>
+        <v>5.6499999999999995E-2</v>
       </c>
       <c r="F34" s="2">
         <v>1E-4</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A35" s="50"/>
+      <c r="A35" s="54"/>
       <c r="B35" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C35" s="1">
-        <f>ABS(0.2123-0.8)</f>
-        <v>0.58770000000000011</v>
+        <v>0.21229999999999999</v>
       </c>
       <c r="D35" s="2">
-        <f>ABS(0.1106-0.8)</f>
-        <v>0.68940000000000001</v>
-      </c>
-      <c r="E35" s="43">
+        <v>0.1106</v>
+      </c>
+      <c r="E35" s="39">
         <f t="shared" ref="E35:E39" si="0">C35-D35</f>
-        <v>-0.1016999999999999</v>
+        <v>0.10169999999999998</v>
       </c>
       <c r="F35" s="2">
         <v>0</v>
       </c>
       <c r="G35" s="1">
         <f>ABS(E35-E34)</f>
-        <v>4.5199999999999907E-2</v>
+        <v>4.519999999999999E-2</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A36" s="49" t="s">
+      <c r="A36" s="53" t="s">
         <v>22</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C36" s="41">
-        <f>ABS(-0.0839-0.8)</f>
-        <v>0.88390000000000002</v>
-      </c>
-      <c r="D36" s="42">
-        <f>ABS(-0.1127-0.8)</f>
-        <v>0.91270000000000007</v>
+      <c r="C36" s="37">
+        <v>-8.3900000000000002E-2</v>
+      </c>
+      <c r="D36" s="38">
+        <v>-0.11269999999999999</v>
       </c>
       <c r="E36" s="2">
         <f t="shared" si="0"/>
-        <v>-2.8800000000000048E-2</v>
+        <v>2.8799999999999992E-2</v>
       </c>
       <c r="F36" s="2">
         <v>0.26329999999999998</v>
       </c>
-      <c r="G36" s="44" t="s">
-        <v>182</v>
+      <c r="G36" s="40" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A37" s="50"/>
+      <c r="A37" s="54"/>
       <c r="B37" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C37" s="1">
-        <f>ABS(-0.0497-0.8)</f>
-        <v>0.84970000000000001</v>
+        <v>-4.9700000000000001E-2</v>
       </c>
       <c r="D37" s="2">
-        <f>ABS(-0.1211-0.8)</f>
-        <v>0.92110000000000003</v>
-      </c>
-      <c r="E37" s="43">
+        <v>-0.1211</v>
+      </c>
+      <c r="E37" s="39">
         <f t="shared" si="0"/>
-        <v>-7.1400000000000019E-2</v>
+        <v>7.1399999999999991E-2</v>
       </c>
       <c r="F37" s="2">
         <v>1E-4</v>
       </c>
       <c r="G37" s="1">
         <f>ABS(E37-E36)</f>
-        <v>4.2599999999999971E-2</v>
+        <v>4.2599999999999999E-2</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A38" s="49" t="s">
+      <c r="A38" s="53" t="s">
         <v>23</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C38" s="42">
-        <f>ABS(0.1537-0.8)</f>
-        <v>0.6463000000000001</v>
-      </c>
-      <c r="D38" s="41">
-        <f>ABS(0.2175-0.8)</f>
-        <v>0.58250000000000002</v>
+      <c r="C38" s="38">
+        <v>0.1537</v>
+      </c>
+      <c r="D38" s="37">
+        <v>0.2175</v>
       </c>
       <c r="E38" s="2">
         <f t="shared" si="0"/>
-        <v>6.3800000000000079E-2</v>
+        <v>-6.3799999999999996E-2</v>
       </c>
       <c r="F38" s="2">
         <v>6.5799999999999997E-2</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A39" s="50"/>
+      <c r="A39" s="54"/>
       <c r="B39" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C39" s="2">
-        <f>ABS(0.1589-0.8)</f>
-        <v>0.6411</v>
+        <v>0.15890000000000001</v>
       </c>
       <c r="D39" s="1">
-        <f>ABS(0.1957-0.8)</f>
-        <v>0.60430000000000006</v>
-      </c>
-      <c r="E39" s="43">
+        <v>0.19570000000000001</v>
+      </c>
+      <c r="E39" s="39">
         <f t="shared" si="0"/>
-        <v>3.6799999999999944E-2</v>
+        <v>-3.6799999999999999E-2</v>
       </c>
       <c r="F39" s="2">
         <v>0.28349999999999997</v>
       </c>
       <c r="G39" s="1">
         <f>ABS(E39-E38)</f>
-        <v>2.7000000000000135E-2</v>
+        <v>2.6999999999999996E-2</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.5">
@@ -6964,8 +6788,8 @@
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
-      <c r="F40" s="45" t="s">
-        <v>181</v>
+      <c r="F40" s="41" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.5">
@@ -6979,43 +6803,41 @@
       <c r="F41" s="58"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A42" s="46" t="s">
+      <c r="A42" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="B42" s="46" t="s">
+      <c r="B42" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="C42" s="46" t="s">
+      <c r="C42" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="D42" s="46" t="s">
+      <c r="D42" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="E42" s="46" t="s">
+      <c r="E42" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="F42" s="46" t="s">
+      <c r="F42" s="42" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A43" s="49" t="s">
+      <c r="A43" s="53" t="s">
         <v>21</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C43" s="41">
-        <f>ABS(0.8+0.0032)</f>
-        <v>0.80320000000000003</v>
-      </c>
-      <c r="D43" s="42">
-        <f>ABS(0.8+0.0616)</f>
-        <v>0.86160000000000003</v>
+      <c r="C43" s="37">
+        <v>3.2000000000000002E-3</v>
+      </c>
+      <c r="D43" s="38">
+        <v>6.1600000000000002E-2</v>
       </c>
       <c r="E43" s="2">
         <f>C43-D43</f>
-        <v>-5.8400000000000007E-2</v>
+        <v>-5.8400000000000001E-2</v>
       </c>
       <c r="F43" s="2">
         <v>5.8999999999999999E-3</v>
@@ -7024,214 +6846,206 @@
       <c r="H43" s="5"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A44" s="50"/>
+      <c r="A44" s="54"/>
       <c r="B44" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C44" s="1">
-        <f>ABS(0.8+-0.0057)</f>
-        <v>0.79430000000000001</v>
+        <v>5.7000000000000002E-3</v>
       </c>
       <c r="D44" s="2">
-        <f>ABS(0.8+0.0892)</f>
-        <v>0.88919999999999999</v>
-      </c>
-      <c r="E44" s="43">
+        <v>8.9200000000000002E-2</v>
+      </c>
+      <c r="E44" s="39">
         <f t="shared" ref="E44:E48" si="1">C44-D44</f>
-        <v>-9.4899999999999984E-2</v>
+        <v>-8.3500000000000005E-2</v>
       </c>
       <c r="F44" s="2">
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="G44" s="1">
         <f>ABS(E44-E43)</f>
-        <v>3.6499999999999977E-2</v>
+        <v>2.5100000000000004E-2</v>
       </c>
       <c r="H44" s="5"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A45" s="49" t="s">
+      <c r="A45" s="53" t="s">
         <v>22</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C45" s="41">
-        <f>ABS(0.8-0.2681)</f>
-        <v>0.53190000000000004</v>
-      </c>
-      <c r="D45" s="42">
-        <f>ABS(0.8-0.1751)</f>
-        <v>0.62490000000000001</v>
+      <c r="C45" s="37">
+        <v>-0.2681</v>
+      </c>
+      <c r="D45" s="38">
+        <v>-0.17510000000000001</v>
       </c>
       <c r="E45" s="2">
         <f t="shared" si="1"/>
-        <v>-9.2999999999999972E-2</v>
+        <v>-9.2999999999999999E-2</v>
       </c>
       <c r="F45" s="2">
         <v>3.7000000000000002E-3</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A46" s="50"/>
+      <c r="A46" s="54"/>
       <c r="B46" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C46" s="1">
-        <f>ABS(0.8-0.2814)</f>
-        <v>0.51860000000000006</v>
+        <v>-0.28139999999999998</v>
       </c>
       <c r="D46" s="2">
-        <f>ABS(0.8-0.1365)</f>
-        <v>0.66349999999999998</v>
-      </c>
-      <c r="E46" s="43">
+        <v>-0.13650000000000001</v>
+      </c>
+      <c r="E46" s="39">
         <f t="shared" si="1"/>
-        <v>-0.14489999999999992</v>
+        <v>-0.14489999999999997</v>
       </c>
       <c r="F46" s="2">
         <v>0</v>
       </c>
       <c r="G46" s="1">
         <f>ABS(E46-E45)</f>
-        <v>5.1899999999999946E-2</v>
+        <v>5.1899999999999974E-2</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A47" s="49" t="s">
+      <c r="A47" s="53" t="s">
         <v>23</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C47" s="42">
-        <f>ABS(0.8+0.1953)</f>
-        <v>0.99530000000000007</v>
-      </c>
-      <c r="D47" s="41">
-        <f>ABS(0.8+0.1189)</f>
-        <v>0.91890000000000005</v>
+      <c r="C47" s="38">
+        <v>0.1953</v>
+      </c>
+      <c r="D47" s="37">
+        <v>0.11890000000000001</v>
       </c>
       <c r="E47" s="2">
         <f t="shared" si="1"/>
-        <v>7.6400000000000023E-2</v>
+        <v>7.6399999999999996E-2</v>
       </c>
       <c r="F47" s="2">
         <v>2.8799999999999999E-2</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A48" s="50"/>
+      <c r="A48" s="54"/>
       <c r="B48" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C48" s="2">
-        <f>ABS(0.8+0.1525)</f>
-        <v>0.95250000000000001</v>
+        <v>0.1525</v>
       </c>
       <c r="D48" s="1">
-        <f>ABS(0.8+0.1219)</f>
-        <v>0.92190000000000005</v>
-      </c>
-      <c r="E48" s="43">
+        <v>0.12189999999999999</v>
+      </c>
+      <c r="E48" s="39">
         <f t="shared" si="1"/>
-        <v>3.0599999999999961E-2</v>
+        <v>3.0600000000000002E-2</v>
       </c>
       <c r="F48" s="2">
         <v>0.37819999999999998</v>
       </c>
       <c r="G48" s="1">
         <f>ABS(E48-E47)</f>
-        <v>4.5800000000000063E-2</v>
+        <v>4.5799999999999993E-2</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="15" x14ac:dyDescent="0.5">
-      <c r="A50" s="39" t="s">
-        <v>191</v>
+      <c r="A50" s="35" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A51" s="14" t="s">
+      <c r="A51" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="B51" s="15"/>
-      <c r="C51" s="15"/>
-      <c r="D51" s="15"/>
+      <c r="B51" s="65"/>
+      <c r="C51" s="65"/>
+      <c r="D51" s="65"/>
+      <c r="E51" s="65"/>
+      <c r="F51" s="66"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A52" s="73" t="s">
+      <c r="A52" s="74" t="s">
         <v>64</v>
       </c>
-      <c r="B52" s="74"/>
+      <c r="B52" s="75"/>
       <c r="C52" s="10" t="s">
         <v>58</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E52" s="10" t="s">
         <v>59</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A53" s="69" t="s">
+      <c r="A53" s="70" t="s">
         <v>21</v>
       </c>
       <c r="B53" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C53" s="47">
+      <c r="C53" s="43">
         <v>0.92610000000000003</v>
       </c>
-      <c r="D53" s="67">
+      <c r="D53" s="78">
         <f>C53-C54</f>
         <v>4.8399999999999999E-2</v>
       </c>
-      <c r="E53" s="47">
+      <c r="E53" s="43">
         <v>0.9355</v>
       </c>
-      <c r="F53" s="67">
+      <c r="F53" s="78">
         <f>E53-E54</f>
         <v>3.3599999999999963E-2</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A54" s="70"/>
+      <c r="A54" s="71"/>
       <c r="B54" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="C54" s="47">
+      <c r="C54" s="43">
         <v>0.87770000000000004</v>
       </c>
-      <c r="D54" s="68"/>
-      <c r="E54" s="47">
+      <c r="D54" s="79"/>
+      <c r="E54" s="43">
         <v>0.90190000000000003</v>
       </c>
-      <c r="F54" s="68"/>
+      <c r="F54" s="79"/>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A55" s="71" t="s">
+      <c r="A55" s="72" t="s">
         <v>22</v>
       </c>
       <c r="B55" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C55" s="48">
+      <c r="C55" s="44">
         <v>0.83179999999999998</v>
       </c>
-      <c r="D55" s="67">
+      <c r="D55" s="78">
         <f t="shared" ref="D55:F55" si="2">C55-C56</f>
         <v>4.4300000000000006E-2</v>
       </c>
-      <c r="E55" s="48">
+      <c r="E55" s="44">
         <v>0.86299999999999999</v>
       </c>
-      <c r="F55" s="67">
+      <c r="F55" s="78">
         <f t="shared" si="2"/>
         <v>1.6000000000000014E-2</v>
       </c>
@@ -7239,39 +7053,39 @@
       <c r="H55" s="2"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A56" s="72"/>
+      <c r="A56" s="73"/>
       <c r="B56" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="C56" s="48">
+      <c r="C56" s="44">
         <v>0.78749999999999998</v>
       </c>
-      <c r="D56" s="68"/>
-      <c r="E56" s="48">
+      <c r="D56" s="79"/>
+      <c r="E56" s="44">
         <v>0.84699999999999998</v>
       </c>
-      <c r="F56" s="68"/>
+      <c r="F56" s="79"/>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A57" s="69" t="s">
+      <c r="A57" s="70" t="s">
         <v>23</v>
       </c>
       <c r="B57" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C57" s="47">
+      <c r="C57" s="43">
         <v>0.90229999999999999</v>
       </c>
-      <c r="D57" s="67">
+      <c r="D57" s="78">
         <f t="shared" ref="D57:F57" si="3">C57-C58</f>
         <v>2.6000000000000023E-2</v>
       </c>
-      <c r="E57" s="47">
+      <c r="E57" s="43">
         <v>0.91910000000000003</v>
       </c>
-      <c r="F57" s="67">
+      <c r="F57" s="78">
         <f t="shared" si="3"/>
         <v>1.0900000000000021E-2</v>
       </c>
@@ -7279,18 +7093,18 @@
       <c r="H57" s="2"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A58" s="70"/>
+      <c r="A58" s="71"/>
       <c r="B58" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="C58" s="47">
+      <c r="C58" s="43">
         <v>0.87629999999999997</v>
       </c>
-      <c r="D58" s="68"/>
-      <c r="E58" s="47">
+      <c r="D58" s="79"/>
+      <c r="E58" s="43">
         <v>0.90820000000000001</v>
       </c>
-      <c r="F58" s="68"/>
+      <c r="F58" s="79"/>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
     </row>
@@ -7303,53 +7117,55 @@
       <c r="H59" s="2"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A60" s="16" t="s">
+      <c r="A60" s="67" t="s">
         <v>61</v>
       </c>
-      <c r="B60" s="17"/>
-      <c r="C60" s="17"/>
-      <c r="D60" s="17"/>
+      <c r="B60" s="68"/>
+      <c r="C60" s="68"/>
+      <c r="D60" s="68"/>
+      <c r="E60" s="68"/>
+      <c r="F60" s="69"/>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A61" s="75" t="s">
+      <c r="A61" s="76" t="s">
         <v>64</v>
       </c>
-      <c r="B61" s="76"/>
+      <c r="B61" s="77"/>
       <c r="C61" s="12" t="s">
         <v>58</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E61" s="12" t="s">
         <v>59</v>
       </c>
       <c r="F61" s="10" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A62" s="69" t="s">
+      <c r="A62" s="70" t="s">
         <v>21</v>
       </c>
       <c r="B62" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C62" s="47">
+      <c r="C62" s="43">
         <v>0.85699999999999998</v>
       </c>
-      <c r="D62" s="67">
+      <c r="D62" s="78">
         <f>C62-C63</f>
         <v>1.7000000000000015E-2</v>
       </c>
-      <c r="E62" s="47">
+      <c r="E62" s="43">
         <v>0.88139999999999996</v>
       </c>
-      <c r="F62" s="67">
+      <c r="F62" s="78">
         <f>E62-E63</f>
         <v>8.799999999999919E-3</v>
       </c>
@@ -7357,39 +7173,39 @@
       <c r="H62" s="2"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A63" s="70"/>
+      <c r="A63" s="71"/>
       <c r="B63" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="C63" s="47">
+      <c r="C63" s="43">
         <v>0.84</v>
       </c>
-      <c r="D63" s="68"/>
-      <c r="E63" s="47">
+      <c r="D63" s="79"/>
+      <c r="E63" s="43">
         <v>0.87260000000000004</v>
       </c>
-      <c r="F63" s="68"/>
+      <c r="F63" s="79"/>
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A64" s="71" t="s">
+      <c r="A64" s="72" t="s">
         <v>22</v>
       </c>
       <c r="B64" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C64" s="48">
+      <c r="C64" s="44">
         <v>0.92249999999999999</v>
       </c>
-      <c r="D64" s="67">
+      <c r="D64" s="78">
         <f t="shared" ref="D64" si="4">C64-C65</f>
         <v>5.9999999999999942E-2</v>
       </c>
-      <c r="E64" s="48">
+      <c r="E64" s="44">
         <v>0.93559999999999999</v>
       </c>
-      <c r="F64" s="67">
+      <c r="F64" s="78">
         <f t="shared" ref="F64" si="5">E64-E65</f>
         <v>4.1100000000000025E-2</v>
       </c>
@@ -7397,39 +7213,39 @@
       <c r="H64" s="2"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A65" s="72"/>
+      <c r="A65" s="73"/>
       <c r="B65" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="C65" s="48">
+      <c r="C65" s="44">
         <v>0.86250000000000004</v>
       </c>
-      <c r="D65" s="68"/>
-      <c r="E65" s="48">
+      <c r="D65" s="79"/>
+      <c r="E65" s="44">
         <v>0.89449999999999996</v>
       </c>
-      <c r="F65" s="68"/>
+      <c r="F65" s="79"/>
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A66" s="69" t="s">
+      <c r="A66" s="70" t="s">
         <v>23</v>
       </c>
       <c r="B66" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C66" s="47">
+      <c r="C66" s="43">
         <v>0.87090000000000001</v>
       </c>
-      <c r="D66" s="67">
+      <c r="D66" s="78">
         <f t="shared" ref="D66" si="6">C66-C67</f>
         <v>3.4800000000000053E-2</v>
       </c>
-      <c r="E66" s="47">
+      <c r="E66" s="43">
         <v>0.89049999999999996</v>
       </c>
-      <c r="F66" s="67">
+      <c r="F66" s="78">
         <f t="shared" ref="F66" si="7">E66-E67</f>
         <v>2.739999999999998E-2</v>
       </c>
@@ -7437,18 +7253,18 @@
       <c r="H66" s="2"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A67" s="70"/>
+      <c r="A67" s="71"/>
       <c r="B67" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="C67" s="47">
+      <c r="C67" s="43">
         <v>0.83609999999999995</v>
       </c>
-      <c r="D67" s="68"/>
-      <c r="E67" s="47">
+      <c r="D67" s="79"/>
+      <c r="E67" s="43">
         <v>0.86309999999999998</v>
       </c>
-      <c r="F67" s="68"/>
+      <c r="F67" s="79"/>
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
     </row>
@@ -7457,25 +7273,159 @@
         <v>65</v>
       </c>
     </row>
+    <row r="70" spans="1:8" ht="15" x14ac:dyDescent="0.5">
+      <c r="A70" s="35" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A71" s="67" t="s">
+        <v>191</v>
+      </c>
+      <c r="B71" s="68"/>
+      <c r="C71" s="68"/>
+      <c r="D71" s="68"/>
+      <c r="E71" s="68"/>
+      <c r="F71" s="81" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A72" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C72" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="D72" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="E72" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="F72" s="80" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A73" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C73" s="2">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="D73" s="2">
+        <v>5.21E-2</v>
+      </c>
+      <c r="E73" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A74" s="54"/>
+      <c r="B74" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C74" s="2">
+        <v>6.5500000000000003E-2</v>
+      </c>
+      <c r="D74" s="2">
+        <v>4.4200000000000003E-2</v>
+      </c>
+      <c r="E74" s="2">
+        <v>2.3300000000000001E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A75" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C75" s="2">
+        <v>3.6799999999999999E-2</v>
+      </c>
+      <c r="D75" s="2">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="E75" s="2">
+        <v>4.1200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A76" s="54"/>
+      <c r="B76" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C76" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="D76" s="2">
+        <v>2.47E-2</v>
+      </c>
+      <c r="E76" s="2">
+        <v>1.8700000000000001E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A77" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C77" s="2">
+        <v>4.1700000000000001E-2</v>
+      </c>
+      <c r="D77" s="2">
+        <v>3.7100000000000001E-2</v>
+      </c>
+      <c r="E77" s="2">
+        <v>0.378</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A78" s="54"/>
+      <c r="B78" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C78" s="2">
+        <v>3.5400000000000001E-2</v>
+      </c>
+      <c r="D78" s="2">
+        <v>3.4099999999999998E-2</v>
+      </c>
+      <c r="E78" s="2">
+        <v>0.89500000000000002</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="40">
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A27:A28"/>
+  <mergeCells count="44">
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="A71:E71"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="A60:F60"/>
     <mergeCell ref="A21:E21"/>
     <mergeCell ref="A62:A63"/>
     <mergeCell ref="A64:A65"/>
@@ -7488,17 +7438,20 @@
     <mergeCell ref="D62:D63"/>
     <mergeCell ref="D64:D65"/>
     <mergeCell ref="D66:D67"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="F55:F56"/>
     <mergeCell ref="A41:F41"/>
     <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A32:F32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dataAnalysis.xlsx
+++ b/dataAnalysis.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\botImpact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E7C4A90-8E61-43BE-876A-ADF3B7A11DBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C739847F-B309-4B3C-93F8-ADA8A7CD8D46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="18192" windowHeight="11592" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="18192" windowHeight="11592" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ModelFreeEvidence" sheetId="1" r:id="rId1"/>
     <sheet name="Synthetic" sheetId="3" r:id="rId2"/>
     <sheet name="Sentiment" sheetId="2" r:id="rId3"/>
+    <sheet name="example" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="235">
   <si>
     <t>Node Degree</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1903,18 +1904,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>柱状图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Bias</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>折线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -2596,38 +2589,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>这里转换一下，变成离</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Threshold</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的距离，越小影响越大</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AUC diff</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2731,6 +2692,470 @@
   </si>
   <si>
     <t>Opinion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u588465294</t>
+  </si>
+  <si>
+    <t>u1448739324</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u853092620</t>
+  </si>
+  <si>
+    <t>u1041440667313078274</t>
+  </si>
+  <si>
+    <t>u251372955</t>
+  </si>
+  <si>
+    <t>u2577886615</t>
+  </si>
+  <si>
+    <t>u322814850</t>
+  </si>
+  <si>
+    <t>u1426208664826875904</t>
+  </si>
+  <si>
+    <t>u1338943108831129600</t>
+  </si>
+  <si>
+    <t>u1197941990354112512</t>
+  </si>
+  <si>
+    <t>u879456634413740032</t>
+  </si>
+  <si>
+    <t>u1009861266725376000</t>
+  </si>
+  <si>
+    <t>u28364479</t>
+  </si>
+  <si>
+    <t>u568260266</t>
+  </si>
+  <si>
+    <t>u1386138976847761411</t>
+  </si>
+  <si>
+    <t>Bot Influencers' Tweets (Positive Opinion)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">NYC public transportation </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>urge</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> for #DigitalTransformation  to catch the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>promising outlook</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> of #CovidVaccine and rapid testing.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Positive</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>主要表达了这些问题有望得到解决</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">yay!!! </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2 of my neighbours now vaccinated #COVID19</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>, it's about listening to their concerns, not being judgemental or invalidating what they see and feel are legitimate concerns for them</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提供信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>FDA approves several rapid Covid-19 antigen tests</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> for over-the-counter (OTC) </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Much of the #COVID19 #vaccine #</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>misinformation online can be traced back to 12 people.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> Read about one of the most prolific among them in this recent @nytimes article. https://t.co/U9iQLCBF9T</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">London Doctors </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Use #Microsoft #AR Goggles </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">to Reduce Virus Exposure </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">We can </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>all help Ukrainians this way</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>. https://t.co/TWE61NMHz9 to donate. #Ukraine #FeedtheWorld https://t.co/bMXFSo5itF</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Live now in Russian, talking #Bitcoin price about 40 min into the stream! https://t.co/evmOdXSQvU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传递呼吁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Anyone who agrees with #istandwithrussia or #IStandWithPutin are all war criminals and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>should be treated like war criminals</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Russia is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>restricting Facebook and Twitter,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> this means it is not going the way they want! Well done Ukraine</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Keep sharing and spreading numbers and pathways to resources for those in #Ukraine. You never know when it will reach the right person. My husband moments ago just linked a family (a friend of a friend) stuck at the border with numbers to help them cross and find a safe haven.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>告诉人们怎么做</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Well done @CREtechclimate people need to understand that </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>EVERYONE can make a difference</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>, but it is more effective when the big guys do something.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传递信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>This is</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> big news for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> building a more dynamic transmission grid that can adopt more renewable generation. #climateTech #cleanenergy #ClimateAction https://t.co/TSlhIZaPyW</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Netherlands has the best Startup Business Climate in Europe! https://t.co/ELachGt4MZ https://t.co/MlFYUjIjO4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Fascinating podcast about how billionaire hedge fund founder and philanthropist Sir Chris Hohn plans to force companies to take climate change more seriously and to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>hold management accountable for emissions reduction</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>. #ESG</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Climate change is one of the issues of concern for young people in Indonesia and some even are </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>willing to pay to mitigate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> it #COP26"</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.3.3 The Difference between Influence Receiver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bot Inf Receiver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Human Inf Receiver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Following/Ego: Measuring the Clique in Networks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>越小，说明1阶朋友之间联系越紧密</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2742,7 +3167,7 @@
     <numFmt numFmtId="176" formatCode="0.0000_ "/>
     <numFmt numFmtId="177" formatCode="0.0000_);[Red]\(0.0000\)"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2911,6 +3336,21 @@
       <family val="1"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -3057,7 +3497,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3126,7 +3566,6 @@
     <xf numFmtId="176" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="18" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3138,9 +3577,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3168,6 +3604,20 @@
     <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3240,6 +3690,12 @@
     <xf numFmtId="177" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3250,6 +3706,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="4" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3264,25 +3729,10 @@
     <xf numFmtId="177" fontId="2" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3578,8 +4028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -3593,38 +4043,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="58"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="62"/>
       <c r="D1" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="48" t="s">
+      <c r="E1" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="50"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="54"/>
       <c r="J1" s="19" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="61"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="65"/>
       <c r="D2" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="51" t="s">
+      <c r="E2" s="55" t="s">
         <v>77</v>
       </c>
-      <c r="F2" s="52"/>
+      <c r="F2" s="56"/>
       <c r="G2" s="3" t="s">
         <v>30</v>
       </c>
@@ -3648,7 +4098,7 @@
       <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="53" t="s">
+      <c r="E3" s="57" t="s">
         <v>21</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -3657,10 +4107,10 @@
       <c r="G3" s="18">
         <v>0.60419999999999996</v>
       </c>
-      <c r="H3" s="46">
+      <c r="H3" s="50">
         <v>1.4500999999999999</v>
       </c>
-      <c r="I3" s="46">
+      <c r="I3" s="50">
         <v>0.14699999999999999</v>
       </c>
       <c r="J3" s="19" t="s">
@@ -3680,15 +4130,15 @@
       <c r="D4" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="54"/>
+      <c r="E4" s="58"/>
       <c r="F4" s="2" t="s">
         <v>79</v>
       </c>
       <c r="G4" s="2">
         <v>0.59640000000000004</v>
       </c>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
       <c r="J4" s="19" t="s">
         <v>91</v>
       </c>
@@ -3706,7 +4156,7 @@
       <c r="D5" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="53" t="s">
+      <c r="E5" s="57" t="s">
         <v>22</v>
       </c>
       <c r="F5" s="2" t="s">
@@ -3715,31 +4165,31 @@
       <c r="G5" s="18">
         <v>0.58009999999999995</v>
       </c>
-      <c r="H5" s="46">
+      <c r="H5" s="50">
         <v>-0.46650000000000003</v>
       </c>
-      <c r="I5" s="46">
+      <c r="I5" s="50">
         <v>0.64090000000000003</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="60"/>
-      <c r="C6" s="61"/>
-      <c r="E6" s="54"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="65"/>
+      <c r="E6" s="58"/>
       <c r="F6" s="2" t="s">
         <v>79</v>
       </c>
       <c r="G6" s="2">
         <v>0.58389999999999997</v>
       </c>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A7" s="55" t="s">
+      <c r="A7" s="59" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -3748,7 +4198,7 @@
       <c r="C7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="53" t="s">
+      <c r="E7" s="57" t="s">
         <v>23</v>
       </c>
       <c r="F7" s="2" t="s">
@@ -3757,36 +4207,36 @@
       <c r="G7" s="18">
         <v>0.5393</v>
       </c>
-      <c r="H7" s="46">
+      <c r="H7" s="50">
         <v>-1.7504</v>
       </c>
-      <c r="I7" s="46">
+      <c r="I7" s="50">
         <v>8.0100000000000005E-2</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A8" s="54"/>
+      <c r="A8" s="58"/>
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="54"/>
+      <c r="E8" s="58"/>
       <c r="F8" s="2" t="s">
         <v>79</v>
       </c>
       <c r="G8" s="2">
         <v>0.55649999999999999</v>
       </c>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="E9" s="51" t="s">
+      <c r="E9" s="55" t="s">
         <v>75</v>
       </c>
-      <c r="F9" s="52"/>
+      <c r="F9" s="56"/>
       <c r="G9" s="3" t="s">
         <v>25</v>
       </c>
@@ -3798,12 +4248,12 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A10" s="56" t="s">
+      <c r="A10" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="57"/>
-      <c r="C10" s="58"/>
-      <c r="E10" s="53" t="s">
+      <c r="B10" s="61"/>
+      <c r="C10" s="62"/>
+      <c r="E10" s="57" t="s">
         <v>21</v>
       </c>
       <c r="F10" s="2" t="s">
@@ -3812,10 +4262,10 @@
       <c r="G10" s="17">
         <v>0.82099999999999995</v>
       </c>
-      <c r="H10" s="46">
+      <c r="H10" s="50">
         <v>23.857700000000001</v>
       </c>
-      <c r="I10" s="46" t="s">
+      <c r="I10" s="50" t="s">
         <v>26</v>
       </c>
       <c r="J10" s="19" t="s">
@@ -3823,20 +4273,20 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A11" s="59" t="s">
+      <c r="A11" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="60"/>
-      <c r="C11" s="61"/>
-      <c r="E11" s="54"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="65"/>
+      <c r="E11" s="58"/>
       <c r="F11" s="2" t="s">
         <v>79</v>
       </c>
       <c r="G11" s="2">
         <v>0.74229999999999996</v>
       </c>
-      <c r="H11" s="47"/>
-      <c r="I11" s="47"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="51"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A12" s="1" t="s">
@@ -3848,7 +4298,7 @@
       <c r="C12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="53" t="s">
+      <c r="E12" s="57" t="s">
         <v>22</v>
       </c>
       <c r="F12" s="2" t="s">
@@ -3857,10 +4307,10 @@
       <c r="G12" s="17">
         <v>0.83950000000000002</v>
       </c>
-      <c r="H12" s="46">
+      <c r="H12" s="50">
         <v>20.513400000000001</v>
       </c>
-      <c r="I12" s="46" t="s">
+      <c r="I12" s="50" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3874,15 +4324,15 @@
       <c r="C13" s="2">
         <v>5.0496999999999996</v>
       </c>
-      <c r="E13" s="54"/>
+      <c r="E13" s="58"/>
       <c r="F13" s="2" t="s">
         <v>79</v>
       </c>
       <c r="G13" s="2">
         <v>0.73529999999999995</v>
       </c>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A14" s="2" t="s">
@@ -3894,7 +4344,7 @@
       <c r="C14" s="2">
         <v>5.5609000000000002</v>
       </c>
-      <c r="E14" s="53" t="s">
+      <c r="E14" s="57" t="s">
         <v>23</v>
       </c>
       <c r="F14" s="2" t="s">
@@ -3903,31 +4353,31 @@
       <c r="G14" s="17">
         <v>0.78539999999999999</v>
       </c>
-      <c r="H14" s="46">
+      <c r="H14" s="50">
         <v>16.601400000000002</v>
       </c>
-      <c r="I14" s="46" t="s">
+      <c r="I14" s="50" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A15" s="59" t="s">
+      <c r="A15" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="60"/>
-      <c r="C15" s="61"/>
-      <c r="E15" s="54"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="65"/>
+      <c r="E15" s="58"/>
       <c r="F15" s="2" t="s">
         <v>79</v>
       </c>
       <c r="G15" s="2">
         <v>0.67610000000000003</v>
       </c>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A16" s="55" t="s">
+      <c r="A16" s="59" t="s">
         <v>7</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -3941,7 +4391,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A17" s="54"/>
+      <c r="A17" s="58"/>
       <c r="B17" s="2" t="s">
         <v>13</v>
       </c>
@@ -3953,27 +4403,27 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="E18" s="48" t="s">
+      <c r="E18" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="50"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="54"/>
       <c r="J18" s="16" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A19" s="56" t="s">
+      <c r="A19" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="57"/>
-      <c r="C19" s="58"/>
-      <c r="E19" s="51" t="s">
+      <c r="B19" s="61"/>
+      <c r="C19" s="62"/>
+      <c r="E19" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="F19" s="52"/>
+      <c r="F19" s="56"/>
       <c r="G19" s="3" t="s">
         <v>30</v>
       </c>
@@ -3985,12 +4435,12 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A20" s="59" t="s">
+      <c r="A20" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="60"/>
-      <c r="C20" s="61"/>
-      <c r="E20" s="53" t="s">
+      <c r="B20" s="64"/>
+      <c r="C20" s="65"/>
+      <c r="E20" s="57" t="s">
         <v>21</v>
       </c>
       <c r="F20" s="2" t="s">
@@ -3999,10 +4449,10 @@
       <c r="G20" s="18">
         <v>0.60419999999999996</v>
       </c>
-      <c r="H20" s="46">
+      <c r="H20" s="50">
         <v>6.7031000000000001</v>
       </c>
-      <c r="I20" s="46" t="s">
+      <c r="I20" s="50" t="s">
         <v>24</v>
       </c>
       <c r="J20" s="19" t="s">
@@ -4019,15 +4469,15 @@
       <c r="C21" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="54"/>
+      <c r="E21" s="58"/>
       <c r="F21" s="2" t="s">
         <v>71</v>
       </c>
       <c r="G21" s="2">
         <v>0.56520000000000004</v>
       </c>
-      <c r="H21" s="47"/>
-      <c r="I21" s="47"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="51"/>
       <c r="J21" s="16" t="s">
         <v>85</v>
       </c>
@@ -4042,7 +4492,7 @@
       <c r="C22" s="2">
         <v>6.4598000000000004</v>
       </c>
-      <c r="E22" s="53" t="s">
+      <c r="E22" s="57" t="s">
         <v>22</v>
       </c>
       <c r="F22" s="2" t="s">
@@ -4051,10 +4501,10 @@
       <c r="G22" s="18">
         <v>0.58009999999999995</v>
       </c>
-      <c r="H22" s="46">
+      <c r="H22" s="50">
         <v>2.8894000000000002</v>
       </c>
-      <c r="I22" s="46">
+      <c r="I22" s="50">
         <v>3.8999999999999998E-3</v>
       </c>
     </row>
@@ -4068,23 +4518,23 @@
       <c r="C23" s="2">
         <v>5.1597</v>
       </c>
-      <c r="E23" s="54"/>
+      <c r="E23" s="58"/>
       <c r="F23" s="2" t="s">
         <v>71</v>
       </c>
       <c r="G23" s="2">
         <v>0.5534</v>
       </c>
-      <c r="H23" s="47"/>
-      <c r="I23" s="47"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="51"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A24" s="59" t="s">
+      <c r="A24" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="60"/>
-      <c r="C24" s="61"/>
-      <c r="E24" s="53" t="s">
+      <c r="B24" s="64"/>
+      <c r="C24" s="65"/>
+      <c r="E24" s="57" t="s">
         <v>23</v>
       </c>
       <c r="F24" s="2" t="s">
@@ -4093,10 +4543,10 @@
       <c r="G24" s="18">
         <v>0.5393</v>
       </c>
-      <c r="H24" s="46">
+      <c r="H24" s="50">
         <v>1.6584000000000001</v>
       </c>
-      <c r="I24" s="46">
+      <c r="I24" s="50">
         <v>9.7299999999999998E-2</v>
       </c>
       <c r="J24" s="19" t="s">
@@ -4104,7 +4554,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A25" s="55" t="s">
+      <c r="A25" s="59" t="s">
         <v>7</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -4113,28 +4563,28 @@
       <c r="C25" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E25" s="54"/>
+      <c r="E25" s="58"/>
       <c r="F25" s="2" t="s">
         <v>71</v>
       </c>
       <c r="G25" s="2">
         <v>0.52139999999999997</v>
       </c>
-      <c r="H25" s="47"/>
-      <c r="I25" s="47"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="51"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A26" s="54"/>
+      <c r="A26" s="58"/>
       <c r="B26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E26" s="51" t="s">
+      <c r="E26" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="F26" s="52"/>
+      <c r="F26" s="56"/>
       <c r="G26" s="3" t="s">
         <v>25</v>
       </c>
@@ -4146,7 +4596,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="E27" s="53" t="s">
+      <c r="E27" s="57" t="s">
         <v>21</v>
       </c>
       <c r="F27" s="2" t="s">
@@ -4155,10 +4605,10 @@
       <c r="G27" s="17">
         <v>0.82099999999999995</v>
       </c>
-      <c r="H27" s="46">
+      <c r="H27" s="50">
         <v>33.133299999999998</v>
       </c>
-      <c r="I27" s="46" t="s">
+      <c r="I27" s="50" t="s">
         <v>81</v>
       </c>
       <c r="J27" s="19" t="s">
@@ -4166,21 +4616,21 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="E28" s="54"/>
+      <c r="E28" s="58"/>
       <c r="F28" s="2" t="s">
         <v>71</v>
       </c>
       <c r="G28" s="2">
         <v>0.70599999999999996</v>
       </c>
-      <c r="H28" s="47"/>
-      <c r="I28" s="47"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="51"/>
       <c r="J28" s="19" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="E29" s="53" t="s">
+      <c r="E29" s="57" t="s">
         <v>22</v>
       </c>
       <c r="F29" s="2" t="s">
@@ -4189,26 +4639,26 @@
       <c r="G29" s="17">
         <v>0.83950000000000002</v>
       </c>
-      <c r="H29" s="46">
+      <c r="H29" s="50">
         <v>24.9849</v>
       </c>
-      <c r="I29" s="46" t="s">
+      <c r="I29" s="50" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="E30" s="54"/>
+      <c r="E30" s="58"/>
       <c r="F30" s="2" t="s">
         <v>71</v>
       </c>
       <c r="G30" s="2">
         <v>0.70609999999999995</v>
       </c>
-      <c r="H30" s="47"/>
-      <c r="I30" s="47"/>
+      <c r="H30" s="51"/>
+      <c r="I30" s="51"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="E31" s="53" t="s">
+      <c r="E31" s="57" t="s">
         <v>23</v>
       </c>
       <c r="F31" s="2" t="s">
@@ -4217,23 +4667,23 @@
       <c r="G31" s="17">
         <v>0.78539999999999999</v>
       </c>
-      <c r="H31" s="46">
+      <c r="H31" s="50">
         <v>21.385400000000001</v>
       </c>
-      <c r="I31" s="46" t="s">
+      <c r="I31" s="50" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="E32" s="54"/>
+      <c r="E32" s="58"/>
       <c r="F32" s="2" t="s">
         <v>71</v>
       </c>
       <c r="G32" s="2">
         <v>0.63849999999999996</v>
       </c>
-      <c r="H32" s="47"/>
-      <c r="I32" s="47"/>
+      <c r="H32" s="51"/>
+      <c r="I32" s="51"/>
     </row>
     <row r="33" spans="5:5" x14ac:dyDescent="0.5">
       <c r="E33" s="16" t="s">
@@ -4307,8 +4757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B78CFA9F-73ED-424A-9027-1A5D5AB10FF2}">
   <dimension ref="A1:L87"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="E90" sqref="E90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -4321,26 +4771,26 @@
       <c r="A1" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62" t="s">
+      <c r="C1" s="66"/>
+      <c r="D1" s="66" t="s">
         <v>94</v>
       </c>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62" t="s">
+      <c r="E1" s="66"/>
+      <c r="F1" s="66" t="s">
         <v>95</v>
       </c>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62" t="s">
+      <c r="G1" s="66"/>
+      <c r="H1" s="66" t="s">
         <v>96</v>
       </c>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62" t="s">
+      <c r="I1" s="66"/>
+      <c r="J1" s="66" t="s">
         <v>97</v>
       </c>
-      <c r="K1" s="62"/>
+      <c r="K1" s="66"/>
       <c r="L1" s="20" t="s">
         <v>108</v>
       </c>
@@ -4380,7 +4830,7 @@
         <v>100</v>
       </c>
       <c r="L2" s="20" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.5">
@@ -4931,15 +5381,15 @@
       <c r="A21" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="B21" s="63" t="s">
+      <c r="B21" s="67" t="s">
         <v>93</v>
       </c>
-      <c r="C21" s="63"/>
-      <c r="D21" s="63"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="63"/>
-      <c r="G21" s="63"/>
-      <c r="H21" s="63"/>
+      <c r="C21" s="67"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="67"/>
+      <c r="H21" s="67"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A22" s="20" t="s">
@@ -5117,15 +5567,15 @@
       <c r="A29" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="B29" s="62" t="s">
+      <c r="B29" s="66" t="s">
         <v>95</v>
       </c>
-      <c r="C29" s="62"/>
-      <c r="D29" s="62"/>
-      <c r="E29" s="62"/>
-      <c r="F29" s="62"/>
-      <c r="G29" s="62"/>
-      <c r="H29" s="62"/>
+      <c r="C29" s="66"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="66"/>
+      <c r="F29" s="66"/>
+      <c r="G29" s="66"/>
+      <c r="H29" s="66"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A30" s="20" t="s">
@@ -5300,15 +5750,15 @@
       <c r="A38" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="B38" s="63" t="s">
+      <c r="B38" s="67" t="s">
         <v>93</v>
       </c>
-      <c r="C38" s="63"/>
-      <c r="D38" s="63"/>
-      <c r="E38" s="63"/>
-      <c r="F38" s="63"/>
-      <c r="G38" s="63"/>
-      <c r="H38" s="31"/>
+      <c r="C38" s="67"/>
+      <c r="D38" s="67"/>
+      <c r="E38" s="67"/>
+      <c r="F38" s="67"/>
+      <c r="G38" s="67"/>
+      <c r="H38" s="30"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A39" s="20" t="s">
@@ -5460,14 +5910,14 @@
       <c r="A46" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="B46" s="63" t="s">
+      <c r="B46" s="67" t="s">
         <v>95</v>
       </c>
-      <c r="C46" s="63"/>
-      <c r="D46" s="63"/>
-      <c r="E46" s="63"/>
-      <c r="F46" s="63"/>
-      <c r="G46" s="63"/>
+      <c r="C46" s="67"/>
+      <c r="D46" s="67"/>
+      <c r="E46" s="67"/>
+      <c r="F46" s="67"/>
+      <c r="G46" s="67"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A47" s="20" t="s">
@@ -5624,15 +6074,15 @@
       <c r="A55" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="B55" s="63" t="s">
+      <c r="B55" s="67" t="s">
         <v>93</v>
       </c>
-      <c r="C55" s="63"/>
-      <c r="D55" s="63"/>
-      <c r="E55" s="63"/>
-      <c r="F55" s="63"/>
-      <c r="G55" s="32" t="s">
-        <v>154</v>
+      <c r="C55" s="67"/>
+      <c r="D55" s="67"/>
+      <c r="E55" s="67"/>
+      <c r="F55" s="67"/>
+      <c r="G55" s="31" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="14.7" x14ac:dyDescent="0.5">
@@ -5655,167 +6105,164 @@
         <v>145</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57" s="29" t="s">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A57" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="B57" s="20">
+        <v>0.52129999999999999</v>
+      </c>
+      <c r="C57" s="20">
+        <v>0.54269999999999996</v>
+      </c>
+      <c r="D57" s="20">
+        <v>0.50719999999999998</v>
+      </c>
+      <c r="E57" s="20">
+        <v>0.47389999999999999</v>
+      </c>
+      <c r="F57" s="20">
+        <v>0.48120000000000002</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A58" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="B58" s="20">
+        <v>0.11310000000000001</v>
+      </c>
+      <c r="C58" s="20">
+        <v>9.35E-2</v>
+      </c>
+      <c r="D58" s="20">
+        <v>8.6300000000000002E-2</v>
+      </c>
+      <c r="E58" s="20">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="F58" s="20">
+        <v>0.12889999999999999</v>
+      </c>
+      <c r="G58" s="9" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A59" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="B59" s="20">
+        <v>0.1177</v>
+      </c>
+      <c r="C59" s="20">
+        <v>0.1132</v>
+      </c>
+      <c r="D59" s="20">
+        <v>8.9899999999999994E-2</v>
+      </c>
+      <c r="E59" s="20">
+        <v>0.12330000000000001</v>
+      </c>
+      <c r="F59" s="20">
+        <v>0.1308</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" s="29" t="s">
         <v>146</v>
       </c>
-      <c r="B57" s="29">
+      <c r="B60" s="29">
         <v>0.66139999999999999</v>
       </c>
-      <c r="C57" s="29">
+      <c r="C60" s="29">
         <v>1.1866000000000001</v>
       </c>
-      <c r="D57" s="29">
+      <c r="D60" s="29">
         <v>1.6840999999999999</v>
       </c>
-      <c r="E57" s="29">
+      <c r="E60" s="29">
         <v>2.1871999999999998</v>
       </c>
-      <c r="F57" s="29">
+      <c r="F60" s="29">
         <v>2.6762000000000001</v>
       </c>
-      <c r="G57" s="27" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A58" s="29" t="s">
+      <c r="G60" s="27" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A61" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="B58" s="29">
+      <c r="B61" s="29">
         <v>0.66710000000000003</v>
       </c>
-      <c r="C58" s="29">
+      <c r="C61" s="29">
         <v>1.2250000000000001</v>
       </c>
-      <c r="D58" s="29">
+      <c r="D61" s="29">
         <v>1.7150000000000001</v>
       </c>
-      <c r="E58" s="29">
+      <c r="E61" s="29">
         <v>2.2951999999999999</v>
       </c>
-      <c r="F58" s="29">
+      <c r="F61" s="29">
         <v>2.7707000000000002</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A59" s="29" t="s">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A62" s="29" t="s">
         <v>148</v>
       </c>
-      <c r="B59" s="29">
+      <c r="B62" s="29">
         <v>3.1827000000000001</v>
       </c>
-      <c r="C59" s="29">
+      <c r="C62" s="29">
         <v>2.7292999999999998</v>
       </c>
-      <c r="D59" s="29">
+      <c r="D62" s="29">
         <v>2.1913</v>
       </c>
-      <c r="E59" s="29">
+      <c r="E62" s="29">
         <v>1.6611</v>
       </c>
-      <c r="F59" s="29">
+      <c r="F62" s="29">
         <v>1.1574</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A60" s="29" t="s">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A63" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="B60" s="29">
+      <c r="B63" s="29">
         <v>2.5539999999999998</v>
       </c>
-      <c r="C60" s="29">
+      <c r="C63" s="29">
         <v>2.3184999999999998</v>
       </c>
-      <c r="D60" s="29">
+      <c r="D63" s="29">
         <v>1.8012999999999999</v>
       </c>
-      <c r="E60" s="29">
+      <c r="E63" s="29">
         <v>1.4141999999999999</v>
       </c>
-      <c r="F60" s="29">
+      <c r="F63" s="29">
         <v>0.89959999999999996</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A61" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="B61" s="20">
-        <v>0.11310000000000001</v>
-      </c>
-      <c r="C61" s="20">
-        <v>9.35E-2</v>
-      </c>
-      <c r="D61" s="20">
-        <v>8.6300000000000002E-2</v>
-      </c>
-      <c r="E61" s="20">
-        <v>0.11899999999999999</v>
-      </c>
-      <c r="F61" s="20">
-        <v>0.12889999999999999</v>
-      </c>
-      <c r="G61" s="9" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A62" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="B62" s="20">
-        <v>0.1177</v>
-      </c>
-      <c r="C62" s="20">
-        <v>0.1132</v>
-      </c>
-      <c r="D62" s="20">
-        <v>8.9899999999999994E-2</v>
-      </c>
-      <c r="E62" s="20">
-        <v>0.12330000000000001</v>
-      </c>
-      <c r="F62" s="20">
-        <v>0.1308</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="14.7" x14ac:dyDescent="0.5">
-      <c r="A63" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="B63" s="20">
-        <v>0.52129999999999999</v>
-      </c>
-      <c r="C63" s="20">
-        <v>0.54269999999999996</v>
-      </c>
-      <c r="D63" s="20">
-        <v>0.50719999999999998</v>
-      </c>
-      <c r="E63" s="20">
-        <v>0.47389999999999999</v>
-      </c>
-      <c r="F63" s="20">
-        <v>0.48120000000000002</v>
-      </c>
-      <c r="G63" s="30" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A65" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="B65" s="63" t="s">
+      <c r="B65" s="67" t="s">
         <v>95</v>
       </c>
-      <c r="C65" s="63"/>
-      <c r="D65" s="63"/>
-      <c r="E65" s="63"/>
-      <c r="F65" s="63"/>
-      <c r="G65" s="31"/>
+      <c r="C65" s="67"/>
+      <c r="D65" s="67"/>
+      <c r="E65" s="67"/>
+      <c r="F65" s="67"/>
+      <c r="G65" s="30"/>
     </row>
     <row r="66" spans="1:8" ht="14.7" x14ac:dyDescent="0.5">
       <c r="A66" s="20" t="s">
@@ -5837,156 +6284,153 @@
         <v>145</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A67" s="29" t="s">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A67" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="B67" s="20">
+        <v>0.53400000000000003</v>
+      </c>
+      <c r="C67" s="20">
+        <v>0.52769999999999995</v>
+      </c>
+      <c r="D67" s="20">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="E67" s="20">
+        <v>0.5141</v>
+      </c>
+      <c r="F67" s="20">
+        <v>0.53269999999999995</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="14.7" x14ac:dyDescent="0.5">
+      <c r="A68" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="B68" s="20">
+        <v>9.5699999999999993E-2</v>
+      </c>
+      <c r="C68" s="20">
+        <v>8.5500000000000007E-2</v>
+      </c>
+      <c r="D68" s="20">
+        <v>0.1014</v>
+      </c>
+      <c r="E68" s="20">
+        <v>0.1203</v>
+      </c>
+      <c r="F68" s="20">
+        <v>0.1467</v>
+      </c>
+      <c r="G68" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="H68" s="20" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A69" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="B69" s="20">
+        <v>9.8100000000000007E-2</v>
+      </c>
+      <c r="C69" s="20">
+        <v>8.7900000000000006E-2</v>
+      </c>
+      <c r="D69" s="20">
+        <v>0.1036</v>
+      </c>
+      <c r="E69" s="20">
+        <v>0.12870000000000001</v>
+      </c>
+      <c r="F69" s="20">
+        <v>0.16819999999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70" s="29" t="s">
         <v>146</v>
       </c>
-      <c r="B67" s="29">
+      <c r="B70" s="29">
         <v>0.6502</v>
       </c>
-      <c r="C67" s="29">
+      <c r="C70" s="29">
         <v>1.1700999999999999</v>
       </c>
-      <c r="D67" s="29">
+      <c r="D70" s="29">
         <v>1.6665000000000001</v>
       </c>
-      <c r="E67" s="29">
+      <c r="E70" s="29">
         <v>2.1697000000000002</v>
       </c>
-      <c r="F67" s="29">
+      <c r="F70" s="29">
         <v>2.6669</v>
       </c>
-      <c r="G67" s="27" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A68" s="29" t="s">
+      <c r="G70" s="27" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A71" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="B68" s="29">
+      <c r="B71" s="29">
         <v>0.67120000000000002</v>
       </c>
-      <c r="C68" s="29">
+      <c r="C71" s="29">
         <v>1.2824</v>
       </c>
-      <c r="D68" s="29">
+      <c r="D71" s="29">
         <v>1.7014</v>
       </c>
-      <c r="E68" s="29">
+      <c r="E71" s="29">
         <v>2.3450000000000002</v>
       </c>
-      <c r="F68" s="29">
+      <c r="F71" s="29">
         <v>2.8260999999999998</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A69" s="29" t="s">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A72" s="29" t="s">
         <v>148</v>
       </c>
-      <c r="B69" s="29">
+      <c r="B72" s="29">
         <v>3.1842000000000001</v>
       </c>
-      <c r="C69" s="29">
+      <c r="C72" s="29">
         <v>2.6978</v>
       </c>
-      <c r="D69" s="29">
+      <c r="D72" s="29">
         <v>2.1915</v>
       </c>
-      <c r="E69" s="29">
+      <c r="E72" s="29">
         <v>1.6838</v>
       </c>
-      <c r="F69" s="29">
+      <c r="F72" s="29">
         <v>1.1996</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A70" s="29" t="s">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A73" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="B70" s="29">
+      <c r="B73" s="29">
         <v>2.7669000000000001</v>
       </c>
-      <c r="C70" s="29">
+      <c r="C73" s="29">
         <v>2.2968999999999999</v>
       </c>
-      <c r="D70" s="29">
+      <c r="D73" s="29">
         <v>1.8028</v>
       </c>
-      <c r="E70" s="29">
+      <c r="E73" s="29">
         <v>1.4423999999999999</v>
       </c>
-      <c r="F70" s="29">
+      <c r="F73" s="29">
         <v>0.96409999999999996</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="14.7" x14ac:dyDescent="0.5">
-      <c r="A71" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="B71" s="20">
-        <v>9.5699999999999993E-2</v>
-      </c>
-      <c r="C71" s="20">
-        <v>8.5500000000000007E-2</v>
-      </c>
-      <c r="D71" s="20">
-        <v>0.1014</v>
-      </c>
-      <c r="E71" s="20">
-        <v>0.1203</v>
-      </c>
-      <c r="F71" s="20">
-        <v>0.1467</v>
-      </c>
-      <c r="G71" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="H71" s="20" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A72" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="B72" s="20">
-        <v>9.8100000000000007E-2</v>
-      </c>
-      <c r="C72" s="20">
-        <v>8.7900000000000006E-2</v>
-      </c>
-      <c r="D72" s="20">
-        <v>0.1036</v>
-      </c>
-      <c r="E72" s="20">
-        <v>0.12870000000000001</v>
-      </c>
-      <c r="F72" s="20">
-        <v>0.16819999999999999</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="14.7" x14ac:dyDescent="0.5">
-      <c r="A73" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="B73" s="20">
-        <v>0.53400000000000003</v>
-      </c>
-      <c r="C73" s="20">
-        <v>0.52769999999999995</v>
-      </c>
-      <c r="D73" s="20">
-        <v>0.52500000000000002</v>
-      </c>
-      <c r="E73" s="20">
-        <v>0.5141</v>
-      </c>
-      <c r="F73" s="20">
-        <v>0.53269999999999995</v>
-      </c>
-      <c r="G73" s="30" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="14.7" x14ac:dyDescent="0.5">
@@ -5999,46 +6443,46 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A76" s="23" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A77" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="B77" s="63" t="s">
+      <c r="B77" s="67" t="s">
         <v>93</v>
       </c>
-      <c r="C77" s="63"/>
-      <c r="D77" s="63"/>
-      <c r="E77" s="63"/>
-      <c r="F77" s="63"/>
-      <c r="G77" s="63"/>
+      <c r="C77" s="67"/>
+      <c r="D77" s="67"/>
+      <c r="E77" s="67"/>
+      <c r="F77" s="67"/>
+      <c r="G77" s="67"/>
       <c r="H77" s="20" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A78" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="B78" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="C78" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="D78" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="E78" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="F78" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="G78" s="24" t="s">
         <v>156</v>
-      </c>
-      <c r="B78" s="33" t="s">
-        <v>160</v>
-      </c>
-      <c r="C78" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="D78" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="E78" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="F78" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="G78" s="24" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="14.7" x14ac:dyDescent="0.5">
@@ -6064,7 +6508,7 @@
         <v>0.20349999999999999</v>
       </c>
       <c r="H79" s="20" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.5">
@@ -6094,36 +6538,36 @@
       <c r="A82" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="B82" s="63" t="s">
+      <c r="B82" s="67" t="s">
         <v>95</v>
       </c>
-      <c r="C82" s="63"/>
-      <c r="D82" s="63"/>
-      <c r="E82" s="63"/>
-      <c r="F82" s="63"/>
-      <c r="G82" s="63"/>
+      <c r="C82" s="67"/>
+      <c r="D82" s="67"/>
+      <c r="E82" s="67"/>
+      <c r="F82" s="67"/>
+      <c r="G82" s="67"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A83" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="B83" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="C83" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="D83" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="E83" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="F83" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="G83" s="24" t="s">
         <v>156</v>
-      </c>
-      <c r="B83" s="33" t="s">
-        <v>160</v>
-      </c>
-      <c r="C83" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="D83" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="E83" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="F83" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="G83" s="24" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.5">
@@ -6174,7 +6618,7 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A87" s="23" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -6201,10 +6645,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2687A086-E6AD-4DC9-8E6D-5E9AEFD1DED8}">
-  <dimension ref="A1:J78"/>
+  <dimension ref="A1:J88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="D84" sqref="D84"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="E85" sqref="E85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -6218,14 +6662,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="66"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="70"/>
       <c r="E1" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>66</v>
@@ -6246,7 +6690,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="57" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -6260,7 +6704,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="54"/>
+      <c r="A4" s="58"/>
       <c r="B4" s="4" t="s">
         <v>52</v>
       </c>
@@ -6272,7 +6716,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="57" t="s">
         <v>22</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -6286,7 +6730,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="54"/>
+      <c r="A6" s="58"/>
       <c r="B6" s="4" t="s">
         <v>52</v>
       </c>
@@ -6298,7 +6742,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="57" t="s">
         <v>23</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -6312,7 +6756,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="54"/>
+      <c r="A8" s="58"/>
       <c r="B8" s="4" t="s">
         <v>52</v>
       </c>
@@ -6327,45 +6771,42 @@
       <c r="A9" s="7"/>
     </row>
     <row r="10" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="35" t="s">
-        <v>168</v>
-      </c>
-      <c r="C10" s="36" t="s">
-        <v>184</v>
+      <c r="A10" s="34" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="64" t="s">
-        <v>176</v>
-      </c>
-      <c r="B11" s="65"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="66"/>
+      <c r="A11" s="68" t="s">
+        <v>174</v>
+      </c>
+      <c r="B11" s="69"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="70"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A12" s="10" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A13" s="82" t="s">
+      <c r="A13" s="80" t="s">
         <v>51</v>
       </c>
-      <c r="B13" s="45" t="s">
+      <c r="B13" s="43" t="s">
         <v>21</v>
       </c>
       <c r="C13" s="1">
@@ -6377,11 +6818,11 @@
       <c r="E13" s="2">
         <v>0</v>
       </c>
-      <c r="J13" s="34"/>
+      <c r="J13" s="33"/>
     </row>
     <row r="14" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="83"/>
-      <c r="B14" s="45" t="s">
+      <c r="A14" s="81"/>
+      <c r="B14" s="43" t="s">
         <v>22</v>
       </c>
       <c r="C14" s="1">
@@ -6393,11 +6834,11 @@
       <c r="E14" s="2">
         <v>1E-4</v>
       </c>
-      <c r="J14" s="34"/>
+      <c r="J14" s="33"/>
     </row>
     <row r="15" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A15" s="84"/>
-      <c r="B15" s="45" t="s">
+      <c r="A15" s="82"/>
+      <c r="B15" s="43" t="s">
         <v>23</v>
       </c>
       <c r="C15" s="1">
@@ -6411,10 +6852,10 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="82" t="s">
+      <c r="A16" s="80" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="45" t="s">
+      <c r="B16" s="43" t="s">
         <v>21</v>
       </c>
       <c r="C16" s="1">
@@ -6429,8 +6870,8 @@
       <c r="J16" s="6"/>
     </row>
     <row r="17" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A17" s="83"/>
-      <c r="B17" s="45" t="s">
+      <c r="A17" s="81"/>
+      <c r="B17" s="43" t="s">
         <v>22</v>
       </c>
       <c r="C17" s="1">
@@ -6444,8 +6885,8 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="84"/>
-      <c r="B18" s="45" t="s">
+      <c r="A18" s="82"/>
+      <c r="B18" s="43" t="s">
         <v>23</v>
       </c>
       <c r="C18" s="1">
@@ -6459,48 +6900,48 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A19" s="34" t="s">
-        <v>179</v>
-      </c>
-      <c r="G19" s="34"/>
+      <c r="A19" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="G19" s="33"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A20" s="34"/>
-      <c r="G20" s="34"/>
+      <c r="A20" s="33"/>
+      <c r="G20" s="33"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A21" s="64" t="s">
-        <v>182</v>
-      </c>
-      <c r="B21" s="65"/>
-      <c r="C21" s="65"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="66"/>
-      <c r="G21" s="34"/>
+      <c r="A21" s="68" t="s">
+        <v>180</v>
+      </c>
+      <c r="B21" s="69"/>
+      <c r="C21" s="69"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="70"/>
+      <c r="G21" s="33"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A22" s="10" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="G22" s="34"/>
+        <v>173</v>
+      </c>
+      <c r="G22" s="33"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A23" s="82" t="s">
+      <c r="A23" s="80" t="s">
         <v>51</v>
       </c>
-      <c r="B23" s="45" t="s">
+      <c r="B23" s="43" t="s">
         <v>21</v>
       </c>
       <c r="C23" s="1">
@@ -6514,8 +6955,8 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A24" s="83"/>
-      <c r="B24" s="45" t="s">
+      <c r="A24" s="81"/>
+      <c r="B24" s="43" t="s">
         <v>22</v>
       </c>
       <c r="C24" s="1">
@@ -6529,8 +6970,8 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A25" s="84"/>
-      <c r="B25" s="45" t="s">
+      <c r="A25" s="82"/>
+      <c r="B25" s="43" t="s">
         <v>23</v>
       </c>
       <c r="C25" s="1">
@@ -6544,10 +6985,10 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A26" s="82" t="s">
+      <c r="A26" s="80" t="s">
         <v>52</v>
       </c>
-      <c r="B26" s="45" t="s">
+      <c r="B26" s="43" t="s">
         <v>21</v>
       </c>
       <c r="C26" s="1">
@@ -6561,8 +7002,8 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A27" s="83"/>
-      <c r="B27" s="45" t="s">
+      <c r="A27" s="81"/>
+      <c r="B27" s="43" t="s">
         <v>22</v>
       </c>
       <c r="C27" s="1">
@@ -6576,8 +7017,8 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A28" s="84"/>
-      <c r="B28" s="45" t="s">
+      <c r="A28" s="82"/>
+      <c r="B28" s="43" t="s">
         <v>23</v>
       </c>
       <c r="C28" s="1">
@@ -6589,34 +7030,34 @@
       <c r="E28" s="2">
         <v>0</v>
       </c>
-      <c r="G28" s="34"/>
+      <c r="G28" s="33"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A29" s="34" t="s">
-        <v>183</v>
+      <c r="A29" s="33" t="s">
+        <v>181</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
-      <c r="G29" s="34"/>
+      <c r="G29" s="33"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A30" s="7"/>
     </row>
     <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.5">
-      <c r="A31" s="35" t="s">
-        <v>169</v>
+      <c r="A31" s="34" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="67" t="s">
+      <c r="A32" s="71" t="s">
         <v>49</v>
       </c>
-      <c r="B32" s="68"/>
-      <c r="C32" s="68"/>
-      <c r="D32" s="68"/>
-      <c r="E32" s="68"/>
-      <c r="F32" s="69"/>
+      <c r="B32" s="72"/>
+      <c r="C32" s="72"/>
+      <c r="D32" s="72"/>
+      <c r="E32" s="72"/>
+      <c r="F32" s="73"/>
       <c r="G32" s="14" t="s">
         <v>67</v>
       </c>
@@ -6640,21 +7081,21 @@
       <c r="F33" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="G33" s="34" t="s">
-        <v>173</v>
+      <c r="G33" s="33" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A34" s="53" t="s">
+      <c r="A34" s="57" t="s">
         <v>21</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C34" s="37">
+      <c r="C34" s="35">
         <v>0.20519999999999999</v>
       </c>
-      <c r="D34" s="38">
+      <c r="D34" s="36">
         <v>0.1487</v>
       </c>
       <c r="E34" s="2">
@@ -6665,11 +7106,11 @@
         <v>1E-4</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A35" s="54"/>
+      <c r="A35" s="58"/>
       <c r="B35" s="2" t="s">
         <v>47</v>
       </c>
@@ -6679,7 +7120,7 @@
       <c r="D35" s="2">
         <v>0.1106</v>
       </c>
-      <c r="E35" s="39">
+      <c r="E35" s="37">
         <f t="shared" ref="E35:E39" si="0">C35-D35</f>
         <v>0.10169999999999998</v>
       </c>
@@ -6692,16 +7133,16 @@
       </c>
     </row>
     <row r="36" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A36" s="53" t="s">
+      <c r="A36" s="57" t="s">
         <v>22</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C36" s="37">
+      <c r="C36" s="35">
         <v>-8.3900000000000002E-2</v>
       </c>
-      <c r="D36" s="38">
+      <c r="D36" s="36">
         <v>-0.11269999999999999</v>
       </c>
       <c r="E36" s="2">
@@ -6711,12 +7152,12 @@
       <c r="F36" s="2">
         <v>0.26329999999999998</v>
       </c>
-      <c r="G36" s="40" t="s">
-        <v>178</v>
+      <c r="G36" s="38" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A37" s="54"/>
+      <c r="A37" s="58"/>
       <c r="B37" s="2" t="s">
         <v>47</v>
       </c>
@@ -6726,7 +7167,7 @@
       <c r="D37" s="2">
         <v>-0.1211</v>
       </c>
-      <c r="E37" s="39">
+      <c r="E37" s="37">
         <f t="shared" si="0"/>
         <v>7.1399999999999991E-2</v>
       </c>
@@ -6739,16 +7180,16 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A38" s="53" t="s">
+      <c r="A38" s="57" t="s">
         <v>23</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C38" s="38">
+      <c r="C38" s="36">
         <v>0.1537</v>
       </c>
-      <c r="D38" s="37">
+      <c r="D38" s="35">
         <v>0.2175</v>
       </c>
       <c r="E38" s="2">
@@ -6760,7 +7201,7 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A39" s="54"/>
+      <c r="A39" s="58"/>
       <c r="B39" s="2" t="s">
         <v>47</v>
       </c>
@@ -6770,7 +7211,7 @@
       <c r="D39" s="1">
         <v>0.19570000000000001</v>
       </c>
-      <c r="E39" s="39">
+      <c r="E39" s="37">
         <f t="shared" si="0"/>
         <v>-3.6799999999999999E-2</v>
       </c>
@@ -6788,51 +7229,51 @@
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
-      <c r="F40" s="41" t="s">
-        <v>177</v>
+      <c r="F40" s="39" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A41" s="56" t="s">
+      <c r="A41" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="B41" s="57"/>
-      <c r="C41" s="57"/>
-      <c r="D41" s="57"/>
-      <c r="E41" s="57"/>
-      <c r="F41" s="58"/>
+      <c r="B41" s="61"/>
+      <c r="C41" s="61"/>
+      <c r="D41" s="61"/>
+      <c r="E41" s="61"/>
+      <c r="F41" s="62"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A42" s="42" t="s">
+      <c r="A42" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="B42" s="42" t="s">
+      <c r="B42" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="C42" s="42" t="s">
+      <c r="C42" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="D42" s="42" t="s">
+      <c r="D42" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="E42" s="42" t="s">
+      <c r="E42" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="F42" s="42" t="s">
+      <c r="F42" s="40" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A43" s="53" t="s">
+      <c r="A43" s="57" t="s">
         <v>21</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C43" s="37">
+      <c r="C43" s="35">
         <v>3.2000000000000002E-3</v>
       </c>
-      <c r="D43" s="38">
+      <c r="D43" s="36">
         <v>6.1600000000000002E-2</v>
       </c>
       <c r="E43" s="2">
@@ -6846,7 +7287,7 @@
       <c r="H43" s="5"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A44" s="54"/>
+      <c r="A44" s="58"/>
       <c r="B44" s="2" t="s">
         <v>47</v>
       </c>
@@ -6856,7 +7297,7 @@
       <c r="D44" s="2">
         <v>8.9200000000000002E-2</v>
       </c>
-      <c r="E44" s="39">
+      <c r="E44" s="37">
         <f t="shared" ref="E44:E48" si="1">C44-D44</f>
         <v>-8.3500000000000005E-2</v>
       </c>
@@ -6870,16 +7311,16 @@
       <c r="H44" s="5"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A45" s="53" t="s">
+      <c r="A45" s="57" t="s">
         <v>22</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C45" s="37">
+      <c r="C45" s="35">
         <v>-0.2681</v>
       </c>
-      <c r="D45" s="38">
+      <c r="D45" s="36">
         <v>-0.17510000000000001</v>
       </c>
       <c r="E45" s="2">
@@ -6891,7 +7332,7 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A46" s="54"/>
+      <c r="A46" s="58"/>
       <c r="B46" s="2" t="s">
         <v>47</v>
       </c>
@@ -6901,7 +7342,7 @@
       <c r="D46" s="2">
         <v>-0.13650000000000001</v>
       </c>
-      <c r="E46" s="39">
+      <c r="E46" s="37">
         <f t="shared" si="1"/>
         <v>-0.14489999999999997</v>
       </c>
@@ -6914,16 +7355,16 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A47" s="53" t="s">
+      <c r="A47" s="57" t="s">
         <v>23</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C47" s="38">
+      <c r="C47" s="36">
         <v>0.1953</v>
       </c>
-      <c r="D47" s="37">
+      <c r="D47" s="35">
         <v>0.11890000000000001</v>
       </c>
       <c r="E47" s="2">
@@ -6935,7 +7376,7 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A48" s="54"/>
+      <c r="A48" s="58"/>
       <c r="B48" s="2" t="s">
         <v>47</v>
       </c>
@@ -6945,7 +7386,7 @@
       <c r="D48" s="1">
         <v>0.12189999999999999</v>
       </c>
-      <c r="E48" s="39">
+      <c r="E48" s="37">
         <f t="shared" si="1"/>
         <v>3.0600000000000002E-2</v>
       </c>
@@ -6958,94 +7399,94 @@
       </c>
     </row>
     <row r="50" spans="1:8" ht="15" x14ac:dyDescent="0.5">
-      <c r="A50" s="35" t="s">
-        <v>187</v>
+      <c r="A50" s="34" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A51" s="64" t="s">
+      <c r="A51" s="68" t="s">
         <v>60</v>
       </c>
-      <c r="B51" s="65"/>
-      <c r="C51" s="65"/>
-      <c r="D51" s="65"/>
-      <c r="E51" s="65"/>
-      <c r="F51" s="66"/>
+      <c r="B51" s="69"/>
+      <c r="C51" s="69"/>
+      <c r="D51" s="69"/>
+      <c r="E51" s="69"/>
+      <c r="F51" s="70"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A52" s="74" t="s">
+      <c r="A52" s="83" t="s">
         <v>64</v>
       </c>
-      <c r="B52" s="75"/>
+      <c r="B52" s="84"/>
       <c r="C52" s="10" t="s">
         <v>58</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E52" s="10" t="s">
         <v>59</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A53" s="70" t="s">
+      <c r="A53" s="76" t="s">
         <v>21</v>
       </c>
       <c r="B53" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C53" s="43">
+      <c r="C53" s="41">
         <v>0.92610000000000003</v>
       </c>
-      <c r="D53" s="78">
+      <c r="D53" s="74">
         <f>C53-C54</f>
         <v>4.8399999999999999E-2</v>
       </c>
-      <c r="E53" s="43">
+      <c r="E53" s="41">
         <v>0.9355</v>
       </c>
-      <c r="F53" s="78">
+      <c r="F53" s="74">
         <f>E53-E54</f>
         <v>3.3599999999999963E-2</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A54" s="71"/>
+      <c r="A54" s="77"/>
       <c r="B54" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="C54" s="43">
+      <c r="C54" s="41">
         <v>0.87770000000000004</v>
       </c>
-      <c r="D54" s="79"/>
-      <c r="E54" s="43">
+      <c r="D54" s="75"/>
+      <c r="E54" s="41">
         <v>0.90190000000000003</v>
       </c>
-      <c r="F54" s="79"/>
+      <c r="F54" s="75"/>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A55" s="72" t="s">
+      <c r="A55" s="78" t="s">
         <v>22</v>
       </c>
       <c r="B55" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C55" s="44">
+      <c r="C55" s="42">
         <v>0.83179999999999998</v>
       </c>
-      <c r="D55" s="78">
+      <c r="D55" s="74">
         <f t="shared" ref="D55:F55" si="2">C55-C56</f>
         <v>4.4300000000000006E-2</v>
       </c>
-      <c r="E55" s="44">
+      <c r="E55" s="42">
         <v>0.86299999999999999</v>
       </c>
-      <c r="F55" s="78">
+      <c r="F55" s="74">
         <f t="shared" si="2"/>
         <v>1.6000000000000014E-2</v>
       </c>
@@ -7053,39 +7494,39 @@
       <c r="H55" s="2"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A56" s="73"/>
+      <c r="A56" s="79"/>
       <c r="B56" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="C56" s="44">
+      <c r="C56" s="42">
         <v>0.78749999999999998</v>
       </c>
-      <c r="D56" s="79"/>
-      <c r="E56" s="44">
+      <c r="D56" s="75"/>
+      <c r="E56" s="42">
         <v>0.84699999999999998</v>
       </c>
-      <c r="F56" s="79"/>
+      <c r="F56" s="75"/>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A57" s="70" t="s">
+      <c r="A57" s="76" t="s">
         <v>23</v>
       </c>
       <c r="B57" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C57" s="43">
+      <c r="C57" s="41">
         <v>0.90229999999999999</v>
       </c>
-      <c r="D57" s="78">
+      <c r="D57" s="74">
         <f t="shared" ref="D57:F57" si="3">C57-C58</f>
         <v>2.6000000000000023E-2</v>
       </c>
-      <c r="E57" s="43">
+      <c r="E57" s="41">
         <v>0.91910000000000003</v>
       </c>
-      <c r="F57" s="78">
+      <c r="F57" s="74">
         <f t="shared" si="3"/>
         <v>1.0900000000000021E-2</v>
       </c>
@@ -7093,18 +7534,18 @@
       <c r="H57" s="2"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A58" s="71"/>
+      <c r="A58" s="77"/>
       <c r="B58" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="C58" s="43">
+      <c r="C58" s="41">
         <v>0.87629999999999997</v>
       </c>
-      <c r="D58" s="79"/>
-      <c r="E58" s="43">
+      <c r="D58" s="75"/>
+      <c r="E58" s="41">
         <v>0.90820000000000001</v>
       </c>
-      <c r="F58" s="79"/>
+      <c r="F58" s="75"/>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
     </row>
@@ -7117,55 +7558,55 @@
       <c r="H59" s="2"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A60" s="67" t="s">
+      <c r="A60" s="71" t="s">
         <v>61</v>
       </c>
-      <c r="B60" s="68"/>
-      <c r="C60" s="68"/>
-      <c r="D60" s="68"/>
-      <c r="E60" s="68"/>
-      <c r="F60" s="69"/>
+      <c r="B60" s="72"/>
+      <c r="C60" s="72"/>
+      <c r="D60" s="72"/>
+      <c r="E60" s="72"/>
+      <c r="F60" s="73"/>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A61" s="76" t="s">
+      <c r="A61" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="B61" s="77"/>
+      <c r="B61" s="86"/>
       <c r="C61" s="12" t="s">
         <v>58</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E61" s="12" t="s">
         <v>59</v>
       </c>
       <c r="F61" s="10" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A62" s="70" t="s">
+      <c r="A62" s="76" t="s">
         <v>21</v>
       </c>
       <c r="B62" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C62" s="43">
+      <c r="C62" s="41">
         <v>0.85699999999999998</v>
       </c>
-      <c r="D62" s="78">
+      <c r="D62" s="74">
         <f>C62-C63</f>
         <v>1.7000000000000015E-2</v>
       </c>
-      <c r="E62" s="43">
+      <c r="E62" s="41">
         <v>0.88139999999999996</v>
       </c>
-      <c r="F62" s="78">
+      <c r="F62" s="74">
         <f>E62-E63</f>
         <v>8.799999999999919E-3</v>
       </c>
@@ -7173,39 +7614,39 @@
       <c r="H62" s="2"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A63" s="71"/>
+      <c r="A63" s="77"/>
       <c r="B63" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="C63" s="43">
+      <c r="C63" s="41">
         <v>0.84</v>
       </c>
-      <c r="D63" s="79"/>
-      <c r="E63" s="43">
+      <c r="D63" s="75"/>
+      <c r="E63" s="41">
         <v>0.87260000000000004</v>
       </c>
-      <c r="F63" s="79"/>
+      <c r="F63" s="75"/>
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A64" s="72" t="s">
+      <c r="A64" s="78" t="s">
         <v>22</v>
       </c>
       <c r="B64" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C64" s="44">
+      <c r="C64" s="42">
         <v>0.92249999999999999</v>
       </c>
-      <c r="D64" s="78">
+      <c r="D64" s="74">
         <f t="shared" ref="D64" si="4">C64-C65</f>
         <v>5.9999999999999942E-2</v>
       </c>
-      <c r="E64" s="44">
+      <c r="E64" s="42">
         <v>0.93559999999999999</v>
       </c>
-      <c r="F64" s="78">
+      <c r="F64" s="74">
         <f t="shared" ref="F64" si="5">E64-E65</f>
         <v>4.1100000000000025E-2</v>
       </c>
@@ -7213,39 +7654,39 @@
       <c r="H64" s="2"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A65" s="73"/>
+      <c r="A65" s="79"/>
       <c r="B65" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="C65" s="44">
+      <c r="C65" s="42">
         <v>0.86250000000000004</v>
       </c>
-      <c r="D65" s="79"/>
-      <c r="E65" s="44">
+      <c r="D65" s="75"/>
+      <c r="E65" s="42">
         <v>0.89449999999999996</v>
       </c>
-      <c r="F65" s="79"/>
+      <c r="F65" s="75"/>
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A66" s="70" t="s">
+      <c r="A66" s="76" t="s">
         <v>23</v>
       </c>
       <c r="B66" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C66" s="43">
+      <c r="C66" s="41">
         <v>0.87090000000000001</v>
       </c>
-      <c r="D66" s="78">
+      <c r="D66" s="74">
         <f t="shared" ref="D66" si="6">C66-C67</f>
         <v>3.4800000000000053E-2</v>
       </c>
-      <c r="E66" s="43">
+      <c r="E66" s="41">
         <v>0.89049999999999996</v>
       </c>
-      <c r="F66" s="78">
+      <c r="F66" s="74">
         <f t="shared" ref="F66" si="7">E66-E67</f>
         <v>2.739999999999998E-2</v>
       </c>
@@ -7253,18 +7694,18 @@
       <c r="H66" s="2"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A67" s="71"/>
+      <c r="A67" s="77"/>
       <c r="B67" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="C67" s="43">
+      <c r="C67" s="41">
         <v>0.83609999999999995</v>
       </c>
-      <c r="D67" s="79"/>
-      <c r="E67" s="43">
+      <c r="D67" s="75"/>
+      <c r="E67" s="41">
         <v>0.86309999999999998</v>
       </c>
-      <c r="F67" s="79"/>
+      <c r="F67" s="75"/>
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
     </row>
@@ -7274,20 +7715,20 @@
       </c>
     </row>
     <row r="70" spans="1:8" ht="15" x14ac:dyDescent="0.5">
-      <c r="A70" s="35" t="s">
+      <c r="A70" s="34" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A71" s="71" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A71" s="67" t="s">
-        <v>191</v>
-      </c>
-      <c r="B71" s="68"/>
-      <c r="C71" s="68"/>
-      <c r="D71" s="68"/>
-      <c r="E71" s="68"/>
-      <c r="F71" s="81" t="s">
-        <v>193</v>
+      <c r="B71" s="72"/>
+      <c r="C71" s="72"/>
+      <c r="D71" s="72"/>
+      <c r="E71" s="72"/>
+      <c r="F71" s="45" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.5">
@@ -7298,84 +7739,84 @@
         <v>35</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D72" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="E72" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="F72" s="44" t="s">
         <v>189</v>
       </c>
-      <c r="E72" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="F72" s="80" t="s">
-        <v>192</v>
-      </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A73" s="53" t="s">
+      <c r="A73" s="57" t="s">
         <v>21</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C73" s="2">
+      <c r="C73" s="1">
         <v>7.1999999999999995E-2</v>
       </c>
       <c r="D73" s="2">
         <v>5.21E-2</v>
       </c>
-      <c r="E73" s="2">
+      <c r="E73" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A74" s="54"/>
+      <c r="A74" s="58"/>
       <c r="B74" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C74" s="2">
+      <c r="C74" s="1">
         <v>6.5500000000000003E-2</v>
       </c>
       <c r="D74" s="2">
         <v>4.4200000000000003E-2</v>
       </c>
-      <c r="E74" s="2">
+      <c r="E74" s="1">
         <v>2.3300000000000001E-2</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A75" s="53" t="s">
+      <c r="A75" s="57" t="s">
         <v>22</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C75" s="2">
+      <c r="C75" s="1">
         <v>3.6799999999999999E-2</v>
       </c>
       <c r="D75" s="2">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="E75" s="2">
+      <c r="E75" s="1">
         <v>4.1200000000000001E-2</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A76" s="54"/>
+      <c r="A76" s="58"/>
       <c r="B76" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C76" s="2">
+      <c r="C76" s="1">
         <v>0.03</v>
       </c>
       <c r="D76" s="2">
         <v>2.47E-2</v>
       </c>
-      <c r="E76" s="2">
+      <c r="E76" s="1">
         <v>1.8700000000000001E-2</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A77" s="53" t="s">
+      <c r="A77" s="57" t="s">
         <v>23</v>
       </c>
       <c r="B77" s="4" t="s">
@@ -7392,7 +7833,7 @@
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A78" s="54"/>
+      <c r="A78" s="58"/>
       <c r="B78" s="4" t="s">
         <v>52</v>
       </c>
@@ -7406,8 +7847,128 @@
         <v>0.89500000000000002</v>
       </c>
     </row>
+    <row r="80" spans="1:8" ht="15" x14ac:dyDescent="0.5">
+      <c r="A80" s="34" t="s">
+        <v>230</v>
+      </c>
+      <c r="B80" s="88"/>
+      <c r="C80" s="88"/>
+      <c r="D80" s="88"/>
+      <c r="E80" s="88"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A81" s="71" t="s">
+        <v>233</v>
+      </c>
+      <c r="B81" s="72"/>
+      <c r="C81" s="72"/>
+      <c r="D81" s="72"/>
+      <c r="E81" s="72"/>
+      <c r="F81" s="45" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A82" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B82" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C82" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="D82" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="E82" s="10" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A83" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C83" s="4">
+        <v>0.70660000000000001</v>
+      </c>
+      <c r="D83" s="4">
+        <v>0.70409999999999995</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A84" s="58"/>
+      <c r="B84" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C84" s="4">
+        <v>0.67779999999999996</v>
+      </c>
+      <c r="D84" s="4">
+        <v>0.66239999999999999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A85" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C85" s="4">
+        <v>0.71220000000000006</v>
+      </c>
+      <c r="D85" s="4">
+        <v>0.69120000000000004</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A86" s="58"/>
+      <c r="B86" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C86" s="4">
+        <v>0.72009999999999996</v>
+      </c>
+      <c r="D86" s="4">
+        <v>0.7077</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A87" s="57" t="s">
+        <v>23</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C87" s="4">
+        <v>0.71189999999999998</v>
+      </c>
+      <c r="D87" s="4">
+        <v>0.72230000000000005</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A88" s="58"/>
+      <c r="B88" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C88" s="4">
+        <v>0.66139999999999999</v>
+      </c>
+      <c r="D88" s="4">
+        <v>0.65259999999999996</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="44">
+  <mergeCells count="48">
+    <mergeCell ref="A81:E81"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="A87:A88"/>
     <mergeCell ref="A73:A74"/>
     <mergeCell ref="A75:A76"/>
     <mergeCell ref="A77:A78"/>
@@ -7416,6 +7977,14 @@
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A23:A25"/>
     <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="A43:A44"/>
     <mergeCell ref="F62:F63"/>
     <mergeCell ref="F64:F65"/>
     <mergeCell ref="F66:F67"/>
@@ -7426,20 +7995,12 @@
     <mergeCell ref="D55:D56"/>
     <mergeCell ref="F55:F56"/>
     <mergeCell ref="A60:F60"/>
-    <mergeCell ref="A21:E21"/>
     <mergeCell ref="A62:A63"/>
     <mergeCell ref="A64:A65"/>
     <mergeCell ref="A66:A67"/>
-    <mergeCell ref="A52:B52"/>
     <mergeCell ref="A53:A54"/>
     <mergeCell ref="A55:A56"/>
     <mergeCell ref="A57:A58"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="A43:A44"/>
     <mergeCell ref="A51:F51"/>
     <mergeCell ref="A45:A46"/>
     <mergeCell ref="A47:A48"/>
@@ -7457,4 +8018,205 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0E35C97-318C-474D-A5AC-998C46237D08}">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="8.796875" style="46"/>
+    <col min="2" max="2" width="4.19921875" style="46" customWidth="1"/>
+    <col min="3" max="3" width="90.75" style="46" customWidth="1"/>
+    <col min="4" max="16384" width="8.796875" style="46"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="14.7" x14ac:dyDescent="0.5">
+      <c r="A1" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="46" t="s">
+        <v>192</v>
+      </c>
+      <c r="C1" s="46" t="s">
+        <v>208</v>
+      </c>
+      <c r="D1" s="46" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="27.9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="87" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="46" t="s">
+        <v>193</v>
+      </c>
+      <c r="C2" s="47" t="s">
+        <v>209</v>
+      </c>
+      <c r="D2" s="49" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="27.9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="87"/>
+      <c r="B3" s="46" t="s">
+        <v>194</v>
+      </c>
+      <c r="C3" s="47" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="14.7" x14ac:dyDescent="0.6">
+      <c r="A4" s="87"/>
+      <c r="B4" s="48" t="s">
+        <v>195</v>
+      </c>
+      <c r="C4" s="47" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="27.9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="87"/>
+      <c r="B5" s="46" t="s">
+        <v>196</v>
+      </c>
+      <c r="C5" s="47" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="14.7" x14ac:dyDescent="0.6">
+      <c r="A6" s="87"/>
+      <c r="B6" s="46" t="s">
+        <v>197</v>
+      </c>
+      <c r="C6" s="47" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="27.9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="87" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="46" t="s">
+        <v>199</v>
+      </c>
+      <c r="C7" s="47" t="s">
+        <v>216</v>
+      </c>
+      <c r="D7" s="49" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="87"/>
+      <c r="B8" s="46" t="s">
+        <v>198</v>
+      </c>
+      <c r="C8" s="47" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="28.2" x14ac:dyDescent="0.6">
+      <c r="A9" s="87"/>
+      <c r="B9" s="46" t="s">
+        <v>200</v>
+      </c>
+      <c r="C9" s="47" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.3" x14ac:dyDescent="0.6">
+      <c r="A10" s="87"/>
+      <c r="B10" s="48" t="s">
+        <v>201</v>
+      </c>
+      <c r="C10" s="47" t="s">
+        <v>220</v>
+      </c>
+      <c r="D10" s="49" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="41.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="87"/>
+      <c r="B11" s="46" t="s">
+        <v>202</v>
+      </c>
+      <c r="C11" s="47" t="s">
+        <v>221</v>
+      </c>
+      <c r="D11" s="49" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="27.9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="87" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="46" t="s">
+        <v>203</v>
+      </c>
+      <c r="C12" s="47" t="s">
+        <v>223</v>
+      </c>
+      <c r="D12" s="49" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="27.9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="87"/>
+      <c r="B13" s="46" t="s">
+        <v>204</v>
+      </c>
+      <c r="C13" s="47" t="s">
+        <v>225</v>
+      </c>
+      <c r="D13" s="49" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="42" x14ac:dyDescent="0.6">
+      <c r="A14" s="87"/>
+      <c r="B14" s="48" t="s">
+        <v>205</v>
+      </c>
+      <c r="C14" s="47" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="87"/>
+      <c r="B15" s="48" t="s">
+        <v>206</v>
+      </c>
+      <c r="C15" s="47" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="28.2" x14ac:dyDescent="0.6">
+      <c r="A16" s="87"/>
+      <c r="B16" s="48" t="s">
+        <v>207</v>
+      </c>
+      <c r="C16" s="47" t="s">
+        <v>228</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A12:A16"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/dataAnalysis.xlsx
+++ b/dataAnalysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\botImpact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C739847F-B309-4B3C-93F8-ADA8A7CD8D46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D383A6-40CB-4732-BA8B-49472A77A9BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="18192" windowHeight="11592" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="18192" windowHeight="11592" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ModelFreeEvidence" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="230">
   <si>
     <t>Node Degree</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2613,10 +2613,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Followers/Post: Measuring the Content Efficiency</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -3139,23 +3135,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>6.3.3 The Difference between Influence Receiver</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bot Inf Receiver</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Human Inf Receiver</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Following/Ego: Measuring the Clique in Networks</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>越小，说明1阶朋友之间联系越紧密</t>
+    <t>Retweeted/Post: Measuring the Content Efficiency</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3497,7 +3477,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3690,12 +3670,6 @@
     <xf numFmtId="177" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3706,6 +3680,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="4" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3730,9 +3710,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4028,8 +4005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -6145,7 +6122,7 @@
         <v>0.12889999999999999</v>
       </c>
       <c r="G58" s="9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.5">
@@ -6324,7 +6301,7 @@
         <v>0.1467</v>
       </c>
       <c r="G68" s="9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H68" s="20" t="s">
         <v>163</v>
@@ -6645,10 +6622,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2687A086-E6AD-4DC9-8E6D-5E9AEFD1DED8}">
-  <dimension ref="A1:J88"/>
+  <dimension ref="A1:J78"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="E85" sqref="E85"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="E79" sqref="E79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -6787,7 +6764,7 @@
     </row>
     <row r="12" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A12" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>34</v>
@@ -6921,7 +6898,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A22" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>34</v>
@@ -7432,7 +7409,7 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A53" s="76" t="s">
+      <c r="A53" s="74" t="s">
         <v>21</v>
       </c>
       <c r="B53" s="11" t="s">
@@ -7441,36 +7418,36 @@
       <c r="C53" s="41">
         <v>0.92610000000000003</v>
       </c>
-      <c r="D53" s="74">
+      <c r="D53" s="78">
         <f>C53-C54</f>
         <v>4.8399999999999999E-2</v>
       </c>
       <c r="E53" s="41">
         <v>0.9355</v>
       </c>
-      <c r="F53" s="74">
+      <c r="F53" s="78">
         <f>E53-E54</f>
         <v>3.3599999999999963E-2</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A54" s="77"/>
+      <c r="A54" s="75"/>
       <c r="B54" s="11" t="s">
         <v>62</v>
       </c>
       <c r="C54" s="41">
         <v>0.87770000000000004</v>
       </c>
-      <c r="D54" s="75"/>
+      <c r="D54" s="79"/>
       <c r="E54" s="41">
         <v>0.90190000000000003</v>
       </c>
-      <c r="F54" s="75"/>
+      <c r="F54" s="79"/>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A55" s="78" t="s">
+      <c r="A55" s="76" t="s">
         <v>22</v>
       </c>
       <c r="B55" s="13" t="s">
@@ -7479,14 +7456,14 @@
       <c r="C55" s="42">
         <v>0.83179999999999998</v>
       </c>
-      <c r="D55" s="74">
+      <c r="D55" s="78">
         <f t="shared" ref="D55:F55" si="2">C55-C56</f>
         <v>4.4300000000000006E-2</v>
       </c>
       <c r="E55" s="42">
         <v>0.86299999999999999</v>
       </c>
-      <c r="F55" s="74">
+      <c r="F55" s="78">
         <f t="shared" si="2"/>
         <v>1.6000000000000014E-2</v>
       </c>
@@ -7494,23 +7471,23 @@
       <c r="H55" s="2"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A56" s="79"/>
+      <c r="A56" s="77"/>
       <c r="B56" s="13" t="s">
         <v>62</v>
       </c>
       <c r="C56" s="42">
         <v>0.78749999999999998</v>
       </c>
-      <c r="D56" s="75"/>
+      <c r="D56" s="79"/>
       <c r="E56" s="42">
         <v>0.84699999999999998</v>
       </c>
-      <c r="F56" s="75"/>
+      <c r="F56" s="79"/>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A57" s="76" t="s">
+      <c r="A57" s="74" t="s">
         <v>23</v>
       </c>
       <c r="B57" s="11" t="s">
@@ -7519,14 +7496,14 @@
       <c r="C57" s="41">
         <v>0.90229999999999999</v>
       </c>
-      <c r="D57" s="74">
+      <c r="D57" s="78">
         <f t="shared" ref="D57:F57" si="3">C57-C58</f>
         <v>2.6000000000000023E-2</v>
       </c>
       <c r="E57" s="41">
         <v>0.91910000000000003</v>
       </c>
-      <c r="F57" s="74">
+      <c r="F57" s="78">
         <f t="shared" si="3"/>
         <v>1.0900000000000021E-2</v>
       </c>
@@ -7534,18 +7511,18 @@
       <c r="H57" s="2"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A58" s="77"/>
+      <c r="A58" s="75"/>
       <c r="B58" s="11" t="s">
         <v>62</v>
       </c>
       <c r="C58" s="41">
         <v>0.87629999999999997</v>
       </c>
-      <c r="D58" s="75"/>
+      <c r="D58" s="79"/>
       <c r="E58" s="41">
         <v>0.90820000000000001</v>
       </c>
-      <c r="F58" s="75"/>
+      <c r="F58" s="79"/>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
     </row>
@@ -7590,7 +7567,7 @@
       <c r="H61" s="2"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A62" s="76" t="s">
+      <c r="A62" s="74" t="s">
         <v>21</v>
       </c>
       <c r="B62" s="11" t="s">
@@ -7599,14 +7576,14 @@
       <c r="C62" s="41">
         <v>0.85699999999999998</v>
       </c>
-      <c r="D62" s="74">
+      <c r="D62" s="78">
         <f>C62-C63</f>
         <v>1.7000000000000015E-2</v>
       </c>
       <c r="E62" s="41">
         <v>0.88139999999999996</v>
       </c>
-      <c r="F62" s="74">
+      <c r="F62" s="78">
         <f>E62-E63</f>
         <v>8.799999999999919E-3</v>
       </c>
@@ -7614,23 +7591,23 @@
       <c r="H62" s="2"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A63" s="77"/>
+      <c r="A63" s="75"/>
       <c r="B63" s="11" t="s">
         <v>62</v>
       </c>
       <c r="C63" s="41">
         <v>0.84</v>
       </c>
-      <c r="D63" s="75"/>
+      <c r="D63" s="79"/>
       <c r="E63" s="41">
         <v>0.87260000000000004</v>
       </c>
-      <c r="F63" s="75"/>
+      <c r="F63" s="79"/>
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A64" s="78" t="s">
+      <c r="A64" s="76" t="s">
         <v>22</v>
       </c>
       <c r="B64" s="13" t="s">
@@ -7639,14 +7616,14 @@
       <c r="C64" s="42">
         <v>0.92249999999999999</v>
       </c>
-      <c r="D64" s="74">
+      <c r="D64" s="78">
         <f t="shared" ref="D64" si="4">C64-C65</f>
         <v>5.9999999999999942E-2</v>
       </c>
       <c r="E64" s="42">
         <v>0.93559999999999999</v>
       </c>
-      <c r="F64" s="74">
+      <c r="F64" s="78">
         <f t="shared" ref="F64" si="5">E64-E65</f>
         <v>4.1100000000000025E-2</v>
       </c>
@@ -7654,23 +7631,23 @@
       <c r="H64" s="2"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A65" s="79"/>
+      <c r="A65" s="77"/>
       <c r="B65" s="13" t="s">
         <v>62</v>
       </c>
       <c r="C65" s="42">
         <v>0.86250000000000004</v>
       </c>
-      <c r="D65" s="75"/>
+      <c r="D65" s="79"/>
       <c r="E65" s="42">
         <v>0.89449999999999996</v>
       </c>
-      <c r="F65" s="75"/>
+      <c r="F65" s="79"/>
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A66" s="76" t="s">
+      <c r="A66" s="74" t="s">
         <v>23</v>
       </c>
       <c r="B66" s="11" t="s">
@@ -7679,14 +7656,14 @@
       <c r="C66" s="41">
         <v>0.87090000000000001</v>
       </c>
-      <c r="D66" s="74">
+      <c r="D66" s="78">
         <f t="shared" ref="D66" si="6">C66-C67</f>
         <v>3.4800000000000053E-2</v>
       </c>
       <c r="E66" s="41">
         <v>0.89049999999999996</v>
       </c>
-      <c r="F66" s="74">
+      <c r="F66" s="78">
         <f t="shared" ref="F66" si="7">E66-E67</f>
         <v>2.739999999999998E-2</v>
       </c>
@@ -7694,18 +7671,18 @@
       <c r="H66" s="2"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A67" s="77"/>
+      <c r="A67" s="75"/>
       <c r="B67" s="11" t="s">
         <v>62</v>
       </c>
       <c r="C67" s="41">
         <v>0.83609999999999995</v>
       </c>
-      <c r="D67" s="75"/>
+      <c r="D67" s="79"/>
       <c r="E67" s="41">
         <v>0.86309999999999998</v>
       </c>
-      <c r="F67" s="75"/>
+      <c r="F67" s="79"/>
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
     </row>
@@ -7721,14 +7698,14 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A71" s="71" t="s">
-        <v>188</v>
+        <v>229</v>
       </c>
       <c r="B71" s="72"/>
       <c r="C71" s="72"/>
       <c r="D71" s="72"/>
       <c r="E71" s="72"/>
       <c r="F71" s="45" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.5">
@@ -7748,7 +7725,7 @@
         <v>173</v>
       </c>
       <c r="F72" s="44" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.5">
@@ -7759,13 +7736,13 @@
         <v>51</v>
       </c>
       <c r="C73" s="1">
-        <v>7.1999999999999995E-2</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="D73" s="2">
-        <v>5.21E-2</v>
+        <v>2.47E-2</v>
       </c>
       <c r="E73" s="1">
-        <v>0</v>
+        <v>1.4E-3</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.5">
@@ -7774,13 +7751,13 @@
         <v>52</v>
       </c>
       <c r="C74" s="1">
-        <v>6.5500000000000003E-2</v>
+        <v>3.0300000000000001E-2</v>
       </c>
       <c r="D74" s="2">
-        <v>4.4200000000000003E-2</v>
+        <v>1.54E-2</v>
       </c>
       <c r="E74" s="1">
-        <v>2.3300000000000001E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.5">
@@ -7791,13 +7768,13 @@
         <v>51</v>
       </c>
       <c r="C75" s="1">
-        <v>3.6799999999999999E-2</v>
+        <v>2.29E-2</v>
       </c>
       <c r="D75" s="2">
-        <v>2.9000000000000001E-2</v>
+        <v>1.0200000000000001E-2</v>
       </c>
       <c r="E75" s="1">
-        <v>4.1200000000000001E-2</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.5">
@@ -7806,13 +7783,13 @@
         <v>52</v>
       </c>
       <c r="C76" s="1">
-        <v>0.03</v>
+        <v>2.2200000000000001E-2</v>
       </c>
       <c r="D76" s="2">
-        <v>2.47E-2</v>
+        <v>1.11E-2</v>
       </c>
       <c r="E76" s="1">
-        <v>1.8700000000000001E-2</v>
+        <v>2.07E-2</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.5">
@@ -7823,13 +7800,13 @@
         <v>51</v>
       </c>
       <c r="C77" s="2">
-        <v>4.1700000000000001E-2</v>
+        <v>1.29E-2</v>
       </c>
       <c r="D77" s="2">
-        <v>3.7100000000000001E-2</v>
+        <v>1.7899999999999999E-2</v>
       </c>
       <c r="E77" s="2">
-        <v>0.378</v>
+        <v>0.1855</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.5">
@@ -7838,137 +7815,17 @@
         <v>52</v>
       </c>
       <c r="C78" s="2">
-        <v>3.5400000000000001E-2</v>
+        <v>2.1299999999999999E-2</v>
       </c>
       <c r="D78" s="2">
-        <v>3.4099999999999998E-2</v>
+        <v>1.8499999999999999E-2</v>
       </c>
       <c r="E78" s="2">
-        <v>0.89500000000000002</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" ht="15" x14ac:dyDescent="0.5">
-      <c r="A80" s="34" t="s">
-        <v>230</v>
-      </c>
-      <c r="B80" s="88"/>
-      <c r="C80" s="88"/>
-      <c r="D80" s="88"/>
-      <c r="E80" s="88"/>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A81" s="71" t="s">
-        <v>233</v>
-      </c>
-      <c r="B81" s="72"/>
-      <c r="C81" s="72"/>
-      <c r="D81" s="72"/>
-      <c r="E81" s="72"/>
-      <c r="F81" s="45" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A82" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B82" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C82" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="D82" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="E82" s="10" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A83" s="57" t="s">
-        <v>21</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C83" s="4">
-        <v>0.70660000000000001</v>
-      </c>
-      <c r="D83" s="4">
-        <v>0.70409999999999995</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A84" s="58"/>
-      <c r="B84" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C84" s="4">
-        <v>0.67779999999999996</v>
-      </c>
-      <c r="D84" s="4">
-        <v>0.66239999999999999</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A85" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C85" s="4">
-        <v>0.71220000000000006</v>
-      </c>
-      <c r="D85" s="4">
-        <v>0.69120000000000004</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A86" s="58"/>
-      <c r="B86" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C86" s="4">
-        <v>0.72009999999999996</v>
-      </c>
-      <c r="D86" s="4">
-        <v>0.7077</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A87" s="57" t="s">
-        <v>23</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C87" s="4">
-        <v>0.71189999999999998</v>
-      </c>
-      <c r="D87" s="4">
-        <v>0.72230000000000005</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A88" s="58"/>
-      <c r="B88" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C88" s="4">
-        <v>0.66139999999999999</v>
-      </c>
-      <c r="D88" s="4">
-        <v>0.65259999999999996</v>
+        <v>0.2311</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="48">
-    <mergeCell ref="A81:E81"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="A87:A88"/>
+  <mergeCells count="44">
     <mergeCell ref="A73:A74"/>
     <mergeCell ref="A75:A76"/>
     <mergeCell ref="A77:A78"/>
@@ -7988,12 +7845,6 @@
     <mergeCell ref="F62:F63"/>
     <mergeCell ref="F64:F65"/>
     <mergeCell ref="F66:F67"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="F55:F56"/>
     <mergeCell ref="A60:F60"/>
     <mergeCell ref="A62:A63"/>
     <mergeCell ref="A64:A65"/>
@@ -8001,6 +7852,12 @@
     <mergeCell ref="A53:A54"/>
     <mergeCell ref="A55:A56"/>
     <mergeCell ref="A57:A58"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="F55:F56"/>
     <mergeCell ref="A51:F51"/>
     <mergeCell ref="A45:A46"/>
     <mergeCell ref="A47:A48"/>
@@ -8042,13 +7899,13 @@
         <v>34</v>
       </c>
       <c r="B1" s="46" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C1" s="46" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D1" s="46" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="27.9" x14ac:dyDescent="0.55000000000000004">
@@ -8056,49 +7913,49 @@
         <v>21</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C2" s="47" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D2" s="49" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="27.9" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="87"/>
       <c r="B3" s="46" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C3" s="47" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14.7" x14ac:dyDescent="0.6">
       <c r="A4" s="87"/>
       <c r="B4" s="48" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C4" s="47" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="27.9" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="87"/>
       <c r="B5" s="46" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C5" s="47" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.7" x14ac:dyDescent="0.6">
       <c r="A6" s="87"/>
       <c r="B6" s="46" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C6" s="47" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="27.9" x14ac:dyDescent="0.55000000000000004">
@@ -8106,55 +7963,55 @@
         <v>22</v>
       </c>
       <c r="B7" s="46" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C7" s="47" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D7" s="49" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="87"/>
       <c r="B8" s="46" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C8" s="47" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="28.2" x14ac:dyDescent="0.6">
       <c r="A9" s="87"/>
       <c r="B9" s="46" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C9" s="47" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.3" x14ac:dyDescent="0.6">
       <c r="A10" s="87"/>
       <c r="B10" s="48" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C10" s="47" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D10" s="49" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="41.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="87"/>
       <c r="B11" s="46" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C11" s="47" t="s">
+        <v>220</v>
+      </c>
+      <c r="D11" s="49" t="s">
         <v>221</v>
-      </c>
-      <c r="D11" s="49" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="27.9" x14ac:dyDescent="0.55000000000000004">
@@ -8162,52 +8019,52 @@
         <v>23</v>
       </c>
       <c r="B12" s="46" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C12" s="47" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D12" s="49" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="27.9" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="87"/>
       <c r="B13" s="46" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C13" s="47" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D13" s="49" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="42" x14ac:dyDescent="0.6">
       <c r="A14" s="87"/>
       <c r="B14" s="48" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C14" s="47" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="87"/>
       <c r="B15" s="48" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C15" s="47" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="28.2" x14ac:dyDescent="0.6">
       <c r="A16" s="87"/>
       <c r="B16" s="48" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C16" s="47" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>

--- a/dataAnalysis.xlsx
+++ b/dataAnalysis.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\botImpact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D383A6-40CB-4732-BA8B-49472A77A9BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D41C04CA-18A1-43DE-8AEE-0584FB16BC98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="18192" windowHeight="11592" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="18192" windowHeight="11592" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ModelFreeEvidence" sheetId="1" r:id="rId1"/>
     <sheet name="Synthetic" sheetId="3" r:id="rId2"/>
     <sheet name="Sentiment" sheetId="2" r:id="rId3"/>
-    <sheet name="example" sheetId="4" r:id="rId4"/>
+    <sheet name="TweetExample" sheetId="4" r:id="rId4"/>
+    <sheet name="Targeting" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="242">
   <si>
     <t>Node Degree</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3136,6 +3137,230 @@
   </si>
   <si>
     <t>Retweeted/Post: Measuring the Content Efficiency</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>换</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Human</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>实际的-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>profit</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>换</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Human</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>实际的-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>profit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Adv</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>profit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Adv</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Optimal Decision</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Using Human Influencer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Using Bot Influencer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Decision Suggest by Naïve Approach but not by AdvG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total Profit: Case Study in Climate Discussion Network</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Y</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+20</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">500      </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> X</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3143,11 +3368,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="176" formatCode="0.0000_ "/>
     <numFmt numFmtId="177" formatCode="0.0000_);[Red]\(0.0000\)"/>
+    <numFmt numFmtId="178" formatCode="0.000_ ;[Red]\-0.000\ "/>
+    <numFmt numFmtId="179" formatCode="0.00_ ;[Red]\-0.00\ "/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3331,8 +3558,40 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="1"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3374,6 +3633,26 @@
         <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightUp">
+        <bgColor theme="5" tint="0.79995117038483843"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightUp"/>
     </fill>
   </fills>
   <borders count="8">
@@ -3477,7 +3756,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3598,12 +3877,60 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3613,43 +3940,25 @@
     <xf numFmtId="176" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3661,10 +3970,22 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3682,34 +4003,76 @@
     <xf numFmtId="177" fontId="4" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3720,8 +4083,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFEF5F0"/>
+      <color rgb="FFC5F2F1"/>
       <color rgb="FFE7F5F5"/>
-      <color rgb="FFC5F2F1"/>
       <color rgb="FF0000FF"/>
       <color rgb="FFCC0000"/>
       <color rgb="FFEAFAFA"/>
@@ -4020,38 +4384,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="62"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="64"/>
       <c r="D1" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="52" t="s">
+      <c r="E1" s="68" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="54"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="70"/>
       <c r="J1" s="19" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="65"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="67"/>
       <c r="D2" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="55" t="s">
+      <c r="E2" s="59" t="s">
         <v>77</v>
       </c>
-      <c r="F2" s="56"/>
+      <c r="F2" s="60"/>
       <c r="G2" s="3" t="s">
         <v>30</v>
       </c>
@@ -4075,7 +4439,7 @@
       <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="57" t="s">
+      <c r="E3" s="55" t="s">
         <v>21</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -4084,10 +4448,10 @@
       <c r="G3" s="18">
         <v>0.60419999999999996</v>
       </c>
-      <c r="H3" s="50">
+      <c r="H3" s="57">
         <v>1.4500999999999999</v>
       </c>
-      <c r="I3" s="50">
+      <c r="I3" s="57">
         <v>0.14699999999999999</v>
       </c>
       <c r="J3" s="19" t="s">
@@ -4107,15 +4471,15 @@
       <c r="D4" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="58"/>
+      <c r="E4" s="56"/>
       <c r="F4" s="2" t="s">
         <v>79</v>
       </c>
       <c r="G4" s="2">
         <v>0.59640000000000004</v>
       </c>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
       <c r="J4" s="19" t="s">
         <v>91</v>
       </c>
@@ -4133,7 +4497,7 @@
       <c r="D5" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="57" t="s">
+      <c r="E5" s="55" t="s">
         <v>22</v>
       </c>
       <c r="F5" s="2" t="s">
@@ -4142,31 +4506,31 @@
       <c r="G5" s="18">
         <v>0.58009999999999995</v>
       </c>
-      <c r="H5" s="50">
+      <c r="H5" s="57">
         <v>-0.46650000000000003</v>
       </c>
-      <c r="I5" s="50">
+      <c r="I5" s="57">
         <v>0.64090000000000003</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="65"/>
-      <c r="E6" s="58"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="67"/>
+      <c r="E6" s="56"/>
       <c r="F6" s="2" t="s">
         <v>79</v>
       </c>
       <c r="G6" s="2">
         <v>0.58389999999999997</v>
       </c>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A7" s="59" t="s">
+      <c r="A7" s="61" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -4175,7 +4539,7 @@
       <c r="C7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="57" t="s">
+      <c r="E7" s="55" t="s">
         <v>23</v>
       </c>
       <c r="F7" s="2" t="s">
@@ -4184,36 +4548,36 @@
       <c r="G7" s="18">
         <v>0.5393</v>
       </c>
-      <c r="H7" s="50">
+      <c r="H7" s="57">
         <v>-1.7504</v>
       </c>
-      <c r="I7" s="50">
+      <c r="I7" s="57">
         <v>8.0100000000000005E-2</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A8" s="58"/>
+      <c r="A8" s="56"/>
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="58"/>
+      <c r="E8" s="56"/>
       <c r="F8" s="2" t="s">
         <v>79</v>
       </c>
       <c r="G8" s="2">
         <v>0.55649999999999999</v>
       </c>
-      <c r="H8" s="51"/>
-      <c r="I8" s="51"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="E9" s="55" t="s">
+      <c r="E9" s="59" t="s">
         <v>75</v>
       </c>
-      <c r="F9" s="56"/>
+      <c r="F9" s="60"/>
       <c r="G9" s="3" t="s">
         <v>25</v>
       </c>
@@ -4225,12 +4589,12 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A10" s="60" t="s">
+      <c r="A10" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="61"/>
-      <c r="C10" s="62"/>
-      <c r="E10" s="57" t="s">
+      <c r="B10" s="63"/>
+      <c r="C10" s="64"/>
+      <c r="E10" s="55" t="s">
         <v>21</v>
       </c>
       <c r="F10" s="2" t="s">
@@ -4239,10 +4603,10 @@
       <c r="G10" s="17">
         <v>0.82099999999999995</v>
       </c>
-      <c r="H10" s="50">
+      <c r="H10" s="57">
         <v>23.857700000000001</v>
       </c>
-      <c r="I10" s="50" t="s">
+      <c r="I10" s="57" t="s">
         <v>26</v>
       </c>
       <c r="J10" s="19" t="s">
@@ -4250,20 +4614,20 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A11" s="63" t="s">
+      <c r="A11" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="64"/>
-      <c r="C11" s="65"/>
-      <c r="E11" s="58"/>
+      <c r="B11" s="66"/>
+      <c r="C11" s="67"/>
+      <c r="E11" s="56"/>
       <c r="F11" s="2" t="s">
         <v>79</v>
       </c>
       <c r="G11" s="2">
         <v>0.74229999999999996</v>
       </c>
-      <c r="H11" s="51"/>
-      <c r="I11" s="51"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="58"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A12" s="1" t="s">
@@ -4275,7 +4639,7 @@
       <c r="C12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="57" t="s">
+      <c r="E12" s="55" t="s">
         <v>22</v>
       </c>
       <c r="F12" s="2" t="s">
@@ -4284,10 +4648,10 @@
       <c r="G12" s="17">
         <v>0.83950000000000002</v>
       </c>
-      <c r="H12" s="50">
+      <c r="H12" s="57">
         <v>20.513400000000001</v>
       </c>
-      <c r="I12" s="50" t="s">
+      <c r="I12" s="57" t="s">
         <v>27</v>
       </c>
     </row>
@@ -4301,15 +4665,15 @@
       <c r="C13" s="2">
         <v>5.0496999999999996</v>
       </c>
-      <c r="E13" s="58"/>
+      <c r="E13" s="56"/>
       <c r="F13" s="2" t="s">
         <v>79</v>
       </c>
       <c r="G13" s="2">
         <v>0.73529999999999995</v>
       </c>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A14" s="2" t="s">
@@ -4321,7 +4685,7 @@
       <c r="C14" s="2">
         <v>5.5609000000000002</v>
       </c>
-      <c r="E14" s="57" t="s">
+      <c r="E14" s="55" t="s">
         <v>23</v>
       </c>
       <c r="F14" s="2" t="s">
@@ -4330,31 +4694,31 @@
       <c r="G14" s="17">
         <v>0.78539999999999999</v>
       </c>
-      <c r="H14" s="50">
+      <c r="H14" s="57">
         <v>16.601400000000002</v>
       </c>
-      <c r="I14" s="50" t="s">
+      <c r="I14" s="57" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A15" s="63" t="s">
+      <c r="A15" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="64"/>
-      <c r="C15" s="65"/>
-      <c r="E15" s="58"/>
+      <c r="B15" s="66"/>
+      <c r="C15" s="67"/>
+      <c r="E15" s="56"/>
       <c r="F15" s="2" t="s">
         <v>79</v>
       </c>
       <c r="G15" s="2">
         <v>0.67610000000000003</v>
       </c>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="58"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A16" s="59" t="s">
+      <c r="A16" s="61" t="s">
         <v>7</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -4368,7 +4732,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A17" s="58"/>
+      <c r="A17" s="56"/>
       <c r="B17" s="2" t="s">
         <v>13</v>
       </c>
@@ -4380,27 +4744,27 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="E18" s="52" t="s">
+      <c r="E18" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="53"/>
-      <c r="G18" s="53"/>
-      <c r="H18" s="53"/>
-      <c r="I18" s="54"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="69"/>
+      <c r="H18" s="69"/>
+      <c r="I18" s="70"/>
       <c r="J18" s="16" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A19" s="60" t="s">
+      <c r="A19" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="61"/>
-      <c r="C19" s="62"/>
-      <c r="E19" s="55" t="s">
+      <c r="B19" s="63"/>
+      <c r="C19" s="64"/>
+      <c r="E19" s="59" t="s">
         <v>74</v>
       </c>
-      <c r="F19" s="56"/>
+      <c r="F19" s="60"/>
       <c r="G19" s="3" t="s">
         <v>30</v>
       </c>
@@ -4412,12 +4776,12 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A20" s="63" t="s">
+      <c r="A20" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="64"/>
-      <c r="C20" s="65"/>
-      <c r="E20" s="57" t="s">
+      <c r="B20" s="66"/>
+      <c r="C20" s="67"/>
+      <c r="E20" s="55" t="s">
         <v>21</v>
       </c>
       <c r="F20" s="2" t="s">
@@ -4426,10 +4790,10 @@
       <c r="G20" s="18">
         <v>0.60419999999999996</v>
       </c>
-      <c r="H20" s="50">
+      <c r="H20" s="57">
         <v>6.7031000000000001</v>
       </c>
-      <c r="I20" s="50" t="s">
+      <c r="I20" s="57" t="s">
         <v>24</v>
       </c>
       <c r="J20" s="19" t="s">
@@ -4446,15 +4810,15 @@
       <c r="C21" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="58"/>
+      <c r="E21" s="56"/>
       <c r="F21" s="2" t="s">
         <v>71</v>
       </c>
       <c r="G21" s="2">
         <v>0.56520000000000004</v>
       </c>
-      <c r="H21" s="51"/>
-      <c r="I21" s="51"/>
+      <c r="H21" s="58"/>
+      <c r="I21" s="58"/>
       <c r="J21" s="16" t="s">
         <v>85</v>
       </c>
@@ -4469,7 +4833,7 @@
       <c r="C22" s="2">
         <v>6.4598000000000004</v>
       </c>
-      <c r="E22" s="57" t="s">
+      <c r="E22" s="55" t="s">
         <v>22</v>
       </c>
       <c r="F22" s="2" t="s">
@@ -4478,10 +4842,10 @@
       <c r="G22" s="18">
         <v>0.58009999999999995</v>
       </c>
-      <c r="H22" s="50">
+      <c r="H22" s="57">
         <v>2.8894000000000002</v>
       </c>
-      <c r="I22" s="50">
+      <c r="I22" s="57">
         <v>3.8999999999999998E-3</v>
       </c>
     </row>
@@ -4495,23 +4859,23 @@
       <c r="C23" s="2">
         <v>5.1597</v>
       </c>
-      <c r="E23" s="58"/>
+      <c r="E23" s="56"/>
       <c r="F23" s="2" t="s">
         <v>71</v>
       </c>
       <c r="G23" s="2">
         <v>0.5534</v>
       </c>
-      <c r="H23" s="51"/>
-      <c r="I23" s="51"/>
+      <c r="H23" s="58"/>
+      <c r="I23" s="58"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A24" s="63" t="s">
+      <c r="A24" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="64"/>
-      <c r="C24" s="65"/>
-      <c r="E24" s="57" t="s">
+      <c r="B24" s="66"/>
+      <c r="C24" s="67"/>
+      <c r="E24" s="55" t="s">
         <v>23</v>
       </c>
       <c r="F24" s="2" t="s">
@@ -4520,10 +4884,10 @@
       <c r="G24" s="18">
         <v>0.5393</v>
       </c>
-      <c r="H24" s="50">
+      <c r="H24" s="57">
         <v>1.6584000000000001</v>
       </c>
-      <c r="I24" s="50">
+      <c r="I24" s="57">
         <v>9.7299999999999998E-2</v>
       </c>
       <c r="J24" s="19" t="s">
@@ -4531,7 +4895,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A25" s="59" t="s">
+      <c r="A25" s="61" t="s">
         <v>7</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -4540,28 +4904,28 @@
       <c r="C25" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E25" s="58"/>
+      <c r="E25" s="56"/>
       <c r="F25" s="2" t="s">
         <v>71</v>
       </c>
       <c r="G25" s="2">
         <v>0.52139999999999997</v>
       </c>
-      <c r="H25" s="51"/>
-      <c r="I25" s="51"/>
+      <c r="H25" s="58"/>
+      <c r="I25" s="58"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A26" s="58"/>
+      <c r="A26" s="56"/>
       <c r="B26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E26" s="55" t="s">
+      <c r="E26" s="59" t="s">
         <v>73</v>
       </c>
-      <c r="F26" s="56"/>
+      <c r="F26" s="60"/>
       <c r="G26" s="3" t="s">
         <v>25</v>
       </c>
@@ -4573,7 +4937,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="E27" s="57" t="s">
+      <c r="E27" s="55" t="s">
         <v>21</v>
       </c>
       <c r="F27" s="2" t="s">
@@ -4582,10 +4946,10 @@
       <c r="G27" s="17">
         <v>0.82099999999999995</v>
       </c>
-      <c r="H27" s="50">
+      <c r="H27" s="57">
         <v>33.133299999999998</v>
       </c>
-      <c r="I27" s="50" t="s">
+      <c r="I27" s="57" t="s">
         <v>81</v>
       </c>
       <c r="J27" s="19" t="s">
@@ -4593,21 +4957,21 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="E28" s="58"/>
+      <c r="E28" s="56"/>
       <c r="F28" s="2" t="s">
         <v>71</v>
       </c>
       <c r="G28" s="2">
         <v>0.70599999999999996</v>
       </c>
-      <c r="H28" s="51"/>
-      <c r="I28" s="51"/>
+      <c r="H28" s="58"/>
+      <c r="I28" s="58"/>
       <c r="J28" s="19" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="E29" s="57" t="s">
+      <c r="E29" s="55" t="s">
         <v>22</v>
       </c>
       <c r="F29" s="2" t="s">
@@ -4616,26 +4980,26 @@
       <c r="G29" s="17">
         <v>0.83950000000000002</v>
       </c>
-      <c r="H29" s="50">
+      <c r="H29" s="57">
         <v>24.9849</v>
       </c>
-      <c r="I29" s="50" t="s">
+      <c r="I29" s="57" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="E30" s="58"/>
+      <c r="E30" s="56"/>
       <c r="F30" s="2" t="s">
         <v>71</v>
       </c>
       <c r="G30" s="2">
         <v>0.70609999999999995</v>
       </c>
-      <c r="H30" s="51"/>
-      <c r="I30" s="51"/>
+      <c r="H30" s="58"/>
+      <c r="I30" s="58"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="E31" s="57" t="s">
+      <c r="E31" s="55" t="s">
         <v>23</v>
       </c>
       <c r="F31" s="2" t="s">
@@ -4644,23 +5008,23 @@
       <c r="G31" s="17">
         <v>0.78539999999999999</v>
       </c>
-      <c r="H31" s="50">
+      <c r="H31" s="57">
         <v>21.385400000000001</v>
       </c>
-      <c r="I31" s="50" t="s">
+      <c r="I31" s="57" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="E32" s="58"/>
+      <c r="E32" s="56"/>
       <c r="F32" s="2" t="s">
         <v>71</v>
       </c>
       <c r="G32" s="2">
         <v>0.63849999999999996</v>
       </c>
-      <c r="H32" s="51"/>
-      <c r="I32" s="51"/>
+      <c r="H32" s="58"/>
+      <c r="I32" s="58"/>
     </row>
     <row r="33" spans="5:5" x14ac:dyDescent="0.5">
       <c r="E33" s="16" t="s">
@@ -4669,34 +5033,16 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="E12:E13"/>
     <mergeCell ref="H20:H21"/>
     <mergeCell ref="I20:I21"/>
     <mergeCell ref="E7:E8"/>
@@ -4713,16 +5059,34 @@
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E20:E21"/>
     <mergeCell ref="E10:E11"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="E1:I1"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="I29:I30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4748,26 +5112,26 @@
       <c r="A1" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="72" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66" t="s">
+      <c r="C1" s="72"/>
+      <c r="D1" s="72" t="s">
         <v>94</v>
       </c>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66" t="s">
+      <c r="E1" s="72"/>
+      <c r="F1" s="72" t="s">
         <v>95</v>
       </c>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66" t="s">
+      <c r="G1" s="72"/>
+      <c r="H1" s="72" t="s">
         <v>96</v>
       </c>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66" t="s">
+      <c r="I1" s="72"/>
+      <c r="J1" s="72" t="s">
         <v>97</v>
       </c>
-      <c r="K1" s="66"/>
+      <c r="K1" s="72"/>
       <c r="L1" s="20" t="s">
         <v>108</v>
       </c>
@@ -5358,15 +5722,15 @@
       <c r="A21" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="B21" s="67" t="s">
+      <c r="B21" s="71" t="s">
         <v>93</v>
       </c>
-      <c r="C21" s="67"/>
-      <c r="D21" s="67"/>
-      <c r="E21" s="67"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="67"/>
-      <c r="H21" s="67"/>
+      <c r="C21" s="71"/>
+      <c r="D21" s="71"/>
+      <c r="E21" s="71"/>
+      <c r="F21" s="71"/>
+      <c r="G21" s="71"/>
+      <c r="H21" s="71"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A22" s="20" t="s">
@@ -5544,15 +5908,15 @@
       <c r="A29" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="B29" s="66" t="s">
+      <c r="B29" s="72" t="s">
         <v>95</v>
       </c>
-      <c r="C29" s="66"/>
-      <c r="D29" s="66"/>
-      <c r="E29" s="66"/>
-      <c r="F29" s="66"/>
-      <c r="G29" s="66"/>
-      <c r="H29" s="66"/>
+      <c r="C29" s="72"/>
+      <c r="D29" s="72"/>
+      <c r="E29" s="72"/>
+      <c r="F29" s="72"/>
+      <c r="G29" s="72"/>
+      <c r="H29" s="72"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A30" s="20" t="s">
@@ -5727,14 +6091,14 @@
       <c r="A38" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="B38" s="67" t="s">
+      <c r="B38" s="71" t="s">
         <v>93</v>
       </c>
-      <c r="C38" s="67"/>
-      <c r="D38" s="67"/>
-      <c r="E38" s="67"/>
-      <c r="F38" s="67"/>
-      <c r="G38" s="67"/>
+      <c r="C38" s="71"/>
+      <c r="D38" s="71"/>
+      <c r="E38" s="71"/>
+      <c r="F38" s="71"/>
+      <c r="G38" s="71"/>
       <c r="H38" s="30"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.5">
@@ -5887,14 +6251,14 @@
       <c r="A46" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="B46" s="67" t="s">
+      <c r="B46" s="71" t="s">
         <v>95</v>
       </c>
-      <c r="C46" s="67"/>
-      <c r="D46" s="67"/>
-      <c r="E46" s="67"/>
-      <c r="F46" s="67"/>
-      <c r="G46" s="67"/>
+      <c r="C46" s="71"/>
+      <c r="D46" s="71"/>
+      <c r="E46" s="71"/>
+      <c r="F46" s="71"/>
+      <c r="G46" s="71"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A47" s="20" t="s">
@@ -6051,13 +6415,13 @@
       <c r="A55" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="B55" s="67" t="s">
+      <c r="B55" s="71" t="s">
         <v>93</v>
       </c>
-      <c r="C55" s="67"/>
-      <c r="D55" s="67"/>
-      <c r="E55" s="67"/>
-      <c r="F55" s="67"/>
+      <c r="C55" s="71"/>
+      <c r="D55" s="71"/>
+      <c r="E55" s="71"/>
+      <c r="F55" s="71"/>
       <c r="G55" s="31" t="s">
         <v>152</v>
       </c>
@@ -6232,13 +6596,13 @@
       <c r="A65" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="B65" s="67" t="s">
+      <c r="B65" s="71" t="s">
         <v>95</v>
       </c>
-      <c r="C65" s="67"/>
-      <c r="D65" s="67"/>
-      <c r="E65" s="67"/>
-      <c r="F65" s="67"/>
+      <c r="C65" s="71"/>
+      <c r="D65" s="71"/>
+      <c r="E65" s="71"/>
+      <c r="F65" s="71"/>
       <c r="G65" s="30"/>
     </row>
     <row r="66" spans="1:8" ht="14.7" x14ac:dyDescent="0.5">
@@ -6427,14 +6791,14 @@
       <c r="A77" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="B77" s="67" t="s">
+      <c r="B77" s="71" t="s">
         <v>93</v>
       </c>
-      <c r="C77" s="67"/>
-      <c r="D77" s="67"/>
-      <c r="E77" s="67"/>
-      <c r="F77" s="67"/>
-      <c r="G77" s="67"/>
+      <c r="C77" s="71"/>
+      <c r="D77" s="71"/>
+      <c r="E77" s="71"/>
+      <c r="F77" s="71"/>
+      <c r="G77" s="71"/>
       <c r="H77" s="20" t="s">
         <v>123</v>
       </c>
@@ -6515,14 +6879,14 @@
       <c r="A82" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="B82" s="67" t="s">
+      <c r="B82" s="71" t="s">
         <v>95</v>
       </c>
-      <c r="C82" s="67"/>
-      <c r="D82" s="67"/>
-      <c r="E82" s="67"/>
-      <c r="F82" s="67"/>
-      <c r="G82" s="67"/>
+      <c r="C82" s="71"/>
+      <c r="D82" s="71"/>
+      <c r="E82" s="71"/>
+      <c r="F82" s="71"/>
+      <c r="G82" s="71"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A83" s="20" t="s">
@@ -6600,12 +6964,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B77:G77"/>
-    <mergeCell ref="B82:G82"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="B46:G46"/>
-    <mergeCell ref="B55:F55"/>
-    <mergeCell ref="B65:F65"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
@@ -6613,6 +6971,12 @@
     <mergeCell ref="B38:G38"/>
     <mergeCell ref="B29:H29"/>
     <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B77:G77"/>
+    <mergeCell ref="B82:G82"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="B46:G46"/>
+    <mergeCell ref="B55:F55"/>
+    <mergeCell ref="B65:F65"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6624,8 +6988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2687A086-E6AD-4DC9-8E6D-5E9AEFD1DED8}">
   <dimension ref="A1:J78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="E79" sqref="E79"/>
+    <sheetView topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="F77" sqref="F77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -6639,12 +7003,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="78" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="70"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="80"/>
       <c r="E1" s="5" t="s">
         <v>170</v>
       </c>
@@ -6667,7 +7031,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="55" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -6681,7 +7045,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="58"/>
+      <c r="A4" s="56"/>
       <c r="B4" s="4" t="s">
         <v>52</v>
       </c>
@@ -6693,7 +7057,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A5" s="57" t="s">
+      <c r="A5" s="55" t="s">
         <v>22</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -6707,7 +7071,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="58"/>
+      <c r="A6" s="56"/>
       <c r="B6" s="4" t="s">
         <v>52</v>
       </c>
@@ -6719,7 +7083,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A7" s="57" t="s">
+      <c r="A7" s="55" t="s">
         <v>23</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -6733,7 +7097,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="58"/>
+      <c r="A8" s="56"/>
       <c r="B8" s="4" t="s">
         <v>52</v>
       </c>
@@ -6753,13 +7117,13 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="68" t="s">
+      <c r="A11" s="78" t="s">
         <v>174</v>
       </c>
-      <c r="B11" s="69"/>
-      <c r="C11" s="69"/>
-      <c r="D11" s="69"/>
-      <c r="E11" s="70"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="80"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
@@ -6780,7 +7144,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A13" s="80" t="s">
+      <c r="A13" s="75" t="s">
         <v>51</v>
       </c>
       <c r="B13" s="43" t="s">
@@ -6798,7 +7162,7 @@
       <c r="J13" s="33"/>
     </row>
     <row r="14" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="81"/>
+      <c r="A14" s="76"/>
       <c r="B14" s="43" t="s">
         <v>22</v>
       </c>
@@ -6814,7 +7178,7 @@
       <c r="J14" s="33"/>
     </row>
     <row r="15" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A15" s="82"/>
+      <c r="A15" s="77"/>
       <c r="B15" s="43" t="s">
         <v>23</v>
       </c>
@@ -6829,7 +7193,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="80" t="s">
+      <c r="A16" s="75" t="s">
         <v>52</v>
       </c>
       <c r="B16" s="43" t="s">
@@ -6847,7 +7211,7 @@
       <c r="J16" s="6"/>
     </row>
     <row r="17" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A17" s="81"/>
+      <c r="A17" s="76"/>
       <c r="B17" s="43" t="s">
         <v>22</v>
       </c>
@@ -6862,7 +7226,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="82"/>
+      <c r="A18" s="77"/>
       <c r="B18" s="43" t="s">
         <v>23</v>
       </c>
@@ -6887,13 +7251,13 @@
       <c r="G20" s="33"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A21" s="68" t="s">
+      <c r="A21" s="78" t="s">
         <v>180</v>
       </c>
-      <c r="B21" s="69"/>
-      <c r="C21" s="69"/>
-      <c r="D21" s="69"/>
-      <c r="E21" s="70"/>
+      <c r="B21" s="79"/>
+      <c r="C21" s="79"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="80"/>
       <c r="G21" s="33"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.5">
@@ -6915,7 +7279,7 @@
       <c r="G22" s="33"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A23" s="80" t="s">
+      <c r="A23" s="75" t="s">
         <v>51</v>
       </c>
       <c r="B23" s="43" t="s">
@@ -6932,7 +7296,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A24" s="81"/>
+      <c r="A24" s="76"/>
       <c r="B24" s="43" t="s">
         <v>22</v>
       </c>
@@ -6947,7 +7311,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A25" s="82"/>
+      <c r="A25" s="77"/>
       <c r="B25" s="43" t="s">
         <v>23</v>
       </c>
@@ -6962,7 +7326,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A26" s="80" t="s">
+      <c r="A26" s="75" t="s">
         <v>52</v>
       </c>
       <c r="B26" s="43" t="s">
@@ -6979,7 +7343,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A27" s="81"/>
+      <c r="A27" s="76"/>
       <c r="B27" s="43" t="s">
         <v>22</v>
       </c>
@@ -6994,7 +7358,7 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A28" s="82"/>
+      <c r="A28" s="77"/>
       <c r="B28" s="43" t="s">
         <v>23</v>
       </c>
@@ -7027,14 +7391,14 @@
       </c>
     </row>
     <row r="32" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="71" t="s">
+      <c r="A32" s="73" t="s">
         <v>49</v>
       </c>
-      <c r="B32" s="72"/>
-      <c r="C32" s="72"/>
-      <c r="D32" s="72"/>
-      <c r="E32" s="72"/>
-      <c r="F32" s="73"/>
+      <c r="B32" s="74"/>
+      <c r="C32" s="74"/>
+      <c r="D32" s="74"/>
+      <c r="E32" s="74"/>
+      <c r="F32" s="87"/>
       <c r="G32" s="14" t="s">
         <v>67</v>
       </c>
@@ -7063,7 +7427,7 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A34" s="57" t="s">
+      <c r="A34" s="55" t="s">
         <v>21</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -7087,7 +7451,7 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A35" s="58"/>
+      <c r="A35" s="56"/>
       <c r="B35" s="2" t="s">
         <v>47</v>
       </c>
@@ -7110,7 +7474,7 @@
       </c>
     </row>
     <row r="36" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A36" s="57" t="s">
+      <c r="A36" s="55" t="s">
         <v>22</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -7134,7 +7498,7 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A37" s="58"/>
+      <c r="A37" s="56"/>
       <c r="B37" s="2" t="s">
         <v>47</v>
       </c>
@@ -7157,7 +7521,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A38" s="57" t="s">
+      <c r="A38" s="55" t="s">
         <v>23</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -7178,7 +7542,7 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A39" s="58"/>
+      <c r="A39" s="56"/>
       <c r="B39" s="2" t="s">
         <v>47</v>
       </c>
@@ -7211,14 +7575,14 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A41" s="60" t="s">
+      <c r="A41" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="B41" s="61"/>
-      <c r="C41" s="61"/>
-      <c r="D41" s="61"/>
-      <c r="E41" s="61"/>
-      <c r="F41" s="62"/>
+      <c r="B41" s="63"/>
+      <c r="C41" s="63"/>
+      <c r="D41" s="63"/>
+      <c r="E41" s="63"/>
+      <c r="F41" s="64"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A42" s="40" t="s">
@@ -7241,7 +7605,7 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A43" s="57" t="s">
+      <c r="A43" s="55" t="s">
         <v>21</v>
       </c>
       <c r="B43" s="2" t="s">
@@ -7264,7 +7628,7 @@
       <c r="H43" s="5"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A44" s="58"/>
+      <c r="A44" s="56"/>
       <c r="B44" s="2" t="s">
         <v>47</v>
       </c>
@@ -7288,7 +7652,7 @@
       <c r="H44" s="5"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A45" s="57" t="s">
+      <c r="A45" s="55" t="s">
         <v>22</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -7309,7 +7673,7 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A46" s="58"/>
+      <c r="A46" s="56"/>
       <c r="B46" s="2" t="s">
         <v>47</v>
       </c>
@@ -7332,7 +7696,7 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A47" s="57" t="s">
+      <c r="A47" s="55" t="s">
         <v>23</v>
       </c>
       <c r="B47" s="2" t="s">
@@ -7353,7 +7717,7 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A48" s="58"/>
+      <c r="A48" s="56"/>
       <c r="B48" s="2" t="s">
         <v>47</v>
       </c>
@@ -7381,20 +7745,20 @@
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A51" s="68" t="s">
+      <c r="A51" s="78" t="s">
         <v>60</v>
       </c>
-      <c r="B51" s="69"/>
-      <c r="C51" s="69"/>
-      <c r="D51" s="69"/>
-      <c r="E51" s="69"/>
-      <c r="F51" s="70"/>
+      <c r="B51" s="79"/>
+      <c r="C51" s="79"/>
+      <c r="D51" s="79"/>
+      <c r="E51" s="79"/>
+      <c r="F51" s="80"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A52" s="83" t="s">
+      <c r="A52" s="81" t="s">
         <v>64</v>
       </c>
-      <c r="B52" s="84"/>
+      <c r="B52" s="82"/>
       <c r="C52" s="10" t="s">
         <v>58</v>
       </c>
@@ -7409,7 +7773,7 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A53" s="74" t="s">
+      <c r="A53" s="88" t="s">
         <v>21</v>
       </c>
       <c r="B53" s="11" t="s">
@@ -7418,36 +7782,36 @@
       <c r="C53" s="41">
         <v>0.92610000000000003</v>
       </c>
-      <c r="D53" s="78">
+      <c r="D53" s="85">
         <f>C53-C54</f>
         <v>4.8399999999999999E-2</v>
       </c>
       <c r="E53" s="41">
         <v>0.9355</v>
       </c>
-      <c r="F53" s="78">
+      <c r="F53" s="85">
         <f>E53-E54</f>
         <v>3.3599999999999963E-2</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A54" s="75"/>
+      <c r="A54" s="89"/>
       <c r="B54" s="11" t="s">
         <v>62</v>
       </c>
       <c r="C54" s="41">
         <v>0.87770000000000004</v>
       </c>
-      <c r="D54" s="79"/>
+      <c r="D54" s="86"/>
       <c r="E54" s="41">
         <v>0.90190000000000003</v>
       </c>
-      <c r="F54" s="79"/>
+      <c r="F54" s="86"/>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A55" s="76" t="s">
+      <c r="A55" s="90" t="s">
         <v>22</v>
       </c>
       <c r="B55" s="13" t="s">
@@ -7456,14 +7820,14 @@
       <c r="C55" s="42">
         <v>0.83179999999999998</v>
       </c>
-      <c r="D55" s="78">
+      <c r="D55" s="85">
         <f t="shared" ref="D55:F55" si="2">C55-C56</f>
         <v>4.4300000000000006E-2</v>
       </c>
       <c r="E55" s="42">
         <v>0.86299999999999999</v>
       </c>
-      <c r="F55" s="78">
+      <c r="F55" s="85">
         <f t="shared" si="2"/>
         <v>1.6000000000000014E-2</v>
       </c>
@@ -7471,23 +7835,23 @@
       <c r="H55" s="2"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A56" s="77"/>
+      <c r="A56" s="91"/>
       <c r="B56" s="13" t="s">
         <v>62</v>
       </c>
       <c r="C56" s="42">
         <v>0.78749999999999998</v>
       </c>
-      <c r="D56" s="79"/>
+      <c r="D56" s="86"/>
       <c r="E56" s="42">
         <v>0.84699999999999998</v>
       </c>
-      <c r="F56" s="79"/>
+      <c r="F56" s="86"/>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A57" s="74" t="s">
+      <c r="A57" s="88" t="s">
         <v>23</v>
       </c>
       <c r="B57" s="11" t="s">
@@ -7496,14 +7860,14 @@
       <c r="C57" s="41">
         <v>0.90229999999999999</v>
       </c>
-      <c r="D57" s="78">
+      <c r="D57" s="85">
         <f t="shared" ref="D57:F57" si="3">C57-C58</f>
         <v>2.6000000000000023E-2</v>
       </c>
       <c r="E57" s="41">
         <v>0.91910000000000003</v>
       </c>
-      <c r="F57" s="78">
+      <c r="F57" s="85">
         <f t="shared" si="3"/>
         <v>1.0900000000000021E-2</v>
       </c>
@@ -7511,18 +7875,18 @@
       <c r="H57" s="2"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A58" s="75"/>
+      <c r="A58" s="89"/>
       <c r="B58" s="11" t="s">
         <v>62</v>
       </c>
       <c r="C58" s="41">
         <v>0.87629999999999997</v>
       </c>
-      <c r="D58" s="79"/>
+      <c r="D58" s="86"/>
       <c r="E58" s="41">
         <v>0.90820000000000001</v>
       </c>
-      <c r="F58" s="79"/>
+      <c r="F58" s="86"/>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
     </row>
@@ -7535,22 +7899,22 @@
       <c r="H59" s="2"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A60" s="71" t="s">
+      <c r="A60" s="73" t="s">
         <v>61</v>
       </c>
-      <c r="B60" s="72"/>
-      <c r="C60" s="72"/>
-      <c r="D60" s="72"/>
-      <c r="E60" s="72"/>
-      <c r="F60" s="73"/>
+      <c r="B60" s="74"/>
+      <c r="C60" s="74"/>
+      <c r="D60" s="74"/>
+      <c r="E60" s="74"/>
+      <c r="F60" s="87"/>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A61" s="85" t="s">
+      <c r="A61" s="83" t="s">
         <v>64</v>
       </c>
-      <c r="B61" s="86"/>
+      <c r="B61" s="84"/>
       <c r="C61" s="12" t="s">
         <v>58</v>
       </c>
@@ -7567,7 +7931,7 @@
       <c r="H61" s="2"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A62" s="74" t="s">
+      <c r="A62" s="88" t="s">
         <v>21</v>
       </c>
       <c r="B62" s="11" t="s">
@@ -7576,14 +7940,14 @@
       <c r="C62" s="41">
         <v>0.85699999999999998</v>
       </c>
-      <c r="D62" s="78">
+      <c r="D62" s="85">
         <f>C62-C63</f>
         <v>1.7000000000000015E-2</v>
       </c>
       <c r="E62" s="41">
         <v>0.88139999999999996</v>
       </c>
-      <c r="F62" s="78">
+      <c r="F62" s="85">
         <f>E62-E63</f>
         <v>8.799999999999919E-3</v>
       </c>
@@ -7591,23 +7955,23 @@
       <c r="H62" s="2"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A63" s="75"/>
+      <c r="A63" s="89"/>
       <c r="B63" s="11" t="s">
         <v>62</v>
       </c>
       <c r="C63" s="41">
         <v>0.84</v>
       </c>
-      <c r="D63" s="79"/>
+      <c r="D63" s="86"/>
       <c r="E63" s="41">
         <v>0.87260000000000004</v>
       </c>
-      <c r="F63" s="79"/>
+      <c r="F63" s="86"/>
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A64" s="76" t="s">
+      <c r="A64" s="90" t="s">
         <v>22</v>
       </c>
       <c r="B64" s="13" t="s">
@@ -7616,14 +7980,14 @@
       <c r="C64" s="42">
         <v>0.92249999999999999</v>
       </c>
-      <c r="D64" s="78">
+      <c r="D64" s="85">
         <f t="shared" ref="D64" si="4">C64-C65</f>
         <v>5.9999999999999942E-2</v>
       </c>
       <c r="E64" s="42">
         <v>0.93559999999999999</v>
       </c>
-      <c r="F64" s="78">
+      <c r="F64" s="85">
         <f t="shared" ref="F64" si="5">E64-E65</f>
         <v>4.1100000000000025E-2</v>
       </c>
@@ -7631,23 +7995,23 @@
       <c r="H64" s="2"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A65" s="77"/>
+      <c r="A65" s="91"/>
       <c r="B65" s="13" t="s">
         <v>62</v>
       </c>
       <c r="C65" s="42">
         <v>0.86250000000000004</v>
       </c>
-      <c r="D65" s="79"/>
+      <c r="D65" s="86"/>
       <c r="E65" s="42">
         <v>0.89449999999999996</v>
       </c>
-      <c r="F65" s="79"/>
+      <c r="F65" s="86"/>
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A66" s="74" t="s">
+      <c r="A66" s="88" t="s">
         <v>23</v>
       </c>
       <c r="B66" s="11" t="s">
@@ -7656,14 +8020,14 @@
       <c r="C66" s="41">
         <v>0.87090000000000001</v>
       </c>
-      <c r="D66" s="78">
+      <c r="D66" s="85">
         <f t="shared" ref="D66" si="6">C66-C67</f>
         <v>3.4800000000000053E-2</v>
       </c>
       <c r="E66" s="41">
         <v>0.89049999999999996</v>
       </c>
-      <c r="F66" s="78">
+      <c r="F66" s="85">
         <f t="shared" ref="F66" si="7">E66-E67</f>
         <v>2.739999999999998E-2</v>
       </c>
@@ -7671,18 +8035,18 @@
       <c r="H66" s="2"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A67" s="75"/>
+      <c r="A67" s="89"/>
       <c r="B67" s="11" t="s">
         <v>62</v>
       </c>
       <c r="C67" s="41">
         <v>0.83609999999999995</v>
       </c>
-      <c r="D67" s="79"/>
+      <c r="D67" s="86"/>
       <c r="E67" s="41">
         <v>0.86309999999999998</v>
       </c>
-      <c r="F67" s="79"/>
+      <c r="F67" s="86"/>
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
     </row>
@@ -7697,13 +8061,13 @@
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A71" s="71" t="s">
+      <c r="A71" s="73" t="s">
         <v>229</v>
       </c>
-      <c r="B71" s="72"/>
-      <c r="C71" s="72"/>
-      <c r="D71" s="72"/>
-      <c r="E71" s="72"/>
+      <c r="B71" s="74"/>
+      <c r="C71" s="74"/>
+      <c r="D71" s="74"/>
+      <c r="E71" s="74"/>
       <c r="F71" s="45" t="s">
         <v>189</v>
       </c>
@@ -7729,7 +8093,7 @@
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A73" s="57" t="s">
+      <c r="A73" s="55" t="s">
         <v>21</v>
       </c>
       <c r="B73" s="4" t="s">
@@ -7746,7 +8110,7 @@
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A74" s="58"/>
+      <c r="A74" s="56"/>
       <c r="B74" s="4" t="s">
         <v>52</v>
       </c>
@@ -7761,7 +8125,7 @@
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A75" s="57" t="s">
+      <c r="A75" s="55" t="s">
         <v>22</v>
       </c>
       <c r="B75" s="4" t="s">
@@ -7778,7 +8142,7 @@
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A76" s="58"/>
+      <c r="A76" s="56"/>
       <c r="B76" s="4" t="s">
         <v>52</v>
       </c>
@@ -7793,7 +8157,7 @@
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A77" s="57" t="s">
+      <c r="A77" s="55" t="s">
         <v>23</v>
       </c>
       <c r="B77" s="4" t="s">
@@ -7810,7 +8174,7 @@
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A78" s="58"/>
+      <c r="A78" s="56"/>
       <c r="B78" s="4" t="s">
         <v>52</v>
       </c>
@@ -7826,6 +8190,34 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="A60:F60"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="A66:A67"/>
     <mergeCell ref="A73:A74"/>
     <mergeCell ref="A75:A76"/>
     <mergeCell ref="A77:A78"/>
@@ -7842,34 +8234,6 @@
     <mergeCell ref="D66:D67"/>
     <mergeCell ref="A41:F41"/>
     <mergeCell ref="A43:A44"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="A60:F60"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="A51:F51"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A32:F32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7882,8 +8246,8 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -7909,7 +8273,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="27.9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="92" t="s">
         <v>21</v>
       </c>
       <c r="B2" s="46" t="s">
@@ -7923,7 +8287,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="27.9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="87"/>
+      <c r="A3" s="92"/>
       <c r="B3" s="46" t="s">
         <v>193</v>
       </c>
@@ -7932,7 +8296,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="14.7" x14ac:dyDescent="0.6">
-      <c r="A4" s="87"/>
+      <c r="A4" s="92"/>
       <c r="B4" s="48" t="s">
         <v>194</v>
       </c>
@@ -7941,7 +8305,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="27.9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="87"/>
+      <c r="A5" s="92"/>
       <c r="B5" s="46" t="s">
         <v>195</v>
       </c>
@@ -7950,7 +8314,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.7" x14ac:dyDescent="0.6">
-      <c r="A6" s="87"/>
+      <c r="A6" s="92"/>
       <c r="B6" s="46" t="s">
         <v>196</v>
       </c>
@@ -7959,7 +8323,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="27.9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="87" t="s">
+      <c r="A7" s="92" t="s">
         <v>22</v>
       </c>
       <c r="B7" s="46" t="s">
@@ -7973,7 +8337,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="14.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="87"/>
+      <c r="A8" s="92"/>
       <c r="B8" s="46" t="s">
         <v>197</v>
       </c>
@@ -7982,7 +8346,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="28.2" x14ac:dyDescent="0.6">
-      <c r="A9" s="87"/>
+      <c r="A9" s="92"/>
       <c r="B9" s="46" t="s">
         <v>199</v>
       </c>
@@ -7991,7 +8355,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.3" x14ac:dyDescent="0.6">
-      <c r="A10" s="87"/>
+      <c r="A10" s="92"/>
       <c r="B10" s="48" t="s">
         <v>200</v>
       </c>
@@ -8003,7 +8367,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="41.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="87"/>
+      <c r="A11" s="92"/>
       <c r="B11" s="46" t="s">
         <v>201</v>
       </c>
@@ -8015,7 +8379,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="27.9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="87" t="s">
+      <c r="A12" s="92" t="s">
         <v>23</v>
       </c>
       <c r="B12" s="46" t="s">
@@ -8029,7 +8393,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="27.9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="87"/>
+      <c r="A13" s="92"/>
       <c r="B13" s="46" t="s">
         <v>203</v>
       </c>
@@ -8041,7 +8405,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="42" x14ac:dyDescent="0.6">
-      <c r="A14" s="87"/>
+      <c r="A14" s="92"/>
       <c r="B14" s="48" t="s">
         <v>204</v>
       </c>
@@ -8050,7 +8414,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="14.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="87"/>
+      <c r="A15" s="92"/>
       <c r="B15" s="48" t="s">
         <v>205</v>
       </c>
@@ -8059,7 +8423,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="28.2" x14ac:dyDescent="0.6">
-      <c r="A16" s="87"/>
+      <c r="A16" s="92"/>
       <c r="B16" s="48" t="s">
         <v>206</v>
       </c>
@@ -8076,4 +8440,1351 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9F85180-B75F-41A9-8E4F-C61B20449988}">
+  <dimension ref="A2:L61"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50:E51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="16384" width="8.796875" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.5">
+      <c r="B2" s="51" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.5">
+      <c r="B3" s="50" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.5">
+      <c r="B4" s="4">
+        <v>20</v>
+      </c>
+      <c r="C4" s="52">
+        <f>$B4-0.0368*C11</f>
+        <v>18.16</v>
+      </c>
+      <c r="D4" s="52">
+        <f t="shared" ref="D4:I4" si="0">$B4-0.0368*D11</f>
+        <v>16.32</v>
+      </c>
+      <c r="E4" s="52">
+        <f t="shared" si="0"/>
+        <v>14.48</v>
+      </c>
+      <c r="F4" s="52">
+        <f t="shared" si="0"/>
+        <v>12.64</v>
+      </c>
+      <c r="G4" s="52">
+        <f t="shared" si="0"/>
+        <v>10.8</v>
+      </c>
+      <c r="H4" s="52">
+        <f t="shared" si="0"/>
+        <v>7.120000000000001</v>
+      </c>
+      <c r="I4" s="52">
+        <f t="shared" si="0"/>
+        <v>1.6000000000000014</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.5">
+      <c r="B5" s="4">
+        <v>15</v>
+      </c>
+      <c r="C5" s="52">
+        <f>$B5-0.0368*C11</f>
+        <v>13.16</v>
+      </c>
+      <c r="D5" s="52">
+        <f t="shared" ref="D5:I5" si="1">$B5-0.0368*D11</f>
+        <v>11.32</v>
+      </c>
+      <c r="E5" s="52">
+        <f t="shared" si="1"/>
+        <v>9.48</v>
+      </c>
+      <c r="F5" s="52">
+        <f t="shared" si="1"/>
+        <v>7.6400000000000006</v>
+      </c>
+      <c r="G5" s="52">
+        <f t="shared" si="1"/>
+        <v>5.8000000000000007</v>
+      </c>
+      <c r="H5" s="52">
+        <f t="shared" si="1"/>
+        <v>2.120000000000001</v>
+      </c>
+      <c r="I5" s="52">
+        <f t="shared" si="1"/>
+        <v>-3.3999999999999986</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.5">
+      <c r="B6" s="4">
+        <v>10</v>
+      </c>
+      <c r="C6" s="52">
+        <f>$B6-0.0368*C11</f>
+        <v>8.16</v>
+      </c>
+      <c r="D6" s="52">
+        <f t="shared" ref="D6:H6" si="2">$B6-0.0368*D11</f>
+        <v>6.32</v>
+      </c>
+      <c r="E6" s="52">
+        <f t="shared" si="2"/>
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="F6" s="52">
+        <f t="shared" si="2"/>
+        <v>2.6400000000000006</v>
+      </c>
+      <c r="G6" s="52">
+        <f t="shared" si="2"/>
+        <v>0.80000000000000071</v>
+      </c>
+      <c r="H6" s="52">
+        <f t="shared" si="2"/>
+        <v>-2.879999999999999</v>
+      </c>
+      <c r="I6" s="52">
+        <f>$B6-0.0368*I11</f>
+        <v>-8.3999999999999986</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.5">
+      <c r="B7" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="C7" s="52">
+        <f>$B7-0.0368*C11</f>
+        <v>5.66</v>
+      </c>
+      <c r="D7" s="52">
+        <f t="shared" ref="D7:I7" si="3">$B7-0.0368*D11</f>
+        <v>3.8200000000000003</v>
+      </c>
+      <c r="E7" s="52">
+        <f t="shared" si="3"/>
+        <v>1.9800000000000004</v>
+      </c>
+      <c r="F7" s="52">
+        <f t="shared" si="3"/>
+        <v>0.14000000000000057</v>
+      </c>
+      <c r="G7" s="52">
+        <f t="shared" si="3"/>
+        <v>-1.6999999999999993</v>
+      </c>
+      <c r="H7" s="52">
+        <f t="shared" si="3"/>
+        <v>-5.379999999999999</v>
+      </c>
+      <c r="I7" s="52">
+        <f t="shared" si="3"/>
+        <v>-10.899999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.5">
+      <c r="B8" s="4">
+        <v>5</v>
+      </c>
+      <c r="C8" s="52">
+        <f>$B8-0.0368*C11</f>
+        <v>3.16</v>
+      </c>
+      <c r="D8" s="52">
+        <f t="shared" ref="D8:I8" si="4">$B8-0.0368*D11</f>
+        <v>1.3200000000000003</v>
+      </c>
+      <c r="E8" s="52">
+        <f t="shared" si="4"/>
+        <v>-0.51999999999999957</v>
+      </c>
+      <c r="F8" s="52">
+        <f t="shared" si="4"/>
+        <v>-2.3599999999999994</v>
+      </c>
+      <c r="G8" s="52">
+        <f t="shared" si="4"/>
+        <v>-4.1999999999999993</v>
+      </c>
+      <c r="H8" s="52">
+        <f t="shared" si="4"/>
+        <v>-7.879999999999999</v>
+      </c>
+      <c r="I8" s="52">
+        <f t="shared" si="4"/>
+        <v>-13.399999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.5">
+      <c r="B9" s="4">
+        <v>2</v>
+      </c>
+      <c r="C9" s="52">
+        <f>$B9-0.0368*C11</f>
+        <v>0.16000000000000014</v>
+      </c>
+      <c r="D9" s="52">
+        <f t="shared" ref="D9:I9" si="5">$B9-0.0368*D11</f>
+        <v>-1.6799999999999997</v>
+      </c>
+      <c r="E9" s="52">
+        <f t="shared" si="5"/>
+        <v>-3.5199999999999996</v>
+      </c>
+      <c r="F9" s="52">
+        <f t="shared" si="5"/>
+        <v>-5.3599999999999994</v>
+      </c>
+      <c r="G9" s="52">
+        <f t="shared" si="5"/>
+        <v>-7.1999999999999993</v>
+      </c>
+      <c r="H9" s="52">
+        <f t="shared" si="5"/>
+        <v>-10.879999999999999</v>
+      </c>
+      <c r="I9" s="52">
+        <f t="shared" si="5"/>
+        <v>-16.399999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.5">
+      <c r="B10" s="4">
+        <v>1</v>
+      </c>
+      <c r="C10" s="52">
+        <f>$B10-0.0368*C11</f>
+        <v>-0.83999999999999986</v>
+      </c>
+      <c r="D10" s="52">
+        <f t="shared" ref="D10:I10" si="6">$B10-0.0368*D11</f>
+        <v>-2.6799999999999997</v>
+      </c>
+      <c r="E10" s="52">
+        <f t="shared" si="6"/>
+        <v>-4.5199999999999996</v>
+      </c>
+      <c r="F10" s="52">
+        <f t="shared" si="6"/>
+        <v>-6.3599999999999994</v>
+      </c>
+      <c r="G10" s="52">
+        <f t="shared" si="6"/>
+        <v>-8.1999999999999993</v>
+      </c>
+      <c r="H10" s="52">
+        <f t="shared" si="6"/>
+        <v>-11.879999999999999</v>
+      </c>
+      <c r="I10" s="52">
+        <f t="shared" si="6"/>
+        <v>-17.399999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.5">
+      <c r="C11" s="4">
+        <v>50</v>
+      </c>
+      <c r="D11" s="4">
+        <v>100</v>
+      </c>
+      <c r="E11" s="4">
+        <v>150</v>
+      </c>
+      <c r="F11" s="4">
+        <v>200</v>
+      </c>
+      <c r="G11" s="4">
+        <v>250</v>
+      </c>
+      <c r="H11" s="4">
+        <v>350</v>
+      </c>
+      <c r="I11" s="4">
+        <v>500</v>
+      </c>
+      <c r="J11" s="50" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.5">
+      <c r="B14" s="51" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.5">
+      <c r="B15" s="50" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.5">
+      <c r="B16" s="4">
+        <v>20</v>
+      </c>
+      <c r="C16" s="52">
+        <f>$B16-0.0638*C23</f>
+        <v>16.809999999999999</v>
+      </c>
+      <c r="D16" s="52">
+        <f>$B16-0.0638*D23</f>
+        <v>13.620000000000001</v>
+      </c>
+      <c r="E16" s="52">
+        <f t="shared" ref="E16:I16" si="7">$B16-0.0638*E23</f>
+        <v>10.430000000000001</v>
+      </c>
+      <c r="F16" s="52">
+        <f t="shared" si="7"/>
+        <v>7.24</v>
+      </c>
+      <c r="G16" s="52">
+        <f t="shared" si="7"/>
+        <v>4.0500000000000007</v>
+      </c>
+      <c r="H16" s="53">
+        <f t="shared" si="7"/>
+        <v>-2.3299999999999983</v>
+      </c>
+      <c r="I16" s="53">
+        <f t="shared" si="7"/>
+        <v>-11.899999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.5">
+      <c r="B17" s="4">
+        <v>15</v>
+      </c>
+      <c r="C17" s="52">
+        <f>$B17-0.0638*C23</f>
+        <v>11.81</v>
+      </c>
+      <c r="D17" s="52">
+        <f t="shared" ref="D17:I17" si="8">$B17-0.0638*D23</f>
+        <v>8.620000000000001</v>
+      </c>
+      <c r="E17" s="52">
+        <f t="shared" si="8"/>
+        <v>5.4300000000000015</v>
+      </c>
+      <c r="F17" s="52">
+        <f t="shared" si="8"/>
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="G17" s="53">
+        <f t="shared" si="8"/>
+        <v>-0.94999999999999929</v>
+      </c>
+      <c r="H17" s="53">
+        <f t="shared" si="8"/>
+        <v>-7.3299999999999983</v>
+      </c>
+      <c r="I17" s="93">
+        <f t="shared" si="8"/>
+        <v>-16.899999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.5">
+      <c r="B18" s="4">
+        <v>10</v>
+      </c>
+      <c r="C18" s="52">
+        <f>$B18-0.0638*C23</f>
+        <v>6.8100000000000005</v>
+      </c>
+      <c r="D18" s="52">
+        <f t="shared" ref="D18:I18" si="9">$B18-0.0638*D23</f>
+        <v>3.62</v>
+      </c>
+      <c r="E18" s="52">
+        <f t="shared" si="9"/>
+        <v>0.43000000000000149</v>
+      </c>
+      <c r="F18" s="53">
+        <f t="shared" si="9"/>
+        <v>-2.76</v>
+      </c>
+      <c r="G18" s="53">
+        <f t="shared" si="9"/>
+        <v>-5.9499999999999993</v>
+      </c>
+      <c r="H18" s="93">
+        <f t="shared" si="9"/>
+        <v>-12.329999999999998</v>
+      </c>
+      <c r="I18" s="52">
+        <f t="shared" si="9"/>
+        <v>-21.9</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.5">
+      <c r="B19" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="C19" s="52">
+        <f>$B19-0.0638*C23</f>
+        <v>4.3100000000000005</v>
+      </c>
+      <c r="D19" s="52">
+        <f t="shared" ref="D19:I19" si="10">$B19-0.0638*D23</f>
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="E19" s="53">
+        <f t="shared" si="10"/>
+        <v>-2.0699999999999985</v>
+      </c>
+      <c r="F19" s="53">
+        <f t="shared" si="10"/>
+        <v>-5.26</v>
+      </c>
+      <c r="G19" s="93">
+        <f t="shared" si="10"/>
+        <v>-8.4499999999999993</v>
+      </c>
+      <c r="H19" s="52">
+        <f t="shared" si="10"/>
+        <v>-14.829999999999998</v>
+      </c>
+      <c r="I19" s="52">
+        <f t="shared" si="10"/>
+        <v>-24.4</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.5">
+      <c r="B20" s="4">
+        <v>5</v>
+      </c>
+      <c r="C20" s="52">
+        <f>$B20-0.0638*C23</f>
+        <v>1.81</v>
+      </c>
+      <c r="D20" s="53">
+        <f t="shared" ref="D20:I20" si="11">$B20-0.0638*D23</f>
+        <v>-1.38</v>
+      </c>
+      <c r="E20" s="94">
+        <f t="shared" si="11"/>
+        <v>-4.5699999999999985</v>
+      </c>
+      <c r="F20" s="93">
+        <f t="shared" si="11"/>
+        <v>-7.76</v>
+      </c>
+      <c r="G20" s="52">
+        <f t="shared" si="11"/>
+        <v>-10.95</v>
+      </c>
+      <c r="H20" s="52">
+        <f t="shared" si="11"/>
+        <v>-17.329999999999998</v>
+      </c>
+      <c r="I20" s="52">
+        <f t="shared" si="11"/>
+        <v>-26.9</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.5">
+      <c r="B21" s="4">
+        <v>2</v>
+      </c>
+      <c r="C21" s="53">
+        <f>$B21-0.0638*C23</f>
+        <v>-1.19</v>
+      </c>
+      <c r="D21" s="93">
+        <f t="shared" ref="D21:I21" si="12">$B21-0.0638*D23</f>
+        <v>-4.38</v>
+      </c>
+      <c r="E21" s="52">
+        <f t="shared" si="12"/>
+        <v>-7.5699999999999985</v>
+      </c>
+      <c r="F21" s="52">
+        <f t="shared" si="12"/>
+        <v>-10.76</v>
+      </c>
+      <c r="G21" s="52">
+        <f t="shared" si="12"/>
+        <v>-13.95</v>
+      </c>
+      <c r="H21" s="52">
+        <f t="shared" si="12"/>
+        <v>-20.329999999999998</v>
+      </c>
+      <c r="I21" s="52">
+        <f t="shared" si="12"/>
+        <v>-29.9</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.5">
+      <c r="B22" s="4">
+        <v>1</v>
+      </c>
+      <c r="C22" s="93">
+        <f>$B22-0.0638*C23</f>
+        <v>-2.19</v>
+      </c>
+      <c r="D22" s="52">
+        <f t="shared" ref="D22:I22" si="13">$B22-0.0638*D23</f>
+        <v>-5.38</v>
+      </c>
+      <c r="E22" s="52">
+        <f t="shared" si="13"/>
+        <v>-8.5699999999999985</v>
+      </c>
+      <c r="F22" s="52">
+        <f t="shared" si="13"/>
+        <v>-11.76</v>
+      </c>
+      <c r="G22" s="52">
+        <f t="shared" si="13"/>
+        <v>-14.95</v>
+      </c>
+      <c r="H22" s="52">
+        <f t="shared" si="13"/>
+        <v>-21.33</v>
+      </c>
+      <c r="I22" s="52">
+        <f t="shared" si="13"/>
+        <v>-30.9</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.5">
+      <c r="C23" s="4">
+        <v>50</v>
+      </c>
+      <c r="D23" s="4">
+        <v>100</v>
+      </c>
+      <c r="E23" s="4">
+        <v>150</v>
+      </c>
+      <c r="F23" s="4">
+        <v>200</v>
+      </c>
+      <c r="G23" s="4">
+        <v>250</v>
+      </c>
+      <c r="H23" s="4">
+        <v>350</v>
+      </c>
+      <c r="I23" s="4">
+        <v>500</v>
+      </c>
+      <c r="J23" s="50" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.5">
+      <c r="B26" s="95" t="s">
+        <v>234</v>
+      </c>
+      <c r="C26" s="96"/>
+      <c r="D26" s="96"/>
+      <c r="E26" s="96"/>
+      <c r="F26" s="96"/>
+      <c r="G26" s="96"/>
+      <c r="H26" s="96"/>
+      <c r="I26" s="97"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.5">
+      <c r="B27" s="50" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.5">
+      <c r="B28" s="4">
+        <v>20</v>
+      </c>
+      <c r="C28" s="98">
+        <f>0.0368*C$35</f>
+        <v>1.8399999999999999</v>
+      </c>
+      <c r="D28" s="98">
+        <f>0.0368*D$35</f>
+        <v>3.6799999999999997</v>
+      </c>
+      <c r="E28" s="98">
+        <f>0.0368*E$35</f>
+        <v>5.52</v>
+      </c>
+      <c r="F28" s="98">
+        <f>0.0368*F$35</f>
+        <v>7.3599999999999994</v>
+      </c>
+      <c r="G28" s="98">
+        <f>0.0368*G$35</f>
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="H28" s="98">
+        <f>0.0368*H$35</f>
+        <v>12.879999999999999</v>
+      </c>
+      <c r="I28" s="98">
+        <f>0.0368*I$35</f>
+        <v>18.399999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.5">
+      <c r="B29" s="4">
+        <v>15</v>
+      </c>
+      <c r="C29" s="98">
+        <f t="shared" ref="C29:G33" si="14">0.0368*C$35</f>
+        <v>1.8399999999999999</v>
+      </c>
+      <c r="D29" s="98">
+        <f t="shared" si="14"/>
+        <v>3.6799999999999997</v>
+      </c>
+      <c r="E29" s="98">
+        <f t="shared" si="14"/>
+        <v>5.52</v>
+      </c>
+      <c r="F29" s="98">
+        <f t="shared" si="14"/>
+        <v>7.3599999999999994</v>
+      </c>
+      <c r="G29" s="98">
+        <f t="shared" si="14"/>
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="H29" s="98">
+        <f>0.0368*H$35</f>
+        <v>12.879999999999999</v>
+      </c>
+      <c r="I29" s="99">
+        <f>-$B29+0.0368*I35</f>
+        <v>3.3999999999999986</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.5">
+      <c r="B30" s="4">
+        <v>10</v>
+      </c>
+      <c r="C30" s="98">
+        <f t="shared" si="14"/>
+        <v>1.8399999999999999</v>
+      </c>
+      <c r="D30" s="98">
+        <f t="shared" si="14"/>
+        <v>3.6799999999999997</v>
+      </c>
+      <c r="E30" s="98">
+        <f t="shared" si="14"/>
+        <v>5.52</v>
+      </c>
+      <c r="F30" s="98">
+        <f t="shared" si="14"/>
+        <v>7.3599999999999994</v>
+      </c>
+      <c r="G30" s="98">
+        <f t="shared" si="14"/>
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="H30" s="99">
+        <f>-$B30+0.0368*H35</f>
+        <v>2.879999999999999</v>
+      </c>
+      <c r="I30" s="99">
+        <f>-$B30+0.0368*I35</f>
+        <v>8.3999999999999986</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.5">
+      <c r="B31" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="C31" s="98">
+        <f t="shared" si="14"/>
+        <v>1.8399999999999999</v>
+      </c>
+      <c r="D31" s="98">
+        <f t="shared" si="14"/>
+        <v>3.6799999999999997</v>
+      </c>
+      <c r="E31" s="98">
+        <f t="shared" si="14"/>
+        <v>5.52</v>
+      </c>
+      <c r="F31" s="98">
+        <f t="shared" si="14"/>
+        <v>7.3599999999999994</v>
+      </c>
+      <c r="G31" s="99">
+        <f>-$B31+0.0368*G35</f>
+        <v>1.6999999999999993</v>
+      </c>
+      <c r="H31" s="99">
+        <f t="shared" ref="H30:I31" si="15">-$B31+0.0368*H35</f>
+        <v>5.379999999999999</v>
+      </c>
+      <c r="I31" s="99">
+        <f t="shared" si="15"/>
+        <v>10.899999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.5">
+      <c r="B32" s="4">
+        <v>5</v>
+      </c>
+      <c r="C32" s="98">
+        <f t="shared" si="14"/>
+        <v>1.8399999999999999</v>
+      </c>
+      <c r="D32" s="98">
+        <f t="shared" si="14"/>
+        <v>3.6799999999999997</v>
+      </c>
+      <c r="E32" s="99">
+        <f>-$B32+0.0368*E35</f>
+        <v>0.51999999999999957</v>
+      </c>
+      <c r="F32" s="99">
+        <f t="shared" ref="F31:I32" si="16">-$B32+0.0368*F35</f>
+        <v>2.3599999999999994</v>
+      </c>
+      <c r="G32" s="99">
+        <f t="shared" si="16"/>
+        <v>4.1999999999999993</v>
+      </c>
+      <c r="H32" s="99">
+        <f t="shared" si="16"/>
+        <v>7.879999999999999</v>
+      </c>
+      <c r="I32" s="99">
+        <f t="shared" si="16"/>
+        <v>13.399999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="B33" s="4">
+        <v>2</v>
+      </c>
+      <c r="C33" s="98">
+        <f t="shared" si="14"/>
+        <v>1.8399999999999999</v>
+      </c>
+      <c r="D33" s="99">
+        <f>-$B33+0.0368*D35</f>
+        <v>1.6799999999999997</v>
+      </c>
+      <c r="E33" s="99">
+        <f t="shared" ref="E32:I33" si="17">-$B33+0.0368*E35</f>
+        <v>3.5199999999999996</v>
+      </c>
+      <c r="F33" s="99">
+        <f t="shared" si="17"/>
+        <v>5.3599999999999994</v>
+      </c>
+      <c r="G33" s="99">
+        <f t="shared" si="17"/>
+        <v>7.1999999999999993</v>
+      </c>
+      <c r="H33" s="99">
+        <f t="shared" si="17"/>
+        <v>10.879999999999999</v>
+      </c>
+      <c r="I33" s="99">
+        <f t="shared" si="17"/>
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="B34" s="4">
+        <v>1</v>
+      </c>
+      <c r="C34" s="99">
+        <f>-$B34+0.0368*C35</f>
+        <v>0.83999999999999986</v>
+      </c>
+      <c r="D34" s="99">
+        <f t="shared" ref="D33:I34" si="18">-$B34+0.0368*D35</f>
+        <v>2.6799999999999997</v>
+      </c>
+      <c r="E34" s="99">
+        <f t="shared" si="18"/>
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="F34" s="99">
+        <f t="shared" si="18"/>
+        <v>6.3599999999999994</v>
+      </c>
+      <c r="G34" s="99">
+        <f t="shared" si="18"/>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="H34" s="99">
+        <f t="shared" si="18"/>
+        <v>11.879999999999999</v>
+      </c>
+      <c r="I34" s="99">
+        <f t="shared" si="18"/>
+        <v>17.399999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="C35" s="4">
+        <v>50</v>
+      </c>
+      <c r="D35" s="4">
+        <v>100</v>
+      </c>
+      <c r="E35" s="4">
+        <v>150</v>
+      </c>
+      <c r="F35" s="4">
+        <v>200</v>
+      </c>
+      <c r="G35" s="4">
+        <v>250</v>
+      </c>
+      <c r="H35" s="4">
+        <v>350</v>
+      </c>
+      <c r="I35" s="4">
+        <v>500</v>
+      </c>
+      <c r="J35" s="50" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A39" s="54"/>
+      <c r="B39" s="54"/>
+      <c r="C39" s="54"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="54"/>
+      <c r="G39" s="54"/>
+      <c r="H39" s="54"/>
+      <c r="I39" s="54"/>
+      <c r="J39" s="54"/>
+      <c r="K39" s="54"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A40" s="101"/>
+      <c r="B40" s="101"/>
+      <c r="C40" s="101"/>
+      <c r="D40" s="101"/>
+      <c r="E40" s="101"/>
+      <c r="F40" s="101"/>
+      <c r="G40" s="101"/>
+      <c r="H40" s="101"/>
+      <c r="I40" s="101"/>
+      <c r="J40" s="101"/>
+      <c r="K40" s="101"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A41" s="101"/>
+      <c r="B41" s="101"/>
+      <c r="C41" s="102" t="s">
+        <v>239</v>
+      </c>
+      <c r="D41" s="102"/>
+      <c r="E41" s="102"/>
+      <c r="F41" s="102"/>
+      <c r="G41" s="102"/>
+      <c r="H41" s="102"/>
+      <c r="I41" s="102"/>
+      <c r="J41" s="101"/>
+      <c r="K41" s="101"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A42" s="101"/>
+      <c r="B42" s="114" t="s">
+        <v>240</v>
+      </c>
+      <c r="C42" s="106">
+        <v>184</v>
+      </c>
+      <c r="D42" s="106">
+        <v>368</v>
+      </c>
+      <c r="E42" s="106">
+        <v>552</v>
+      </c>
+      <c r="F42" s="106">
+        <v>736</v>
+      </c>
+      <c r="G42" s="106">
+        <v>920</v>
+      </c>
+      <c r="H42" s="107">
+        <v>1288</v>
+      </c>
+      <c r="I42" s="107">
+        <v>1840</v>
+      </c>
+      <c r="J42" s="101"/>
+      <c r="K42" s="101"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A43" s="101"/>
+      <c r="B43" s="112"/>
+      <c r="C43" s="106"/>
+      <c r="D43" s="106"/>
+      <c r="E43" s="106"/>
+      <c r="F43" s="106"/>
+      <c r="G43" s="106"/>
+      <c r="H43" s="108">
+        <v>-233</v>
+      </c>
+      <c r="I43" s="108">
+        <v>-1190</v>
+      </c>
+      <c r="J43" s="101"/>
+      <c r="K43" s="101"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A44" s="101"/>
+      <c r="B44" s="112">
+        <v>15</v>
+      </c>
+      <c r="C44" s="106">
+        <v>184</v>
+      </c>
+      <c r="D44" s="106">
+        <v>368</v>
+      </c>
+      <c r="E44" s="106">
+        <v>552</v>
+      </c>
+      <c r="F44" s="106">
+        <v>736</v>
+      </c>
+      <c r="G44" s="107">
+        <v>920</v>
+      </c>
+      <c r="H44" s="107">
+        <v>1288</v>
+      </c>
+      <c r="I44" s="115">
+        <v>340</v>
+      </c>
+      <c r="J44" s="101"/>
+      <c r="K44" s="101"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A45" s="101"/>
+      <c r="B45" s="112"/>
+      <c r="C45" s="106"/>
+      <c r="D45" s="106"/>
+      <c r="E45" s="106"/>
+      <c r="F45" s="106"/>
+      <c r="G45" s="108">
+        <v>-95</v>
+      </c>
+      <c r="H45" s="108">
+        <v>-733</v>
+      </c>
+      <c r="I45" s="115"/>
+      <c r="J45" s="101"/>
+      <c r="K45" s="101"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A46" s="101"/>
+      <c r="B46" s="112">
+        <v>10</v>
+      </c>
+      <c r="C46" s="106">
+        <v>184</v>
+      </c>
+      <c r="D46" s="106">
+        <v>368</v>
+      </c>
+      <c r="E46" s="106">
+        <v>552</v>
+      </c>
+      <c r="F46" s="107">
+        <v>736</v>
+      </c>
+      <c r="G46" s="107">
+        <v>920</v>
+      </c>
+      <c r="H46" s="115">
+        <v>288</v>
+      </c>
+      <c r="I46" s="115">
+        <v>840</v>
+      </c>
+      <c r="J46" s="101"/>
+      <c r="K46" s="101"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A47" s="101"/>
+      <c r="B47" s="112"/>
+      <c r="C47" s="106"/>
+      <c r="D47" s="106"/>
+      <c r="E47" s="106"/>
+      <c r="F47" s="108">
+        <v>-276</v>
+      </c>
+      <c r="G47" s="108">
+        <v>-595</v>
+      </c>
+      <c r="H47" s="115"/>
+      <c r="I47" s="115"/>
+      <c r="J47" s="101"/>
+      <c r="K47" s="101"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A48" s="101"/>
+      <c r="B48" s="112">
+        <v>7.5</v>
+      </c>
+      <c r="C48" s="106">
+        <v>184</v>
+      </c>
+      <c r="D48" s="106">
+        <v>368</v>
+      </c>
+      <c r="E48" s="107">
+        <v>552</v>
+      </c>
+      <c r="F48" s="107">
+        <v>736</v>
+      </c>
+      <c r="G48" s="115">
+        <v>170</v>
+      </c>
+      <c r="H48" s="115">
+        <v>538</v>
+      </c>
+      <c r="I48" s="115">
+        <v>1090</v>
+      </c>
+      <c r="J48" s="101"/>
+      <c r="K48" s="101"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A49" s="101"/>
+      <c r="B49" s="112"/>
+      <c r="C49" s="106"/>
+      <c r="D49" s="106"/>
+      <c r="E49" s="108">
+        <v>-207</v>
+      </c>
+      <c r="F49" s="108">
+        <v>-526</v>
+      </c>
+      <c r="G49" s="115"/>
+      <c r="H49" s="115"/>
+      <c r="I49" s="115"/>
+      <c r="J49" s="101"/>
+      <c r="K49" s="101"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A50" s="101"/>
+      <c r="B50" s="112">
+        <v>5</v>
+      </c>
+      <c r="C50" s="106">
+        <v>184</v>
+      </c>
+      <c r="D50" s="107">
+        <v>368</v>
+      </c>
+      <c r="E50" s="115">
+        <v>52</v>
+      </c>
+      <c r="F50" s="115">
+        <v>236</v>
+      </c>
+      <c r="G50" s="115">
+        <v>420</v>
+      </c>
+      <c r="H50" s="115">
+        <v>788</v>
+      </c>
+      <c r="I50" s="115">
+        <v>1340</v>
+      </c>
+      <c r="J50" s="101"/>
+      <c r="K50" s="101"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A51" s="101"/>
+      <c r="B51" s="112"/>
+      <c r="C51" s="106"/>
+      <c r="D51" s="108">
+        <v>-138</v>
+      </c>
+      <c r="E51" s="115"/>
+      <c r="F51" s="115"/>
+      <c r="G51" s="115"/>
+      <c r="H51" s="115"/>
+      <c r="I51" s="115"/>
+      <c r="J51" s="101"/>
+      <c r="K51" s="101"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A52" s="101"/>
+      <c r="B52" s="112">
+        <v>2</v>
+      </c>
+      <c r="C52" s="107">
+        <v>184</v>
+      </c>
+      <c r="D52" s="115">
+        <v>168</v>
+      </c>
+      <c r="E52" s="115">
+        <v>352</v>
+      </c>
+      <c r="F52" s="115">
+        <v>536</v>
+      </c>
+      <c r="G52" s="115">
+        <v>720</v>
+      </c>
+      <c r="H52" s="115">
+        <v>1088</v>
+      </c>
+      <c r="I52" s="115">
+        <v>1640</v>
+      </c>
+      <c r="J52" s="101"/>
+      <c r="K52" s="101"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A53" s="101"/>
+      <c r="B53" s="112"/>
+      <c r="C53" s="108">
+        <v>-119</v>
+      </c>
+      <c r="D53" s="115"/>
+      <c r="E53" s="115"/>
+      <c r="F53" s="115"/>
+      <c r="G53" s="115"/>
+      <c r="H53" s="115"/>
+      <c r="I53" s="115"/>
+      <c r="J53" s="101"/>
+      <c r="K53" s="101"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A54" s="101"/>
+      <c r="B54" s="112">
+        <v>1</v>
+      </c>
+      <c r="C54" s="107">
+        <v>84</v>
+      </c>
+      <c r="D54" s="115">
+        <v>268</v>
+      </c>
+      <c r="E54" s="115">
+        <v>452</v>
+      </c>
+      <c r="F54" s="115">
+        <v>636</v>
+      </c>
+      <c r="G54" s="115">
+        <v>820</v>
+      </c>
+      <c r="H54" s="115">
+        <v>1188</v>
+      </c>
+      <c r="I54" s="115">
+        <v>1740</v>
+      </c>
+      <c r="J54" s="101"/>
+      <c r="K54" s="101"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A55" s="101"/>
+      <c r="B55" s="112"/>
+      <c r="C55" s="108">
+        <v>-219</v>
+      </c>
+      <c r="D55" s="115"/>
+      <c r="E55" s="115"/>
+      <c r="F55" s="115"/>
+      <c r="G55" s="115"/>
+      <c r="H55" s="115"/>
+      <c r="I55" s="115"/>
+      <c r="J55" s="101"/>
+      <c r="K55" s="101"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A56" s="101"/>
+      <c r="B56" s="103"/>
+      <c r="C56" s="113">
+        <v>50</v>
+      </c>
+      <c r="D56" s="113">
+        <v>100</v>
+      </c>
+      <c r="E56" s="113">
+        <v>150</v>
+      </c>
+      <c r="F56" s="113">
+        <v>200</v>
+      </c>
+      <c r="G56" s="113">
+        <v>250</v>
+      </c>
+      <c r="H56" s="113">
+        <v>350</v>
+      </c>
+      <c r="I56" s="113" t="s">
+        <v>241</v>
+      </c>
+      <c r="J56" s="101"/>
+      <c r="K56" s="101"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A57" s="101"/>
+      <c r="B57" s="103"/>
+      <c r="C57" s="113"/>
+      <c r="D57" s="113"/>
+      <c r="E57" s="113"/>
+      <c r="F57" s="113"/>
+      <c r="G57" s="113"/>
+      <c r="H57" s="113"/>
+      <c r="I57" s="113"/>
+      <c r="J57" s="101"/>
+      <c r="K57" s="101"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A58" s="101"/>
+      <c r="B58" s="101"/>
+      <c r="C58" s="109" t="s">
+        <v>235</v>
+      </c>
+      <c r="D58" s="104" t="s">
+        <v>237</v>
+      </c>
+      <c r="E58" s="104"/>
+      <c r="F58" s="104"/>
+      <c r="G58" s="111" t="s">
+        <v>238</v>
+      </c>
+      <c r="H58" s="111"/>
+      <c r="I58" s="111"/>
+      <c r="J58" s="101"/>
+      <c r="K58" s="101"/>
+      <c r="L58" s="100"/>
+    </row>
+    <row r="59" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A59" s="101"/>
+      <c r="B59" s="101"/>
+      <c r="C59" s="109"/>
+      <c r="D59" s="105" t="s">
+        <v>236</v>
+      </c>
+      <c r="E59" s="105"/>
+      <c r="F59" s="105"/>
+      <c r="G59" s="111"/>
+      <c r="H59" s="111"/>
+      <c r="I59" s="111"/>
+      <c r="J59" s="101"/>
+      <c r="K59" s="101"/>
+      <c r="L59" s="100"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A60" s="101"/>
+      <c r="B60" s="101"/>
+      <c r="C60" s="101"/>
+      <c r="D60" s="110"/>
+      <c r="E60" s="101"/>
+      <c r="F60" s="101"/>
+      <c r="G60" s="101"/>
+      <c r="H60" s="101"/>
+      <c r="I60" s="101"/>
+      <c r="J60" s="101"/>
+      <c r="K60" s="101"/>
+      <c r="L60" s="100"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A61" s="101"/>
+      <c r="B61" s="101"/>
+      <c r="C61" s="101"/>
+      <c r="D61" s="101"/>
+      <c r="E61" s="101"/>
+      <c r="F61" s="101"/>
+      <c r="G61" s="101"/>
+      <c r="H61" s="101"/>
+      <c r="I61" s="101"/>
+      <c r="J61" s="101"/>
+      <c r="K61" s="101"/>
+    </row>
+  </sheetData>
+  <mergeCells count="58">
+    <mergeCell ref="G58:I59"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="D59:F59"/>
+    <mergeCell ref="C41:I41"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="H54:H55"/>
+    <mergeCell ref="I54:I55"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="G56:G57"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="I56:I57"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="B26:I26"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/dataAnalysis.xlsx
+++ b/dataAnalysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\botImpact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D41C04CA-18A1-43DE-8AEE-0584FB16BC98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0582BCC-8EBD-4F06-BBE2-B6D5297C13BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="18192" windowHeight="11592" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="18192" windowHeight="11592" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ModelFreeEvidence" sheetId="1" r:id="rId1"/>
@@ -3756,7 +3756,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3892,6 +3892,33 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4006,11 +4033,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4021,59 +4048,29 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4384,38 +4381,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="64"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="73"/>
       <c r="D1" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="68" t="s">
+      <c r="E1" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="70"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="79"/>
       <c r="J1" s="19" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="67"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="76"/>
       <c r="D2" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="59" t="s">
+      <c r="E2" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="F2" s="60"/>
+      <c r="F2" s="69"/>
       <c r="G2" s="3" t="s">
         <v>30</v>
       </c>
@@ -4439,7 +4436,7 @@
       <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="55" t="s">
+      <c r="E3" s="64" t="s">
         <v>21</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -4448,10 +4445,10 @@
       <c r="G3" s="18">
         <v>0.60419999999999996</v>
       </c>
-      <c r="H3" s="57">
+      <c r="H3" s="66">
         <v>1.4500999999999999</v>
       </c>
-      <c r="I3" s="57">
+      <c r="I3" s="66">
         <v>0.14699999999999999</v>
       </c>
       <c r="J3" s="19" t="s">
@@ -4471,15 +4468,15 @@
       <c r="D4" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="56"/>
+      <c r="E4" s="65"/>
       <c r="F4" s="2" t="s">
         <v>79</v>
       </c>
       <c r="G4" s="2">
         <v>0.59640000000000004</v>
       </c>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
       <c r="J4" s="19" t="s">
         <v>91</v>
       </c>
@@ -4497,7 +4494,7 @@
       <c r="D5" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="55" t="s">
+      <c r="E5" s="64" t="s">
         <v>22</v>
       </c>
       <c r="F5" s="2" t="s">
@@ -4506,31 +4503,31 @@
       <c r="G5" s="18">
         <v>0.58009999999999995</v>
       </c>
-      <c r="H5" s="57">
+      <c r="H5" s="66">
         <v>-0.46650000000000003</v>
       </c>
-      <c r="I5" s="57">
+      <c r="I5" s="66">
         <v>0.64090000000000003</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A6" s="65" t="s">
+      <c r="A6" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="66"/>
-      <c r="C6" s="67"/>
-      <c r="E6" s="56"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="76"/>
+      <c r="E6" s="65"/>
       <c r="F6" s="2" t="s">
         <v>79</v>
       </c>
       <c r="G6" s="2">
         <v>0.58389999999999997</v>
       </c>
-      <c r="H6" s="58"/>
-      <c r="I6" s="58"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="67"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="70" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -4539,7 +4536,7 @@
       <c r="C7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="55" t="s">
+      <c r="E7" s="64" t="s">
         <v>23</v>
       </c>
       <c r="F7" s="2" t="s">
@@ -4548,36 +4545,36 @@
       <c r="G7" s="18">
         <v>0.5393</v>
       </c>
-      <c r="H7" s="57">
+      <c r="H7" s="66">
         <v>-1.7504</v>
       </c>
-      <c r="I7" s="57">
+      <c r="I7" s="66">
         <v>8.0100000000000005E-2</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A8" s="56"/>
+      <c r="A8" s="65"/>
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="56"/>
+      <c r="E8" s="65"/>
       <c r="F8" s="2" t="s">
         <v>79</v>
       </c>
       <c r="G8" s="2">
         <v>0.55649999999999999</v>
       </c>
-      <c r="H8" s="58"/>
-      <c r="I8" s="58"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="67"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="E9" s="59" t="s">
+      <c r="E9" s="68" t="s">
         <v>75</v>
       </c>
-      <c r="F9" s="60"/>
+      <c r="F9" s="69"/>
       <c r="G9" s="3" t="s">
         <v>25</v>
       </c>
@@ -4589,12 +4586,12 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A10" s="62" t="s">
+      <c r="A10" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="63"/>
-      <c r="C10" s="64"/>
-      <c r="E10" s="55" t="s">
+      <c r="B10" s="72"/>
+      <c r="C10" s="73"/>
+      <c r="E10" s="64" t="s">
         <v>21</v>
       </c>
       <c r="F10" s="2" t="s">
@@ -4603,10 +4600,10 @@
       <c r="G10" s="17">
         <v>0.82099999999999995</v>
       </c>
-      <c r="H10" s="57">
+      <c r="H10" s="66">
         <v>23.857700000000001</v>
       </c>
-      <c r="I10" s="57" t="s">
+      <c r="I10" s="66" t="s">
         <v>26</v>
       </c>
       <c r="J10" s="19" t="s">
@@ -4614,20 +4611,20 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A11" s="65" t="s">
+      <c r="A11" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="66"/>
-      <c r="C11" s="67"/>
-      <c r="E11" s="56"/>
+      <c r="B11" s="75"/>
+      <c r="C11" s="76"/>
+      <c r="E11" s="65"/>
       <c r="F11" s="2" t="s">
         <v>79</v>
       </c>
       <c r="G11" s="2">
         <v>0.74229999999999996</v>
       </c>
-      <c r="H11" s="58"/>
-      <c r="I11" s="58"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="67"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A12" s="1" t="s">
@@ -4639,7 +4636,7 @@
       <c r="C12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="55" t="s">
+      <c r="E12" s="64" t="s">
         <v>22</v>
       </c>
       <c r="F12" s="2" t="s">
@@ -4648,10 +4645,10 @@
       <c r="G12" s="17">
         <v>0.83950000000000002</v>
       </c>
-      <c r="H12" s="57">
+      <c r="H12" s="66">
         <v>20.513400000000001</v>
       </c>
-      <c r="I12" s="57" t="s">
+      <c r="I12" s="66" t="s">
         <v>27</v>
       </c>
     </row>
@@ -4665,15 +4662,15 @@
       <c r="C13" s="2">
         <v>5.0496999999999996</v>
       </c>
-      <c r="E13" s="56"/>
+      <c r="E13" s="65"/>
       <c r="F13" s="2" t="s">
         <v>79</v>
       </c>
       <c r="G13" s="2">
         <v>0.73529999999999995</v>
       </c>
-      <c r="H13" s="58"/>
-      <c r="I13" s="58"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="67"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A14" s="2" t="s">
@@ -4685,7 +4682,7 @@
       <c r="C14" s="2">
         <v>5.5609000000000002</v>
       </c>
-      <c r="E14" s="55" t="s">
+      <c r="E14" s="64" t="s">
         <v>23</v>
       </c>
       <c r="F14" s="2" t="s">
@@ -4694,31 +4691,31 @@
       <c r="G14" s="17">
         <v>0.78539999999999999</v>
       </c>
-      <c r="H14" s="57">
+      <c r="H14" s="66">
         <v>16.601400000000002</v>
       </c>
-      <c r="I14" s="57" t="s">
+      <c r="I14" s="66" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A15" s="65" t="s">
+      <c r="A15" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="66"/>
-      <c r="C15" s="67"/>
-      <c r="E15" s="56"/>
+      <c r="B15" s="75"/>
+      <c r="C15" s="76"/>
+      <c r="E15" s="65"/>
       <c r="F15" s="2" t="s">
         <v>79</v>
       </c>
       <c r="G15" s="2">
         <v>0.67610000000000003</v>
       </c>
-      <c r="H15" s="58"/>
-      <c r="I15" s="58"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="67"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A16" s="61" t="s">
+      <c r="A16" s="70" t="s">
         <v>7</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -4732,7 +4729,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A17" s="56"/>
+      <c r="A17" s="65"/>
       <c r="B17" s="2" t="s">
         <v>13</v>
       </c>
@@ -4744,27 +4741,27 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="E18" s="68" t="s">
+      <c r="E18" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="69"/>
-      <c r="G18" s="69"/>
-      <c r="H18" s="69"/>
-      <c r="I18" s="70"/>
+      <c r="F18" s="78"/>
+      <c r="G18" s="78"/>
+      <c r="H18" s="78"/>
+      <c r="I18" s="79"/>
       <c r="J18" s="16" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A19" s="62" t="s">
+      <c r="A19" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="63"/>
-      <c r="C19" s="64"/>
-      <c r="E19" s="59" t="s">
+      <c r="B19" s="72"/>
+      <c r="C19" s="73"/>
+      <c r="E19" s="68" t="s">
         <v>74</v>
       </c>
-      <c r="F19" s="60"/>
+      <c r="F19" s="69"/>
       <c r="G19" s="3" t="s">
         <v>30</v>
       </c>
@@ -4776,12 +4773,12 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A20" s="65" t="s">
+      <c r="A20" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="66"/>
-      <c r="C20" s="67"/>
-      <c r="E20" s="55" t="s">
+      <c r="B20" s="75"/>
+      <c r="C20" s="76"/>
+      <c r="E20" s="64" t="s">
         <v>21</v>
       </c>
       <c r="F20" s="2" t="s">
@@ -4790,10 +4787,10 @@
       <c r="G20" s="18">
         <v>0.60419999999999996</v>
       </c>
-      <c r="H20" s="57">
+      <c r="H20" s="66">
         <v>6.7031000000000001</v>
       </c>
-      <c r="I20" s="57" t="s">
+      <c r="I20" s="66" t="s">
         <v>24</v>
       </c>
       <c r="J20" s="19" t="s">
@@ -4810,15 +4807,15 @@
       <c r="C21" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="56"/>
+      <c r="E21" s="65"/>
       <c r="F21" s="2" t="s">
         <v>71</v>
       </c>
       <c r="G21" s="2">
         <v>0.56520000000000004</v>
       </c>
-      <c r="H21" s="58"/>
-      <c r="I21" s="58"/>
+      <c r="H21" s="67"/>
+      <c r="I21" s="67"/>
       <c r="J21" s="16" t="s">
         <v>85</v>
       </c>
@@ -4833,7 +4830,7 @@
       <c r="C22" s="2">
         <v>6.4598000000000004</v>
       </c>
-      <c r="E22" s="55" t="s">
+      <c r="E22" s="64" t="s">
         <v>22</v>
       </c>
       <c r="F22" s="2" t="s">
@@ -4842,10 +4839,10 @@
       <c r="G22" s="18">
         <v>0.58009999999999995</v>
       </c>
-      <c r="H22" s="57">
+      <c r="H22" s="66">
         <v>2.8894000000000002</v>
       </c>
-      <c r="I22" s="57">
+      <c r="I22" s="66">
         <v>3.8999999999999998E-3</v>
       </c>
     </row>
@@ -4859,23 +4856,23 @@
       <c r="C23" s="2">
         <v>5.1597</v>
       </c>
-      <c r="E23" s="56"/>
+      <c r="E23" s="65"/>
       <c r="F23" s="2" t="s">
         <v>71</v>
       </c>
       <c r="G23" s="2">
         <v>0.5534</v>
       </c>
-      <c r="H23" s="58"/>
-      <c r="I23" s="58"/>
+      <c r="H23" s="67"/>
+      <c r="I23" s="67"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A24" s="65" t="s">
+      <c r="A24" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="66"/>
-      <c r="C24" s="67"/>
-      <c r="E24" s="55" t="s">
+      <c r="B24" s="75"/>
+      <c r="C24" s="76"/>
+      <c r="E24" s="64" t="s">
         <v>23</v>
       </c>
       <c r="F24" s="2" t="s">
@@ -4884,10 +4881,10 @@
       <c r="G24" s="18">
         <v>0.5393</v>
       </c>
-      <c r="H24" s="57">
+      <c r="H24" s="66">
         <v>1.6584000000000001</v>
       </c>
-      <c r="I24" s="57">
+      <c r="I24" s="66">
         <v>9.7299999999999998E-2</v>
       </c>
       <c r="J24" s="19" t="s">
@@ -4895,7 +4892,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A25" s="61" t="s">
+      <c r="A25" s="70" t="s">
         <v>7</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -4904,28 +4901,28 @@
       <c r="C25" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E25" s="56"/>
+      <c r="E25" s="65"/>
       <c r="F25" s="2" t="s">
         <v>71</v>
       </c>
       <c r="G25" s="2">
         <v>0.52139999999999997</v>
       </c>
-      <c r="H25" s="58"/>
-      <c r="I25" s="58"/>
+      <c r="H25" s="67"/>
+      <c r="I25" s="67"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A26" s="56"/>
+      <c r="A26" s="65"/>
       <c r="B26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E26" s="59" t="s">
+      <c r="E26" s="68" t="s">
         <v>73</v>
       </c>
-      <c r="F26" s="60"/>
+      <c r="F26" s="69"/>
       <c r="G26" s="3" t="s">
         <v>25</v>
       </c>
@@ -4937,7 +4934,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="E27" s="55" t="s">
+      <c r="E27" s="64" t="s">
         <v>21</v>
       </c>
       <c r="F27" s="2" t="s">
@@ -4946,10 +4943,10 @@
       <c r="G27" s="17">
         <v>0.82099999999999995</v>
       </c>
-      <c r="H27" s="57">
+      <c r="H27" s="66">
         <v>33.133299999999998</v>
       </c>
-      <c r="I27" s="57" t="s">
+      <c r="I27" s="66" t="s">
         <v>81</v>
       </c>
       <c r="J27" s="19" t="s">
@@ -4957,21 +4954,21 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="E28" s="56"/>
+      <c r="E28" s="65"/>
       <c r="F28" s="2" t="s">
         <v>71</v>
       </c>
       <c r="G28" s="2">
         <v>0.70599999999999996</v>
       </c>
-      <c r="H28" s="58"/>
-      <c r="I28" s="58"/>
+      <c r="H28" s="67"/>
+      <c r="I28" s="67"/>
       <c r="J28" s="19" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="E29" s="55" t="s">
+      <c r="E29" s="64" t="s">
         <v>22</v>
       </c>
       <c r="F29" s="2" t="s">
@@ -4980,26 +4977,26 @@
       <c r="G29" s="17">
         <v>0.83950000000000002</v>
       </c>
-      <c r="H29" s="57">
+      <c r="H29" s="66">
         <v>24.9849</v>
       </c>
-      <c r="I29" s="57" t="s">
+      <c r="I29" s="66" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="E30" s="56"/>
+      <c r="E30" s="65"/>
       <c r="F30" s="2" t="s">
         <v>71</v>
       </c>
       <c r="G30" s="2">
         <v>0.70609999999999995</v>
       </c>
-      <c r="H30" s="58"/>
-      <c r="I30" s="58"/>
+      <c r="H30" s="67"/>
+      <c r="I30" s="67"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="E31" s="55" t="s">
+      <c r="E31" s="64" t="s">
         <v>23</v>
       </c>
       <c r="F31" s="2" t="s">
@@ -5008,23 +5005,23 @@
       <c r="G31" s="17">
         <v>0.78539999999999999</v>
       </c>
-      <c r="H31" s="57">
+      <c r="H31" s="66">
         <v>21.385400000000001</v>
       </c>
-      <c r="I31" s="57" t="s">
+      <c r="I31" s="66" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="E32" s="56"/>
+      <c r="E32" s="65"/>
       <c r="F32" s="2" t="s">
         <v>71</v>
       </c>
       <c r="G32" s="2">
         <v>0.63849999999999996</v>
       </c>
-      <c r="H32" s="58"/>
-      <c r="I32" s="58"/>
+      <c r="H32" s="67"/>
+      <c r="I32" s="67"/>
     </row>
     <row r="33" spans="5:5" x14ac:dyDescent="0.5">
       <c r="E33" s="16" t="s">
@@ -5098,8 +5095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B78CFA9F-73ED-424A-9027-1A5D5AB10FF2}">
   <dimension ref="A1:L87"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="E90" sqref="E90"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="C88" sqref="C88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -5112,26 +5109,26 @@
       <c r="A1" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="72" t="s">
+      <c r="B1" s="81" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72" t="s">
+      <c r="C1" s="81"/>
+      <c r="D1" s="81" t="s">
         <v>94</v>
       </c>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72" t="s">
+      <c r="E1" s="81"/>
+      <c r="F1" s="81" t="s">
         <v>95</v>
       </c>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72" t="s">
+      <c r="G1" s="81"/>
+      <c r="H1" s="81" t="s">
         <v>96</v>
       </c>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72" t="s">
+      <c r="I1" s="81"/>
+      <c r="J1" s="81" t="s">
         <v>97</v>
       </c>
-      <c r="K1" s="72"/>
+      <c r="K1" s="81"/>
       <c r="L1" s="20" t="s">
         <v>108</v>
       </c>
@@ -5722,15 +5719,15 @@
       <c r="A21" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="B21" s="71" t="s">
+      <c r="B21" s="80" t="s">
         <v>93</v>
       </c>
-      <c r="C21" s="71"/>
-      <c r="D21" s="71"/>
-      <c r="E21" s="71"/>
-      <c r="F21" s="71"/>
-      <c r="G21" s="71"/>
-      <c r="H21" s="71"/>
+      <c r="C21" s="80"/>
+      <c r="D21" s="80"/>
+      <c r="E21" s="80"/>
+      <c r="F21" s="80"/>
+      <c r="G21" s="80"/>
+      <c r="H21" s="80"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A22" s="20" t="s">
@@ -5908,15 +5905,15 @@
       <c r="A29" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="B29" s="72" t="s">
+      <c r="B29" s="81" t="s">
         <v>95</v>
       </c>
-      <c r="C29" s="72"/>
-      <c r="D29" s="72"/>
-      <c r="E29" s="72"/>
-      <c r="F29" s="72"/>
-      <c r="G29" s="72"/>
-      <c r="H29" s="72"/>
+      <c r="C29" s="81"/>
+      <c r="D29" s="81"/>
+      <c r="E29" s="81"/>
+      <c r="F29" s="81"/>
+      <c r="G29" s="81"/>
+      <c r="H29" s="81"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A30" s="20" t="s">
@@ -6091,14 +6088,14 @@
       <c r="A38" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="B38" s="71" t="s">
+      <c r="B38" s="80" t="s">
         <v>93</v>
       </c>
-      <c r="C38" s="71"/>
-      <c r="D38" s="71"/>
-      <c r="E38" s="71"/>
-      <c r="F38" s="71"/>
-      <c r="G38" s="71"/>
+      <c r="C38" s="80"/>
+      <c r="D38" s="80"/>
+      <c r="E38" s="80"/>
+      <c r="F38" s="80"/>
+      <c r="G38" s="80"/>
       <c r="H38" s="30"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.5">
@@ -6251,14 +6248,14 @@
       <c r="A46" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="B46" s="71" t="s">
+      <c r="B46" s="80" t="s">
         <v>95</v>
       </c>
-      <c r="C46" s="71"/>
-      <c r="D46" s="71"/>
-      <c r="E46" s="71"/>
-      <c r="F46" s="71"/>
-      <c r="G46" s="71"/>
+      <c r="C46" s="80"/>
+      <c r="D46" s="80"/>
+      <c r="E46" s="80"/>
+      <c r="F46" s="80"/>
+      <c r="G46" s="80"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A47" s="20" t="s">
@@ -6415,13 +6412,13 @@
       <c r="A55" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="B55" s="71" t="s">
+      <c r="B55" s="80" t="s">
         <v>93</v>
       </c>
-      <c r="C55" s="71"/>
-      <c r="D55" s="71"/>
-      <c r="E55" s="71"/>
-      <c r="F55" s="71"/>
+      <c r="C55" s="80"/>
+      <c r="D55" s="80"/>
+      <c r="E55" s="80"/>
+      <c r="F55" s="80"/>
       <c r="G55" s="31" t="s">
         <v>152</v>
       </c>
@@ -6596,13 +6593,13 @@
       <c r="A65" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="B65" s="71" t="s">
+      <c r="B65" s="80" t="s">
         <v>95</v>
       </c>
-      <c r="C65" s="71"/>
-      <c r="D65" s="71"/>
-      <c r="E65" s="71"/>
-      <c r="F65" s="71"/>
+      <c r="C65" s="80"/>
+      <c r="D65" s="80"/>
+      <c r="E65" s="80"/>
+      <c r="F65" s="80"/>
       <c r="G65" s="30"/>
     </row>
     <row r="66" spans="1:8" ht="14.7" x14ac:dyDescent="0.5">
@@ -6791,14 +6788,14 @@
       <c r="A77" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="B77" s="71" t="s">
+      <c r="B77" s="80" t="s">
         <v>93</v>
       </c>
-      <c r="C77" s="71"/>
-      <c r="D77" s="71"/>
-      <c r="E77" s="71"/>
-      <c r="F77" s="71"/>
-      <c r="G77" s="71"/>
+      <c r="C77" s="80"/>
+      <c r="D77" s="80"/>
+      <c r="E77" s="80"/>
+      <c r="F77" s="80"/>
+      <c r="G77" s="80"/>
       <c r="H77" s="20" t="s">
         <v>123</v>
       </c>
@@ -6879,14 +6876,14 @@
       <c r="A82" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="B82" s="71" t="s">
+      <c r="B82" s="80" t="s">
         <v>95</v>
       </c>
-      <c r="C82" s="71"/>
-      <c r="D82" s="71"/>
-      <c r="E82" s="71"/>
-      <c r="F82" s="71"/>
-      <c r="G82" s="71"/>
+      <c r="C82" s="80"/>
+      <c r="D82" s="80"/>
+      <c r="E82" s="80"/>
+      <c r="F82" s="80"/>
+      <c r="G82" s="80"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A83" s="20" t="s">
@@ -7003,12 +7000,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="87" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="80"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="89"/>
       <c r="E1" s="5" t="s">
         <v>170</v>
       </c>
@@ -7031,7 +7028,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="64" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -7045,7 +7042,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="56"/>
+      <c r="A4" s="65"/>
       <c r="B4" s="4" t="s">
         <v>52</v>
       </c>
@@ -7057,7 +7054,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A5" s="55" t="s">
+      <c r="A5" s="64" t="s">
         <v>22</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -7071,7 +7068,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="56"/>
+      <c r="A6" s="65"/>
       <c r="B6" s="4" t="s">
         <v>52</v>
       </c>
@@ -7083,7 +7080,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A7" s="55" t="s">
+      <c r="A7" s="64" t="s">
         <v>23</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -7097,7 +7094,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="56"/>
+      <c r="A8" s="65"/>
       <c r="B8" s="4" t="s">
         <v>52</v>
       </c>
@@ -7117,13 +7114,13 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="78" t="s">
+      <c r="A11" s="87" t="s">
         <v>174</v>
       </c>
-      <c r="B11" s="79"/>
-      <c r="C11" s="79"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="80"/>
+      <c r="B11" s="88"/>
+      <c r="C11" s="88"/>
+      <c r="D11" s="88"/>
+      <c r="E11" s="89"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
@@ -7144,7 +7141,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A13" s="75" t="s">
+      <c r="A13" s="84" t="s">
         <v>51</v>
       </c>
       <c r="B13" s="43" t="s">
@@ -7162,7 +7159,7 @@
       <c r="J13" s="33"/>
     </row>
     <row r="14" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="76"/>
+      <c r="A14" s="85"/>
       <c r="B14" s="43" t="s">
         <v>22</v>
       </c>
@@ -7178,7 +7175,7 @@
       <c r="J14" s="33"/>
     </row>
     <row r="15" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A15" s="77"/>
+      <c r="A15" s="86"/>
       <c r="B15" s="43" t="s">
         <v>23</v>
       </c>
@@ -7193,7 +7190,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="75" t="s">
+      <c r="A16" s="84" t="s">
         <v>52</v>
       </c>
       <c r="B16" s="43" t="s">
@@ -7211,7 +7208,7 @@
       <c r="J16" s="6"/>
     </row>
     <row r="17" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A17" s="76"/>
+      <c r="A17" s="85"/>
       <c r="B17" s="43" t="s">
         <v>22</v>
       </c>
@@ -7226,7 +7223,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="77"/>
+      <c r="A18" s="86"/>
       <c r="B18" s="43" t="s">
         <v>23</v>
       </c>
@@ -7251,13 +7248,13 @@
       <c r="G20" s="33"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A21" s="78" t="s">
+      <c r="A21" s="87" t="s">
         <v>180</v>
       </c>
-      <c r="B21" s="79"/>
-      <c r="C21" s="79"/>
-      <c r="D21" s="79"/>
-      <c r="E21" s="80"/>
+      <c r="B21" s="88"/>
+      <c r="C21" s="88"/>
+      <c r="D21" s="88"/>
+      <c r="E21" s="89"/>
       <c r="G21" s="33"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.5">
@@ -7279,7 +7276,7 @@
       <c r="G22" s="33"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A23" s="75" t="s">
+      <c r="A23" s="84" t="s">
         <v>51</v>
       </c>
       <c r="B23" s="43" t="s">
@@ -7296,7 +7293,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A24" s="76"/>
+      <c r="A24" s="85"/>
       <c r="B24" s="43" t="s">
         <v>22</v>
       </c>
@@ -7311,7 +7308,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A25" s="77"/>
+      <c r="A25" s="86"/>
       <c r="B25" s="43" t="s">
         <v>23</v>
       </c>
@@ -7326,7 +7323,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A26" s="75" t="s">
+      <c r="A26" s="84" t="s">
         <v>52</v>
       </c>
       <c r="B26" s="43" t="s">
@@ -7343,7 +7340,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A27" s="76"/>
+      <c r="A27" s="85"/>
       <c r="B27" s="43" t="s">
         <v>22</v>
       </c>
@@ -7358,7 +7355,7 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A28" s="77"/>
+      <c r="A28" s="86"/>
       <c r="B28" s="43" t="s">
         <v>23</v>
       </c>
@@ -7391,14 +7388,14 @@
       </c>
     </row>
     <row r="32" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="73" t="s">
+      <c r="A32" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="B32" s="74"/>
-      <c r="C32" s="74"/>
-      <c r="D32" s="74"/>
-      <c r="E32" s="74"/>
-      <c r="F32" s="87"/>
+      <c r="B32" s="83"/>
+      <c r="C32" s="83"/>
+      <c r="D32" s="83"/>
+      <c r="E32" s="83"/>
+      <c r="F32" s="96"/>
       <c r="G32" s="14" t="s">
         <v>67</v>
       </c>
@@ -7427,7 +7424,7 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A34" s="55" t="s">
+      <c r="A34" s="64" t="s">
         <v>21</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -7451,7 +7448,7 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A35" s="56"/>
+      <c r="A35" s="65"/>
       <c r="B35" s="2" t="s">
         <v>47</v>
       </c>
@@ -7474,7 +7471,7 @@
       </c>
     </row>
     <row r="36" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A36" s="55" t="s">
+      <c r="A36" s="64" t="s">
         <v>22</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -7498,7 +7495,7 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A37" s="56"/>
+      <c r="A37" s="65"/>
       <c r="B37" s="2" t="s">
         <v>47</v>
       </c>
@@ -7521,7 +7518,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A38" s="55" t="s">
+      <c r="A38" s="64" t="s">
         <v>23</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -7542,7 +7539,7 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A39" s="56"/>
+      <c r="A39" s="65"/>
       <c r="B39" s="2" t="s">
         <v>47</v>
       </c>
@@ -7575,14 +7572,14 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A41" s="62" t="s">
+      <c r="A41" s="71" t="s">
         <v>50</v>
       </c>
-      <c r="B41" s="63"/>
-      <c r="C41" s="63"/>
-      <c r="D41" s="63"/>
-      <c r="E41" s="63"/>
-      <c r="F41" s="64"/>
+      <c r="B41" s="72"/>
+      <c r="C41" s="72"/>
+      <c r="D41" s="72"/>
+      <c r="E41" s="72"/>
+      <c r="F41" s="73"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A42" s="40" t="s">
@@ -7605,7 +7602,7 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A43" s="55" t="s">
+      <c r="A43" s="64" t="s">
         <v>21</v>
       </c>
       <c r="B43" s="2" t="s">
@@ -7628,7 +7625,7 @@
       <c r="H43" s="5"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A44" s="56"/>
+      <c r="A44" s="65"/>
       <c r="B44" s="2" t="s">
         <v>47</v>
       </c>
@@ -7652,7 +7649,7 @@
       <c r="H44" s="5"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A45" s="55" t="s">
+      <c r="A45" s="64" t="s">
         <v>22</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -7673,7 +7670,7 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A46" s="56"/>
+      <c r="A46" s="65"/>
       <c r="B46" s="2" t="s">
         <v>47</v>
       </c>
@@ -7696,7 +7693,7 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A47" s="55" t="s">
+      <c r="A47" s="64" t="s">
         <v>23</v>
       </c>
       <c r="B47" s="2" t="s">
@@ -7717,7 +7714,7 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A48" s="56"/>
+      <c r="A48" s="65"/>
       <c r="B48" s="2" t="s">
         <v>47</v>
       </c>
@@ -7745,20 +7742,20 @@
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A51" s="78" t="s">
+      <c r="A51" s="87" t="s">
         <v>60</v>
       </c>
-      <c r="B51" s="79"/>
-      <c r="C51" s="79"/>
-      <c r="D51" s="79"/>
-      <c r="E51" s="79"/>
-      <c r="F51" s="80"/>
+      <c r="B51" s="88"/>
+      <c r="C51" s="88"/>
+      <c r="D51" s="88"/>
+      <c r="E51" s="88"/>
+      <c r="F51" s="89"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A52" s="81" t="s">
+      <c r="A52" s="90" t="s">
         <v>64</v>
       </c>
-      <c r="B52" s="82"/>
+      <c r="B52" s="91"/>
       <c r="C52" s="10" t="s">
         <v>58</v>
       </c>
@@ -7773,7 +7770,7 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A53" s="88" t="s">
+      <c r="A53" s="97" t="s">
         <v>21</v>
       </c>
       <c r="B53" s="11" t="s">
@@ -7782,36 +7779,36 @@
       <c r="C53" s="41">
         <v>0.92610000000000003</v>
       </c>
-      <c r="D53" s="85">
+      <c r="D53" s="94">
         <f>C53-C54</f>
         <v>4.8399999999999999E-2</v>
       </c>
       <c r="E53" s="41">
         <v>0.9355</v>
       </c>
-      <c r="F53" s="85">
+      <c r="F53" s="94">
         <f>E53-E54</f>
         <v>3.3599999999999963E-2</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A54" s="89"/>
+      <c r="A54" s="98"/>
       <c r="B54" s="11" t="s">
         <v>62</v>
       </c>
       <c r="C54" s="41">
         <v>0.87770000000000004</v>
       </c>
-      <c r="D54" s="86"/>
+      <c r="D54" s="95"/>
       <c r="E54" s="41">
         <v>0.90190000000000003</v>
       </c>
-      <c r="F54" s="86"/>
+      <c r="F54" s="95"/>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A55" s="90" t="s">
+      <c r="A55" s="99" t="s">
         <v>22</v>
       </c>
       <c r="B55" s="13" t="s">
@@ -7820,14 +7817,14 @@
       <c r="C55" s="42">
         <v>0.83179999999999998</v>
       </c>
-      <c r="D55" s="85">
+      <c r="D55" s="94">
         <f t="shared" ref="D55:F55" si="2">C55-C56</f>
         <v>4.4300000000000006E-2</v>
       </c>
       <c r="E55" s="42">
         <v>0.86299999999999999</v>
       </c>
-      <c r="F55" s="85">
+      <c r="F55" s="94">
         <f t="shared" si="2"/>
         <v>1.6000000000000014E-2</v>
       </c>
@@ -7835,23 +7832,23 @@
       <c r="H55" s="2"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A56" s="91"/>
+      <c r="A56" s="100"/>
       <c r="B56" s="13" t="s">
         <v>62</v>
       </c>
       <c r="C56" s="42">
         <v>0.78749999999999998</v>
       </c>
-      <c r="D56" s="86"/>
+      <c r="D56" s="95"/>
       <c r="E56" s="42">
         <v>0.84699999999999998</v>
       </c>
-      <c r="F56" s="86"/>
+      <c r="F56" s="95"/>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A57" s="88" t="s">
+      <c r="A57" s="97" t="s">
         <v>23</v>
       </c>
       <c r="B57" s="11" t="s">
@@ -7860,14 +7857,14 @@
       <c r="C57" s="41">
         <v>0.90229999999999999</v>
       </c>
-      <c r="D57" s="85">
+      <c r="D57" s="94">
         <f t="shared" ref="D57:F57" si="3">C57-C58</f>
         <v>2.6000000000000023E-2</v>
       </c>
       <c r="E57" s="41">
         <v>0.91910000000000003</v>
       </c>
-      <c r="F57" s="85">
+      <c r="F57" s="94">
         <f t="shared" si="3"/>
         <v>1.0900000000000021E-2</v>
       </c>
@@ -7875,18 +7872,18 @@
       <c r="H57" s="2"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A58" s="89"/>
+      <c r="A58" s="98"/>
       <c r="B58" s="11" t="s">
         <v>62</v>
       </c>
       <c r="C58" s="41">
         <v>0.87629999999999997</v>
       </c>
-      <c r="D58" s="86"/>
+      <c r="D58" s="95"/>
       <c r="E58" s="41">
         <v>0.90820000000000001</v>
       </c>
-      <c r="F58" s="86"/>
+      <c r="F58" s="95"/>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
     </row>
@@ -7899,22 +7896,22 @@
       <c r="H59" s="2"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A60" s="73" t="s">
+      <c r="A60" s="82" t="s">
         <v>61</v>
       </c>
-      <c r="B60" s="74"/>
-      <c r="C60" s="74"/>
-      <c r="D60" s="74"/>
-      <c r="E60" s="74"/>
-      <c r="F60" s="87"/>
+      <c r="B60" s="83"/>
+      <c r="C60" s="83"/>
+      <c r="D60" s="83"/>
+      <c r="E60" s="83"/>
+      <c r="F60" s="96"/>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A61" s="83" t="s">
+      <c r="A61" s="92" t="s">
         <v>64</v>
       </c>
-      <c r="B61" s="84"/>
+      <c r="B61" s="93"/>
       <c r="C61" s="12" t="s">
         <v>58</v>
       </c>
@@ -7931,7 +7928,7 @@
       <c r="H61" s="2"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A62" s="88" t="s">
+      <c r="A62" s="97" t="s">
         <v>21</v>
       </c>
       <c r="B62" s="11" t="s">
@@ -7940,14 +7937,14 @@
       <c r="C62" s="41">
         <v>0.85699999999999998</v>
       </c>
-      <c r="D62" s="85">
+      <c r="D62" s="94">
         <f>C62-C63</f>
         <v>1.7000000000000015E-2</v>
       </c>
       <c r="E62" s="41">
         <v>0.88139999999999996</v>
       </c>
-      <c r="F62" s="85">
+      <c r="F62" s="94">
         <f>E62-E63</f>
         <v>8.799999999999919E-3</v>
       </c>
@@ -7955,23 +7952,23 @@
       <c r="H62" s="2"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A63" s="89"/>
+      <c r="A63" s="98"/>
       <c r="B63" s="11" t="s">
         <v>62</v>
       </c>
       <c r="C63" s="41">
         <v>0.84</v>
       </c>
-      <c r="D63" s="86"/>
+      <c r="D63" s="95"/>
       <c r="E63" s="41">
         <v>0.87260000000000004</v>
       </c>
-      <c r="F63" s="86"/>
+      <c r="F63" s="95"/>
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A64" s="90" t="s">
+      <c r="A64" s="99" t="s">
         <v>22</v>
       </c>
       <c r="B64" s="13" t="s">
@@ -7980,14 +7977,14 @@
       <c r="C64" s="42">
         <v>0.92249999999999999</v>
       </c>
-      <c r="D64" s="85">
+      <c r="D64" s="94">
         <f t="shared" ref="D64" si="4">C64-C65</f>
         <v>5.9999999999999942E-2</v>
       </c>
       <c r="E64" s="42">
         <v>0.93559999999999999</v>
       </c>
-      <c r="F64" s="85">
+      <c r="F64" s="94">
         <f t="shared" ref="F64" si="5">E64-E65</f>
         <v>4.1100000000000025E-2</v>
       </c>
@@ -7995,23 +7992,23 @@
       <c r="H64" s="2"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A65" s="91"/>
+      <c r="A65" s="100"/>
       <c r="B65" s="13" t="s">
         <v>62</v>
       </c>
       <c r="C65" s="42">
         <v>0.86250000000000004</v>
       </c>
-      <c r="D65" s="86"/>
+      <c r="D65" s="95"/>
       <c r="E65" s="42">
         <v>0.89449999999999996</v>
       </c>
-      <c r="F65" s="86"/>
+      <c r="F65" s="95"/>
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A66" s="88" t="s">
+      <c r="A66" s="97" t="s">
         <v>23</v>
       </c>
       <c r="B66" s="11" t="s">
@@ -8020,14 +8017,14 @@
       <c r="C66" s="41">
         <v>0.87090000000000001</v>
       </c>
-      <c r="D66" s="85">
+      <c r="D66" s="94">
         <f t="shared" ref="D66" si="6">C66-C67</f>
         <v>3.4800000000000053E-2</v>
       </c>
       <c r="E66" s="41">
         <v>0.89049999999999996</v>
       </c>
-      <c r="F66" s="85">
+      <c r="F66" s="94">
         <f t="shared" ref="F66" si="7">E66-E67</f>
         <v>2.739999999999998E-2</v>
       </c>
@@ -8035,18 +8032,18 @@
       <c r="H66" s="2"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A67" s="89"/>
+      <c r="A67" s="98"/>
       <c r="B67" s="11" t="s">
         <v>62</v>
       </c>
       <c r="C67" s="41">
         <v>0.83609999999999995</v>
       </c>
-      <c r="D67" s="86"/>
+      <c r="D67" s="95"/>
       <c r="E67" s="41">
         <v>0.86309999999999998</v>
       </c>
-      <c r="F67" s="86"/>
+      <c r="F67" s="95"/>
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
     </row>
@@ -8061,13 +8058,13 @@
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A71" s="73" t="s">
+      <c r="A71" s="82" t="s">
         <v>229</v>
       </c>
-      <c r="B71" s="74"/>
-      <c r="C71" s="74"/>
-      <c r="D71" s="74"/>
-      <c r="E71" s="74"/>
+      <c r="B71" s="83"/>
+      <c r="C71" s="83"/>
+      <c r="D71" s="83"/>
+      <c r="E71" s="83"/>
       <c r="F71" s="45" t="s">
         <v>189</v>
       </c>
@@ -8093,7 +8090,7 @@
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A73" s="55" t="s">
+      <c r="A73" s="64" t="s">
         <v>21</v>
       </c>
       <c r="B73" s="4" t="s">
@@ -8110,7 +8107,7 @@
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A74" s="56"/>
+      <c r="A74" s="65"/>
       <c r="B74" s="4" t="s">
         <v>52</v>
       </c>
@@ -8125,7 +8122,7 @@
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A75" s="55" t="s">
+      <c r="A75" s="64" t="s">
         <v>22</v>
       </c>
       <c r="B75" s="4" t="s">
@@ -8142,7 +8139,7 @@
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A76" s="56"/>
+      <c r="A76" s="65"/>
       <c r="B76" s="4" t="s">
         <v>52</v>
       </c>
@@ -8157,7 +8154,7 @@
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A77" s="55" t="s">
+      <c r="A77" s="64" t="s">
         <v>23</v>
       </c>
       <c r="B77" s="4" t="s">
@@ -8174,7 +8171,7 @@
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A78" s="56"/>
+      <c r="A78" s="65"/>
       <c r="B78" s="4" t="s">
         <v>52</v>
       </c>
@@ -8273,7 +8270,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="27.9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="101" t="s">
         <v>21</v>
       </c>
       <c r="B2" s="46" t="s">
@@ -8287,7 +8284,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="27.9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="92"/>
+      <c r="A3" s="101"/>
       <c r="B3" s="46" t="s">
         <v>193</v>
       </c>
@@ -8296,7 +8293,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="14.7" x14ac:dyDescent="0.6">
-      <c r="A4" s="92"/>
+      <c r="A4" s="101"/>
       <c r="B4" s="48" t="s">
         <v>194</v>
       </c>
@@ -8305,7 +8302,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="27.9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="92"/>
+      <c r="A5" s="101"/>
       <c r="B5" s="46" t="s">
         <v>195</v>
       </c>
@@ -8314,7 +8311,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.7" x14ac:dyDescent="0.6">
-      <c r="A6" s="92"/>
+      <c r="A6" s="101"/>
       <c r="B6" s="46" t="s">
         <v>196</v>
       </c>
@@ -8323,7 +8320,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="27.9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="92" t="s">
+      <c r="A7" s="101" t="s">
         <v>22</v>
       </c>
       <c r="B7" s="46" t="s">
@@ -8337,7 +8334,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="14.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="92"/>
+      <c r="A8" s="101"/>
       <c r="B8" s="46" t="s">
         <v>197</v>
       </c>
@@ -8346,7 +8343,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="28.2" x14ac:dyDescent="0.6">
-      <c r="A9" s="92"/>
+      <c r="A9" s="101"/>
       <c r="B9" s="46" t="s">
         <v>199</v>
       </c>
@@ -8355,7 +8352,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.3" x14ac:dyDescent="0.6">
-      <c r="A10" s="92"/>
+      <c r="A10" s="101"/>
       <c r="B10" s="48" t="s">
         <v>200</v>
       </c>
@@ -8367,7 +8364,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="41.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="92"/>
+      <c r="A11" s="101"/>
       <c r="B11" s="46" t="s">
         <v>201</v>
       </c>
@@ -8379,7 +8376,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="27.9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="92" t="s">
+      <c r="A12" s="101" t="s">
         <v>23</v>
       </c>
       <c r="B12" s="46" t="s">
@@ -8393,7 +8390,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="27.9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="92"/>
+      <c r="A13" s="101"/>
       <c r="B13" s="46" t="s">
         <v>203</v>
       </c>
@@ -8405,7 +8402,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="42" x14ac:dyDescent="0.6">
-      <c r="A14" s="92"/>
+      <c r="A14" s="101"/>
       <c r="B14" s="48" t="s">
         <v>204</v>
       </c>
@@ -8414,7 +8411,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="14.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="92"/>
+      <c r="A15" s="101"/>
       <c r="B15" s="48" t="s">
         <v>205</v>
       </c>
@@ -8423,7 +8420,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="28.2" x14ac:dyDescent="0.6">
-      <c r="A16" s="92"/>
+      <c r="A16" s="101"/>
       <c r="B16" s="48" t="s">
         <v>206</v>
       </c>
@@ -8446,8 +8443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9F85180-B75F-41A9-8E4F-C61B20449988}">
   <dimension ref="A2:L61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50:E51"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -8793,7 +8790,7 @@
         <f t="shared" si="8"/>
         <v>-7.3299999999999983</v>
       </c>
-      <c r="I17" s="93">
+      <c r="I17" s="52">
         <f t="shared" si="8"/>
         <v>-16.899999999999999</v>
       </c>
@@ -8822,7 +8819,7 @@
         <f t="shared" si="9"/>
         <v>-5.9499999999999993</v>
       </c>
-      <c r="H18" s="93">
+      <c r="H18" s="52">
         <f t="shared" si="9"/>
         <v>-12.329999999999998</v>
       </c>
@@ -8851,7 +8848,7 @@
         <f t="shared" si="10"/>
         <v>-5.26</v>
       </c>
-      <c r="G19" s="93">
+      <c r="G19" s="52">
         <f t="shared" si="10"/>
         <v>-8.4499999999999993</v>
       </c>
@@ -8876,11 +8873,11 @@
         <f t="shared" ref="D20:I20" si="11">$B20-0.0638*D23</f>
         <v>-1.38</v>
       </c>
-      <c r="E20" s="94">
+      <c r="E20" s="55">
         <f t="shared" si="11"/>
         <v>-4.5699999999999985</v>
       </c>
-      <c r="F20" s="93">
+      <c r="F20" s="52">
         <f t="shared" si="11"/>
         <v>-7.76</v>
       </c>
@@ -8905,7 +8902,7 @@
         <f>$B21-0.0638*C23</f>
         <v>-1.19</v>
       </c>
-      <c r="D21" s="93">
+      <c r="D21" s="52">
         <f t="shared" ref="D21:I21" si="12">$B21-0.0638*D23</f>
         <v>-4.38</v>
       </c>
@@ -8934,7 +8931,7 @@
       <c r="B22" s="4">
         <v>1</v>
       </c>
-      <c r="C22" s="93">
+      <c r="C22" s="52">
         <f>$B22-0.0638*C23</f>
         <v>-2.19</v>
       </c>
@@ -8990,16 +8987,16 @@
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B26" s="95" t="s">
+      <c r="B26" s="104" t="s">
         <v>234</v>
       </c>
-      <c r="C26" s="96"/>
-      <c r="D26" s="96"/>
-      <c r="E26" s="96"/>
-      <c r="F26" s="96"/>
-      <c r="G26" s="96"/>
-      <c r="H26" s="96"/>
-      <c r="I26" s="97"/>
+      <c r="C26" s="105"/>
+      <c r="D26" s="105"/>
+      <c r="E26" s="105"/>
+      <c r="F26" s="105"/>
+      <c r="G26" s="105"/>
+      <c r="H26" s="105"/>
+      <c r="I26" s="106"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B27" s="50" t="s">
@@ -9010,32 +9007,32 @@
       <c r="B28" s="4">
         <v>20</v>
       </c>
-      <c r="C28" s="98">
-        <f>0.0368*C$35</f>
+      <c r="C28" s="56">
+        <f t="shared" ref="C28:I28" si="14">0.0368*C$35</f>
         <v>1.8399999999999999</v>
       </c>
-      <c r="D28" s="98">
-        <f>0.0368*D$35</f>
+      <c r="D28" s="56">
+        <f t="shared" si="14"/>
         <v>3.6799999999999997</v>
       </c>
-      <c r="E28" s="98">
-        <f>0.0368*E$35</f>
+      <c r="E28" s="56">
+        <f t="shared" si="14"/>
         <v>5.52</v>
       </c>
-      <c r="F28" s="98">
-        <f>0.0368*F$35</f>
+      <c r="F28" s="56">
+        <f t="shared" si="14"/>
         <v>7.3599999999999994</v>
       </c>
-      <c r="G28" s="98">
-        <f>0.0368*G$35</f>
+      <c r="G28" s="56">
+        <f t="shared" si="14"/>
         <v>9.1999999999999993</v>
       </c>
-      <c r="H28" s="98">
-        <f>0.0368*H$35</f>
+      <c r="H28" s="56">
+        <f t="shared" si="14"/>
         <v>12.879999999999999</v>
       </c>
-      <c r="I28" s="98">
-        <f>0.0368*I$35</f>
+      <c r="I28" s="56">
+        <f t="shared" si="14"/>
         <v>18.399999999999999</v>
       </c>
     </row>
@@ -9043,31 +9040,31 @@
       <c r="B29" s="4">
         <v>15</v>
       </c>
-      <c r="C29" s="98">
-        <f t="shared" ref="C29:G33" si="14">0.0368*C$35</f>
+      <c r="C29" s="56">
+        <f t="shared" ref="C29:G33" si="15">0.0368*C$35</f>
         <v>1.8399999999999999</v>
       </c>
-      <c r="D29" s="98">
-        <f t="shared" si="14"/>
+      <c r="D29" s="56">
+        <f t="shared" si="15"/>
         <v>3.6799999999999997</v>
       </c>
-      <c r="E29" s="98">
-        <f t="shared" si="14"/>
+      <c r="E29" s="56">
+        <f t="shared" si="15"/>
         <v>5.52</v>
       </c>
-      <c r="F29" s="98">
-        <f t="shared" si="14"/>
+      <c r="F29" s="56">
+        <f t="shared" si="15"/>
         <v>7.3599999999999994</v>
       </c>
-      <c r="G29" s="98">
-        <f t="shared" si="14"/>
+      <c r="G29" s="56">
+        <f t="shared" si="15"/>
         <v>9.1999999999999993</v>
       </c>
-      <c r="H29" s="98">
+      <c r="H29" s="56">
         <f>0.0368*H$35</f>
         <v>12.879999999999999</v>
       </c>
-      <c r="I29" s="99">
+      <c r="I29" s="57">
         <f>-$B29+0.0368*I35</f>
         <v>3.3999999999999986</v>
       </c>
@@ -9076,31 +9073,31 @@
       <c r="B30" s="4">
         <v>10</v>
       </c>
-      <c r="C30" s="98">
-        <f t="shared" si="14"/>
+      <c r="C30" s="56">
+        <f t="shared" si="15"/>
         <v>1.8399999999999999</v>
       </c>
-      <c r="D30" s="98">
-        <f t="shared" si="14"/>
+      <c r="D30" s="56">
+        <f t="shared" si="15"/>
         <v>3.6799999999999997</v>
       </c>
-      <c r="E30" s="98">
-        <f t="shared" si="14"/>
+      <c r="E30" s="56">
+        <f t="shared" si="15"/>
         <v>5.52</v>
       </c>
-      <c r="F30" s="98">
-        <f t="shared" si="14"/>
+      <c r="F30" s="56">
+        <f t="shared" si="15"/>
         <v>7.3599999999999994</v>
       </c>
-      <c r="G30" s="98">
-        <f t="shared" si="14"/>
+      <c r="G30" s="56">
+        <f t="shared" si="15"/>
         <v>9.1999999999999993</v>
       </c>
-      <c r="H30" s="99">
+      <c r="H30" s="57">
         <f>-$B30+0.0368*H35</f>
         <v>2.879999999999999</v>
       </c>
-      <c r="I30" s="99">
+      <c r="I30" s="57">
         <f>-$B30+0.0368*I35</f>
         <v>8.3999999999999986</v>
       </c>
@@ -9109,32 +9106,32 @@
       <c r="B31" s="4">
         <v>7.5</v>
       </c>
-      <c r="C31" s="98">
-        <f t="shared" si="14"/>
+      <c r="C31" s="56">
+        <f t="shared" si="15"/>
         <v>1.8399999999999999</v>
       </c>
-      <c r="D31" s="98">
-        <f t="shared" si="14"/>
+      <c r="D31" s="56">
+        <f t="shared" si="15"/>
         <v>3.6799999999999997</v>
       </c>
-      <c r="E31" s="98">
-        <f t="shared" si="14"/>
+      <c r="E31" s="56">
+        <f t="shared" si="15"/>
         <v>5.52</v>
       </c>
-      <c r="F31" s="98">
-        <f t="shared" si="14"/>
+      <c r="F31" s="56">
+        <f t="shared" si="15"/>
         <v>7.3599999999999994</v>
       </c>
-      <c r="G31" s="99">
+      <c r="G31" s="57">
         <f>-$B31+0.0368*G35</f>
         <v>1.6999999999999993</v>
       </c>
-      <c r="H31" s="99">
-        <f t="shared" ref="H30:I31" si="15">-$B31+0.0368*H35</f>
+      <c r="H31" s="57">
+        <f t="shared" ref="H31:I31" si="16">-$B31+0.0368*H35</f>
         <v>5.379999999999999</v>
       </c>
-      <c r="I31" s="99">
-        <f t="shared" si="15"/>
+      <c r="I31" s="57">
+        <f t="shared" si="16"/>
         <v>10.899999999999999</v>
       </c>
     </row>
@@ -9142,32 +9139,32 @@
       <c r="B32" s="4">
         <v>5</v>
       </c>
-      <c r="C32" s="98">
-        <f t="shared" si="14"/>
+      <c r="C32" s="56">
+        <f t="shared" si="15"/>
         <v>1.8399999999999999</v>
       </c>
-      <c r="D32" s="98">
-        <f t="shared" si="14"/>
+      <c r="D32" s="56">
+        <f t="shared" si="15"/>
         <v>3.6799999999999997</v>
       </c>
-      <c r="E32" s="99">
+      <c r="E32" s="57">
         <f>-$B32+0.0368*E35</f>
         <v>0.51999999999999957</v>
       </c>
-      <c r="F32" s="99">
-        <f t="shared" ref="F31:I32" si="16">-$B32+0.0368*F35</f>
+      <c r="F32" s="57">
+        <f t="shared" ref="F32:I32" si="17">-$B32+0.0368*F35</f>
         <v>2.3599999999999994</v>
       </c>
-      <c r="G32" s="99">
-        <f t="shared" si="16"/>
+      <c r="G32" s="57">
+        <f t="shared" si="17"/>
         <v>4.1999999999999993</v>
       </c>
-      <c r="H32" s="99">
-        <f t="shared" si="16"/>
+      <c r="H32" s="57">
+        <f t="shared" si="17"/>
         <v>7.879999999999999</v>
       </c>
-      <c r="I32" s="99">
-        <f t="shared" si="16"/>
+      <c r="I32" s="57">
+        <f t="shared" si="17"/>
         <v>13.399999999999999</v>
       </c>
     </row>
@@ -9175,32 +9172,32 @@
       <c r="B33" s="4">
         <v>2</v>
       </c>
-      <c r="C33" s="98">
-        <f t="shared" si="14"/>
+      <c r="C33" s="56">
+        <f t="shared" si="15"/>
         <v>1.8399999999999999</v>
       </c>
-      <c r="D33" s="99">
+      <c r="D33" s="57">
         <f>-$B33+0.0368*D35</f>
         <v>1.6799999999999997</v>
       </c>
-      <c r="E33" s="99">
-        <f t="shared" ref="E32:I33" si="17">-$B33+0.0368*E35</f>
+      <c r="E33" s="57">
+        <f t="shared" ref="E33:I33" si="18">-$B33+0.0368*E35</f>
         <v>3.5199999999999996</v>
       </c>
-      <c r="F33" s="99">
-        <f t="shared" si="17"/>
+      <c r="F33" s="57">
+        <f t="shared" si="18"/>
         <v>5.3599999999999994</v>
       </c>
-      <c r="G33" s="99">
-        <f t="shared" si="17"/>
+      <c r="G33" s="57">
+        <f t="shared" si="18"/>
         <v>7.1999999999999993</v>
       </c>
-      <c r="H33" s="99">
-        <f t="shared" si="17"/>
+      <c r="H33" s="57">
+        <f t="shared" si="18"/>
         <v>10.879999999999999</v>
       </c>
-      <c r="I33" s="99">
-        <f t="shared" si="17"/>
+      <c r="I33" s="57">
+        <f t="shared" si="18"/>
         <v>16.399999999999999</v>
       </c>
     </row>
@@ -9208,32 +9205,32 @@
       <c r="B34" s="4">
         <v>1</v>
       </c>
-      <c r="C34" s="99">
+      <c r="C34" s="57">
         <f>-$B34+0.0368*C35</f>
         <v>0.83999999999999986</v>
       </c>
-      <c r="D34" s="99">
-        <f t="shared" ref="D33:I34" si="18">-$B34+0.0368*D35</f>
+      <c r="D34" s="57">
+        <f t="shared" ref="D34:I34" si="19">-$B34+0.0368*D35</f>
         <v>2.6799999999999997</v>
       </c>
-      <c r="E34" s="99">
-        <f t="shared" si="18"/>
+      <c r="E34" s="57">
+        <f t="shared" si="19"/>
         <v>4.5199999999999996</v>
       </c>
-      <c r="F34" s="99">
-        <f t="shared" si="18"/>
+      <c r="F34" s="57">
+        <f t="shared" si="19"/>
         <v>6.3599999999999994</v>
       </c>
-      <c r="G34" s="99">
-        <f t="shared" si="18"/>
+      <c r="G34" s="57">
+        <f t="shared" si="19"/>
         <v>8.1999999999999993</v>
       </c>
-      <c r="H34" s="99">
-        <f t="shared" si="18"/>
+      <c r="H34" s="57">
+        <f t="shared" si="19"/>
         <v>11.879999999999999</v>
       </c>
-      <c r="I34" s="99">
-        <f t="shared" si="18"/>
+      <c r="I34" s="57">
+        <f t="shared" si="19"/>
         <v>17.399999999999999</v>
       </c>
     </row>
@@ -9277,451 +9274,451 @@
       <c r="K39" s="54"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A40" s="101"/>
-      <c r="B40" s="101"/>
-      <c r="C40" s="101"/>
-      <c r="D40" s="101"/>
-      <c r="E40" s="101"/>
-      <c r="F40" s="101"/>
-      <c r="G40" s="101"/>
-      <c r="H40" s="101"/>
-      <c r="I40" s="101"/>
-      <c r="J40" s="101"/>
-      <c r="K40" s="101"/>
+      <c r="A40" s="59"/>
+      <c r="B40" s="59"/>
+      <c r="C40" s="59"/>
+      <c r="D40" s="59"/>
+      <c r="E40" s="59"/>
+      <c r="F40" s="59"/>
+      <c r="G40" s="59"/>
+      <c r="H40" s="59"/>
+      <c r="I40" s="59"/>
+      <c r="J40" s="59"/>
+      <c r="K40" s="59"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A41" s="101"/>
-      <c r="B41" s="101"/>
-      <c r="C41" s="102" t="s">
+      <c r="A41" s="59"/>
+      <c r="B41" s="59"/>
+      <c r="C41" s="113" t="s">
         <v>239</v>
       </c>
-      <c r="D41" s="102"/>
-      <c r="E41" s="102"/>
-      <c r="F41" s="102"/>
-      <c r="G41" s="102"/>
-      <c r="H41" s="102"/>
-      <c r="I41" s="102"/>
-      <c r="J41" s="101"/>
-      <c r="K41" s="101"/>
+      <c r="D41" s="113"/>
+      <c r="E41" s="113"/>
+      <c r="F41" s="113"/>
+      <c r="G41" s="113"/>
+      <c r="H41" s="113"/>
+      <c r="I41" s="113"/>
+      <c r="J41" s="59"/>
+      <c r="K41" s="59"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A42" s="101"/>
-      <c r="B42" s="114" t="s">
+      <c r="A42" s="59"/>
+      <c r="B42" s="107" t="s">
         <v>240</v>
       </c>
-      <c r="C42" s="106">
+      <c r="C42" s="108">
         <v>184</v>
       </c>
-      <c r="D42" s="106">
+      <c r="D42" s="108">
         <v>368</v>
       </c>
-      <c r="E42" s="106">
+      <c r="E42" s="108">
         <v>552</v>
       </c>
-      <c r="F42" s="106">
+      <c r="F42" s="108">
         <v>736</v>
       </c>
-      <c r="G42" s="106">
+      <c r="G42" s="108">
         <v>920</v>
       </c>
-      <c r="H42" s="107">
+      <c r="H42" s="61">
         <v>1288</v>
       </c>
-      <c r="I42" s="107">
+      <c r="I42" s="61">
         <v>1840</v>
       </c>
-      <c r="J42" s="101"/>
-      <c r="K42" s="101"/>
+      <c r="J42" s="59"/>
+      <c r="K42" s="59"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A43" s="101"/>
-      <c r="B43" s="112"/>
-      <c r="C43" s="106"/>
-      <c r="D43" s="106"/>
-      <c r="E43" s="106"/>
-      <c r="F43" s="106"/>
-      <c r="G43" s="106"/>
-      <c r="H43" s="108">
+      <c r="A43" s="59"/>
+      <c r="B43" s="102"/>
+      <c r="C43" s="108"/>
+      <c r="D43" s="108"/>
+      <c r="E43" s="108"/>
+      <c r="F43" s="108"/>
+      <c r="G43" s="108"/>
+      <c r="H43" s="62">
         <v>-233</v>
       </c>
-      <c r="I43" s="108">
+      <c r="I43" s="62">
         <v>-1190</v>
       </c>
-      <c r="J43" s="101"/>
-      <c r="K43" s="101"/>
+      <c r="J43" s="59"/>
+      <c r="K43" s="59"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A44" s="101"/>
-      <c r="B44" s="112">
+      <c r="A44" s="59"/>
+      <c r="B44" s="102">
         <v>15</v>
       </c>
-      <c r="C44" s="106">
+      <c r="C44" s="108">
         <v>184</v>
       </c>
-      <c r="D44" s="106">
+      <c r="D44" s="108">
         <v>368</v>
       </c>
-      <c r="E44" s="106">
+      <c r="E44" s="108">
         <v>552</v>
       </c>
-      <c r="F44" s="106">
+      <c r="F44" s="108">
         <v>736</v>
       </c>
-      <c r="G44" s="107">
+      <c r="G44" s="61">
         <v>920</v>
       </c>
-      <c r="H44" s="107">
+      <c r="H44" s="61">
         <v>1288</v>
       </c>
-      <c r="I44" s="115">
+      <c r="I44" s="109">
         <v>340</v>
       </c>
-      <c r="J44" s="101"/>
-      <c r="K44" s="101"/>
+      <c r="J44" s="59"/>
+      <c r="K44" s="59"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A45" s="101"/>
-      <c r="B45" s="112"/>
-      <c r="C45" s="106"/>
-      <c r="D45" s="106"/>
-      <c r="E45" s="106"/>
-      <c r="F45" s="106"/>
-      <c r="G45" s="108">
+      <c r="A45" s="59"/>
+      <c r="B45" s="102"/>
+      <c r="C45" s="108"/>
+      <c r="D45" s="108"/>
+      <c r="E45" s="108"/>
+      <c r="F45" s="108"/>
+      <c r="G45" s="62">
         <v>-95</v>
       </c>
-      <c r="H45" s="108">
+      <c r="H45" s="62">
         <v>-733</v>
       </c>
-      <c r="I45" s="115"/>
-      <c r="J45" s="101"/>
-      <c r="K45" s="101"/>
+      <c r="I45" s="109"/>
+      <c r="J45" s="59"/>
+      <c r="K45" s="59"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A46" s="101"/>
-      <c r="B46" s="112">
+      <c r="A46" s="59"/>
+      <c r="B46" s="102">
         <v>10</v>
       </c>
-      <c r="C46" s="106">
+      <c r="C46" s="108">
         <v>184</v>
       </c>
-      <c r="D46" s="106">
+      <c r="D46" s="108">
         <v>368</v>
       </c>
-      <c r="E46" s="106">
+      <c r="E46" s="108">
         <v>552</v>
       </c>
-      <c r="F46" s="107">
+      <c r="F46" s="61">
         <v>736</v>
       </c>
-      <c r="G46" s="107">
+      <c r="G46" s="61">
         <v>920</v>
       </c>
-      <c r="H46" s="115">
+      <c r="H46" s="109">
         <v>288</v>
       </c>
-      <c r="I46" s="115">
+      <c r="I46" s="109">
         <v>840</v>
       </c>
-      <c r="J46" s="101"/>
-      <c r="K46" s="101"/>
+      <c r="J46" s="59"/>
+      <c r="K46" s="59"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A47" s="101"/>
-      <c r="B47" s="112"/>
-      <c r="C47" s="106"/>
-      <c r="D47" s="106"/>
-      <c r="E47" s="106"/>
-      <c r="F47" s="108">
+      <c r="A47" s="59"/>
+      <c r="B47" s="102"/>
+      <c r="C47" s="108"/>
+      <c r="D47" s="108"/>
+      <c r="E47" s="108"/>
+      <c r="F47" s="62">
         <v>-276</v>
       </c>
-      <c r="G47" s="108">
+      <c r="G47" s="62">
         <v>-595</v>
       </c>
-      <c r="H47" s="115"/>
-      <c r="I47" s="115"/>
-      <c r="J47" s="101"/>
-      <c r="K47" s="101"/>
+      <c r="H47" s="109"/>
+      <c r="I47" s="109"/>
+      <c r="J47" s="59"/>
+      <c r="K47" s="59"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A48" s="101"/>
-      <c r="B48" s="112">
+      <c r="A48" s="59"/>
+      <c r="B48" s="102">
         <v>7.5</v>
       </c>
-      <c r="C48" s="106">
+      <c r="C48" s="108">
         <v>184</v>
       </c>
-      <c r="D48" s="106">
+      <c r="D48" s="108">
         <v>368</v>
       </c>
-      <c r="E48" s="107">
+      <c r="E48" s="61">
         <v>552</v>
       </c>
-      <c r="F48" s="107">
+      <c r="F48" s="61">
         <v>736</v>
       </c>
-      <c r="G48" s="115">
+      <c r="G48" s="109">
         <v>170</v>
       </c>
-      <c r="H48" s="115">
+      <c r="H48" s="109">
         <v>538</v>
       </c>
-      <c r="I48" s="115">
+      <c r="I48" s="109">
         <v>1090</v>
       </c>
-      <c r="J48" s="101"/>
-      <c r="K48" s="101"/>
+      <c r="J48" s="59"/>
+      <c r="K48" s="59"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A49" s="101"/>
-      <c r="B49" s="112"/>
-      <c r="C49" s="106"/>
-      <c r="D49" s="106"/>
-      <c r="E49" s="108">
+      <c r="A49" s="59"/>
+      <c r="B49" s="102"/>
+      <c r="C49" s="108"/>
+      <c r="D49" s="108"/>
+      <c r="E49" s="62">
         <v>-207</v>
       </c>
-      <c r="F49" s="108">
+      <c r="F49" s="62">
         <v>-526</v>
       </c>
-      <c r="G49" s="115"/>
-      <c r="H49" s="115"/>
-      <c r="I49" s="115"/>
-      <c r="J49" s="101"/>
-      <c r="K49" s="101"/>
+      <c r="G49" s="109"/>
+      <c r="H49" s="109"/>
+      <c r="I49" s="109"/>
+      <c r="J49" s="59"/>
+      <c r="K49" s="59"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A50" s="101"/>
-      <c r="B50" s="112">
+      <c r="A50" s="59"/>
+      <c r="B50" s="102">
         <v>5</v>
       </c>
-      <c r="C50" s="106">
+      <c r="C50" s="108">
         <v>184</v>
       </c>
-      <c r="D50" s="107">
+      <c r="D50" s="61">
         <v>368</v>
       </c>
-      <c r="E50" s="115">
+      <c r="E50" s="109">
         <v>52</v>
       </c>
-      <c r="F50" s="115">
+      <c r="F50" s="109">
         <v>236</v>
       </c>
-      <c r="G50" s="115">
+      <c r="G50" s="109">
         <v>420</v>
       </c>
-      <c r="H50" s="115">
+      <c r="H50" s="109">
         <v>788</v>
       </c>
-      <c r="I50" s="115">
+      <c r="I50" s="109">
         <v>1340</v>
       </c>
-      <c r="J50" s="101"/>
-      <c r="K50" s="101"/>
+      <c r="J50" s="59"/>
+      <c r="K50" s="59"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A51" s="101"/>
-      <c r="B51" s="112"/>
-      <c r="C51" s="106"/>
-      <c r="D51" s="108">
+      <c r="A51" s="59"/>
+      <c r="B51" s="102"/>
+      <c r="C51" s="108"/>
+      <c r="D51" s="62">
         <v>-138</v>
       </c>
-      <c r="E51" s="115"/>
-      <c r="F51" s="115"/>
-      <c r="G51" s="115"/>
-      <c r="H51" s="115"/>
-      <c r="I51" s="115"/>
-      <c r="J51" s="101"/>
-      <c r="K51" s="101"/>
+      <c r="E51" s="109"/>
+      <c r="F51" s="109"/>
+      <c r="G51" s="109"/>
+      <c r="H51" s="109"/>
+      <c r="I51" s="109"/>
+      <c r="J51" s="59"/>
+      <c r="K51" s="59"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A52" s="101"/>
-      <c r="B52" s="112">
+      <c r="A52" s="59"/>
+      <c r="B52" s="102">
         <v>2</v>
       </c>
-      <c r="C52" s="107">
+      <c r="C52" s="61">
         <v>184</v>
       </c>
-      <c r="D52" s="115">
+      <c r="D52" s="109">
         <v>168</v>
       </c>
-      <c r="E52" s="115">
+      <c r="E52" s="109">
         <v>352</v>
       </c>
-      <c r="F52" s="115">
+      <c r="F52" s="109">
         <v>536</v>
       </c>
-      <c r="G52" s="115">
+      <c r="G52" s="109">
         <v>720</v>
       </c>
-      <c r="H52" s="115">
+      <c r="H52" s="109">
         <v>1088</v>
       </c>
-      <c r="I52" s="115">
+      <c r="I52" s="109">
         <v>1640</v>
       </c>
-      <c r="J52" s="101"/>
-      <c r="K52" s="101"/>
+      <c r="J52" s="59"/>
+      <c r="K52" s="59"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A53" s="101"/>
-      <c r="B53" s="112"/>
-      <c r="C53" s="108">
+      <c r="A53" s="59"/>
+      <c r="B53" s="102"/>
+      <c r="C53" s="62">
         <v>-119</v>
       </c>
-      <c r="D53" s="115"/>
-      <c r="E53" s="115"/>
-      <c r="F53" s="115"/>
-      <c r="G53" s="115"/>
-      <c r="H53" s="115"/>
-      <c r="I53" s="115"/>
-      <c r="J53" s="101"/>
-      <c r="K53" s="101"/>
+      <c r="D53" s="109"/>
+      <c r="E53" s="109"/>
+      <c r="F53" s="109"/>
+      <c r="G53" s="109"/>
+      <c r="H53" s="109"/>
+      <c r="I53" s="109"/>
+      <c r="J53" s="59"/>
+      <c r="K53" s="59"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A54" s="101"/>
-      <c r="B54" s="112">
+      <c r="A54" s="59"/>
+      <c r="B54" s="102">
         <v>1</v>
       </c>
-      <c r="C54" s="107">
+      <c r="C54" s="61">
         <v>84</v>
       </c>
-      <c r="D54" s="115">
+      <c r="D54" s="109">
         <v>268</v>
       </c>
-      <c r="E54" s="115">
+      <c r="E54" s="109">
         <v>452</v>
       </c>
-      <c r="F54" s="115">
+      <c r="F54" s="109">
         <v>636</v>
       </c>
-      <c r="G54" s="115">
+      <c r="G54" s="109">
         <v>820</v>
       </c>
-      <c r="H54" s="115">
+      <c r="H54" s="109">
         <v>1188</v>
       </c>
-      <c r="I54" s="115">
+      <c r="I54" s="109">
         <v>1740</v>
       </c>
-      <c r="J54" s="101"/>
-      <c r="K54" s="101"/>
+      <c r="J54" s="59"/>
+      <c r="K54" s="59"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A55" s="101"/>
-      <c r="B55" s="112"/>
-      <c r="C55" s="108">
+      <c r="A55" s="59"/>
+      <c r="B55" s="102"/>
+      <c r="C55" s="62">
         <v>-219</v>
       </c>
-      <c r="D55" s="115"/>
-      <c r="E55" s="115"/>
-      <c r="F55" s="115"/>
-      <c r="G55" s="115"/>
-      <c r="H55" s="115"/>
-      <c r="I55" s="115"/>
-      <c r="J55" s="101"/>
-      <c r="K55" s="101"/>
+      <c r="D55" s="109"/>
+      <c r="E55" s="109"/>
+      <c r="F55" s="109"/>
+      <c r="G55" s="109"/>
+      <c r="H55" s="109"/>
+      <c r="I55" s="109"/>
+      <c r="J55" s="59"/>
+      <c r="K55" s="59"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A56" s="101"/>
-      <c r="B56" s="103"/>
-      <c r="C56" s="113">
+      <c r="A56" s="59"/>
+      <c r="B56" s="60"/>
+      <c r="C56" s="103">
         <v>50</v>
       </c>
-      <c r="D56" s="113">
+      <c r="D56" s="103">
         <v>100</v>
       </c>
-      <c r="E56" s="113">
+      <c r="E56" s="103">
         <v>150</v>
       </c>
-      <c r="F56" s="113">
+      <c r="F56" s="103">
         <v>200</v>
       </c>
-      <c r="G56" s="113">
+      <c r="G56" s="103">
         <v>250</v>
       </c>
-      <c r="H56" s="113">
+      <c r="H56" s="103">
         <v>350</v>
       </c>
-      <c r="I56" s="113" t="s">
+      <c r="I56" s="103" t="s">
         <v>241</v>
       </c>
-      <c r="J56" s="101"/>
-      <c r="K56" s="101"/>
+      <c r="J56" s="59"/>
+      <c r="K56" s="59"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A57" s="101"/>
-      <c r="B57" s="103"/>
-      <c r="C57" s="113"/>
-      <c r="D57" s="113"/>
-      <c r="E57" s="113"/>
-      <c r="F57" s="113"/>
-      <c r="G57" s="113"/>
-      <c r="H57" s="113"/>
-      <c r="I57" s="113"/>
-      <c r="J57" s="101"/>
-      <c r="K57" s="101"/>
+      <c r="A57" s="59"/>
+      <c r="B57" s="60"/>
+      <c r="C57" s="103"/>
+      <c r="D57" s="103"/>
+      <c r="E57" s="103"/>
+      <c r="F57" s="103"/>
+      <c r="G57" s="103"/>
+      <c r="H57" s="103"/>
+      <c r="I57" s="103"/>
+      <c r="J57" s="59"/>
+      <c r="K57" s="59"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A58" s="101"/>
-      <c r="B58" s="101"/>
-      <c r="C58" s="109" t="s">
+      <c r="A58" s="59"/>
+      <c r="B58" s="59"/>
+      <c r="C58" s="114" t="s">
         <v>235</v>
       </c>
-      <c r="D58" s="104" t="s">
+      <c r="D58" s="111" t="s">
         <v>237</v>
       </c>
-      <c r="E58" s="104"/>
-      <c r="F58" s="104"/>
-      <c r="G58" s="111" t="s">
+      <c r="E58" s="111"/>
+      <c r="F58" s="111"/>
+      <c r="G58" s="110" t="s">
         <v>238</v>
       </c>
-      <c r="H58" s="111"/>
-      <c r="I58" s="111"/>
-      <c r="J58" s="101"/>
-      <c r="K58" s="101"/>
-      <c r="L58" s="100"/>
+      <c r="H58" s="110"/>
+      <c r="I58" s="110"/>
+      <c r="J58" s="59"/>
+      <c r="K58" s="59"/>
+      <c r="L58" s="58"/>
     </row>
     <row r="59" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A59" s="101"/>
-      <c r="B59" s="101"/>
-      <c r="C59" s="109"/>
-      <c r="D59" s="105" t="s">
+      <c r="A59" s="59"/>
+      <c r="B59" s="59"/>
+      <c r="C59" s="114"/>
+      <c r="D59" s="112" t="s">
         <v>236</v>
       </c>
-      <c r="E59" s="105"/>
-      <c r="F59" s="105"/>
-      <c r="G59" s="111"/>
-      <c r="H59" s="111"/>
-      <c r="I59" s="111"/>
-      <c r="J59" s="101"/>
-      <c r="K59" s="101"/>
-      <c r="L59" s="100"/>
+      <c r="E59" s="112"/>
+      <c r="F59" s="112"/>
+      <c r="G59" s="110"/>
+      <c r="H59" s="110"/>
+      <c r="I59" s="110"/>
+      <c r="J59" s="59"/>
+      <c r="K59" s="59"/>
+      <c r="L59" s="58"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A60" s="101"/>
-      <c r="B60" s="101"/>
-      <c r="C60" s="101"/>
-      <c r="D60" s="110"/>
-      <c r="E60" s="101"/>
-      <c r="F60" s="101"/>
-      <c r="G60" s="101"/>
-      <c r="H60" s="101"/>
-      <c r="I60" s="101"/>
-      <c r="J60" s="101"/>
-      <c r="K60" s="101"/>
-      <c r="L60" s="100"/>
+      <c r="A60" s="59"/>
+      <c r="B60" s="59"/>
+      <c r="C60" s="59"/>
+      <c r="D60" s="63"/>
+      <c r="E60" s="59"/>
+      <c r="F60" s="59"/>
+      <c r="G60" s="59"/>
+      <c r="H60" s="59"/>
+      <c r="I60" s="59"/>
+      <c r="J60" s="59"/>
+      <c r="K60" s="59"/>
+      <c r="L60" s="58"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A61" s="101"/>
-      <c r="B61" s="101"/>
-      <c r="C61" s="101"/>
-      <c r="D61" s="101"/>
-      <c r="E61" s="101"/>
-      <c r="F61" s="101"/>
-      <c r="G61" s="101"/>
-      <c r="H61" s="101"/>
-      <c r="I61" s="101"/>
-      <c r="J61" s="101"/>
-      <c r="K61" s="101"/>
+      <c r="A61" s="59"/>
+      <c r="B61" s="59"/>
+      <c r="C61" s="59"/>
+      <c r="D61" s="59"/>
+      <c r="E61" s="59"/>
+      <c r="F61" s="59"/>
+      <c r="G61" s="59"/>
+      <c r="H61" s="59"/>
+      <c r="I61" s="59"/>
+      <c r="J61" s="59"/>
+      <c r="K61" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="58">
@@ -9741,35 +9738,32 @@
     <mergeCell ref="E52:E53"/>
     <mergeCell ref="F52:F53"/>
     <mergeCell ref="G52:G53"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="I52:I53"/>
     <mergeCell ref="C50:C51"/>
     <mergeCell ref="E50:E51"/>
     <mergeCell ref="F50:F51"/>
     <mergeCell ref="G50:G51"/>
     <mergeCell ref="H50:H51"/>
-    <mergeCell ref="I46:I47"/>
     <mergeCell ref="C48:C49"/>
     <mergeCell ref="D48:D49"/>
     <mergeCell ref="G48:G49"/>
     <mergeCell ref="H48:H49"/>
     <mergeCell ref="I48:I49"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="I46:I47"/>
     <mergeCell ref="C46:C47"/>
     <mergeCell ref="D46:D47"/>
     <mergeCell ref="E46:E47"/>
     <mergeCell ref="H46:H47"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="E56:E57"/>
     <mergeCell ref="F56:F57"/>
     <mergeCell ref="G56:G57"/>
     <mergeCell ref="H56:H57"/>
     <mergeCell ref="I56:I57"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="I52:I53"/>
     <mergeCell ref="B52:B53"/>
     <mergeCell ref="B54:B55"/>
     <mergeCell ref="C56:C57"/>
@@ -9783,6 +9777,9 @@
     <mergeCell ref="D42:D43"/>
     <mergeCell ref="E42:E43"/>
     <mergeCell ref="F42:F43"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="E56:E57"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dataAnalysis.xlsx
+++ b/dataAnalysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\botImpact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0582BCC-8EBD-4F06-BBE2-B6D5297C13BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DE2A960-20AD-4D8A-8962-178A3525A924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="18192" windowHeight="11592" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1968,43 +1968,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0.6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0.9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.45</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.75</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>mask</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>过多可能会破坏原有网络结构，造成不合理的反事实</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3362,6 +3326,38 @@
       <t xml:space="preserve"> X</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>mask</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>过少会造成没有足够的反事实</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.7</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>0.6</t>
+  </si>
+  <si>
+    <t>0.8</t>
   </si>
 </sst>
 </file>
@@ -3756,7 +3752,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3831,7 +3827,6 @@
     <xf numFmtId="176" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3919,24 +3914,33 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3958,20 +3962,20 @@
     <xf numFmtId="176" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3979,6 +3983,27 @@
     <xf numFmtId="177" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3988,15 +4013,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4009,36 +4025,36 @@
     <xf numFmtId="177" fontId="2" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4050,27 +4066,6 @@
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4381,31 +4376,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="73" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="73"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="75"/>
       <c r="D1" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="77" t="s">
+      <c r="E1" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="79"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="67"/>
       <c r="J1" s="19" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="76"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="78"/>
       <c r="D2" s="8" t="s">
         <v>41</v>
       </c>
@@ -4436,7 +4431,7 @@
       <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="64" t="s">
+      <c r="E3" s="70" t="s">
         <v>21</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -4445,10 +4440,10 @@
       <c r="G3" s="18">
         <v>0.60419999999999996</v>
       </c>
-      <c r="H3" s="66">
+      <c r="H3" s="63">
         <v>1.4500999999999999</v>
       </c>
-      <c r="I3" s="66">
+      <c r="I3" s="63">
         <v>0.14699999999999999</v>
       </c>
       <c r="J3" s="19" t="s">
@@ -4468,15 +4463,15 @@
       <c r="D4" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="65"/>
+      <c r="E4" s="71"/>
       <c r="F4" s="2" t="s">
         <v>79</v>
       </c>
       <c r="G4" s="2">
         <v>0.59640000000000004</v>
       </c>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
       <c r="J4" s="19" t="s">
         <v>91</v>
       </c>
@@ -4494,7 +4489,7 @@
       <c r="D5" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="64" t="s">
+      <c r="E5" s="70" t="s">
         <v>22</v>
       </c>
       <c r="F5" s="2" t="s">
@@ -4503,31 +4498,31 @@
       <c r="G5" s="18">
         <v>0.58009999999999995</v>
       </c>
-      <c r="H5" s="66">
+      <c r="H5" s="63">
         <v>-0.46650000000000003</v>
       </c>
-      <c r="I5" s="66">
+      <c r="I5" s="63">
         <v>0.64090000000000003</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A6" s="74" t="s">
+      <c r="A6" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="75"/>
-      <c r="C6" s="76"/>
-      <c r="E6" s="65"/>
+      <c r="B6" s="77"/>
+      <c r="C6" s="78"/>
+      <c r="E6" s="71"/>
       <c r="F6" s="2" t="s">
         <v>79</v>
       </c>
       <c r="G6" s="2">
         <v>0.58389999999999997</v>
       </c>
-      <c r="H6" s="67"/>
-      <c r="I6" s="67"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A7" s="70" t="s">
+      <c r="A7" s="72" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -4536,7 +4531,7 @@
       <c r="C7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="64" t="s">
+      <c r="E7" s="70" t="s">
         <v>23</v>
       </c>
       <c r="F7" s="2" t="s">
@@ -4545,30 +4540,30 @@
       <c r="G7" s="18">
         <v>0.5393</v>
       </c>
-      <c r="H7" s="66">
+      <c r="H7" s="63">
         <v>-1.7504</v>
       </c>
-      <c r="I7" s="66">
+      <c r="I7" s="63">
         <v>8.0100000000000005E-2</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A8" s="65"/>
+      <c r="A8" s="71"/>
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="65"/>
+      <c r="E8" s="71"/>
       <c r="F8" s="2" t="s">
         <v>79</v>
       </c>
       <c r="G8" s="2">
         <v>0.55649999999999999</v>
       </c>
-      <c r="H8" s="67"/>
-      <c r="I8" s="67"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="64"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.5">
       <c r="E9" s="68" t="s">
@@ -4586,12 +4581,12 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A10" s="71" t="s">
+      <c r="A10" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="72"/>
-      <c r="C10" s="73"/>
-      <c r="E10" s="64" t="s">
+      <c r="B10" s="74"/>
+      <c r="C10" s="75"/>
+      <c r="E10" s="70" t="s">
         <v>21</v>
       </c>
       <c r="F10" s="2" t="s">
@@ -4600,10 +4595,10 @@
       <c r="G10" s="17">
         <v>0.82099999999999995</v>
       </c>
-      <c r="H10" s="66">
+      <c r="H10" s="63">
         <v>23.857700000000001</v>
       </c>
-      <c r="I10" s="66" t="s">
+      <c r="I10" s="63" t="s">
         <v>26</v>
       </c>
       <c r="J10" s="19" t="s">
@@ -4611,20 +4606,20 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A11" s="74" t="s">
+      <c r="A11" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="75"/>
-      <c r="C11" s="76"/>
-      <c r="E11" s="65"/>
+      <c r="B11" s="77"/>
+      <c r="C11" s="78"/>
+      <c r="E11" s="71"/>
       <c r="F11" s="2" t="s">
         <v>79</v>
       </c>
       <c r="G11" s="2">
         <v>0.74229999999999996</v>
       </c>
-      <c r="H11" s="67"/>
-      <c r="I11" s="67"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="64"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A12" s="1" t="s">
@@ -4636,7 +4631,7 @@
       <c r="C12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="64" t="s">
+      <c r="E12" s="70" t="s">
         <v>22</v>
       </c>
       <c r="F12" s="2" t="s">
@@ -4645,10 +4640,10 @@
       <c r="G12" s="17">
         <v>0.83950000000000002</v>
       </c>
-      <c r="H12" s="66">
+      <c r="H12" s="63">
         <v>20.513400000000001</v>
       </c>
-      <c r="I12" s="66" t="s">
+      <c r="I12" s="63" t="s">
         <v>27</v>
       </c>
     </row>
@@ -4662,15 +4657,15 @@
       <c r="C13" s="2">
         <v>5.0496999999999996</v>
       </c>
-      <c r="E13" s="65"/>
+      <c r="E13" s="71"/>
       <c r="F13" s="2" t="s">
         <v>79</v>
       </c>
       <c r="G13" s="2">
         <v>0.73529999999999995</v>
       </c>
-      <c r="H13" s="67"/>
-      <c r="I13" s="67"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="64"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A14" s="2" t="s">
@@ -4682,7 +4677,7 @@
       <c r="C14" s="2">
         <v>5.5609000000000002</v>
       </c>
-      <c r="E14" s="64" t="s">
+      <c r="E14" s="70" t="s">
         <v>23</v>
       </c>
       <c r="F14" s="2" t="s">
@@ -4691,31 +4686,31 @@
       <c r="G14" s="17">
         <v>0.78539999999999999</v>
       </c>
-      <c r="H14" s="66">
+      <c r="H14" s="63">
         <v>16.601400000000002</v>
       </c>
-      <c r="I14" s="66" t="s">
+      <c r="I14" s="63" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A15" s="74" t="s">
+      <c r="A15" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="75"/>
-      <c r="C15" s="76"/>
-      <c r="E15" s="65"/>
+      <c r="B15" s="77"/>
+      <c r="C15" s="78"/>
+      <c r="E15" s="71"/>
       <c r="F15" s="2" t="s">
         <v>79</v>
       </c>
       <c r="G15" s="2">
         <v>0.67610000000000003</v>
       </c>
-      <c r="H15" s="67"/>
-      <c r="I15" s="67"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="64"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A16" s="70" t="s">
+      <c r="A16" s="72" t="s">
         <v>7</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -4729,7 +4724,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A17" s="65"/>
+      <c r="A17" s="71"/>
       <c r="B17" s="2" t="s">
         <v>13</v>
       </c>
@@ -4741,23 +4736,23 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="E18" s="77" t="s">
+      <c r="E18" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="78"/>
-      <c r="G18" s="78"/>
-      <c r="H18" s="78"/>
-      <c r="I18" s="79"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="67"/>
       <c r="J18" s="16" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A19" s="71" t="s">
+      <c r="A19" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="72"/>
-      <c r="C19" s="73"/>
+      <c r="B19" s="74"/>
+      <c r="C19" s="75"/>
       <c r="E19" s="68" t="s">
         <v>74</v>
       </c>
@@ -4773,12 +4768,12 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A20" s="74" t="s">
+      <c r="A20" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="75"/>
-      <c r="C20" s="76"/>
-      <c r="E20" s="64" t="s">
+      <c r="B20" s="77"/>
+      <c r="C20" s="78"/>
+      <c r="E20" s="70" t="s">
         <v>21</v>
       </c>
       <c r="F20" s="2" t="s">
@@ -4787,10 +4782,10 @@
       <c r="G20" s="18">
         <v>0.60419999999999996</v>
       </c>
-      <c r="H20" s="66">
+      <c r="H20" s="63">
         <v>6.7031000000000001</v>
       </c>
-      <c r="I20" s="66" t="s">
+      <c r="I20" s="63" t="s">
         <v>24</v>
       </c>
       <c r="J20" s="19" t="s">
@@ -4807,15 +4802,15 @@
       <c r="C21" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="65"/>
+      <c r="E21" s="71"/>
       <c r="F21" s="2" t="s">
         <v>71</v>
       </c>
       <c r="G21" s="2">
         <v>0.56520000000000004</v>
       </c>
-      <c r="H21" s="67"/>
-      <c r="I21" s="67"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="64"/>
       <c r="J21" s="16" t="s">
         <v>85</v>
       </c>
@@ -4830,7 +4825,7 @@
       <c r="C22" s="2">
         <v>6.4598000000000004</v>
       </c>
-      <c r="E22" s="64" t="s">
+      <c r="E22" s="70" t="s">
         <v>22</v>
       </c>
       <c r="F22" s="2" t="s">
@@ -4839,10 +4834,10 @@
       <c r="G22" s="18">
         <v>0.58009999999999995</v>
       </c>
-      <c r="H22" s="66">
+      <c r="H22" s="63">
         <v>2.8894000000000002</v>
       </c>
-      <c r="I22" s="66">
+      <c r="I22" s="63">
         <v>3.8999999999999998E-3</v>
       </c>
     </row>
@@ -4856,23 +4851,23 @@
       <c r="C23" s="2">
         <v>5.1597</v>
       </c>
-      <c r="E23" s="65"/>
+      <c r="E23" s="71"/>
       <c r="F23" s="2" t="s">
         <v>71</v>
       </c>
       <c r="G23" s="2">
         <v>0.5534</v>
       </c>
-      <c r="H23" s="67"/>
-      <c r="I23" s="67"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="64"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A24" s="74" t="s">
+      <c r="A24" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="75"/>
-      <c r="C24" s="76"/>
-      <c r="E24" s="64" t="s">
+      <c r="B24" s="77"/>
+      <c r="C24" s="78"/>
+      <c r="E24" s="70" t="s">
         <v>23</v>
       </c>
       <c r="F24" s="2" t="s">
@@ -4881,10 +4876,10 @@
       <c r="G24" s="18">
         <v>0.5393</v>
       </c>
-      <c r="H24" s="66">
+      <c r="H24" s="63">
         <v>1.6584000000000001</v>
       </c>
-      <c r="I24" s="66">
+      <c r="I24" s="63">
         <v>9.7299999999999998E-2</v>
       </c>
       <c r="J24" s="19" t="s">
@@ -4892,7 +4887,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A25" s="70" t="s">
+      <c r="A25" s="72" t="s">
         <v>7</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -4901,18 +4896,18 @@
       <c r="C25" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E25" s="65"/>
+      <c r="E25" s="71"/>
       <c r="F25" s="2" t="s">
         <v>71</v>
       </c>
       <c r="G25" s="2">
         <v>0.52139999999999997</v>
       </c>
-      <c r="H25" s="67"/>
-      <c r="I25" s="67"/>
+      <c r="H25" s="64"/>
+      <c r="I25" s="64"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A26" s="65"/>
+      <c r="A26" s="71"/>
       <c r="B26" s="2" t="s">
         <v>17</v>
       </c>
@@ -4934,7 +4929,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="E27" s="64" t="s">
+      <c r="E27" s="70" t="s">
         <v>21</v>
       </c>
       <c r="F27" s="2" t="s">
@@ -4943,10 +4938,10 @@
       <c r="G27" s="17">
         <v>0.82099999999999995</v>
       </c>
-      <c r="H27" s="66">
+      <c r="H27" s="63">
         <v>33.133299999999998</v>
       </c>
-      <c r="I27" s="66" t="s">
+      <c r="I27" s="63" t="s">
         <v>81</v>
       </c>
       <c r="J27" s="19" t="s">
@@ -4954,21 +4949,21 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="E28" s="65"/>
+      <c r="E28" s="71"/>
       <c r="F28" s="2" t="s">
         <v>71</v>
       </c>
       <c r="G28" s="2">
         <v>0.70599999999999996</v>
       </c>
-      <c r="H28" s="67"/>
-      <c r="I28" s="67"/>
+      <c r="H28" s="64"/>
+      <c r="I28" s="64"/>
       <c r="J28" s="19" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="E29" s="64" t="s">
+      <c r="E29" s="70" t="s">
         <v>22</v>
       </c>
       <c r="F29" s="2" t="s">
@@ -4977,26 +4972,26 @@
       <c r="G29" s="17">
         <v>0.83950000000000002</v>
       </c>
-      <c r="H29" s="66">
+      <c r="H29" s="63">
         <v>24.9849</v>
       </c>
-      <c r="I29" s="66" t="s">
+      <c r="I29" s="63" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="E30" s="65"/>
+      <c r="E30" s="71"/>
       <c r="F30" s="2" t="s">
         <v>71</v>
       </c>
       <c r="G30" s="2">
         <v>0.70609999999999995</v>
       </c>
-      <c r="H30" s="67"/>
-      <c r="I30" s="67"/>
+      <c r="H30" s="64"/>
+      <c r="I30" s="64"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="E31" s="64" t="s">
+      <c r="E31" s="70" t="s">
         <v>23</v>
       </c>
       <c r="F31" s="2" t="s">
@@ -5005,23 +5000,23 @@
       <c r="G31" s="17">
         <v>0.78539999999999999</v>
       </c>
-      <c r="H31" s="66">
+      <c r="H31" s="63">
         <v>21.385400000000001</v>
       </c>
-      <c r="I31" s="66" t="s">
+      <c r="I31" s="63" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="E32" s="65"/>
+      <c r="E32" s="71"/>
       <c r="F32" s="2" t="s">
         <v>71</v>
       </c>
       <c r="G32" s="2">
         <v>0.63849999999999996</v>
       </c>
-      <c r="H32" s="67"/>
-      <c r="I32" s="67"/>
+      <c r="H32" s="64"/>
+      <c r="I32" s="64"/>
     </row>
     <row r="33" spans="5:5" x14ac:dyDescent="0.5">
       <c r="E33" s="16" t="s">
@@ -5030,16 +5025,34 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="E1:I1"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A24:C24"/>
     <mergeCell ref="H20:H21"/>
     <mergeCell ref="I20:I21"/>
     <mergeCell ref="E7:E8"/>
@@ -5056,34 +5069,16 @@
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E20:E21"/>
     <mergeCell ref="E10:E11"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="E12:E13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5096,7 +5091,7 @@
   <dimension ref="A1:L87"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="C88" sqref="C88"/>
+      <selection activeCell="H81" sqref="H81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -5109,26 +5104,26 @@
       <c r="A1" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="81" t="s">
+      <c r="B1" s="79" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81" t="s">
+      <c r="C1" s="79"/>
+      <c r="D1" s="79" t="s">
         <v>94</v>
       </c>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81" t="s">
+      <c r="E1" s="79"/>
+      <c r="F1" s="79" t="s">
         <v>95</v>
       </c>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81" t="s">
+      <c r="G1" s="79"/>
+      <c r="H1" s="79" t="s">
         <v>96</v>
       </c>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81" t="s">
+      <c r="I1" s="79"/>
+      <c r="J1" s="79" t="s">
         <v>97</v>
       </c>
-      <c r="K1" s="81"/>
+      <c r="K1" s="79"/>
       <c r="L1" s="20" t="s">
         <v>108</v>
       </c>
@@ -5168,7 +5163,7 @@
         <v>100</v>
       </c>
       <c r="L2" s="20" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.5">
@@ -5905,15 +5900,15 @@
       <c r="A29" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="B29" s="81" t="s">
+      <c r="B29" s="79" t="s">
         <v>95</v>
       </c>
-      <c r="C29" s="81"/>
-      <c r="D29" s="81"/>
-      <c r="E29" s="81"/>
-      <c r="F29" s="81"/>
-      <c r="G29" s="81"/>
-      <c r="H29" s="81"/>
+      <c r="C29" s="79"/>
+      <c r="D29" s="79"/>
+      <c r="E29" s="79"/>
+      <c r="F29" s="79"/>
+      <c r="G29" s="79"/>
+      <c r="H29" s="79"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A30" s="20" t="s">
@@ -6483,7 +6478,7 @@
         <v>0.12889999999999999</v>
       </c>
       <c r="G58" s="9" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.5">
@@ -6526,7 +6521,7 @@
         <v>2.6762000000000001</v>
       </c>
       <c r="G60" s="27" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.5">
@@ -6662,10 +6657,10 @@
         <v>0.1467</v>
       </c>
       <c r="G68" s="9" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="H68" s="20" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.5">
@@ -6708,7 +6703,7 @@
         <v>2.6669</v>
       </c>
       <c r="G70" s="27" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.5">
@@ -6804,31 +6799,31 @@
       <c r="A78" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="B78" s="32" t="s">
-        <v>158</v>
+      <c r="B78" s="24" t="s">
+        <v>239</v>
       </c>
       <c r="C78" s="24" t="s">
-        <v>157</v>
+        <v>240</v>
       </c>
       <c r="D78" s="24" t="s">
-        <v>159</v>
+        <v>238</v>
       </c>
       <c r="E78" s="24" t="s">
+        <v>241</v>
+      </c>
+      <c r="F78" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="F78" s="24" t="s">
-        <v>160</v>
-      </c>
       <c r="G78" s="24" t="s">
-        <v>156</v>
+        <v>237</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="14.7" x14ac:dyDescent="0.5">
       <c r="A79" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="B79" s="22">
-        <v>8.9800000000000005E-2</v>
+      <c r="B79" s="20">
+        <v>0.1011</v>
       </c>
       <c r="C79" s="20">
         <v>9.3299999999999994E-2</v>
@@ -6842,19 +6837,19 @@
       <c r="F79" s="20">
         <v>0.10009999999999999</v>
       </c>
-      <c r="G79" s="20">
-        <v>0.20349999999999999</v>
+      <c r="G79" s="22">
+        <v>8.9800000000000005E-2</v>
       </c>
       <c r="H79" s="20" t="s">
-        <v>161</v>
+        <v>236</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A80" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="B80" s="22">
-        <v>0.10440000000000001</v>
+      <c r="B80" s="20">
+        <v>0.1246</v>
       </c>
       <c r="C80" s="20">
         <v>0.1106</v>
@@ -6868,8 +6863,8 @@
       <c r="F80" s="20">
         <v>0.1159</v>
       </c>
-      <c r="G80" s="20">
-        <v>0.2044</v>
+      <c r="G80" s="22">
+        <v>0.10440000000000001</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.5">
@@ -6889,31 +6884,31 @@
       <c r="A83" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="B83" s="32" t="s">
-        <v>158</v>
+      <c r="B83" s="24" t="s">
+        <v>239</v>
       </c>
       <c r="C83" s="24" t="s">
-        <v>157</v>
+        <v>240</v>
       </c>
       <c r="D83" s="24" t="s">
-        <v>159</v>
+        <v>238</v>
       </c>
       <c r="E83" s="24" t="s">
+        <v>241</v>
+      </c>
+      <c r="F83" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="F83" s="24" t="s">
-        <v>160</v>
-      </c>
       <c r="G83" s="24" t="s">
-        <v>156</v>
+        <v>237</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A84" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="B84" s="22">
-        <v>9.1300000000000006E-2</v>
+      <c r="B84" s="20">
+        <v>0.1105</v>
       </c>
       <c r="C84" s="20">
         <v>9.0499999999999997E-2</v>
@@ -6927,16 +6922,16 @@
       <c r="F84" s="20">
         <v>9.4100000000000003E-2</v>
       </c>
-      <c r="G84" s="20">
-        <v>0.18709999999999999</v>
+      <c r="G84" s="22">
+        <v>9.1300000000000006E-2</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A85" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="B85" s="22">
-        <v>9.2499999999999999E-2</v>
+      <c r="B85" s="20">
+        <v>0.1255</v>
       </c>
       <c r="C85" s="20">
         <v>9.11E-2</v>
@@ -6950,17 +6945,23 @@
       <c r="F85" s="20">
         <v>9.6199999999999994E-2</v>
       </c>
-      <c r="G85" s="20">
-        <v>0.189</v>
+      <c r="G85" s="22">
+        <v>9.2499999999999999E-2</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A87" s="23" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B77:G77"/>
+    <mergeCell ref="B82:G82"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="B46:G46"/>
+    <mergeCell ref="B55:F55"/>
+    <mergeCell ref="B65:F65"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
@@ -6968,12 +6969,6 @@
     <mergeCell ref="B38:G38"/>
     <mergeCell ref="B29:H29"/>
     <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B77:G77"/>
-    <mergeCell ref="B82:G82"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="B46:G46"/>
-    <mergeCell ref="B55:F55"/>
-    <mergeCell ref="B65:F65"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7000,14 +6995,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="89"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="83"/>
       <c r="E1" s="5" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>66</v>
@@ -7028,7 +7023,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="70" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -7042,7 +7037,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="65"/>
+      <c r="A4" s="71"/>
       <c r="B4" s="4" t="s">
         <v>52</v>
       </c>
@@ -7054,7 +7049,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="70" t="s">
         <v>22</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -7068,7 +7063,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="65"/>
+      <c r="A6" s="71"/>
       <c r="B6" s="4" t="s">
         <v>52</v>
       </c>
@@ -7080,7 +7075,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="70" t="s">
         <v>23</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -7094,7 +7089,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="65"/>
+      <c r="A8" s="71"/>
       <c r="B8" s="4" t="s">
         <v>52</v>
       </c>
@@ -7109,42 +7104,42 @@
       <c r="A9" s="7"/>
     </row>
     <row r="10" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="34" t="s">
-        <v>166</v>
+      <c r="A10" s="33" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="87" t="s">
-        <v>174</v>
-      </c>
-      <c r="B11" s="88"/>
-      <c r="C11" s="88"/>
-      <c r="D11" s="88"/>
-      <c r="E11" s="89"/>
+      <c r="A11" s="81" t="s">
+        <v>168</v>
+      </c>
+      <c r="B11" s="82"/>
+      <c r="C11" s="82"/>
+      <c r="D11" s="82"/>
+      <c r="E11" s="83"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A12" s="10" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A13" s="84" t="s">
+      <c r="A13" s="93" t="s">
         <v>51</v>
       </c>
-      <c r="B13" s="43" t="s">
+      <c r="B13" s="42" t="s">
         <v>21</v>
       </c>
       <c r="C13" s="1">
@@ -7156,11 +7151,11 @@
       <c r="E13" s="2">
         <v>0</v>
       </c>
-      <c r="J13" s="33"/>
+      <c r="J13" s="32"/>
     </row>
     <row r="14" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="85"/>
-      <c r="B14" s="43" t="s">
+      <c r="A14" s="94"/>
+      <c r="B14" s="42" t="s">
         <v>22</v>
       </c>
       <c r="C14" s="1">
@@ -7172,11 +7167,11 @@
       <c r="E14" s="2">
         <v>1E-4</v>
       </c>
-      <c r="J14" s="33"/>
+      <c r="J14" s="32"/>
     </row>
     <row r="15" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A15" s="86"/>
-      <c r="B15" s="43" t="s">
+      <c r="A15" s="95"/>
+      <c r="B15" s="42" t="s">
         <v>23</v>
       </c>
       <c r="C15" s="1">
@@ -7190,10 +7185,10 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="84" t="s">
+      <c r="A16" s="93" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="43" t="s">
+      <c r="B16" s="42" t="s">
         <v>21</v>
       </c>
       <c r="C16" s="1">
@@ -7208,8 +7203,8 @@
       <c r="J16" s="6"/>
     </row>
     <row r="17" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A17" s="85"/>
-      <c r="B17" s="43" t="s">
+      <c r="A17" s="94"/>
+      <c r="B17" s="42" t="s">
         <v>22</v>
       </c>
       <c r="C17" s="1">
@@ -7223,8 +7218,8 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="86"/>
-      <c r="B18" s="43" t="s">
+      <c r="A18" s="95"/>
+      <c r="B18" s="42" t="s">
         <v>23</v>
       </c>
       <c r="C18" s="1">
@@ -7238,48 +7233,48 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A19" s="33" t="s">
-        <v>177</v>
-      </c>
-      <c r="G19" s="33"/>
+      <c r="A19" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="G19" s="32"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A20" s="33"/>
-      <c r="G20" s="33"/>
+      <c r="A20" s="32"/>
+      <c r="G20" s="32"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A21" s="87" t="s">
-        <v>180</v>
-      </c>
-      <c r="B21" s="88"/>
-      <c r="C21" s="88"/>
-      <c r="D21" s="88"/>
-      <c r="E21" s="89"/>
-      <c r="G21" s="33"/>
+      <c r="A21" s="81" t="s">
+        <v>174</v>
+      </c>
+      <c r="B21" s="82"/>
+      <c r="C21" s="82"/>
+      <c r="D21" s="82"/>
+      <c r="E21" s="83"/>
+      <c r="G21" s="32"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A22" s="10" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="G22" s="33"/>
+        <v>167</v>
+      </c>
+      <c r="G22" s="32"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A23" s="84" t="s">
+      <c r="A23" s="93" t="s">
         <v>51</v>
       </c>
-      <c r="B23" s="43" t="s">
+      <c r="B23" s="42" t="s">
         <v>21</v>
       </c>
       <c r="C23" s="1">
@@ -7293,8 +7288,8 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A24" s="85"/>
-      <c r="B24" s="43" t="s">
+      <c r="A24" s="94"/>
+      <c r="B24" s="42" t="s">
         <v>22</v>
       </c>
       <c r="C24" s="1">
@@ -7308,8 +7303,8 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A25" s="86"/>
-      <c r="B25" s="43" t="s">
+      <c r="A25" s="95"/>
+      <c r="B25" s="42" t="s">
         <v>23</v>
       </c>
       <c r="C25" s="1">
@@ -7323,10 +7318,10 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A26" s="84" t="s">
+      <c r="A26" s="93" t="s">
         <v>52</v>
       </c>
-      <c r="B26" s="43" t="s">
+      <c r="B26" s="42" t="s">
         <v>21</v>
       </c>
       <c r="C26" s="1">
@@ -7340,8 +7335,8 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A27" s="85"/>
-      <c r="B27" s="43" t="s">
+      <c r="A27" s="94"/>
+      <c r="B27" s="42" t="s">
         <v>22</v>
       </c>
       <c r="C27" s="1">
@@ -7355,8 +7350,8 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A28" s="86"/>
-      <c r="B28" s="43" t="s">
+      <c r="A28" s="95"/>
+      <c r="B28" s="42" t="s">
         <v>23</v>
       </c>
       <c r="C28" s="1">
@@ -7368,34 +7363,34 @@
       <c r="E28" s="2">
         <v>0</v>
       </c>
-      <c r="G28" s="33"/>
+      <c r="G28" s="32"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A29" s="33" t="s">
-        <v>181</v>
+      <c r="A29" s="32" t="s">
+        <v>175</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
-      <c r="G29" s="33"/>
+      <c r="G29" s="32"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A30" s="7"/>
     </row>
     <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.5">
-      <c r="A31" s="34" t="s">
-        <v>167</v>
+      <c r="A31" s="33" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="82" t="s">
+      <c r="A32" s="84" t="s">
         <v>49</v>
       </c>
-      <c r="B32" s="83"/>
-      <c r="C32" s="83"/>
-      <c r="D32" s="83"/>
-      <c r="E32" s="83"/>
-      <c r="F32" s="96"/>
+      <c r="B32" s="85"/>
+      <c r="C32" s="85"/>
+      <c r="D32" s="85"/>
+      <c r="E32" s="85"/>
+      <c r="F32" s="86"/>
       <c r="G32" s="14" t="s">
         <v>67</v>
       </c>
@@ -7419,21 +7414,21 @@
       <c r="F33" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="G33" s="33" t="s">
-        <v>171</v>
+      <c r="G33" s="32" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A34" s="64" t="s">
+      <c r="A34" s="70" t="s">
         <v>21</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C34" s="35">
+      <c r="C34" s="34">
         <v>0.20519999999999999</v>
       </c>
-      <c r="D34" s="36">
+      <c r="D34" s="35">
         <v>0.1487</v>
       </c>
       <c r="E34" s="2">
@@ -7444,11 +7439,11 @@
         <v>1E-4</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A35" s="65"/>
+      <c r="A35" s="71"/>
       <c r="B35" s="2" t="s">
         <v>47</v>
       </c>
@@ -7458,7 +7453,7 @@
       <c r="D35" s="2">
         <v>0.1106</v>
       </c>
-      <c r="E35" s="37">
+      <c r="E35" s="36">
         <f t="shared" ref="E35:E39" si="0">C35-D35</f>
         <v>0.10169999999999998</v>
       </c>
@@ -7471,16 +7466,16 @@
       </c>
     </row>
     <row r="36" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A36" s="64" t="s">
+      <c r="A36" s="70" t="s">
         <v>22</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C36" s="35">
+      <c r="C36" s="34">
         <v>-8.3900000000000002E-2</v>
       </c>
-      <c r="D36" s="36">
+      <c r="D36" s="35">
         <v>-0.11269999999999999</v>
       </c>
       <c r="E36" s="2">
@@ -7490,12 +7485,12 @@
       <c r="F36" s="2">
         <v>0.26329999999999998</v>
       </c>
-      <c r="G36" s="38" t="s">
-        <v>176</v>
+      <c r="G36" s="37" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A37" s="65"/>
+      <c r="A37" s="71"/>
       <c r="B37" s="2" t="s">
         <v>47</v>
       </c>
@@ -7505,7 +7500,7 @@
       <c r="D37" s="2">
         <v>-0.1211</v>
       </c>
-      <c r="E37" s="37">
+      <c r="E37" s="36">
         <f t="shared" si="0"/>
         <v>7.1399999999999991E-2</v>
       </c>
@@ -7518,16 +7513,16 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A38" s="64" t="s">
+      <c r="A38" s="70" t="s">
         <v>23</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C38" s="36">
+      <c r="C38" s="35">
         <v>0.1537</v>
       </c>
-      <c r="D38" s="35">
+      <c r="D38" s="34">
         <v>0.2175</v>
       </c>
       <c r="E38" s="2">
@@ -7539,7 +7534,7 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A39" s="65"/>
+      <c r="A39" s="71"/>
       <c r="B39" s="2" t="s">
         <v>47</v>
       </c>
@@ -7549,7 +7544,7 @@
       <c r="D39" s="1">
         <v>0.19570000000000001</v>
       </c>
-      <c r="E39" s="37">
+      <c r="E39" s="36">
         <f t="shared" si="0"/>
         <v>-3.6799999999999999E-2</v>
       </c>
@@ -7567,51 +7562,51 @@
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
-      <c r="F40" s="39" t="s">
-        <v>175</v>
+      <c r="F40" s="38" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A41" s="71" t="s">
+      <c r="A41" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="B41" s="72"/>
-      <c r="C41" s="72"/>
-      <c r="D41" s="72"/>
-      <c r="E41" s="72"/>
-      <c r="F41" s="73"/>
+      <c r="B41" s="74"/>
+      <c r="C41" s="74"/>
+      <c r="D41" s="74"/>
+      <c r="E41" s="74"/>
+      <c r="F41" s="75"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A42" s="40" t="s">
+      <c r="A42" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="B42" s="40" t="s">
+      <c r="B42" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="C42" s="40" t="s">
+      <c r="C42" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="D42" s="40" t="s">
+      <c r="D42" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="E42" s="40" t="s">
+      <c r="E42" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="F42" s="40" t="s">
+      <c r="F42" s="39" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A43" s="64" t="s">
+      <c r="A43" s="70" t="s">
         <v>21</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C43" s="35">
+      <c r="C43" s="34">
         <v>3.2000000000000002E-3</v>
       </c>
-      <c r="D43" s="36">
+      <c r="D43" s="35">
         <v>6.1600000000000002E-2</v>
       </c>
       <c r="E43" s="2">
@@ -7625,7 +7620,7 @@
       <c r="H43" s="5"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A44" s="65"/>
+      <c r="A44" s="71"/>
       <c r="B44" s="2" t="s">
         <v>47</v>
       </c>
@@ -7635,7 +7630,7 @@
       <c r="D44" s="2">
         <v>8.9200000000000002E-2</v>
       </c>
-      <c r="E44" s="37">
+      <c r="E44" s="36">
         <f t="shared" ref="E44:E48" si="1">C44-D44</f>
         <v>-8.3500000000000005E-2</v>
       </c>
@@ -7649,16 +7644,16 @@
       <c r="H44" s="5"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A45" s="64" t="s">
+      <c r="A45" s="70" t="s">
         <v>22</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C45" s="35">
+      <c r="C45" s="34">
         <v>-0.2681</v>
       </c>
-      <c r="D45" s="36">
+      <c r="D45" s="35">
         <v>-0.17510000000000001</v>
       </c>
       <c r="E45" s="2">
@@ -7670,7 +7665,7 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A46" s="65"/>
+      <c r="A46" s="71"/>
       <c r="B46" s="2" t="s">
         <v>47</v>
       </c>
@@ -7680,7 +7675,7 @@
       <c r="D46" s="2">
         <v>-0.13650000000000001</v>
       </c>
-      <c r="E46" s="37">
+      <c r="E46" s="36">
         <f t="shared" si="1"/>
         <v>-0.14489999999999997</v>
       </c>
@@ -7693,16 +7688,16 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A47" s="64" t="s">
+      <c r="A47" s="70" t="s">
         <v>23</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C47" s="36">
+      <c r="C47" s="35">
         <v>0.1953</v>
       </c>
-      <c r="D47" s="35">
+      <c r="D47" s="34">
         <v>0.11890000000000001</v>
       </c>
       <c r="E47" s="2">
@@ -7714,7 +7709,7 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A48" s="65"/>
+      <c r="A48" s="71"/>
       <c r="B48" s="2" t="s">
         <v>47</v>
       </c>
@@ -7724,7 +7719,7 @@
       <c r="D48" s="1">
         <v>0.12189999999999999</v>
       </c>
-      <c r="E48" s="37">
+      <c r="E48" s="36">
         <f t="shared" si="1"/>
         <v>3.0600000000000002E-2</v>
       </c>
@@ -7737,94 +7732,94 @@
       </c>
     </row>
     <row r="50" spans="1:8" ht="15" x14ac:dyDescent="0.5">
-      <c r="A50" s="34" t="s">
-        <v>184</v>
+      <c r="A50" s="33" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A51" s="87" t="s">
+      <c r="A51" s="81" t="s">
         <v>60</v>
       </c>
-      <c r="B51" s="88"/>
-      <c r="C51" s="88"/>
-      <c r="D51" s="88"/>
-      <c r="E51" s="88"/>
-      <c r="F51" s="89"/>
+      <c r="B51" s="82"/>
+      <c r="C51" s="82"/>
+      <c r="D51" s="82"/>
+      <c r="E51" s="82"/>
+      <c r="F51" s="83"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A52" s="90" t="s">
+      <c r="A52" s="96" t="s">
         <v>64</v>
       </c>
-      <c r="B52" s="91"/>
+      <c r="B52" s="97"/>
       <c r="C52" s="10" t="s">
         <v>58</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="E52" s="10" t="s">
         <v>59</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A53" s="97" t="s">
+      <c r="A53" s="89" t="s">
         <v>21</v>
       </c>
       <c r="B53" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C53" s="41">
+      <c r="C53" s="40">
         <v>0.92610000000000003</v>
       </c>
-      <c r="D53" s="94">
+      <c r="D53" s="87">
         <f>C53-C54</f>
         <v>4.8399999999999999E-2</v>
       </c>
-      <c r="E53" s="41">
+      <c r="E53" s="40">
         <v>0.9355</v>
       </c>
-      <c r="F53" s="94">
+      <c r="F53" s="87">
         <f>E53-E54</f>
         <v>3.3599999999999963E-2</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A54" s="98"/>
+      <c r="A54" s="90"/>
       <c r="B54" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="C54" s="41">
+      <c r="C54" s="40">
         <v>0.87770000000000004</v>
       </c>
-      <c r="D54" s="95"/>
-      <c r="E54" s="41">
+      <c r="D54" s="88"/>
+      <c r="E54" s="40">
         <v>0.90190000000000003</v>
       </c>
-      <c r="F54" s="95"/>
+      <c r="F54" s="88"/>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A55" s="99" t="s">
+      <c r="A55" s="91" t="s">
         <v>22</v>
       </c>
       <c r="B55" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C55" s="42">
+      <c r="C55" s="41">
         <v>0.83179999999999998</v>
       </c>
-      <c r="D55" s="94">
+      <c r="D55" s="87">
         <f t="shared" ref="D55:F55" si="2">C55-C56</f>
         <v>4.4300000000000006E-2</v>
       </c>
-      <c r="E55" s="42">
+      <c r="E55" s="41">
         <v>0.86299999999999999</v>
       </c>
-      <c r="F55" s="94">
+      <c r="F55" s="87">
         <f t="shared" si="2"/>
         <v>1.6000000000000014E-2</v>
       </c>
@@ -7832,39 +7827,39 @@
       <c r="H55" s="2"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A56" s="100"/>
+      <c r="A56" s="92"/>
       <c r="B56" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="C56" s="42">
+      <c r="C56" s="41">
         <v>0.78749999999999998</v>
       </c>
-      <c r="D56" s="95"/>
-      <c r="E56" s="42">
+      <c r="D56" s="88"/>
+      <c r="E56" s="41">
         <v>0.84699999999999998</v>
       </c>
-      <c r="F56" s="95"/>
+      <c r="F56" s="88"/>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A57" s="97" t="s">
+      <c r="A57" s="89" t="s">
         <v>23</v>
       </c>
       <c r="B57" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C57" s="41">
+      <c r="C57" s="40">
         <v>0.90229999999999999</v>
       </c>
-      <c r="D57" s="94">
+      <c r="D57" s="87">
         <f t="shared" ref="D57:F57" si="3">C57-C58</f>
         <v>2.6000000000000023E-2</v>
       </c>
-      <c r="E57" s="41">
+      <c r="E57" s="40">
         <v>0.91910000000000003</v>
       </c>
-      <c r="F57" s="94">
+      <c r="F57" s="87">
         <f t="shared" si="3"/>
         <v>1.0900000000000021E-2</v>
       </c>
@@ -7872,18 +7867,18 @@
       <c r="H57" s="2"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A58" s="98"/>
+      <c r="A58" s="90"/>
       <c r="B58" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="C58" s="41">
+      <c r="C58" s="40">
         <v>0.87629999999999997</v>
       </c>
-      <c r="D58" s="95"/>
-      <c r="E58" s="41">
+      <c r="D58" s="88"/>
+      <c r="E58" s="40">
         <v>0.90820000000000001</v>
       </c>
-      <c r="F58" s="95"/>
+      <c r="F58" s="88"/>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
     </row>
@@ -7896,55 +7891,55 @@
       <c r="H59" s="2"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A60" s="82" t="s">
+      <c r="A60" s="84" t="s">
         <v>61</v>
       </c>
-      <c r="B60" s="83"/>
-      <c r="C60" s="83"/>
-      <c r="D60" s="83"/>
-      <c r="E60" s="83"/>
-      <c r="F60" s="96"/>
+      <c r="B60" s="85"/>
+      <c r="C60" s="85"/>
+      <c r="D60" s="85"/>
+      <c r="E60" s="85"/>
+      <c r="F60" s="86"/>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A61" s="92" t="s">
+      <c r="A61" s="98" t="s">
         <v>64</v>
       </c>
-      <c r="B61" s="93"/>
+      <c r="B61" s="99"/>
       <c r="C61" s="12" t="s">
         <v>58</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="E61" s="12" t="s">
         <v>59</v>
       </c>
       <c r="F61" s="10" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A62" s="97" t="s">
+      <c r="A62" s="89" t="s">
         <v>21</v>
       </c>
       <c r="B62" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C62" s="41">
+      <c r="C62" s="40">
         <v>0.85699999999999998</v>
       </c>
-      <c r="D62" s="94">
+      <c r="D62" s="87">
         <f>C62-C63</f>
         <v>1.7000000000000015E-2</v>
       </c>
-      <c r="E62" s="41">
+      <c r="E62" s="40">
         <v>0.88139999999999996</v>
       </c>
-      <c r="F62" s="94">
+      <c r="F62" s="87">
         <f>E62-E63</f>
         <v>8.799999999999919E-3</v>
       </c>
@@ -7952,39 +7947,39 @@
       <c r="H62" s="2"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A63" s="98"/>
+      <c r="A63" s="90"/>
       <c r="B63" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="C63" s="41">
+      <c r="C63" s="40">
         <v>0.84</v>
       </c>
-      <c r="D63" s="95"/>
-      <c r="E63" s="41">
+      <c r="D63" s="88"/>
+      <c r="E63" s="40">
         <v>0.87260000000000004</v>
       </c>
-      <c r="F63" s="95"/>
+      <c r="F63" s="88"/>
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A64" s="99" t="s">
+      <c r="A64" s="91" t="s">
         <v>22</v>
       </c>
       <c r="B64" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C64" s="42">
+      <c r="C64" s="41">
         <v>0.92249999999999999</v>
       </c>
-      <c r="D64" s="94">
+      <c r="D64" s="87">
         <f t="shared" ref="D64" si="4">C64-C65</f>
         <v>5.9999999999999942E-2</v>
       </c>
-      <c r="E64" s="42">
+      <c r="E64" s="41">
         <v>0.93559999999999999</v>
       </c>
-      <c r="F64" s="94">
+      <c r="F64" s="87">
         <f t="shared" ref="F64" si="5">E64-E65</f>
         <v>4.1100000000000025E-2</v>
       </c>
@@ -7992,39 +7987,39 @@
       <c r="H64" s="2"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A65" s="100"/>
+      <c r="A65" s="92"/>
       <c r="B65" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="C65" s="42">
+      <c r="C65" s="41">
         <v>0.86250000000000004</v>
       </c>
-      <c r="D65" s="95"/>
-      <c r="E65" s="42">
+      <c r="D65" s="88"/>
+      <c r="E65" s="41">
         <v>0.89449999999999996</v>
       </c>
-      <c r="F65" s="95"/>
+      <c r="F65" s="88"/>
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A66" s="97" t="s">
+      <c r="A66" s="89" t="s">
         <v>23</v>
       </c>
       <c r="B66" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C66" s="41">
+      <c r="C66" s="40">
         <v>0.87090000000000001</v>
       </c>
-      <c r="D66" s="94">
+      <c r="D66" s="87">
         <f t="shared" ref="D66" si="6">C66-C67</f>
         <v>3.4800000000000053E-2</v>
       </c>
-      <c r="E66" s="41">
+      <c r="E66" s="40">
         <v>0.89049999999999996</v>
       </c>
-      <c r="F66" s="94">
+      <c r="F66" s="87">
         <f t="shared" ref="F66" si="7">E66-E67</f>
         <v>2.739999999999998E-2</v>
       </c>
@@ -8032,18 +8027,18 @@
       <c r="H66" s="2"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A67" s="98"/>
+      <c r="A67" s="90"/>
       <c r="B67" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="C67" s="41">
+      <c r="C67" s="40">
         <v>0.83609999999999995</v>
       </c>
-      <c r="D67" s="95"/>
-      <c r="E67" s="41">
+      <c r="D67" s="88"/>
+      <c r="E67" s="40">
         <v>0.86309999999999998</v>
       </c>
-      <c r="F67" s="95"/>
+      <c r="F67" s="88"/>
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
     </row>
@@ -8053,20 +8048,20 @@
       </c>
     </row>
     <row r="70" spans="1:8" ht="15" x14ac:dyDescent="0.5">
-      <c r="A70" s="34" t="s">
-        <v>185</v>
+      <c r="A70" s="33" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A71" s="82" t="s">
-        <v>229</v>
-      </c>
-      <c r="B71" s="83"/>
-      <c r="C71" s="83"/>
-      <c r="D71" s="83"/>
-      <c r="E71" s="83"/>
-      <c r="F71" s="45" t="s">
-        <v>189</v>
+      <c r="A71" s="84" t="s">
+        <v>223</v>
+      </c>
+      <c r="B71" s="85"/>
+      <c r="C71" s="85"/>
+      <c r="D71" s="85"/>
+      <c r="E71" s="85"/>
+      <c r="F71" s="44" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.5">
@@ -8077,20 +8072,20 @@
         <v>35</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="E72" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="F72" s="44" t="s">
-        <v>188</v>
+        <v>167</v>
+      </c>
+      <c r="F72" s="43" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A73" s="64" t="s">
+      <c r="A73" s="70" t="s">
         <v>21</v>
       </c>
       <c r="B73" s="4" t="s">
@@ -8107,7 +8102,7 @@
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A74" s="65"/>
+      <c r="A74" s="71"/>
       <c r="B74" s="4" t="s">
         <v>52</v>
       </c>
@@ -8122,7 +8117,7 @@
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A75" s="64" t="s">
+      <c r="A75" s="70" t="s">
         <v>22</v>
       </c>
       <c r="B75" s="4" t="s">
@@ -8139,7 +8134,7 @@
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A76" s="65"/>
+      <c r="A76" s="71"/>
       <c r="B76" s="4" t="s">
         <v>52</v>
       </c>
@@ -8154,7 +8149,7 @@
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A77" s="64" t="s">
+      <c r="A77" s="70" t="s">
         <v>23</v>
       </c>
       <c r="B77" s="4" t="s">
@@ -8171,7 +8166,7 @@
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A78" s="65"/>
+      <c r="A78" s="71"/>
       <c r="B78" s="4" t="s">
         <v>52</v>
       </c>
@@ -8187,34 +8182,6 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="A51:F51"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="A60:F60"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="A66:A67"/>
     <mergeCell ref="A73:A74"/>
     <mergeCell ref="A75:A76"/>
     <mergeCell ref="A77:A78"/>
@@ -8231,6 +8198,34 @@
     <mergeCell ref="D66:D67"/>
     <mergeCell ref="A41:F41"/>
     <mergeCell ref="A43:A44"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="A60:F60"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A32:F32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8249,183 +8244,183 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="8.796875" style="46"/>
-    <col min="2" max="2" width="4.19921875" style="46" customWidth="1"/>
-    <col min="3" max="3" width="90.75" style="46" customWidth="1"/>
-    <col min="4" max="16384" width="8.796875" style="46"/>
+    <col min="1" max="1" width="8.796875" style="45"/>
+    <col min="2" max="2" width="4.19921875" style="45" customWidth="1"/>
+    <col min="3" max="3" width="90.75" style="45" customWidth="1"/>
+    <col min="4" max="16384" width="8.796875" style="45"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14.7" x14ac:dyDescent="0.5">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="45" t="s">
+        <v>185</v>
+      </c>
+      <c r="C1" s="45" t="s">
+        <v>201</v>
+      </c>
+      <c r="D1" s="45" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="27.9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="100" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="45" t="s">
+        <v>186</v>
+      </c>
+      <c r="C2" s="46" t="s">
+        <v>202</v>
+      </c>
+      <c r="D2" s="48" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="27.9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="100"/>
+      <c r="B3" s="45" t="s">
+        <v>187</v>
+      </c>
+      <c r="C3" s="46" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="14.7" x14ac:dyDescent="0.6">
+      <c r="A4" s="100"/>
+      <c r="B4" s="47" t="s">
+        <v>188</v>
+      </c>
+      <c r="C4" s="46" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="27.9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="100"/>
+      <c r="B5" s="45" t="s">
+        <v>189</v>
+      </c>
+      <c r="C5" s="46" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="14.7" x14ac:dyDescent="0.6">
+      <c r="A6" s="100"/>
+      <c r="B6" s="45" t="s">
+        <v>190</v>
+      </c>
+      <c r="C6" s="46" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="27.9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="100" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="45" t="s">
+        <v>192</v>
+      </c>
+      <c r="C7" s="46" t="s">
+        <v>209</v>
+      </c>
+      <c r="D7" s="48" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="100"/>
+      <c r="B8" s="45" t="s">
         <v>191</v>
       </c>
-      <c r="C1" s="46" t="s">
-        <v>207</v>
-      </c>
-      <c r="D1" s="46" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="27.9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="101" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="46" t="s">
-        <v>192</v>
-      </c>
-      <c r="C2" s="47" t="s">
-        <v>208</v>
-      </c>
-      <c r="D2" s="49" t="s">
+      <c r="C8" s="46" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="28.2" x14ac:dyDescent="0.6">
+      <c r="A9" s="100"/>
+      <c r="B9" s="45" t="s">
+        <v>193</v>
+      </c>
+      <c r="C9" s="46" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.3" x14ac:dyDescent="0.6">
+      <c r="A10" s="100"/>
+      <c r="B10" s="47" t="s">
+        <v>194</v>
+      </c>
+      <c r="C10" s="46" t="s">
+        <v>213</v>
+      </c>
+      <c r="D10" s="48" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="41.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="100"/>
+      <c r="B11" s="45" t="s">
+        <v>195</v>
+      </c>
+      <c r="C11" s="46" t="s">
+        <v>214</v>
+      </c>
+      <c r="D11" s="48" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="27.9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="100" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="45" t="s">
+        <v>196</v>
+      </c>
+      <c r="C12" s="46" t="s">
+        <v>216</v>
+      </c>
+      <c r="D12" s="48" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="27.9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="101"/>
-      <c r="B3" s="46" t="s">
-        <v>193</v>
-      </c>
-      <c r="C3" s="47" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="14.7" x14ac:dyDescent="0.6">
-      <c r="A4" s="101"/>
-      <c r="B4" s="48" t="s">
-        <v>194</v>
-      </c>
-      <c r="C4" s="47" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="27.9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="101"/>
-      <c r="B5" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="C5" s="47" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="14.7" x14ac:dyDescent="0.6">
-      <c r="A6" s="101"/>
-      <c r="B6" s="46" t="s">
-        <v>196</v>
-      </c>
-      <c r="C6" s="47" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="27.9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="101" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="46" t="s">
+    <row r="13" spans="1:4" ht="27.9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="100"/>
+      <c r="B13" s="45" t="s">
+        <v>197</v>
+      </c>
+      <c r="C13" s="46" t="s">
+        <v>218</v>
+      </c>
+      <c r="D13" s="48" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="42" x14ac:dyDescent="0.6">
+      <c r="A14" s="100"/>
+      <c r="B14" s="47" t="s">
         <v>198</v>
       </c>
-      <c r="C7" s="47" t="s">
-        <v>215</v>
-      </c>
-      <c r="D7" s="49" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="14.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="101"/>
-      <c r="B8" s="46" t="s">
-        <v>197</v>
-      </c>
-      <c r="C8" s="47" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="28.2" x14ac:dyDescent="0.6">
-      <c r="A9" s="101"/>
-      <c r="B9" s="46" t="s">
+      <c r="C14" s="46" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="100"/>
+      <c r="B15" s="47" t="s">
         <v>199</v>
       </c>
-      <c r="C9" s="47" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.3" x14ac:dyDescent="0.6">
-      <c r="A10" s="101"/>
-      <c r="B10" s="48" t="s">
+      <c r="C15" s="46" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="28.2" x14ac:dyDescent="0.6">
+      <c r="A16" s="100"/>
+      <c r="B16" s="47" t="s">
         <v>200</v>
       </c>
-      <c r="C10" s="47" t="s">
-        <v>219</v>
-      </c>
-      <c r="D10" s="49" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="41.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="101"/>
-      <c r="B11" s="46" t="s">
-        <v>201</v>
-      </c>
-      <c r="C11" s="47" t="s">
-        <v>220</v>
-      </c>
-      <c r="D11" s="49" t="s">
+      <c r="C16" s="46" t="s">
         <v>221</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="27.9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="101" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="46" t="s">
-        <v>202</v>
-      </c>
-      <c r="C12" s="47" t="s">
-        <v>222</v>
-      </c>
-      <c r="D12" s="49" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="27.9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="101"/>
-      <c r="B13" s="46" t="s">
-        <v>203</v>
-      </c>
-      <c r="C13" s="47" t="s">
-        <v>224</v>
-      </c>
-      <c r="D13" s="49" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="42" x14ac:dyDescent="0.6">
-      <c r="A14" s="101"/>
-      <c r="B14" s="48" t="s">
-        <v>204</v>
-      </c>
-      <c r="C14" s="47" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="14.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="101"/>
-      <c r="B15" s="48" t="s">
-        <v>205</v>
-      </c>
-      <c r="C15" s="47" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="28.2" x14ac:dyDescent="0.6">
-      <c r="A16" s="101"/>
-      <c r="B16" s="48" t="s">
-        <v>206</v>
-      </c>
-      <c r="C16" s="47" t="s">
-        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -8453,44 +8448,44 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B2" s="51" t="s">
-        <v>232</v>
+      <c r="B2" s="50" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B3" s="50" t="s">
-        <v>231</v>
+      <c r="B3" s="49" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B4" s="4">
         <v>20</v>
       </c>
-      <c r="C4" s="52">
+      <c r="C4" s="51">
         <f>$B4-0.0368*C11</f>
         <v>18.16</v>
       </c>
-      <c r="D4" s="52">
+      <c r="D4" s="51">
         <f t="shared" ref="D4:I4" si="0">$B4-0.0368*D11</f>
         <v>16.32</v>
       </c>
-      <c r="E4" s="52">
+      <c r="E4" s="51">
         <f t="shared" si="0"/>
         <v>14.48</v>
       </c>
-      <c r="F4" s="52">
+      <c r="F4" s="51">
         <f t="shared" si="0"/>
         <v>12.64</v>
       </c>
-      <c r="G4" s="52">
+      <c r="G4" s="51">
         <f t="shared" si="0"/>
         <v>10.8</v>
       </c>
-      <c r="H4" s="52">
+      <c r="H4" s="51">
         <f t="shared" si="0"/>
         <v>7.120000000000001</v>
       </c>
-      <c r="I4" s="52">
+      <c r="I4" s="51">
         <f t="shared" si="0"/>
         <v>1.6000000000000014</v>
       </c>
@@ -8499,31 +8494,31 @@
       <c r="B5" s="4">
         <v>15</v>
       </c>
-      <c r="C5" s="52">
+      <c r="C5" s="51">
         <f>$B5-0.0368*C11</f>
         <v>13.16</v>
       </c>
-      <c r="D5" s="52">
+      <c r="D5" s="51">
         <f t="shared" ref="D5:I5" si="1">$B5-0.0368*D11</f>
         <v>11.32</v>
       </c>
-      <c r="E5" s="52">
+      <c r="E5" s="51">
         <f t="shared" si="1"/>
         <v>9.48</v>
       </c>
-      <c r="F5" s="52">
+      <c r="F5" s="51">
         <f t="shared" si="1"/>
         <v>7.6400000000000006</v>
       </c>
-      <c r="G5" s="52">
+      <c r="G5" s="51">
         <f t="shared" si="1"/>
         <v>5.8000000000000007</v>
       </c>
-      <c r="H5" s="52">
+      <c r="H5" s="51">
         <f t="shared" si="1"/>
         <v>2.120000000000001</v>
       </c>
-      <c r="I5" s="52">
+      <c r="I5" s="51">
         <f t="shared" si="1"/>
         <v>-3.3999999999999986</v>
       </c>
@@ -8532,31 +8527,31 @@
       <c r="B6" s="4">
         <v>10</v>
       </c>
-      <c r="C6" s="52">
+      <c r="C6" s="51">
         <f>$B6-0.0368*C11</f>
         <v>8.16</v>
       </c>
-      <c r="D6" s="52">
+      <c r="D6" s="51">
         <f t="shared" ref="D6:H6" si="2">$B6-0.0368*D11</f>
         <v>6.32</v>
       </c>
-      <c r="E6" s="52">
+      <c r="E6" s="51">
         <f t="shared" si="2"/>
         <v>4.4800000000000004</v>
       </c>
-      <c r="F6" s="52">
+      <c r="F6" s="51">
         <f t="shared" si="2"/>
         <v>2.6400000000000006</v>
       </c>
-      <c r="G6" s="52">
+      <c r="G6" s="51">
         <f t="shared" si="2"/>
         <v>0.80000000000000071</v>
       </c>
-      <c r="H6" s="52">
+      <c r="H6" s="51">
         <f t="shared" si="2"/>
         <v>-2.879999999999999</v>
       </c>
-      <c r="I6" s="52">
+      <c r="I6" s="51">
         <f>$B6-0.0368*I11</f>
         <v>-8.3999999999999986</v>
       </c>
@@ -8565,31 +8560,31 @@
       <c r="B7" s="4">
         <v>7.5</v>
       </c>
-      <c r="C7" s="52">
+      <c r="C7" s="51">
         <f>$B7-0.0368*C11</f>
         <v>5.66</v>
       </c>
-      <c r="D7" s="52">
+      <c r="D7" s="51">
         <f t="shared" ref="D7:I7" si="3">$B7-0.0368*D11</f>
         <v>3.8200000000000003</v>
       </c>
-      <c r="E7" s="52">
+      <c r="E7" s="51">
         <f t="shared" si="3"/>
         <v>1.9800000000000004</v>
       </c>
-      <c r="F7" s="52">
+      <c r="F7" s="51">
         <f t="shared" si="3"/>
         <v>0.14000000000000057</v>
       </c>
-      <c r="G7" s="52">
+      <c r="G7" s="51">
         <f t="shared" si="3"/>
         <v>-1.6999999999999993</v>
       </c>
-      <c r="H7" s="52">
+      <c r="H7" s="51">
         <f t="shared" si="3"/>
         <v>-5.379999999999999</v>
       </c>
-      <c r="I7" s="52">
+      <c r="I7" s="51">
         <f t="shared" si="3"/>
         <v>-10.899999999999999</v>
       </c>
@@ -8598,31 +8593,31 @@
       <c r="B8" s="4">
         <v>5</v>
       </c>
-      <c r="C8" s="52">
+      <c r="C8" s="51">
         <f>$B8-0.0368*C11</f>
         <v>3.16</v>
       </c>
-      <c r="D8" s="52">
+      <c r="D8" s="51">
         <f t="shared" ref="D8:I8" si="4">$B8-0.0368*D11</f>
         <v>1.3200000000000003</v>
       </c>
-      <c r="E8" s="52">
+      <c r="E8" s="51">
         <f t="shared" si="4"/>
         <v>-0.51999999999999957</v>
       </c>
-      <c r="F8" s="52">
+      <c r="F8" s="51">
         <f t="shared" si="4"/>
         <v>-2.3599999999999994</v>
       </c>
-      <c r="G8" s="52">
+      <c r="G8" s="51">
         <f t="shared" si="4"/>
         <v>-4.1999999999999993</v>
       </c>
-      <c r="H8" s="52">
+      <c r="H8" s="51">
         <f t="shared" si="4"/>
         <v>-7.879999999999999</v>
       </c>
-      <c r="I8" s="52">
+      <c r="I8" s="51">
         <f t="shared" si="4"/>
         <v>-13.399999999999999</v>
       </c>
@@ -8631,31 +8626,31 @@
       <c r="B9" s="4">
         <v>2</v>
       </c>
-      <c r="C9" s="52">
+      <c r="C9" s="51">
         <f>$B9-0.0368*C11</f>
         <v>0.16000000000000014</v>
       </c>
-      <c r="D9" s="52">
+      <c r="D9" s="51">
         <f t="shared" ref="D9:I9" si="5">$B9-0.0368*D11</f>
         <v>-1.6799999999999997</v>
       </c>
-      <c r="E9" s="52">
+      <c r="E9" s="51">
         <f t="shared" si="5"/>
         <v>-3.5199999999999996</v>
       </c>
-      <c r="F9" s="52">
+      <c r="F9" s="51">
         <f t="shared" si="5"/>
         <v>-5.3599999999999994</v>
       </c>
-      <c r="G9" s="52">
+      <c r="G9" s="51">
         <f t="shared" si="5"/>
         <v>-7.1999999999999993</v>
       </c>
-      <c r="H9" s="52">
+      <c r="H9" s="51">
         <f t="shared" si="5"/>
         <v>-10.879999999999999</v>
       </c>
-      <c r="I9" s="52">
+      <c r="I9" s="51">
         <f t="shared" si="5"/>
         <v>-16.399999999999999</v>
       </c>
@@ -8664,31 +8659,31 @@
       <c r="B10" s="4">
         <v>1</v>
       </c>
-      <c r="C10" s="52">
+      <c r="C10" s="51">
         <f>$B10-0.0368*C11</f>
         <v>-0.83999999999999986</v>
       </c>
-      <c r="D10" s="52">
+      <c r="D10" s="51">
         <f t="shared" ref="D10:I10" si="6">$B10-0.0368*D11</f>
         <v>-2.6799999999999997</v>
       </c>
-      <c r="E10" s="52">
+      <c r="E10" s="51">
         <f t="shared" si="6"/>
         <v>-4.5199999999999996</v>
       </c>
-      <c r="F10" s="52">
+      <c r="F10" s="51">
         <f t="shared" si="6"/>
         <v>-6.3599999999999994</v>
       </c>
-      <c r="G10" s="52">
+      <c r="G10" s="51">
         <f t="shared" si="6"/>
         <v>-8.1999999999999993</v>
       </c>
-      <c r="H10" s="52">
+      <c r="H10" s="51">
         <f t="shared" si="6"/>
         <v>-11.879999999999999</v>
       </c>
-      <c r="I10" s="52">
+      <c r="I10" s="51">
         <f t="shared" si="6"/>
         <v>-17.399999999999999</v>
       </c>
@@ -8715,49 +8710,49 @@
       <c r="I11" s="4">
         <v>500</v>
       </c>
-      <c r="J11" s="50" t="s">
-        <v>230</v>
+      <c r="J11" s="49" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B14" s="51" t="s">
-        <v>233</v>
+      <c r="B14" s="50" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B15" s="50" t="s">
-        <v>231</v>
+      <c r="B15" s="49" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B16" s="4">
         <v>20</v>
       </c>
-      <c r="C16" s="52">
+      <c r="C16" s="51">
         <f>$B16-0.0638*C23</f>
         <v>16.809999999999999</v>
       </c>
-      <c r="D16" s="52">
+      <c r="D16" s="51">
         <f>$B16-0.0638*D23</f>
         <v>13.620000000000001</v>
       </c>
-      <c r="E16" s="52">
+      <c r="E16" s="51">
         <f t="shared" ref="E16:I16" si="7">$B16-0.0638*E23</f>
         <v>10.430000000000001</v>
       </c>
-      <c r="F16" s="52">
+      <c r="F16" s="51">
         <f t="shared" si="7"/>
         <v>7.24</v>
       </c>
-      <c r="G16" s="52">
+      <c r="G16" s="51">
         <f t="shared" si="7"/>
         <v>4.0500000000000007</v>
       </c>
-      <c r="H16" s="53">
+      <c r="H16" s="52">
         <f t="shared" si="7"/>
         <v>-2.3299999999999983</v>
       </c>
-      <c r="I16" s="53">
+      <c r="I16" s="52">
         <f t="shared" si="7"/>
         <v>-11.899999999999999</v>
       </c>
@@ -8766,31 +8761,31 @@
       <c r="B17" s="4">
         <v>15</v>
       </c>
-      <c r="C17" s="52">
+      <c r="C17" s="51">
         <f>$B17-0.0638*C23</f>
         <v>11.81</v>
       </c>
-      <c r="D17" s="52">
+      <c r="D17" s="51">
         <f t="shared" ref="D17:I17" si="8">$B17-0.0638*D23</f>
         <v>8.620000000000001</v>
       </c>
-      <c r="E17" s="52">
+      <c r="E17" s="51">
         <f t="shared" si="8"/>
         <v>5.4300000000000015</v>
       </c>
-      <c r="F17" s="52">
+      <c r="F17" s="51">
         <f t="shared" si="8"/>
         <v>2.2400000000000002</v>
       </c>
-      <c r="G17" s="53">
+      <c r="G17" s="52">
         <f t="shared" si="8"/>
         <v>-0.94999999999999929</v>
       </c>
-      <c r="H17" s="53">
+      <c r="H17" s="52">
         <f t="shared" si="8"/>
         <v>-7.3299999999999983</v>
       </c>
-      <c r="I17" s="52">
+      <c r="I17" s="51">
         <f t="shared" si="8"/>
         <v>-16.899999999999999</v>
       </c>
@@ -8799,31 +8794,31 @@
       <c r="B18" s="4">
         <v>10</v>
       </c>
-      <c r="C18" s="52">
+      <c r="C18" s="51">
         <f>$B18-0.0638*C23</f>
         <v>6.8100000000000005</v>
       </c>
-      <c r="D18" s="52">
+      <c r="D18" s="51">
         <f t="shared" ref="D18:I18" si="9">$B18-0.0638*D23</f>
         <v>3.62</v>
       </c>
-      <c r="E18" s="52">
+      <c r="E18" s="51">
         <f t="shared" si="9"/>
         <v>0.43000000000000149</v>
       </c>
-      <c r="F18" s="53">
+      <c r="F18" s="52">
         <f t="shared" si="9"/>
         <v>-2.76</v>
       </c>
-      <c r="G18" s="53">
+      <c r="G18" s="52">
         <f t="shared" si="9"/>
         <v>-5.9499999999999993</v>
       </c>
-      <c r="H18" s="52">
+      <c r="H18" s="51">
         <f t="shared" si="9"/>
         <v>-12.329999999999998</v>
       </c>
-      <c r="I18" s="52">
+      <c r="I18" s="51">
         <f t="shared" si="9"/>
         <v>-21.9</v>
       </c>
@@ -8832,31 +8827,31 @@
       <c r="B19" s="4">
         <v>7.5</v>
       </c>
-      <c r="C19" s="52">
+      <c r="C19" s="51">
         <f>$B19-0.0638*C23</f>
         <v>4.3100000000000005</v>
       </c>
-      <c r="D19" s="52">
+      <c r="D19" s="51">
         <f t="shared" ref="D19:I19" si="10">$B19-0.0638*D23</f>
         <v>1.1200000000000001</v>
       </c>
-      <c r="E19" s="53">
+      <c r="E19" s="52">
         <f t="shared" si="10"/>
         <v>-2.0699999999999985</v>
       </c>
-      <c r="F19" s="53">
+      <c r="F19" s="52">
         <f t="shared" si="10"/>
         <v>-5.26</v>
       </c>
-      <c r="G19" s="52">
+      <c r="G19" s="51">
         <f t="shared" si="10"/>
         <v>-8.4499999999999993</v>
       </c>
-      <c r="H19" s="52">
+      <c r="H19" s="51">
         <f t="shared" si="10"/>
         <v>-14.829999999999998</v>
       </c>
-      <c r="I19" s="52">
+      <c r="I19" s="51">
         <f t="shared" si="10"/>
         <v>-24.4</v>
       </c>
@@ -8865,31 +8860,31 @@
       <c r="B20" s="4">
         <v>5</v>
       </c>
-      <c r="C20" s="52">
+      <c r="C20" s="51">
         <f>$B20-0.0638*C23</f>
         <v>1.81</v>
       </c>
-      <c r="D20" s="53">
+      <c r="D20" s="52">
         <f t="shared" ref="D20:I20" si="11">$B20-0.0638*D23</f>
         <v>-1.38</v>
       </c>
-      <c r="E20" s="55">
+      <c r="E20" s="54">
         <f t="shared" si="11"/>
         <v>-4.5699999999999985</v>
       </c>
-      <c r="F20" s="52">
+      <c r="F20" s="51">
         <f t="shared" si="11"/>
         <v>-7.76</v>
       </c>
-      <c r="G20" s="52">
+      <c r="G20" s="51">
         <f t="shared" si="11"/>
         <v>-10.95</v>
       </c>
-      <c r="H20" s="52">
+      <c r="H20" s="51">
         <f t="shared" si="11"/>
         <v>-17.329999999999998</v>
       </c>
-      <c r="I20" s="52">
+      <c r="I20" s="51">
         <f t="shared" si="11"/>
         <v>-26.9</v>
       </c>
@@ -8898,31 +8893,31 @@
       <c r="B21" s="4">
         <v>2</v>
       </c>
-      <c r="C21" s="53">
+      <c r="C21" s="52">
         <f>$B21-0.0638*C23</f>
         <v>-1.19</v>
       </c>
-      <c r="D21" s="52">
+      <c r="D21" s="51">
         <f t="shared" ref="D21:I21" si="12">$B21-0.0638*D23</f>
         <v>-4.38</v>
       </c>
-      <c r="E21" s="52">
+      <c r="E21" s="51">
         <f t="shared" si="12"/>
         <v>-7.5699999999999985</v>
       </c>
-      <c r="F21" s="52">
+      <c r="F21" s="51">
         <f t="shared" si="12"/>
         <v>-10.76</v>
       </c>
-      <c r="G21" s="52">
+      <c r="G21" s="51">
         <f t="shared" si="12"/>
         <v>-13.95</v>
       </c>
-      <c r="H21" s="52">
+      <c r="H21" s="51">
         <f t="shared" si="12"/>
         <v>-20.329999999999998</v>
       </c>
-      <c r="I21" s="52">
+      <c r="I21" s="51">
         <f t="shared" si="12"/>
         <v>-29.9</v>
       </c>
@@ -8931,31 +8926,31 @@
       <c r="B22" s="4">
         <v>1</v>
       </c>
-      <c r="C22" s="52">
+      <c r="C22" s="51">
         <f>$B22-0.0638*C23</f>
         <v>-2.19</v>
       </c>
-      <c r="D22" s="52">
+      <c r="D22" s="51">
         <f t="shared" ref="D22:I22" si="13">$B22-0.0638*D23</f>
         <v>-5.38</v>
       </c>
-      <c r="E22" s="52">
+      <c r="E22" s="51">
         <f t="shared" si="13"/>
         <v>-8.5699999999999985</v>
       </c>
-      <c r="F22" s="52">
+      <c r="F22" s="51">
         <f t="shared" si="13"/>
         <v>-11.76</v>
       </c>
-      <c r="G22" s="52">
+      <c r="G22" s="51">
         <f t="shared" si="13"/>
         <v>-14.95</v>
       </c>
-      <c r="H22" s="52">
+      <c r="H22" s="51">
         <f t="shared" si="13"/>
         <v>-21.33</v>
       </c>
-      <c r="I22" s="52">
+      <c r="I22" s="51">
         <f t="shared" si="13"/>
         <v>-30.9</v>
       </c>
@@ -8982,56 +8977,56 @@
       <c r="I23" s="4">
         <v>500</v>
       </c>
-      <c r="J23" s="50" t="s">
-        <v>230</v>
+      <c r="J23" s="49" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B26" s="104" t="s">
-        <v>234</v>
-      </c>
-      <c r="C26" s="105"/>
-      <c r="D26" s="105"/>
-      <c r="E26" s="105"/>
-      <c r="F26" s="105"/>
-      <c r="G26" s="105"/>
-      <c r="H26" s="105"/>
-      <c r="I26" s="106"/>
+      <c r="B26" s="110" t="s">
+        <v>228</v>
+      </c>
+      <c r="C26" s="111"/>
+      <c r="D26" s="111"/>
+      <c r="E26" s="111"/>
+      <c r="F26" s="111"/>
+      <c r="G26" s="111"/>
+      <c r="H26" s="111"/>
+      <c r="I26" s="112"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B27" s="50" t="s">
-        <v>231</v>
+      <c r="B27" s="49" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B28" s="4">
         <v>20</v>
       </c>
-      <c r="C28" s="56">
+      <c r="C28" s="55">
         <f t="shared" ref="C28:I28" si="14">0.0368*C$35</f>
         <v>1.8399999999999999</v>
       </c>
-      <c r="D28" s="56">
+      <c r="D28" s="55">
         <f t="shared" si="14"/>
         <v>3.6799999999999997</v>
       </c>
-      <c r="E28" s="56">
+      <c r="E28" s="55">
         <f t="shared" si="14"/>
         <v>5.52</v>
       </c>
-      <c r="F28" s="56">
+      <c r="F28" s="55">
         <f t="shared" si="14"/>
         <v>7.3599999999999994</v>
       </c>
-      <c r="G28" s="56">
+      <c r="G28" s="55">
         <f t="shared" si="14"/>
         <v>9.1999999999999993</v>
       </c>
-      <c r="H28" s="56">
+      <c r="H28" s="55">
         <f t="shared" si="14"/>
         <v>12.879999999999999</v>
       </c>
-      <c r="I28" s="56">
+      <c r="I28" s="55">
         <f t="shared" si="14"/>
         <v>18.399999999999999</v>
       </c>
@@ -9040,31 +9035,31 @@
       <c r="B29" s="4">
         <v>15</v>
       </c>
-      <c r="C29" s="56">
+      <c r="C29" s="55">
         <f t="shared" ref="C29:G33" si="15">0.0368*C$35</f>
         <v>1.8399999999999999</v>
       </c>
-      <c r="D29" s="56">
+      <c r="D29" s="55">
         <f t="shared" si="15"/>
         <v>3.6799999999999997</v>
       </c>
-      <c r="E29" s="56">
+      <c r="E29" s="55">
         <f t="shared" si="15"/>
         <v>5.52</v>
       </c>
-      <c r="F29" s="56">
+      <c r="F29" s="55">
         <f t="shared" si="15"/>
         <v>7.3599999999999994</v>
       </c>
-      <c r="G29" s="56">
+      <c r="G29" s="55">
         <f t="shared" si="15"/>
         <v>9.1999999999999993</v>
       </c>
-      <c r="H29" s="56">
+      <c r="H29" s="55">
         <f>0.0368*H$35</f>
         <v>12.879999999999999</v>
       </c>
-      <c r="I29" s="57">
+      <c r="I29" s="56">
         <f>-$B29+0.0368*I35</f>
         <v>3.3999999999999986</v>
       </c>
@@ -9073,31 +9068,31 @@
       <c r="B30" s="4">
         <v>10</v>
       </c>
-      <c r="C30" s="56">
+      <c r="C30" s="55">
         <f t="shared" si="15"/>
         <v>1.8399999999999999</v>
       </c>
-      <c r="D30" s="56">
+      <c r="D30" s="55">
         <f t="shared" si="15"/>
         <v>3.6799999999999997</v>
       </c>
-      <c r="E30" s="56">
+      <c r="E30" s="55">
         <f t="shared" si="15"/>
         <v>5.52</v>
       </c>
-      <c r="F30" s="56">
+      <c r="F30" s="55">
         <f t="shared" si="15"/>
         <v>7.3599999999999994</v>
       </c>
-      <c r="G30" s="56">
+      <c r="G30" s="55">
         <f t="shared" si="15"/>
         <v>9.1999999999999993</v>
       </c>
-      <c r="H30" s="57">
+      <c r="H30" s="56">
         <f>-$B30+0.0368*H35</f>
         <v>2.879999999999999</v>
       </c>
-      <c r="I30" s="57">
+      <c r="I30" s="56">
         <f>-$B30+0.0368*I35</f>
         <v>8.3999999999999986</v>
       </c>
@@ -9106,31 +9101,31 @@
       <c r="B31" s="4">
         <v>7.5</v>
       </c>
-      <c r="C31" s="56">
+      <c r="C31" s="55">
         <f t="shared" si="15"/>
         <v>1.8399999999999999</v>
       </c>
-      <c r="D31" s="56">
+      <c r="D31" s="55">
         <f t="shared" si="15"/>
         <v>3.6799999999999997</v>
       </c>
-      <c r="E31" s="56">
+      <c r="E31" s="55">
         <f t="shared" si="15"/>
         <v>5.52</v>
       </c>
-      <c r="F31" s="56">
+      <c r="F31" s="55">
         <f t="shared" si="15"/>
         <v>7.3599999999999994</v>
       </c>
-      <c r="G31" s="57">
+      <c r="G31" s="56">
         <f>-$B31+0.0368*G35</f>
         <v>1.6999999999999993</v>
       </c>
-      <c r="H31" s="57">
+      <c r="H31" s="56">
         <f t="shared" ref="H31:I31" si="16">-$B31+0.0368*H35</f>
         <v>5.379999999999999</v>
       </c>
-      <c r="I31" s="57">
+      <c r="I31" s="56">
         <f t="shared" si="16"/>
         <v>10.899999999999999</v>
       </c>
@@ -9139,31 +9134,31 @@
       <c r="B32" s="4">
         <v>5</v>
       </c>
-      <c r="C32" s="56">
+      <c r="C32" s="55">
         <f t="shared" si="15"/>
         <v>1.8399999999999999</v>
       </c>
-      <c r="D32" s="56">
+      <c r="D32" s="55">
         <f t="shared" si="15"/>
         <v>3.6799999999999997</v>
       </c>
-      <c r="E32" s="57">
+      <c r="E32" s="56">
         <f>-$B32+0.0368*E35</f>
         <v>0.51999999999999957</v>
       </c>
-      <c r="F32" s="57">
+      <c r="F32" s="56">
         <f t="shared" ref="F32:I32" si="17">-$B32+0.0368*F35</f>
         <v>2.3599999999999994</v>
       </c>
-      <c r="G32" s="57">
+      <c r="G32" s="56">
         <f t="shared" si="17"/>
         <v>4.1999999999999993</v>
       </c>
-      <c r="H32" s="57">
+      <c r="H32" s="56">
         <f t="shared" si="17"/>
         <v>7.879999999999999</v>
       </c>
-      <c r="I32" s="57">
+      <c r="I32" s="56">
         <f t="shared" si="17"/>
         <v>13.399999999999999</v>
       </c>
@@ -9172,31 +9167,31 @@
       <c r="B33" s="4">
         <v>2</v>
       </c>
-      <c r="C33" s="56">
+      <c r="C33" s="55">
         <f t="shared" si="15"/>
         <v>1.8399999999999999</v>
       </c>
-      <c r="D33" s="57">
+      <c r="D33" s="56">
         <f>-$B33+0.0368*D35</f>
         <v>1.6799999999999997</v>
       </c>
-      <c r="E33" s="57">
+      <c r="E33" s="56">
         <f t="shared" ref="E33:I33" si="18">-$B33+0.0368*E35</f>
         <v>3.5199999999999996</v>
       </c>
-      <c r="F33" s="57">
+      <c r="F33" s="56">
         <f t="shared" si="18"/>
         <v>5.3599999999999994</v>
       </c>
-      <c r="G33" s="57">
+      <c r="G33" s="56">
         <f t="shared" si="18"/>
         <v>7.1999999999999993</v>
       </c>
-      <c r="H33" s="57">
+      <c r="H33" s="56">
         <f t="shared" si="18"/>
         <v>10.879999999999999</v>
       </c>
-      <c r="I33" s="57">
+      <c r="I33" s="56">
         <f t="shared" si="18"/>
         <v>16.399999999999999</v>
       </c>
@@ -9205,31 +9200,31 @@
       <c r="B34" s="4">
         <v>1</v>
       </c>
-      <c r="C34" s="57">
+      <c r="C34" s="56">
         <f>-$B34+0.0368*C35</f>
         <v>0.83999999999999986</v>
       </c>
-      <c r="D34" s="57">
+      <c r="D34" s="56">
         <f t="shared" ref="D34:I34" si="19">-$B34+0.0368*D35</f>
         <v>2.6799999999999997</v>
       </c>
-      <c r="E34" s="57">
+      <c r="E34" s="56">
         <f t="shared" si="19"/>
         <v>4.5199999999999996</v>
       </c>
-      <c r="F34" s="57">
+      <c r="F34" s="56">
         <f t="shared" si="19"/>
         <v>6.3599999999999994</v>
       </c>
-      <c r="G34" s="57">
+      <c r="G34" s="56">
         <f t="shared" si="19"/>
         <v>8.1999999999999993</v>
       </c>
-      <c r="H34" s="57">
+      <c r="H34" s="56">
         <f t="shared" si="19"/>
         <v>11.879999999999999</v>
       </c>
-      <c r="I34" s="57">
+      <c r="I34" s="56">
         <f t="shared" si="19"/>
         <v>17.399999999999999</v>
       </c>
@@ -9256,472 +9251,514 @@
       <c r="I35" s="4">
         <v>500</v>
       </c>
-      <c r="J35" s="50" t="s">
+      <c r="J35" s="49" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A39" s="53"/>
+      <c r="B39" s="53"/>
+      <c r="C39" s="53"/>
+      <c r="D39" s="53"/>
+      <c r="E39" s="53"/>
+      <c r="F39" s="53"/>
+      <c r="G39" s="53"/>
+      <c r="H39" s="53"/>
+      <c r="I39" s="53"/>
+      <c r="J39" s="53"/>
+      <c r="K39" s="53"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A40" s="58"/>
+      <c r="B40" s="58"/>
+      <c r="C40" s="58"/>
+      <c r="D40" s="58"/>
+      <c r="E40" s="58"/>
+      <c r="F40" s="58"/>
+      <c r="G40" s="58"/>
+      <c r="H40" s="58"/>
+      <c r="I40" s="58"/>
+      <c r="J40" s="58"/>
+      <c r="K40" s="58"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A41" s="58"/>
+      <c r="B41" s="58"/>
+      <c r="C41" s="104" t="s">
+        <v>233</v>
+      </c>
+      <c r="D41" s="104"/>
+      <c r="E41" s="104"/>
+      <c r="F41" s="104"/>
+      <c r="G41" s="104"/>
+      <c r="H41" s="104"/>
+      <c r="I41" s="104"/>
+      <c r="J41" s="58"/>
+      <c r="K41" s="58"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A42" s="58"/>
+      <c r="B42" s="113" t="s">
+        <v>234</v>
+      </c>
+      <c r="C42" s="107">
+        <v>184</v>
+      </c>
+      <c r="D42" s="107">
+        <v>368</v>
+      </c>
+      <c r="E42" s="107">
+        <v>552</v>
+      </c>
+      <c r="F42" s="107">
+        <v>736</v>
+      </c>
+      <c r="G42" s="107">
+        <v>920</v>
+      </c>
+      <c r="H42" s="60">
+        <v>1288</v>
+      </c>
+      <c r="I42" s="60">
+        <v>1840</v>
+      </c>
+      <c r="J42" s="58"/>
+      <c r="K42" s="58"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A43" s="58"/>
+      <c r="B43" s="109"/>
+      <c r="C43" s="107"/>
+      <c r="D43" s="107"/>
+      <c r="E43" s="107"/>
+      <c r="F43" s="107"/>
+      <c r="G43" s="107"/>
+      <c r="H43" s="61">
+        <v>-233</v>
+      </c>
+      <c r="I43" s="61">
+        <v>-1190</v>
+      </c>
+      <c r="J43" s="58"/>
+      <c r="K43" s="58"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A44" s="58"/>
+      <c r="B44" s="109">
+        <v>15</v>
+      </c>
+      <c r="C44" s="107">
+        <v>184</v>
+      </c>
+      <c r="D44" s="107">
+        <v>368</v>
+      </c>
+      <c r="E44" s="107">
+        <v>552</v>
+      </c>
+      <c r="F44" s="107">
+        <v>736</v>
+      </c>
+      <c r="G44" s="60">
+        <v>920</v>
+      </c>
+      <c r="H44" s="60">
+        <v>1288</v>
+      </c>
+      <c r="I44" s="106">
+        <v>340</v>
+      </c>
+      <c r="J44" s="58"/>
+      <c r="K44" s="58"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A45" s="58"/>
+      <c r="B45" s="109"/>
+      <c r="C45" s="107"/>
+      <c r="D45" s="107"/>
+      <c r="E45" s="107"/>
+      <c r="F45" s="107"/>
+      <c r="G45" s="61">
+        <v>-95</v>
+      </c>
+      <c r="H45" s="61">
+        <v>-733</v>
+      </c>
+      <c r="I45" s="106"/>
+      <c r="J45" s="58"/>
+      <c r="K45" s="58"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A46" s="58"/>
+      <c r="B46" s="109">
+        <v>10</v>
+      </c>
+      <c r="C46" s="107">
+        <v>184</v>
+      </c>
+      <c r="D46" s="107">
+        <v>368</v>
+      </c>
+      <c r="E46" s="107">
+        <v>552</v>
+      </c>
+      <c r="F46" s="60">
+        <v>736</v>
+      </c>
+      <c r="G46" s="60">
+        <v>920</v>
+      </c>
+      <c r="H46" s="106">
+        <v>288</v>
+      </c>
+      <c r="I46" s="106">
+        <v>840</v>
+      </c>
+      <c r="J46" s="58"/>
+      <c r="K46" s="58"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A47" s="58"/>
+      <c r="B47" s="109"/>
+      <c r="C47" s="107"/>
+      <c r="D47" s="107"/>
+      <c r="E47" s="107"/>
+      <c r="F47" s="61">
+        <v>-276</v>
+      </c>
+      <c r="G47" s="61">
+        <v>-595</v>
+      </c>
+      <c r="H47" s="106"/>
+      <c r="I47" s="106"/>
+      <c r="J47" s="58"/>
+      <c r="K47" s="58"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A48" s="58"/>
+      <c r="B48" s="109">
+        <v>7.5</v>
+      </c>
+      <c r="C48" s="107">
+        <v>184</v>
+      </c>
+      <c r="D48" s="107">
+        <v>368</v>
+      </c>
+      <c r="E48" s="60">
+        <v>552</v>
+      </c>
+      <c r="F48" s="60">
+        <v>736</v>
+      </c>
+      <c r="G48" s="106">
+        <v>170</v>
+      </c>
+      <c r="H48" s="106">
+        <v>538</v>
+      </c>
+      <c r="I48" s="106">
+        <v>1090</v>
+      </c>
+      <c r="J48" s="58"/>
+      <c r="K48" s="58"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A49" s="58"/>
+      <c r="B49" s="109"/>
+      <c r="C49" s="107"/>
+      <c r="D49" s="107"/>
+      <c r="E49" s="61">
+        <v>-207</v>
+      </c>
+      <c r="F49" s="61">
+        <v>-526</v>
+      </c>
+      <c r="G49" s="106"/>
+      <c r="H49" s="106"/>
+      <c r="I49" s="106"/>
+      <c r="J49" s="58"/>
+      <c r="K49" s="58"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A50" s="58"/>
+      <c r="B50" s="109">
+        <v>5</v>
+      </c>
+      <c r="C50" s="107">
+        <v>184</v>
+      </c>
+      <c r="D50" s="60">
+        <v>368</v>
+      </c>
+      <c r="E50" s="106">
+        <v>52</v>
+      </c>
+      <c r="F50" s="106">
+        <v>236</v>
+      </c>
+      <c r="G50" s="106">
+        <v>420</v>
+      </c>
+      <c r="H50" s="106">
+        <v>788</v>
+      </c>
+      <c r="I50" s="106">
+        <v>1340</v>
+      </c>
+      <c r="J50" s="58"/>
+      <c r="K50" s="58"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A51" s="58"/>
+      <c r="B51" s="109"/>
+      <c r="C51" s="107"/>
+      <c r="D51" s="61">
+        <v>-138</v>
+      </c>
+      <c r="E51" s="106"/>
+      <c r="F51" s="106"/>
+      <c r="G51" s="106"/>
+      <c r="H51" s="106"/>
+      <c r="I51" s="106"/>
+      <c r="J51" s="58"/>
+      <c r="K51" s="58"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A52" s="58"/>
+      <c r="B52" s="109">
+        <v>2</v>
+      </c>
+      <c r="C52" s="60">
+        <v>184</v>
+      </c>
+      <c r="D52" s="106">
+        <v>168</v>
+      </c>
+      <c r="E52" s="106">
+        <v>352</v>
+      </c>
+      <c r="F52" s="106">
+        <v>536</v>
+      </c>
+      <c r="G52" s="106">
+        <v>720</v>
+      </c>
+      <c r="H52" s="106">
+        <v>1088</v>
+      </c>
+      <c r="I52" s="106">
+        <v>1640</v>
+      </c>
+      <c r="J52" s="58"/>
+      <c r="K52" s="58"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A53" s="58"/>
+      <c r="B53" s="109"/>
+      <c r="C53" s="61">
+        <v>-119</v>
+      </c>
+      <c r="D53" s="106"/>
+      <c r="E53" s="106"/>
+      <c r="F53" s="106"/>
+      <c r="G53" s="106"/>
+      <c r="H53" s="106"/>
+      <c r="I53" s="106"/>
+      <c r="J53" s="58"/>
+      <c r="K53" s="58"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A54" s="58"/>
+      <c r="B54" s="109">
+        <v>1</v>
+      </c>
+      <c r="C54" s="60">
+        <v>84</v>
+      </c>
+      <c r="D54" s="106">
+        <v>268</v>
+      </c>
+      <c r="E54" s="106">
+        <v>452</v>
+      </c>
+      <c r="F54" s="106">
+        <v>636</v>
+      </c>
+      <c r="G54" s="106">
+        <v>820</v>
+      </c>
+      <c r="H54" s="106">
+        <v>1188</v>
+      </c>
+      <c r="I54" s="106">
+        <v>1740</v>
+      </c>
+      <c r="J54" s="58"/>
+      <c r="K54" s="58"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A55" s="58"/>
+      <c r="B55" s="109"/>
+      <c r="C55" s="61">
+        <v>-219</v>
+      </c>
+      <c r="D55" s="106"/>
+      <c r="E55" s="106"/>
+      <c r="F55" s="106"/>
+      <c r="G55" s="106"/>
+      <c r="H55" s="106"/>
+      <c r="I55" s="106"/>
+      <c r="J55" s="58"/>
+      <c r="K55" s="58"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A56" s="58"/>
+      <c r="B56" s="59"/>
+      <c r="C56" s="108">
+        <v>50</v>
+      </c>
+      <c r="D56" s="108">
+        <v>100</v>
+      </c>
+      <c r="E56" s="108">
+        <v>150</v>
+      </c>
+      <c r="F56" s="108">
+        <v>200</v>
+      </c>
+      <c r="G56" s="108">
+        <v>250</v>
+      </c>
+      <c r="H56" s="108">
+        <v>350</v>
+      </c>
+      <c r="I56" s="108" t="s">
+        <v>235</v>
+      </c>
+      <c r="J56" s="58"/>
+      <c r="K56" s="58"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A57" s="58"/>
+      <c r="B57" s="59"/>
+      <c r="C57" s="108"/>
+      <c r="D57" s="108"/>
+      <c r="E57" s="108"/>
+      <c r="F57" s="108"/>
+      <c r="G57" s="108"/>
+      <c r="H57" s="108"/>
+      <c r="I57" s="108"/>
+      <c r="J57" s="58"/>
+      <c r="K57" s="58"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A58" s="58"/>
+      <c r="B58" s="58"/>
+      <c r="C58" s="105" t="s">
+        <v>229</v>
+      </c>
+      <c r="D58" s="102" t="s">
+        <v>231</v>
+      </c>
+      <c r="E58" s="102"/>
+      <c r="F58" s="102"/>
+      <c r="G58" s="101" t="s">
+        <v>232</v>
+      </c>
+      <c r="H58" s="101"/>
+      <c r="I58" s="101"/>
+      <c r="J58" s="58"/>
+      <c r="K58" s="58"/>
+      <c r="L58" s="57"/>
+    </row>
+    <row r="59" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A59" s="58"/>
+      <c r="B59" s="58"/>
+      <c r="C59" s="105"/>
+      <c r="D59" s="103" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A39" s="54"/>
-      <c r="B39" s="54"/>
-      <c r="C39" s="54"/>
-      <c r="D39" s="54"/>
-      <c r="E39" s="54"/>
-      <c r="F39" s="54"/>
-      <c r="G39" s="54"/>
-      <c r="H39" s="54"/>
-      <c r="I39" s="54"/>
-      <c r="J39" s="54"/>
-      <c r="K39" s="54"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A40" s="59"/>
-      <c r="B40" s="59"/>
-      <c r="C40" s="59"/>
-      <c r="D40" s="59"/>
-      <c r="E40" s="59"/>
-      <c r="F40" s="59"/>
-      <c r="G40" s="59"/>
-      <c r="H40" s="59"/>
-      <c r="I40" s="59"/>
-      <c r="J40" s="59"/>
-      <c r="K40" s="59"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A41" s="59"/>
-      <c r="B41" s="59"/>
-      <c r="C41" s="113" t="s">
-        <v>239</v>
-      </c>
-      <c r="D41" s="113"/>
-      <c r="E41" s="113"/>
-      <c r="F41" s="113"/>
-      <c r="G41" s="113"/>
-      <c r="H41" s="113"/>
-      <c r="I41" s="113"/>
-      <c r="J41" s="59"/>
-      <c r="K41" s="59"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A42" s="59"/>
-      <c r="B42" s="107" t="s">
-        <v>240</v>
-      </c>
-      <c r="C42" s="108">
-        <v>184</v>
-      </c>
-      <c r="D42" s="108">
-        <v>368</v>
-      </c>
-      <c r="E42" s="108">
-        <v>552</v>
-      </c>
-      <c r="F42" s="108">
-        <v>736</v>
-      </c>
-      <c r="G42" s="108">
-        <v>920</v>
-      </c>
-      <c r="H42" s="61">
-        <v>1288</v>
-      </c>
-      <c r="I42" s="61">
-        <v>1840</v>
-      </c>
-      <c r="J42" s="59"/>
-      <c r="K42" s="59"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A43" s="59"/>
-      <c r="B43" s="102"/>
-      <c r="C43" s="108"/>
-      <c r="D43" s="108"/>
-      <c r="E43" s="108"/>
-      <c r="F43" s="108"/>
-      <c r="G43" s="108"/>
-      <c r="H43" s="62">
-        <v>-233</v>
-      </c>
-      <c r="I43" s="62">
-        <v>-1190</v>
-      </c>
-      <c r="J43" s="59"/>
-      <c r="K43" s="59"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A44" s="59"/>
-      <c r="B44" s="102">
-        <v>15</v>
-      </c>
-      <c r="C44" s="108">
-        <v>184</v>
-      </c>
-      <c r="D44" s="108">
-        <v>368</v>
-      </c>
-      <c r="E44" s="108">
-        <v>552</v>
-      </c>
-      <c r="F44" s="108">
-        <v>736</v>
-      </c>
-      <c r="G44" s="61">
-        <v>920</v>
-      </c>
-      <c r="H44" s="61">
-        <v>1288</v>
-      </c>
-      <c r="I44" s="109">
-        <v>340</v>
-      </c>
-      <c r="J44" s="59"/>
-      <c r="K44" s="59"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A45" s="59"/>
-      <c r="B45" s="102"/>
-      <c r="C45" s="108"/>
-      <c r="D45" s="108"/>
-      <c r="E45" s="108"/>
-      <c r="F45" s="108"/>
-      <c r="G45" s="62">
-        <v>-95</v>
-      </c>
-      <c r="H45" s="62">
-        <v>-733</v>
-      </c>
-      <c r="I45" s="109"/>
-      <c r="J45" s="59"/>
-      <c r="K45" s="59"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A46" s="59"/>
-      <c r="B46" s="102">
-        <v>10</v>
-      </c>
-      <c r="C46" s="108">
-        <v>184</v>
-      </c>
-      <c r="D46" s="108">
-        <v>368</v>
-      </c>
-      <c r="E46" s="108">
-        <v>552</v>
-      </c>
-      <c r="F46" s="61">
-        <v>736</v>
-      </c>
-      <c r="G46" s="61">
-        <v>920</v>
-      </c>
-      <c r="H46" s="109">
-        <v>288</v>
-      </c>
-      <c r="I46" s="109">
-        <v>840</v>
-      </c>
-      <c r="J46" s="59"/>
-      <c r="K46" s="59"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A47" s="59"/>
-      <c r="B47" s="102"/>
-      <c r="C47" s="108"/>
-      <c r="D47" s="108"/>
-      <c r="E47" s="108"/>
-      <c r="F47" s="62">
-        <v>-276</v>
-      </c>
-      <c r="G47" s="62">
-        <v>-595</v>
-      </c>
-      <c r="H47" s="109"/>
-      <c r="I47" s="109"/>
-      <c r="J47" s="59"/>
-      <c r="K47" s="59"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A48" s="59"/>
-      <c r="B48" s="102">
-        <v>7.5</v>
-      </c>
-      <c r="C48" s="108">
-        <v>184</v>
-      </c>
-      <c r="D48" s="108">
-        <v>368</v>
-      </c>
-      <c r="E48" s="61">
-        <v>552</v>
-      </c>
-      <c r="F48" s="61">
-        <v>736</v>
-      </c>
-      <c r="G48" s="109">
-        <v>170</v>
-      </c>
-      <c r="H48" s="109">
-        <v>538</v>
-      </c>
-      <c r="I48" s="109">
-        <v>1090</v>
-      </c>
-      <c r="J48" s="59"/>
-      <c r="K48" s="59"/>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A49" s="59"/>
-      <c r="B49" s="102"/>
-      <c r="C49" s="108"/>
-      <c r="D49" s="108"/>
-      <c r="E49" s="62">
-        <v>-207</v>
-      </c>
-      <c r="F49" s="62">
-        <v>-526</v>
-      </c>
-      <c r="G49" s="109"/>
-      <c r="H49" s="109"/>
-      <c r="I49" s="109"/>
-      <c r="J49" s="59"/>
-      <c r="K49" s="59"/>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A50" s="59"/>
-      <c r="B50" s="102">
-        <v>5</v>
-      </c>
-      <c r="C50" s="108">
-        <v>184</v>
-      </c>
-      <c r="D50" s="61">
-        <v>368</v>
-      </c>
-      <c r="E50" s="109">
-        <v>52</v>
-      </c>
-      <c r="F50" s="109">
-        <v>236</v>
-      </c>
-      <c r="G50" s="109">
-        <v>420</v>
-      </c>
-      <c r="H50" s="109">
-        <v>788</v>
-      </c>
-      <c r="I50" s="109">
-        <v>1340</v>
-      </c>
-      <c r="J50" s="59"/>
-      <c r="K50" s="59"/>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A51" s="59"/>
-      <c r="B51" s="102"/>
-      <c r="C51" s="108"/>
-      <c r="D51" s="62">
-        <v>-138</v>
-      </c>
-      <c r="E51" s="109"/>
-      <c r="F51" s="109"/>
-      <c r="G51" s="109"/>
-      <c r="H51" s="109"/>
-      <c r="I51" s="109"/>
-      <c r="J51" s="59"/>
-      <c r="K51" s="59"/>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A52" s="59"/>
-      <c r="B52" s="102">
-        <v>2</v>
-      </c>
-      <c r="C52" s="61">
-        <v>184</v>
-      </c>
-      <c r="D52" s="109">
-        <v>168</v>
-      </c>
-      <c r="E52" s="109">
-        <v>352</v>
-      </c>
-      <c r="F52" s="109">
-        <v>536</v>
-      </c>
-      <c r="G52" s="109">
-        <v>720</v>
-      </c>
-      <c r="H52" s="109">
-        <v>1088</v>
-      </c>
-      <c r="I52" s="109">
-        <v>1640</v>
-      </c>
-      <c r="J52" s="59"/>
-      <c r="K52" s="59"/>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A53" s="59"/>
-      <c r="B53" s="102"/>
-      <c r="C53" s="62">
-        <v>-119</v>
-      </c>
-      <c r="D53" s="109"/>
-      <c r="E53" s="109"/>
-      <c r="F53" s="109"/>
-      <c r="G53" s="109"/>
-      <c r="H53" s="109"/>
-      <c r="I53" s="109"/>
-      <c r="J53" s="59"/>
-      <c r="K53" s="59"/>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A54" s="59"/>
-      <c r="B54" s="102">
-        <v>1</v>
-      </c>
-      <c r="C54" s="61">
-        <v>84</v>
-      </c>
-      <c r="D54" s="109">
-        <v>268</v>
-      </c>
-      <c r="E54" s="109">
-        <v>452</v>
-      </c>
-      <c r="F54" s="109">
-        <v>636</v>
-      </c>
-      <c r="G54" s="109">
-        <v>820</v>
-      </c>
-      <c r="H54" s="109">
-        <v>1188</v>
-      </c>
-      <c r="I54" s="109">
-        <v>1740</v>
-      </c>
-      <c r="J54" s="59"/>
-      <c r="K54" s="59"/>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A55" s="59"/>
-      <c r="B55" s="102"/>
-      <c r="C55" s="62">
-        <v>-219</v>
-      </c>
-      <c r="D55" s="109"/>
-      <c r="E55" s="109"/>
-      <c r="F55" s="109"/>
-      <c r="G55" s="109"/>
-      <c r="H55" s="109"/>
-      <c r="I55" s="109"/>
-      <c r="J55" s="59"/>
-      <c r="K55" s="59"/>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A56" s="59"/>
-      <c r="B56" s="60"/>
-      <c r="C56" s="103">
-        <v>50</v>
-      </c>
-      <c r="D56" s="103">
-        <v>100</v>
-      </c>
-      <c r="E56" s="103">
-        <v>150</v>
-      </c>
-      <c r="F56" s="103">
-        <v>200</v>
-      </c>
-      <c r="G56" s="103">
-        <v>250</v>
-      </c>
-      <c r="H56" s="103">
-        <v>350</v>
-      </c>
-      <c r="I56" s="103" t="s">
-        <v>241</v>
-      </c>
-      <c r="J56" s="59"/>
-      <c r="K56" s="59"/>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A57" s="59"/>
-      <c r="B57" s="60"/>
-      <c r="C57" s="103"/>
-      <c r="D57" s="103"/>
-      <c r="E57" s="103"/>
-      <c r="F57" s="103"/>
-      <c r="G57" s="103"/>
-      <c r="H57" s="103"/>
-      <c r="I57" s="103"/>
-      <c r="J57" s="59"/>
-      <c r="K57" s="59"/>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A58" s="59"/>
-      <c r="B58" s="59"/>
-      <c r="C58" s="114" t="s">
-        <v>235</v>
-      </c>
-      <c r="D58" s="111" t="s">
-        <v>237</v>
-      </c>
-      <c r="E58" s="111"/>
-      <c r="F58" s="111"/>
-      <c r="G58" s="110" t="s">
-        <v>238</v>
-      </c>
-      <c r="H58" s="110"/>
-      <c r="I58" s="110"/>
-      <c r="J58" s="59"/>
-      <c r="K58" s="59"/>
-      <c r="L58" s="58"/>
-    </row>
-    <row r="59" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A59" s="59"/>
-      <c r="B59" s="59"/>
-      <c r="C59" s="114"/>
-      <c r="D59" s="112" t="s">
-        <v>236</v>
-      </c>
-      <c r="E59" s="112"/>
-      <c r="F59" s="112"/>
-      <c r="G59" s="110"/>
-      <c r="H59" s="110"/>
-      <c r="I59" s="110"/>
-      <c r="J59" s="59"/>
-      <c r="K59" s="59"/>
-      <c r="L59" s="58"/>
+      <c r="E59" s="103"/>
+      <c r="F59" s="103"/>
+      <c r="G59" s="101"/>
+      <c r="H59" s="101"/>
+      <c r="I59" s="101"/>
+      <c r="J59" s="58"/>
+      <c r="K59" s="58"/>
+      <c r="L59" s="57"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A60" s="59"/>
-      <c r="B60" s="59"/>
-      <c r="C60" s="59"/>
-      <c r="D60" s="63"/>
-      <c r="E60" s="59"/>
-      <c r="F60" s="59"/>
-      <c r="G60" s="59"/>
-      <c r="H60" s="59"/>
-      <c r="I60" s="59"/>
-      <c r="J60" s="59"/>
-      <c r="K60" s="59"/>
-      <c r="L60" s="58"/>
+      <c r="A60" s="58"/>
+      <c r="B60" s="58"/>
+      <c r="C60" s="58"/>
+      <c r="D60" s="62"/>
+      <c r="E60" s="58"/>
+      <c r="F60" s="58"/>
+      <c r="G60" s="58"/>
+      <c r="H60" s="58"/>
+      <c r="I60" s="58"/>
+      <c r="J60" s="58"/>
+      <c r="K60" s="58"/>
+      <c r="L60" s="57"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A61" s="59"/>
-      <c r="B61" s="59"/>
-      <c r="C61" s="59"/>
-      <c r="D61" s="59"/>
-      <c r="E61" s="59"/>
-      <c r="F61" s="59"/>
-      <c r="G61" s="59"/>
-      <c r="H61" s="59"/>
-      <c r="I61" s="59"/>
-      <c r="J61" s="59"/>
-      <c r="K61" s="59"/>
+      <c r="A61" s="58"/>
+      <c r="B61" s="58"/>
+      <c r="C61" s="58"/>
+      <c r="D61" s="58"/>
+      <c r="E61" s="58"/>
+      <c r="F61" s="58"/>
+      <c r="G61" s="58"/>
+      <c r="H61" s="58"/>
+      <c r="I61" s="58"/>
+      <c r="J61" s="58"/>
+      <c r="K61" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="58">
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="B26:I26"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="G56:G57"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="I56:I57"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="H50:H51"/>
     <mergeCell ref="G58:I59"/>
     <mergeCell ref="D58:F58"/>
     <mergeCell ref="D59:F59"/>
@@ -9738,48 +9775,6 @@
     <mergeCell ref="E52:E53"/>
     <mergeCell ref="F52:F53"/>
     <mergeCell ref="G52:G53"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="I46:I47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="G56:G57"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="I56:I57"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="B26:I26"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="E56:E57"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dataAnalysis.xlsx
+++ b/dataAnalysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\botImpact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DE2A960-20AD-4D8A-8962-178A3525A924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3733A9C-0175-43B2-8E05-C21D9B7B1105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="18192" windowHeight="11592" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="18192" windowHeight="11592" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ModelFreeEvidence" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="262">
   <si>
     <t>Node Degree</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2083,10 +2083,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5.5.2 Parameter Sensitivity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>6.3.1 Opinions of Bot’s Followers</t>
   </si>
   <si>
@@ -3358,6 +3354,323 @@
   </si>
   <si>
     <t>0.8</t>
+  </si>
+  <si>
+    <t>5.5.2 Model Convergence Check</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>num of epoch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>180</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>240</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>150</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>210</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>270</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单折线图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>GAN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>虽然难收敛，但在我们这个数据上效果很不错</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200epoch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Loss</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>每一项前面的超参确实没那么重要，而</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>GAN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>主要还是看生成器强不强</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Generator</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Discriminator</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的维度最好要比较</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>match</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>y_dim</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>可能比较重要，但</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>graph</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的维数本身没那么重要）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Bot Inf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>更</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Consistent</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Majority Opinion: Bot Mentioned in Human's Tweet per Human Followers (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>单位粉丝的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Mention</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>率)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Bot</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Majority</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>一致时，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Mention</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>率更高</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attitude Var</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3370,7 +3683,7 @@
     <numFmt numFmtId="178" formatCode="0.000_ ;[Red]\-0.000\ "/>
     <numFmt numFmtId="179" formatCode="0.00_ ;[Red]\-0.00\ "/>
   </numFmts>
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3586,6 +3899,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="12">
     <fill>
@@ -3752,7 +4072,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3914,6 +4234,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3960,6 +4281,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4376,38 +4700,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="74" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="75"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="76"/>
       <c r="D1" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="65" t="s">
+      <c r="E1" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="68"/>
       <c r="J1" s="19" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="78"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="79"/>
       <c r="D2" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="68" t="s">
+      <c r="E2" s="69" t="s">
         <v>77</v>
       </c>
-      <c r="F2" s="69"/>
+      <c r="F2" s="70"/>
       <c r="G2" s="3" t="s">
         <v>30</v>
       </c>
@@ -4431,7 +4755,7 @@
       <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="70" t="s">
+      <c r="E3" s="71" t="s">
         <v>21</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -4440,10 +4764,10 @@
       <c r="G3" s="18">
         <v>0.60419999999999996</v>
       </c>
-      <c r="H3" s="63">
+      <c r="H3" s="64">
         <v>1.4500999999999999</v>
       </c>
-      <c r="I3" s="63">
+      <c r="I3" s="64">
         <v>0.14699999999999999</v>
       </c>
       <c r="J3" s="19" t="s">
@@ -4463,15 +4787,15 @@
       <c r="D4" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="71"/>
+      <c r="E4" s="72"/>
       <c r="F4" s="2" t="s">
         <v>79</v>
       </c>
       <c r="G4" s="2">
         <v>0.59640000000000004</v>
       </c>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
       <c r="J4" s="19" t="s">
         <v>91</v>
       </c>
@@ -4489,7 +4813,7 @@
       <c r="D5" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="70" t="s">
+      <c r="E5" s="71" t="s">
         <v>22</v>
       </c>
       <c r="F5" s="2" t="s">
@@ -4498,31 +4822,31 @@
       <c r="G5" s="18">
         <v>0.58009999999999995</v>
       </c>
-      <c r="H5" s="63">
+      <c r="H5" s="64">
         <v>-0.46650000000000003</v>
       </c>
-      <c r="I5" s="63">
+      <c r="I5" s="64">
         <v>0.64090000000000003</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A6" s="76" t="s">
+      <c r="A6" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="77"/>
-      <c r="C6" s="78"/>
-      <c r="E6" s="71"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="79"/>
+      <c r="E6" s="72"/>
       <c r="F6" s="2" t="s">
         <v>79</v>
       </c>
       <c r="G6" s="2">
         <v>0.58389999999999997</v>
       </c>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="65"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A7" s="72" t="s">
+      <c r="A7" s="73" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -4531,7 +4855,7 @@
       <c r="C7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="70" t="s">
+      <c r="E7" s="71" t="s">
         <v>23</v>
       </c>
       <c r="F7" s="2" t="s">
@@ -4540,36 +4864,36 @@
       <c r="G7" s="18">
         <v>0.5393</v>
       </c>
-      <c r="H7" s="63">
+      <c r="H7" s="64">
         <v>-1.7504</v>
       </c>
-      <c r="I7" s="63">
+      <c r="I7" s="64">
         <v>8.0100000000000005E-2</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A8" s="71"/>
+      <c r="A8" s="72"/>
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="71"/>
+      <c r="E8" s="72"/>
       <c r="F8" s="2" t="s">
         <v>79</v>
       </c>
       <c r="G8" s="2">
         <v>0.55649999999999999</v>
       </c>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="65"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="E9" s="68" t="s">
+      <c r="E9" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="F9" s="69"/>
+      <c r="F9" s="70"/>
       <c r="G9" s="3" t="s">
         <v>25</v>
       </c>
@@ -4581,12 +4905,12 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A10" s="73" t="s">
+      <c r="A10" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="74"/>
-      <c r="C10" s="75"/>
-      <c r="E10" s="70" t="s">
+      <c r="B10" s="75"/>
+      <c r="C10" s="76"/>
+      <c r="E10" s="71" t="s">
         <v>21</v>
       </c>
       <c r="F10" s="2" t="s">
@@ -4595,10 +4919,10 @@
       <c r="G10" s="17">
         <v>0.82099999999999995</v>
       </c>
-      <c r="H10" s="63">
+      <c r="H10" s="64">
         <v>23.857700000000001</v>
       </c>
-      <c r="I10" s="63" t="s">
+      <c r="I10" s="64" t="s">
         <v>26</v>
       </c>
       <c r="J10" s="19" t="s">
@@ -4606,20 +4930,20 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A11" s="76" t="s">
+      <c r="A11" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="77"/>
-      <c r="C11" s="78"/>
-      <c r="E11" s="71"/>
+      <c r="B11" s="78"/>
+      <c r="C11" s="79"/>
+      <c r="E11" s="72"/>
       <c r="F11" s="2" t="s">
         <v>79</v>
       </c>
       <c r="G11" s="2">
         <v>0.74229999999999996</v>
       </c>
-      <c r="H11" s="64"/>
-      <c r="I11" s="64"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="65"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A12" s="1" t="s">
@@ -4631,7 +4955,7 @@
       <c r="C12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="70" t="s">
+      <c r="E12" s="71" t="s">
         <v>22</v>
       </c>
       <c r="F12" s="2" t="s">
@@ -4640,10 +4964,10 @@
       <c r="G12" s="17">
         <v>0.83950000000000002</v>
       </c>
-      <c r="H12" s="63">
+      <c r="H12" s="64">
         <v>20.513400000000001</v>
       </c>
-      <c r="I12" s="63" t="s">
+      <c r="I12" s="64" t="s">
         <v>27</v>
       </c>
     </row>
@@ -4657,15 +4981,15 @@
       <c r="C13" s="2">
         <v>5.0496999999999996</v>
       </c>
-      <c r="E13" s="71"/>
+      <c r="E13" s="72"/>
       <c r="F13" s="2" t="s">
         <v>79</v>
       </c>
       <c r="G13" s="2">
         <v>0.73529999999999995</v>
       </c>
-      <c r="H13" s="64"/>
-      <c r="I13" s="64"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="65"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A14" s="2" t="s">
@@ -4677,7 +5001,7 @@
       <c r="C14" s="2">
         <v>5.5609000000000002</v>
       </c>
-      <c r="E14" s="70" t="s">
+      <c r="E14" s="71" t="s">
         <v>23</v>
       </c>
       <c r="F14" s="2" t="s">
@@ -4686,31 +5010,31 @@
       <c r="G14" s="17">
         <v>0.78539999999999999</v>
       </c>
-      <c r="H14" s="63">
+      <c r="H14" s="64">
         <v>16.601400000000002</v>
       </c>
-      <c r="I14" s="63" t="s">
+      <c r="I14" s="64" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A15" s="76" t="s">
+      <c r="A15" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="77"/>
-      <c r="C15" s="78"/>
-      <c r="E15" s="71"/>
+      <c r="B15" s="78"/>
+      <c r="C15" s="79"/>
+      <c r="E15" s="72"/>
       <c r="F15" s="2" t="s">
         <v>79</v>
       </c>
       <c r="G15" s="2">
         <v>0.67610000000000003</v>
       </c>
-      <c r="H15" s="64"/>
-      <c r="I15" s="64"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="65"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A16" s="72" t="s">
+      <c r="A16" s="73" t="s">
         <v>7</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -4724,7 +5048,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A17" s="71"/>
+      <c r="A17" s="72"/>
       <c r="B17" s="2" t="s">
         <v>13</v>
       </c>
@@ -4736,27 +5060,27 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="E18" s="65" t="s">
+      <c r="E18" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="66"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="66"/>
-      <c r="I18" s="67"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="67"/>
+      <c r="H18" s="67"/>
+      <c r="I18" s="68"/>
       <c r="J18" s="16" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A19" s="73" t="s">
+      <c r="A19" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="74"/>
-      <c r="C19" s="75"/>
-      <c r="E19" s="68" t="s">
+      <c r="B19" s="75"/>
+      <c r="C19" s="76"/>
+      <c r="E19" s="69" t="s">
         <v>74</v>
       </c>
-      <c r="F19" s="69"/>
+      <c r="F19" s="70"/>
       <c r="G19" s="3" t="s">
         <v>30</v>
       </c>
@@ -4768,12 +5092,12 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A20" s="76" t="s">
+      <c r="A20" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="77"/>
-      <c r="C20" s="78"/>
-      <c r="E20" s="70" t="s">
+      <c r="B20" s="78"/>
+      <c r="C20" s="79"/>
+      <c r="E20" s="71" t="s">
         <v>21</v>
       </c>
       <c r="F20" s="2" t="s">
@@ -4782,10 +5106,10 @@
       <c r="G20" s="18">
         <v>0.60419999999999996</v>
       </c>
-      <c r="H20" s="63">
+      <c r="H20" s="64">
         <v>6.7031000000000001</v>
       </c>
-      <c r="I20" s="63" t="s">
+      <c r="I20" s="64" t="s">
         <v>24</v>
       </c>
       <c r="J20" s="19" t="s">
@@ -4802,15 +5126,15 @@
       <c r="C21" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="71"/>
+      <c r="E21" s="72"/>
       <c r="F21" s="2" t="s">
         <v>71</v>
       </c>
       <c r="G21" s="2">
         <v>0.56520000000000004</v>
       </c>
-      <c r="H21" s="64"/>
-      <c r="I21" s="64"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="65"/>
       <c r="J21" s="16" t="s">
         <v>85</v>
       </c>
@@ -4825,7 +5149,7 @@
       <c r="C22" s="2">
         <v>6.4598000000000004</v>
       </c>
-      <c r="E22" s="70" t="s">
+      <c r="E22" s="71" t="s">
         <v>22</v>
       </c>
       <c r="F22" s="2" t="s">
@@ -4834,10 +5158,10 @@
       <c r="G22" s="18">
         <v>0.58009999999999995</v>
       </c>
-      <c r="H22" s="63">
+      <c r="H22" s="64">
         <v>2.8894000000000002</v>
       </c>
-      <c r="I22" s="63">
+      <c r="I22" s="64">
         <v>3.8999999999999998E-3</v>
       </c>
     </row>
@@ -4851,23 +5175,23 @@
       <c r="C23" s="2">
         <v>5.1597</v>
       </c>
-      <c r="E23" s="71"/>
+      <c r="E23" s="72"/>
       <c r="F23" s="2" t="s">
         <v>71</v>
       </c>
       <c r="G23" s="2">
         <v>0.5534</v>
       </c>
-      <c r="H23" s="64"/>
-      <c r="I23" s="64"/>
+      <c r="H23" s="65"/>
+      <c r="I23" s="65"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A24" s="76" t="s">
+      <c r="A24" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="77"/>
-      <c r="C24" s="78"/>
-      <c r="E24" s="70" t="s">
+      <c r="B24" s="78"/>
+      <c r="C24" s="79"/>
+      <c r="E24" s="71" t="s">
         <v>23</v>
       </c>
       <c r="F24" s="2" t="s">
@@ -4876,10 +5200,10 @@
       <c r="G24" s="18">
         <v>0.5393</v>
       </c>
-      <c r="H24" s="63">
+      <c r="H24" s="64">
         <v>1.6584000000000001</v>
       </c>
-      <c r="I24" s="63">
+      <c r="I24" s="64">
         <v>9.7299999999999998E-2</v>
       </c>
       <c r="J24" s="19" t="s">
@@ -4887,7 +5211,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A25" s="72" t="s">
+      <c r="A25" s="73" t="s">
         <v>7</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -4896,28 +5220,28 @@
       <c r="C25" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E25" s="71"/>
+      <c r="E25" s="72"/>
       <c r="F25" s="2" t="s">
         <v>71</v>
       </c>
       <c r="G25" s="2">
         <v>0.52139999999999997</v>
       </c>
-      <c r="H25" s="64"/>
-      <c r="I25" s="64"/>
+      <c r="H25" s="65"/>
+      <c r="I25" s="65"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A26" s="71"/>
+      <c r="A26" s="72"/>
       <c r="B26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E26" s="68" t="s">
+      <c r="E26" s="69" t="s">
         <v>73</v>
       </c>
-      <c r="F26" s="69"/>
+      <c r="F26" s="70"/>
       <c r="G26" s="3" t="s">
         <v>25</v>
       </c>
@@ -4929,7 +5253,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="E27" s="70" t="s">
+      <c r="E27" s="71" t="s">
         <v>21</v>
       </c>
       <c r="F27" s="2" t="s">
@@ -4938,10 +5262,10 @@
       <c r="G27" s="17">
         <v>0.82099999999999995</v>
       </c>
-      <c r="H27" s="63">
+      <c r="H27" s="64">
         <v>33.133299999999998</v>
       </c>
-      <c r="I27" s="63" t="s">
+      <c r="I27" s="64" t="s">
         <v>81</v>
       </c>
       <c r="J27" s="19" t="s">
@@ -4949,21 +5273,21 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="E28" s="71"/>
+      <c r="E28" s="72"/>
       <c r="F28" s="2" t="s">
         <v>71</v>
       </c>
       <c r="G28" s="2">
         <v>0.70599999999999996</v>
       </c>
-      <c r="H28" s="64"/>
-      <c r="I28" s="64"/>
+      <c r="H28" s="65"/>
+      <c r="I28" s="65"/>
       <c r="J28" s="19" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="E29" s="70" t="s">
+      <c r="E29" s="71" t="s">
         <v>22</v>
       </c>
       <c r="F29" s="2" t="s">
@@ -4972,26 +5296,26 @@
       <c r="G29" s="17">
         <v>0.83950000000000002</v>
       </c>
-      <c r="H29" s="63">
+      <c r="H29" s="64">
         <v>24.9849</v>
       </c>
-      <c r="I29" s="63" t="s">
+      <c r="I29" s="64" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="E30" s="71"/>
+      <c r="E30" s="72"/>
       <c r="F30" s="2" t="s">
         <v>71</v>
       </c>
       <c r="G30" s="2">
         <v>0.70609999999999995</v>
       </c>
-      <c r="H30" s="64"/>
-      <c r="I30" s="64"/>
+      <c r="H30" s="65"/>
+      <c r="I30" s="65"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="E31" s="70" t="s">
+      <c r="E31" s="71" t="s">
         <v>23</v>
       </c>
       <c r="F31" s="2" t="s">
@@ -5000,23 +5324,23 @@
       <c r="G31" s="17">
         <v>0.78539999999999999</v>
       </c>
-      <c r="H31" s="63">
+      <c r="H31" s="64">
         <v>21.385400000000001</v>
       </c>
-      <c r="I31" s="63" t="s">
+      <c r="I31" s="64" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="E32" s="71"/>
+      <c r="E32" s="72"/>
       <c r="F32" s="2" t="s">
         <v>71</v>
       </c>
       <c r="G32" s="2">
         <v>0.63849999999999996</v>
       </c>
-      <c r="H32" s="64"/>
-      <c r="I32" s="64"/>
+      <c r="H32" s="65"/>
+      <c r="I32" s="65"/>
     </row>
     <row r="33" spans="5:5" x14ac:dyDescent="0.5">
       <c r="E33" s="16" t="s">
@@ -5088,10 +5412,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B78CFA9F-73ED-424A-9027-1A5D5AB10FF2}">
-  <dimension ref="A1:L87"/>
+  <dimension ref="A1:P99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="H81" sqref="H81"/>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="B88" sqref="B88:K88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -5104,26 +5428,26 @@
       <c r="A1" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="79" t="s">
+      <c r="B1" s="81" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79" t="s">
+      <c r="C1" s="81"/>
+      <c r="D1" s="81" t="s">
         <v>94</v>
       </c>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79" t="s">
+      <c r="E1" s="81"/>
+      <c r="F1" s="81" t="s">
         <v>95</v>
       </c>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79" t="s">
+      <c r="G1" s="81"/>
+      <c r="H1" s="81" t="s">
         <v>96</v>
       </c>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79" t="s">
+      <c r="I1" s="81"/>
+      <c r="J1" s="81" t="s">
         <v>97</v>
       </c>
-      <c r="K1" s="79"/>
+      <c r="K1" s="81"/>
       <c r="L1" s="20" t="s">
         <v>108</v>
       </c>
@@ -5714,15 +6038,15 @@
       <c r="A21" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="B21" s="80" t="s">
+      <c r="B21" s="82" t="s">
         <v>93</v>
       </c>
-      <c r="C21" s="80"/>
-      <c r="D21" s="80"/>
-      <c r="E21" s="80"/>
-      <c r="F21" s="80"/>
-      <c r="G21" s="80"/>
-      <c r="H21" s="80"/>
+      <c r="C21" s="82"/>
+      <c r="D21" s="82"/>
+      <c r="E21" s="82"/>
+      <c r="F21" s="82"/>
+      <c r="G21" s="82"/>
+      <c r="H21" s="82"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A22" s="20" t="s">
@@ -5900,15 +6224,15 @@
       <c r="A29" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="B29" s="79" t="s">
+      <c r="B29" s="81" t="s">
         <v>95</v>
       </c>
-      <c r="C29" s="79"/>
-      <c r="D29" s="79"/>
-      <c r="E29" s="79"/>
-      <c r="F29" s="79"/>
-      <c r="G29" s="79"/>
-      <c r="H29" s="79"/>
+      <c r="C29" s="81"/>
+      <c r="D29" s="81"/>
+      <c r="E29" s="81"/>
+      <c r="F29" s="81"/>
+      <c r="G29" s="81"/>
+      <c r="H29" s="81"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A30" s="20" t="s">
@@ -6083,14 +6407,14 @@
       <c r="A38" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="B38" s="80" t="s">
+      <c r="B38" s="82" t="s">
         <v>93</v>
       </c>
-      <c r="C38" s="80"/>
-      <c r="D38" s="80"/>
-      <c r="E38" s="80"/>
-      <c r="F38" s="80"/>
-      <c r="G38" s="80"/>
+      <c r="C38" s="82"/>
+      <c r="D38" s="82"/>
+      <c r="E38" s="82"/>
+      <c r="F38" s="82"/>
+      <c r="G38" s="82"/>
       <c r="H38" s="30"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.5">
@@ -6243,14 +6567,14 @@
       <c r="A46" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="B46" s="80" t="s">
+      <c r="B46" s="82" t="s">
         <v>95</v>
       </c>
-      <c r="C46" s="80"/>
-      <c r="D46" s="80"/>
-      <c r="E46" s="80"/>
-      <c r="F46" s="80"/>
-      <c r="G46" s="80"/>
+      <c r="C46" s="82"/>
+      <c r="D46" s="82"/>
+      <c r="E46" s="82"/>
+      <c r="F46" s="82"/>
+      <c r="G46" s="82"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A47" s="20" t="s">
@@ -6407,13 +6731,13 @@
       <c r="A55" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="B55" s="80" t="s">
+      <c r="B55" s="82" t="s">
         <v>93</v>
       </c>
-      <c r="C55" s="80"/>
-      <c r="D55" s="80"/>
-      <c r="E55" s="80"/>
-      <c r="F55" s="80"/>
+      <c r="C55" s="82"/>
+      <c r="D55" s="82"/>
+      <c r="E55" s="82"/>
+      <c r="F55" s="82"/>
       <c r="G55" s="31" t="s">
         <v>152</v>
       </c>
@@ -6478,7 +6802,7 @@
         <v>0.12889999999999999</v>
       </c>
       <c r="G58" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.5">
@@ -6584,20 +6908,20 @@
         <v>0.89959999999999996</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A65" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="B65" s="80" t="s">
+      <c r="B65" s="82" t="s">
         <v>95</v>
       </c>
-      <c r="C65" s="80"/>
-      <c r="D65" s="80"/>
-      <c r="E65" s="80"/>
-      <c r="F65" s="80"/>
+      <c r="C65" s="82"/>
+      <c r="D65" s="82"/>
+      <c r="E65" s="82"/>
+      <c r="F65" s="82"/>
       <c r="G65" s="30"/>
     </row>
-    <row r="66" spans="1:8" ht="14.7" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:10" ht="14.7" x14ac:dyDescent="0.5">
       <c r="A66" s="20" t="s">
         <v>141</v>
       </c>
@@ -6617,7 +6941,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A67" s="20" t="s">
         <v>151</v>
       </c>
@@ -6637,7 +6961,7 @@
         <v>0.53269999999999995</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="14.7" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:10" ht="14.7" x14ac:dyDescent="0.5">
       <c r="A68" s="20" t="s">
         <v>138</v>
       </c>
@@ -6657,13 +6981,13 @@
         <v>0.1467</v>
       </c>
       <c r="G68" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H68" s="20" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A69" s="20" t="s">
         <v>115</v>
       </c>
@@ -6683,7 +7007,7 @@
         <v>0.16819999999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="15" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:10" ht="15" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="29" t="s">
         <v>146</v>
       </c>
@@ -6706,7 +7030,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A71" s="29" t="s">
         <v>147</v>
       </c>
@@ -6726,7 +7050,7 @@
         <v>2.8260999999999998</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A72" s="29" t="s">
         <v>148</v>
       </c>
@@ -6746,7 +7070,7 @@
         <v>1.1996</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A73" s="29" t="s">
         <v>149</v>
       </c>
@@ -6766,66 +7090,72 @@
         <v>0.96409999999999996</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="14.7" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:10" ht="14.7" x14ac:dyDescent="0.5">
       <c r="A74" s="27" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="14.7" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:10" ht="14.7" x14ac:dyDescent="0.5">
       <c r="A75" s="28"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A76" s="23" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A77" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="B77" s="80" t="s">
+      <c r="B77" s="82" t="s">
         <v>93</v>
       </c>
-      <c r="C77" s="80"/>
-      <c r="D77" s="80"/>
-      <c r="E77" s="80"/>
-      <c r="F77" s="80"/>
-      <c r="G77" s="80"/>
+      <c r="C77" s="82"/>
+      <c r="D77" s="82"/>
+      <c r="E77" s="82"/>
+      <c r="F77" s="82"/>
+      <c r="G77" s="82"/>
       <c r="H77" s="20" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="J77" s="63" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A78" s="20" t="s">
         <v>154</v>
       </c>
       <c r="B78" s="24" t="s">
+        <v>238</v>
+      </c>
+      <c r="C78" s="24" t="s">
         <v>239</v>
       </c>
-      <c r="C78" s="24" t="s">
+      <c r="D78" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="E78" s="24" t="s">
         <v>240</v>
-      </c>
-      <c r="D78" s="24" t="s">
-        <v>238</v>
-      </c>
-      <c r="E78" s="24" t="s">
-        <v>241</v>
       </c>
       <c r="F78" s="24" t="s">
         <v>155</v>
       </c>
       <c r="G78" s="24" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" ht="14.7" x14ac:dyDescent="0.5">
+        <v>236</v>
+      </c>
+      <c r="H78" s="9" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="14.7" x14ac:dyDescent="0.5">
       <c r="A79" s="20" t="s">
         <v>138</v>
       </c>
       <c r="B79" s="20">
         <v>0.1011</v>
       </c>
-      <c r="C79" s="20">
+      <c r="C79" s="23">
         <v>9.3299999999999994E-2</v>
       </c>
       <c r="D79" s="20">
@@ -6841,17 +7171,17 @@
         <v>8.9800000000000005E-2</v>
       </c>
       <c r="H79" s="20" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.5">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A80" s="20" t="s">
         <v>115</v>
       </c>
       <c r="B80" s="20">
         <v>0.1246</v>
       </c>
-      <c r="C80" s="20">
+      <c r="C80" s="23">
         <v>0.1106</v>
       </c>
       <c r="D80" s="20">
@@ -6867,50 +7197,50 @@
         <v>0.10440000000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A82" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="B82" s="80" t="s">
+      <c r="B82" s="82" t="s">
         <v>95</v>
       </c>
-      <c r="C82" s="80"/>
-      <c r="D82" s="80"/>
-      <c r="E82" s="80"/>
-      <c r="F82" s="80"/>
-      <c r="G82" s="80"/>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="C82" s="82"/>
+      <c r="D82" s="82"/>
+      <c r="E82" s="82"/>
+      <c r="F82" s="82"/>
+      <c r="G82" s="82"/>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A83" s="20" t="s">
         <v>154</v>
       </c>
       <c r="B83" s="24" t="s">
+        <v>238</v>
+      </c>
+      <c r="C83" s="24" t="s">
         <v>239</v>
       </c>
-      <c r="C83" s="24" t="s">
+      <c r="D83" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="E83" s="24" t="s">
         <v>240</v>
-      </c>
-      <c r="D83" s="24" t="s">
-        <v>238</v>
-      </c>
-      <c r="E83" s="24" t="s">
-        <v>241</v>
       </c>
       <c r="F83" s="24" t="s">
         <v>155</v>
       </c>
       <c r="G83" s="24" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.5">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A84" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="B84" s="20">
-        <v>0.1105</v>
-      </c>
-      <c r="C84" s="20">
+      <c r="B84" s="22">
+        <v>9.1300000000000006E-2</v>
+      </c>
+      <c r="C84" s="23">
         <v>9.0499999999999997E-2</v>
       </c>
       <c r="D84" s="20">
@@ -6922,18 +7252,18 @@
       <c r="F84" s="20">
         <v>9.4100000000000003E-2</v>
       </c>
-      <c r="G84" s="22">
-        <v>9.1300000000000006E-2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="G84" s="20">
+        <v>0.1105</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A85" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="B85" s="20">
-        <v>0.1255</v>
-      </c>
-      <c r="C85" s="20">
+      <c r="B85" s="22">
+        <v>9.2499999999999999E-2</v>
+      </c>
+      <c r="C85" s="23">
         <v>9.11E-2</v>
       </c>
       <c r="D85" s="20">
@@ -6945,23 +7275,298 @@
       <c r="F85" s="20">
         <v>9.6199999999999994E-2</v>
       </c>
-      <c r="G85" s="22">
-        <v>9.2499999999999999E-2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="G85" s="20">
+        <v>0.1255</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" ht="14.7" x14ac:dyDescent="0.5">
       <c r="A87" s="23" t="s">
-        <v>159</v>
+        <v>241</v>
+      </c>
+      <c r="F87" s="20" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A88" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="B88" s="69" t="s">
+        <v>93</v>
+      </c>
+      <c r="C88" s="80"/>
+      <c r="D88" s="80"/>
+      <c r="E88" s="80"/>
+      <c r="F88" s="80"/>
+      <c r="G88" s="80"/>
+      <c r="H88" s="80"/>
+      <c r="I88" s="80"/>
+      <c r="J88" s="80"/>
+      <c r="K88" s="70"/>
+      <c r="L88" s="30"/>
+      <c r="M88" s="30"/>
+      <c r="N88" s="30"/>
+      <c r="O88" s="30"/>
+      <c r="P88" s="30"/>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A89" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="B89" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="C89" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="D89" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="E89" s="24" t="s">
+        <v>244</v>
+      </c>
+      <c r="F89" s="24" t="s">
+        <v>250</v>
+      </c>
+      <c r="G89" s="24" t="s">
+        <v>245</v>
+      </c>
+      <c r="H89" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="I89" s="24" t="s">
+        <v>246</v>
+      </c>
+      <c r="J89" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="K89" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="L89" s="30"/>
+      <c r="M89" s="24"/>
+      <c r="N89" s="24"/>
+      <c r="O89" s="24"/>
+      <c r="P89" s="24"/>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A90" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="B90" s="20">
+        <v>1.2548999999999999</v>
+      </c>
+      <c r="C90" s="20">
+        <v>0.7238</v>
+      </c>
+      <c r="D90" s="20">
+        <v>0.45379999999999998</v>
+      </c>
+      <c r="E90" s="20">
+        <v>0.18870000000000001</v>
+      </c>
+      <c r="F90" s="20">
+        <v>0.13919999999999999</v>
+      </c>
+      <c r="G90" s="20">
+        <v>9.35E-2</v>
+      </c>
+      <c r="H90" s="20">
+        <v>7.3300000000000004E-2</v>
+      </c>
+      <c r="I90" s="20">
+        <v>6.5500000000000003E-2</v>
+      </c>
+      <c r="J90" s="20">
+        <v>6.3600000000000004E-2</v>
+      </c>
+      <c r="K90" s="20">
+        <v>6.5600000000000006E-2</v>
+      </c>
+      <c r="L90" s="9" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A91" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="B91" s="20">
+        <v>1.256</v>
+      </c>
+      <c r="C91" s="20">
+        <v>0.73470000000000002</v>
+      </c>
+      <c r="D91" s="20">
+        <v>0.4667</v>
+      </c>
+      <c r="E91" s="20">
+        <v>0.19639999999999999</v>
+      </c>
+      <c r="F91" s="20">
+        <v>0.14449999999999999</v>
+      </c>
+      <c r="G91" s="20">
+        <v>0.1051</v>
+      </c>
+      <c r="H91" s="20">
+        <v>8.1299999999999997E-2</v>
+      </c>
+      <c r="I91" s="20">
+        <v>7.0099999999999996E-2</v>
+      </c>
+      <c r="J91" s="20">
+        <v>6.88E-2</v>
+      </c>
+      <c r="K91" s="20">
+        <v>6.9099999999999995E-2</v>
+      </c>
+      <c r="L91" s="9" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A93" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="B93" s="69" t="s">
+        <v>95</v>
+      </c>
+      <c r="C93" s="80"/>
+      <c r="D93" s="80"/>
+      <c r="E93" s="80"/>
+      <c r="F93" s="80"/>
+      <c r="G93" s="80"/>
+      <c r="H93" s="80"/>
+      <c r="I93" s="80"/>
+      <c r="J93" s="80"/>
+      <c r="K93" s="70"/>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A94" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="B94" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="C94" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="D94" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="E94" s="24" t="s">
+        <v>244</v>
+      </c>
+      <c r="F94" s="24" t="s">
+        <v>250</v>
+      </c>
+      <c r="G94" s="24" t="s">
+        <v>245</v>
+      </c>
+      <c r="H94" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="I94" s="24" t="s">
+        <v>246</v>
+      </c>
+      <c r="J94" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="K94" s="24" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A95" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="B95" s="20">
+        <v>1.2345999999999999</v>
+      </c>
+      <c r="C95" s="20">
+        <v>0.60389999999999999</v>
+      </c>
+      <c r="D95" s="20">
+        <v>0.32929999999999998</v>
+      </c>
+      <c r="E95" s="20">
+        <v>0.121</v>
+      </c>
+      <c r="F95" s="20">
+        <v>0.1077</v>
+      </c>
+      <c r="G95" s="20">
+        <v>7.5600000000000001E-2</v>
+      </c>
+      <c r="H95" s="20">
+        <v>6.7100000000000007E-2</v>
+      </c>
+      <c r="I95" s="20">
+        <v>8.2600000000000007E-2</v>
+      </c>
+      <c r="J95" s="20">
+        <v>8.5099999999999995E-2</v>
+      </c>
+      <c r="K95" s="20">
+        <v>9.0899999999999995E-2</v>
+      </c>
+      <c r="L95" s="9" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A96" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="B96" s="20">
+        <v>1.2364999999999999</v>
+      </c>
+      <c r="C96" s="20">
+        <v>0.61850000000000005</v>
+      </c>
+      <c r="D96" s="20">
+        <v>0.34310000000000002</v>
+      </c>
+      <c r="E96" s="20">
+        <v>0.1331</v>
+      </c>
+      <c r="F96" s="20">
+        <v>0.1103</v>
+      </c>
+      <c r="G96" s="20">
+        <v>7.9600000000000004E-2</v>
+      </c>
+      <c r="H96" s="20">
+        <v>6.8699999999999997E-2</v>
+      </c>
+      <c r="I96" s="20">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="J96" s="20">
+        <v>8.5300000000000001E-2</v>
+      </c>
+      <c r="K96" s="20">
+        <v>9.1600000000000001E-2</v>
+      </c>
+      <c r="L96" s="9" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" ht="14.7" x14ac:dyDescent="0.5">
+      <c r="A98" s="20" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" ht="14.7" x14ac:dyDescent="0.5">
+      <c r="A99" s="20" t="s">
+        <v>257</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="B77:G77"/>
-    <mergeCell ref="B82:G82"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="B46:G46"/>
-    <mergeCell ref="B55:F55"/>
-    <mergeCell ref="B65:F65"/>
+  <mergeCells count="15">
+    <mergeCell ref="B88:K88"/>
+    <mergeCell ref="B93:K93"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
@@ -6969,6 +7574,12 @@
     <mergeCell ref="B38:G38"/>
     <mergeCell ref="B29:H29"/>
     <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B77:G77"/>
+    <mergeCell ref="B82:G82"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="B46:G46"/>
+    <mergeCell ref="B55:F55"/>
+    <mergeCell ref="B65:F65"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6978,10 +7589,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2687A086-E6AD-4DC9-8E6D-5E9AEFD1DED8}">
-  <dimension ref="A1:J78"/>
+  <dimension ref="A1:J96"/>
   <sheetViews>
-    <sheetView topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="F77" sqref="F77"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="E87" sqref="E87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -6995,14 +7606,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="83"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="85"/>
       <c r="E1" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>66</v>
@@ -7023,7 +7634,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="71" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -7037,7 +7648,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="71"/>
+      <c r="A4" s="72"/>
       <c r="B4" s="4" t="s">
         <v>52</v>
       </c>
@@ -7049,7 +7660,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A5" s="70" t="s">
+      <c r="A5" s="71" t="s">
         <v>22</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -7063,7 +7674,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="71"/>
+      <c r="A6" s="72"/>
       <c r="B6" s="4" t="s">
         <v>52</v>
       </c>
@@ -7075,7 +7686,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A7" s="70" t="s">
+      <c r="A7" s="71" t="s">
         <v>23</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -7089,7 +7700,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="71"/>
+      <c r="A8" s="72"/>
       <c r="B8" s="4" t="s">
         <v>52</v>
       </c>
@@ -7105,38 +7716,38 @@
     </row>
     <row r="10" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A10" s="33" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="81" t="s">
-        <v>168</v>
-      </c>
-      <c r="B11" s="82"/>
-      <c r="C11" s="82"/>
-      <c r="D11" s="82"/>
-      <c r="E11" s="83"/>
+      <c r="A11" s="83" t="s">
+        <v>167</v>
+      </c>
+      <c r="B11" s="84"/>
+      <c r="C11" s="84"/>
+      <c r="D11" s="84"/>
+      <c r="E11" s="85"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A12" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C12" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="D12" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="D12" s="10" t="s">
-        <v>163</v>
-      </c>
       <c r="E12" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A13" s="93" t="s">
+      <c r="A13" s="95" t="s">
         <v>51</v>
       </c>
       <c r="B13" s="42" t="s">
@@ -7154,7 +7765,7 @@
       <c r="J13" s="32"/>
     </row>
     <row r="14" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="94"/>
+      <c r="A14" s="96"/>
       <c r="B14" s="42" t="s">
         <v>22</v>
       </c>
@@ -7170,7 +7781,7 @@
       <c r="J14" s="32"/>
     </row>
     <row r="15" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A15" s="95"/>
+      <c r="A15" s="97"/>
       <c r="B15" s="42" t="s">
         <v>23</v>
       </c>
@@ -7185,7 +7796,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="93" t="s">
+      <c r="A16" s="95" t="s">
         <v>52</v>
       </c>
       <c r="B16" s="42" t="s">
@@ -7203,7 +7814,7 @@
       <c r="J16" s="6"/>
     </row>
     <row r="17" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A17" s="94"/>
+      <c r="A17" s="96"/>
       <c r="B17" s="42" t="s">
         <v>22</v>
       </c>
@@ -7218,7 +7829,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="95"/>
+      <c r="A18" s="97"/>
       <c r="B18" s="42" t="s">
         <v>23</v>
       </c>
@@ -7234,7 +7845,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A19" s="32" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G19" s="32"/>
     </row>
@@ -7243,35 +7854,35 @@
       <c r="G20" s="32"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A21" s="81" t="s">
-        <v>174</v>
-      </c>
-      <c r="B21" s="82"/>
-      <c r="C21" s="82"/>
-      <c r="D21" s="82"/>
-      <c r="E21" s="83"/>
+      <c r="A21" s="83" t="s">
+        <v>173</v>
+      </c>
+      <c r="B21" s="84"/>
+      <c r="C21" s="84"/>
+      <c r="D21" s="84"/>
+      <c r="E21" s="85"/>
       <c r="G21" s="32"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A22" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C22" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="D22" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="D22" s="10" t="s">
-        <v>173</v>
-      </c>
       <c r="E22" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G22" s="32"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A23" s="93" t="s">
+      <c r="A23" s="95" t="s">
         <v>51</v>
       </c>
       <c r="B23" s="42" t="s">
@@ -7288,7 +7899,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A24" s="94"/>
+      <c r="A24" s="96"/>
       <c r="B24" s="42" t="s">
         <v>22</v>
       </c>
@@ -7303,7 +7914,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A25" s="95"/>
+      <c r="A25" s="97"/>
       <c r="B25" s="42" t="s">
         <v>23</v>
       </c>
@@ -7318,7 +7929,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A26" s="93" t="s">
+      <c r="A26" s="95" t="s">
         <v>52</v>
       </c>
       <c r="B26" s="42" t="s">
@@ -7335,7 +7946,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A27" s="94"/>
+      <c r="A27" s="96"/>
       <c r="B27" s="42" t="s">
         <v>22</v>
       </c>
@@ -7350,7 +7961,7 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A28" s="95"/>
+      <c r="A28" s="97"/>
       <c r="B28" s="42" t="s">
         <v>23</v>
       </c>
@@ -7367,7 +7978,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A29" s="32" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -7379,18 +7990,18 @@
     </row>
     <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.5">
       <c r="A31" s="33" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="84" t="s">
+      <c r="A32" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="B32" s="85"/>
-      <c r="C32" s="85"/>
-      <c r="D32" s="85"/>
-      <c r="E32" s="85"/>
-      <c r="F32" s="86"/>
+      <c r="B32" s="87"/>
+      <c r="C32" s="87"/>
+      <c r="D32" s="87"/>
+      <c r="E32" s="87"/>
+      <c r="F32" s="88"/>
       <c r="G32" s="14" t="s">
         <v>67</v>
       </c>
@@ -7415,11 +8026,11 @@
         <v>20</v>
       </c>
       <c r="G33" s="32" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A34" s="70" t="s">
+      <c r="A34" s="71" t="s">
         <v>21</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -7439,11 +8050,11 @@
         <v>1E-4</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A35" s="71"/>
+      <c r="A35" s="72"/>
       <c r="B35" s="2" t="s">
         <v>47</v>
       </c>
@@ -7466,7 +8077,7 @@
       </c>
     </row>
     <row r="36" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A36" s="70" t="s">
+      <c r="A36" s="71" t="s">
         <v>22</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -7486,11 +8097,11 @@
         <v>0.26329999999999998</v>
       </c>
       <c r="G36" s="37" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A37" s="71"/>
+      <c r="A37" s="72"/>
       <c r="B37" s="2" t="s">
         <v>47</v>
       </c>
@@ -7513,7 +8124,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A38" s="70" t="s">
+      <c r="A38" s="71" t="s">
         <v>23</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -7534,7 +8145,7 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A39" s="71"/>
+      <c r="A39" s="72"/>
       <c r="B39" s="2" t="s">
         <v>47</v>
       </c>
@@ -7563,18 +8174,18 @@
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A41" s="73" t="s">
+      <c r="A41" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="B41" s="74"/>
-      <c r="C41" s="74"/>
-      <c r="D41" s="74"/>
-      <c r="E41" s="74"/>
-      <c r="F41" s="75"/>
+      <c r="B41" s="75"/>
+      <c r="C41" s="75"/>
+      <c r="D41" s="75"/>
+      <c r="E41" s="75"/>
+      <c r="F41" s="76"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A42" s="39" t="s">
@@ -7597,7 +8208,7 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A43" s="70" t="s">
+      <c r="A43" s="71" t="s">
         <v>21</v>
       </c>
       <c r="B43" s="2" t="s">
@@ -7620,7 +8231,7 @@
       <c r="H43" s="5"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A44" s="71"/>
+      <c r="A44" s="72"/>
       <c r="B44" s="2" t="s">
         <v>47</v>
       </c>
@@ -7644,7 +8255,7 @@
       <c r="H44" s="5"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A45" s="70" t="s">
+      <c r="A45" s="71" t="s">
         <v>22</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -7665,7 +8276,7 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A46" s="71"/>
+      <c r="A46" s="72"/>
       <c r="B46" s="2" t="s">
         <v>47</v>
       </c>
@@ -7688,7 +8299,7 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A47" s="70" t="s">
+      <c r="A47" s="71" t="s">
         <v>23</v>
       </c>
       <c r="B47" s="2" t="s">
@@ -7709,7 +8320,7 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A48" s="71"/>
+      <c r="A48" s="72"/>
       <c r="B48" s="2" t="s">
         <v>47</v>
       </c>
@@ -7733,39 +8344,39 @@
     </row>
     <row r="50" spans="1:8" ht="15" x14ac:dyDescent="0.5">
       <c r="A50" s="33" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A51" s="81" t="s">
+      <c r="A51" s="83" t="s">
         <v>60</v>
       </c>
-      <c r="B51" s="82"/>
-      <c r="C51" s="82"/>
-      <c r="D51" s="82"/>
-      <c r="E51" s="82"/>
-      <c r="F51" s="83"/>
+      <c r="B51" s="84"/>
+      <c r="C51" s="84"/>
+      <c r="D51" s="84"/>
+      <c r="E51" s="84"/>
+      <c r="F51" s="85"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A52" s="96" t="s">
+      <c r="A52" s="98" t="s">
         <v>64</v>
       </c>
-      <c r="B52" s="97"/>
+      <c r="B52" s="99"/>
       <c r="C52" s="10" t="s">
         <v>58</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E52" s="10" t="s">
         <v>59</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A53" s="89" t="s">
+      <c r="A53" s="91" t="s">
         <v>21</v>
       </c>
       <c r="B53" s="11" t="s">
@@ -7774,36 +8385,36 @@
       <c r="C53" s="40">
         <v>0.92610000000000003</v>
       </c>
-      <c r="D53" s="87">
+      <c r="D53" s="89">
         <f>C53-C54</f>
         <v>4.8399999999999999E-2</v>
       </c>
       <c r="E53" s="40">
         <v>0.9355</v>
       </c>
-      <c r="F53" s="87">
+      <c r="F53" s="89">
         <f>E53-E54</f>
         <v>3.3599999999999963E-2</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A54" s="90"/>
+      <c r="A54" s="92"/>
       <c r="B54" s="11" t="s">
         <v>62</v>
       </c>
       <c r="C54" s="40">
         <v>0.87770000000000004</v>
       </c>
-      <c r="D54" s="88"/>
+      <c r="D54" s="90"/>
       <c r="E54" s="40">
         <v>0.90190000000000003</v>
       </c>
-      <c r="F54" s="88"/>
+      <c r="F54" s="90"/>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A55" s="91" t="s">
+      <c r="A55" s="93" t="s">
         <v>22</v>
       </c>
       <c r="B55" s="13" t="s">
@@ -7812,14 +8423,14 @@
       <c r="C55" s="41">
         <v>0.83179999999999998</v>
       </c>
-      <c r="D55" s="87">
+      <c r="D55" s="89">
         <f t="shared" ref="D55:F55" si="2">C55-C56</f>
         <v>4.4300000000000006E-2</v>
       </c>
       <c r="E55" s="41">
         <v>0.86299999999999999</v>
       </c>
-      <c r="F55" s="87">
+      <c r="F55" s="89">
         <f t="shared" si="2"/>
         <v>1.6000000000000014E-2</v>
       </c>
@@ -7827,23 +8438,23 @@
       <c r="H55" s="2"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A56" s="92"/>
+      <c r="A56" s="94"/>
       <c r="B56" s="13" t="s">
         <v>62</v>
       </c>
       <c r="C56" s="41">
         <v>0.78749999999999998</v>
       </c>
-      <c r="D56" s="88"/>
+      <c r="D56" s="90"/>
       <c r="E56" s="41">
         <v>0.84699999999999998</v>
       </c>
-      <c r="F56" s="88"/>
+      <c r="F56" s="90"/>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A57" s="89" t="s">
+      <c r="A57" s="91" t="s">
         <v>23</v>
       </c>
       <c r="B57" s="11" t="s">
@@ -7852,14 +8463,14 @@
       <c r="C57" s="40">
         <v>0.90229999999999999</v>
       </c>
-      <c r="D57" s="87">
+      <c r="D57" s="89">
         <f t="shared" ref="D57:F57" si="3">C57-C58</f>
         <v>2.6000000000000023E-2</v>
       </c>
       <c r="E57" s="40">
         <v>0.91910000000000003</v>
       </c>
-      <c r="F57" s="87">
+      <c r="F57" s="89">
         <f t="shared" si="3"/>
         <v>1.0900000000000021E-2</v>
       </c>
@@ -7867,18 +8478,18 @@
       <c r="H57" s="2"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A58" s="90"/>
+      <c r="A58" s="92"/>
       <c r="B58" s="11" t="s">
         <v>62</v>
       </c>
       <c r="C58" s="40">
         <v>0.87629999999999997</v>
       </c>
-      <c r="D58" s="88"/>
+      <c r="D58" s="90"/>
       <c r="E58" s="40">
         <v>0.90820000000000001</v>
       </c>
-      <c r="F58" s="88"/>
+      <c r="F58" s="90"/>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
     </row>
@@ -7891,39 +8502,39 @@
       <c r="H59" s="2"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A60" s="84" t="s">
+      <c r="A60" s="86" t="s">
         <v>61</v>
       </c>
-      <c r="B60" s="85"/>
-      <c r="C60" s="85"/>
-      <c r="D60" s="85"/>
-      <c r="E60" s="85"/>
-      <c r="F60" s="86"/>
+      <c r="B60" s="87"/>
+      <c r="C60" s="87"/>
+      <c r="D60" s="87"/>
+      <c r="E60" s="87"/>
+      <c r="F60" s="88"/>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A61" s="98" t="s">
+      <c r="A61" s="100" t="s">
         <v>64</v>
       </c>
-      <c r="B61" s="99"/>
+      <c r="B61" s="101"/>
       <c r="C61" s="12" t="s">
         <v>58</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E61" s="12" t="s">
         <v>59</v>
       </c>
       <c r="F61" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A62" s="89" t="s">
+      <c r="A62" s="91" t="s">
         <v>21</v>
       </c>
       <c r="B62" s="11" t="s">
@@ -7932,14 +8543,14 @@
       <c r="C62" s="40">
         <v>0.85699999999999998</v>
       </c>
-      <c r="D62" s="87">
+      <c r="D62" s="89">
         <f>C62-C63</f>
         <v>1.7000000000000015E-2</v>
       </c>
       <c r="E62" s="40">
         <v>0.88139999999999996</v>
       </c>
-      <c r="F62" s="87">
+      <c r="F62" s="89">
         <f>E62-E63</f>
         <v>8.799999999999919E-3</v>
       </c>
@@ -7947,23 +8558,23 @@
       <c r="H62" s="2"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A63" s="90"/>
+      <c r="A63" s="92"/>
       <c r="B63" s="11" t="s">
         <v>62</v>
       </c>
       <c r="C63" s="40">
         <v>0.84</v>
       </c>
-      <c r="D63" s="88"/>
+      <c r="D63" s="90"/>
       <c r="E63" s="40">
         <v>0.87260000000000004</v>
       </c>
-      <c r="F63" s="88"/>
+      <c r="F63" s="90"/>
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A64" s="91" t="s">
+      <c r="A64" s="93" t="s">
         <v>22</v>
       </c>
       <c r="B64" s="13" t="s">
@@ -7972,14 +8583,14 @@
       <c r="C64" s="41">
         <v>0.92249999999999999</v>
       </c>
-      <c r="D64" s="87">
+      <c r="D64" s="89">
         <f t="shared" ref="D64" si="4">C64-C65</f>
         <v>5.9999999999999942E-2</v>
       </c>
       <c r="E64" s="41">
         <v>0.93559999999999999</v>
       </c>
-      <c r="F64" s="87">
+      <c r="F64" s="89">
         <f t="shared" ref="F64" si="5">E64-E65</f>
         <v>4.1100000000000025E-2</v>
       </c>
@@ -7987,23 +8598,23 @@
       <c r="H64" s="2"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A65" s="92"/>
+      <c r="A65" s="94"/>
       <c r="B65" s="13" t="s">
         <v>62</v>
       </c>
       <c r="C65" s="41">
         <v>0.86250000000000004</v>
       </c>
-      <c r="D65" s="88"/>
+      <c r="D65" s="90"/>
       <c r="E65" s="41">
         <v>0.89449999999999996</v>
       </c>
-      <c r="F65" s="88"/>
+      <c r="F65" s="90"/>
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A66" s="89" t="s">
+      <c r="A66" s="91" t="s">
         <v>23</v>
       </c>
       <c r="B66" s="11" t="s">
@@ -8012,14 +8623,14 @@
       <c r="C66" s="40">
         <v>0.87090000000000001</v>
       </c>
-      <c r="D66" s="87">
+      <c r="D66" s="89">
         <f t="shared" ref="D66" si="6">C66-C67</f>
         <v>3.4800000000000053E-2</v>
       </c>
       <c r="E66" s="40">
         <v>0.89049999999999996</v>
       </c>
-      <c r="F66" s="87">
+      <c r="F66" s="89">
         <f t="shared" ref="F66" si="7">E66-E67</f>
         <v>2.739999999999998E-2</v>
       </c>
@@ -8027,18 +8638,18 @@
       <c r="H66" s="2"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A67" s="90"/>
+      <c r="A67" s="92"/>
       <c r="B67" s="11" t="s">
         <v>62</v>
       </c>
       <c r="C67" s="40">
         <v>0.83609999999999995</v>
       </c>
-      <c r="D67" s="88"/>
+      <c r="D67" s="90"/>
       <c r="E67" s="40">
         <v>0.86309999999999998</v>
       </c>
-      <c r="F67" s="88"/>
+      <c r="F67" s="90"/>
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
     </row>
@@ -8049,19 +8660,19 @@
     </row>
     <row r="70" spans="1:8" ht="15" x14ac:dyDescent="0.5">
       <c r="A70" s="33" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A71" s="84" t="s">
-        <v>223</v>
-      </c>
-      <c r="B71" s="85"/>
-      <c r="C71" s="85"/>
-      <c r="D71" s="85"/>
-      <c r="E71" s="85"/>
+      <c r="A71" s="86" t="s">
+        <v>222</v>
+      </c>
+      <c r="B71" s="87"/>
+      <c r="C71" s="87"/>
+      <c r="D71" s="87"/>
+      <c r="E71" s="87"/>
       <c r="F71" s="44" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.5">
@@ -8072,20 +8683,20 @@
         <v>35</v>
       </c>
       <c r="C72" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="D72" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="E72" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="F72" s="43" t="s">
         <v>181</v>
       </c>
-      <c r="D72" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="E72" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="F72" s="43" t="s">
-        <v>182</v>
-      </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A73" s="70" t="s">
+      <c r="A73" s="71" t="s">
         <v>21</v>
       </c>
       <c r="B73" s="4" t="s">
@@ -8102,7 +8713,7 @@
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A74" s="71"/>
+      <c r="A74" s="72"/>
       <c r="B74" s="4" t="s">
         <v>52</v>
       </c>
@@ -8117,7 +8728,7 @@
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A75" s="70" t="s">
+      <c r="A75" s="71" t="s">
         <v>22</v>
       </c>
       <c r="B75" s="4" t="s">
@@ -8134,7 +8745,7 @@
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A76" s="71"/>
+      <c r="A76" s="72"/>
       <c r="B76" s="4" t="s">
         <v>52</v>
       </c>
@@ -8149,7 +8760,7 @@
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A77" s="70" t="s">
+      <c r="A77" s="71" t="s">
         <v>23</v>
       </c>
       <c r="B77" s="4" t="s">
@@ -8166,7 +8777,7 @@
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A78" s="71"/>
+      <c r="A78" s="72"/>
       <c r="B78" s="4" t="s">
         <v>52</v>
       </c>
@@ -8180,8 +8791,207 @@
         <v>0.2311</v>
       </c>
     </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A82" s="4" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A83" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B83" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C83" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="D83" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="E83" s="10" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A84" s="71" t="s">
+        <v>21</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C84" s="1">
+        <v>0.11310000000000001</v>
+      </c>
+      <c r="D84" s="2">
+        <v>0.12570000000000001</v>
+      </c>
+      <c r="E84" s="2">
+        <v>0</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A85" s="72"/>
+      <c r="B85" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C85" s="1">
+        <v>0.13420000000000001</v>
+      </c>
+      <c r="D85" s="2">
+        <v>0.14280000000000001</v>
+      </c>
+      <c r="E85" s="2">
+        <v>1.8200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A86" s="71" t="s">
+        <v>22</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C86" s="1">
+        <v>0.14149999999999999</v>
+      </c>
+      <c r="D86" s="2">
+        <v>0.154</v>
+      </c>
+      <c r="E86" s="2">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A87" s="72"/>
+      <c r="B87" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C87" s="1">
+        <v>0.16539999999999999</v>
+      </c>
+      <c r="D87" s="2">
+        <v>0.1741</v>
+      </c>
+      <c r="E87" s="2">
+        <v>3.5900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A88" s="71" t="s">
+        <v>23</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C88" s="1">
+        <v>0.10059999999999999</v>
+      </c>
+      <c r="D88" s="2">
+        <v>0.1181</v>
+      </c>
+      <c r="E88" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A89" s="72"/>
+      <c r="B89" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C89" s="1">
+        <v>0.1177</v>
+      </c>
+      <c r="D89" s="2">
+        <v>0.1381</v>
+      </c>
+      <c r="E89" s="2">
+        <v>1.9900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A91" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="D91" s="50"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A92" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B92" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C92" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="D92" s="10" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A93" s="71" t="s">
+        <v>21</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C93" s="49">
+        <v>2.8929999999999998</v>
+      </c>
+      <c r="D93" s="95">
+        <v>3.5799999999999998E-2</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A94" s="72"/>
+      <c r="B94" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C94" s="4">
+        <v>1.8120000000000001</v>
+      </c>
+      <c r="D94" s="97"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A95" s="71" t="s">
+        <v>22</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C95" s="4">
+        <v>2.2810000000000001</v>
+      </c>
+      <c r="D95" s="95">
+        <v>2.7400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A96" s="72"/>
+      <c r="B96" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C96" s="49">
+        <v>3.5089999999999999</v>
+      </c>
+      <c r="D96" s="97"/>
+    </row>
   </sheetData>
-  <mergeCells count="44">
+  <mergeCells count="51">
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="D93:D94"/>
+    <mergeCell ref="D95:D96"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="A86:A87"/>
     <mergeCell ref="A73:A74"/>
     <mergeCell ref="A75:A76"/>
     <mergeCell ref="A77:A78"/>
@@ -8238,8 +9048,8 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -8255,172 +9065,172 @@
         <v>34</v>
       </c>
       <c r="B1" s="45" t="s">
+        <v>184</v>
+      </c>
+      <c r="C1" s="45" t="s">
+        <v>200</v>
+      </c>
+      <c r="D1" s="45" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="27.9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="102" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="45" t="s">
         <v>185</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C2" s="46" t="s">
         <v>201</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D2" s="48" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="27.9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="102"/>
+      <c r="B3" s="45" t="s">
+        <v>186</v>
+      </c>
+      <c r="C3" s="46" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="27.9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="100" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="45" t="s">
-        <v>186</v>
-      </c>
-      <c r="C2" s="46" t="s">
-        <v>202</v>
-      </c>
-      <c r="D2" s="48" t="s">
+    <row r="4" spans="1:4" ht="14.7" x14ac:dyDescent="0.6">
+      <c r="A4" s="102"/>
+      <c r="B4" s="47" t="s">
+        <v>187</v>
+      </c>
+      <c r="C4" s="46" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="27.9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="100"/>
-      <c r="B3" s="45" t="s">
-        <v>187</v>
-      </c>
-      <c r="C3" s="46" t="s">
+    <row r="5" spans="1:4" ht="27.9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="102"/>
+      <c r="B5" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="C5" s="46" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="14.7" x14ac:dyDescent="0.6">
+      <c r="A6" s="102"/>
+      <c r="B6" s="45" t="s">
+        <v>189</v>
+      </c>
+      <c r="C6" s="46" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="27.9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="102" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="45" t="s">
+        <v>191</v>
+      </c>
+      <c r="C7" s="46" t="s">
+        <v>208</v>
+      </c>
+      <c r="D7" s="48" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="102"/>
+      <c r="B8" s="45" t="s">
+        <v>190</v>
+      </c>
+      <c r="C8" s="46" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="28.2" x14ac:dyDescent="0.6">
+      <c r="A9" s="102"/>
+      <c r="B9" s="45" t="s">
+        <v>192</v>
+      </c>
+      <c r="C9" s="46" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.3" x14ac:dyDescent="0.6">
+      <c r="A10" s="102"/>
+      <c r="B10" s="47" t="s">
+        <v>193</v>
+      </c>
+      <c r="C10" s="46" t="s">
+        <v>212</v>
+      </c>
+      <c r="D10" s="48" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="14.7" x14ac:dyDescent="0.6">
-      <c r="A4" s="100"/>
-      <c r="B4" s="47" t="s">
-        <v>188</v>
-      </c>
-      <c r="C4" s="46" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="27.9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="100"/>
-      <c r="B5" s="45" t="s">
-        <v>189</v>
-      </c>
-      <c r="C5" s="46" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="14.7" x14ac:dyDescent="0.6">
-      <c r="A6" s="100"/>
-      <c r="B6" s="45" t="s">
-        <v>190</v>
-      </c>
-      <c r="C6" s="46" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="27.9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="100" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="45" t="s">
-        <v>192</v>
-      </c>
-      <c r="C7" s="46" t="s">
-        <v>209</v>
-      </c>
-      <c r="D7" s="48" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="14.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="100"/>
-      <c r="B8" s="45" t="s">
-        <v>191</v>
-      </c>
-      <c r="C8" s="46" t="s">
+    <row r="11" spans="1:4" ht="41.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="102"/>
+      <c r="B11" s="45" t="s">
+        <v>194</v>
+      </c>
+      <c r="C11" s="46" t="s">
+        <v>213</v>
+      </c>
+      <c r="D11" s="48" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="27.9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="102" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="45" t="s">
+        <v>195</v>
+      </c>
+      <c r="C12" s="46" t="s">
+        <v>215</v>
+      </c>
+      <c r="D12" s="48" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="28.2" x14ac:dyDescent="0.6">
-      <c r="A9" s="100"/>
-      <c r="B9" s="45" t="s">
-        <v>193</v>
-      </c>
-      <c r="C9" s="46" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.3" x14ac:dyDescent="0.6">
-      <c r="A10" s="100"/>
-      <c r="B10" s="47" t="s">
-        <v>194</v>
-      </c>
-      <c r="C10" s="46" t="s">
-        <v>213</v>
-      </c>
-      <c r="D10" s="48" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="41.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="100"/>
-      <c r="B11" s="45" t="s">
-        <v>195</v>
-      </c>
-      <c r="C11" s="46" t="s">
-        <v>214</v>
-      </c>
-      <c r="D11" s="48" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="27.9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="100" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="45" t="s">
+    <row r="13" spans="1:4" ht="27.9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="102"/>
+      <c r="B13" s="45" t="s">
         <v>196</v>
       </c>
-      <c r="C12" s="46" t="s">
+      <c r="C13" s="46" t="s">
+        <v>217</v>
+      </c>
+      <c r="D13" s="48" t="s">
         <v>216</v>
       </c>
-      <c r="D12" s="48" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="27.9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="100"/>
-      <c r="B13" s="45" t="s">
+    </row>
+    <row r="14" spans="1:4" ht="42" x14ac:dyDescent="0.6">
+      <c r="A14" s="102"/>
+      <c r="B14" s="47" t="s">
         <v>197</v>
       </c>
-      <c r="C13" s="46" t="s">
+      <c r="C14" s="46" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="102"/>
+      <c r="B15" s="47" t="s">
+        <v>198</v>
+      </c>
+      <c r="C15" s="46" t="s">
         <v>218</v>
       </c>
-      <c r="D13" s="48" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="42" x14ac:dyDescent="0.6">
-      <c r="A14" s="100"/>
-      <c r="B14" s="47" t="s">
-        <v>198</v>
-      </c>
-      <c r="C14" s="46" t="s">
+    </row>
+    <row r="16" spans="1:4" ht="28.2" x14ac:dyDescent="0.6">
+      <c r="A16" s="102"/>
+      <c r="B16" s="47" t="s">
+        <v>199</v>
+      </c>
+      <c r="C16" s="46" t="s">
         <v>220</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="14.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="100"/>
-      <c r="B15" s="47" t="s">
-        <v>199</v>
-      </c>
-      <c r="C15" s="46" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="28.2" x14ac:dyDescent="0.6">
-      <c r="A16" s="100"/>
-      <c r="B16" s="47" t="s">
-        <v>200</v>
-      </c>
-      <c r="C16" s="46" t="s">
-        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -8439,7 +9249,7 @@
   <dimension ref="A2:L61"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+      <selection activeCell="D56" sqref="D56:D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -8449,12 +9259,12 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B2" s="50" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B3" s="49" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.5">
@@ -8711,17 +9521,17 @@
         <v>500</v>
       </c>
       <c r="J11" s="49" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B14" s="50" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B15" s="49" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.5">
@@ -8978,24 +9788,24 @@
         <v>500</v>
       </c>
       <c r="J23" s="49" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B26" s="110" t="s">
-        <v>228</v>
-      </c>
-      <c r="C26" s="111"/>
-      <c r="D26" s="111"/>
-      <c r="E26" s="111"/>
-      <c r="F26" s="111"/>
-      <c r="G26" s="111"/>
-      <c r="H26" s="111"/>
-      <c r="I26" s="112"/>
+      <c r="B26" s="112" t="s">
+        <v>227</v>
+      </c>
+      <c r="C26" s="113"/>
+      <c r="D26" s="113"/>
+      <c r="E26" s="113"/>
+      <c r="F26" s="113"/>
+      <c r="G26" s="113"/>
+      <c r="H26" s="113"/>
+      <c r="I26" s="114"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B27" s="49" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.5">
@@ -9252,7 +10062,7 @@
         <v>500</v>
       </c>
       <c r="J35" s="49" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.5">
@@ -9284,36 +10094,36 @@
     <row r="41" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A41" s="58"/>
       <c r="B41" s="58"/>
-      <c r="C41" s="104" t="s">
-        <v>233</v>
-      </c>
-      <c r="D41" s="104"/>
-      <c r="E41" s="104"/>
-      <c r="F41" s="104"/>
-      <c r="G41" s="104"/>
-      <c r="H41" s="104"/>
-      <c r="I41" s="104"/>
+      <c r="C41" s="106" t="s">
+        <v>232</v>
+      </c>
+      <c r="D41" s="106"/>
+      <c r="E41" s="106"/>
+      <c r="F41" s="106"/>
+      <c r="G41" s="106"/>
+      <c r="H41" s="106"/>
+      <c r="I41" s="106"/>
       <c r="J41" s="58"/>
       <c r="K41" s="58"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A42" s="58"/>
-      <c r="B42" s="113" t="s">
-        <v>234</v>
-      </c>
-      <c r="C42" s="107">
+      <c r="B42" s="115" t="s">
+        <v>233</v>
+      </c>
+      <c r="C42" s="109">
         <v>184</v>
       </c>
-      <c r="D42" s="107">
+      <c r="D42" s="109">
         <v>368</v>
       </c>
-      <c r="E42" s="107">
+      <c r="E42" s="109">
         <v>552</v>
       </c>
-      <c r="F42" s="107">
+      <c r="F42" s="109">
         <v>736</v>
       </c>
-      <c r="G42" s="107">
+      <c r="G42" s="109">
         <v>920</v>
       </c>
       <c r="H42" s="60">
@@ -9327,12 +10137,12 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A43" s="58"/>
-      <c r="B43" s="109"/>
-      <c r="C43" s="107"/>
-      <c r="D43" s="107"/>
-      <c r="E43" s="107"/>
-      <c r="F43" s="107"/>
-      <c r="G43" s="107"/>
+      <c r="B43" s="111"/>
+      <c r="C43" s="109"/>
+      <c r="D43" s="109"/>
+      <c r="E43" s="109"/>
+      <c r="F43" s="109"/>
+      <c r="G43" s="109"/>
       <c r="H43" s="61">
         <v>-233</v>
       </c>
@@ -9344,19 +10154,19 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A44" s="58"/>
-      <c r="B44" s="109">
+      <c r="B44" s="111">
         <v>15</v>
       </c>
-      <c r="C44" s="107">
+      <c r="C44" s="109">
         <v>184</v>
       </c>
-      <c r="D44" s="107">
+      <c r="D44" s="109">
         <v>368</v>
       </c>
-      <c r="E44" s="107">
+      <c r="E44" s="109">
         <v>552</v>
       </c>
-      <c r="F44" s="107">
+      <c r="F44" s="109">
         <v>736</v>
       </c>
       <c r="G44" s="60">
@@ -9365,7 +10175,7 @@
       <c r="H44" s="60">
         <v>1288</v>
       </c>
-      <c r="I44" s="106">
+      <c r="I44" s="108">
         <v>340</v>
       </c>
       <c r="J44" s="58"/>
@@ -9373,33 +10183,33 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A45" s="58"/>
-      <c r="B45" s="109"/>
-      <c r="C45" s="107"/>
-      <c r="D45" s="107"/>
-      <c r="E45" s="107"/>
-      <c r="F45" s="107"/>
+      <c r="B45" s="111"/>
+      <c r="C45" s="109"/>
+      <c r="D45" s="109"/>
+      <c r="E45" s="109"/>
+      <c r="F45" s="109"/>
       <c r="G45" s="61">
         <v>-95</v>
       </c>
       <c r="H45" s="61">
         <v>-733</v>
       </c>
-      <c r="I45" s="106"/>
+      <c r="I45" s="108"/>
       <c r="J45" s="58"/>
       <c r="K45" s="58"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A46" s="58"/>
-      <c r="B46" s="109">
+      <c r="B46" s="111">
         <v>10</v>
       </c>
-      <c r="C46" s="107">
+      <c r="C46" s="109">
         <v>184</v>
       </c>
-      <c r="D46" s="107">
+      <c r="D46" s="109">
         <v>368</v>
       </c>
-      <c r="E46" s="107">
+      <c r="E46" s="109">
         <v>552</v>
       </c>
       <c r="F46" s="60">
@@ -9408,10 +10218,10 @@
       <c r="G46" s="60">
         <v>920</v>
       </c>
-      <c r="H46" s="106">
+      <c r="H46" s="108">
         <v>288</v>
       </c>
-      <c r="I46" s="106">
+      <c r="I46" s="108">
         <v>840</v>
       </c>
       <c r="J46" s="58"/>
@@ -9419,30 +10229,30 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A47" s="58"/>
-      <c r="B47" s="109"/>
-      <c r="C47" s="107"/>
-      <c r="D47" s="107"/>
-      <c r="E47" s="107"/>
+      <c r="B47" s="111"/>
+      <c r="C47" s="109"/>
+      <c r="D47" s="109"/>
+      <c r="E47" s="109"/>
       <c r="F47" s="61">
         <v>-276</v>
       </c>
       <c r="G47" s="61">
         <v>-595</v>
       </c>
-      <c r="H47" s="106"/>
-      <c r="I47" s="106"/>
+      <c r="H47" s="108"/>
+      <c r="I47" s="108"/>
       <c r="J47" s="58"/>
       <c r="K47" s="58"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A48" s="58"/>
-      <c r="B48" s="109">
+      <c r="B48" s="111">
         <v>7.5</v>
       </c>
-      <c r="C48" s="107">
+      <c r="C48" s="109">
         <v>184</v>
       </c>
-      <c r="D48" s="107">
+      <c r="D48" s="109">
         <v>368</v>
       </c>
       <c r="E48" s="60">
@@ -9451,13 +10261,13 @@
       <c r="F48" s="60">
         <v>736</v>
       </c>
-      <c r="G48" s="106">
+      <c r="G48" s="108">
         <v>170</v>
       </c>
-      <c r="H48" s="106">
+      <c r="H48" s="108">
         <v>538</v>
       </c>
-      <c r="I48" s="106">
+      <c r="I48" s="108">
         <v>1090</v>
       </c>
       <c r="J48" s="58"/>
@@ -9465,45 +10275,45 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A49" s="58"/>
-      <c r="B49" s="109"/>
-      <c r="C49" s="107"/>
-      <c r="D49" s="107"/>
+      <c r="B49" s="111"/>
+      <c r="C49" s="109"/>
+      <c r="D49" s="109"/>
       <c r="E49" s="61">
         <v>-207</v>
       </c>
       <c r="F49" s="61">
         <v>-526</v>
       </c>
-      <c r="G49" s="106"/>
-      <c r="H49" s="106"/>
-      <c r="I49" s="106"/>
+      <c r="G49" s="108"/>
+      <c r="H49" s="108"/>
+      <c r="I49" s="108"/>
       <c r="J49" s="58"/>
       <c r="K49" s="58"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A50" s="58"/>
-      <c r="B50" s="109">
+      <c r="B50" s="111">
         <v>5</v>
       </c>
-      <c r="C50" s="107">
+      <c r="C50" s="109">
         <v>184</v>
       </c>
       <c r="D50" s="60">
         <v>368</v>
       </c>
-      <c r="E50" s="106">
+      <c r="E50" s="108">
         <v>52</v>
       </c>
-      <c r="F50" s="106">
+      <c r="F50" s="108">
         <v>236</v>
       </c>
-      <c r="G50" s="106">
+      <c r="G50" s="108">
         <v>420</v>
       </c>
-      <c r="H50" s="106">
+      <c r="H50" s="108">
         <v>788</v>
       </c>
-      <c r="I50" s="106">
+      <c r="I50" s="108">
         <v>1340</v>
       </c>
       <c r="J50" s="58"/>
@@ -9511,43 +10321,43 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A51" s="58"/>
-      <c r="B51" s="109"/>
-      <c r="C51" s="107"/>
+      <c r="B51" s="111"/>
+      <c r="C51" s="109"/>
       <c r="D51" s="61">
         <v>-138</v>
       </c>
-      <c r="E51" s="106"/>
-      <c r="F51" s="106"/>
-      <c r="G51" s="106"/>
-      <c r="H51" s="106"/>
-      <c r="I51" s="106"/>
+      <c r="E51" s="108"/>
+      <c r="F51" s="108"/>
+      <c r="G51" s="108"/>
+      <c r="H51" s="108"/>
+      <c r="I51" s="108"/>
       <c r="J51" s="58"/>
       <c r="K51" s="58"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A52" s="58"/>
-      <c r="B52" s="109">
+      <c r="B52" s="111">
         <v>2</v>
       </c>
       <c r="C52" s="60">
         <v>184</v>
       </c>
-      <c r="D52" s="106">
+      <c r="D52" s="108">
         <v>168</v>
       </c>
-      <c r="E52" s="106">
+      <c r="E52" s="108">
         <v>352</v>
       </c>
-      <c r="F52" s="106">
+      <c r="F52" s="108">
         <v>536</v>
       </c>
-      <c r="G52" s="106">
+      <c r="G52" s="108">
         <v>720</v>
       </c>
-      <c r="H52" s="106">
+      <c r="H52" s="108">
         <v>1088</v>
       </c>
-      <c r="I52" s="106">
+      <c r="I52" s="108">
         <v>1640</v>
       </c>
       <c r="J52" s="58"/>
@@ -9555,43 +10365,43 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A53" s="58"/>
-      <c r="B53" s="109"/>
+      <c r="B53" s="111"/>
       <c r="C53" s="61">
         <v>-119</v>
       </c>
-      <c r="D53" s="106"/>
-      <c r="E53" s="106"/>
-      <c r="F53" s="106"/>
-      <c r="G53" s="106"/>
-      <c r="H53" s="106"/>
-      <c r="I53" s="106"/>
+      <c r="D53" s="108"/>
+      <c r="E53" s="108"/>
+      <c r="F53" s="108"/>
+      <c r="G53" s="108"/>
+      <c r="H53" s="108"/>
+      <c r="I53" s="108"/>
       <c r="J53" s="58"/>
       <c r="K53" s="58"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A54" s="58"/>
-      <c r="B54" s="109">
+      <c r="B54" s="111">
         <v>1</v>
       </c>
       <c r="C54" s="60">
         <v>84</v>
       </c>
-      <c r="D54" s="106">
+      <c r="D54" s="108">
         <v>268</v>
       </c>
-      <c r="E54" s="106">
+      <c r="E54" s="108">
         <v>452</v>
       </c>
-      <c r="F54" s="106">
+      <c r="F54" s="108">
         <v>636</v>
       </c>
-      <c r="G54" s="106">
+      <c r="G54" s="108">
         <v>820</v>
       </c>
-      <c r="H54" s="106">
+      <c r="H54" s="108">
         <v>1188</v>
       </c>
-      <c r="I54" s="106">
+      <c r="I54" s="108">
         <v>1740</v>
       </c>
       <c r="J54" s="58"/>
@@ -9599,42 +10409,42 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A55" s="58"/>
-      <c r="B55" s="109"/>
+      <c r="B55" s="111"/>
       <c r="C55" s="61">
         <v>-219</v>
       </c>
-      <c r="D55" s="106"/>
-      <c r="E55" s="106"/>
-      <c r="F55" s="106"/>
-      <c r="G55" s="106"/>
-      <c r="H55" s="106"/>
-      <c r="I55" s="106"/>
+      <c r="D55" s="108"/>
+      <c r="E55" s="108"/>
+      <c r="F55" s="108"/>
+      <c r="G55" s="108"/>
+      <c r="H55" s="108"/>
+      <c r="I55" s="108"/>
       <c r="J55" s="58"/>
       <c r="K55" s="58"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A56" s="58"/>
       <c r="B56" s="59"/>
-      <c r="C56" s="108">
+      <c r="C56" s="110">
         <v>50</v>
       </c>
-      <c r="D56" s="108">
+      <c r="D56" s="110">
         <v>100</v>
       </c>
-      <c r="E56" s="108">
+      <c r="E56" s="110">
         <v>150</v>
       </c>
-      <c r="F56" s="108">
+      <c r="F56" s="110">
         <v>200</v>
       </c>
-      <c r="G56" s="108">
+      <c r="G56" s="110">
         <v>250</v>
       </c>
-      <c r="H56" s="108">
+      <c r="H56" s="110">
         <v>350</v>
       </c>
-      <c r="I56" s="108" t="s">
-        <v>235</v>
+      <c r="I56" s="110" t="s">
+        <v>234</v>
       </c>
       <c r="J56" s="58"/>
       <c r="K56" s="58"/>
@@ -9642,32 +10452,32 @@
     <row r="57" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A57" s="58"/>
       <c r="B57" s="59"/>
-      <c r="C57" s="108"/>
-      <c r="D57" s="108"/>
-      <c r="E57" s="108"/>
-      <c r="F57" s="108"/>
-      <c r="G57" s="108"/>
-      <c r="H57" s="108"/>
-      <c r="I57" s="108"/>
+      <c r="C57" s="110"/>
+      <c r="D57" s="110"/>
+      <c r="E57" s="110"/>
+      <c r="F57" s="110"/>
+      <c r="G57" s="110"/>
+      <c r="H57" s="110"/>
+      <c r="I57" s="110"/>
       <c r="J57" s="58"/>
       <c r="K57" s="58"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A58" s="58"/>
       <c r="B58" s="58"/>
-      <c r="C58" s="105" t="s">
-        <v>229</v>
-      </c>
-      <c r="D58" s="102" t="s">
+      <c r="C58" s="107" t="s">
+        <v>228</v>
+      </c>
+      <c r="D58" s="104" t="s">
+        <v>230</v>
+      </c>
+      <c r="E58" s="104"/>
+      <c r="F58" s="104"/>
+      <c r="G58" s="103" t="s">
         <v>231</v>
       </c>
-      <c r="E58" s="102"/>
-      <c r="F58" s="102"/>
-      <c r="G58" s="101" t="s">
-        <v>232</v>
-      </c>
-      <c r="H58" s="101"/>
-      <c r="I58" s="101"/>
+      <c r="H58" s="103"/>
+      <c r="I58" s="103"/>
       <c r="J58" s="58"/>
       <c r="K58" s="58"/>
       <c r="L58" s="57"/>
@@ -9675,15 +10485,15 @@
     <row r="59" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A59" s="58"/>
       <c r="B59" s="58"/>
-      <c r="C59" s="105"/>
-      <c r="D59" s="103" t="s">
-        <v>230</v>
-      </c>
-      <c r="E59" s="103"/>
-      <c r="F59" s="103"/>
-      <c r="G59" s="101"/>
-      <c r="H59" s="101"/>
-      <c r="I59" s="101"/>
+      <c r="C59" s="107"/>
+      <c r="D59" s="105" t="s">
+        <v>229</v>
+      </c>
+      <c r="E59" s="105"/>
+      <c r="F59" s="105"/>
+      <c r="G59" s="103"/>
+      <c r="H59" s="103"/>
+      <c r="I59" s="103"/>
       <c r="J59" s="58"/>
       <c r="K59" s="58"/>
       <c r="L59" s="57"/>

--- a/dataAnalysis.xlsx
+++ b/dataAnalysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\botImpact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3733A9C-0175-43B2-8E05-C21D9B7B1105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA4AB769-9D8B-4876-863A-A7061EDDB0FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="18192" windowHeight="11592" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="269">
   <si>
     <t>Node Degree</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3670,6 +3670,194 @@
   </si>
   <si>
     <t>Attitude Var</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为何不直接比</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Followers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>？因为数据收集只是“讨论这个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>topic”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用户的网络（很多用户可能虽然是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>followers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，但只看，没有讨论）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>所以更合理的方式是在讨论这个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>topic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的子网络中，计算单位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Followers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的转发率或</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Mention</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>率</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Related Tweet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>平均每条</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>post</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>有多少这个</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@ Rate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t># Rate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text Analysis: Bot text</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3677,11 +3865,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.0000_ "/>
     <numFmt numFmtId="177" formatCode="0.0000_);[Red]\(0.0000\)"/>
     <numFmt numFmtId="178" formatCode="0.000_ ;[Red]\-0.000\ "/>
     <numFmt numFmtId="179" formatCode="0.00_ ;[Red]\-0.00\ "/>
+    <numFmt numFmtId="181" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="31" x14ac:knownFonts="1">
     <font>
@@ -4072,7 +4261,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4235,6 +4424,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4310,12 +4505,6 @@
     <xf numFmtId="177" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4326,6 +4515,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="4" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4347,6 +4542,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="2" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4390,6 +4588,9 @@
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4685,8 +4886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -4700,38 +4901,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="76"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="78"/>
       <c r="D1" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="66" t="s">
+      <c r="E1" s="68" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="68"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="70"/>
       <c r="J1" s="19" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="79" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="79"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="81"/>
       <c r="D2" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="69" t="s">
+      <c r="E2" s="71" t="s">
         <v>77</v>
       </c>
-      <c r="F2" s="70"/>
+      <c r="F2" s="72"/>
       <c r="G2" s="3" t="s">
         <v>30</v>
       </c>
@@ -4755,7 +4956,7 @@
       <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="71" t="s">
+      <c r="E3" s="73" t="s">
         <v>21</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -4764,10 +4965,10 @@
       <c r="G3" s="18">
         <v>0.60419999999999996</v>
       </c>
-      <c r="H3" s="64">
+      <c r="H3" s="66">
         <v>1.4500999999999999</v>
       </c>
-      <c r="I3" s="64">
+      <c r="I3" s="66">
         <v>0.14699999999999999</v>
       </c>
       <c r="J3" s="19" t="s">
@@ -4787,15 +4988,15 @@
       <c r="D4" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="72"/>
+      <c r="E4" s="74"/>
       <c r="F4" s="2" t="s">
         <v>79</v>
       </c>
       <c r="G4" s="2">
         <v>0.59640000000000004</v>
       </c>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
       <c r="J4" s="19" t="s">
         <v>91</v>
       </c>
@@ -4813,7 +5014,7 @@
       <c r="D5" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="71" t="s">
+      <c r="E5" s="73" t="s">
         <v>22</v>
       </c>
       <c r="F5" s="2" t="s">
@@ -4822,31 +5023,31 @@
       <c r="G5" s="18">
         <v>0.58009999999999995</v>
       </c>
-      <c r="H5" s="64">
+      <c r="H5" s="66">
         <v>-0.46650000000000003</v>
       </c>
-      <c r="I5" s="64">
+      <c r="I5" s="66">
         <v>0.64090000000000003</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A6" s="77" t="s">
+      <c r="A6" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="78"/>
-      <c r="C6" s="79"/>
-      <c r="E6" s="72"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="81"/>
+      <c r="E6" s="74"/>
       <c r="F6" s="2" t="s">
         <v>79</v>
       </c>
       <c r="G6" s="2">
         <v>0.58389999999999997</v>
       </c>
-      <c r="H6" s="65"/>
-      <c r="I6" s="65"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="67"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A7" s="73" t="s">
+      <c r="A7" s="75" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -4855,7 +5056,7 @@
       <c r="C7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="71" t="s">
+      <c r="E7" s="73" t="s">
         <v>23</v>
       </c>
       <c r="F7" s="2" t="s">
@@ -4864,36 +5065,36 @@
       <c r="G7" s="18">
         <v>0.5393</v>
       </c>
-      <c r="H7" s="64">
+      <c r="H7" s="66">
         <v>-1.7504</v>
       </c>
-      <c r="I7" s="64">
+      <c r="I7" s="66">
         <v>8.0100000000000005E-2</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A8" s="72"/>
+      <c r="A8" s="74"/>
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="72"/>
+      <c r="E8" s="74"/>
       <c r="F8" s="2" t="s">
         <v>79</v>
       </c>
       <c r="G8" s="2">
         <v>0.55649999999999999</v>
       </c>
-      <c r="H8" s="65"/>
-      <c r="I8" s="65"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="67"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="E9" s="69" t="s">
+      <c r="E9" s="71" t="s">
         <v>75</v>
       </c>
-      <c r="F9" s="70"/>
+      <c r="F9" s="72"/>
       <c r="G9" s="3" t="s">
         <v>25</v>
       </c>
@@ -4905,12 +5106,12 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A10" s="74" t="s">
+      <c r="A10" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="75"/>
-      <c r="C10" s="76"/>
-      <c r="E10" s="71" t="s">
+      <c r="B10" s="77"/>
+      <c r="C10" s="78"/>
+      <c r="E10" s="73" t="s">
         <v>21</v>
       </c>
       <c r="F10" s="2" t="s">
@@ -4919,10 +5120,10 @@
       <c r="G10" s="17">
         <v>0.82099999999999995</v>
       </c>
-      <c r="H10" s="64">
+      <c r="H10" s="66">
         <v>23.857700000000001</v>
       </c>
-      <c r="I10" s="64" t="s">
+      <c r="I10" s="66" t="s">
         <v>26</v>
       </c>
       <c r="J10" s="19" t="s">
@@ -4930,20 +5131,20 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A11" s="77" t="s">
+      <c r="A11" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="78"/>
-      <c r="C11" s="79"/>
-      <c r="E11" s="72"/>
+      <c r="B11" s="80"/>
+      <c r="C11" s="81"/>
+      <c r="E11" s="74"/>
       <c r="F11" s="2" t="s">
         <v>79</v>
       </c>
       <c r="G11" s="2">
         <v>0.74229999999999996</v>
       </c>
-      <c r="H11" s="65"/>
-      <c r="I11" s="65"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="67"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A12" s="1" t="s">
@@ -4955,7 +5156,7 @@
       <c r="C12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="71" t="s">
+      <c r="E12" s="73" t="s">
         <v>22</v>
       </c>
       <c r="F12" s="2" t="s">
@@ -4964,10 +5165,10 @@
       <c r="G12" s="17">
         <v>0.83950000000000002</v>
       </c>
-      <c r="H12" s="64">
+      <c r="H12" s="66">
         <v>20.513400000000001</v>
       </c>
-      <c r="I12" s="64" t="s">
+      <c r="I12" s="66" t="s">
         <v>27</v>
       </c>
     </row>
@@ -4981,15 +5182,15 @@
       <c r="C13" s="2">
         <v>5.0496999999999996</v>
       </c>
-      <c r="E13" s="72"/>
+      <c r="E13" s="74"/>
       <c r="F13" s="2" t="s">
         <v>79</v>
       </c>
       <c r="G13" s="2">
         <v>0.73529999999999995</v>
       </c>
-      <c r="H13" s="65"/>
-      <c r="I13" s="65"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="67"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A14" s="2" t="s">
@@ -5001,7 +5202,7 @@
       <c r="C14" s="2">
         <v>5.5609000000000002</v>
       </c>
-      <c r="E14" s="71" t="s">
+      <c r="E14" s="73" t="s">
         <v>23</v>
       </c>
       <c r="F14" s="2" t="s">
@@ -5010,31 +5211,31 @@
       <c r="G14" s="17">
         <v>0.78539999999999999</v>
       </c>
-      <c r="H14" s="64">
+      <c r="H14" s="66">
         <v>16.601400000000002</v>
       </c>
-      <c r="I14" s="64" t="s">
+      <c r="I14" s="66" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A15" s="77" t="s">
+      <c r="A15" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="78"/>
-      <c r="C15" s="79"/>
-      <c r="E15" s="72"/>
+      <c r="B15" s="80"/>
+      <c r="C15" s="81"/>
+      <c r="E15" s="74"/>
       <c r="F15" s="2" t="s">
         <v>79</v>
       </c>
       <c r="G15" s="2">
         <v>0.67610000000000003</v>
       </c>
-      <c r="H15" s="65"/>
-      <c r="I15" s="65"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="67"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A16" s="73" t="s">
+      <c r="A16" s="75" t="s">
         <v>7</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -5048,7 +5249,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A17" s="72"/>
+      <c r="A17" s="74"/>
       <c r="B17" s="2" t="s">
         <v>13</v>
       </c>
@@ -5060,27 +5261,27 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="E18" s="66" t="s">
+      <c r="E18" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="67"/>
-      <c r="G18" s="67"/>
-      <c r="H18" s="67"/>
-      <c r="I18" s="68"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="69"/>
+      <c r="H18" s="69"/>
+      <c r="I18" s="70"/>
       <c r="J18" s="16" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A19" s="74" t="s">
+      <c r="A19" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="75"/>
-      <c r="C19" s="76"/>
-      <c r="E19" s="69" t="s">
+      <c r="B19" s="77"/>
+      <c r="C19" s="78"/>
+      <c r="E19" s="71" t="s">
         <v>74</v>
       </c>
-      <c r="F19" s="70"/>
+      <c r="F19" s="72"/>
       <c r="G19" s="3" t="s">
         <v>30</v>
       </c>
@@ -5092,12 +5293,12 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A20" s="77" t="s">
+      <c r="A20" s="79" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="78"/>
-      <c r="C20" s="79"/>
-      <c r="E20" s="71" t="s">
+      <c r="B20" s="80"/>
+      <c r="C20" s="81"/>
+      <c r="E20" s="73" t="s">
         <v>21</v>
       </c>
       <c r="F20" s="2" t="s">
@@ -5106,10 +5307,10 @@
       <c r="G20" s="18">
         <v>0.60419999999999996</v>
       </c>
-      <c r="H20" s="64">
+      <c r="H20" s="66">
         <v>6.7031000000000001</v>
       </c>
-      <c r="I20" s="64" t="s">
+      <c r="I20" s="66" t="s">
         <v>24</v>
       </c>
       <c r="J20" s="19" t="s">
@@ -5126,15 +5327,15 @@
       <c r="C21" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="72"/>
+      <c r="E21" s="74"/>
       <c r="F21" s="2" t="s">
         <v>71</v>
       </c>
       <c r="G21" s="2">
         <v>0.56520000000000004</v>
       </c>
-      <c r="H21" s="65"/>
-      <c r="I21" s="65"/>
+      <c r="H21" s="67"/>
+      <c r="I21" s="67"/>
       <c r="J21" s="16" t="s">
         <v>85</v>
       </c>
@@ -5149,7 +5350,7 @@
       <c r="C22" s="2">
         <v>6.4598000000000004</v>
       </c>
-      <c r="E22" s="71" t="s">
+      <c r="E22" s="73" t="s">
         <v>22</v>
       </c>
       <c r="F22" s="2" t="s">
@@ -5158,10 +5359,10 @@
       <c r="G22" s="18">
         <v>0.58009999999999995</v>
       </c>
-      <c r="H22" s="64">
+      <c r="H22" s="66">
         <v>2.8894000000000002</v>
       </c>
-      <c r="I22" s="64">
+      <c r="I22" s="66">
         <v>3.8999999999999998E-3</v>
       </c>
     </row>
@@ -5175,23 +5376,23 @@
       <c r="C23" s="2">
         <v>5.1597</v>
       </c>
-      <c r="E23" s="72"/>
+      <c r="E23" s="74"/>
       <c r="F23" s="2" t="s">
         <v>71</v>
       </c>
       <c r="G23" s="2">
         <v>0.5534</v>
       </c>
-      <c r="H23" s="65"/>
-      <c r="I23" s="65"/>
+      <c r="H23" s="67"/>
+      <c r="I23" s="67"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A24" s="77" t="s">
+      <c r="A24" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="78"/>
-      <c r="C24" s="79"/>
-      <c r="E24" s="71" t="s">
+      <c r="B24" s="80"/>
+      <c r="C24" s="81"/>
+      <c r="E24" s="73" t="s">
         <v>23</v>
       </c>
       <c r="F24" s="2" t="s">
@@ -5200,10 +5401,10 @@
       <c r="G24" s="18">
         <v>0.5393</v>
       </c>
-      <c r="H24" s="64">
+      <c r="H24" s="66">
         <v>1.6584000000000001</v>
       </c>
-      <c r="I24" s="64">
+      <c r="I24" s="66">
         <v>9.7299999999999998E-2</v>
       </c>
       <c r="J24" s="19" t="s">
@@ -5211,7 +5412,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A25" s="73" t="s">
+      <c r="A25" s="75" t="s">
         <v>7</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -5220,28 +5421,28 @@
       <c r="C25" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E25" s="72"/>
+      <c r="E25" s="74"/>
       <c r="F25" s="2" t="s">
         <v>71</v>
       </c>
       <c r="G25" s="2">
         <v>0.52139999999999997</v>
       </c>
-      <c r="H25" s="65"/>
-      <c r="I25" s="65"/>
+      <c r="H25" s="67"/>
+      <c r="I25" s="67"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A26" s="72"/>
+      <c r="A26" s="74"/>
       <c r="B26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E26" s="69" t="s">
+      <c r="E26" s="71" t="s">
         <v>73</v>
       </c>
-      <c r="F26" s="70"/>
+      <c r="F26" s="72"/>
       <c r="G26" s="3" t="s">
         <v>25</v>
       </c>
@@ -5253,7 +5454,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="E27" s="71" t="s">
+      <c r="E27" s="73" t="s">
         <v>21</v>
       </c>
       <c r="F27" s="2" t="s">
@@ -5262,10 +5463,10 @@
       <c r="G27" s="17">
         <v>0.82099999999999995</v>
       </c>
-      <c r="H27" s="64">
+      <c r="H27" s="66">
         <v>33.133299999999998</v>
       </c>
-      <c r="I27" s="64" t="s">
+      <c r="I27" s="66" t="s">
         <v>81</v>
       </c>
       <c r="J27" s="19" t="s">
@@ -5273,21 +5474,21 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="E28" s="72"/>
+      <c r="E28" s="74"/>
       <c r="F28" s="2" t="s">
         <v>71</v>
       </c>
       <c r="G28" s="2">
         <v>0.70599999999999996</v>
       </c>
-      <c r="H28" s="65"/>
-      <c r="I28" s="65"/>
+      <c r="H28" s="67"/>
+      <c r="I28" s="67"/>
       <c r="J28" s="19" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="E29" s="71" t="s">
+      <c r="E29" s="73" t="s">
         <v>22</v>
       </c>
       <c r="F29" s="2" t="s">
@@ -5296,26 +5497,26 @@
       <c r="G29" s="17">
         <v>0.83950000000000002</v>
       </c>
-      <c r="H29" s="64">
+      <c r="H29" s="66">
         <v>24.9849</v>
       </c>
-      <c r="I29" s="64" t="s">
+      <c r="I29" s="66" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="E30" s="72"/>
+      <c r="E30" s="74"/>
       <c r="F30" s="2" t="s">
         <v>71</v>
       </c>
       <c r="G30" s="2">
         <v>0.70609999999999995</v>
       </c>
-      <c r="H30" s="65"/>
-      <c r="I30" s="65"/>
+      <c r="H30" s="67"/>
+      <c r="I30" s="67"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="E31" s="71" t="s">
+      <c r="E31" s="73" t="s">
         <v>23</v>
       </c>
       <c r="F31" s="2" t="s">
@@ -5324,23 +5525,23 @@
       <c r="G31" s="17">
         <v>0.78539999999999999</v>
       </c>
-      <c r="H31" s="64">
+      <c r="H31" s="66">
         <v>21.385400000000001</v>
       </c>
-      <c r="I31" s="64" t="s">
+      <c r="I31" s="66" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="E32" s="72"/>
+      <c r="E32" s="74"/>
       <c r="F32" s="2" t="s">
         <v>71</v>
       </c>
       <c r="G32" s="2">
         <v>0.63849999999999996</v>
       </c>
-      <c r="H32" s="65"/>
-      <c r="I32" s="65"/>
+      <c r="H32" s="67"/>
+      <c r="I32" s="67"/>
     </row>
     <row r="33" spans="5:5" x14ac:dyDescent="0.5">
       <c r="E33" s="16" t="s">
@@ -5414,7 +5615,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B78CFA9F-73ED-424A-9027-1A5D5AB10FF2}">
   <dimension ref="A1:P99"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="B88" sqref="B88:K88"/>
     </sheetView>
   </sheetViews>
@@ -5428,26 +5629,26 @@
       <c r="A1" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="81" t="s">
+      <c r="B1" s="83" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81" t="s">
+      <c r="C1" s="83"/>
+      <c r="D1" s="83" t="s">
         <v>94</v>
       </c>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81" t="s">
+      <c r="E1" s="83"/>
+      <c r="F1" s="83" t="s">
         <v>95</v>
       </c>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81" t="s">
+      <c r="G1" s="83"/>
+      <c r="H1" s="83" t="s">
         <v>96</v>
       </c>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81" t="s">
+      <c r="I1" s="83"/>
+      <c r="J1" s="83" t="s">
         <v>97</v>
       </c>
-      <c r="K1" s="81"/>
+      <c r="K1" s="83"/>
       <c r="L1" s="20" t="s">
         <v>108</v>
       </c>
@@ -6038,15 +6239,15 @@
       <c r="A21" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="B21" s="82" t="s">
+      <c r="B21" s="84" t="s">
         <v>93</v>
       </c>
-      <c r="C21" s="82"/>
-      <c r="D21" s="82"/>
-      <c r="E21" s="82"/>
-      <c r="F21" s="82"/>
-      <c r="G21" s="82"/>
-      <c r="H21" s="82"/>
+      <c r="C21" s="84"/>
+      <c r="D21" s="84"/>
+      <c r="E21" s="84"/>
+      <c r="F21" s="84"/>
+      <c r="G21" s="84"/>
+      <c r="H21" s="84"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A22" s="20" t="s">
@@ -6224,15 +6425,15 @@
       <c r="A29" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="B29" s="81" t="s">
+      <c r="B29" s="83" t="s">
         <v>95</v>
       </c>
-      <c r="C29" s="81"/>
-      <c r="D29" s="81"/>
-      <c r="E29" s="81"/>
-      <c r="F29" s="81"/>
-      <c r="G29" s="81"/>
-      <c r="H29" s="81"/>
+      <c r="C29" s="83"/>
+      <c r="D29" s="83"/>
+      <c r="E29" s="83"/>
+      <c r="F29" s="83"/>
+      <c r="G29" s="83"/>
+      <c r="H29" s="83"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A30" s="20" t="s">
@@ -6407,14 +6608,14 @@
       <c r="A38" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="B38" s="82" t="s">
+      <c r="B38" s="84" t="s">
         <v>93</v>
       </c>
-      <c r="C38" s="82"/>
-      <c r="D38" s="82"/>
-      <c r="E38" s="82"/>
-      <c r="F38" s="82"/>
-      <c r="G38" s="82"/>
+      <c r="C38" s="84"/>
+      <c r="D38" s="84"/>
+      <c r="E38" s="84"/>
+      <c r="F38" s="84"/>
+      <c r="G38" s="84"/>
       <c r="H38" s="30"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.5">
@@ -6567,14 +6768,14 @@
       <c r="A46" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="B46" s="82" t="s">
+      <c r="B46" s="84" t="s">
         <v>95</v>
       </c>
-      <c r="C46" s="82"/>
-      <c r="D46" s="82"/>
-      <c r="E46" s="82"/>
-      <c r="F46" s="82"/>
-      <c r="G46" s="82"/>
+      <c r="C46" s="84"/>
+      <c r="D46" s="84"/>
+      <c r="E46" s="84"/>
+      <c r="F46" s="84"/>
+      <c r="G46" s="84"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A47" s="20" t="s">
@@ -6731,13 +6932,13 @@
       <c r="A55" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="B55" s="82" t="s">
+      <c r="B55" s="84" t="s">
         <v>93</v>
       </c>
-      <c r="C55" s="82"/>
-      <c r="D55" s="82"/>
-      <c r="E55" s="82"/>
-      <c r="F55" s="82"/>
+      <c r="C55" s="84"/>
+      <c r="D55" s="84"/>
+      <c r="E55" s="84"/>
+      <c r="F55" s="84"/>
       <c r="G55" s="31" t="s">
         <v>152</v>
       </c>
@@ -6912,13 +7113,13 @@
       <c r="A65" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="B65" s="82" t="s">
+      <c r="B65" s="84" t="s">
         <v>95</v>
       </c>
-      <c r="C65" s="82"/>
-      <c r="D65" s="82"/>
-      <c r="E65" s="82"/>
-      <c r="F65" s="82"/>
+      <c r="C65" s="84"/>
+      <c r="D65" s="84"/>
+      <c r="E65" s="84"/>
+      <c r="F65" s="84"/>
       <c r="G65" s="30"/>
     </row>
     <row r="66" spans="1:10" ht="14.7" x14ac:dyDescent="0.5">
@@ -7107,14 +7308,14 @@
       <c r="A77" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="B77" s="82" t="s">
+      <c r="B77" s="84" t="s">
         <v>93</v>
       </c>
-      <c r="C77" s="82"/>
-      <c r="D77" s="82"/>
-      <c r="E77" s="82"/>
-      <c r="F77" s="82"/>
-      <c r="G77" s="82"/>
+      <c r="C77" s="84"/>
+      <c r="D77" s="84"/>
+      <c r="E77" s="84"/>
+      <c r="F77" s="84"/>
+      <c r="G77" s="84"/>
       <c r="H77" s="20" t="s">
         <v>123</v>
       </c>
@@ -7201,14 +7402,14 @@
       <c r="A82" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="B82" s="82" t="s">
+      <c r="B82" s="84" t="s">
         <v>95</v>
       </c>
-      <c r="C82" s="82"/>
-      <c r="D82" s="82"/>
-      <c r="E82" s="82"/>
-      <c r="F82" s="82"/>
-      <c r="G82" s="82"/>
+      <c r="C82" s="84"/>
+      <c r="D82" s="84"/>
+      <c r="E82" s="84"/>
+      <c r="F82" s="84"/>
+      <c r="G82" s="84"/>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A83" s="20" t="s">
@@ -7291,18 +7492,18 @@
       <c r="A88" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="B88" s="69" t="s">
+      <c r="B88" s="71" t="s">
         <v>93</v>
       </c>
-      <c r="C88" s="80"/>
-      <c r="D88" s="80"/>
-      <c r="E88" s="80"/>
-      <c r="F88" s="80"/>
-      <c r="G88" s="80"/>
-      <c r="H88" s="80"/>
-      <c r="I88" s="80"/>
-      <c r="J88" s="80"/>
-      <c r="K88" s="70"/>
+      <c r="C88" s="82"/>
+      <c r="D88" s="82"/>
+      <c r="E88" s="82"/>
+      <c r="F88" s="82"/>
+      <c r="G88" s="82"/>
+      <c r="H88" s="82"/>
+      <c r="I88" s="82"/>
+      <c r="J88" s="82"/>
+      <c r="K88" s="72"/>
       <c r="L88" s="30"/>
       <c r="M88" s="30"/>
       <c r="N88" s="30"/>
@@ -7429,18 +7630,18 @@
       <c r="A93" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="B93" s="69" t="s">
+      <c r="B93" s="71" t="s">
         <v>95</v>
       </c>
-      <c r="C93" s="80"/>
-      <c r="D93" s="80"/>
-      <c r="E93" s="80"/>
-      <c r="F93" s="80"/>
-      <c r="G93" s="80"/>
-      <c r="H93" s="80"/>
-      <c r="I93" s="80"/>
-      <c r="J93" s="80"/>
-      <c r="K93" s="70"/>
+      <c r="C93" s="82"/>
+      <c r="D93" s="82"/>
+      <c r="E93" s="82"/>
+      <c r="F93" s="82"/>
+      <c r="G93" s="82"/>
+      <c r="H93" s="82"/>
+      <c r="I93" s="82"/>
+      <c r="J93" s="82"/>
+      <c r="K93" s="72"/>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A94" s="20" t="s">
@@ -7589,10 +7790,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2687A086-E6AD-4DC9-8E6D-5E9AEFD1DED8}">
-  <dimension ref="A1:J96"/>
+  <dimension ref="A1:J111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="E87" sqref="E87"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="C119" sqref="C119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -7606,12 +7807,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="85"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="87"/>
       <c r="E1" s="5" t="s">
         <v>163</v>
       </c>
@@ -7634,7 +7835,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A3" s="71" t="s">
+      <c r="A3" s="73" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -7648,7 +7849,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="72"/>
+      <c r="A4" s="74"/>
       <c r="B4" s="4" t="s">
         <v>52</v>
       </c>
@@ -7660,7 +7861,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A5" s="71" t="s">
+      <c r="A5" s="73" t="s">
         <v>22</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -7674,7 +7875,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="72"/>
+      <c r="A6" s="74"/>
       <c r="B6" s="4" t="s">
         <v>52</v>
       </c>
@@ -7686,7 +7887,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A7" s="71" t="s">
+      <c r="A7" s="73" t="s">
         <v>23</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -7700,7 +7901,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="72"/>
+      <c r="A8" s="74"/>
       <c r="B8" s="4" t="s">
         <v>52</v>
       </c>
@@ -7720,13 +7921,13 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="83" t="s">
+      <c r="A11" s="85" t="s">
         <v>167</v>
       </c>
-      <c r="B11" s="84"/>
-      <c r="C11" s="84"/>
-      <c r="D11" s="84"/>
-      <c r="E11" s="85"/>
+      <c r="B11" s="86"/>
+      <c r="C11" s="86"/>
+      <c r="D11" s="86"/>
+      <c r="E11" s="87"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
@@ -7747,7 +7948,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A13" s="95" t="s">
+      <c r="A13" s="97" t="s">
         <v>51</v>
       </c>
       <c r="B13" s="42" t="s">
@@ -7765,7 +7966,7 @@
       <c r="J13" s="32"/>
     </row>
     <row r="14" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="96"/>
+      <c r="A14" s="98"/>
       <c r="B14" s="42" t="s">
         <v>22</v>
       </c>
@@ -7781,7 +7982,7 @@
       <c r="J14" s="32"/>
     </row>
     <row r="15" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A15" s="97"/>
+      <c r="A15" s="99"/>
       <c r="B15" s="42" t="s">
         <v>23</v>
       </c>
@@ -7796,7 +7997,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="95" t="s">
+      <c r="A16" s="97" t="s">
         <v>52</v>
       </c>
       <c r="B16" s="42" t="s">
@@ -7814,7 +8015,7 @@
       <c r="J16" s="6"/>
     </row>
     <row r="17" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A17" s="96"/>
+      <c r="A17" s="98"/>
       <c r="B17" s="42" t="s">
         <v>22</v>
       </c>
@@ -7829,7 +8030,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="97"/>
+      <c r="A18" s="99"/>
       <c r="B18" s="42" t="s">
         <v>23</v>
       </c>
@@ -7854,13 +8055,13 @@
       <c r="G20" s="32"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A21" s="83" t="s">
+      <c r="A21" s="85" t="s">
         <v>173</v>
       </c>
-      <c r="B21" s="84"/>
-      <c r="C21" s="84"/>
-      <c r="D21" s="84"/>
-      <c r="E21" s="85"/>
+      <c r="B21" s="86"/>
+      <c r="C21" s="86"/>
+      <c r="D21" s="86"/>
+      <c r="E21" s="87"/>
       <c r="G21" s="32"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.5">
@@ -7882,7 +8083,7 @@
       <c r="G22" s="32"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A23" s="95" t="s">
+      <c r="A23" s="97" t="s">
         <v>51</v>
       </c>
       <c r="B23" s="42" t="s">
@@ -7899,7 +8100,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A24" s="96"/>
+      <c r="A24" s="98"/>
       <c r="B24" s="42" t="s">
         <v>22</v>
       </c>
@@ -7914,7 +8115,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A25" s="97"/>
+      <c r="A25" s="99"/>
       <c r="B25" s="42" t="s">
         <v>23</v>
       </c>
@@ -7929,7 +8130,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A26" s="95" t="s">
+      <c r="A26" s="97" t="s">
         <v>52</v>
       </c>
       <c r="B26" s="42" t="s">
@@ -7946,7 +8147,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A27" s="96"/>
+      <c r="A27" s="98"/>
       <c r="B27" s="42" t="s">
         <v>22</v>
       </c>
@@ -7961,7 +8162,7 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A28" s="97"/>
+      <c r="A28" s="99"/>
       <c r="B28" s="42" t="s">
         <v>23</v>
       </c>
@@ -7994,14 +8195,14 @@
       </c>
     </row>
     <row r="32" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="86" t="s">
+      <c r="A32" s="88" t="s">
         <v>49</v>
       </c>
-      <c r="B32" s="87"/>
-      <c r="C32" s="87"/>
-      <c r="D32" s="87"/>
-      <c r="E32" s="87"/>
-      <c r="F32" s="88"/>
+      <c r="B32" s="89"/>
+      <c r="C32" s="89"/>
+      <c r="D32" s="89"/>
+      <c r="E32" s="89"/>
+      <c r="F32" s="90"/>
       <c r="G32" s="14" t="s">
         <v>67</v>
       </c>
@@ -8030,7 +8231,7 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A34" s="71" t="s">
+      <c r="A34" s="73" t="s">
         <v>21</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -8054,7 +8255,7 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A35" s="72"/>
+      <c r="A35" s="74"/>
       <c r="B35" s="2" t="s">
         <v>47</v>
       </c>
@@ -8077,7 +8278,7 @@
       </c>
     </row>
     <row r="36" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A36" s="71" t="s">
+      <c r="A36" s="73" t="s">
         <v>22</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -8101,7 +8302,7 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A37" s="72"/>
+      <c r="A37" s="74"/>
       <c r="B37" s="2" t="s">
         <v>47</v>
       </c>
@@ -8124,7 +8325,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A38" s="71" t="s">
+      <c r="A38" s="73" t="s">
         <v>23</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -8145,7 +8346,7 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A39" s="72"/>
+      <c r="A39" s="74"/>
       <c r="B39" s="2" t="s">
         <v>47</v>
       </c>
@@ -8178,14 +8379,14 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A41" s="74" t="s">
+      <c r="A41" s="76" t="s">
         <v>50</v>
       </c>
-      <c r="B41" s="75"/>
-      <c r="C41" s="75"/>
-      <c r="D41" s="75"/>
-      <c r="E41" s="75"/>
-      <c r="F41" s="76"/>
+      <c r="B41" s="77"/>
+      <c r="C41" s="77"/>
+      <c r="D41" s="77"/>
+      <c r="E41" s="77"/>
+      <c r="F41" s="78"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A42" s="39" t="s">
@@ -8208,7 +8409,7 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A43" s="71" t="s">
+      <c r="A43" s="73" t="s">
         <v>21</v>
       </c>
       <c r="B43" s="2" t="s">
@@ -8231,7 +8432,7 @@
       <c r="H43" s="5"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A44" s="72"/>
+      <c r="A44" s="74"/>
       <c r="B44" s="2" t="s">
         <v>47</v>
       </c>
@@ -8255,7 +8456,7 @@
       <c r="H44" s="5"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A45" s="71" t="s">
+      <c r="A45" s="73" t="s">
         <v>22</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -8276,7 +8477,7 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A46" s="72"/>
+      <c r="A46" s="74"/>
       <c r="B46" s="2" t="s">
         <v>47</v>
       </c>
@@ -8299,7 +8500,7 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A47" s="71" t="s">
+      <c r="A47" s="73" t="s">
         <v>23</v>
       </c>
       <c r="B47" s="2" t="s">
@@ -8320,7 +8521,7 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A48" s="72"/>
+      <c r="A48" s="74"/>
       <c r="B48" s="2" t="s">
         <v>47</v>
       </c>
@@ -8348,20 +8549,20 @@
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A51" s="83" t="s">
+      <c r="A51" s="85" t="s">
         <v>60</v>
       </c>
-      <c r="B51" s="84"/>
-      <c r="C51" s="84"/>
-      <c r="D51" s="84"/>
-      <c r="E51" s="84"/>
-      <c r="F51" s="85"/>
+      <c r="B51" s="86"/>
+      <c r="C51" s="86"/>
+      <c r="D51" s="86"/>
+      <c r="E51" s="86"/>
+      <c r="F51" s="87"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A52" s="98" t="s">
+      <c r="A52" s="100" t="s">
         <v>64</v>
       </c>
-      <c r="B52" s="99"/>
+      <c r="B52" s="101"/>
       <c r="C52" s="10" t="s">
         <v>58</v>
       </c>
@@ -8385,14 +8586,14 @@
       <c r="C53" s="40">
         <v>0.92610000000000003</v>
       </c>
-      <c r="D53" s="89">
+      <c r="D53" s="95">
         <f>C53-C54</f>
         <v>4.8399999999999999E-2</v>
       </c>
       <c r="E53" s="40">
         <v>0.9355</v>
       </c>
-      <c r="F53" s="89">
+      <c r="F53" s="95">
         <f>E53-E54</f>
         <v>3.3599999999999963E-2</v>
       </c>
@@ -8405,11 +8606,11 @@
       <c r="C54" s="40">
         <v>0.87770000000000004</v>
       </c>
-      <c r="D54" s="90"/>
+      <c r="D54" s="96"/>
       <c r="E54" s="40">
         <v>0.90190000000000003</v>
       </c>
-      <c r="F54" s="90"/>
+      <c r="F54" s="96"/>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
     </row>
@@ -8423,14 +8624,14 @@
       <c r="C55" s="41">
         <v>0.83179999999999998</v>
       </c>
-      <c r="D55" s="89">
+      <c r="D55" s="95">
         <f t="shared" ref="D55:F55" si="2">C55-C56</f>
         <v>4.4300000000000006E-2</v>
       </c>
       <c r="E55" s="41">
         <v>0.86299999999999999</v>
       </c>
-      <c r="F55" s="89">
+      <c r="F55" s="95">
         <f t="shared" si="2"/>
         <v>1.6000000000000014E-2</v>
       </c>
@@ -8445,11 +8646,11 @@
       <c r="C56" s="41">
         <v>0.78749999999999998</v>
       </c>
-      <c r="D56" s="90"/>
+      <c r="D56" s="96"/>
       <c r="E56" s="41">
         <v>0.84699999999999998</v>
       </c>
-      <c r="F56" s="90"/>
+      <c r="F56" s="96"/>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
     </row>
@@ -8463,14 +8664,14 @@
       <c r="C57" s="40">
         <v>0.90229999999999999</v>
       </c>
-      <c r="D57" s="89">
+      <c r="D57" s="95">
         <f t="shared" ref="D57:F57" si="3">C57-C58</f>
         <v>2.6000000000000023E-2</v>
       </c>
       <c r="E57" s="40">
         <v>0.91910000000000003</v>
       </c>
-      <c r="F57" s="89">
+      <c r="F57" s="95">
         <f t="shared" si="3"/>
         <v>1.0900000000000021E-2</v>
       </c>
@@ -8485,11 +8686,11 @@
       <c r="C58" s="40">
         <v>0.87629999999999997</v>
       </c>
-      <c r="D58" s="90"/>
+      <c r="D58" s="96"/>
       <c r="E58" s="40">
         <v>0.90820000000000001</v>
       </c>
-      <c r="F58" s="90"/>
+      <c r="F58" s="96"/>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
     </row>
@@ -8502,22 +8703,22 @@
       <c r="H59" s="2"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A60" s="86" t="s">
+      <c r="A60" s="88" t="s">
         <v>61</v>
       </c>
-      <c r="B60" s="87"/>
-      <c r="C60" s="87"/>
-      <c r="D60" s="87"/>
-      <c r="E60" s="87"/>
-      <c r="F60" s="88"/>
+      <c r="B60" s="89"/>
+      <c r="C60" s="89"/>
+      <c r="D60" s="89"/>
+      <c r="E60" s="89"/>
+      <c r="F60" s="90"/>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A61" s="100" t="s">
+      <c r="A61" s="102" t="s">
         <v>64</v>
       </c>
-      <c r="B61" s="101"/>
+      <c r="B61" s="103"/>
       <c r="C61" s="12" t="s">
         <v>58</v>
       </c>
@@ -8543,14 +8744,14 @@
       <c r="C62" s="40">
         <v>0.85699999999999998</v>
       </c>
-      <c r="D62" s="89">
+      <c r="D62" s="95">
         <f>C62-C63</f>
         <v>1.7000000000000015E-2</v>
       </c>
       <c r="E62" s="40">
         <v>0.88139999999999996</v>
       </c>
-      <c r="F62" s="89">
+      <c r="F62" s="95">
         <f>E62-E63</f>
         <v>8.799999999999919E-3</v>
       </c>
@@ -8565,11 +8766,11 @@
       <c r="C63" s="40">
         <v>0.84</v>
       </c>
-      <c r="D63" s="90"/>
+      <c r="D63" s="96"/>
       <c r="E63" s="40">
         <v>0.87260000000000004</v>
       </c>
-      <c r="F63" s="90"/>
+      <c r="F63" s="96"/>
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
     </row>
@@ -8583,14 +8784,14 @@
       <c r="C64" s="41">
         <v>0.92249999999999999</v>
       </c>
-      <c r="D64" s="89">
+      <c r="D64" s="95">
         <f t="shared" ref="D64" si="4">C64-C65</f>
         <v>5.9999999999999942E-2</v>
       </c>
       <c r="E64" s="41">
         <v>0.93559999999999999</v>
       </c>
-      <c r="F64" s="89">
+      <c r="F64" s="95">
         <f t="shared" ref="F64" si="5">E64-E65</f>
         <v>4.1100000000000025E-2</v>
       </c>
@@ -8605,11 +8806,11 @@
       <c r="C65" s="41">
         <v>0.86250000000000004</v>
       </c>
-      <c r="D65" s="90"/>
+      <c r="D65" s="96"/>
       <c r="E65" s="41">
         <v>0.89449999999999996</v>
       </c>
-      <c r="F65" s="90"/>
+      <c r="F65" s="96"/>
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
     </row>
@@ -8623,14 +8824,14 @@
       <c r="C66" s="40">
         <v>0.87090000000000001</v>
       </c>
-      <c r="D66" s="89">
+      <c r="D66" s="95">
         <f t="shared" ref="D66" si="6">C66-C67</f>
         <v>3.4800000000000053E-2</v>
       </c>
       <c r="E66" s="40">
         <v>0.89049999999999996</v>
       </c>
-      <c r="F66" s="89">
+      <c r="F66" s="95">
         <f t="shared" ref="F66" si="7">E66-E67</f>
         <v>2.739999999999998E-2</v>
       </c>
@@ -8645,11 +8846,11 @@
       <c r="C67" s="40">
         <v>0.83609999999999995</v>
       </c>
-      <c r="D67" s="90"/>
+      <c r="D67" s="96"/>
       <c r="E67" s="40">
         <v>0.86309999999999998</v>
       </c>
-      <c r="F67" s="90"/>
+      <c r="F67" s="96"/>
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
     </row>
@@ -8664,13 +8865,13 @@
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A71" s="86" t="s">
+      <c r="A71" s="88" t="s">
         <v>222</v>
       </c>
-      <c r="B71" s="87"/>
-      <c r="C71" s="87"/>
-      <c r="D71" s="87"/>
-      <c r="E71" s="87"/>
+      <c r="B71" s="89"/>
+      <c r="C71" s="89"/>
+      <c r="D71" s="89"/>
+      <c r="E71" s="89"/>
       <c r="F71" s="44" t="s">
         <v>182</v>
       </c>
@@ -8696,7 +8897,7 @@
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A73" s="71" t="s">
+      <c r="A73" s="73" t="s">
         <v>21</v>
       </c>
       <c r="B73" s="4" t="s">
@@ -8713,7 +8914,7 @@
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A74" s="72"/>
+      <c r="A74" s="74"/>
       <c r="B74" s="4" t="s">
         <v>52</v>
       </c>
@@ -8728,7 +8929,7 @@
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A75" s="71" t="s">
+      <c r="A75" s="73" t="s">
         <v>22</v>
       </c>
       <c r="B75" s="4" t="s">
@@ -8745,7 +8946,7 @@
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A76" s="72"/>
+      <c r="A76" s="74"/>
       <c r="B76" s="4" t="s">
         <v>52</v>
       </c>
@@ -8760,7 +8961,7 @@
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A77" s="71" t="s">
+      <c r="A77" s="73" t="s">
         <v>23</v>
       </c>
       <c r="B77" s="4" t="s">
@@ -8777,7 +8978,7 @@
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A78" s="72"/>
+      <c r="A78" s="74"/>
       <c r="B78" s="4" t="s">
         <v>52</v>
       </c>
@@ -8789,6 +8990,16 @@
       </c>
       <c r="E78" s="2">
         <v>0.2311</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A79" s="6" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A80" s="6" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.5">
@@ -8814,7 +9025,7 @@
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A84" s="71" t="s">
+      <c r="A84" s="73" t="s">
         <v>21</v>
       </c>
       <c r="B84" s="4" t="s">
@@ -8834,7 +9045,7 @@
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A85" s="72"/>
+      <c r="A85" s="74"/>
       <c r="B85" s="4" t="s">
         <v>52</v>
       </c>
@@ -8849,7 +9060,7 @@
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A86" s="71" t="s">
+      <c r="A86" s="73" t="s">
         <v>22</v>
       </c>
       <c r="B86" s="4" t="s">
@@ -8866,7 +9077,7 @@
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A87" s="72"/>
+      <c r="A87" s="74"/>
       <c r="B87" s="4" t="s">
         <v>52</v>
       </c>
@@ -8881,7 +9092,7 @@
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A88" s="71" t="s">
+      <c r="A88" s="73" t="s">
         <v>23</v>
       </c>
       <c r="B88" s="4" t="s">
@@ -8898,7 +9109,7 @@
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A89" s="72"/>
+      <c r="A89" s="74"/>
       <c r="B89" s="4" t="s">
         <v>52</v>
       </c>
@@ -8912,11 +9123,19 @@
         <v>1.9900000000000001E-2</v>
       </c>
     </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A90" s="7"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2"/>
+    </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A91" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="D91" s="50"/>
+      <c r="A91" s="64" t="s">
+        <v>268</v>
+      </c>
+      <c r="C91" s="1"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A92" s="10" t="s">
@@ -8926,70 +9145,279 @@
         <v>35</v>
       </c>
       <c r="C92" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="D92" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="D92" s="10" t="s">
+      <c r="E92" s="10" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A93" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="B93" s="97" t="s">
+        <v>51</v>
+      </c>
+      <c r="C93" s="65" t="s">
+        <v>266</v>
+      </c>
+      <c r="D93" s="119">
+        <v>2.06</v>
+      </c>
+      <c r="E93" s="119">
+        <v>1.1399999999999999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A94" s="104"/>
+      <c r="B94" s="98"/>
+      <c r="C94" s="65" t="s">
+        <v>267</v>
+      </c>
+      <c r="D94" s="119">
+        <v>1.28</v>
+      </c>
+      <c r="E94" s="119">
+        <v>1.06</v>
+      </c>
+      <c r="F94" s="43" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A95" s="104"/>
+      <c r="B95" s="97" t="s">
+        <v>52</v>
+      </c>
+      <c r="C95" s="65" t="s">
+        <v>266</v>
+      </c>
+      <c r="D95" s="119">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="E95" s="119">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A96" s="74"/>
+      <c r="B96" s="99"/>
+      <c r="C96" s="65" t="s">
+        <v>267</v>
+      </c>
+      <c r="D96" s="119">
+        <v>1.25</v>
+      </c>
+      <c r="E96" s="119">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A97" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="B97" s="97" t="s">
+        <v>51</v>
+      </c>
+      <c r="C97" s="65" t="s">
+        <v>266</v>
+      </c>
+      <c r="D97" s="119">
+        <v>1.25</v>
+      </c>
+      <c r="E97" s="119">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A98" s="104"/>
+      <c r="B98" s="98"/>
+      <c r="C98" s="65" t="s">
+        <v>267</v>
+      </c>
+      <c r="D98" s="119">
+        <v>1.43</v>
+      </c>
+      <c r="E98" s="119">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A99" s="104"/>
+      <c r="B99" s="97" t="s">
+        <v>52</v>
+      </c>
+      <c r="C99" s="65" t="s">
+        <v>266</v>
+      </c>
+      <c r="D99" s="119">
+        <v>1.07</v>
+      </c>
+      <c r="E99" s="119">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A100" s="74"/>
+      <c r="B100" s="99"/>
+      <c r="C100" s="65" t="s">
+        <v>267</v>
+      </c>
+      <c r="D100" s="119">
+        <v>1.06</v>
+      </c>
+      <c r="E100" s="119">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A101" s="73" t="s">
+        <v>23</v>
+      </c>
+      <c r="B101" s="97" t="s">
+        <v>51</v>
+      </c>
+      <c r="C101" s="65" t="s">
+        <v>266</v>
+      </c>
+      <c r="D101" s="119">
+        <v>2.02</v>
+      </c>
+      <c r="E101" s="119">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A102" s="104"/>
+      <c r="B102" s="98"/>
+      <c r="C102" s="65" t="s">
+        <v>267</v>
+      </c>
+      <c r="D102" s="119">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="E102" s="119">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A103" s="104"/>
+      <c r="B103" s="97" t="s">
+        <v>52</v>
+      </c>
+      <c r="C103" s="65" t="s">
+        <v>266</v>
+      </c>
+      <c r="D103" s="119">
+        <v>1.55</v>
+      </c>
+      <c r="E103" s="119">
+        <v>1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A104" s="74"/>
+      <c r="B104" s="99"/>
+      <c r="C104" s="65" t="s">
+        <v>267</v>
+      </c>
+      <c r="D104" s="119">
+        <v>1.39</v>
+      </c>
+      <c r="E104" s="119">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A106" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="D106" s="50"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A107" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B107" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C107" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="D107" s="10" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A93" s="71" t="s">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A108" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="B93" s="4" t="s">
+      <c r="B108" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C93" s="49">
+      <c r="C108" s="49">
         <v>2.8929999999999998</v>
       </c>
-      <c r="D93" s="95">
+      <c r="D108" s="97">
         <v>3.5799999999999998E-2</v>
       </c>
-      <c r="E93" s="5" t="s">
+      <c r="E108" s="5" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A94" s="72"/>
-      <c r="B94" s="4" t="s">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A109" s="74"/>
+      <c r="B109" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C94" s="4">
+      <c r="C109" s="4">
         <v>1.8120000000000001</v>
       </c>
-      <c r="D94" s="97"/>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A95" s="71" t="s">
+      <c r="D109" s="99"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A110" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="B95" s="4" t="s">
+      <c r="B110" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C95" s="4">
+      <c r="C110" s="4">
         <v>2.2810000000000001</v>
       </c>
-      <c r="D95" s="95">
+      <c r="D110" s="97">
         <v>2.7400000000000001E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A96" s="72"/>
-      <c r="B96" s="4" t="s">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A111" s="74"/>
+      <c r="B111" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C96" s="49">
+      <c r="C111" s="49">
         <v>3.5089999999999999</v>
       </c>
-      <c r="D96" s="97"/>
+      <c r="D111" s="99"/>
     </row>
   </sheetData>
-  <mergeCells count="51">
+  <mergeCells count="60">
+    <mergeCell ref="B103:B104"/>
     <mergeCell ref="A88:A89"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="D93:D94"/>
-    <mergeCell ref="D95:D96"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="D108:D109"/>
+    <mergeCell ref="D110:D111"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="A101:A104"/>
+    <mergeCell ref="A97:A100"/>
+    <mergeCell ref="A93:A96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="B99:B100"/>
     <mergeCell ref="A84:A85"/>
     <mergeCell ref="A86:A87"/>
     <mergeCell ref="A73:A74"/>
@@ -9075,7 +9503,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="27.9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="102" t="s">
+      <c r="A2" s="105" t="s">
         <v>21</v>
       </c>
       <c r="B2" s="45" t="s">
@@ -9089,7 +9517,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="27.9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="102"/>
+      <c r="A3" s="105"/>
       <c r="B3" s="45" t="s">
         <v>186</v>
       </c>
@@ -9098,7 +9526,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="14.7" x14ac:dyDescent="0.6">
-      <c r="A4" s="102"/>
+      <c r="A4" s="105"/>
       <c r="B4" s="47" t="s">
         <v>187</v>
       </c>
@@ -9107,7 +9535,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="27.9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="102"/>
+      <c r="A5" s="105"/>
       <c r="B5" s="45" t="s">
         <v>188</v>
       </c>
@@ -9116,7 +9544,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.7" x14ac:dyDescent="0.6">
-      <c r="A6" s="102"/>
+      <c r="A6" s="105"/>
       <c r="B6" s="45" t="s">
         <v>189</v>
       </c>
@@ -9125,7 +9553,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="27.9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="102" t="s">
+      <c r="A7" s="105" t="s">
         <v>22</v>
       </c>
       <c r="B7" s="45" t="s">
@@ -9139,7 +9567,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="14.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="102"/>
+      <c r="A8" s="105"/>
       <c r="B8" s="45" t="s">
         <v>190</v>
       </c>
@@ -9148,7 +9576,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="28.2" x14ac:dyDescent="0.6">
-      <c r="A9" s="102"/>
+      <c r="A9" s="105"/>
       <c r="B9" s="45" t="s">
         <v>192</v>
       </c>
@@ -9157,7 +9585,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.3" x14ac:dyDescent="0.6">
-      <c r="A10" s="102"/>
+      <c r="A10" s="105"/>
       <c r="B10" s="47" t="s">
         <v>193</v>
       </c>
@@ -9169,7 +9597,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="41.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="102"/>
+      <c r="A11" s="105"/>
       <c r="B11" s="45" t="s">
         <v>194</v>
       </c>
@@ -9181,7 +9609,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="27.9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="102" t="s">
+      <c r="A12" s="105" t="s">
         <v>23</v>
       </c>
       <c r="B12" s="45" t="s">
@@ -9195,7 +9623,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="27.9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="102"/>
+      <c r="A13" s="105"/>
       <c r="B13" s="45" t="s">
         <v>196</v>
       </c>
@@ -9207,7 +9635,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="42" x14ac:dyDescent="0.6">
-      <c r="A14" s="102"/>
+      <c r="A14" s="105"/>
       <c r="B14" s="47" t="s">
         <v>197</v>
       </c>
@@ -9216,7 +9644,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="14.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="102"/>
+      <c r="A15" s="105"/>
       <c r="B15" s="47" t="s">
         <v>198</v>
       </c>
@@ -9225,7 +9653,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="28.2" x14ac:dyDescent="0.6">
-      <c r="A16" s="102"/>
+      <c r="A16" s="105"/>
       <c r="B16" s="47" t="s">
         <v>199</v>
       </c>
@@ -9792,16 +10220,16 @@
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B26" s="112" t="s">
+      <c r="B26" s="115" t="s">
         <v>227</v>
       </c>
-      <c r="C26" s="113"/>
-      <c r="D26" s="113"/>
-      <c r="E26" s="113"/>
-      <c r="F26" s="113"/>
-      <c r="G26" s="113"/>
-      <c r="H26" s="113"/>
-      <c r="I26" s="114"/>
+      <c r="C26" s="116"/>
+      <c r="D26" s="116"/>
+      <c r="E26" s="116"/>
+      <c r="F26" s="116"/>
+      <c r="G26" s="116"/>
+      <c r="H26" s="116"/>
+      <c r="I26" s="117"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B27" s="49" t="s">
@@ -10094,36 +10522,36 @@
     <row r="41" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A41" s="58"/>
       <c r="B41" s="58"/>
-      <c r="C41" s="106" t="s">
+      <c r="C41" s="109" t="s">
         <v>232</v>
       </c>
-      <c r="D41" s="106"/>
-      <c r="E41" s="106"/>
-      <c r="F41" s="106"/>
-      <c r="G41" s="106"/>
-      <c r="H41" s="106"/>
-      <c r="I41" s="106"/>
+      <c r="D41" s="109"/>
+      <c r="E41" s="109"/>
+      <c r="F41" s="109"/>
+      <c r="G41" s="109"/>
+      <c r="H41" s="109"/>
+      <c r="I41" s="109"/>
       <c r="J41" s="58"/>
       <c r="K41" s="58"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A42" s="58"/>
-      <c r="B42" s="115" t="s">
+      <c r="B42" s="118" t="s">
         <v>233</v>
       </c>
-      <c r="C42" s="109">
+      <c r="C42" s="112">
         <v>184</v>
       </c>
-      <c r="D42" s="109">
+      <c r="D42" s="112">
         <v>368</v>
       </c>
-      <c r="E42" s="109">
+      <c r="E42" s="112">
         <v>552</v>
       </c>
-      <c r="F42" s="109">
+      <c r="F42" s="112">
         <v>736</v>
       </c>
-      <c r="G42" s="109">
+      <c r="G42" s="112">
         <v>920</v>
       </c>
       <c r="H42" s="60">
@@ -10137,12 +10565,12 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A43" s="58"/>
-      <c r="B43" s="111"/>
-      <c r="C43" s="109"/>
-      <c r="D43" s="109"/>
-      <c r="E43" s="109"/>
-      <c r="F43" s="109"/>
-      <c r="G43" s="109"/>
+      <c r="B43" s="114"/>
+      <c r="C43" s="112"/>
+      <c r="D43" s="112"/>
+      <c r="E43" s="112"/>
+      <c r="F43" s="112"/>
+      <c r="G43" s="112"/>
       <c r="H43" s="61">
         <v>-233</v>
       </c>
@@ -10154,19 +10582,19 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A44" s="58"/>
-      <c r="B44" s="111">
+      <c r="B44" s="114">
         <v>15</v>
       </c>
-      <c r="C44" s="109">
+      <c r="C44" s="112">
         <v>184</v>
       </c>
-      <c r="D44" s="109">
+      <c r="D44" s="112">
         <v>368</v>
       </c>
-      <c r="E44" s="109">
+      <c r="E44" s="112">
         <v>552</v>
       </c>
-      <c r="F44" s="109">
+      <c r="F44" s="112">
         <v>736</v>
       </c>
       <c r="G44" s="60">
@@ -10175,7 +10603,7 @@
       <c r="H44" s="60">
         <v>1288</v>
       </c>
-      <c r="I44" s="108">
+      <c r="I44" s="111">
         <v>340</v>
       </c>
       <c r="J44" s="58"/>
@@ -10183,33 +10611,33 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A45" s="58"/>
-      <c r="B45" s="111"/>
-      <c r="C45" s="109"/>
-      <c r="D45" s="109"/>
-      <c r="E45" s="109"/>
-      <c r="F45" s="109"/>
+      <c r="B45" s="114"/>
+      <c r="C45" s="112"/>
+      <c r="D45" s="112"/>
+      <c r="E45" s="112"/>
+      <c r="F45" s="112"/>
       <c r="G45" s="61">
         <v>-95</v>
       </c>
       <c r="H45" s="61">
         <v>-733</v>
       </c>
-      <c r="I45" s="108"/>
+      <c r="I45" s="111"/>
       <c r="J45" s="58"/>
       <c r="K45" s="58"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A46" s="58"/>
-      <c r="B46" s="111">
+      <c r="B46" s="114">
         <v>10</v>
       </c>
-      <c r="C46" s="109">
+      <c r="C46" s="112">
         <v>184</v>
       </c>
-      <c r="D46" s="109">
+      <c r="D46" s="112">
         <v>368</v>
       </c>
-      <c r="E46" s="109">
+      <c r="E46" s="112">
         <v>552</v>
       </c>
       <c r="F46" s="60">
@@ -10218,10 +10646,10 @@
       <c r="G46" s="60">
         <v>920</v>
       </c>
-      <c r="H46" s="108">
+      <c r="H46" s="111">
         <v>288</v>
       </c>
-      <c r="I46" s="108">
+      <c r="I46" s="111">
         <v>840</v>
       </c>
       <c r="J46" s="58"/>
@@ -10229,30 +10657,30 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A47" s="58"/>
-      <c r="B47" s="111"/>
-      <c r="C47" s="109"/>
-      <c r="D47" s="109"/>
-      <c r="E47" s="109"/>
+      <c r="B47" s="114"/>
+      <c r="C47" s="112"/>
+      <c r="D47" s="112"/>
+      <c r="E47" s="112"/>
       <c r="F47" s="61">
         <v>-276</v>
       </c>
       <c r="G47" s="61">
         <v>-595</v>
       </c>
-      <c r="H47" s="108"/>
-      <c r="I47" s="108"/>
+      <c r="H47" s="111"/>
+      <c r="I47" s="111"/>
       <c r="J47" s="58"/>
       <c r="K47" s="58"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A48" s="58"/>
-      <c r="B48" s="111">
+      <c r="B48" s="114">
         <v>7.5</v>
       </c>
-      <c r="C48" s="109">
+      <c r="C48" s="112">
         <v>184</v>
       </c>
-      <c r="D48" s="109">
+      <c r="D48" s="112">
         <v>368</v>
       </c>
       <c r="E48" s="60">
@@ -10261,13 +10689,13 @@
       <c r="F48" s="60">
         <v>736</v>
       </c>
-      <c r="G48" s="108">
+      <c r="G48" s="111">
         <v>170</v>
       </c>
-      <c r="H48" s="108">
+      <c r="H48" s="111">
         <v>538</v>
       </c>
-      <c r="I48" s="108">
+      <c r="I48" s="111">
         <v>1090</v>
       </c>
       <c r="J48" s="58"/>
@@ -10275,45 +10703,45 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A49" s="58"/>
-      <c r="B49" s="111"/>
-      <c r="C49" s="109"/>
-      <c r="D49" s="109"/>
+      <c r="B49" s="114"/>
+      <c r="C49" s="112"/>
+      <c r="D49" s="112"/>
       <c r="E49" s="61">
         <v>-207</v>
       </c>
       <c r="F49" s="61">
         <v>-526</v>
       </c>
-      <c r="G49" s="108"/>
-      <c r="H49" s="108"/>
-      <c r="I49" s="108"/>
+      <c r="G49" s="111"/>
+      <c r="H49" s="111"/>
+      <c r="I49" s="111"/>
       <c r="J49" s="58"/>
       <c r="K49" s="58"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A50" s="58"/>
-      <c r="B50" s="111">
+      <c r="B50" s="114">
         <v>5</v>
       </c>
-      <c r="C50" s="109">
+      <c r="C50" s="112">
         <v>184</v>
       </c>
       <c r="D50" s="60">
         <v>368</v>
       </c>
-      <c r="E50" s="108">
+      <c r="E50" s="111">
         <v>52</v>
       </c>
-      <c r="F50" s="108">
+      <c r="F50" s="111">
         <v>236</v>
       </c>
-      <c r="G50" s="108">
+      <c r="G50" s="111">
         <v>420</v>
       </c>
-      <c r="H50" s="108">
+      <c r="H50" s="111">
         <v>788</v>
       </c>
-      <c r="I50" s="108">
+      <c r="I50" s="111">
         <v>1340</v>
       </c>
       <c r="J50" s="58"/>
@@ -10321,43 +10749,43 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A51" s="58"/>
-      <c r="B51" s="111"/>
-      <c r="C51" s="109"/>
+      <c r="B51" s="114"/>
+      <c r="C51" s="112"/>
       <c r="D51" s="61">
         <v>-138</v>
       </c>
-      <c r="E51" s="108"/>
-      <c r="F51" s="108"/>
-      <c r="G51" s="108"/>
-      <c r="H51" s="108"/>
-      <c r="I51" s="108"/>
+      <c r="E51" s="111"/>
+      <c r="F51" s="111"/>
+      <c r="G51" s="111"/>
+      <c r="H51" s="111"/>
+      <c r="I51" s="111"/>
       <c r="J51" s="58"/>
       <c r="K51" s="58"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A52" s="58"/>
-      <c r="B52" s="111">
+      <c r="B52" s="114">
         <v>2</v>
       </c>
       <c r="C52" s="60">
         <v>184</v>
       </c>
-      <c r="D52" s="108">
+      <c r="D52" s="111">
         <v>168</v>
       </c>
-      <c r="E52" s="108">
+      <c r="E52" s="111">
         <v>352</v>
       </c>
-      <c r="F52" s="108">
+      <c r="F52" s="111">
         <v>536</v>
       </c>
-      <c r="G52" s="108">
+      <c r="G52" s="111">
         <v>720</v>
       </c>
-      <c r="H52" s="108">
+      <c r="H52" s="111">
         <v>1088</v>
       </c>
-      <c r="I52" s="108">
+      <c r="I52" s="111">
         <v>1640</v>
       </c>
       <c r="J52" s="58"/>
@@ -10365,43 +10793,43 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A53" s="58"/>
-      <c r="B53" s="111"/>
+      <c r="B53" s="114"/>
       <c r="C53" s="61">
         <v>-119</v>
       </c>
-      <c r="D53" s="108"/>
-      <c r="E53" s="108"/>
-      <c r="F53" s="108"/>
-      <c r="G53" s="108"/>
-      <c r="H53" s="108"/>
-      <c r="I53" s="108"/>
+      <c r="D53" s="111"/>
+      <c r="E53" s="111"/>
+      <c r="F53" s="111"/>
+      <c r="G53" s="111"/>
+      <c r="H53" s="111"/>
+      <c r="I53" s="111"/>
       <c r="J53" s="58"/>
       <c r="K53" s="58"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A54" s="58"/>
-      <c r="B54" s="111">
+      <c r="B54" s="114">
         <v>1</v>
       </c>
       <c r="C54" s="60">
         <v>84</v>
       </c>
-      <c r="D54" s="108">
+      <c r="D54" s="111">
         <v>268</v>
       </c>
-      <c r="E54" s="108">
+      <c r="E54" s="111">
         <v>452</v>
       </c>
-      <c r="F54" s="108">
+      <c r="F54" s="111">
         <v>636</v>
       </c>
-      <c r="G54" s="108">
+      <c r="G54" s="111">
         <v>820</v>
       </c>
-      <c r="H54" s="108">
+      <c r="H54" s="111">
         <v>1188</v>
       </c>
-      <c r="I54" s="108">
+      <c r="I54" s="111">
         <v>1740</v>
       </c>
       <c r="J54" s="58"/>
@@ -10409,41 +10837,41 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A55" s="58"/>
-      <c r="B55" s="111"/>
+      <c r="B55" s="114"/>
       <c r="C55" s="61">
         <v>-219</v>
       </c>
-      <c r="D55" s="108"/>
-      <c r="E55" s="108"/>
-      <c r="F55" s="108"/>
-      <c r="G55" s="108"/>
-      <c r="H55" s="108"/>
-      <c r="I55" s="108"/>
+      <c r="D55" s="111"/>
+      <c r="E55" s="111"/>
+      <c r="F55" s="111"/>
+      <c r="G55" s="111"/>
+      <c r="H55" s="111"/>
+      <c r="I55" s="111"/>
       <c r="J55" s="58"/>
       <c r="K55" s="58"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A56" s="58"/>
       <c r="B56" s="59"/>
-      <c r="C56" s="110">
+      <c r="C56" s="113">
         <v>50</v>
       </c>
-      <c r="D56" s="110">
+      <c r="D56" s="113">
         <v>100</v>
       </c>
-      <c r="E56" s="110">
+      <c r="E56" s="113">
         <v>150</v>
       </c>
-      <c r="F56" s="110">
+      <c r="F56" s="113">
         <v>200</v>
       </c>
-      <c r="G56" s="110">
+      <c r="G56" s="113">
         <v>250</v>
       </c>
-      <c r="H56" s="110">
+      <c r="H56" s="113">
         <v>350</v>
       </c>
-      <c r="I56" s="110" t="s">
+      <c r="I56" s="113" t="s">
         <v>234</v>
       </c>
       <c r="J56" s="58"/>
@@ -10452,32 +10880,32 @@
     <row r="57" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A57" s="58"/>
       <c r="B57" s="59"/>
-      <c r="C57" s="110"/>
-      <c r="D57" s="110"/>
-      <c r="E57" s="110"/>
-      <c r="F57" s="110"/>
-      <c r="G57" s="110"/>
-      <c r="H57" s="110"/>
-      <c r="I57" s="110"/>
+      <c r="C57" s="113"/>
+      <c r="D57" s="113"/>
+      <c r="E57" s="113"/>
+      <c r="F57" s="113"/>
+      <c r="G57" s="113"/>
+      <c r="H57" s="113"/>
+      <c r="I57" s="113"/>
       <c r="J57" s="58"/>
       <c r="K57" s="58"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A58" s="58"/>
       <c r="B58" s="58"/>
-      <c r="C58" s="107" t="s">
+      <c r="C58" s="110" t="s">
         <v>228</v>
       </c>
-      <c r="D58" s="104" t="s">
+      <c r="D58" s="107" t="s">
         <v>230</v>
       </c>
-      <c r="E58" s="104"/>
-      <c r="F58" s="104"/>
-      <c r="G58" s="103" t="s">
+      <c r="E58" s="107"/>
+      <c r="F58" s="107"/>
+      <c r="G58" s="106" t="s">
         <v>231</v>
       </c>
-      <c r="H58" s="103"/>
-      <c r="I58" s="103"/>
+      <c r="H58" s="106"/>
+      <c r="I58" s="106"/>
       <c r="J58" s="58"/>
       <c r="K58" s="58"/>
       <c r="L58" s="57"/>
@@ -10485,15 +10913,15 @@
     <row r="59" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A59" s="58"/>
       <c r="B59" s="58"/>
-      <c r="C59" s="107"/>
-      <c r="D59" s="105" t="s">
+      <c r="C59" s="110"/>
+      <c r="D59" s="108" t="s">
         <v>229</v>
       </c>
-      <c r="E59" s="105"/>
-      <c r="F59" s="105"/>
-      <c r="G59" s="103"/>
-      <c r="H59" s="103"/>
-      <c r="I59" s="103"/>
+      <c r="E59" s="108"/>
+      <c r="F59" s="108"/>
+      <c r="G59" s="106"/>
+      <c r="H59" s="106"/>
+      <c r="I59" s="106"/>
       <c r="J59" s="58"/>
       <c r="K59" s="58"/>
       <c r="L59" s="57"/>

--- a/dataAnalysis.xlsx
+++ b/dataAnalysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\botImpact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA4AB769-9D8B-4876-863A-A7061EDDB0FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAC6C996-7F34-4CA3-89E9-C68E8E67CE4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="18192" windowHeight="11592" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="276">
   <si>
     <t>Node Degree</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3581,17 +3581,36 @@
   </si>
   <si>
     <r>
-      <t>Majority Opinion: Bot Mentioned in Human's Tweet per Human Followers (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>单位粉丝的</t>
+      <t>Bot</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Majority</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>一致时，</t>
     </r>
     <r>
       <rPr>
@@ -3610,47 +3629,133 @@
         <family val="1"/>
         <charset val="134"/>
       </rPr>
-      <t>率)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Bot</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>和</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Majority</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>一致时，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
+      <t>率更高</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为何不直接比</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Followers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>？因为数据收集只是“讨论这个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>topic”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用户的网络（很多用户可能虽然是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>followers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，但只看，没有讨论）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>所以更合理的方式是在讨论这个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>topic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的子网络中，计算单位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Followers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的转发率或</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -3659,155 +3764,11 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>率更高</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Attitude Var</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <family val="1"/>
         <charset val="134"/>
       </rPr>
-      <t>为何不直接比</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Followers</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>？因为数据收集只是“讨论这个</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>topic”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>用户的网络（很多用户可能虽然是</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>followers</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，但只看，没有讨论）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>所以更合理的方式是在讨论这个</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>topic</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的子网络中，计算单位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Followers</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的转发率或</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Mention</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
       <t>率</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3858,6 +3819,48 @@
   </si>
   <si>
     <t>Text Analysis: Bot text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pandemic
+Positive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pandemic
+Negative</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>War
+Positive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>War
+Negative</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Climate
+Positive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Climate
+Negative</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exist Num/Per Tweet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Majority Opinion: Bot Mentioned in Human's Tweet per Followers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attitude Score Variance</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3870,7 +3873,7 @@
     <numFmt numFmtId="177" formatCode="0.0000_);[Red]\(0.0000\)"/>
     <numFmt numFmtId="178" formatCode="0.000_ ;[Red]\-0.000\ "/>
     <numFmt numFmtId="179" formatCode="0.00_ ;[Red]\-0.00\ "/>
-    <numFmt numFmtId="181" formatCode="0.00_ "/>
+    <numFmt numFmtId="180" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="31" x14ac:knownFonts="1">
     <font>
@@ -4261,7 +4264,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4430,31 +4433,25 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4478,6 +4475,15 @@
     <xf numFmtId="176" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4485,6 +4491,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4496,10 +4517,22 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4517,37 +4550,31 @@
     <xf numFmtId="177" fontId="4" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4565,31 +4592,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4901,31 +4907,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="74" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="78"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="76"/>
       <c r="D1" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="68" t="s">
+      <c r="E1" s="80" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="70"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="82"/>
       <c r="J1" s="19" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="81"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="79"/>
       <c r="D2" s="8" t="s">
         <v>41</v>
       </c>
@@ -4956,7 +4962,7 @@
       <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="73" t="s">
+      <c r="E3" s="67" t="s">
         <v>21</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -4965,10 +4971,10 @@
       <c r="G3" s="18">
         <v>0.60419999999999996</v>
       </c>
-      <c r="H3" s="66">
+      <c r="H3" s="69">
         <v>1.4500999999999999</v>
       </c>
-      <c r="I3" s="66">
+      <c r="I3" s="69">
         <v>0.14699999999999999</v>
       </c>
       <c r="J3" s="19" t="s">
@@ -4988,15 +4994,15 @@
       <c r="D4" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="74"/>
+      <c r="E4" s="68"/>
       <c r="F4" s="2" t="s">
         <v>79</v>
       </c>
       <c r="G4" s="2">
         <v>0.59640000000000004</v>
       </c>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
       <c r="J4" s="19" t="s">
         <v>91</v>
       </c>
@@ -5014,7 +5020,7 @@
       <c r="D5" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="73" t="s">
+      <c r="E5" s="67" t="s">
         <v>22</v>
       </c>
       <c r="F5" s="2" t="s">
@@ -5023,31 +5029,31 @@
       <c r="G5" s="18">
         <v>0.58009999999999995</v>
       </c>
-      <c r="H5" s="66">
+      <c r="H5" s="69">
         <v>-0.46650000000000003</v>
       </c>
-      <c r="I5" s="66">
+      <c r="I5" s="69">
         <v>0.64090000000000003</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="80"/>
-      <c r="C6" s="81"/>
-      <c r="E6" s="74"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="79"/>
+      <c r="E6" s="68"/>
       <c r="F6" s="2" t="s">
         <v>79</v>
       </c>
       <c r="G6" s="2">
         <v>0.58389999999999997</v>
       </c>
-      <c r="H6" s="67"/>
-      <c r="I6" s="67"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="70"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A7" s="75" t="s">
+      <c r="A7" s="73" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -5056,7 +5062,7 @@
       <c r="C7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="73" t="s">
+      <c r="E7" s="67" t="s">
         <v>23</v>
       </c>
       <c r="F7" s="2" t="s">
@@ -5065,30 +5071,30 @@
       <c r="G7" s="18">
         <v>0.5393</v>
       </c>
-      <c r="H7" s="66">
+      <c r="H7" s="69">
         <v>-1.7504</v>
       </c>
-      <c r="I7" s="66">
+      <c r="I7" s="69">
         <v>8.0100000000000005E-2</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A8" s="74"/>
+      <c r="A8" s="68"/>
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="74"/>
+      <c r="E8" s="68"/>
       <c r="F8" s="2" t="s">
         <v>79</v>
       </c>
       <c r="G8" s="2">
         <v>0.55649999999999999</v>
       </c>
-      <c r="H8" s="67"/>
-      <c r="I8" s="67"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="70"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.5">
       <c r="E9" s="71" t="s">
@@ -5106,12 +5112,12 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A10" s="76" t="s">
+      <c r="A10" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="77"/>
-      <c r="C10" s="78"/>
-      <c r="E10" s="73" t="s">
+      <c r="B10" s="75"/>
+      <c r="C10" s="76"/>
+      <c r="E10" s="67" t="s">
         <v>21</v>
       </c>
       <c r="F10" s="2" t="s">
@@ -5120,10 +5126,10 @@
       <c r="G10" s="17">
         <v>0.82099999999999995</v>
       </c>
-      <c r="H10" s="66">
+      <c r="H10" s="69">
         <v>23.857700000000001</v>
       </c>
-      <c r="I10" s="66" t="s">
+      <c r="I10" s="69" t="s">
         <v>26</v>
       </c>
       <c r="J10" s="19" t="s">
@@ -5131,20 +5137,20 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A11" s="79" t="s">
+      <c r="A11" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="80"/>
-      <c r="C11" s="81"/>
-      <c r="E11" s="74"/>
+      <c r="B11" s="78"/>
+      <c r="C11" s="79"/>
+      <c r="E11" s="68"/>
       <c r="F11" s="2" t="s">
         <v>79</v>
       </c>
       <c r="G11" s="2">
         <v>0.74229999999999996</v>
       </c>
-      <c r="H11" s="67"/>
-      <c r="I11" s="67"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="70"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A12" s="1" t="s">
@@ -5156,7 +5162,7 @@
       <c r="C12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="73" t="s">
+      <c r="E12" s="67" t="s">
         <v>22</v>
       </c>
       <c r="F12" s="2" t="s">
@@ -5165,10 +5171,10 @@
       <c r="G12" s="17">
         <v>0.83950000000000002</v>
       </c>
-      <c r="H12" s="66">
+      <c r="H12" s="69">
         <v>20.513400000000001</v>
       </c>
-      <c r="I12" s="66" t="s">
+      <c r="I12" s="69" t="s">
         <v>27</v>
       </c>
     </row>
@@ -5182,15 +5188,15 @@
       <c r="C13" s="2">
         <v>5.0496999999999996</v>
       </c>
-      <c r="E13" s="74"/>
+      <c r="E13" s="68"/>
       <c r="F13" s="2" t="s">
         <v>79</v>
       </c>
       <c r="G13" s="2">
         <v>0.73529999999999995</v>
       </c>
-      <c r="H13" s="67"/>
-      <c r="I13" s="67"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="70"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A14" s="2" t="s">
@@ -5202,7 +5208,7 @@
       <c r="C14" s="2">
         <v>5.5609000000000002</v>
       </c>
-      <c r="E14" s="73" t="s">
+      <c r="E14" s="67" t="s">
         <v>23</v>
       </c>
       <c r="F14" s="2" t="s">
@@ -5211,31 +5217,31 @@
       <c r="G14" s="17">
         <v>0.78539999999999999</v>
       </c>
-      <c r="H14" s="66">
+      <c r="H14" s="69">
         <v>16.601400000000002</v>
       </c>
-      <c r="I14" s="66" t="s">
+      <c r="I14" s="69" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A15" s="79" t="s">
+      <c r="A15" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="80"/>
-      <c r="C15" s="81"/>
-      <c r="E15" s="74"/>
+      <c r="B15" s="78"/>
+      <c r="C15" s="79"/>
+      <c r="E15" s="68"/>
       <c r="F15" s="2" t="s">
         <v>79</v>
       </c>
       <c r="G15" s="2">
         <v>0.67610000000000003</v>
       </c>
-      <c r="H15" s="67"/>
-      <c r="I15" s="67"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="70"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A16" s="75" t="s">
+      <c r="A16" s="73" t="s">
         <v>7</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -5249,7 +5255,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A17" s="74"/>
+      <c r="A17" s="68"/>
       <c r="B17" s="2" t="s">
         <v>13</v>
       </c>
@@ -5261,23 +5267,23 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="E18" s="68" t="s">
+      <c r="E18" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="69"/>
-      <c r="G18" s="69"/>
-      <c r="H18" s="69"/>
-      <c r="I18" s="70"/>
+      <c r="F18" s="81"/>
+      <c r="G18" s="81"/>
+      <c r="H18" s="81"/>
+      <c r="I18" s="82"/>
       <c r="J18" s="16" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A19" s="76" t="s">
+      <c r="A19" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="77"/>
-      <c r="C19" s="78"/>
+      <c r="B19" s="75"/>
+      <c r="C19" s="76"/>
       <c r="E19" s="71" t="s">
         <v>74</v>
       </c>
@@ -5293,12 +5299,12 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A20" s="79" t="s">
+      <c r="A20" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="80"/>
-      <c r="C20" s="81"/>
-      <c r="E20" s="73" t="s">
+      <c r="B20" s="78"/>
+      <c r="C20" s="79"/>
+      <c r="E20" s="67" t="s">
         <v>21</v>
       </c>
       <c r="F20" s="2" t="s">
@@ -5307,10 +5313,10 @@
       <c r="G20" s="18">
         <v>0.60419999999999996</v>
       </c>
-      <c r="H20" s="66">
+      <c r="H20" s="69">
         <v>6.7031000000000001</v>
       </c>
-      <c r="I20" s="66" t="s">
+      <c r="I20" s="69" t="s">
         <v>24</v>
       </c>
       <c r="J20" s="19" t="s">
@@ -5327,15 +5333,15 @@
       <c r="C21" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="74"/>
+      <c r="E21" s="68"/>
       <c r="F21" s="2" t="s">
         <v>71</v>
       </c>
       <c r="G21" s="2">
         <v>0.56520000000000004</v>
       </c>
-      <c r="H21" s="67"/>
-      <c r="I21" s="67"/>
+      <c r="H21" s="70"/>
+      <c r="I21" s="70"/>
       <c r="J21" s="16" t="s">
         <v>85</v>
       </c>
@@ -5350,7 +5356,7 @@
       <c r="C22" s="2">
         <v>6.4598000000000004</v>
       </c>
-      <c r="E22" s="73" t="s">
+      <c r="E22" s="67" t="s">
         <v>22</v>
       </c>
       <c r="F22" s="2" t="s">
@@ -5359,10 +5365,10 @@
       <c r="G22" s="18">
         <v>0.58009999999999995</v>
       </c>
-      <c r="H22" s="66">
+      <c r="H22" s="69">
         <v>2.8894000000000002</v>
       </c>
-      <c r="I22" s="66">
+      <c r="I22" s="69">
         <v>3.8999999999999998E-3</v>
       </c>
     </row>
@@ -5376,23 +5382,23 @@
       <c r="C23" s="2">
         <v>5.1597</v>
       </c>
-      <c r="E23" s="74"/>
+      <c r="E23" s="68"/>
       <c r="F23" s="2" t="s">
         <v>71</v>
       </c>
       <c r="G23" s="2">
         <v>0.5534</v>
       </c>
-      <c r="H23" s="67"/>
-      <c r="I23" s="67"/>
+      <c r="H23" s="70"/>
+      <c r="I23" s="70"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A24" s="79" t="s">
+      <c r="A24" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="80"/>
-      <c r="C24" s="81"/>
-      <c r="E24" s="73" t="s">
+      <c r="B24" s="78"/>
+      <c r="C24" s="79"/>
+      <c r="E24" s="67" t="s">
         <v>23</v>
       </c>
       <c r="F24" s="2" t="s">
@@ -5401,10 +5407,10 @@
       <c r="G24" s="18">
         <v>0.5393</v>
       </c>
-      <c r="H24" s="66">
+      <c r="H24" s="69">
         <v>1.6584000000000001</v>
       </c>
-      <c r="I24" s="66">
+      <c r="I24" s="69">
         <v>9.7299999999999998E-2</v>
       </c>
       <c r="J24" s="19" t="s">
@@ -5412,7 +5418,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A25" s="75" t="s">
+      <c r="A25" s="73" t="s">
         <v>7</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -5421,18 +5427,18 @@
       <c r="C25" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E25" s="74"/>
+      <c r="E25" s="68"/>
       <c r="F25" s="2" t="s">
         <v>71</v>
       </c>
       <c r="G25" s="2">
         <v>0.52139999999999997</v>
       </c>
-      <c r="H25" s="67"/>
-      <c r="I25" s="67"/>
+      <c r="H25" s="70"/>
+      <c r="I25" s="70"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A26" s="74"/>
+      <c r="A26" s="68"/>
       <c r="B26" s="2" t="s">
         <v>17</v>
       </c>
@@ -5454,7 +5460,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="E27" s="73" t="s">
+      <c r="E27" s="67" t="s">
         <v>21</v>
       </c>
       <c r="F27" s="2" t="s">
@@ -5463,10 +5469,10 @@
       <c r="G27" s="17">
         <v>0.82099999999999995</v>
       </c>
-      <c r="H27" s="66">
+      <c r="H27" s="69">
         <v>33.133299999999998</v>
       </c>
-      <c r="I27" s="66" t="s">
+      <c r="I27" s="69" t="s">
         <v>81</v>
       </c>
       <c r="J27" s="19" t="s">
@@ -5474,21 +5480,21 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="E28" s="74"/>
+      <c r="E28" s="68"/>
       <c r="F28" s="2" t="s">
         <v>71</v>
       </c>
       <c r="G28" s="2">
         <v>0.70599999999999996</v>
       </c>
-      <c r="H28" s="67"/>
-      <c r="I28" s="67"/>
+      <c r="H28" s="70"/>
+      <c r="I28" s="70"/>
       <c r="J28" s="19" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="E29" s="73" t="s">
+      <c r="E29" s="67" t="s">
         <v>22</v>
       </c>
       <c r="F29" s="2" t="s">
@@ -5497,26 +5503,26 @@
       <c r="G29" s="17">
         <v>0.83950000000000002</v>
       </c>
-      <c r="H29" s="66">
+      <c r="H29" s="69">
         <v>24.9849</v>
       </c>
-      <c r="I29" s="66" t="s">
+      <c r="I29" s="69" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="E30" s="74"/>
+      <c r="E30" s="68"/>
       <c r="F30" s="2" t="s">
         <v>71</v>
       </c>
       <c r="G30" s="2">
         <v>0.70609999999999995</v>
       </c>
-      <c r="H30" s="67"/>
-      <c r="I30" s="67"/>
+      <c r="H30" s="70"/>
+      <c r="I30" s="70"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="E31" s="73" t="s">
+      <c r="E31" s="67" t="s">
         <v>23</v>
       </c>
       <c r="F31" s="2" t="s">
@@ -5525,23 +5531,23 @@
       <c r="G31" s="17">
         <v>0.78539999999999999</v>
       </c>
-      <c r="H31" s="66">
+      <c r="H31" s="69">
         <v>21.385400000000001</v>
       </c>
-      <c r="I31" s="66" t="s">
+      <c r="I31" s="69" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="E32" s="74"/>
+      <c r="E32" s="68"/>
       <c r="F32" s="2" t="s">
         <v>71</v>
       </c>
       <c r="G32" s="2">
         <v>0.63849999999999996</v>
       </c>
-      <c r="H32" s="67"/>
-      <c r="I32" s="67"/>
+      <c r="H32" s="70"/>
+      <c r="I32" s="70"/>
     </row>
     <row r="33" spans="5:5" x14ac:dyDescent="0.5">
       <c r="E33" s="16" t="s">
@@ -5550,34 +5556,16 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="E12:E13"/>
     <mergeCell ref="H20:H21"/>
     <mergeCell ref="I20:I21"/>
     <mergeCell ref="E7:E8"/>
@@ -5594,16 +5582,34 @@
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E20:E21"/>
     <mergeCell ref="E10:E11"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="E1:I1"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="I29:I30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5629,26 +5635,26 @@
       <c r="A1" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="83" t="s">
+      <c r="B1" s="84" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83" t="s">
+      <c r="C1" s="84"/>
+      <c r="D1" s="84" t="s">
         <v>94</v>
       </c>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83" t="s">
+      <c r="E1" s="84"/>
+      <c r="F1" s="84" t="s">
         <v>95</v>
       </c>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83" t="s">
+      <c r="G1" s="84"/>
+      <c r="H1" s="84" t="s">
         <v>96</v>
       </c>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83" t="s">
+      <c r="I1" s="84"/>
+      <c r="J1" s="84" t="s">
         <v>97</v>
       </c>
-      <c r="K1" s="83"/>
+      <c r="K1" s="84"/>
       <c r="L1" s="20" t="s">
         <v>108</v>
       </c>
@@ -6239,15 +6245,15 @@
       <c r="A21" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="B21" s="84" t="s">
+      <c r="B21" s="85" t="s">
         <v>93</v>
       </c>
-      <c r="C21" s="84"/>
-      <c r="D21" s="84"/>
-      <c r="E21" s="84"/>
-      <c r="F21" s="84"/>
-      <c r="G21" s="84"/>
-      <c r="H21" s="84"/>
+      <c r="C21" s="85"/>
+      <c r="D21" s="85"/>
+      <c r="E21" s="85"/>
+      <c r="F21" s="85"/>
+      <c r="G21" s="85"/>
+      <c r="H21" s="85"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A22" s="20" t="s">
@@ -6425,15 +6431,15 @@
       <c r="A29" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="B29" s="83" t="s">
+      <c r="B29" s="84" t="s">
         <v>95</v>
       </c>
-      <c r="C29" s="83"/>
-      <c r="D29" s="83"/>
-      <c r="E29" s="83"/>
-      <c r="F29" s="83"/>
-      <c r="G29" s="83"/>
-      <c r="H29" s="83"/>
+      <c r="C29" s="84"/>
+      <c r="D29" s="84"/>
+      <c r="E29" s="84"/>
+      <c r="F29" s="84"/>
+      <c r="G29" s="84"/>
+      <c r="H29" s="84"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A30" s="20" t="s">
@@ -6608,14 +6614,14 @@
       <c r="A38" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="B38" s="84" t="s">
+      <c r="B38" s="85" t="s">
         <v>93</v>
       </c>
-      <c r="C38" s="84"/>
-      <c r="D38" s="84"/>
-      <c r="E38" s="84"/>
-      <c r="F38" s="84"/>
-      <c r="G38" s="84"/>
+      <c r="C38" s="85"/>
+      <c r="D38" s="85"/>
+      <c r="E38" s="85"/>
+      <c r="F38" s="85"/>
+      <c r="G38" s="85"/>
       <c r="H38" s="30"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.5">
@@ -6768,14 +6774,14 @@
       <c r="A46" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="B46" s="84" t="s">
+      <c r="B46" s="85" t="s">
         <v>95</v>
       </c>
-      <c r="C46" s="84"/>
-      <c r="D46" s="84"/>
-      <c r="E46" s="84"/>
-      <c r="F46" s="84"/>
-      <c r="G46" s="84"/>
+      <c r="C46" s="85"/>
+      <c r="D46" s="85"/>
+      <c r="E46" s="85"/>
+      <c r="F46" s="85"/>
+      <c r="G46" s="85"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A47" s="20" t="s">
@@ -6932,13 +6938,13 @@
       <c r="A55" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="B55" s="84" t="s">
+      <c r="B55" s="85" t="s">
         <v>93</v>
       </c>
-      <c r="C55" s="84"/>
-      <c r="D55" s="84"/>
-      <c r="E55" s="84"/>
-      <c r="F55" s="84"/>
+      <c r="C55" s="85"/>
+      <c r="D55" s="85"/>
+      <c r="E55" s="85"/>
+      <c r="F55" s="85"/>
       <c r="G55" s="31" t="s">
         <v>152</v>
       </c>
@@ -7113,13 +7119,13 @@
       <c r="A65" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="B65" s="84" t="s">
+      <c r="B65" s="85" t="s">
         <v>95</v>
       </c>
-      <c r="C65" s="84"/>
-      <c r="D65" s="84"/>
-      <c r="E65" s="84"/>
-      <c r="F65" s="84"/>
+      <c r="C65" s="85"/>
+      <c r="D65" s="85"/>
+      <c r="E65" s="85"/>
+      <c r="F65" s="85"/>
       <c r="G65" s="30"/>
     </row>
     <row r="66" spans="1:10" ht="14.7" x14ac:dyDescent="0.5">
@@ -7308,14 +7314,14 @@
       <c r="A77" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="B77" s="84" t="s">
+      <c r="B77" s="85" t="s">
         <v>93</v>
       </c>
-      <c r="C77" s="84"/>
-      <c r="D77" s="84"/>
-      <c r="E77" s="84"/>
-      <c r="F77" s="84"/>
-      <c r="G77" s="84"/>
+      <c r="C77" s="85"/>
+      <c r="D77" s="85"/>
+      <c r="E77" s="85"/>
+      <c r="F77" s="85"/>
+      <c r="G77" s="85"/>
       <c r="H77" s="20" t="s">
         <v>123</v>
       </c>
@@ -7402,14 +7408,14 @@
       <c r="A82" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="B82" s="84" t="s">
+      <c r="B82" s="85" t="s">
         <v>95</v>
       </c>
-      <c r="C82" s="84"/>
-      <c r="D82" s="84"/>
-      <c r="E82" s="84"/>
-      <c r="F82" s="84"/>
-      <c r="G82" s="84"/>
+      <c r="C82" s="85"/>
+      <c r="D82" s="85"/>
+      <c r="E82" s="85"/>
+      <c r="F82" s="85"/>
+      <c r="G82" s="85"/>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A83" s="20" t="s">
@@ -7495,14 +7501,14 @@
       <c r="B88" s="71" t="s">
         <v>93</v>
       </c>
-      <c r="C88" s="82"/>
-      <c r="D88" s="82"/>
-      <c r="E88" s="82"/>
-      <c r="F88" s="82"/>
-      <c r="G88" s="82"/>
-      <c r="H88" s="82"/>
-      <c r="I88" s="82"/>
-      <c r="J88" s="82"/>
+      <c r="C88" s="83"/>
+      <c r="D88" s="83"/>
+      <c r="E88" s="83"/>
+      <c r="F88" s="83"/>
+      <c r="G88" s="83"/>
+      <c r="H88" s="83"/>
+      <c r="I88" s="83"/>
+      <c r="J88" s="83"/>
       <c r="K88" s="72"/>
       <c r="L88" s="30"/>
       <c r="M88" s="30"/>
@@ -7633,14 +7639,14 @@
       <c r="B93" s="71" t="s">
         <v>95</v>
       </c>
-      <c r="C93" s="82"/>
-      <c r="D93" s="82"/>
-      <c r="E93" s="82"/>
-      <c r="F93" s="82"/>
-      <c r="G93" s="82"/>
-      <c r="H93" s="82"/>
-      <c r="I93" s="82"/>
-      <c r="J93" s="82"/>
+      <c r="C93" s="83"/>
+      <c r="D93" s="83"/>
+      <c r="E93" s="83"/>
+      <c r="F93" s="83"/>
+      <c r="G93" s="83"/>
+      <c r="H93" s="83"/>
+      <c r="I93" s="83"/>
+      <c r="J93" s="83"/>
       <c r="K93" s="72"/>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.5">
@@ -7790,10 +7796,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2687A086-E6AD-4DC9-8E6D-5E9AEFD1DED8}">
-  <dimension ref="A1:J111"/>
+  <dimension ref="A1:J113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="C119" sqref="C119"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="F90" sqref="F90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -7807,12 +7813,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="91" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="87"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="93"/>
       <c r="E1" s="5" t="s">
         <v>163</v>
       </c>
@@ -7835,7 +7841,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="67" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -7849,7 +7855,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="74"/>
+      <c r="A4" s="68"/>
       <c r="B4" s="4" t="s">
         <v>52</v>
       </c>
@@ -7861,7 +7867,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="67" t="s">
         <v>22</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -7875,7 +7881,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="74"/>
+      <c r="A6" s="68"/>
       <c r="B6" s="4" t="s">
         <v>52</v>
       </c>
@@ -7887,7 +7893,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A7" s="73" t="s">
+      <c r="A7" s="67" t="s">
         <v>23</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -7901,7 +7907,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="74"/>
+      <c r="A8" s="68"/>
       <c r="B8" s="4" t="s">
         <v>52</v>
       </c>
@@ -7921,13 +7927,13 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="85" t="s">
+      <c r="A11" s="91" t="s">
         <v>167</v>
       </c>
-      <c r="B11" s="86"/>
-      <c r="C11" s="86"/>
-      <c r="D11" s="86"/>
-      <c r="E11" s="87"/>
+      <c r="B11" s="92"/>
+      <c r="C11" s="92"/>
+      <c r="D11" s="92"/>
+      <c r="E11" s="93"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
@@ -7948,7 +7954,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A13" s="97" t="s">
+      <c r="A13" s="86